--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
-  <workbookPr/>
+  <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D5EB1F-7C8B-4F8B-A5CB-B4279A925DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9328AB51-33EB-4E10-81C0-543A04C0D9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="day">Sheet1!$A$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>day</t>
   </si>
@@ -175,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +201,12 @@
       <color rgb="FFCCCCCC"/>
       <name val="Consolas"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -528,9 +535,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -539,11 +543,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -561,11 +568,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -576,6 +608,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -908,8 +950,8 @@
   <dimension ref="A1:K550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N516" sqref="N516"/>
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K524" sqref="K524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14300,7 +14342,7 @@
         <v>159</v>
       </c>
       <c r="E507" s="11">
-        <v>82.6</v>
+        <v>84.4</v>
       </c>
       <c r="F507" s="11">
         <v>0</v>
@@ -14309,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="H507" s="11">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -14326,16 +14368,16 @@
         <v>73</v>
       </c>
       <c r="E508" s="11">
-        <v>82.9</v>
+        <v>83.1</v>
       </c>
       <c r="F508" s="11">
-        <v>5.5E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G508" s="11">
         <v>0</v>
       </c>
       <c r="H508" s="11">
-        <v>10.5</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -14352,16 +14394,16 @@
         <v>63</v>
       </c>
       <c r="E509" s="11">
-        <v>81.099999999999994</v>
+        <v>81.7</v>
       </c>
       <c r="F509" s="11">
-        <v>7.0999999999999994E-2</v>
+        <v>0.311</v>
       </c>
       <c r="G509" s="11">
         <v>0</v>
       </c>
       <c r="H509" s="11">
-        <v>9.1</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -14378,10 +14420,10 @@
         <v>55</v>
       </c>
       <c r="E510" s="11">
-        <v>76.099999999999994</v>
+        <v>77.7</v>
       </c>
       <c r="F510" s="11">
-        <v>0.40200000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="G510" s="11">
         <v>0</v>
@@ -14404,7 +14446,7 @@
         <v>54</v>
       </c>
       <c r="E511" s="11">
-        <v>76.599999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="F511" s="11">
         <v>0</v>
@@ -14413,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="H511" s="11">
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -14430,7 +14472,7 @@
         <v>82</v>
       </c>
       <c r="E512" s="11">
-        <v>75.599999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="F512" s="11">
         <v>0</v>
@@ -14439,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H512" s="11">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
@@ -14456,7 +14498,7 @@
         <v>140</v>
       </c>
       <c r="E513" s="11">
-        <v>80.400000000000006</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="F513" s="11">
         <v>0</v>
@@ -14465,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="H513" s="11">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
@@ -14482,16 +14524,16 @@
         <v>162</v>
       </c>
       <c r="E514" s="11">
-        <v>82.2</v>
+        <v>83.7</v>
       </c>
       <c r="F514" s="11">
-        <v>0.17299999999999999</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="G514" s="11">
         <v>0</v>
       </c>
       <c r="H514" s="11">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
@@ -14505,22 +14547,19 @@
         <v>45886</v>
       </c>
       <c r="D515" s="16">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E515" s="11">
-        <v>79.7</v>
+        <v>75</v>
       </c>
       <c r="F515" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>1.6890000000000001</v>
       </c>
       <c r="G515" s="11">
         <v>0</v>
       </c>
       <c r="H515" s="11">
-        <v>6.1</v>
-      </c>
-      <c r="J515" s="11">
-        <v>3.2</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
@@ -14534,22 +14573,19 @@
         <v>45887</v>
       </c>
       <c r="D516" s="16">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E516" s="11">
-        <v>81.099999999999994</v>
+        <v>73</v>
       </c>
       <c r="F516" s="11">
-        <v>0.41</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="G516" s="11">
         <v>0</v>
       </c>
       <c r="H516" s="11">
-        <v>7.9</v>
-      </c>
-      <c r="J516" s="11">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
@@ -14563,22 +14599,19 @@
         <v>45888</v>
       </c>
       <c r="D517" s="16">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E517" s="11">
-        <v>77.7</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F517" s="11">
-        <v>0</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G517" s="11">
         <v>0</v>
       </c>
       <c r="H517" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="J517" s="11">
-        <v>2.38</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
@@ -14592,10 +14625,10 @@
         <v>45889</v>
       </c>
       <c r="D518" s="16">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E518" s="11">
-        <v>77.7</v>
+        <v>71.2</v>
       </c>
       <c r="F518" s="11">
         <v>0</v>
@@ -14604,10 +14637,7 @@
         <v>0</v>
       </c>
       <c r="H518" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="J518" s="11">
-        <v>5.25</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
@@ -14621,10 +14651,10 @@
         <v>45890</v>
       </c>
       <c r="D519" s="16">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E519" s="11">
-        <v>73.400000000000006</v>
+        <v>70.5</v>
       </c>
       <c r="F519" s="11">
         <v>0</v>
@@ -14633,10 +14663,7 @@
         <v>0</v>
       </c>
       <c r="H519" s="11">
-        <v>9.9</v>
-      </c>
-      <c r="J519" s="11">
-        <v>7.22</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
@@ -14650,10 +14677,10 @@
         <v>45891</v>
       </c>
       <c r="D520" s="16">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E520" s="11">
-        <v>73.900000000000006</v>
+        <v>72.7</v>
       </c>
       <c r="F520" s="11">
         <v>0</v>
@@ -14662,10 +14689,7 @@
         <v>0</v>
       </c>
       <c r="H520" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="J520" s="11">
-        <v>4.8499999999999996</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
@@ -14679,22 +14703,19 @@
         <v>45892</v>
       </c>
       <c r="D521" s="16">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="E521" s="11">
-        <v>73.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F521" s="11">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G521" s="11">
         <v>0</v>
       </c>
       <c r="H521" s="11">
-        <v>6.4</v>
-      </c>
-      <c r="J521" s="11">
-        <v>1.44</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
@@ -14708,22 +14729,19 @@
         <v>45893</v>
       </c>
       <c r="D522" s="16">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E522" s="11">
-        <v>73.8</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="F522" s="11">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G522" s="11">
         <v>0</v>
       </c>
       <c r="H522" s="11">
-        <v>7.6</v>
-      </c>
-      <c r="J522" s="11">
-        <v>3.06</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
@@ -14737,22 +14755,22 @@
         <v>45894</v>
       </c>
       <c r="D523" s="16">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E523" s="11">
-        <v>73.2</v>
+        <v>63.1</v>
       </c>
       <c r="F523" s="11">
-        <v>0.06</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G523" s="11">
         <v>0</v>
       </c>
       <c r="H523" s="11">
-        <v>7.7</v>
+        <v>10.1</v>
       </c>
       <c r="J523" s="11">
-        <v>3.72</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
@@ -14766,22 +14784,22 @@
         <v>45895</v>
       </c>
       <c r="D524" s="16">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E524" s="11">
-        <v>72.3</v>
+        <v>63</v>
       </c>
       <c r="F524" s="11">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G524" s="11">
         <v>0</v>
       </c>
       <c r="H524" s="11">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="J524" s="11">
-        <v>3.88</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.25">
@@ -14795,22 +14813,22 @@
         <v>45896</v>
       </c>
       <c r="D525" s="16">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E525" s="11">
-        <v>71.5</v>
+        <v>65.5</v>
       </c>
       <c r="F525" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G525" s="11">
         <v>0</v>
       </c>
       <c r="H525" s="11">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J525" s="11">
-        <v>1.38</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.25">
@@ -14824,22 +14842,22 @@
         <v>45897</v>
       </c>
       <c r="D526" s="16">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E526" s="11">
-        <v>71</v>
+        <v>67.3</v>
       </c>
       <c r="F526" s="11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G526" s="11">
         <v>0</v>
       </c>
       <c r="H526" s="11">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J526" s="11">
-        <v>6.88</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
@@ -14853,10 +14871,10 @@
         <v>45898</v>
       </c>
       <c r="D527" s="16">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E527" s="11">
-        <v>70.5</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="F527" s="11">
         <v>0</v>
@@ -14865,10 +14883,10 @@
         <v>0</v>
       </c>
       <c r="H527" s="11">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="J527" s="11">
-        <v>4.7699999999999996</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
@@ -14882,10 +14900,10 @@
         <v>45899</v>
       </c>
       <c r="D528" s="16">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E528" s="11">
-        <v>72</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="F528" s="11">
         <v>0</v>
@@ -14894,10 +14912,10 @@
         <v>0</v>
       </c>
       <c r="H528" s="11">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="J528" s="11">
-        <v>1.55</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.25">
@@ -14911,10 +14929,10 @@
         <v>45900</v>
       </c>
       <c r="D529" s="16">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E529" s="11">
-        <v>72.5</v>
+        <v>69.8</v>
       </c>
       <c r="F529" s="11">
         <v>0</v>
@@ -14923,10 +14941,10 @@
         <v>0</v>
       </c>
       <c r="H529" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J529" s="11">
-        <v>9.9</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.25">
@@ -14940,10 +14958,10 @@
         <v>45901</v>
       </c>
       <c r="D530" s="16">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E530" s="11">
-        <v>73</v>
+        <v>70.3</v>
       </c>
       <c r="F530" s="11">
         <v>0</v>
@@ -14952,13 +14970,13 @@
         <v>0</v>
       </c>
       <c r="H530" s="11">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="I530" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J530" s="11">
-        <v>7.01</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.25">
@@ -14972,7 +14990,7 @@
         <v>45902</v>
       </c>
       <c r="D531" s="16">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E531" s="11">
         <v>72</v>
@@ -14987,7 +15005,7 @@
         <v>7</v>
       </c>
       <c r="J531" s="11">
-        <v>2.59</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
@@ -15001,13 +15019,13 @@
         <v>45903</v>
       </c>
       <c r="D532" s="16">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E532" s="11">
         <v>71.5</v>
       </c>
       <c r="F532" s="11">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="G532" s="11">
         <v>0</v>
@@ -15016,7 +15034,7 @@
         <v>9</v>
       </c>
       <c r="J532" s="11">
-        <v>2.56</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
@@ -15030,7 +15048,7 @@
         <v>45904</v>
       </c>
       <c r="D533" s="16">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E533" s="11">
         <v>72</v>
@@ -15045,7 +15063,7 @@
         <v>5</v>
       </c>
       <c r="J533" s="11">
-        <v>2.1800000000000002</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
@@ -15059,13 +15077,13 @@
         <v>45905</v>
       </c>
       <c r="D534" s="16">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E534" s="11">
         <v>70.5</v>
       </c>
       <c r="F534" s="11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G534" s="11">
         <v>0</v>
@@ -15074,7 +15092,7 @@
         <v>5</v>
       </c>
       <c r="J534" s="11">
-        <v>5.85</v>
+        <v>8.1300000000000008</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
@@ -15088,7 +15106,7 @@
         <v>45906</v>
       </c>
       <c r="D535" s="16">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E535" s="11">
         <v>71</v>
@@ -15103,7 +15121,7 @@
         <v>4</v>
       </c>
       <c r="J535" s="11">
-        <v>4.49</v>
+        <v>19.579999999999998</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
@@ -15117,7 +15135,7 @@
         <v>45907</v>
       </c>
       <c r="D536" s="16">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E536" s="11">
         <v>71</v>
@@ -15132,7 +15150,7 @@
         <v>7</v>
       </c>
       <c r="J536" s="11">
-        <v>4.17</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
@@ -15146,7 +15164,7 @@
         <v>45908</v>
       </c>
       <c r="D537" s="16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E537" s="11">
         <v>69.5</v>
@@ -15161,7 +15179,7 @@
         <v>8</v>
       </c>
       <c r="J537" s="11">
-        <v>2.95</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
@@ -15175,7 +15193,7 @@
         <v>45909</v>
       </c>
       <c r="D538" s="16">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E538" s="11">
         <v>68</v>
@@ -15190,7 +15208,7 @@
         <v>4</v>
       </c>
       <c r="J538" s="11">
-        <v>3.57</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
@@ -15219,7 +15237,7 @@
         <v>5</v>
       </c>
       <c r="J539" s="11">
-        <v>1.32</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
@@ -15233,7 +15251,7 @@
         <v>45911</v>
       </c>
       <c r="D540" s="16">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E540" s="11">
         <v>69</v>
@@ -15248,7 +15266,7 @@
         <v>6</v>
       </c>
       <c r="J540" s="11">
-        <v>3.06</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
@@ -15262,7 +15280,7 @@
         <v>45912</v>
       </c>
       <c r="D541" s="16">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E541" s="11">
         <v>70</v>
@@ -15277,7 +15295,7 @@
         <v>4</v>
       </c>
       <c r="J541" s="11">
-        <v>5.87</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
@@ -15291,7 +15309,7 @@
         <v>45913</v>
       </c>
       <c r="D542" s="16">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E542" s="11">
         <v>69</v>
@@ -15306,7 +15324,7 @@
         <v>8</v>
       </c>
       <c r="J542" s="11">
-        <v>3.63</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
@@ -15320,7 +15338,7 @@
         <v>45914</v>
       </c>
       <c r="D543" s="16">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E543" s="11">
         <v>70</v>
@@ -15335,7 +15353,7 @@
         <v>4</v>
       </c>
       <c r="J543" s="11">
-        <v>5.45</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
@@ -15349,7 +15367,7 @@
         <v>45915</v>
       </c>
       <c r="D544" s="16">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E544" s="11">
         <v>56.5</v>
@@ -15364,7 +15382,7 @@
         <v>10</v>
       </c>
       <c r="J544" s="11">
-        <v>3.46</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -15378,7 +15396,7 @@
         <v>45916</v>
       </c>
       <c r="D545" s="16">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E545" s="11">
         <v>57</v>
@@ -15393,7 +15411,7 @@
         <v>2</v>
       </c>
       <c r="J545" s="11">
-        <v>7.31</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
@@ -15422,7 +15440,7 @@
         <v>5</v>
       </c>
       <c r="J546" s="11">
-        <v>1.91</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
@@ -15436,7 +15454,7 @@
         <v>45918</v>
       </c>
       <c r="D547" s="16">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E547" s="11">
         <v>59.5</v>
@@ -15451,7 +15469,7 @@
         <v>8</v>
       </c>
       <c r="J547" s="11">
-        <v>6.19</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
@@ -15465,7 +15483,7 @@
         <v>45919</v>
       </c>
       <c r="D548" s="16">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E548" s="11">
         <v>61</v>
@@ -15480,7 +15498,7 @@
         <v>9</v>
       </c>
       <c r="J548" s="11">
-        <v>6.16</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
@@ -15493,10 +15511,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A548">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15507,10 +15525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58:S60"/>
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69:P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18411,7 +18429,7 @@
         <v>107</v>
       </c>
       <c r="P57" s="23">
-        <f t="shared" ref="P57:P94" si="16">ROUND(_xlfn.STDEV.P(D57:O57),2)</f>
+        <f t="shared" ref="P57:P60" si="16">ROUND(_xlfn.STDEV.P(D57:O57),2)</f>
         <v>4.3099999999999996</v>
       </c>
       <c r="R57" s="29">
@@ -18483,31 +18501,34 @@
         <v>1.8048780487804879</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
         <v>140</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B59" s="25">
         <v>45884</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59">
         <v>164</v>
       </c>
-      <c r="O59" s="46">
+      <c r="D59">
+        <v>148</v>
+      </c>
+      <c r="O59" s="23">
         <f t="shared" si="15"/>
-        <v>164</v>
-      </c>
-      <c r="P59" s="46">
+        <v>156</v>
+      </c>
+      <c r="P59" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R59" s="29">
-        <f t="shared" ref="R59:R60" si="17">O59-A59</f>
-        <v>24</v>
+        <f t="shared" ref="R59:R68" si="17">O59-A59</f>
+        <v>16</v>
       </c>
       <c r="S59">
-        <f t="shared" ref="S59:S60" si="18">O59/A59</f>
-        <v>1.1714285714285715</v>
+        <f t="shared" ref="S59:S68" si="18">O59/A59</f>
+        <v>1.1142857142857143</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -18518,344 +18539,1136 @@
         <v>45885</v>
       </c>
       <c r="C60">
+        <v>180</v>
+      </c>
+      <c r="D60">
+        <v>194</v>
+      </c>
+      <c r="E60">
+        <v>218</v>
+      </c>
+      <c r="F60">
+        <v>153</v>
+      </c>
+      <c r="G60">
+        <v>150</v>
+      </c>
+      <c r="H60">
+        <v>172</v>
+      </c>
+      <c r="I60">
+        <v>160</v>
+      </c>
+      <c r="J60">
         <v>177</v>
       </c>
+      <c r="K60">
+        <v>192</v>
+      </c>
+      <c r="L60">
+        <v>185</v>
+      </c>
+      <c r="M60">
+        <v>165</v>
+      </c>
+      <c r="N60">
+        <v>154</v>
+      </c>
       <c r="O60" s="23">
-        <f t="shared" si="15"/>
-        <v>177</v>
+        <f>ROUND(AVERAGE(D60:N60),0)</f>
+        <v>175</v>
       </c>
       <c r="P60" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="R60" s="29">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S60">
         <f t="shared" si="18"/>
-        <v>1.0925925925925926</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="30">
+        <v>1.0802469135802468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42">
+        <v>92</v>
+      </c>
+      <c r="B61" s="43">
         <v>45886</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="44">
         <v>62</v>
       </c>
-      <c r="O61" s="32">
-        <f t="shared" si="15"/>
-        <v>62</v>
-      </c>
-      <c r="P61" s="32">
-        <f t="shared" si="16"/>
-        <v>0</v>
+      <c r="D61" s="44">
+        <v>63</v>
+      </c>
+      <c r="E61" s="44">
+        <v>63</v>
+      </c>
+      <c r="F61" s="44">
+        <v>70</v>
+      </c>
+      <c r="G61" s="44">
+        <v>50</v>
+      </c>
+      <c r="H61" s="44">
+        <v>85</v>
+      </c>
+      <c r="I61" s="44">
+        <v>73</v>
+      </c>
+      <c r="J61" s="44">
+        <v>80</v>
+      </c>
+      <c r="K61" s="44">
+        <v>63</v>
+      </c>
+      <c r="L61" s="44">
+        <v>71</v>
+      </c>
+      <c r="M61" s="44">
+        <v>70</v>
+      </c>
+      <c r="N61" s="44">
+        <v>66</v>
+      </c>
+      <c r="O61" s="45">
+        <f>ROUND(AVERAGE(C61:N61),0)</f>
+        <v>68</v>
+      </c>
+      <c r="P61" s="45">
+        <f>ROUND(_xlfn.STDEV.P(C61:O61),2)</f>
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="R61" s="44">
+        <f t="shared" si="17"/>
+        <v>-24</v>
+      </c>
+      <c r="S61" s="44">
+        <f t="shared" si="18"/>
+        <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>86</v>
+      </c>
       <c r="B62" s="25">
         <v>45887</v>
       </c>
       <c r="C62">
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <v>80</v>
+      </c>
+      <c r="E62">
+        <v>68</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62">
+        <v>54</v>
+      </c>
+      <c r="H62">
+        <v>65</v>
+      </c>
+      <c r="I62">
+        <v>66</v>
+      </c>
+      <c r="J62">
+        <v>69</v>
+      </c>
+      <c r="K62">
         <v>71</v>
       </c>
+      <c r="L62">
+        <v>81</v>
+      </c>
+      <c r="M62">
+        <v>77</v>
+      </c>
+      <c r="N62">
+        <v>68</v>
+      </c>
       <c r="O62" s="23">
-        <f t="shared" si="15"/>
-        <v>71</v>
+        <f>ROUND(AVERAGE(C62:N62),0)</f>
+        <v>68</v>
       </c>
       <c r="P62" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>ROUND(_xlfn.STDEV.P(C62:O62),2)</f>
+        <v>7.65</v>
+      </c>
+      <c r="R62" s="29">
+        <f t="shared" si="17"/>
+        <v>-18</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="18"/>
+        <v>0.79069767441860461</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
       <c r="B63" s="25">
         <v>45888</v>
       </c>
       <c r="C63">
+        <v>65</v>
+      </c>
+      <c r="D63">
+        <v>70</v>
+      </c>
+      <c r="E63">
+        <v>66</v>
+      </c>
+      <c r="F63">
+        <v>73</v>
+      </c>
+      <c r="G63">
+        <v>63</v>
+      </c>
+      <c r="H63">
+        <v>73</v>
+      </c>
+      <c r="I63">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>66</v>
+      </c>
+      <c r="K63">
+        <v>80</v>
+      </c>
+      <c r="L63">
+        <v>76</v>
+      </c>
+      <c r="M63">
+        <v>86</v>
+      </c>
+      <c r="N63">
         <v>79</v>
       </c>
       <c r="O63" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="O63:O93" si="19">ROUND(AVERAGE(C63:N63),0)</f>
+        <v>72</v>
+      </c>
+      <c r="P63" s="23">
+        <f t="shared" ref="P63:P93" si="20">ROUND(_xlfn.STDEV.P(C63:O63),2)</f>
+        <v>6.97</v>
+      </c>
+      <c r="R63" s="29">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="18"/>
+        <v>1.1612903225806452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
         <v>79</v>
       </c>
-      <c r="P63" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="25">
         <v>45889</v>
       </c>
       <c r="C64">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>67</v>
+      </c>
+      <c r="F64">
+        <v>84</v>
+      </c>
+      <c r="G64">
+        <v>57</v>
+      </c>
+      <c r="H64">
+        <v>74</v>
+      </c>
+      <c r="I64">
+        <v>73</v>
+      </c>
+      <c r="J64">
+        <v>80</v>
+      </c>
+      <c r="K64">
+        <v>82</v>
+      </c>
+      <c r="L64">
+        <v>88</v>
+      </c>
+      <c r="M64">
+        <v>83</v>
+      </c>
+      <c r="N64">
+        <v>84</v>
       </c>
       <c r="O64" s="23">
-        <f t="shared" si="15"/>
-        <v>104</v>
+        <f t="shared" si="19"/>
+        <v>75</v>
       </c>
       <c r="P64" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R64" s="29">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="18"/>
+        <v>0.94936708860759489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>128</v>
+      </c>
       <c r="B65" s="25">
         <v>45890</v>
       </c>
       <c r="C65">
-        <v>143</v>
+        <v>115</v>
+      </c>
+      <c r="D65">
+        <v>116</v>
+      </c>
+      <c r="E65">
+        <v>99</v>
+      </c>
+      <c r="F65">
+        <v>121</v>
+      </c>
+      <c r="G65">
+        <v>109</v>
+      </c>
+      <c r="H65">
+        <v>113</v>
+      </c>
+      <c r="I65">
+        <v>112</v>
+      </c>
+      <c r="J65">
+        <v>111</v>
+      </c>
+      <c r="K65">
+        <v>111</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="M65">
+        <v>137</v>
+      </c>
+      <c r="N65">
+        <v>122</v>
       </c>
       <c r="O65" s="23">
-        <f t="shared" si="15"/>
-        <v>143</v>
+        <f t="shared" si="19"/>
+        <v>114</v>
       </c>
       <c r="P65" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>9.26</v>
+      </c>
+      <c r="R65" s="29">
+        <f t="shared" si="17"/>
+        <v>-14</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="18"/>
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>157</v>
+      </c>
       <c r="B66" s="25">
         <v>45891</v>
       </c>
       <c r="C66">
-        <v>188</v>
+        <v>131</v>
+      </c>
+      <c r="D66">
+        <v>142</v>
+      </c>
+      <c r="E66">
+        <v>168</v>
+      </c>
+      <c r="F66">
+        <v>140</v>
+      </c>
+      <c r="G66">
+        <v>161</v>
+      </c>
+      <c r="H66">
+        <v>130</v>
+      </c>
+      <c r="I66">
+        <v>134</v>
+      </c>
+      <c r="J66">
+        <v>126</v>
+      </c>
+      <c r="K66">
+        <v>136</v>
+      </c>
+      <c r="L66">
+        <v>130</v>
+      </c>
+      <c r="M66">
+        <v>138</v>
+      </c>
+      <c r="N66">
+        <v>150</v>
       </c>
       <c r="O66" s="23">
-        <f t="shared" si="15"/>
-        <v>188</v>
+        <f t="shared" si="19"/>
+        <v>141</v>
       </c>
       <c r="P66" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>11.96</v>
+      </c>
+      <c r="R66" s="29">
+        <f t="shared" si="17"/>
+        <v>-16</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="18"/>
+        <v>0.89808917197452232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>216</v>
+      </c>
       <c r="B67" s="25">
         <v>45892</v>
       </c>
       <c r="C67">
+        <v>208</v>
+      </c>
+      <c r="D67">
+        <v>185</v>
+      </c>
+      <c r="E67">
+        <v>180</v>
+      </c>
+      <c r="F67">
+        <v>174</v>
+      </c>
+      <c r="G67">
         <v>188</v>
       </c>
+      <c r="H67">
+        <v>186</v>
+      </c>
+      <c r="I67">
+        <v>185</v>
+      </c>
+      <c r="J67">
+        <v>188</v>
+      </c>
+      <c r="K67">
+        <v>187</v>
+      </c>
+      <c r="L67">
+        <v>194</v>
+      </c>
+      <c r="M67">
+        <v>204</v>
+      </c>
+      <c r="N67">
+        <v>209</v>
+      </c>
       <c r="O67" s="23">
-        <f t="shared" si="15"/>
-        <v>188</v>
+        <f t="shared" si="19"/>
+        <v>191</v>
       </c>
       <c r="P67" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>10.119999999999999</v>
+      </c>
+      <c r="R67" s="29">
+        <f t="shared" si="17"/>
+        <v>-25</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="18"/>
+        <v>0.8842592592592593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>71</v>
+      </c>
       <c r="B68" s="25">
         <v>45893</v>
       </c>
       <c r="C68">
         <v>70</v>
       </c>
+      <c r="D68">
+        <v>88</v>
+      </c>
+      <c r="E68">
+        <v>79</v>
+      </c>
+      <c r="F68">
+        <v>65</v>
+      </c>
+      <c r="G68">
+        <v>60</v>
+      </c>
+      <c r="H68">
+        <v>81</v>
+      </c>
+      <c r="I68">
+        <v>79</v>
+      </c>
+      <c r="J68">
+        <v>77</v>
+      </c>
+      <c r="K68">
+        <v>81</v>
+      </c>
+      <c r="L68">
+        <v>80</v>
+      </c>
+      <c r="M68">
+        <v>78</v>
+      </c>
+      <c r="N68">
+        <v>89</v>
+      </c>
       <c r="O68" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
+        <v>77</v>
+      </c>
+      <c r="P68" s="23">
+        <f t="shared" si="20"/>
+        <v>7.83</v>
+      </c>
+      <c r="R68" s="29">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="18"/>
+        <v>1.0845070422535212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="30">
+        <v>45894</v>
+      </c>
+      <c r="C69" s="31">
+        <v>62</v>
+      </c>
+      <c r="D69" s="31">
+        <v>59</v>
+      </c>
+      <c r="E69" s="31">
+        <v>57</v>
+      </c>
+      <c r="F69" s="31">
+        <v>53</v>
+      </c>
+      <c r="G69" s="31">
+        <v>66</v>
+      </c>
+      <c r="H69" s="31">
+        <v>65</v>
+      </c>
+      <c r="I69" s="31">
         <v>70</v>
       </c>
-      <c r="P68" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="25">
-        <v>45894</v>
-      </c>
-      <c r="C69">
-        <v>80</v>
-      </c>
-      <c r="O69" s="23">
-        <f t="shared" si="15"/>
-        <v>80</v>
-      </c>
-      <c r="P69" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J69" s="31">
+        <v>64</v>
+      </c>
+      <c r="K69" s="31">
+        <v>60</v>
+      </c>
+      <c r="L69" s="31">
+        <v>66</v>
+      </c>
+      <c r="M69" s="31">
+        <f>ROUND(AVERAGE(K69,L69),0)</f>
+        <v>63</v>
+      </c>
+      <c r="N69" s="31">
+        <v>60</v>
+      </c>
+      <c r="O69" s="32">
+        <f t="shared" si="19"/>
+        <v>62</v>
+      </c>
+      <c r="P69" s="32">
+        <f t="shared" si="20"/>
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B70" s="25">
         <v>45895</v>
       </c>
       <c r="C70">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="D70">
+        <v>37</v>
+      </c>
+      <c r="E70">
+        <v>57</v>
+      </c>
+      <c r="F70">
+        <v>58</v>
+      </c>
+      <c r="G70">
+        <v>46</v>
+      </c>
+      <c r="H70">
+        <v>42</v>
+      </c>
+      <c r="I70">
+        <v>46</v>
+      </c>
+      <c r="J70">
+        <v>49</v>
+      </c>
+      <c r="K70">
+        <v>42</v>
+      </c>
+      <c r="L70">
+        <v>64</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:M94" si="21">ROUND(AVERAGE(K70,L70),0)</f>
+        <v>53</v>
+      </c>
+      <c r="N70">
+        <v>63</v>
       </c>
       <c r="O70" s="23">
-        <f t="shared" si="15"/>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>50</v>
       </c>
       <c r="P70" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B71" s="25">
         <v>45896</v>
       </c>
       <c r="C71">
+        <v>72</v>
+      </c>
+      <c r="D71">
+        <v>45</v>
+      </c>
+      <c r="E71">
+        <v>80</v>
+      </c>
+      <c r="F71">
+        <v>75</v>
+      </c>
+      <c r="G71">
+        <v>59</v>
+      </c>
+      <c r="H71">
+        <v>57</v>
+      </c>
+      <c r="I71">
+        <v>50</v>
+      </c>
+      <c r="J71">
+        <v>54</v>
+      </c>
+      <c r="K71">
+        <v>53</v>
+      </c>
+      <c r="L71">
         <v>70</v>
       </c>
+      <c r="M71">
+        <f t="shared" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="N71">
+        <v>73</v>
+      </c>
       <c r="O71" s="23">
-        <f t="shared" si="15"/>
-        <v>70</v>
+        <f t="shared" si="19"/>
+        <v>63</v>
       </c>
       <c r="P71" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" s="25">
         <v>45897</v>
       </c>
       <c r="C72">
-        <v>137</v>
+        <v>81</v>
+      </c>
+      <c r="D72">
+        <v>69</v>
+      </c>
+      <c r="E72">
+        <v>84</v>
+      </c>
+      <c r="F72">
+        <v>89</v>
+      </c>
+      <c r="G72">
+        <v>77</v>
+      </c>
+      <c r="H72">
+        <v>84</v>
+      </c>
+      <c r="I72">
+        <v>62</v>
+      </c>
+      <c r="J72">
+        <v>82</v>
+      </c>
+      <c r="K72">
+        <v>68</v>
+      </c>
+      <c r="L72">
+        <v>80</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="21"/>
+        <v>74</v>
+      </c>
+      <c r="N72">
+        <v>88</v>
       </c>
       <c r="O72" s="23">
-        <f t="shared" si="15"/>
-        <v>137</v>
+        <f t="shared" si="19"/>
+        <v>78</v>
       </c>
       <c r="P72" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B73" s="25">
         <v>45898</v>
       </c>
       <c r="C73">
-        <v>166</v>
+        <v>193</v>
+      </c>
+      <c r="D73">
+        <v>174</v>
+      </c>
+      <c r="E73">
+        <v>165</v>
+      </c>
+      <c r="F73">
+        <v>161</v>
+      </c>
+      <c r="G73">
+        <v>188</v>
+      </c>
+      <c r="H73">
+        <v>203</v>
+      </c>
+      <c r="I73">
+        <v>202</v>
+      </c>
+      <c r="J73">
+        <v>194</v>
+      </c>
+      <c r="K73">
+        <v>203</v>
+      </c>
+      <c r="L73">
+        <v>138</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="21"/>
+        <v>171</v>
+      </c>
+      <c r="N73">
+        <v>144</v>
       </c>
       <c r="O73" s="23">
-        <f t="shared" si="15"/>
-        <v>166</v>
+        <f t="shared" si="19"/>
+        <v>178</v>
       </c>
       <c r="P73" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B74" s="25">
         <v>45899</v>
       </c>
       <c r="C74">
+        <v>183</v>
+      </c>
+      <c r="D74">
+        <v>201</v>
+      </c>
+      <c r="E74">
+        <v>213</v>
+      </c>
+      <c r="F74">
+        <v>219</v>
+      </c>
+      <c r="G74">
+        <v>183</v>
+      </c>
+      <c r="H74">
+        <v>182</v>
+      </c>
+      <c r="I74">
+        <v>184</v>
+      </c>
+      <c r="J74">
+        <v>187</v>
+      </c>
+      <c r="K74">
+        <v>178</v>
+      </c>
+      <c r="L74">
+        <v>182</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+      <c r="N74">
+        <v>168</v>
+      </c>
+      <c r="O74" s="23">
+        <f t="shared" si="19"/>
         <v>188</v>
       </c>
-      <c r="O74" s="23">
-        <f t="shared" si="15"/>
-        <v>188</v>
-      </c>
       <c r="P74" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="25">
         <v>45900</v>
       </c>
       <c r="C75">
-        <v>84</v>
+        <v>49</v>
+      </c>
+      <c r="D75">
+        <v>60</v>
+      </c>
+      <c r="E75">
+        <v>53</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
+      </c>
+      <c r="G75">
+        <v>60</v>
+      </c>
+      <c r="H75">
+        <v>57</v>
+      </c>
+      <c r="I75">
+        <v>58</v>
+      </c>
+      <c r="J75">
+        <v>68</v>
+      </c>
+      <c r="K75">
+        <v>63</v>
+      </c>
+      <c r="L75">
+        <v>71</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="N75">
+        <v>68</v>
       </c>
       <c r="O75" s="23">
-        <f t="shared" si="15"/>
-        <v>84</v>
+        <f t="shared" si="19"/>
+        <v>60</v>
       </c>
       <c r="P75" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" s="25">
         <v>45901</v>
       </c>
       <c r="C76">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D76">
+        <v>23</v>
+      </c>
+      <c r="E76">
+        <v>23</v>
+      </c>
+      <c r="F76">
+        <v>31</v>
+      </c>
+      <c r="G76">
+        <v>22</v>
+      </c>
+      <c r="H76">
+        <v>19</v>
+      </c>
+      <c r="I76">
+        <v>16</v>
+      </c>
+      <c r="J76">
+        <v>17</v>
+      </c>
+      <c r="K76">
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <v>72</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="21"/>
+        <v>46</v>
+      </c>
+      <c r="N76">
+        <v>66</v>
       </c>
       <c r="O76" s="23">
-        <f t="shared" si="15"/>
-        <v>36</v>
+        <f t="shared" si="19"/>
+        <v>33</v>
       </c>
       <c r="P76" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B77" s="25">
         <v>45902</v>
       </c>
       <c r="C77">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="D77">
+        <v>44</v>
+      </c>
+      <c r="E77">
+        <v>36</v>
+      </c>
+      <c r="F77">
+        <v>43</v>
+      </c>
+      <c r="G77">
+        <v>65</v>
+      </c>
+      <c r="H77">
+        <v>66</v>
+      </c>
+      <c r="I77">
+        <v>58</v>
+      </c>
+      <c r="J77">
+        <v>69</v>
+      </c>
+      <c r="K77">
+        <v>62</v>
+      </c>
+      <c r="L77">
+        <v>73</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="N77">
+        <v>70</v>
       </c>
       <c r="O77" s="23">
-        <f t="shared" si="15"/>
-        <v>61</v>
+        <f t="shared" si="19"/>
+        <v>60</v>
       </c>
       <c r="P77" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" s="25">
         <v>45903</v>
       </c>
       <c r="C78">
-        <v>53</v>
+        <v>81</v>
+      </c>
+      <c r="D78">
+        <v>65</v>
+      </c>
+      <c r="E78">
+        <v>75</v>
+      </c>
+      <c r="F78">
+        <v>72</v>
+      </c>
+      <c r="G78">
+        <v>73</v>
+      </c>
+      <c r="H78">
+        <v>71</v>
+      </c>
+      <c r="I78">
+        <v>71</v>
+      </c>
+      <c r="J78">
+        <v>78</v>
+      </c>
+      <c r="K78">
+        <v>56</v>
+      </c>
+      <c r="L78">
+        <v>75</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="N78">
+        <v>77</v>
       </c>
       <c r="O78" s="23">
-        <f t="shared" si="15"/>
-        <v>53</v>
+        <f t="shared" si="19"/>
+        <v>72</v>
       </c>
       <c r="P78" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B79" s="25">
         <v>45904</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <v>83</v>
+      </c>
+      <c r="E79">
+        <v>80</v>
+      </c>
+      <c r="F79">
+        <v>74</v>
+      </c>
+      <c r="G79">
+        <v>80</v>
+      </c>
+      <c r="H79">
+        <v>79</v>
+      </c>
+      <c r="I79">
+        <v>79</v>
+      </c>
+      <c r="J79">
+        <v>74</v>
+      </c>
+      <c r="K79">
+        <v>76</v>
+      </c>
+      <c r="L79">
+        <v>89</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+      <c r="N79">
+        <v>95</v>
       </c>
       <c r="O79" s="23">
-        <f t="shared" si="15"/>
-        <v>78</v>
+        <f t="shared" si="19"/>
+        <v>81</v>
       </c>
       <c r="P79" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B80" s="25">
         <v>45905</v>
       </c>
       <c r="C80">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="D80">
+        <v>117</v>
+      </c>
+      <c r="E80">
+        <v>122</v>
+      </c>
+      <c r="F80">
+        <v>130</v>
+      </c>
+      <c r="G80">
+        <v>135</v>
+      </c>
+      <c r="H80">
+        <v>131</v>
+      </c>
+      <c r="I80">
+        <v>131</v>
+      </c>
+      <c r="J80">
+        <v>146</v>
+      </c>
+      <c r="K80">
+        <v>136</v>
+      </c>
+      <c r="L80">
+        <v>117</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="21"/>
+        <v>127</v>
+      </c>
+      <c r="N80">
+        <v>117</v>
       </c>
       <c r="O80" s="23">
-        <f t="shared" si="15"/>
-        <v>140</v>
+        <f t="shared" si="19"/>
+        <v>128</v>
       </c>
       <c r="P80" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>8.1300000000000008</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
@@ -18863,15 +19676,49 @@
         <v>45906</v>
       </c>
       <c r="C81">
-        <v>199</v>
+        <v>208</v>
+      </c>
+      <c r="D81">
+        <v>214</v>
+      </c>
+      <c r="E81">
+        <v>206</v>
+      </c>
+      <c r="F81">
+        <v>222</v>
+      </c>
+      <c r="G81">
+        <v>200</v>
+      </c>
+      <c r="H81">
+        <v>207</v>
+      </c>
+      <c r="I81">
+        <v>203</v>
+      </c>
+      <c r="J81">
+        <v>212</v>
+      </c>
+      <c r="K81">
+        <v>198</v>
+      </c>
+      <c r="L81">
+        <v>167</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="21"/>
+        <v>183</v>
+      </c>
+      <c r="N81">
+        <v>148</v>
       </c>
       <c r="O81" s="23">
-        <f t="shared" si="15"/>
-        <v>199</v>
+        <f t="shared" si="19"/>
+        <v>197</v>
       </c>
       <c r="P81" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>19.579999999999998</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -18879,15 +19726,49 @@
         <v>45907</v>
       </c>
       <c r="C82">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="D82">
+        <v>61</v>
+      </c>
+      <c r="E82">
+        <v>51</v>
+      </c>
+      <c r="F82">
+        <v>49</v>
+      </c>
+      <c r="G82">
+        <v>67</v>
+      </c>
+      <c r="H82">
+        <v>65</v>
+      </c>
+      <c r="I82">
+        <v>56</v>
+      </c>
+      <c r="J82">
+        <v>84</v>
+      </c>
+      <c r="K82">
+        <v>63</v>
+      </c>
+      <c r="L82">
+        <v>71</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="N82">
+        <v>65</v>
       </c>
       <c r="O82" s="23">
-        <f t="shared" si="15"/>
-        <v>70</v>
+        <f t="shared" si="19"/>
+        <v>64</v>
       </c>
       <c r="P82" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>8.77</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -18895,15 +19776,49 @@
         <v>45908</v>
       </c>
       <c r="C83">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="D83">
+        <v>76</v>
+      </c>
+      <c r="E83">
+        <v>85</v>
+      </c>
+      <c r="F83">
+        <v>85</v>
+      </c>
+      <c r="G83">
+        <v>74</v>
+      </c>
+      <c r="H83">
+        <v>66</v>
+      </c>
+      <c r="I83">
+        <v>66</v>
+      </c>
+      <c r="J83">
+        <v>70</v>
+      </c>
+      <c r="K83">
+        <v>79</v>
+      </c>
+      <c r="L83">
+        <v>72</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="N83">
+        <v>64</v>
       </c>
       <c r="O83" s="23">
-        <f t="shared" si="15"/>
-        <v>75</v>
+        <f t="shared" si="19"/>
+        <v>74</v>
       </c>
       <c r="P83" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6.36</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -18911,15 +19826,49 @@
         <v>45909</v>
       </c>
       <c r="C84">
+        <v>78</v>
+      </c>
+      <c r="D84">
         <v>85</v>
       </c>
+      <c r="E84">
+        <v>84</v>
+      </c>
+      <c r="F84">
+        <v>93</v>
+      </c>
+      <c r="G84">
+        <v>69</v>
+      </c>
+      <c r="H84">
+        <v>83</v>
+      </c>
+      <c r="I84">
+        <v>78</v>
+      </c>
+      <c r="J84">
+        <v>79</v>
+      </c>
+      <c r="K84">
+        <v>66</v>
+      </c>
+      <c r="L84">
+        <v>80</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="21"/>
+        <v>73</v>
+      </c>
+      <c r="N84">
+        <v>71</v>
+      </c>
       <c r="O84" s="23">
-        <f t="shared" si="15"/>
-        <v>85</v>
+        <f t="shared" si="19"/>
+        <v>78</v>
       </c>
       <c r="P84" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>7.01</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -18927,15 +19876,49 @@
         <v>45910</v>
       </c>
       <c r="C85">
+        <v>76</v>
+      </c>
+      <c r="D85">
+        <v>76</v>
+      </c>
+      <c r="E85">
+        <v>80</v>
+      </c>
+      <c r="F85">
         <v>78</v>
       </c>
+      <c r="G85">
+        <v>75</v>
+      </c>
+      <c r="H85">
+        <v>77</v>
+      </c>
+      <c r="I85">
+        <v>74</v>
+      </c>
+      <c r="J85">
+        <v>73</v>
+      </c>
+      <c r="K85">
+        <v>73</v>
+      </c>
+      <c r="L85">
+        <v>80</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="21"/>
+        <v>77</v>
+      </c>
+      <c r="N85">
+        <v>77</v>
+      </c>
       <c r="O85" s="23">
-        <f t="shared" si="15"/>
-        <v>78</v>
+        <f t="shared" si="19"/>
+        <v>76</v>
       </c>
       <c r="P85" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2.16</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -18943,15 +19926,49 @@
         <v>45911</v>
       </c>
       <c r="C86">
+        <v>70</v>
+      </c>
+      <c r="D86">
+        <v>55</v>
+      </c>
+      <c r="E86">
+        <v>54</v>
+      </c>
+      <c r="F86">
         <v>66</v>
       </c>
+      <c r="G86">
+        <v>71</v>
+      </c>
+      <c r="H86">
+        <v>66</v>
+      </c>
+      <c r="I86">
+        <v>68</v>
+      </c>
+      <c r="J86">
+        <v>61</v>
+      </c>
+      <c r="K86">
+        <v>62</v>
+      </c>
+      <c r="L86">
+        <v>87</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="N86">
+        <v>96</v>
+      </c>
       <c r="O86" s="23">
-        <f t="shared" si="15"/>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>69</v>
       </c>
       <c r="P86" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>11.25</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
@@ -18959,15 +19976,49 @@
         <v>45912</v>
       </c>
       <c r="C87">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D87">
+        <v>117</v>
+      </c>
+      <c r="E87">
+        <v>144</v>
+      </c>
+      <c r="F87">
+        <v>177</v>
+      </c>
+      <c r="G87">
+        <v>131</v>
+      </c>
+      <c r="H87">
+        <v>134</v>
+      </c>
+      <c r="I87">
+        <v>131</v>
+      </c>
+      <c r="J87">
+        <v>141</v>
+      </c>
+      <c r="K87">
+        <v>128</v>
+      </c>
+      <c r="L87">
+        <v>105</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="21"/>
+        <v>117</v>
+      </c>
+      <c r="N87">
+        <v>103</v>
       </c>
       <c r="O87" s="23">
-        <f t="shared" si="15"/>
-        <v>140</v>
+        <f t="shared" si="19"/>
+        <v>130</v>
       </c>
       <c r="P87" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>18.11</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -18975,15 +20026,49 @@
         <v>45913</v>
       </c>
       <c r="C88">
+        <v>181</v>
+      </c>
+      <c r="D88">
         <v>190</v>
       </c>
+      <c r="E88">
+        <v>204</v>
+      </c>
+      <c r="F88">
+        <v>205</v>
+      </c>
+      <c r="G88">
+        <v>189</v>
+      </c>
+      <c r="H88">
+        <v>186</v>
+      </c>
+      <c r="I88">
+        <v>187</v>
+      </c>
+      <c r="J88">
+        <v>191</v>
+      </c>
+      <c r="K88">
+        <v>184</v>
+      </c>
+      <c r="L88">
+        <v>186</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="21"/>
+        <v>185</v>
+      </c>
+      <c r="N88">
+        <v>176</v>
+      </c>
       <c r="O88" s="23">
-        <f t="shared" si="15"/>
-        <v>190</v>
+        <f t="shared" si="19"/>
+        <v>189</v>
       </c>
       <c r="P88" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>7.75</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
@@ -18991,15 +20076,49 @@
         <v>45914</v>
       </c>
       <c r="C89">
+        <v>69</v>
+      </c>
+      <c r="D89">
+        <v>81</v>
+      </c>
+      <c r="E89">
+        <v>57</v>
+      </c>
+      <c r="F89">
+        <v>50</v>
+      </c>
+      <c r="G89">
+        <v>53</v>
+      </c>
+      <c r="H89">
         <v>54</v>
       </c>
+      <c r="I89">
+        <v>61</v>
+      </c>
+      <c r="J89">
+        <v>58</v>
+      </c>
+      <c r="K89">
+        <v>63</v>
+      </c>
+      <c r="L89">
+        <v>80</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="21"/>
+        <v>72</v>
+      </c>
+      <c r="N89">
+        <v>68</v>
+      </c>
       <c r="O89" s="23">
-        <f t="shared" si="15"/>
-        <v>54</v>
+        <f t="shared" si="19"/>
+        <v>64</v>
       </c>
       <c r="P89" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
@@ -19007,15 +20126,49 @@
         <v>45915</v>
       </c>
       <c r="C90">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>43</v>
+      </c>
+      <c r="E90">
+        <v>49</v>
+      </c>
+      <c r="F90">
+        <v>48</v>
+      </c>
+      <c r="G90">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>41</v>
+      </c>
+      <c r="I90">
+        <v>36</v>
+      </c>
+      <c r="J90">
+        <v>31</v>
+      </c>
+      <c r="K90">
+        <v>39</v>
+      </c>
+      <c r="L90">
+        <v>65</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="21"/>
+        <v>52</v>
+      </c>
+      <c r="N90">
+        <v>60</v>
       </c>
       <c r="O90" s="23">
-        <f t="shared" si="15"/>
-        <v>44</v>
+        <f t="shared" si="19"/>
+        <v>46</v>
       </c>
       <c r="P90" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
@@ -19023,15 +20176,49 @@
         <v>45916</v>
       </c>
       <c r="C91">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <v>76</v>
+      </c>
+      <c r="E91">
+        <v>81</v>
+      </c>
+      <c r="F91">
+        <v>111</v>
+      </c>
+      <c r="G91">
+        <v>62</v>
+      </c>
+      <c r="H91">
+        <v>80</v>
+      </c>
+      <c r="I91">
+        <v>94</v>
+      </c>
+      <c r="J91">
+        <v>77</v>
+      </c>
+      <c r="K91">
+        <v>70</v>
+      </c>
+      <c r="L91">
+        <v>86</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="N91">
+        <v>73</v>
       </c>
       <c r="O91" s="23">
-        <f t="shared" si="15"/>
-        <v>91</v>
+        <f t="shared" si="19"/>
+        <v>82</v>
       </c>
       <c r="P91" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>11.93</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
@@ -19039,15 +20226,49 @@
         <v>45917</v>
       </c>
       <c r="C92">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D92">
+        <v>49</v>
+      </c>
+      <c r="E92">
+        <v>51</v>
+      </c>
+      <c r="F92">
+        <v>57</v>
+      </c>
+      <c r="G92">
+        <v>55</v>
+      </c>
+      <c r="H92">
+        <v>55</v>
+      </c>
+      <c r="I92">
+        <v>52</v>
+      </c>
+      <c r="J92">
+        <v>50</v>
+      </c>
+      <c r="K92">
+        <v>55</v>
+      </c>
+      <c r="L92">
+        <v>78</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="N92">
+        <v>75</v>
       </c>
       <c r="O92" s="23">
-        <f t="shared" si="15"/>
-        <v>62</v>
+        <f t="shared" si="19"/>
+        <v>59</v>
       </c>
       <c r="P92" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>8.9</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
@@ -19055,15 +20276,49 @@
         <v>45918</v>
       </c>
       <c r="C93">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D93">
+        <v>72</v>
+      </c>
+      <c r="E93">
+        <v>65</v>
+      </c>
+      <c r="F93">
+        <v>68</v>
+      </c>
+      <c r="G93">
+        <v>91</v>
+      </c>
+      <c r="H93">
+        <v>99</v>
+      </c>
+      <c r="I93">
+        <v>78</v>
+      </c>
+      <c r="J93">
+        <v>98</v>
+      </c>
+      <c r="K93">
+        <v>73</v>
+      </c>
+      <c r="L93">
+        <v>89</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="21"/>
+        <v>81</v>
+      </c>
+      <c r="N93">
+        <v>91</v>
       </c>
       <c r="O93" s="23">
-        <f t="shared" si="15"/>
-        <v>71</v>
+        <f t="shared" si="19"/>
+        <v>81</v>
       </c>
       <c r="P93" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>11.09</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
@@ -19071,15 +20326,49 @@
         <v>45919</v>
       </c>
       <c r="C94">
+        <v>192</v>
+      </c>
+      <c r="D94">
+        <v>177</v>
+      </c>
+      <c r="E94">
+        <v>167</v>
+      </c>
+      <c r="F94">
+        <v>159</v>
+      </c>
+      <c r="G94">
+        <v>186</v>
+      </c>
+      <c r="H94">
+        <v>192</v>
+      </c>
+      <c r="I94">
+        <v>190</v>
+      </c>
+      <c r="J94">
+        <v>192</v>
+      </c>
+      <c r="K94">
+        <v>191</v>
+      </c>
+      <c r="L94">
+        <v>145</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="21"/>
+        <v>168</v>
+      </c>
+      <c r="N94">
+        <v>147</v>
+      </c>
+      <c r="O94" s="23">
+        <f>ROUND(AVERAGE(C94:N94),0)</f>
         <v>176</v>
       </c>
-      <c r="O94" s="23">
-        <f t="shared" si="15"/>
-        <v>176</v>
-      </c>
       <c r="P94" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>ROUND(_xlfn.STDEV.P(C94:O94),2)</f>
+        <v>16.46</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
@@ -19087,26 +20376,48 @@
         <v>40</v>
       </c>
       <c r="C95" s="36">
-        <v>22.83</v>
-      </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="37"/>
+        <v>28.94</v>
+      </c>
+      <c r="D95">
+        <v>23.24</v>
+      </c>
+      <c r="E95" s="36">
+        <v>22.5</v>
+      </c>
+      <c r="F95" s="36">
+        <v>23.45</v>
+      </c>
+      <c r="G95" s="35">
+        <v>30.4</v>
+      </c>
+      <c r="H95">
+        <v>26.68</v>
+      </c>
+      <c r="I95" s="36">
+        <v>26.44</v>
+      </c>
+      <c r="J95" s="36">
+        <v>25.46</v>
+      </c>
+      <c r="K95">
+        <v>33.28</v>
+      </c>
+      <c r="L95" s="36">
+        <v>22.09</v>
+      </c>
+      <c r="M95" s="36">
+        <v>22.99</v>
+      </c>
+      <c r="N95" s="37">
+        <v>21.34</v>
+      </c>
       <c r="O95" s="38">
         <f>ROUND(AVERAGE(C95:N95),2)</f>
-        <v>22.83</v>
+        <v>25.57</v>
       </c>
       <c r="P95" s="38">
-        <f>ROUND(_xlfn.STDEV.P(E95:O95),2)</f>
-        <v>0</v>
+        <f>ROUND(_xlfn.STDEV.P(C95:N95),2)</f>
+        <v>3.56</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
@@ -19114,46 +20425,69 @@
         <v>41</v>
       </c>
       <c r="C96" s="18">
-        <v>25.82</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
+        <v>22.88</v>
+      </c>
+      <c r="D96">
+        <v>26.56</v>
+      </c>
+      <c r="E96" s="18">
+        <v>28.17</v>
+      </c>
+      <c r="F96" s="18">
+        <v>29.52</v>
+      </c>
+      <c r="G96" s="22">
+        <v>23.36</v>
+      </c>
+      <c r="H96">
+        <v>25.22</v>
+      </c>
+      <c r="I96" s="18">
+        <v>25.57</v>
+      </c>
+      <c r="J96" s="18">
+        <v>24.7</v>
+      </c>
+      <c r="K96">
+        <v>23.13</v>
+      </c>
+      <c r="L96" s="18">
+        <v>30.41</v>
+      </c>
+      <c r="M96" s="18">
+        <v>33.93</v>
+      </c>
+      <c r="N96" s="18">
+        <v>33.94</v>
+      </c>
       <c r="O96" s="23">
         <f>ROUND(AVERAGE(C96:N96),2)</f>
-        <v>25.82</v>
+        <v>27.28</v>
       </c>
       <c r="P96" s="23">
-        <f>ROUND(_xlfn.STDEV.P(E96:O96),2)</f>
-        <v>0</v>
-      </c>
+        <f>ROUND(_xlfn.STDEV.P(C96:N96),2)</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C95:N95 M96:N96">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="L95:N95 C95 I95:J95 E95:G95">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+      <formula>$O$95-$P$95</formula>
+      <formula>"$O$58+$P$58"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M96:N96 L95:N95 I95:J95 D96 C95:G95">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95:N95">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
-      <formula>$O$95-$P$95</formula>
-      <formula>"$O$58+$P$58"</formula>
-    </cfRule>
-    <cfRule type="aboveAverage" dxfId="1" priority="3"/>
-    <cfRule type="aboveAverage" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60">
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R68">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -19163,10 +20497,3950 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C95 I95:J95 E95:G95 L95:N95">
+    <cfRule type="aboveAverage" dxfId="5" priority="11"/>
+    <cfRule type="aboveAverage" dxfId="4" priority="12"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="O25" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
+  <dimension ref="A1:S96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>125</v>
+      </c>
+      <c r="B3" s="25">
+        <v>45828</v>
+      </c>
+      <c r="C3" s="18">
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <v>151</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>152</v>
+      </c>
+      <c r="O3" s="23">
+        <f t="shared" ref="O3:O59" si="0">ROUND(AVERAGE(C3:N3),0)</f>
+        <v>152</v>
+      </c>
+      <c r="P3" s="23">
+        <f t="shared" ref="P3:P37" si="1">ROUND(_xlfn.STDEV.P(D3:O3),2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="R3" s="29">
+        <f t="shared" ref="R3:R4" si="2">O3-A3</f>
+        <v>27</v>
+      </c>
+      <c r="S3">
+        <f>O3/A3</f>
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>159</v>
+      </c>
+      <c r="B4" s="25">
+        <v>45829</v>
+      </c>
+      <c r="C4" s="18">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>107</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="P4" s="23">
+        <f t="shared" si="1"/>
+        <v>10.76</v>
+      </c>
+      <c r="R4" s="29">
+        <f t="shared" si="2"/>
+        <v>-45</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S67" si="3">O4/A4</f>
+        <v>0.71698113207547165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>63</v>
+      </c>
+      <c r="B5" s="25">
+        <v>45830</v>
+      </c>
+      <c r="C5" s="18">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>113</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="P5" s="23">
+        <f t="shared" si="1"/>
+        <v>18.21</v>
+      </c>
+      <c r="R5" s="29">
+        <f>O5-A5</f>
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>1.1904761904761905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>56</v>
+      </c>
+      <c r="B6" s="25">
+        <v>45831</v>
+      </c>
+      <c r="C6" s="18">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="O6" s="23">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="P6" s="23">
+        <f t="shared" si="1"/>
+        <v>12.17</v>
+      </c>
+      <c r="R6" s="29">
+        <f t="shared" ref="R6:R68" si="4">O6-A6</f>
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>1.1607142857142858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>71</v>
+      </c>
+      <c r="B7" s="25">
+        <v>45832</v>
+      </c>
+      <c r="C7" s="18">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="O7" s="23">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" si="1"/>
+        <v>6.89</v>
+      </c>
+      <c r="R7" s="29">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>0.88732394366197187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>55</v>
+      </c>
+      <c r="B8" s="25">
+        <v>45833</v>
+      </c>
+      <c r="C8" s="18">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>67</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" si="1"/>
+        <v>3.64</v>
+      </c>
+      <c r="R8" s="29">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>1.0909090909090908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>100</v>
+      </c>
+      <c r="B9" s="25">
+        <v>45834</v>
+      </c>
+      <c r="C9" s="18">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <v>114</v>
+      </c>
+      <c r="E9">
+        <v>135</v>
+      </c>
+      <c r="F9">
+        <v>109</v>
+      </c>
+      <c r="O9" s="23">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="1"/>
+        <v>9.77</v>
+      </c>
+      <c r="R9" s="29">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>144</v>
+      </c>
+      <c r="B10" s="25">
+        <v>45835</v>
+      </c>
+      <c r="C10" s="18">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <v>113</v>
+      </c>
+      <c r="E10">
+        <v>126</v>
+      </c>
+      <c r="F10">
+        <v>146</v>
+      </c>
+      <c r="O10" s="23">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" si="1"/>
+        <v>11.78</v>
+      </c>
+      <c r="R10" s="29">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>0.90277777777777779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>197</v>
+      </c>
+      <c r="B11" s="25">
+        <v>45836</v>
+      </c>
+      <c r="C11" s="18">
+        <v>172</v>
+      </c>
+      <c r="D11">
+        <v>174</v>
+      </c>
+      <c r="E11">
+        <v>173</v>
+      </c>
+      <c r="F11">
+        <v>155</v>
+      </c>
+      <c r="O11" s="23">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="R11" s="29">
+        <f t="shared" si="4"/>
+        <v>-28</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>0.85786802030456855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>52</v>
+      </c>
+      <c r="B12" s="25">
+        <v>45837</v>
+      </c>
+      <c r="C12" s="18">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>72</v>
+      </c>
+      <c r="E12">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="1"/>
+        <v>10.35</v>
+      </c>
+      <c r="R12" s="29">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>1.6538461538461537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>122</v>
+      </c>
+      <c r="B13" s="25">
+        <v>45838</v>
+      </c>
+      <c r="C13" s="18">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <v>66</v>
+      </c>
+      <c r="N13">
+        <v>84</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="1"/>
+        <v>7.37</v>
+      </c>
+      <c r="R13" s="29">
+        <f t="shared" si="4"/>
+        <v>-41</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>0.66393442622950816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>82</v>
+      </c>
+      <c r="B14" s="25">
+        <v>45839</v>
+      </c>
+      <c r="C14" s="18">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>91</v>
+      </c>
+      <c r="K14">
+        <v>69</v>
+      </c>
+      <c r="N14">
+        <v>76</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="1"/>
+        <v>7.82</v>
+      </c>
+      <c r="R14" s="29">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>0.90243902439024393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>69</v>
+      </c>
+      <c r="B15" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C15" s="18">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <v>79</v>
+      </c>
+      <c r="K15">
+        <v>97</v>
+      </c>
+      <c r="N15">
+        <v>90</v>
+      </c>
+      <c r="O15" s="23">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="1"/>
+        <v>6.64</v>
+      </c>
+      <c r="R15" s="29">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>1.2608695652173914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>137</v>
+      </c>
+      <c r="B16" s="25">
+        <v>45841</v>
+      </c>
+      <c r="C16" s="18">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>110</v>
+      </c>
+      <c r="E16">
+        <v>99</v>
+      </c>
+      <c r="F16">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>110</v>
+      </c>
+      <c r="N16">
+        <v>109</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="1"/>
+        <v>6.38</v>
+      </c>
+      <c r="R16" s="29">
+        <f t="shared" si="4"/>
+        <v>-34</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>0.75182481751824815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>0</v>
+      </c>
+      <c r="B17" s="25">
+        <v>45842</v>
+      </c>
+      <c r="C17" s="18">
+        <v>139</v>
+      </c>
+      <c r="D17">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>132</v>
+      </c>
+      <c r="F17">
+        <v>135</v>
+      </c>
+      <c r="K17">
+        <v>99</v>
+      </c>
+      <c r="N17">
+        <v>152</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="1"/>
+        <v>15.71</v>
+      </c>
+      <c r="R17" s="29">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="S17">
+        <f>O17/(A17+1)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>150</v>
+      </c>
+      <c r="B18" s="25">
+        <v>45843</v>
+      </c>
+      <c r="C18" s="18">
+        <v>184</v>
+      </c>
+      <c r="D18">
+        <v>198</v>
+      </c>
+      <c r="E18">
+        <v>199</v>
+      </c>
+      <c r="F18">
+        <v>182</v>
+      </c>
+      <c r="K18">
+        <v>179</v>
+      </c>
+      <c r="N18">
+        <v>176</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+      <c r="R18" s="29">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>44</v>
+      </c>
+      <c r="B19" s="25">
+        <v>45844</v>
+      </c>
+      <c r="C19" s="18">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>81</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>76</v>
+      </c>
+      <c r="H19">
+        <v>92</v>
+      </c>
+      <c r="J19">
+        <v>97</v>
+      </c>
+      <c r="K19">
+        <v>106</v>
+      </c>
+      <c r="L19">
+        <v>93</v>
+      </c>
+      <c r="M19">
+        <v>79</v>
+      </c>
+      <c r="N19">
+        <v>93</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="1"/>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="R19" s="29">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>1.9772727272727273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>52</v>
+      </c>
+      <c r="B20" s="25">
+        <v>45845</v>
+      </c>
+      <c r="C20" s="18">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>87</v>
+      </c>
+      <c r="H20">
+        <v>72</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>57</v>
+      </c>
+      <c r="L20">
+        <v>86</v>
+      </c>
+      <c r="M20">
+        <v>82</v>
+      </c>
+      <c r="N20">
+        <v>58</v>
+      </c>
+      <c r="O20" s="23">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+      <c r="R20" s="29">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>68</v>
+      </c>
+      <c r="B21" s="25">
+        <v>45846</v>
+      </c>
+      <c r="C21" s="18">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>68</v>
+      </c>
+      <c r="K21">
+        <v>52</v>
+      </c>
+      <c r="L21">
+        <v>68</v>
+      </c>
+      <c r="M21">
+        <v>67</v>
+      </c>
+      <c r="N21">
+        <v>58</v>
+      </c>
+      <c r="O21" s="23">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" si="1"/>
+        <v>6.52</v>
+      </c>
+      <c r="R21" s="29">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>64</v>
+      </c>
+      <c r="B22" s="25">
+        <v>45847</v>
+      </c>
+      <c r="C22" s="18">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>72</v>
+      </c>
+      <c r="E22">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>102</v>
+      </c>
+      <c r="H22">
+        <v>95</v>
+      </c>
+      <c r="J22">
+        <v>104</v>
+      </c>
+      <c r="K22">
+        <v>55</v>
+      </c>
+      <c r="L22">
+        <v>78</v>
+      </c>
+      <c r="M22">
+        <v>117</v>
+      </c>
+      <c r="N22">
+        <v>97</v>
+      </c>
+      <c r="O22" s="23">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" si="1"/>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="R22" s="29">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>1.328125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>85</v>
+      </c>
+      <c r="B23" s="25">
+        <v>45848</v>
+      </c>
+      <c r="C23" s="18">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>118</v>
+      </c>
+      <c r="E23">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>159</v>
+      </c>
+      <c r="H23">
+        <v>110</v>
+      </c>
+      <c r="J23">
+        <v>137</v>
+      </c>
+      <c r="K23">
+        <v>110</v>
+      </c>
+      <c r="L23">
+        <v>130</v>
+      </c>
+      <c r="M23">
+        <v>133</v>
+      </c>
+      <c r="N23">
+        <v>122</v>
+      </c>
+      <c r="O23" s="23">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="P23" s="23">
+        <f t="shared" si="1"/>
+        <v>20.82</v>
+      </c>
+      <c r="R23" s="29">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>1.3529411764705883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>146</v>
+      </c>
+      <c r="B24" s="25">
+        <v>45849</v>
+      </c>
+      <c r="C24" s="18">
+        <v>135</v>
+      </c>
+      <c r="D24">
+        <v>195</v>
+      </c>
+      <c r="E24">
+        <v>134</v>
+      </c>
+      <c r="F24">
+        <v>193</v>
+      </c>
+      <c r="G24">
+        <v>204</v>
+      </c>
+      <c r="H24">
+        <v>176</v>
+      </c>
+      <c r="I24">
+        <v>180</v>
+      </c>
+      <c r="J24">
+        <v>219</v>
+      </c>
+      <c r="K24">
+        <v>144</v>
+      </c>
+      <c r="L24">
+        <v>192</v>
+      </c>
+      <c r="M24">
+        <v>128</v>
+      </c>
+      <c r="N24">
+        <v>214</v>
+      </c>
+      <c r="O24" s="23">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="P24" s="23">
+        <f t="shared" si="1"/>
+        <v>28.78</v>
+      </c>
+      <c r="R24" s="29">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>1.2054794520547945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>178</v>
+      </c>
+      <c r="B25" s="25">
+        <v>45850</v>
+      </c>
+      <c r="C25" s="18">
+        <v>164</v>
+      </c>
+      <c r="D25">
+        <v>174</v>
+      </c>
+      <c r="E25">
+        <v>175</v>
+      </c>
+      <c r="F25">
+        <v>158</v>
+      </c>
+      <c r="G25">
+        <v>172</v>
+      </c>
+      <c r="H25">
+        <v>159</v>
+      </c>
+      <c r="I25">
+        <v>169</v>
+      </c>
+      <c r="J25">
+        <v>183</v>
+      </c>
+      <c r="K25">
+        <v>173</v>
+      </c>
+      <c r="L25">
+        <v>182</v>
+      </c>
+      <c r="M25">
+        <v>151</v>
+      </c>
+      <c r="N25">
+        <v>165</v>
+      </c>
+      <c r="O25" s="23">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="P25" s="23">
+        <f t="shared" si="1"/>
+        <v>9.18</v>
+      </c>
+      <c r="R25" s="29">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0.949438202247191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>92</v>
+      </c>
+      <c r="B26" s="25">
+        <v>45851</v>
+      </c>
+      <c r="C26" s="18">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>86</v>
+      </c>
+      <c r="G26">
+        <v>85</v>
+      </c>
+      <c r="H26">
+        <v>79</v>
+      </c>
+      <c r="I26">
+        <v>86</v>
+      </c>
+      <c r="J26">
+        <v>70</v>
+      </c>
+      <c r="K26">
+        <v>79</v>
+      </c>
+      <c r="L26">
+        <v>78</v>
+      </c>
+      <c r="M26">
+        <v>84</v>
+      </c>
+      <c r="N26">
+        <v>84</v>
+      </c>
+      <c r="O26" s="23">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="P26" s="23">
+        <f t="shared" si="1"/>
+        <v>5.58</v>
+      </c>
+      <c r="R26" s="29">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0.90217391304347827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>113</v>
+      </c>
+      <c r="B27" s="25">
+        <v>45852</v>
+      </c>
+      <c r="C27" s="18">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <v>83</v>
+      </c>
+      <c r="F27">
+        <v>74</v>
+      </c>
+      <c r="G27">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>76</v>
+      </c>
+      <c r="J27">
+        <v>83</v>
+      </c>
+      <c r="K27">
+        <v>79</v>
+      </c>
+      <c r="L27">
+        <v>91</v>
+      </c>
+      <c r="M27">
+        <v>76</v>
+      </c>
+      <c r="N27">
+        <v>83</v>
+      </c>
+      <c r="O27" s="23">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="P27" s="23">
+        <f t="shared" si="1"/>
+        <v>5.37</v>
+      </c>
+      <c r="R27" s="29">
+        <f t="shared" si="4"/>
+        <v>-33</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0.70796460176991149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>77</v>
+      </c>
+      <c r="B28" s="25">
+        <v>45853</v>
+      </c>
+      <c r="C28" s="18">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>87</v>
+      </c>
+      <c r="F28">
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <v>86</v>
+      </c>
+      <c r="H28">
+        <v>72</v>
+      </c>
+      <c r="I28">
+        <v>79</v>
+      </c>
+      <c r="J28">
+        <v>84</v>
+      </c>
+      <c r="K28">
+        <v>85</v>
+      </c>
+      <c r="L28">
+        <v>87</v>
+      </c>
+      <c r="M28">
+        <v>79</v>
+      </c>
+      <c r="N28">
+        <v>86</v>
+      </c>
+      <c r="O28" s="23">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="P28" s="23">
+        <f t="shared" si="1"/>
+        <v>4.37</v>
+      </c>
+      <c r="R28" s="29">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>1.0649350649350648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>80</v>
+      </c>
+      <c r="B29" s="25">
+        <v>45854</v>
+      </c>
+      <c r="C29" s="18">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>74</v>
+      </c>
+      <c r="E29">
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>60</v>
+      </c>
+      <c r="G29">
+        <v>66</v>
+      </c>
+      <c r="H29">
+        <v>72</v>
+      </c>
+      <c r="I29">
+        <v>63</v>
+      </c>
+      <c r="J29">
+        <v>70</v>
+      </c>
+      <c r="K29">
+        <v>92</v>
+      </c>
+      <c r="L29">
+        <v>98</v>
+      </c>
+      <c r="M29">
+        <v>93</v>
+      </c>
+      <c r="N29">
+        <v>101</v>
+      </c>
+      <c r="O29" s="23">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="P29" s="23">
+        <f t="shared" si="1"/>
+        <v>13.42</v>
+      </c>
+      <c r="R29" s="29">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>84</v>
+      </c>
+      <c r="B30" s="25">
+        <v>45855</v>
+      </c>
+      <c r="C30" s="18">
+        <v>114</v>
+      </c>
+      <c r="D30">
+        <v>118</v>
+      </c>
+      <c r="E30">
+        <v>114</v>
+      </c>
+      <c r="F30">
+        <v>114</v>
+      </c>
+      <c r="G30">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <v>101</v>
+      </c>
+      <c r="I30">
+        <v>117</v>
+      </c>
+      <c r="J30">
+        <v>112</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>99</v>
+      </c>
+      <c r="M30">
+        <v>107</v>
+      </c>
+      <c r="N30">
+        <v>95</v>
+      </c>
+      <c r="O30" s="23">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="P30" s="23">
+        <f t="shared" si="1"/>
+        <v>7.29</v>
+      </c>
+      <c r="R30" s="29">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>127</v>
+      </c>
+      <c r="B31" s="25">
+        <v>45856</v>
+      </c>
+      <c r="C31" s="18">
+        <v>127</v>
+      </c>
+      <c r="D31">
+        <v>137</v>
+      </c>
+      <c r="E31">
+        <v>135</v>
+      </c>
+      <c r="F31">
+        <v>137</v>
+      </c>
+      <c r="G31">
+        <v>130</v>
+      </c>
+      <c r="H31">
+        <v>133</v>
+      </c>
+      <c r="I31">
+        <v>134</v>
+      </c>
+      <c r="J31">
+        <v>133</v>
+      </c>
+      <c r="K31">
+        <v>148</v>
+      </c>
+      <c r="L31">
+        <v>136</v>
+      </c>
+      <c r="M31">
+        <v>147</v>
+      </c>
+      <c r="N31">
+        <v>143</v>
+      </c>
+      <c r="O31" s="23">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="P31" s="23">
+        <f t="shared" si="1"/>
+        <v>5.39</v>
+      </c>
+      <c r="R31" s="29">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>1.078740157480315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>210</v>
+      </c>
+      <c r="B32" s="25">
+        <v>45857</v>
+      </c>
+      <c r="C32" s="18">
+        <v>172</v>
+      </c>
+      <c r="D32">
+        <v>176</v>
+      </c>
+      <c r="E32">
+        <v>173</v>
+      </c>
+      <c r="F32">
+        <v>175</v>
+      </c>
+      <c r="G32">
+        <v>169</v>
+      </c>
+      <c r="H32">
+        <v>170</v>
+      </c>
+      <c r="I32">
+        <v>167</v>
+      </c>
+      <c r="J32">
+        <v>171</v>
+      </c>
+      <c r="K32">
+        <v>167</v>
+      </c>
+      <c r="L32">
+        <v>164</v>
+      </c>
+      <c r="M32">
+        <v>170</v>
+      </c>
+      <c r="N32">
+        <v>163</v>
+      </c>
+      <c r="O32" s="23">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="P32" s="23">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="R32" s="29">
+        <f t="shared" si="4"/>
+        <v>-40</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>53</v>
+      </c>
+      <c r="B33" s="25">
+        <v>45858</v>
+      </c>
+      <c r="C33" s="18">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>49</v>
+      </c>
+      <c r="E33">
+        <v>48</v>
+      </c>
+      <c r="F33">
+        <v>54</v>
+      </c>
+      <c r="G33">
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <v>51</v>
+      </c>
+      <c r="J33">
+        <v>52</v>
+      </c>
+      <c r="K33">
+        <v>66</v>
+      </c>
+      <c r="L33">
+        <v>61</v>
+      </c>
+      <c r="M33">
+        <v>58</v>
+      </c>
+      <c r="N33">
+        <v>58</v>
+      </c>
+      <c r="O33" s="23">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="P33" s="23">
+        <f t="shared" si="1"/>
+        <v>6.29</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>66</v>
+      </c>
+      <c r="B34" s="25">
+        <v>45859</v>
+      </c>
+      <c r="C34" s="18">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>59</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <v>68</v>
+      </c>
+      <c r="G34">
+        <v>54</v>
+      </c>
+      <c r="H34">
+        <v>62</v>
+      </c>
+      <c r="I34">
+        <v>61</v>
+      </c>
+      <c r="J34">
+        <v>61</v>
+      </c>
+      <c r="K34">
+        <v>77</v>
+      </c>
+      <c r="L34">
+        <v>81</v>
+      </c>
+      <c r="M34">
+        <v>81</v>
+      </c>
+      <c r="N34">
+        <v>81</v>
+      </c>
+      <c r="O34" s="23">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="P34" s="23">
+        <f t="shared" si="1"/>
+        <v>9.41</v>
+      </c>
+      <c r="R34" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="3"/>
+        <v>1.0151515151515151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>73</v>
+      </c>
+      <c r="B35" s="25">
+        <v>45860</v>
+      </c>
+      <c r="C35" s="18">
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <v>96</v>
+      </c>
+      <c r="E35">
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <v>84</v>
+      </c>
+      <c r="G35">
+        <v>92</v>
+      </c>
+      <c r="H35">
+        <v>96</v>
+      </c>
+      <c r="I35">
+        <v>90</v>
+      </c>
+      <c r="J35">
+        <v>86</v>
+      </c>
+      <c r="K35">
+        <v>82</v>
+      </c>
+      <c r="L35">
+        <v>89</v>
+      </c>
+      <c r="M35">
+        <v>88</v>
+      </c>
+      <c r="N35">
+        <v>98</v>
+      </c>
+      <c r="O35" s="23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="P35" s="23">
+        <f t="shared" si="1"/>
+        <v>4.79</v>
+      </c>
+      <c r="R35" s="29">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="3"/>
+        <v>1.2328767123287672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>61</v>
+      </c>
+      <c r="B36" s="25">
+        <v>45861</v>
+      </c>
+      <c r="C36" s="18">
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>85</v>
+      </c>
+      <c r="F36">
+        <v>80</v>
+      </c>
+      <c r="G36">
+        <v>71</v>
+      </c>
+      <c r="H36">
+        <v>77</v>
+      </c>
+      <c r="I36">
+        <v>79</v>
+      </c>
+      <c r="J36">
+        <v>71</v>
+      </c>
+      <c r="K36">
+        <v>76</v>
+      </c>
+      <c r="L36">
+        <v>74</v>
+      </c>
+      <c r="O36" s="23">
+        <f>ROUND(AVERAGE(C36:N36),0)</f>
+        <v>77</v>
+      </c>
+      <c r="P36" s="23">
+        <f t="shared" si="1"/>
+        <v>4.05</v>
+      </c>
+      <c r="R36" s="29">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="3"/>
+        <v>1.2622950819672132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>93</v>
+      </c>
+      <c r="B37" s="25">
+        <v>45862</v>
+      </c>
+      <c r="C37" s="18">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>98</v>
+      </c>
+      <c r="E37">
+        <v>97</v>
+      </c>
+      <c r="F37">
+        <v>96</v>
+      </c>
+      <c r="G37">
+        <v>102</v>
+      </c>
+      <c r="H37">
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <v>83</v>
+      </c>
+      <c r="J37">
+        <v>81</v>
+      </c>
+      <c r="K37">
+        <v>68</v>
+      </c>
+      <c r="L37">
+        <v>85</v>
+      </c>
+      <c r="O37" s="23">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="P37" s="23">
+        <f t="shared" si="1"/>
+        <v>10.32</v>
+      </c>
+      <c r="R37" s="29">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>0.94623655913978499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>122</v>
+      </c>
+      <c r="B38" s="25">
+        <v>45863</v>
+      </c>
+      <c r="C38" s="18">
+        <v>163</v>
+      </c>
+      <c r="D38" s="18">
+        <v>148</v>
+      </c>
+      <c r="E38" s="18">
+        <v>156</v>
+      </c>
+      <c r="F38" s="18">
+        <v>142</v>
+      </c>
+      <c r="G38" s="18">
+        <v>135</v>
+      </c>
+      <c r="H38" s="22">
+        <v>175</v>
+      </c>
+      <c r="I38" s="18">
+        <v>180</v>
+      </c>
+      <c r="J38" s="18">
+        <v>162</v>
+      </c>
+      <c r="K38" s="18">
+        <v>155</v>
+      </c>
+      <c r="L38" s="18">
+        <v>164</v>
+      </c>
+      <c r="M38" s="18"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="23">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="P38" s="23">
+        <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
+        <v>13.12</v>
+      </c>
+      <c r="R38" s="29">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="3"/>
+        <v>1.2950819672131149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>135</v>
+      </c>
+      <c r="B39" s="25">
+        <v>45864</v>
+      </c>
+      <c r="C39" s="18">
+        <v>172</v>
+      </c>
+      <c r="D39" s="18">
+        <v>171</v>
+      </c>
+      <c r="E39" s="18">
+        <v>169</v>
+      </c>
+      <c r="F39" s="18">
+        <v>170</v>
+      </c>
+      <c r="G39" s="18">
+        <v>173</v>
+      </c>
+      <c r="H39" s="22">
+        <v>177</v>
+      </c>
+      <c r="I39" s="18">
+        <v>172</v>
+      </c>
+      <c r="J39" s="18">
+        <v>172</v>
+      </c>
+      <c r="K39" s="18">
+        <v>172</v>
+      </c>
+      <c r="L39" s="18">
+        <v>173</v>
+      </c>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="23">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="P39" s="23">
+        <f t="shared" ref="P39:P60" si="5">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
+        <v>2.02</v>
+      </c>
+      <c r="R39" s="29">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="3"/>
+        <v>1.2740740740740741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40" s="25">
+        <v>45865</v>
+      </c>
+      <c r="C40" s="18">
+        <v>72</v>
+      </c>
+      <c r="D40" s="18">
+        <v>69</v>
+      </c>
+      <c r="E40" s="18">
+        <v>57</v>
+      </c>
+      <c r="F40" s="18">
+        <v>64</v>
+      </c>
+      <c r="G40" s="18">
+        <v>54</v>
+      </c>
+      <c r="H40" s="22">
+        <v>68</v>
+      </c>
+      <c r="I40" s="18">
+        <v>64</v>
+      </c>
+      <c r="J40" s="18">
+        <v>65</v>
+      </c>
+      <c r="K40" s="18">
+        <v>70</v>
+      </c>
+      <c r="L40" s="18">
+        <v>59</v>
+      </c>
+      <c r="M40" s="18"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="23">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" si="5"/>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="R40" s="29">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>2.064516129032258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>70</v>
+      </c>
+      <c r="B41" s="25">
+        <v>45866</v>
+      </c>
+      <c r="C41" s="18">
+        <v>75</v>
+      </c>
+      <c r="D41" s="18">
+        <v>66</v>
+      </c>
+      <c r="E41" s="18">
+        <v>70</v>
+      </c>
+      <c r="F41" s="18">
+        <v>72</v>
+      </c>
+      <c r="G41" s="18">
+        <v>75</v>
+      </c>
+      <c r="H41" s="22">
+        <v>63</v>
+      </c>
+      <c r="I41" s="18">
+        <v>64</v>
+      </c>
+      <c r="J41" s="18">
+        <v>70</v>
+      </c>
+      <c r="K41" s="18">
+        <v>69</v>
+      </c>
+      <c r="L41" s="18">
+        <v>69</v>
+      </c>
+      <c r="M41" s="18"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="23">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="P41" s="23">
+        <f t="shared" si="5"/>
+        <v>3.41</v>
+      </c>
+      <c r="R41" s="29">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>0.98571428571428577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>69</v>
+      </c>
+      <c r="B42" s="25">
+        <v>45867</v>
+      </c>
+      <c r="C42" s="18">
+        <v>66</v>
+      </c>
+      <c r="D42" s="18">
+        <v>74</v>
+      </c>
+      <c r="E42" s="18">
+        <v>74</v>
+      </c>
+      <c r="F42" s="18">
+        <v>78</v>
+      </c>
+      <c r="G42" s="18">
+        <v>72</v>
+      </c>
+      <c r="H42" s="22">
+        <v>70</v>
+      </c>
+      <c r="I42" s="18">
+        <v>66</v>
+      </c>
+      <c r="J42" s="18">
+        <v>72</v>
+      </c>
+      <c r="K42" s="18">
+        <v>85</v>
+      </c>
+      <c r="L42" s="18">
+        <v>75</v>
+      </c>
+      <c r="M42" s="18"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="23">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="P42" s="23">
+        <f t="shared" si="5"/>
+        <v>4.76</v>
+      </c>
+      <c r="R42" s="29">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="3"/>
+        <v>1.0579710144927537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>90</v>
+      </c>
+      <c r="B43" s="25">
+        <v>45868</v>
+      </c>
+      <c r="C43" s="18">
+        <v>68</v>
+      </c>
+      <c r="D43" s="18">
+        <v>58</v>
+      </c>
+      <c r="E43" s="18">
+        <v>69</v>
+      </c>
+      <c r="F43" s="18">
+        <v>62</v>
+      </c>
+      <c r="G43" s="18">
+        <v>70</v>
+      </c>
+      <c r="H43" s="22">
+        <v>58</v>
+      </c>
+      <c r="I43" s="18">
+        <v>60</v>
+      </c>
+      <c r="J43" s="18">
+        <v>60</v>
+      </c>
+      <c r="K43" s="18">
+        <v>64</v>
+      </c>
+      <c r="L43" s="18">
+        <v>66</v>
+      </c>
+      <c r="M43" s="18"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="23">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="P43" s="23">
+        <f t="shared" si="5"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="R43" s="29">
+        <f t="shared" si="4"/>
+        <v>-26</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="3"/>
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>109</v>
+      </c>
+      <c r="B44" s="25">
+        <v>45869</v>
+      </c>
+      <c r="C44" s="18">
+        <v>81</v>
+      </c>
+      <c r="D44" s="18">
+        <v>87</v>
+      </c>
+      <c r="E44" s="18">
+        <v>77</v>
+      </c>
+      <c r="F44" s="18">
+        <v>74</v>
+      </c>
+      <c r="G44" s="18">
+        <v>84</v>
+      </c>
+      <c r="H44" s="22">
+        <v>82</v>
+      </c>
+      <c r="I44" s="18">
+        <v>105</v>
+      </c>
+      <c r="J44" s="18">
+        <v>76</v>
+      </c>
+      <c r="K44" s="18">
+        <v>83</v>
+      </c>
+      <c r="L44" s="18">
+        <v>99</v>
+      </c>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="23">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="P44" s="23">
+        <f t="shared" si="5"/>
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="R44" s="29">
+        <f t="shared" si="4"/>
+        <v>-24</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="3"/>
+        <v>0.77981651376146788</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>191</v>
+      </c>
+      <c r="B45" s="25">
+        <v>45870</v>
+      </c>
+      <c r="C45" s="18">
+        <v>159</v>
+      </c>
+      <c r="D45" s="18">
+        <v>157</v>
+      </c>
+      <c r="E45" s="18">
+        <v>158</v>
+      </c>
+      <c r="F45" s="18">
+        <v>161</v>
+      </c>
+      <c r="G45" s="18">
+        <v>159</v>
+      </c>
+      <c r="H45" s="22">
+        <v>158</v>
+      </c>
+      <c r="I45" s="18">
+        <v>158</v>
+      </c>
+      <c r="J45" s="18">
+        <v>157</v>
+      </c>
+      <c r="K45" s="18">
+        <v>156</v>
+      </c>
+      <c r="L45" s="18">
+        <v>164</v>
+      </c>
+      <c r="M45" s="18"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="23">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="P45" s="23">
+        <f t="shared" si="5"/>
+        <v>2.19</v>
+      </c>
+      <c r="R45" s="29">
+        <f t="shared" si="4"/>
+        <v>-32</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="3"/>
+        <v>0.83246073298429324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>161</v>
+      </c>
+      <c r="B46" s="25">
+        <v>45871</v>
+      </c>
+      <c r="C46" s="18">
+        <v>184</v>
+      </c>
+      <c r="D46" s="18">
+        <v>187</v>
+      </c>
+      <c r="E46" s="18">
+        <v>176</v>
+      </c>
+      <c r="F46" s="18">
+        <v>178</v>
+      </c>
+      <c r="G46" s="18">
+        <v>178</v>
+      </c>
+      <c r="H46" s="22">
+        <v>178</v>
+      </c>
+      <c r="I46" s="18">
+        <v>180</v>
+      </c>
+      <c r="J46" s="18">
+        <v>178</v>
+      </c>
+      <c r="K46" s="18">
+        <v>177</v>
+      </c>
+      <c r="L46" s="18">
+        <v>182</v>
+      </c>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="23">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="P46" s="23">
+        <f t="shared" si="5"/>
+        <v>3.01</v>
+      </c>
+      <c r="R46" s="29">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="3"/>
+        <v>1.1180124223602483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>68</v>
+      </c>
+      <c r="B47" s="25">
+        <v>45872</v>
+      </c>
+      <c r="C47" s="18">
+        <v>60</v>
+      </c>
+      <c r="D47" s="18">
+        <v>59</v>
+      </c>
+      <c r="E47" s="18">
+        <v>62</v>
+      </c>
+      <c r="F47" s="18">
+        <v>62</v>
+      </c>
+      <c r="G47" s="18">
+        <v>62</v>
+      </c>
+      <c r="H47" s="22">
+        <v>56</v>
+      </c>
+      <c r="I47" s="18">
+        <v>52</v>
+      </c>
+      <c r="J47" s="18">
+        <v>53</v>
+      </c>
+      <c r="K47" s="18">
+        <v>63</v>
+      </c>
+      <c r="L47" s="18">
+        <v>65</v>
+      </c>
+      <c r="M47" s="18"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="23">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="P47" s="23">
+        <f t="shared" si="5"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="R47" s="29">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="3"/>
+        <v>0.86764705882352944</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>75</v>
+      </c>
+      <c r="B48" s="25">
+        <v>45873</v>
+      </c>
+      <c r="C48" s="18">
+        <v>66</v>
+      </c>
+      <c r="D48" s="18">
+        <v>75</v>
+      </c>
+      <c r="E48" s="18">
+        <v>77</v>
+      </c>
+      <c r="F48" s="18">
+        <v>74</v>
+      </c>
+      <c r="G48" s="18">
+        <v>76</v>
+      </c>
+      <c r="H48" s="22">
+        <v>75</v>
+      </c>
+      <c r="I48" s="18">
+        <v>68</v>
+      </c>
+      <c r="J48" s="18">
+        <v>71</v>
+      </c>
+      <c r="K48" s="18">
+        <v>75</v>
+      </c>
+      <c r="L48" s="18">
+        <v>75</v>
+      </c>
+      <c r="M48" s="18"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="23">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="P48" s="23">
+        <f t="shared" si="5"/>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="R48" s="29">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="3"/>
+        <v>0.97333333333333338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="25">
+        <v>45874</v>
+      </c>
+      <c r="C49" s="18">
+        <v>95</v>
+      </c>
+      <c r="D49" s="18">
+        <v>92</v>
+      </c>
+      <c r="E49" s="18">
+        <v>91</v>
+      </c>
+      <c r="F49" s="18">
+        <v>91</v>
+      </c>
+      <c r="G49" s="18">
+        <v>89</v>
+      </c>
+      <c r="H49" s="22">
+        <v>89</v>
+      </c>
+      <c r="I49" s="18">
+        <v>94</v>
+      </c>
+      <c r="J49" s="18">
+        <v>92</v>
+      </c>
+      <c r="K49" s="18">
+        <v>91</v>
+      </c>
+      <c r="L49" s="18">
+        <v>81</v>
+      </c>
+      <c r="M49" s="18"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="23">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="P49" s="23">
+        <f t="shared" si="5"/>
+        <v>3.33</v>
+      </c>
+      <c r="R49" s="29">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="3"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>60</v>
+      </c>
+      <c r="B50" s="25">
+        <v>45875</v>
+      </c>
+      <c r="C50" s="18">
+        <v>69</v>
+      </c>
+      <c r="D50" s="18">
+        <v>72</v>
+      </c>
+      <c r="E50" s="18">
+        <v>70</v>
+      </c>
+      <c r="F50" s="18">
+        <v>70</v>
+      </c>
+      <c r="G50" s="18">
+        <v>68</v>
+      </c>
+      <c r="H50" s="22">
+        <v>69</v>
+      </c>
+      <c r="I50" s="18">
+        <v>69</v>
+      </c>
+      <c r="J50" s="18">
+        <v>71</v>
+      </c>
+      <c r="K50" s="18">
+        <v>70</v>
+      </c>
+      <c r="L50" s="18">
+        <v>67</v>
+      </c>
+      <c r="M50" s="18">
+        <v>70</v>
+      </c>
+      <c r="N50" s="19">
+        <v>70</v>
+      </c>
+      <c r="O50" s="23">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="P50" s="23">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="R50" s="29">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="3"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>91</v>
+      </c>
+      <c r="B51" s="25">
+        <v>45876</v>
+      </c>
+      <c r="C51" s="18">
+        <v>104</v>
+      </c>
+      <c r="D51" s="18">
+        <v>125</v>
+      </c>
+      <c r="E51" s="18">
+        <v>106</v>
+      </c>
+      <c r="F51" s="18">
+        <v>114</v>
+      </c>
+      <c r="G51" s="18">
+        <v>105</v>
+      </c>
+      <c r="H51" s="22">
+        <v>104</v>
+      </c>
+      <c r="I51" s="18">
+        <v>102</v>
+      </c>
+      <c r="J51" s="18">
+        <v>103</v>
+      </c>
+      <c r="K51" s="18">
+        <v>110</v>
+      </c>
+      <c r="L51" s="18">
+        <v>101</v>
+      </c>
+      <c r="M51" s="18">
+        <v>118</v>
+      </c>
+      <c r="N51" s="19">
+        <v>107</v>
+      </c>
+      <c r="O51" s="23">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="P51" s="23">
+        <f t="shared" si="5"/>
+        <v>6.86</v>
+      </c>
+      <c r="R51" s="29">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="3"/>
+        <v>1.1868131868131868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>136</v>
+      </c>
+      <c r="B52" s="25">
+        <v>45877</v>
+      </c>
+      <c r="C52" s="18">
+        <v>175</v>
+      </c>
+      <c r="D52" s="18">
+        <v>160</v>
+      </c>
+      <c r="E52" s="18">
+        <v>167</v>
+      </c>
+      <c r="F52" s="18">
+        <v>176</v>
+      </c>
+      <c r="G52" s="18">
+        <v>176</v>
+      </c>
+      <c r="H52" s="22">
+        <v>167</v>
+      </c>
+      <c r="I52" s="18">
+        <v>171</v>
+      </c>
+      <c r="J52" s="18">
+        <v>166</v>
+      </c>
+      <c r="K52" s="18">
+        <v>169</v>
+      </c>
+      <c r="L52" s="18">
+        <v>172</v>
+      </c>
+      <c r="M52" s="18">
+        <v>174</v>
+      </c>
+      <c r="N52" s="19">
+        <v>175</v>
+      </c>
+      <c r="O52" s="23">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="P52" s="23">
+        <f t="shared" si="5"/>
+        <v>4.59</v>
+      </c>
+      <c r="R52" s="29">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="3"/>
+        <v>1.2573529411764706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>159</v>
+      </c>
+      <c r="B53" s="25">
+        <v>45878</v>
+      </c>
+      <c r="C53" s="18">
+        <v>189</v>
+      </c>
+      <c r="D53" s="18">
+        <v>183</v>
+      </c>
+      <c r="E53" s="18">
+        <v>198</v>
+      </c>
+      <c r="F53" s="18">
+        <v>210</v>
+      </c>
+      <c r="G53" s="18">
+        <v>214</v>
+      </c>
+      <c r="H53" s="22">
+        <v>224</v>
+      </c>
+      <c r="I53" s="18">
+        <v>197</v>
+      </c>
+      <c r="J53" s="18">
+        <v>195</v>
+      </c>
+      <c r="K53" s="18">
+        <v>195</v>
+      </c>
+      <c r="L53" s="18">
+        <v>213</v>
+      </c>
+      <c r="M53" s="18">
+        <v>209</v>
+      </c>
+      <c r="N53" s="19">
+        <v>193</v>
+      </c>
+      <c r="O53" s="23">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="P53" s="23">
+        <f t="shared" si="5"/>
+        <v>10.94</v>
+      </c>
+      <c r="R53" s="29">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="3"/>
+        <v>1.270440251572327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>73</v>
+      </c>
+      <c r="B54" s="25">
+        <v>45879</v>
+      </c>
+      <c r="C54" s="18">
+        <v>72</v>
+      </c>
+      <c r="D54" s="18">
+        <v>73</v>
+      </c>
+      <c r="E54" s="18">
+        <v>69</v>
+      </c>
+      <c r="F54" s="18">
+        <v>73</v>
+      </c>
+      <c r="G54" s="18">
+        <v>75</v>
+      </c>
+      <c r="H54" s="22">
+        <v>71</v>
+      </c>
+      <c r="I54" s="18">
+        <v>72</v>
+      </c>
+      <c r="J54" s="18">
+        <v>73</v>
+      </c>
+      <c r="K54" s="18">
+        <v>77</v>
+      </c>
+      <c r="L54" s="18">
+        <v>69</v>
+      </c>
+      <c r="M54" s="18">
+        <v>69</v>
+      </c>
+      <c r="N54" s="19">
+        <v>69</v>
+      </c>
+      <c r="O54" s="23">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="P54" s="23">
+        <f t="shared" si="5"/>
+        <v>2.48</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="3"/>
+        <v>0.98630136986301364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>63</v>
+      </c>
+      <c r="B55" s="25">
+        <v>45880</v>
+      </c>
+      <c r="C55" s="18">
+        <v>85</v>
+      </c>
+      <c r="D55" s="18">
+        <v>81</v>
+      </c>
+      <c r="E55" s="18">
+        <v>83</v>
+      </c>
+      <c r="F55" s="18">
+        <v>90</v>
+      </c>
+      <c r="G55" s="18">
+        <v>88</v>
+      </c>
+      <c r="H55" s="22">
+        <v>86</v>
+      </c>
+      <c r="I55" s="18">
+        <v>84</v>
+      </c>
+      <c r="J55" s="18">
+        <v>83</v>
+      </c>
+      <c r="K55" s="18">
+        <v>91</v>
+      </c>
+      <c r="L55" s="18">
+        <v>81</v>
+      </c>
+      <c r="M55" s="18">
+        <v>88</v>
+      </c>
+      <c r="N55" s="19">
+        <v>89</v>
+      </c>
+      <c r="O55" s="23">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="P55" s="23">
+        <f t="shared" si="5"/>
+        <v>3.29</v>
+      </c>
+      <c r="R55" s="29">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="3"/>
+        <v>1.3650793650793651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="25">
+        <v>45881</v>
+      </c>
+      <c r="C56" s="18">
+        <v>92</v>
+      </c>
+      <c r="D56" s="18">
+        <v>87</v>
+      </c>
+      <c r="E56" s="18">
+        <v>90</v>
+      </c>
+      <c r="F56" s="18">
+        <v>78</v>
+      </c>
+      <c r="G56" s="18">
+        <v>89</v>
+      </c>
+      <c r="H56" s="22">
+        <v>86</v>
+      </c>
+      <c r="I56" s="18">
+        <v>83</v>
+      </c>
+      <c r="J56" s="18">
+        <v>89</v>
+      </c>
+      <c r="K56" s="18">
+        <v>90</v>
+      </c>
+      <c r="L56" s="18">
+        <v>88</v>
+      </c>
+      <c r="M56" s="18">
+        <v>86</v>
+      </c>
+      <c r="N56" s="19">
+        <v>88</v>
+      </c>
+      <c r="O56" s="23">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="P56" s="23">
+        <f t="shared" si="5"/>
+        <v>3.24</v>
+      </c>
+      <c r="R56" s="29">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="3"/>
+        <v>1.5818181818181818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="25">
+        <v>45882</v>
+      </c>
+      <c r="C57" s="26">
+        <v>107</v>
+      </c>
+      <c r="D57" s="20">
+        <v>96</v>
+      </c>
+      <c r="E57" s="20">
+        <v>112</v>
+      </c>
+      <c r="F57" s="20">
+        <v>108</v>
+      </c>
+      <c r="G57" s="20">
+        <v>109</v>
+      </c>
+      <c r="H57" s="24">
+        <v>108</v>
+      </c>
+      <c r="I57" s="20">
+        <v>105</v>
+      </c>
+      <c r="J57" s="20">
+        <v>106</v>
+      </c>
+      <c r="K57" s="20">
+        <v>108</v>
+      </c>
+      <c r="L57" s="20">
+        <v>110</v>
+      </c>
+      <c r="M57" s="20">
+        <v>100</v>
+      </c>
+      <c r="N57" s="27">
+        <v>110</v>
+      </c>
+      <c r="O57" s="23">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="P57" s="23">
+        <f t="shared" si="5"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="R57" s="29">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="3"/>
+        <v>1.9814814814814814</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>82</v>
+      </c>
+      <c r="B58" s="25">
+        <v>45883</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+      <c r="D58">
+        <v>136</v>
+      </c>
+      <c r="E58">
+        <v>152</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>149</v>
+      </c>
+      <c r="H58">
+        <v>156</v>
+      </c>
+      <c r="I58">
+        <v>148</v>
+      </c>
+      <c r="J58">
+        <v>153</v>
+      </c>
+      <c r="K58">
+        <v>147</v>
+      </c>
+      <c r="L58">
+        <v>145</v>
+      </c>
+      <c r="M58">
+        <v>146</v>
+      </c>
+      <c r="N58">
+        <v>144</v>
+      </c>
+      <c r="O58" s="23">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="P58" s="23">
+        <f t="shared" si="5"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="R58" s="29">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="3"/>
+        <v>1.8048780487804879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>140</v>
+      </c>
+      <c r="B59" s="25">
+        <v>45884</v>
+      </c>
+      <c r="C59">
+        <v>164</v>
+      </c>
+      <c r="D59">
+        <v>148</v>
+      </c>
+      <c r="O59" s="23">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="P59" s="23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R59" s="29">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="3"/>
+        <v>1.1142857142857143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>162</v>
+      </c>
+      <c r="B60" s="25">
+        <v>45885</v>
+      </c>
+      <c r="C60">
+        <v>180</v>
+      </c>
+      <c r="D60">
+        <v>150</v>
+      </c>
+      <c r="E60">
+        <v>197</v>
+      </c>
+      <c r="F60">
+        <v>163</v>
+      </c>
+      <c r="G60">
+        <v>150</v>
+      </c>
+      <c r="H60">
+        <v>148</v>
+      </c>
+      <c r="I60">
+        <v>218</v>
+      </c>
+      <c r="J60">
+        <v>202</v>
+      </c>
+      <c r="K60">
+        <v>196</v>
+      </c>
+      <c r="L60">
+        <v>163</v>
+      </c>
+      <c r="M60">
+        <v>152</v>
+      </c>
+      <c r="O60" s="23">
+        <f>ROUND(AVERAGE(C60:N60),0)</f>
+        <v>174</v>
+      </c>
+      <c r="P60" s="23">
+        <f>ROUND(_xlfn.STDEV.P(C60:N60),2)</f>
+        <v>23.97</v>
+      </c>
+      <c r="R60" s="29">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="3"/>
+        <v>1.0740740740740742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42">
+        <v>92</v>
+      </c>
+      <c r="B61" s="43">
+        <v>45886</v>
+      </c>
+      <c r="C61" s="44">
+        <v>56</v>
+      </c>
+      <c r="D61" s="44">
+        <v>72</v>
+      </c>
+      <c r="E61" s="44">
+        <v>68</v>
+      </c>
+      <c r="F61" s="44">
+        <v>78</v>
+      </c>
+      <c r="G61" s="44">
+        <v>50</v>
+      </c>
+      <c r="H61" s="44">
+        <v>64</v>
+      </c>
+      <c r="I61" s="44">
+        <v>61</v>
+      </c>
+      <c r="J61" s="44">
+        <v>59</v>
+      </c>
+      <c r="K61" s="44">
+        <v>61</v>
+      </c>
+      <c r="L61" s="44">
+        <v>63</v>
+      </c>
+      <c r="M61" s="44">
+        <v>71</v>
+      </c>
+      <c r="O61" s="45">
+        <f t="shared" ref="O61:O96" si="6">ROUND(AVERAGE(C61:N61),0)</f>
+        <v>64</v>
+      </c>
+      <c r="P61" s="45">
+        <f t="shared" ref="P61:P96" si="7">ROUND(_xlfn.STDEV.P(C61:N61),2)</f>
+        <v>7.56</v>
+      </c>
+      <c r="R61" s="44">
+        <f t="shared" si="4"/>
+        <v>-28</v>
+      </c>
+      <c r="S61" s="44">
+        <f t="shared" si="3"/>
+        <v>0.69565217391304346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>86</v>
+      </c>
+      <c r="B62" s="25">
+        <v>45887</v>
+      </c>
+      <c r="C62">
+        <v>55</v>
+      </c>
+      <c r="D62">
+        <v>56</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>69</v>
+      </c>
+      <c r="G62">
+        <v>55</v>
+      </c>
+      <c r="H62">
+        <v>87</v>
+      </c>
+      <c r="I62">
+        <v>67</v>
+      </c>
+      <c r="J62">
+        <v>64</v>
+      </c>
+      <c r="K62">
+        <v>72</v>
+      </c>
+      <c r="L62">
+        <v>58</v>
+      </c>
+      <c r="M62">
+        <v>61</v>
+      </c>
+      <c r="O62" s="23">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="P62" s="23">
+        <f t="shared" si="7"/>
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="R62" s="29">
+        <f t="shared" si="4"/>
+        <v>-22</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="3"/>
+        <v>0.7441860465116279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="25">
+        <v>45888</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>57</v>
+      </c>
+      <c r="E63">
+        <v>66</v>
+      </c>
+      <c r="F63">
+        <v>66</v>
+      </c>
+      <c r="G63">
+        <v>63</v>
+      </c>
+      <c r="H63">
+        <v>75</v>
+      </c>
+      <c r="I63">
+        <v>66</v>
+      </c>
+      <c r="J63">
+        <v>61</v>
+      </c>
+      <c r="K63">
+        <v>81</v>
+      </c>
+      <c r="L63">
+        <v>70</v>
+      </c>
+      <c r="M63">
+        <v>74</v>
+      </c>
+      <c r="O63" s="23">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="P63" s="23">
+        <f t="shared" si="7"/>
+        <v>6.72</v>
+      </c>
+      <c r="R63" s="29">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="3"/>
+        <v>1.0806451612903225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>79</v>
+      </c>
+      <c r="B64" s="25">
+        <v>45889</v>
+      </c>
+      <c r="C64">
+        <v>69</v>
+      </c>
+      <c r="D64">
+        <v>75</v>
+      </c>
+      <c r="E64">
+        <v>77</v>
+      </c>
+      <c r="F64">
+        <v>66</v>
+      </c>
+      <c r="G64">
+        <v>55</v>
+      </c>
+      <c r="H64">
+        <v>82</v>
+      </c>
+      <c r="I64">
+        <v>67</v>
+      </c>
+      <c r="J64">
+        <v>72</v>
+      </c>
+      <c r="K64">
+        <v>82</v>
+      </c>
+      <c r="L64">
+        <v>86</v>
+      </c>
+      <c r="M64">
+        <v>83</v>
+      </c>
+      <c r="O64" s="23">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="P64" s="23">
+        <f t="shared" si="7"/>
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="R64" s="29">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="3"/>
+        <v>0.93670886075949367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>128</v>
+      </c>
+      <c r="B65" s="25">
+        <v>45890</v>
+      </c>
+      <c r="C65">
+        <v>114</v>
+      </c>
+      <c r="D65">
+        <v>119</v>
+      </c>
+      <c r="E65">
+        <v>105</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>103</v>
+      </c>
+      <c r="H65">
+        <v>106</v>
+      </c>
+      <c r="I65">
+        <v>98</v>
+      </c>
+      <c r="J65">
+        <v>104</v>
+      </c>
+      <c r="K65">
+        <v>110</v>
+      </c>
+      <c r="L65">
+        <v>94</v>
+      </c>
+      <c r="M65">
+        <v>116</v>
+      </c>
+      <c r="O65" s="23">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="P65" s="23">
+        <f t="shared" si="7"/>
+        <v>7.42</v>
+      </c>
+      <c r="R65" s="29">
+        <f t="shared" si="4"/>
+        <v>-22</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="3"/>
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>157</v>
+      </c>
+      <c r="B66" s="25">
+        <v>45891</v>
+      </c>
+      <c r="C66">
+        <v>127</v>
+      </c>
+      <c r="D66">
+        <v>128</v>
+      </c>
+      <c r="E66">
+        <v>130</v>
+      </c>
+      <c r="F66">
+        <v>138</v>
+      </c>
+      <c r="G66">
+        <v>158</v>
+      </c>
+      <c r="H66">
+        <v>144</v>
+      </c>
+      <c r="I66">
+        <v>174</v>
+      </c>
+      <c r="J66">
+        <v>122</v>
+      </c>
+      <c r="K66">
+        <v>141</v>
+      </c>
+      <c r="L66">
+        <v>142</v>
+      </c>
+      <c r="M66">
+        <v>138</v>
+      </c>
+      <c r="O66" s="23">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="P66" s="23">
+        <f t="shared" si="7"/>
+        <v>14.29</v>
+      </c>
+      <c r="R66" s="29">
+        <f t="shared" si="4"/>
+        <v>-17</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="3"/>
+        <v>0.89171974522292996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>216</v>
+      </c>
+      <c r="B67" s="25">
+        <v>45892</v>
+      </c>
+      <c r="C67">
+        <v>213</v>
+      </c>
+      <c r="D67">
+        <v>201</v>
+      </c>
+      <c r="E67">
+        <v>191</v>
+      </c>
+      <c r="F67">
+        <v>197</v>
+      </c>
+      <c r="G67">
+        <v>190</v>
+      </c>
+      <c r="H67">
+        <v>161</v>
+      </c>
+      <c r="I67">
+        <v>182</v>
+      </c>
+      <c r="J67">
+        <v>213</v>
+      </c>
+      <c r="K67">
+        <v>190</v>
+      </c>
+      <c r="L67">
+        <v>167</v>
+      </c>
+      <c r="M67">
+        <v>175</v>
+      </c>
+      <c r="O67" s="23">
+        <f t="shared" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="P67" s="23">
+        <f t="shared" si="7"/>
+        <v>16.18</v>
+      </c>
+      <c r="R67" s="29">
+        <f t="shared" si="4"/>
+        <v>-27</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>71</v>
+      </c>
+      <c r="B68" s="25">
+        <v>45893</v>
+      </c>
+      <c r="C68">
+        <v>65</v>
+      </c>
+      <c r="D68">
+        <v>72</v>
+      </c>
+      <c r="E68">
+        <v>79</v>
+      </c>
+      <c r="F68">
+        <v>74</v>
+      </c>
+      <c r="G68">
+        <v>58</v>
+      </c>
+      <c r="H68">
+        <v>77</v>
+      </c>
+      <c r="I68">
+        <v>78</v>
+      </c>
+      <c r="J68">
+        <v>61</v>
+      </c>
+      <c r="K68">
+        <v>80</v>
+      </c>
+      <c r="L68">
+        <v>69</v>
+      </c>
+      <c r="M68">
+        <v>65</v>
+      </c>
+      <c r="O68" s="23">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="P68" s="23">
+        <f t="shared" si="7"/>
+        <v>7.29</v>
+      </c>
+      <c r="R68" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S77" si="8">O68/A68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="30">
+        <v>45894</v>
+      </c>
+      <c r="O69" s="32" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P69" s="32" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="25">
+        <v>45895</v>
+      </c>
+      <c r="O70" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P70" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B71" s="25">
+        <v>45896</v>
+      </c>
+      <c r="O71" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P71" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B72" s="25">
+        <v>45897</v>
+      </c>
+      <c r="O72" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P72" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B73" s="25">
+        <v>45898</v>
+      </c>
+      <c r="O73" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P73" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B74" s="25">
+        <v>45899</v>
+      </c>
+      <c r="O74" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P74" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B75" s="25">
+        <v>45900</v>
+      </c>
+      <c r="O75" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P75" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="25">
+        <v>45901</v>
+      </c>
+      <c r="O76" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P76" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="25">
+        <v>45902</v>
+      </c>
+      <c r="O77" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P77" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="25">
+        <v>45903</v>
+      </c>
+      <c r="O78" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P78" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="25">
+        <v>45904</v>
+      </c>
+      <c r="O79" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P79" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B80" s="25">
+        <v>45905</v>
+      </c>
+      <c r="O80" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P80" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="25">
+        <v>45906</v>
+      </c>
+      <c r="O81" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P81" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="25">
+        <v>45907</v>
+      </c>
+      <c r="O82" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P82" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="25">
+        <v>45908</v>
+      </c>
+      <c r="O83" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P83" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="25">
+        <v>45909</v>
+      </c>
+      <c r="O84" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P84" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="25">
+        <v>45910</v>
+      </c>
+      <c r="O85" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P85" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="25">
+        <v>45911</v>
+      </c>
+      <c r="O86" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P86" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="25">
+        <v>45912</v>
+      </c>
+      <c r="O87" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P87" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="25">
+        <v>45913</v>
+      </c>
+      <c r="O88" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P88" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="25">
+        <v>45914</v>
+      </c>
+      <c r="O89" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P89" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="25">
+        <v>45915</v>
+      </c>
+      <c r="O90" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P90" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="25">
+        <v>45916</v>
+      </c>
+      <c r="O91" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P91" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="25">
+        <v>45917</v>
+      </c>
+      <c r="O92" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P92" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="25">
+        <v>45918</v>
+      </c>
+      <c r="O93" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P93" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="25">
+        <v>45919</v>
+      </c>
+      <c r="O94" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P94" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="35"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P95" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="22"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P96" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:N2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L95:N95 C95 I95:J95 E95:G95">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>$O$95-$P$95</formula>
+      <formula>"$O$58+$P$58"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M96:N96 L95:N95 I95:J95 D96 C95:G95">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R68">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95 I95:J95 E95:G95 L95:N95">
+    <cfRule type="aboveAverage" dxfId="1" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A67061-61F6-44B6-8B5D-180449905A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D5823-E2ED-4880-8111-E324FEC2CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>day</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>slid&amp;norm</t>
-  </si>
-  <si>
-    <t>all</t>
   </si>
   <si>
     <t>using weighted is best for weekdays but not weekend</t>
@@ -533,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -621,6 +618,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,17 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1068,8 @@
   <dimension ref="A1:Q603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L594" sqref="L594"/>
+      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E560" sqref="E560:E575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1079,7 @@
     <col min="4" max="4" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -1113,7 +1109,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1146,7 +1142,7 @@
       <c r="H2" s="8">
         <v>10.5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1331,7 +1327,7 @@
       <c r="H9" s="8">
         <v>7.6</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1386,7 +1382,7 @@
       <c r="H11" s="8">
         <v>10.5</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="6"/>
@@ -2301,7 +2297,7 @@
       <c r="H46" s="8">
         <v>8.1</v>
       </c>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="44" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2486,7 +2482,7 @@
       <c r="H53" s="8">
         <v>9.4</v>
       </c>
-      <c r="I53" s="48" t="s">
+      <c r="I53" s="44" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2879,7 +2875,7 @@
       <c r="H68" s="8">
         <v>11.2</v>
       </c>
-      <c r="I68" s="48" t="s">
+      <c r="I68" s="44" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3402,7 +3398,7 @@
       <c r="H88" s="8">
         <v>12.6</v>
       </c>
-      <c r="I88" s="48" t="s">
+      <c r="I88" s="44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3483,7 +3479,7 @@
       <c r="H91" s="8">
         <v>9.6</v>
       </c>
-      <c r="I91" s="48" t="s">
+      <c r="I91" s="44" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3876,7 +3872,7 @@
       <c r="H106" s="8">
         <v>3.1</v>
       </c>
-      <c r="I106" s="48" t="s">
+      <c r="I106" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5439,7 +5435,7 @@
       <c r="H166" s="8">
         <v>5.3</v>
       </c>
-      <c r="I166" s="48" t="s">
+      <c r="I166" s="44" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6482,7 +6478,7 @@
       <c r="H206" s="8">
         <v>12.7</v>
       </c>
-      <c r="I206" s="48" t="s">
+      <c r="I206" s="44" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6537,7 +6533,7 @@
       <c r="H208" s="8">
         <v>11.9</v>
       </c>
-      <c r="I208" s="48" t="s">
+      <c r="I208" s="44" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6982,7 +6978,7 @@
       <c r="H225" s="8">
         <v>19</v>
       </c>
-      <c r="I225" s="48" t="s">
+      <c r="I225" s="44" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7115,7 +7111,7 @@
       <c r="H230" s="8">
         <v>13.9</v>
       </c>
-      <c r="I230" s="48" t="s">
+      <c r="I230" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7274,7 +7270,7 @@
       <c r="H236" s="8">
         <v>13</v>
       </c>
-      <c r="I236" s="48" t="s">
+      <c r="I236" s="44" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7719,7 +7715,7 @@
       <c r="H253" s="8">
         <v>12.3</v>
       </c>
-      <c r="I253" s="48" t="s">
+      <c r="I253" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7748,7 +7744,7 @@
       <c r="H254" s="8">
         <v>13.2</v>
       </c>
-      <c r="I254" s="48" t="s">
+      <c r="I254" s="44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8401,7 +8397,7 @@
       <c r="H279" s="8">
         <v>8.1</v>
       </c>
-      <c r="I279" s="48" t="s">
+      <c r="I279" s="44" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8430,7 +8426,7 @@
       <c r="H280" s="8">
         <v>6.3</v>
       </c>
-      <c r="I280" s="48" t="s">
+      <c r="I280" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8459,7 +8455,7 @@
       <c r="H281" s="8">
         <v>6.7</v>
       </c>
-      <c r="I281" s="48" t="s">
+      <c r="I281" s="44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8592,7 +8588,7 @@
       <c r="H286" s="8">
         <v>14.9</v>
       </c>
-      <c r="I286" s="48" t="s">
+      <c r="I286" s="44" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8621,7 +8617,7 @@
       <c r="H287" s="8">
         <v>13.2</v>
       </c>
-      <c r="I287" s="48" t="s">
+      <c r="I287" s="44" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9118,7 +9114,7 @@
       <c r="H306" s="8">
         <v>11.9</v>
       </c>
-      <c r="I306" s="48" t="s">
+      <c r="I306" s="44" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9641,7 +9637,7 @@
       <c r="H326" s="8">
         <v>7.8</v>
       </c>
-      <c r="I326" s="48" t="s">
+      <c r="I326" s="44" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9774,7 +9770,7 @@
       <c r="H331" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I331" s="48" t="s">
+      <c r="I331" s="44" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9855,7 +9851,7 @@
       <c r="H334" s="8">
         <v>11.6</v>
       </c>
-      <c r="I334" s="48" t="s">
+      <c r="I334" s="44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10170,7 +10166,7 @@
       <c r="H346" s="8">
         <v>11.2</v>
       </c>
-      <c r="I346" s="48" t="s">
+      <c r="I346" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10277,7 +10273,7 @@
       <c r="H350" s="8">
         <v>14.8</v>
       </c>
-      <c r="I350" s="48" t="s">
+      <c r="I350" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10332,7 +10328,7 @@
       <c r="H352" s="8">
         <v>7</v>
       </c>
-      <c r="I352" s="48" t="s">
+      <c r="I352" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10517,7 +10513,7 @@
       <c r="H359" s="8">
         <v>17</v>
       </c>
-      <c r="I359" s="48" t="s">
+      <c r="I359" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10598,7 +10594,7 @@
       <c r="H362" s="8">
         <v>12.7</v>
       </c>
-      <c r="I362" s="48" t="s">
+      <c r="I362" s="44" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10705,7 +10701,7 @@
       <c r="H366" s="8">
         <v>15.3</v>
       </c>
-      <c r="I366" s="48" t="s">
+      <c r="I366" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10890,7 +10886,7 @@
       <c r="H373" s="8">
         <v>14.2</v>
       </c>
-      <c r="I373" s="48" t="s">
+      <c r="I373" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11075,7 +11071,7 @@
       <c r="H380" s="8">
         <v>10.8</v>
       </c>
-      <c r="I380" s="48" t="s">
+      <c r="I380" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11260,7 +11256,7 @@
       <c r="H387" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I387" s="48" t="s">
+      <c r="I387" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11445,7 +11441,7 @@
       <c r="H394" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="I394" s="48" t="s">
+      <c r="I394" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11500,7 +11496,7 @@
       <c r="H396" s="8">
         <v>11.7</v>
       </c>
-      <c r="I396" s="48" t="s">
+      <c r="I396" s="44" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11893,7 +11889,7 @@
       <c r="H411" s="8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I411" s="48" t="s">
+      <c r="I411" s="44" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12052,7 +12048,7 @@
       <c r="H417" s="8">
         <v>8.4</v>
       </c>
-      <c r="I417" s="48" t="s">
+      <c r="I417" s="44" t="s">
         <v>14</v>
       </c>
     </row>
@@ -12445,7 +12441,7 @@
       <c r="H432" s="8">
         <v>10.5</v>
       </c>
-      <c r="I432" s="48" t="s">
+      <c r="I432" s="44" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13004,7 +13000,7 @@
       <c r="H452" s="8">
         <v>7.1</v>
       </c>
-      <c r="I452" s="48" t="s">
+      <c r="I452" s="44" t="s">
         <v>16</v>
       </c>
       <c r="J452"/>
@@ -13119,7 +13115,7 @@
       <c r="H456" s="8">
         <v>8</v>
       </c>
-      <c r="I456" s="48" t="s">
+      <c r="I456" s="44" t="s">
         <v>17</v>
       </c>
       <c r="J456"/>
@@ -13536,7 +13532,7 @@
       <c r="H471" s="9">
         <v>7.2</v>
       </c>
-      <c r="I471" s="48" t="s">
+      <c r="I471" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15074,7 +15070,7 @@
       <c r="H530" s="9">
         <v>4.8</v>
       </c>
-      <c r="I530" s="48" t="s">
+      <c r="I530" s="44" t="s">
         <v>19</v>
       </c>
       <c r="J530" s="42"/>
@@ -15670,7 +15666,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="P552" s="27"/>
-      <c r="Q552" s="50"/>
+      <c r="Q552" s="45"/>
     </row>
     <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" s="6">
@@ -15698,7 +15694,7 @@
         <v>11.5</v>
       </c>
       <c r="P553" s="27"/>
-      <c r="Q553" s="50"/>
+      <c r="Q553" s="45"/>
     </row>
     <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" s="6">
@@ -15726,7 +15722,7 @@
         <v>6.7</v>
       </c>
       <c r="P554" s="27"/>
-      <c r="Q554" s="50"/>
+      <c r="Q554" s="45"/>
     </row>
     <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" s="6">
@@ -15754,7 +15750,7 @@
         <v>7.3</v>
       </c>
       <c r="P555" s="27"/>
-      <c r="Q555" s="50"/>
+      <c r="Q555" s="45"/>
     </row>
     <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" s="6">
@@ -15782,7 +15778,7 @@
         <v>6.5</v>
       </c>
       <c r="P556" s="27"/>
-      <c r="Q556" s="50"/>
+      <c r="Q556" s="45"/>
     </row>
     <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557" s="6">
@@ -15810,7 +15806,7 @@
         <v>6.5</v>
       </c>
       <c r="P557" s="27"/>
-      <c r="Q557" s="50"/>
+      <c r="Q557" s="45"/>
     </row>
     <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" s="6">
@@ -15838,7 +15834,7 @@
         <v>3.3</v>
       </c>
       <c r="P558" s="27"/>
-      <c r="Q558" s="50"/>
+      <c r="Q558" s="45"/>
     </row>
     <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" s="6">
@@ -15868,7 +15864,7 @@
       <c r="L559" s="14"/>
       <c r="N559" s="27"/>
       <c r="P559" s="27"/>
-      <c r="Q559" s="50"/>
+      <c r="Q559" s="45"/>
     </row>
     <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" s="6">
@@ -15897,7 +15893,7 @@
       </c>
       <c r="N560" s="27"/>
       <c r="P560" s="27"/>
-      <c r="Q560" s="50"/>
+      <c r="Q560" s="45"/>
     </row>
     <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561" s="6">
@@ -15924,12 +15920,12 @@
       <c r="H561" s="9">
         <v>6</v>
       </c>
-      <c r="I561" s="48" t="s">
+      <c r="I561" s="44" t="s">
         <v>20</v>
       </c>
       <c r="N561" s="27"/>
       <c r="P561" s="27"/>
-      <c r="Q561" s="50"/>
+      <c r="Q561" s="45"/>
     </row>
     <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562" s="6">
@@ -15958,7 +15954,7 @@
       </c>
       <c r="N562" s="27"/>
       <c r="P562" s="27"/>
-      <c r="Q562" s="50"/>
+      <c r="Q562" s="45"/>
     </row>
     <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563" s="6">
@@ -15974,7 +15970,7 @@
         <v>190</v>
       </c>
       <c r="E563" s="9">
-        <v>76.599999999999994</v>
+        <v>77</v>
       </c>
       <c r="F563" s="9">
         <v>0</v>
@@ -15983,11 +15979,11 @@
         <v>0</v>
       </c>
       <c r="H563" s="9">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="N563" s="27"/>
       <c r="P563" s="27"/>
-      <c r="Q563" s="50"/>
+      <c r="Q563" s="45"/>
     </row>
     <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564" s="6">
@@ -16003,7 +15999,7 @@
         <v>50</v>
       </c>
       <c r="E564" s="9">
-        <v>75</v>
+        <v>74.7</v>
       </c>
       <c r="F564" s="9">
         <v>0</v>
@@ -16012,10 +16008,10 @@
         <v>0</v>
       </c>
       <c r="H564" s="9">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="P564" s="27"/>
-      <c r="Q564" s="50"/>
+      <c r="Q564" s="45"/>
     </row>
     <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565" s="6">
@@ -16031,20 +16027,20 @@
         <v>38</v>
       </c>
       <c r="E565" s="9">
-        <v>71.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="F565" s="9">
-        <v>0.441</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G565" s="9">
         <v>0</v>
       </c>
       <c r="H565" s="9">
-        <v>8.8000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N565" s="27"/>
       <c r="P565" s="27"/>
-      <c r="Q565" s="50"/>
+      <c r="Q565" s="45"/>
     </row>
     <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566" s="6">
@@ -16057,25 +16053,23 @@
         <v>45937</v>
       </c>
       <c r="D566" s="27">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E566" s="9">
-        <v>61.2</v>
+        <v>59.9</v>
       </c>
       <c r="F566" s="9">
-        <v>0.48</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="G566" s="9">
         <v>0</v>
       </c>
       <c r="H566" s="9">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J566">
-        <v>6.49</v>
-      </c>
+        <v>10.3</v>
+      </c>
+      <c r="J566"/>
       <c r="P566" s="27"/>
-      <c r="Q566" s="50"/>
+      <c r="Q566" s="45"/>
     </row>
     <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567" s="6">
@@ -16088,10 +16082,10 @@
         <v>45938</v>
       </c>
       <c r="D567" s="27">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E567" s="9">
-        <v>57.9</v>
+        <v>55.4</v>
       </c>
       <c r="F567" s="9">
         <v>0</v>
@@ -16100,13 +16094,11 @@
         <v>0</v>
       </c>
       <c r="H567" s="9">
-        <v>7.1</v>
-      </c>
-      <c r="J567">
-        <v>6.16</v>
-      </c>
+        <v>7.6</v>
+      </c>
+      <c r="J567"/>
       <c r="P567" s="27"/>
-      <c r="Q567" s="50"/>
+      <c r="Q567" s="45"/>
     </row>
     <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568" s="6">
@@ -16119,25 +16111,24 @@
         <v>45939</v>
       </c>
       <c r="D568" s="27">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E568" s="9">
-        <v>59.5</v>
+        <v>55.2</v>
       </c>
       <c r="F568" s="9">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G568" s="9">
         <v>0</v>
       </c>
       <c r="H568" s="9">
-        <v>7.1</v>
-      </c>
-      <c r="J568">
-        <v>6.36</v>
-      </c>
-      <c r="P568" s="27"/>
-      <c r="Q568" s="50"/>
+        <v>4.8</v>
+      </c>
+      <c r="J568" s="42">
+        <v>10.115</v>
+      </c>
+      <c r="Q568" s="27"/>
     </row>
     <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569" s="6">
@@ -16149,11 +16140,11 @@
       <c r="C569" s="7">
         <v>45940</v>
       </c>
-      <c r="D569">
-        <v>138</v>
+      <c r="D569" s="27">
+        <v>135</v>
       </c>
       <c r="E569" s="9">
-        <v>61.9</v>
+        <v>56.7</v>
       </c>
       <c r="F569" s="9">
         <v>0.43</v>
@@ -16162,14 +16153,12 @@
         <v>0</v>
       </c>
       <c r="H569" s="9">
-        <v>9.1</v>
-      </c>
-      <c r="J569">
-        <v>10.38</v>
-      </c>
-      <c r="N569" s="27"/>
-      <c r="P569" s="27"/>
-      <c r="Q569" s="50"/>
+        <v>5.8</v>
+      </c>
+      <c r="J569" s="42">
+        <v>10.86</v>
+      </c>
+      <c r="Q569" s="27"/>
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570" s="6">
@@ -16181,11 +16170,11 @@
       <c r="C570" s="7">
         <v>45941</v>
       </c>
-      <c r="D570">
-        <v>184</v>
+      <c r="D570" s="27">
+        <v>181</v>
       </c>
       <c r="E570" s="9">
-        <v>59.9</v>
+        <v>60.4</v>
       </c>
       <c r="F570" s="9">
         <v>0</v>
@@ -16194,14 +16183,12 @@
         <v>0</v>
       </c>
       <c r="H570" s="9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J570">
-        <v>7.56</v>
-      </c>
-      <c r="N570" s="27"/>
-      <c r="P570" s="27"/>
-      <c r="Q570" s="50"/>
+        <v>7.2</v>
+      </c>
+      <c r="J570" s="42">
+        <v>9.5650000000000013</v>
+      </c>
+      <c r="Q570" s="27"/>
     </row>
     <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571" s="6">
@@ -16214,10 +16201,10 @@
         <v>45942</v>
       </c>
       <c r="D571" s="27">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E571" s="9">
-        <v>59.4</v>
+        <v>62.1</v>
       </c>
       <c r="F571" s="9">
         <v>0</v>
@@ -16228,11 +16215,10 @@
       <c r="H571" s="9">
         <v>7.9</v>
       </c>
-      <c r="J571">
-        <v>6.8</v>
-      </c>
-      <c r="P571" s="27"/>
-      <c r="Q571" s="50"/>
+      <c r="J571" s="42">
+        <v>5.17</v>
+      </c>
+      <c r="Q571" s="27"/>
     </row>
     <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572" s="6">
@@ -16245,10 +16231,10 @@
         <v>45943</v>
       </c>
       <c r="D572" s="27">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E572" s="9">
-        <v>59.9</v>
+        <v>63.5</v>
       </c>
       <c r="F572" s="9">
         <v>0</v>
@@ -16257,16 +16243,15 @@
         <v>0</v>
       </c>
       <c r="H572" s="9">
-        <v>9.4</v>
-      </c>
-      <c r="I572" s="49" t="s">
+        <v>8.6</v>
+      </c>
+      <c r="I572" t="s">
         <v>21</v>
       </c>
-      <c r="J572">
-        <v>6.86</v>
-      </c>
-      <c r="P572" s="27"/>
-      <c r="Q572" s="50"/>
+      <c r="J572" s="42">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="Q572" s="27"/>
     </row>
     <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573" s="6">
@@ -16279,10 +16264,10 @@
         <v>45944</v>
       </c>
       <c r="D573" s="27">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E573" s="9">
-        <v>50.5</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="F573" s="9">
         <v>0</v>
@@ -16291,13 +16276,12 @@
         <v>0</v>
       </c>
       <c r="H573" s="9">
-        <v>4</v>
-      </c>
-      <c r="J573">
-        <v>12.05</v>
-      </c>
-      <c r="P573" s="27"/>
-      <c r="Q573" s="50"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J573" s="42">
+        <v>10.645</v>
+      </c>
+      <c r="Q573" s="27"/>
     </row>
     <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574" s="6">
@@ -16310,10 +16294,10 @@
         <v>45945</v>
       </c>
       <c r="D574" s="27">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E574" s="9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F574" s="9">
         <v>0.21</v>
@@ -16322,13 +16306,12 @@
         <v>0</v>
       </c>
       <c r="H574" s="9">
-        <v>9</v>
-      </c>
-      <c r="J574">
-        <v>10.69</v>
-      </c>
-      <c r="P574" s="27"/>
-      <c r="Q574" s="50"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J574" s="42">
+        <v>8.0449999999999999</v>
+      </c>
+      <c r="Q574" s="27"/>
     </row>
     <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575" s="6">
@@ -16341,10 +16324,10 @@
         <v>45946</v>
       </c>
       <c r="D575" s="27">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E575" s="9">
-        <v>51.5</v>
+        <v>60.4</v>
       </c>
       <c r="F575" s="9">
         <v>0</v>
@@ -16353,13 +16336,12 @@
         <v>0</v>
       </c>
       <c r="H575" s="9">
-        <v>7</v>
-      </c>
-      <c r="J575">
-        <v>10.24</v>
-      </c>
-      <c r="P575" s="27"/>
-      <c r="Q575" s="50"/>
+        <v>10.4</v>
+      </c>
+      <c r="J575" s="42">
+        <v>10.135</v>
+      </c>
+      <c r="Q575" s="27"/>
     </row>
     <row r="576" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A576" s="6">
@@ -16371,8 +16353,8 @@
       <c r="C576" s="7">
         <v>45947</v>
       </c>
-      <c r="D576">
-        <v>142</v>
+      <c r="D576" s="27">
+        <v>141</v>
       </c>
       <c r="E576" s="9">
         <v>52</v>
@@ -16386,12 +16368,10 @@
       <c r="H576" s="9">
         <v>4</v>
       </c>
-      <c r="J576">
-        <v>5.07</v>
-      </c>
-      <c r="N576" s="27"/>
-      <c r="P576" s="27"/>
-      <c r="Q576" s="50"/>
+      <c r="J576" s="42">
+        <v>15.585000000000001</v>
+      </c>
+      <c r="Q576" s="27"/>
     </row>
     <row r="577" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A577" s="6">
@@ -16403,8 +16383,8 @@
       <c r="C577" s="7">
         <v>45948</v>
       </c>
-      <c r="D577">
-        <v>177</v>
+      <c r="D577" s="27">
+        <v>171</v>
       </c>
       <c r="E577" s="9">
         <v>51.5</v>
@@ -16418,12 +16398,10 @@
       <c r="H577" s="9">
         <v>7</v>
       </c>
-      <c r="J577">
-        <v>5.65</v>
-      </c>
-      <c r="N577" s="27"/>
-      <c r="P577" s="27"/>
-      <c r="Q577" s="50"/>
+      <c r="J577" s="42">
+        <v>11.61</v>
+      </c>
+      <c r="Q577" s="27"/>
     </row>
     <row r="578" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A578" s="6">
@@ -16436,7 +16414,7 @@
         <v>45949</v>
       </c>
       <c r="D578" s="27">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E578" s="9">
         <v>53.5</v>
@@ -16450,11 +16428,10 @@
       <c r="H578" s="9">
         <v>8</v>
       </c>
-      <c r="J578">
-        <v>6.84</v>
-      </c>
-      <c r="P578" s="27"/>
-      <c r="Q578" s="50"/>
+      <c r="J578" s="42">
+        <v>6.5949999999999998</v>
+      </c>
+      <c r="Q578" s="27"/>
     </row>
     <row r="579" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A579" s="6">
@@ -16467,7 +16444,7 @@
         <v>45950</v>
       </c>
       <c r="D579" s="27">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E579" s="9">
         <v>55.5</v>
@@ -16481,14 +16458,13 @@
       <c r="H579" s="9">
         <v>14</v>
       </c>
-      <c r="I579" s="49" t="s">
+      <c r="I579" t="s">
         <v>52</v>
       </c>
-      <c r="J579">
-        <v>14.41</v>
-      </c>
-      <c r="P579" s="27"/>
-      <c r="Q579" s="50"/>
+      <c r="J579" s="42">
+        <v>15.75</v>
+      </c>
+      <c r="Q579" s="27"/>
     </row>
     <row r="580" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A580" s="6">
@@ -16501,7 +16477,7 @@
         <v>45951</v>
       </c>
       <c r="D580" s="27">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E580" s="9">
         <v>55</v>
@@ -16515,11 +16491,10 @@
       <c r="H580" s="9">
         <v>14</v>
       </c>
-      <c r="J580">
-        <v>13.58</v>
-      </c>
-      <c r="P580" s="27"/>
-      <c r="Q580" s="50"/>
+      <c r="J580" s="42">
+        <v>8.61</v>
+      </c>
+      <c r="Q580" s="27"/>
     </row>
     <row r="581" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A581" s="6">
@@ -16532,7 +16507,7 @@
         <v>45952</v>
       </c>
       <c r="D581" s="27">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E581" s="9">
         <v>54</v>
@@ -16546,11 +16521,10 @@
       <c r="H581" s="9">
         <v>6</v>
       </c>
-      <c r="J581">
-        <v>6.38</v>
-      </c>
-      <c r="P581" s="27"/>
-      <c r="Q581" s="50"/>
+      <c r="J581" s="42">
+        <v>7.0049999999999999</v>
+      </c>
+      <c r="Q581" s="27"/>
     </row>
     <row r="582" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A582" s="6">
@@ -16563,7 +16537,7 @@
         <v>45953</v>
       </c>
       <c r="D582" s="27">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E582" s="9">
         <v>54.5</v>
@@ -16577,11 +16551,10 @@
       <c r="H582" s="9">
         <v>5</v>
       </c>
-      <c r="J582">
-        <v>11.52</v>
-      </c>
-      <c r="P582" s="27"/>
-      <c r="Q582" s="50"/>
+      <c r="J582" s="42">
+        <v>9.4649999999999999</v>
+      </c>
+      <c r="Q582" s="27"/>
     </row>
     <row r="583" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A583" s="6">
@@ -16593,8 +16566,8 @@
       <c r="C583" s="7">
         <v>45954</v>
       </c>
-      <c r="D583">
-        <v>143</v>
+      <c r="D583" s="27">
+        <v>138</v>
       </c>
       <c r="E583" s="9">
         <v>55</v>
@@ -16608,12 +16581,10 @@
       <c r="H583" s="9">
         <v>8</v>
       </c>
-      <c r="J583">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="N583" s="27"/>
-      <c r="P583" s="27"/>
-      <c r="Q583" s="50"/>
+      <c r="J583" s="42">
+        <v>15.59</v>
+      </c>
+      <c r="Q583" s="27"/>
     </row>
     <row r="584" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A584" s="6">
@@ -16625,8 +16596,8 @@
       <c r="C584" s="7">
         <v>45955</v>
       </c>
-      <c r="D584">
-        <v>168</v>
+      <c r="D584" s="27">
+        <v>165</v>
       </c>
       <c r="E584" s="9">
         <v>56</v>
@@ -16640,12 +16611,10 @@
       <c r="H584" s="9">
         <v>14</v>
       </c>
-      <c r="J584">
-        <v>14.16</v>
-      </c>
-      <c r="N584" s="27"/>
-      <c r="P584" s="27"/>
-      <c r="Q584" s="50"/>
+      <c r="J584" s="42">
+        <v>15.625</v>
+      </c>
+      <c r="Q584" s="27"/>
     </row>
     <row r="585" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A585" s="6">
@@ -16658,7 +16627,7 @@
         <v>45956</v>
       </c>
       <c r="D585" s="27">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E585" s="9">
         <v>52.5</v>
@@ -16672,11 +16641,10 @@
       <c r="H585" s="9">
         <v>15</v>
       </c>
-      <c r="J585">
-        <v>11.51</v>
-      </c>
-      <c r="P585" s="27"/>
-      <c r="Q585" s="50"/>
+      <c r="J585" s="42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q585" s="27"/>
     </row>
     <row r="586" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A586" s="6">
@@ -16689,7 +16657,7 @@
         <v>45957</v>
       </c>
       <c r="D586" s="27">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E586" s="9">
         <v>51.5</v>
@@ -16703,11 +16671,10 @@
       <c r="H586" s="9">
         <v>8</v>
       </c>
-      <c r="J586">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="P586" s="27"/>
-      <c r="Q586" s="50"/>
+      <c r="J586" s="42">
+        <v>7.0849999999999991</v>
+      </c>
+      <c r="Q586" s="27"/>
     </row>
     <row r="587" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A587" s="6">
@@ -16720,7 +16687,7 @@
         <v>45958</v>
       </c>
       <c r="D587" s="27">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E587" s="9">
         <v>49</v>
@@ -16734,11 +16701,10 @@
       <c r="H587" s="9">
         <v>7</v>
       </c>
-      <c r="J587">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="P587" s="27"/>
-      <c r="Q587" s="50"/>
+      <c r="J587" s="42">
+        <v>6.3049999999999997</v>
+      </c>
+      <c r="Q587" s="27"/>
     </row>
     <row r="588" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A588" s="6">
@@ -16751,7 +16717,7 @@
         <v>45959</v>
       </c>
       <c r="D588" s="27">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E588" s="9">
         <v>52.5</v>
@@ -16765,11 +16731,10 @@
       <c r="H588" s="9">
         <v>12</v>
       </c>
-      <c r="J588">
-        <v>12.59</v>
-      </c>
-      <c r="P588" s="27"/>
-      <c r="Q588" s="50"/>
+      <c r="J588" s="42">
+        <v>6.5050000000000008</v>
+      </c>
+      <c r="Q588" s="27"/>
     </row>
     <row r="589" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A589" s="6">
@@ -16782,7 +16747,7 @@
         <v>45960</v>
       </c>
       <c r="D589" s="27">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E589" s="9">
         <v>51.5</v>
@@ -16796,11 +16761,10 @@
       <c r="H589" s="9">
         <v>5</v>
       </c>
-      <c r="J589">
-        <v>12.35</v>
-      </c>
-      <c r="P589" s="27"/>
-      <c r="Q589" s="50"/>
+      <c r="J589" s="42">
+        <v>10.33</v>
+      </c>
+      <c r="Q589" s="27"/>
     </row>
     <row r="590" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A590" s="6">
@@ -16812,8 +16776,8 @@
       <c r="C590" s="7">
         <v>45961</v>
       </c>
-      <c r="D590">
-        <v>115</v>
+      <c r="D590" s="27">
+        <v>108</v>
       </c>
       <c r="E590" s="9">
         <v>50</v>
@@ -16827,15 +16791,13 @@
       <c r="H590" s="9">
         <v>7</v>
       </c>
-      <c r="I590" s="49" t="s">
+      <c r="I590" t="s">
         <v>51</v>
       </c>
-      <c r="J590">
-        <v>11.9</v>
-      </c>
-      <c r="N590" s="27"/>
-      <c r="P590" s="27"/>
-      <c r="Q590" s="50"/>
+      <c r="J590" s="42">
+        <v>17.164999999999999</v>
+      </c>
+      <c r="Q590" s="27"/>
     </row>
     <row r="591" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A591" s="6">
@@ -16847,8 +16809,8 @@
       <c r="C591" s="7">
         <v>45962</v>
       </c>
-      <c r="D591">
-        <v>176</v>
+      <c r="D591" s="27">
+        <v>166</v>
       </c>
       <c r="E591" s="9">
         <v>52</v>
@@ -16862,12 +16824,10 @@
       <c r="H591" s="9">
         <v>9</v>
       </c>
-      <c r="J591">
-        <v>5.36</v>
-      </c>
-      <c r="N591" s="27"/>
-      <c r="P591" s="27"/>
-      <c r="Q591" s="50"/>
+      <c r="J591" s="42">
+        <v>13.11</v>
+      </c>
+      <c r="Q591" s="27"/>
     </row>
     <row r="592" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A592" s="6">
@@ -16880,7 +16840,7 @@
         <v>45963</v>
       </c>
       <c r="D592" s="27">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E592" s="9">
         <v>51</v>
@@ -16894,11 +16854,10 @@
       <c r="H592" s="9">
         <v>10</v>
       </c>
-      <c r="J592">
-        <v>10.58</v>
-      </c>
-      <c r="P592" s="27"/>
-      <c r="Q592" s="50"/>
+      <c r="J592" s="42">
+        <v>9.43</v>
+      </c>
+      <c r="Q592" s="27"/>
     </row>
     <row r="593" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A593" s="6">
@@ -16911,7 +16870,7 @@
         <v>45964</v>
       </c>
       <c r="D593" s="27">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E593" s="9">
         <v>48.5</v>
@@ -16925,11 +16884,10 @@
       <c r="H593" s="9">
         <v>4</v>
       </c>
-      <c r="J593">
-        <v>11</v>
-      </c>
-      <c r="P593" s="27"/>
-      <c r="Q593" s="50"/>
+      <c r="J593" s="42">
+        <v>9.995000000000001</v>
+      </c>
+      <c r="Q593" s="27"/>
     </row>
     <row r="594" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A594" s="6">
@@ -16942,7 +16900,7 @@
         <v>45965</v>
       </c>
       <c r="D594" s="27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E594" s="9">
         <v>50.5</v>
@@ -16956,14 +16914,13 @@
       <c r="H594" s="9">
         <v>10</v>
       </c>
-      <c r="I594" s="49" t="s">
+      <c r="I594" t="s">
         <v>23</v>
       </c>
-      <c r="J594">
-        <v>9.16</v>
-      </c>
-      <c r="P594" s="27"/>
-      <c r="Q594" s="50"/>
+      <c r="J594" s="42">
+        <v>9.92</v>
+      </c>
+      <c r="Q594" s="27"/>
     </row>
     <row r="595" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A595" s="6">
@@ -16976,7 +16933,7 @@
         <v>45966</v>
       </c>
       <c r="D595" s="27">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E595" s="9">
         <v>50.5</v>
@@ -16990,11 +16947,10 @@
       <c r="H595" s="9">
         <v>7</v>
       </c>
-      <c r="J595">
-        <v>7.68</v>
-      </c>
-      <c r="P595" s="27"/>
-      <c r="Q595" s="50"/>
+      <c r="J595" s="42">
+        <v>8.0599999999999987</v>
+      </c>
+      <c r="Q595" s="27"/>
     </row>
     <row r="596" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A596" s="6">
@@ -17007,7 +16963,7 @@
         <v>45967</v>
       </c>
       <c r="D596" s="27">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E596" s="9">
         <v>49.5</v>
@@ -17021,11 +16977,10 @@
       <c r="H596" s="9">
         <v>6</v>
       </c>
-      <c r="J596">
-        <v>10.42</v>
-      </c>
-      <c r="P596" s="27"/>
-      <c r="Q596" s="50"/>
+      <c r="J596" s="42">
+        <v>11.105</v>
+      </c>
+      <c r="Q596" s="27"/>
     </row>
     <row r="597" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A597" s="6">
@@ -17037,8 +16992,8 @@
       <c r="C597" s="7">
         <v>45968</v>
       </c>
-      <c r="D597">
-        <v>150</v>
+      <c r="D597" s="27">
+        <v>143</v>
       </c>
       <c r="E597" s="9">
         <v>43.5</v>
@@ -17052,12 +17007,10 @@
       <c r="H597" s="9">
         <v>13</v>
       </c>
-      <c r="J597">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="N597" s="27"/>
-      <c r="P597" s="27"/>
-      <c r="Q597" s="50"/>
+      <c r="J597" s="42">
+        <v>23.32</v>
+      </c>
+      <c r="Q597" s="27"/>
     </row>
     <row r="598" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A598" s="6">
@@ -17069,8 +17022,8 @@
       <c r="C598" s="7">
         <v>45969</v>
       </c>
-      <c r="D598">
-        <v>173</v>
+      <c r="D598" s="27">
+        <v>162</v>
       </c>
       <c r="E598" s="9">
         <v>39</v>
@@ -17084,12 +17037,10 @@
       <c r="H598" s="9">
         <v>8</v>
       </c>
-      <c r="J598">
-        <v>7.21</v>
-      </c>
-      <c r="N598" s="27"/>
-      <c r="P598" s="27"/>
-      <c r="Q598" s="50"/>
+      <c r="J598" s="42">
+        <v>22.42</v>
+      </c>
+      <c r="Q598" s="27"/>
     </row>
     <row r="599" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A599" s="6">
@@ -17102,7 +17053,7 @@
         <v>45970</v>
       </c>
       <c r="D599" s="27">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E599" s="9">
         <v>43</v>
@@ -17116,11 +17067,10 @@
       <c r="H599" s="9">
         <v>9</v>
       </c>
-      <c r="J599">
-        <v>9.08</v>
-      </c>
-      <c r="P599" s="27"/>
-      <c r="Q599" s="50"/>
+      <c r="J599" s="42">
+        <v>10.33</v>
+      </c>
+      <c r="Q599" s="27"/>
     </row>
     <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A600" s="6">
@@ -17133,7 +17083,7 @@
         <v>45971</v>
       </c>
       <c r="D600" s="27">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E600" s="9">
         <v>46.5</v>
@@ -17147,11 +17097,10 @@
       <c r="H600" s="9">
         <v>6</v>
       </c>
-      <c r="J600">
-        <v>7.15</v>
-      </c>
-      <c r="P600" s="27"/>
-      <c r="Q600" s="50"/>
+      <c r="J600" s="42">
+        <v>7.22</v>
+      </c>
+      <c r="Q600" s="27"/>
     </row>
     <row r="601" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A601" s="6">
@@ -17164,7 +17113,7 @@
         <v>45972</v>
       </c>
       <c r="D601" s="27">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E601" s="9">
         <v>42.5</v>
@@ -17178,14 +17127,13 @@
       <c r="H601" s="9">
         <v>10</v>
       </c>
-      <c r="I601" s="49" t="s">
+      <c r="I601" t="s">
         <v>24</v>
       </c>
-      <c r="J601">
-        <v>11.68</v>
-      </c>
-      <c r="P601" s="27"/>
-      <c r="Q601" s="50"/>
+      <c r="J601" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="Q601" s="27"/>
     </row>
     <row r="602" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A602" s="6">
@@ -17198,7 +17146,7 @@
         <v>45973</v>
       </c>
       <c r="D602" s="27">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E602" s="9">
         <v>39.5</v>
@@ -17212,11 +17160,10 @@
       <c r="H602" s="9">
         <v>12</v>
       </c>
-      <c r="J602">
-        <v>15.68</v>
-      </c>
-      <c r="P602" s="27"/>
-      <c r="Q602" s="50"/>
+      <c r="J602" s="42">
+        <v>10.345000000000001</v>
+      </c>
+      <c r="Q602" s="27"/>
     </row>
     <row r="603" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A603" s="6">
@@ -17229,7 +17176,7 @@
         <v>45974</v>
       </c>
       <c r="D603" s="27">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E603" s="9">
         <v>34.5</v>
@@ -17243,11 +17190,10 @@
       <c r="H603" s="9">
         <v>9</v>
       </c>
-      <c r="J603">
-        <v>23.45</v>
-      </c>
-      <c r="P603" s="27"/>
-      <c r="Q603" s="50"/>
+      <c r="J603" s="42">
+        <v>17.490000000000002</v>
+      </c>
+      <c r="Q603" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A603">
@@ -17267,8 +17213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A98" activeCellId="2" sqref="A110:XFD111 A103:XFD107 A98:XFD100"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P114" sqref="P114:P149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17278,40 +17224,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="C1" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="43">
+      <c r="C2" s="48">
         <v>0.85</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="19" t="s">
         <v>39</v>
       </c>
@@ -22139,19 +22085,19 @@
         <v>45920</v>
       </c>
       <c r="O95" s="21" t="e">
-        <f>ROUND(AVERAGE(C95:N95),0)</f>
+        <f t="shared" ref="O95:O126" si="26">ROUND(AVERAGE(C95:N95),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P95" s="21" t="e">
-        <f>ROUND(_xlfn.STDEV.P(C95:O95),2)</f>
+        <f t="shared" ref="P95:P126" si="27">ROUND(_xlfn.STDEV.P(C95:O95),2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R95" s="27" t="e">
-        <f t="shared" ref="R95:R111" si="26">O95-A95</f>
+        <f t="shared" ref="R95:R113" si="28">O95-A95</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S95" t="e">
-        <f t="shared" ref="S95:S111" si="27">O95/A95</f>
+        <f t="shared" ref="S95:S113" si="29">O95/A95</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -22163,19 +22109,19 @@
         <v>45921</v>
       </c>
       <c r="O96" s="21" t="e">
-        <f>ROUND(AVERAGE(C96:N96),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P96" s="21" t="e">
-        <f>ROUND(_xlfn.STDEV.P(C96:O96),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R96" s="27" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="P96" s="21" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R96" s="27" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S96" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -22187,19 +22133,19 @@
         <v>45922</v>
       </c>
       <c r="O97" s="21" t="e">
-        <f>ROUND(AVERAGE(C97:N97),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P97" s="21" t="e">
-        <f>ROUND(_xlfn.STDEV.P(C97:O97),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R97" s="27" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="P97" s="21" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R97" s="27" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S97" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -22247,19 +22193,19 @@
         <v>50</v>
       </c>
       <c r="O98" s="21">
-        <f>ROUND(AVERAGE(C98:N98),0)</f>
+        <f t="shared" si="26"/>
         <v>54</v>
       </c>
       <c r="P98" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C98:O98),2)</f>
+        <f t="shared" si="27"/>
         <v>5.16</v>
       </c>
       <c r="R98" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="S98">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.1489361702127661</v>
       </c>
     </row>
@@ -22270,7 +22216,7 @@
       <c r="B99" s="23">
         <v>45924</v>
       </c>
-      <c r="C99" s="51">
+      <c r="C99" s="46">
         <v>64</v>
       </c>
       <c r="D99">
@@ -22307,19 +22253,19 @@
         <v>74</v>
       </c>
       <c r="O99" s="21">
-        <f>ROUND(AVERAGE(C99:N99),0)</f>
+        <f t="shared" si="26"/>
         <v>65</v>
       </c>
       <c r="P99" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C99:O99),2)</f>
+        <f t="shared" si="27"/>
         <v>6.12</v>
       </c>
       <c r="R99" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-3</v>
       </c>
       <c r="S99">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.95588235294117652</v>
       </c>
     </row>
@@ -22367,19 +22313,19 @@
         <v>77</v>
       </c>
       <c r="O100" s="21">
-        <f>ROUND(AVERAGE(C100:N100),0)</f>
+        <f t="shared" si="26"/>
         <v>73</v>
       </c>
       <c r="P100" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C100:O100),2)</f>
+        <f t="shared" si="27"/>
         <v>7.91</v>
       </c>
       <c r="R100" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-28</v>
       </c>
       <c r="S100">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.72277227722772275</v>
       </c>
     </row>
@@ -22427,19 +22373,19 @@
         <v>169</v>
       </c>
       <c r="O101" s="21">
-        <f>ROUND(AVERAGE(C101:N101),0)</f>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="P101" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C101:O101),2)</f>
+        <f t="shared" si="27"/>
         <v>16.079999999999998</v>
       </c>
       <c r="R101" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="S101">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0126582278481013</v>
       </c>
     </row>
@@ -22487,19 +22433,19 @@
         <v>199</v>
       </c>
       <c r="O102" s="21">
-        <f>ROUND(AVERAGE(C102:N102),0)</f>
+        <f t="shared" si="26"/>
         <v>189</v>
       </c>
       <c r="P102" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C102:O102),2)</f>
+        <f t="shared" si="27"/>
         <v>9.68</v>
       </c>
       <c r="R102" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="S102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99473684210526314</v>
       </c>
     </row>
@@ -22547,19 +22493,19 @@
         <v>54</v>
       </c>
       <c r="O103" s="21">
-        <f>ROUND(AVERAGE(C103:N103),0)</f>
+        <f t="shared" si="26"/>
         <v>64</v>
       </c>
       <c r="P103" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C103:O103),2)</f>
+        <f t="shared" si="27"/>
         <v>8.93</v>
       </c>
       <c r="R103" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="S103">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.2075471698113207</v>
       </c>
     </row>
@@ -22607,19 +22553,19 @@
         <v>81</v>
       </c>
       <c r="O104" s="21">
-        <f>ROUND(AVERAGE(C104:N104),0)</f>
+        <f t="shared" si="26"/>
         <v>94</v>
       </c>
       <c r="P104" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C104:O104),2)</f>
+        <f t="shared" si="27"/>
         <v>12.41</v>
       </c>
       <c r="R104" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>56</v>
       </c>
       <c r="S104">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.4736842105263159</v>
       </c>
     </row>
@@ -22667,19 +22613,19 @@
         <v>57</v>
       </c>
       <c r="O105" s="21">
-        <f>ROUND(AVERAGE(C105:N105),0)</f>
+        <f t="shared" si="26"/>
         <v>64</v>
       </c>
       <c r="P105" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C105:O105),2)</f>
+        <f t="shared" si="27"/>
         <v>5.76</v>
       </c>
       <c r="R105" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="S105">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.1636363636363636</v>
       </c>
     </row>
@@ -22727,19 +22673,19 @@
         <v>65</v>
       </c>
       <c r="O106" s="21">
-        <f>ROUND(AVERAGE(C106:N106),0)</f>
+        <f t="shared" si="26"/>
         <v>66</v>
       </c>
       <c r="P106" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C106:O106),2)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="R106" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-9</v>
       </c>
       <c r="S106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.88</v>
       </c>
     </row>
@@ -22787,19 +22733,19 @@
         <v>109</v>
       </c>
       <c r="O107" s="21">
-        <f>ROUND(AVERAGE(C107:N107),0)</f>
+        <f t="shared" si="26"/>
         <v>95</v>
       </c>
       <c r="P107" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C107:O107),2)</f>
+        <f t="shared" si="27"/>
         <v>6.02</v>
       </c>
       <c r="R107" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="S107">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.1585365853658536</v>
       </c>
     </row>
@@ -22847,19 +22793,19 @@
         <v>166</v>
       </c>
       <c r="O108" s="21">
-        <f>ROUND(AVERAGE(C108:N108),0)</f>
+        <f t="shared" si="26"/>
         <v>143</v>
       </c>
       <c r="P108" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C108:O108),2)</f>
+        <f t="shared" si="27"/>
         <v>11.16</v>
       </c>
       <c r="R108" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="S108">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99305555555555558</v>
       </c>
     </row>
@@ -22907,19 +22853,19 @@
         <v>206</v>
       </c>
       <c r="O109" s="21">
-        <f>ROUND(AVERAGE(C109:N109),0)</f>
+        <f t="shared" si="26"/>
         <v>192</v>
       </c>
       <c r="P109" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C109:O109),2)</f>
+        <f t="shared" si="27"/>
         <v>7.55</v>
       </c>
       <c r="R109" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="S109">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0105263157894737</v>
       </c>
     </row>
@@ -22967,19 +22913,19 @@
         <v>76</v>
       </c>
       <c r="O110" s="21">
-        <f>ROUND(AVERAGE(C110:N110),0)</f>
+        <f t="shared" si="26"/>
         <v>71</v>
       </c>
       <c r="P110" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C110:O110),2)</f>
+        <f t="shared" si="27"/>
         <v>5.52</v>
       </c>
       <c r="R110" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="S110">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.42</v>
       </c>
     </row>
@@ -23027,23 +22973,26 @@
         <v>59</v>
       </c>
       <c r="O111" s="21">
-        <f>ROUND(AVERAGE(C111:N111),0)</f>
+        <f t="shared" si="26"/>
         <v>57</v>
       </c>
       <c r="P111" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C111:O111),2)</f>
+        <f t="shared" si="27"/>
         <v>3.46</v>
       </c>
       <c r="R111" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="S111">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>105</v>
+      </c>
       <c r="B112" s="23">
         <v>45937</v>
       </c>
@@ -23084,15 +23033,26 @@
         <v>57</v>
       </c>
       <c r="O112" s="21">
-        <f>ROUND(AVERAGE(C112:N112),0)</f>
+        <f t="shared" si="26"/>
         <v>54</v>
       </c>
       <c r="P112" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C112:O112),2)</f>
+        <f t="shared" si="27"/>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R112" s="27">
+        <f t="shared" si="28"/>
+        <v>-51</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="29"/>
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>38</v>
+      </c>
       <c r="B113" s="23">
         <v>45938</v>
       </c>
@@ -23133,211 +23093,219 @@
         <v>57</v>
       </c>
       <c r="O113" s="21">
-        <f>ROUND(AVERAGE(C113:N113),0)</f>
+        <f t="shared" si="26"/>
         <v>59</v>
       </c>
       <c r="P113" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C113:O113),2)</f>
+        <f t="shared" si="27"/>
         <v>2.35</v>
       </c>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R113" s="27">
+        <f t="shared" si="28"/>
+        <v>21</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="29"/>
+        <v>1.5526315789473684</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B114" s="23">
         <v>45939</v>
       </c>
       <c r="C114">
+        <v>47</v>
+      </c>
+      <c r="D114">
+        <v>52</v>
+      </c>
+      <c r="E114">
+        <v>62</v>
+      </c>
+      <c r="F114">
+        <v>61</v>
+      </c>
+      <c r="G114">
+        <v>90</v>
+      </c>
+      <c r="H114">
+        <v>94</v>
+      </c>
+      <c r="I114">
+        <v>63</v>
+      </c>
+      <c r="J114">
+        <v>63</v>
+      </c>
+      <c r="K114">
+        <v>53</v>
+      </c>
+      <c r="L114">
+        <v>51</v>
+      </c>
+      <c r="M114">
         <v>54</v>
       </c>
-      <c r="D114">
-        <v>50</v>
-      </c>
-      <c r="E114">
-        <v>59</v>
-      </c>
-      <c r="F114">
-        <v>70</v>
-      </c>
-      <c r="G114">
-        <v>80</v>
-      </c>
-      <c r="H114">
+      <c r="N114">
+        <v>56</v>
+      </c>
+      <c r="O114" s="21">
+        <f t="shared" si="26"/>
         <v>62</v>
       </c>
-      <c r="I114">
-        <v>50</v>
-      </c>
-      <c r="J114">
-        <v>47</v>
-      </c>
-      <c r="K114">
-        <v>65</v>
-      </c>
-      <c r="L114">
-        <v>59</v>
-      </c>
-      <c r="M114">
-        <v>62</v>
-      </c>
-      <c r="N114">
-        <v>60</v>
-      </c>
-      <c r="O114" s="21">
-        <f>ROUND(AVERAGE(C114:N114),0)</f>
-        <v>60</v>
-      </c>
       <c r="P114" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C114:O114),2)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B115" s="23">
         <v>45940</v>
       </c>
       <c r="C115">
+        <v>152</v>
+      </c>
+      <c r="D115">
+        <v>144</v>
+      </c>
+      <c r="E115">
+        <v>135</v>
+      </c>
+      <c r="F115">
+        <v>130</v>
+      </c>
+      <c r="G115">
+        <v>129</v>
+      </c>
+      <c r="H115">
+        <v>138</v>
+      </c>
+      <c r="I115">
+        <v>141</v>
+      </c>
+      <c r="J115">
+        <v>137</v>
+      </c>
+      <c r="K115">
+        <v>144</v>
+      </c>
+      <c r="L115">
+        <v>137</v>
+      </c>
+      <c r="M115">
         <v>140</v>
       </c>
-      <c r="D115">
-        <v>136</v>
-      </c>
-      <c r="E115">
-        <v>146</v>
-      </c>
-      <c r="F115">
-        <v>124</v>
-      </c>
-      <c r="G115">
-        <v>142</v>
-      </c>
-      <c r="H115">
-        <v>132</v>
-      </c>
-      <c r="I115">
-        <v>168</v>
-      </c>
-      <c r="J115">
-        <v>128</v>
-      </c>
-      <c r="K115">
-        <v>138</v>
-      </c>
-      <c r="L115">
+      <c r="N115">
         <v>139</v>
       </c>
-      <c r="M115">
-        <v>138</v>
-      </c>
-      <c r="N115">
-        <v>129</v>
-      </c>
       <c r="O115" s="21">
-        <f>ROUND(AVERAGE(C115:N115),0)</f>
-        <v>138</v>
+        <f t="shared" si="26"/>
+        <v>139</v>
       </c>
       <c r="P115" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C115:O115),2)</f>
-        <v>10.38</v>
-      </c>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B116" s="23">
         <v>45941</v>
       </c>
       <c r="C116">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D116">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E116">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F116">
+        <v>196</v>
+      </c>
+      <c r="G116">
+        <v>185</v>
+      </c>
+      <c r="H116">
+        <v>191</v>
+      </c>
+      <c r="I116">
+        <v>179</v>
+      </c>
+      <c r="J116">
+        <v>181</v>
+      </c>
+      <c r="K116">
         <v>173</v>
       </c>
-      <c r="G116">
+      <c r="L116">
         <v>193</v>
       </c>
-      <c r="H116">
+      <c r="M116">
         <v>179</v>
       </c>
-      <c r="I116">
-        <v>178</v>
-      </c>
-      <c r="J116">
-        <v>179</v>
-      </c>
-      <c r="K116">
-        <v>186</v>
-      </c>
-      <c r="L116">
-        <v>195</v>
-      </c>
-      <c r="M116">
-        <v>201</v>
-      </c>
       <c r="N116">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O116" s="21">
-        <f>ROUND(AVERAGE(C116:N116),0)</f>
-        <v>184</v>
+        <f t="shared" si="26"/>
+        <v>185</v>
       </c>
       <c r="P116" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C116:O116),2)</f>
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B117" s="23">
         <v>45942</v>
       </c>
       <c r="C117">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D117">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E117">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F117">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G117">
         <v>61</v>
       </c>
       <c r="H117">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I117">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J117">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K117">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L117">
+        <v>50</v>
+      </c>
+      <c r="M117">
+        <v>54</v>
+      </c>
+      <c r="N117">
         <v>53</v>
       </c>
-      <c r="M117">
-        <v>59</v>
-      </c>
-      <c r="N117">
-        <v>60</v>
-      </c>
       <c r="O117" s="21">
-        <f>ROUND(AVERAGE(C117:N117),0)</f>
-        <v>58</v>
+        <f t="shared" si="26"/>
+        <v>56</v>
       </c>
       <c r="P117" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C117:O117),2)</f>
-        <v>5.22</v>
-      </c>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B118" s="23">
         <v>45943</v>
       </c>
@@ -23345,97 +23313,97 @@
         <v>45</v>
       </c>
       <c r="D118">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E118">
         <v>52</v>
       </c>
       <c r="F118">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G118">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I118">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J118">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K118">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L118">
+        <v>42</v>
+      </c>
+      <c r="M118">
+        <v>46</v>
+      </c>
+      <c r="N118">
+        <v>43</v>
+      </c>
+      <c r="O118" s="21">
+        <f t="shared" si="26"/>
         <v>48</v>
       </c>
-      <c r="M118">
-        <v>59</v>
-      </c>
-      <c r="N118">
-        <v>51</v>
-      </c>
-      <c r="O118" s="21">
-        <f>ROUND(AVERAGE(C118:N118),0)</f>
-        <v>50</v>
-      </c>
       <c r="P118" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C118:O118),2)</f>
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B119" s="23">
         <v>45944</v>
       </c>
       <c r="C119">
+        <v>72</v>
+      </c>
+      <c r="D119">
+        <v>67</v>
+      </c>
+      <c r="E119">
+        <v>69</v>
+      </c>
+      <c r="F119">
         <v>68</v>
       </c>
-      <c r="D119">
-        <v>69</v>
-      </c>
-      <c r="E119">
-        <v>66</v>
-      </c>
-      <c r="F119">
-        <v>63</v>
-      </c>
       <c r="G119">
+        <v>68</v>
+      </c>
+      <c r="H119">
+        <v>48</v>
+      </c>
+      <c r="I119">
         <v>67</v>
       </c>
-      <c r="H119">
-        <v>65</v>
-      </c>
-      <c r="I119">
+      <c r="J119">
         <v>73</v>
       </c>
-      <c r="J119">
-        <v>65</v>
-      </c>
       <c r="K119">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L119">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M119">
+        <v>68</v>
+      </c>
+      <c r="N119">
+        <v>68</v>
+      </c>
+      <c r="O119" s="21">
+        <f t="shared" si="26"/>
         <v>67</v>
       </c>
-      <c r="N119">
-        <v>62</v>
-      </c>
-      <c r="O119" s="21">
-        <f>ROUND(AVERAGE(C119:N119),0)</f>
-        <v>65</v>
-      </c>
       <c r="P119" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C119:O119),2)</f>
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B120" s="23">
         <v>45945</v>
       </c>
@@ -23443,48 +23411,48 @@
         <v>51</v>
       </c>
       <c r="D120">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E120">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F120">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G120">
+        <v>59</v>
+      </c>
+      <c r="H120">
+        <v>55</v>
+      </c>
+      <c r="I120">
+        <v>54</v>
+      </c>
+      <c r="J120">
+        <v>55</v>
+      </c>
+      <c r="K120">
+        <v>62</v>
+      </c>
+      <c r="L120">
+        <v>55</v>
+      </c>
+      <c r="M120">
+        <v>57</v>
+      </c>
+      <c r="N120">
+        <v>53</v>
+      </c>
+      <c r="O120" s="21">
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
-      <c r="H120">
-        <v>53</v>
-      </c>
-      <c r="I120">
-        <v>65</v>
-      </c>
-      <c r="J120">
-        <v>40</v>
-      </c>
-      <c r="K120">
-        <v>52</v>
-      </c>
-      <c r="L120">
-        <v>56</v>
-      </c>
-      <c r="M120">
-        <v>58</v>
-      </c>
-      <c r="N120">
-        <v>57</v>
-      </c>
-      <c r="O120" s="21">
-        <f>ROUND(AVERAGE(C120:N120),0)</f>
-        <v>53</v>
-      </c>
       <c r="P120" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C120:O120),2)</f>
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B121" s="23">
         <v>45946</v>
       </c>
@@ -23492,388 +23460,388 @@
         <v>81</v>
       </c>
       <c r="D121">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E121">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F121">
         <v>82</v>
       </c>
       <c r="G121">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H121">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I121">
+        <v>78</v>
+      </c>
+      <c r="J121">
+        <v>77</v>
+      </c>
+      <c r="K121">
+        <v>83</v>
+      </c>
+      <c r="L121">
+        <v>83</v>
+      </c>
+      <c r="M121">
+        <v>80</v>
+      </c>
+      <c r="N121">
         <v>81</v>
       </c>
-      <c r="J121">
-        <v>82</v>
-      </c>
-      <c r="K121">
-        <v>81</v>
-      </c>
-      <c r="L121">
-        <v>79</v>
-      </c>
-      <c r="M121">
-        <v>77</v>
-      </c>
-      <c r="N121">
-        <v>77</v>
-      </c>
       <c r="O121" s="21">
-        <f>ROUND(AVERAGE(C121:N121),0)</f>
-        <v>81</v>
+        <f t="shared" si="26"/>
+        <v>84</v>
       </c>
       <c r="P121" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C121:O121),2)</f>
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B122" s="23">
         <v>45947</v>
       </c>
       <c r="C122">
+        <v>147</v>
+      </c>
+      <c r="D122">
+        <v>147</v>
+      </c>
+      <c r="E122">
+        <v>144</v>
+      </c>
+      <c r="F122">
+        <v>158</v>
+      </c>
+      <c r="G122">
+        <v>158</v>
+      </c>
+      <c r="H122">
         <v>148</v>
       </c>
-      <c r="D122">
-        <v>144</v>
-      </c>
-      <c r="E122">
-        <v>133</v>
-      </c>
-      <c r="F122">
-        <v>143</v>
-      </c>
-      <c r="G122">
-        <v>137</v>
-      </c>
-      <c r="H122">
-        <v>139</v>
-      </c>
       <c r="I122">
+        <v>134</v>
+      </c>
+      <c r="J122">
+        <v>146</v>
+      </c>
+      <c r="K122">
+        <v>150</v>
+      </c>
+      <c r="L122">
         <v>148</v>
       </c>
-      <c r="J122">
-        <v>143</v>
-      </c>
-      <c r="K122">
-        <v>140</v>
-      </c>
-      <c r="L122">
-        <v>143</v>
-      </c>
       <c r="M122">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N122">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O122" s="21">
-        <f>ROUND(AVERAGE(C122:N122),0)</f>
-        <v>142</v>
+        <f t="shared" si="26"/>
+        <v>148</v>
       </c>
       <c r="P122" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C122:O122),2)</f>
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B123" s="23">
         <v>45948</v>
       </c>
       <c r="C123">
+        <v>180</v>
+      </c>
+      <c r="D123">
+        <v>178</v>
+      </c>
+      <c r="E123">
+        <v>178</v>
+      </c>
+      <c r="F123">
+        <v>173</v>
+      </c>
+      <c r="G123">
+        <v>189</v>
+      </c>
+      <c r="H123">
+        <v>193</v>
+      </c>
+      <c r="I123">
+        <v>175</v>
+      </c>
+      <c r="J123">
+        <v>180</v>
+      </c>
+      <c r="K123">
         <v>177</v>
       </c>
-      <c r="D123">
+      <c r="L123">
+        <v>177</v>
+      </c>
+      <c r="M123">
+        <v>174</v>
+      </c>
+      <c r="N123">
         <v>176</v>
       </c>
-      <c r="E123">
-        <v>171</v>
-      </c>
-      <c r="F123">
-        <v>167</v>
-      </c>
-      <c r="G123">
-        <v>180</v>
-      </c>
-      <c r="H123">
-        <v>178</v>
-      </c>
-      <c r="I123">
-        <v>180</v>
-      </c>
-      <c r="J123">
-        <v>176</v>
-      </c>
-      <c r="K123">
-        <v>180</v>
-      </c>
-      <c r="L123">
-        <v>176</v>
-      </c>
-      <c r="M123">
-        <v>190</v>
-      </c>
-      <c r="N123">
-        <v>168</v>
-      </c>
       <c r="O123" s="21">
-        <f>ROUND(AVERAGE(C123:N123),0)</f>
-        <v>177</v>
+        <f t="shared" si="26"/>
+        <v>179</v>
       </c>
       <c r="P123" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C123:O123),2)</f>
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B124" s="23">
         <v>45949</v>
       </c>
       <c r="C124">
+        <v>53</v>
+      </c>
+      <c r="D124">
         <v>52</v>
       </c>
-      <c r="D124">
+      <c r="E124">
+        <v>57</v>
+      </c>
+      <c r="F124">
+        <v>62</v>
+      </c>
+      <c r="G124">
+        <v>64</v>
+      </c>
+      <c r="H124">
         <v>54</v>
       </c>
-      <c r="E124">
-        <v>60</v>
-      </c>
-      <c r="F124">
-        <v>69</v>
-      </c>
-      <c r="G124">
-        <v>63</v>
-      </c>
-      <c r="H124">
-        <v>69</v>
-      </c>
       <c r="I124">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J124">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K124">
         <v>55</v>
       </c>
       <c r="L124">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M124">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N124">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O124" s="21">
-        <f>ROUND(AVERAGE(C124:N124),0)</f>
-        <v>58</v>
+        <f t="shared" si="26"/>
+        <v>56</v>
       </c>
       <c r="P124" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C124:O124),2)</f>
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B125" s="23">
         <v>45950</v>
       </c>
       <c r="C125">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D125">
         <v>30</v>
       </c>
       <c r="E125">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F125">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G125">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="H125">
+        <v>27</v>
+      </c>
+      <c r="I125">
+        <v>49</v>
+      </c>
+      <c r="J125">
+        <v>46</v>
+      </c>
+      <c r="K125">
+        <v>34</v>
+      </c>
+      <c r="L125">
+        <v>24</v>
+      </c>
+      <c r="M125">
+        <v>27</v>
+      </c>
+      <c r="N125">
+        <v>23</v>
+      </c>
+      <c r="O125" s="21">
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
-      <c r="I125">
-        <v>46</v>
-      </c>
-      <c r="J125">
-        <v>31</v>
-      </c>
-      <c r="K125">
-        <v>28</v>
-      </c>
-      <c r="L125">
-        <v>50</v>
-      </c>
-      <c r="M125">
-        <v>44</v>
-      </c>
-      <c r="N125">
-        <v>48</v>
-      </c>
-      <c r="O125" s="21">
-        <f>ROUND(AVERAGE(C125:N125),0)</f>
-        <v>41</v>
-      </c>
       <c r="P125" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C125:O125),2)</f>
-        <v>8.51</v>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B126" s="23">
         <v>45951</v>
       </c>
       <c r="C126">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D126">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E126">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F126">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G126">
+        <v>38</v>
+      </c>
+      <c r="H126">
+        <v>41</v>
+      </c>
+      <c r="I126">
+        <v>41</v>
+      </c>
+      <c r="J126">
+        <v>39</v>
+      </c>
+      <c r="K126">
+        <v>36</v>
+      </c>
+      <c r="L126">
         <v>37</v>
       </c>
-      <c r="H126">
-        <v>38</v>
-      </c>
-      <c r="I126">
+      <c r="M126">
+        <v>37</v>
+      </c>
+      <c r="N126">
         <v>36</v>
       </c>
-      <c r="J126">
-        <v>37</v>
-      </c>
-      <c r="K126">
-        <v>40</v>
-      </c>
-      <c r="L126">
-        <v>42</v>
-      </c>
-      <c r="M126">
-        <v>42</v>
-      </c>
-      <c r="N126">
-        <v>46</v>
-      </c>
       <c r="O126" s="21">
-        <f>ROUND(AVERAGE(C126:N126),0)</f>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="P126" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C126:O126),2)</f>
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B127" s="23">
         <v>45952</v>
       </c>
       <c r="C127">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D127">
         <v>60</v>
       </c>
       <c r="E127">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F127">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G127">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H127">
         <v>63</v>
       </c>
       <c r="I127">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J127">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K127">
+        <v>60</v>
+      </c>
+      <c r="L127">
+        <v>60</v>
+      </c>
+      <c r="M127">
+        <v>60</v>
+      </c>
+      <c r="N127">
         <v>62</v>
       </c>
-      <c r="L127">
-        <v>69</v>
-      </c>
-      <c r="M127">
-        <v>65</v>
-      </c>
-      <c r="N127">
-        <v>61</v>
-      </c>
       <c r="O127" s="21">
-        <f>ROUND(AVERAGE(C127:N127),0)</f>
-        <v>63</v>
+        <f t="shared" ref="O127:O149" si="30">ROUND(AVERAGE(C127:N127),0)</f>
+        <v>64</v>
       </c>
       <c r="P127" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C127:O127),2)</f>
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P127:P149" si="31">ROUND(_xlfn.STDEV.P(C127:O127),2)</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B128" s="23">
         <v>45953</v>
       </c>
       <c r="C128">
+        <v>86</v>
+      </c>
+      <c r="D128">
+        <v>86</v>
+      </c>
+      <c r="E128">
         <v>88</v>
-      </c>
-      <c r="D128">
-        <v>87</v>
-      </c>
-      <c r="E128">
-        <v>79</v>
       </c>
       <c r="F128">
         <v>92</v>
       </c>
       <c r="G128">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H128">
+        <v>101</v>
+      </c>
+      <c r="I128">
         <v>86</v>
       </c>
-      <c r="I128">
-        <v>80</v>
-      </c>
       <c r="J128">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K128">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L128">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M128">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N128">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O128" s="21">
-        <f>ROUND(AVERAGE(C128:N128),0)</f>
-        <v>85</v>
+        <f t="shared" si="30"/>
+        <v>89</v>
       </c>
       <c r="P128" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C128:O128),2)</f>
-        <v>3.82</v>
+        <f t="shared" si="31"/>
+        <v>6.84</v>
       </c>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
@@ -23881,48 +23849,48 @@
         <v>45954</v>
       </c>
       <c r="C129">
+        <v>152</v>
+      </c>
+      <c r="D129">
+        <v>147</v>
+      </c>
+      <c r="E129">
         <v>148</v>
       </c>
-      <c r="D129">
-        <v>149</v>
-      </c>
-      <c r="E129">
-        <v>140</v>
-      </c>
       <c r="F129">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G129">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H129">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I129">
+        <v>131</v>
+      </c>
+      <c r="J129">
+        <v>138</v>
+      </c>
+      <c r="K129">
+        <v>154</v>
+      </c>
+      <c r="L129">
+        <v>148</v>
+      </c>
+      <c r="M129">
+        <v>151</v>
+      </c>
+      <c r="N129">
         <v>156</v>
       </c>
-      <c r="J129">
-        <v>160</v>
-      </c>
-      <c r="K129">
+      <c r="O129" s="21">
+        <f t="shared" si="30"/>
         <v>146</v>
       </c>
-      <c r="L129">
-        <v>135</v>
-      </c>
-      <c r="M129">
-        <v>145</v>
-      </c>
-      <c r="N129">
-        <v>135</v>
-      </c>
-      <c r="O129" s="21">
-        <f>ROUND(AVERAGE(C129:N129),0)</f>
-        <v>143</v>
-      </c>
       <c r="P129" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C129:O129),2)</f>
-        <v>8.7799999999999994</v>
+        <f t="shared" si="31"/>
+        <v>7.08</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
@@ -23930,48 +23898,48 @@
         <v>45955</v>
       </c>
       <c r="C130">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D130">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E130">
+        <v>203</v>
+      </c>
+      <c r="F130">
+        <v>206</v>
+      </c>
+      <c r="G130">
+        <v>165</v>
+      </c>
+      <c r="H130">
+        <v>171</v>
+      </c>
+      <c r="I130">
+        <v>182</v>
+      </c>
+      <c r="J130">
+        <v>164</v>
+      </c>
+      <c r="K130">
+        <v>164</v>
+      </c>
+      <c r="L130">
         <v>170</v>
       </c>
-      <c r="F130">
-        <v>176</v>
-      </c>
-      <c r="G130">
-        <v>196</v>
-      </c>
-      <c r="H130">
-        <v>134</v>
-      </c>
-      <c r="I130">
-        <v>171</v>
-      </c>
-      <c r="J130">
+      <c r="M130">
         <v>155</v>
       </c>
-      <c r="K130">
-        <v>177</v>
-      </c>
-      <c r="L130">
-        <v>181</v>
-      </c>
-      <c r="M130">
-        <v>164</v>
-      </c>
       <c r="N130">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O130" s="21">
-        <f>ROUND(AVERAGE(C130:N130),0)</f>
-        <v>168</v>
+        <f t="shared" si="30"/>
+        <v>172</v>
       </c>
       <c r="P130" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C130:O130),2)</f>
-        <v>14.16</v>
+        <f t="shared" si="31"/>
+        <v>15.43</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
@@ -23979,48 +23947,48 @@
         <v>45956</v>
       </c>
       <c r="C131">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D131">
+        <v>57</v>
+      </c>
+      <c r="E131">
+        <v>74</v>
+      </c>
+      <c r="F131">
+        <v>64</v>
+      </c>
+      <c r="G131">
+        <v>42</v>
+      </c>
+      <c r="H131">
+        <v>47</v>
+      </c>
+      <c r="I131">
+        <v>70</v>
+      </c>
+      <c r="J131">
+        <v>58</v>
+      </c>
+      <c r="K131">
+        <v>68</v>
+      </c>
+      <c r="L131">
+        <v>56</v>
+      </c>
+      <c r="M131">
         <v>62</v>
       </c>
-      <c r="E131">
-        <v>60</v>
-      </c>
-      <c r="F131">
+      <c r="N131">
         <v>58</v>
       </c>
-      <c r="G131">
+      <c r="O131" s="21">
+        <f t="shared" si="30"/>
         <v>59</v>
       </c>
-      <c r="H131">
-        <v>63</v>
-      </c>
-      <c r="I131">
-        <v>69</v>
-      </c>
-      <c r="J131">
-        <v>61</v>
-      </c>
-      <c r="K131">
-        <v>62</v>
-      </c>
-      <c r="L131">
-        <v>50</v>
-      </c>
-      <c r="M131">
-        <v>80</v>
-      </c>
-      <c r="N131">
-        <v>60</v>
-      </c>
-      <c r="O131" s="21">
-        <f>ROUND(AVERAGE(C131:N131),0)</f>
-        <v>62</v>
-      </c>
       <c r="P131" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C131:O131),2)</f>
-        <v>6.54</v>
+        <f t="shared" si="31"/>
+        <v>8.81</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
@@ -24028,48 +23996,48 @@
         <v>45957</v>
       </c>
       <c r="C132">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D132">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E132">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F132">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G132">
         <v>55</v>
       </c>
       <c r="H132">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I132">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J132">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L132">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M132">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N132">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O132" s="21">
-        <f>ROUND(AVERAGE(C132:N132),0)</f>
-        <v>45</v>
+        <f t="shared" si="30"/>
+        <v>43</v>
       </c>
       <c r="P132" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C132:O132),2)</f>
-        <v>7.4</v>
+        <f t="shared" si="31"/>
+        <v>6.06</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
@@ -24077,48 +24045,48 @@
         <v>45958</v>
       </c>
       <c r="C133">
+        <v>43</v>
+      </c>
+      <c r="D133">
+        <v>43</v>
+      </c>
+      <c r="E133">
+        <v>53</v>
+      </c>
+      <c r="F133">
+        <v>54</v>
+      </c>
+      <c r="G133">
+        <v>59</v>
+      </c>
+      <c r="H133">
+        <v>47</v>
+      </c>
+      <c r="I133">
+        <v>50</v>
+      </c>
+      <c r="J133">
+        <v>50</v>
+      </c>
+      <c r="K133">
         <v>45</v>
       </c>
-      <c r="D133">
-        <v>41</v>
-      </c>
-      <c r="E133">
-        <v>50</v>
-      </c>
-      <c r="F133">
-        <v>55</v>
-      </c>
-      <c r="G133">
-        <v>56</v>
-      </c>
-      <c r="H133">
-        <v>53</v>
-      </c>
-      <c r="I133">
-        <v>49</v>
-      </c>
-      <c r="J133">
-        <v>43</v>
-      </c>
-      <c r="K133">
+      <c r="L133">
         <v>44</v>
       </c>
-      <c r="L133">
-        <v>49</v>
-      </c>
       <c r="M133">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N133">
+        <v>44</v>
+      </c>
+      <c r="O133" s="21">
+        <f t="shared" si="30"/>
         <v>48</v>
       </c>
-      <c r="O133" s="21">
-        <f>ROUND(AVERAGE(C133:N133),0)</f>
-        <v>49</v>
-      </c>
       <c r="P133" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C133:O133),2)</f>
-        <v>4.3600000000000003</v>
+        <f t="shared" si="31"/>
+        <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
@@ -24126,48 +24094,48 @@
         <v>45959</v>
       </c>
       <c r="C134">
+        <v>54</v>
+      </c>
+      <c r="D134">
+        <v>54</v>
+      </c>
+      <c r="E134">
+        <v>51</v>
+      </c>
+      <c r="F134">
+        <v>67</v>
+      </c>
+      <c r="G134">
         <v>58</v>
       </c>
-      <c r="D134">
-        <v>56</v>
-      </c>
-      <c r="E134">
+      <c r="H134">
+        <v>62</v>
+      </c>
+      <c r="I134">
+        <v>52</v>
+      </c>
+      <c r="J134">
+        <v>53</v>
+      </c>
+      <c r="K134">
+        <v>51</v>
+      </c>
+      <c r="L134">
+        <v>52</v>
+      </c>
+      <c r="M134">
         <v>54</v>
       </c>
-      <c r="F134">
-        <v>54</v>
-      </c>
-      <c r="G134">
-        <v>53</v>
-      </c>
-      <c r="H134">
-        <v>49</v>
-      </c>
-      <c r="I134">
-        <v>54</v>
-      </c>
-      <c r="J134">
-        <v>52</v>
-      </c>
-      <c r="K134">
-        <v>52</v>
-      </c>
-      <c r="L134">
-        <v>51</v>
-      </c>
-      <c r="M134">
-        <v>47</v>
-      </c>
       <c r="N134">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O134" s="21">
-        <f>ROUND(AVERAGE(C134:N134),0)</f>
-        <v>53</v>
+        <f t="shared" si="30"/>
+        <v>55</v>
       </c>
       <c r="P134" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C134:O134),2)</f>
-        <v>3.48</v>
+        <f t="shared" si="31"/>
+        <v>4.46</v>
       </c>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
@@ -24181,42 +24149,42 @@
         <v>90</v>
       </c>
       <c r="E135">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F135">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G135">
+        <v>109</v>
+      </c>
+      <c r="H135">
+        <v>101</v>
+      </c>
+      <c r="I135">
         <v>89</v>
       </c>
-      <c r="H135">
-        <v>88</v>
-      </c>
-      <c r="I135">
-        <v>86</v>
-      </c>
       <c r="J135">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K135">
         <v>86</v>
       </c>
       <c r="L135">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M135">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N135">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O135" s="21">
-        <f>ROUND(AVERAGE(C135:N135),0)</f>
-        <v>88</v>
+        <f t="shared" si="30"/>
+        <v>92</v>
       </c>
       <c r="P135" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C135:O135),2)</f>
-        <v>3.74</v>
+        <f t="shared" si="31"/>
+        <v>6.26</v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
@@ -24224,48 +24192,48 @@
         <v>45961</v>
       </c>
       <c r="C136">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D136">
+        <v>112</v>
+      </c>
+      <c r="E136">
+        <v>145</v>
+      </c>
+      <c r="F136">
+        <v>133</v>
+      </c>
+      <c r="G136">
+        <v>134</v>
+      </c>
+      <c r="H136">
+        <v>133</v>
+      </c>
+      <c r="I136">
         <v>124</v>
       </c>
-      <c r="E136">
-        <v>114</v>
-      </c>
-      <c r="F136">
-        <v>132</v>
-      </c>
-      <c r="G136">
-        <v>130</v>
-      </c>
-      <c r="H136">
-        <v>117</v>
-      </c>
-      <c r="I136">
-        <v>98</v>
-      </c>
       <c r="J136">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="K136">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L136">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="M136">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="N136">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O136" s="21">
-        <f>ROUND(AVERAGE(C136:N136),0)</f>
-        <v>115</v>
+        <f t="shared" si="30"/>
+        <v>118</v>
       </c>
       <c r="P136" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C136:O136),2)</f>
-        <v>11.9</v>
+        <f t="shared" si="31"/>
+        <v>15.57</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
@@ -24273,48 +24241,48 @@
         <v>45962</v>
       </c>
       <c r="C137">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D137">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E137">
+        <v>178</v>
+      </c>
+      <c r="F137">
+        <v>183</v>
+      </c>
+      <c r="G137">
+        <v>186</v>
+      </c>
+      <c r="H137">
+        <v>196</v>
+      </c>
+      <c r="I137">
+        <v>170</v>
+      </c>
+      <c r="J137">
+        <v>180</v>
+      </c>
+      <c r="K137">
+        <v>166</v>
+      </c>
+      <c r="L137">
         <v>169</v>
       </c>
-      <c r="F137">
+      <c r="M137">
         <v>168</v>
       </c>
-      <c r="G137">
-        <v>183</v>
-      </c>
-      <c r="H137">
-        <v>175</v>
-      </c>
-      <c r="I137">
-        <v>175</v>
-      </c>
-      <c r="J137">
+      <c r="N137">
         <v>173</v>
       </c>
-      <c r="K137">
-        <v>179</v>
-      </c>
-      <c r="L137">
-        <v>177</v>
-      </c>
-      <c r="M137">
-        <v>189</v>
-      </c>
-      <c r="N137">
-        <v>174</v>
-      </c>
       <c r="O137" s="21">
-        <f>ROUND(AVERAGE(C137:N137),0)</f>
+        <f t="shared" si="30"/>
         <v>176</v>
       </c>
       <c r="P137" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C137:O137),2)</f>
-        <v>5.36</v>
+        <f t="shared" si="31"/>
+        <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
@@ -24322,48 +24290,48 @@
         <v>45963</v>
       </c>
       <c r="C138">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D138">
+        <v>68</v>
+      </c>
+      <c r="E138">
+        <v>68</v>
+      </c>
+      <c r="F138">
+        <v>66</v>
+      </c>
+      <c r="G138">
+        <v>56</v>
+      </c>
+      <c r="H138">
+        <v>50</v>
+      </c>
+      <c r="I138">
+        <v>64</v>
+      </c>
+      <c r="J138">
+        <v>61</v>
+      </c>
+      <c r="K138">
         <v>65</v>
       </c>
-      <c r="E138">
-        <v>64</v>
-      </c>
-      <c r="F138">
-        <v>74</v>
-      </c>
-      <c r="G138">
+      <c r="L138">
+        <v>69</v>
+      </c>
+      <c r="M138">
         <v>65</v>
       </c>
-      <c r="H138">
-        <v>70</v>
-      </c>
-      <c r="I138">
-        <v>68</v>
-      </c>
-      <c r="J138">
-        <v>62</v>
-      </c>
-      <c r="K138">
-        <v>58</v>
-      </c>
-      <c r="L138">
-        <v>54</v>
-      </c>
-      <c r="M138">
-        <v>55</v>
-      </c>
       <c r="N138">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O138" s="21">
-        <f>ROUND(AVERAGE(C138:N138),0)</f>
-        <v>64</v>
+        <f t="shared" si="30"/>
+        <v>63</v>
       </c>
       <c r="P138" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C138:O138),2)</f>
-        <v>5.53</v>
+        <f t="shared" si="31"/>
+        <v>5.03</v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
@@ -24371,48 +24339,48 @@
         <v>45964</v>
       </c>
       <c r="C139">
+        <v>67</v>
+      </c>
+      <c r="D139">
+        <v>65</v>
+      </c>
+      <c r="E139">
+        <v>61</v>
+      </c>
+      <c r="F139">
+        <v>70</v>
+      </c>
+      <c r="G139">
+        <v>65</v>
+      </c>
+      <c r="H139">
+        <v>45</v>
+      </c>
+      <c r="I139">
         <v>64</v>
       </c>
-      <c r="D139">
+      <c r="J139">
+        <v>69</v>
+      </c>
+      <c r="K139">
+        <v>65</v>
+      </c>
+      <c r="L139">
+        <v>61</v>
+      </c>
+      <c r="M139">
+        <v>66</v>
+      </c>
+      <c r="N139">
+        <v>65</v>
+      </c>
+      <c r="O139" s="21">
+        <f t="shared" si="30"/>
         <v>64</v>
       </c>
-      <c r="E139">
-        <v>62</v>
-      </c>
-      <c r="F139">
-        <v>66</v>
-      </c>
-      <c r="G139">
-        <v>72</v>
-      </c>
-      <c r="H139">
-        <v>68</v>
-      </c>
-      <c r="I139">
-        <v>68</v>
-      </c>
-      <c r="J139">
-        <v>65</v>
-      </c>
-      <c r="K139">
-        <v>59</v>
-      </c>
-      <c r="L139">
-        <v>55</v>
-      </c>
-      <c r="M139">
-        <v>61</v>
-      </c>
-      <c r="N139">
-        <v>59</v>
-      </c>
-      <c r="O139" s="21">
-        <f>ROUND(AVERAGE(C139:N139),0)</f>
-        <v>64</v>
-      </c>
       <c r="P139" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C139:O139),2)</f>
-        <v>4.32</v>
+        <f t="shared" si="31"/>
+        <v>5.92</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
@@ -24420,48 +24388,48 @@
         <v>45965</v>
       </c>
       <c r="C140">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D140">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E140">
         <v>43</v>
       </c>
       <c r="F140">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G140">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I140">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J140">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K140">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L140">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M140">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N140">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O140" s="21">
-        <f>ROUND(AVERAGE(C140:N140),0)</f>
-        <v>37</v>
+        <f t="shared" si="30"/>
+        <v>35</v>
       </c>
       <c r="P140" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C140:O140),2)</f>
-        <v>8.09</v>
+        <f t="shared" si="31"/>
+        <v>8.74</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
@@ -24469,48 +24437,48 @@
         <v>45966</v>
       </c>
       <c r="C141">
+        <v>64</v>
+      </c>
+      <c r="D141">
+        <v>59</v>
+      </c>
+      <c r="E141">
+        <v>78</v>
+      </c>
+      <c r="F141">
+        <v>72</v>
+      </c>
+      <c r="G141">
+        <v>72</v>
+      </c>
+      <c r="H141">
+        <v>66</v>
+      </c>
+      <c r="I141">
+        <v>65</v>
+      </c>
+      <c r="J141">
         <v>63</v>
       </c>
-      <c r="D141">
+      <c r="K141">
+        <v>62</v>
+      </c>
+      <c r="L141">
+        <v>62</v>
+      </c>
+      <c r="M141">
         <v>61</v>
-      </c>
-      <c r="E141">
-        <v>64</v>
-      </c>
-      <c r="F141">
-        <v>64</v>
-      </c>
-      <c r="G141">
-        <v>61</v>
-      </c>
-      <c r="H141">
-        <v>62</v>
-      </c>
-      <c r="I141">
-        <v>64</v>
-      </c>
-      <c r="J141">
-        <v>66</v>
-      </c>
-      <c r="K141">
-        <v>64</v>
-      </c>
-      <c r="L141">
-        <v>66</v>
-      </c>
-      <c r="M141">
-        <v>70</v>
       </c>
       <c r="N141">
         <v>65</v>
       </c>
       <c r="O141" s="21">
-        <f>ROUND(AVERAGE(C141:N141),0)</f>
-        <v>64</v>
+        <f t="shared" si="30"/>
+        <v>66</v>
       </c>
       <c r="P141" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C141:O141),2)</f>
-        <v>2.2799999999999998</v>
+        <f t="shared" si="31"/>
+        <v>5.09</v>
       </c>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
@@ -24518,48 +24486,48 @@
         <v>45967</v>
       </c>
       <c r="C142">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D142">
         <v>83</v>
       </c>
       <c r="E142">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F142">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G142">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H142">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I142">
+        <v>82</v>
+      </c>
+      <c r="J142">
+        <v>82</v>
+      </c>
+      <c r="K142">
+        <v>80</v>
+      </c>
+      <c r="L142">
+        <v>84</v>
+      </c>
+      <c r="M142">
+        <v>83</v>
+      </c>
+      <c r="N142">
         <v>81</v>
       </c>
-      <c r="J142">
-        <v>81</v>
-      </c>
-      <c r="K142">
-        <v>83</v>
-      </c>
-      <c r="L142">
-        <v>82</v>
-      </c>
-      <c r="M142">
-        <v>82</v>
-      </c>
-      <c r="N142">
-        <v>79</v>
-      </c>
       <c r="O142" s="21">
-        <f>ROUND(AVERAGE(C142:N142),0)</f>
-        <v>83</v>
+        <f t="shared" si="30"/>
+        <v>87</v>
       </c>
       <c r="P142" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C142:O142),2)</f>
-        <v>3.22</v>
+        <f t="shared" si="31"/>
+        <v>7.68</v>
       </c>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
@@ -24567,48 +24535,48 @@
         <v>45968</v>
       </c>
       <c r="C143">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D143">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E143">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F143">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="G143">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H143">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="I143">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="J143">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K143">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="L143">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M143">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="N143">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="O143" s="21">
-        <f>ROUND(AVERAGE(C143:N143),0)</f>
-        <v>150</v>
+        <f t="shared" si="30"/>
+        <v>156</v>
       </c>
       <c r="P143" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C143:O143),2)</f>
-        <v>9.0299999999999994</v>
+        <f t="shared" si="31"/>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
@@ -24616,48 +24584,48 @@
         <v>45969</v>
       </c>
       <c r="C144">
+        <v>179</v>
+      </c>
+      <c r="D144">
+        <v>182</v>
+      </c>
+      <c r="E144">
         <v>180</v>
       </c>
-      <c r="D144">
+      <c r="F144">
+        <v>172</v>
+      </c>
+      <c r="G144">
         <v>176</v>
       </c>
-      <c r="E144">
-        <v>172</v>
-      </c>
-      <c r="F144">
-        <v>158</v>
-      </c>
-      <c r="G144">
+      <c r="H144">
+        <v>179</v>
+      </c>
+      <c r="I144">
+        <v>162</v>
+      </c>
+      <c r="J144">
         <v>171</v>
       </c>
-      <c r="H144">
-        <v>181</v>
-      </c>
-      <c r="I144">
+      <c r="K144">
+        <v>182</v>
+      </c>
+      <c r="L144">
         <v>183</v>
       </c>
-      <c r="J144">
-        <v>179</v>
-      </c>
-      <c r="K144">
-        <v>172</v>
-      </c>
-      <c r="L144">
-        <v>162</v>
-      </c>
       <c r="M144">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N144">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O144" s="21">
-        <f>ROUND(AVERAGE(C144:N144),0)</f>
-        <v>173</v>
+        <f t="shared" si="30"/>
+        <v>177</v>
       </c>
       <c r="P144" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C144:O144),2)</f>
-        <v>7.21</v>
+        <f t="shared" si="31"/>
+        <v>5.5</v>
       </c>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
@@ -24665,48 +24633,48 @@
         <v>45970</v>
       </c>
       <c r="C145">
+        <v>65</v>
+      </c>
+      <c r="D145">
+        <v>66</v>
+      </c>
+      <c r="E145">
+        <v>68</v>
+      </c>
+      <c r="F145">
+        <v>64</v>
+      </c>
+      <c r="G145">
+        <v>60</v>
+      </c>
+      <c r="H145">
+        <v>47</v>
+      </c>
+      <c r="I145">
         <v>61</v>
       </c>
-      <c r="D145">
-        <v>62</v>
-      </c>
-      <c r="E145">
+      <c r="J145">
+        <v>59</v>
+      </c>
+      <c r="K145">
         <v>64</v>
       </c>
-      <c r="F145">
-        <v>69</v>
-      </c>
-      <c r="G145">
-        <v>70</v>
-      </c>
-      <c r="H145">
-        <v>69</v>
-      </c>
-      <c r="I145">
-        <v>58</v>
-      </c>
-      <c r="J145">
-        <v>61</v>
-      </c>
-      <c r="K145">
-        <v>61</v>
-      </c>
       <c r="L145">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M145">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N145">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O145" s="21">
-        <f>ROUND(AVERAGE(C145:N145),0)</f>
+        <f t="shared" si="30"/>
         <v>63</v>
       </c>
       <c r="P145" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C145:O145),2)</f>
-        <v>4.1900000000000004</v>
+        <f t="shared" si="31"/>
+        <v>5.33</v>
       </c>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.25">
@@ -24717,45 +24685,45 @@
         <v>46</v>
       </c>
       <c r="D146">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E146">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F146">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G146">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H146">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I146">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J146">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K146">
         <v>48</v>
       </c>
       <c r="L146">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M146">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N146">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O146" s="21">
-        <f>ROUND(AVERAGE(C146:N146),0)</f>
-        <v>55</v>
+        <f t="shared" si="30"/>
+        <v>51</v>
       </c>
       <c r="P146" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C146:O146),2)</f>
-        <v>6.6</v>
+        <f t="shared" si="31"/>
+        <v>5.52</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
@@ -24763,48 +24731,48 @@
         <v>45972</v>
       </c>
       <c r="C147">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D147">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E147">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F147">
         <v>58</v>
       </c>
       <c r="G147">
+        <v>37</v>
+      </c>
+      <c r="H147">
+        <v>36</v>
+      </c>
+      <c r="I147">
+        <v>49</v>
+      </c>
+      <c r="J147">
         <v>52</v>
       </c>
-      <c r="H147">
-        <v>47</v>
-      </c>
-      <c r="I147">
-        <v>60</v>
-      </c>
-      <c r="J147">
-        <v>54</v>
-      </c>
       <c r="K147">
+        <v>44</v>
+      </c>
+      <c r="L147">
+        <v>51</v>
+      </c>
+      <c r="M147">
+        <v>55</v>
+      </c>
+      <c r="N147">
         <v>50</v>
       </c>
-      <c r="L147">
-        <v>55</v>
-      </c>
-      <c r="M147">
-        <v>54</v>
-      </c>
-      <c r="N147">
-        <v>53</v>
-      </c>
       <c r="O147" s="21">
-        <f>ROUND(AVERAGE(C147:N147),0)</f>
-        <v>54</v>
+        <f t="shared" si="30"/>
+        <v>50</v>
       </c>
       <c r="P147" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C147:O147),2)</f>
-        <v>3.55</v>
+        <f t="shared" si="31"/>
+        <v>7.34</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
@@ -24812,48 +24780,48 @@
         <v>45973</v>
       </c>
       <c r="C148">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D148">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E148">
         <v>71</v>
       </c>
       <c r="F148">
+        <v>65</v>
+      </c>
+      <c r="G148">
+        <v>57</v>
+      </c>
+      <c r="H148">
+        <v>64</v>
+      </c>
+      <c r="I148">
+        <v>64</v>
+      </c>
+      <c r="J148">
         <v>63</v>
       </c>
-      <c r="G148">
-        <v>59</v>
-      </c>
-      <c r="H148">
-        <v>55</v>
-      </c>
-      <c r="I148">
+      <c r="K148">
+        <v>68</v>
+      </c>
+      <c r="L148">
         <v>69</v>
       </c>
-      <c r="J148">
-        <v>69</v>
-      </c>
-      <c r="K148">
+      <c r="M148">
+        <v>74</v>
+      </c>
+      <c r="N148">
+        <v>72</v>
+      </c>
+      <c r="O148" s="21">
+        <f t="shared" si="30"/>
         <v>67</v>
       </c>
-      <c r="L148">
-        <v>65</v>
-      </c>
-      <c r="M148">
-        <v>61</v>
-      </c>
-      <c r="N148">
-        <v>63</v>
-      </c>
-      <c r="O148" s="21">
-        <f>ROUND(AVERAGE(C148:N148),0)</f>
-        <v>65</v>
-      </c>
       <c r="P148" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C148:O148),2)</f>
-        <v>4.4800000000000004</v>
+        <f t="shared" si="31"/>
+        <v>4.55</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
@@ -24861,48 +24829,48 @@
         <v>45974</v>
       </c>
       <c r="C149">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D149">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E149">
+        <v>96</v>
+      </c>
+      <c r="F149">
+        <v>94</v>
+      </c>
+      <c r="G149">
         <v>98</v>
       </c>
-      <c r="F149">
-        <v>93</v>
-      </c>
-      <c r="G149">
-        <v>89</v>
-      </c>
       <c r="H149">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="I149">
+        <v>94</v>
+      </c>
+      <c r="J149">
+        <v>92</v>
+      </c>
+      <c r="K149">
+        <v>116</v>
+      </c>
+      <c r="L149">
+        <v>106</v>
+      </c>
+      <c r="M149">
         <v>105</v>
       </c>
-      <c r="J149">
-        <v>107</v>
-      </c>
-      <c r="K149">
-        <v>100</v>
-      </c>
-      <c r="L149">
-        <v>87</v>
-      </c>
-      <c r="M149">
-        <v>94</v>
-      </c>
       <c r="N149">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="O149" s="21">
-        <f>ROUND(AVERAGE(C149:N149),0)</f>
-        <v>98</v>
+        <f t="shared" si="30"/>
+        <v>103</v>
       </c>
       <c r="P149" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C149:O149),2)</f>
-        <v>9.2100000000000009</v>
+        <f t="shared" si="31"/>
+        <v>7.57</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
@@ -24910,48 +24878,48 @@
         <v>40</v>
       </c>
       <c r="C150" s="34">
-        <v>25</v>
+        <v>24.78</v>
       </c>
       <c r="D150">
-        <v>24.55</v>
+        <v>25.89</v>
       </c>
       <c r="E150">
-        <v>23.72</v>
+        <v>24.92</v>
       </c>
       <c r="F150">
-        <v>20.79</v>
+        <v>29.54</v>
       </c>
       <c r="G150">
-        <v>23.57</v>
+        <v>21.98</v>
       </c>
       <c r="H150">
-        <v>21.89</v>
+        <v>23.29</v>
       </c>
       <c r="I150">
-        <v>29.77</v>
+        <v>23.6</v>
       </c>
       <c r="J150">
-        <v>27.27</v>
+        <v>25.93</v>
       </c>
       <c r="K150">
-        <v>28.5</v>
+        <v>26.25</v>
       </c>
       <c r="L150">
-        <v>26.56</v>
+        <v>27.71</v>
       </c>
       <c r="M150" s="34">
-        <v>23.31</v>
+        <v>27.86</v>
       </c>
       <c r="N150" s="35">
-        <v>23.28</v>
+        <v>27.31</v>
       </c>
       <c r="O150" s="36">
         <f>ROUND(AVERAGE(C150:N150),2)</f>
-        <v>24.85</v>
+        <v>25.76</v>
       </c>
       <c r="P150" s="36">
         <f>ROUND(_xlfn.STDEV.P(C150:N150),2)</f>
-        <v>2.57</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="151" spans="2:16" x14ac:dyDescent="0.25">
@@ -24959,86 +24927,86 @@
         <v>41</v>
       </c>
       <c r="C151" s="16">
-        <v>28.85</v>
+        <v>29.87</v>
       </c>
       <c r="D151">
-        <v>28.02</v>
+        <v>29.09</v>
       </c>
       <c r="E151">
-        <v>30.77</v>
+        <v>30.06</v>
       </c>
       <c r="F151">
-        <v>31.81</v>
+        <v>27.68</v>
       </c>
       <c r="G151">
-        <v>29.29</v>
+        <v>31.05</v>
       </c>
       <c r="H151">
-        <v>29.6</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="I151">
-        <v>21.75</v>
+        <v>31.42</v>
       </c>
       <c r="J151">
-        <v>19.87</v>
+        <v>28.96</v>
       </c>
       <c r="K151">
-        <v>24.72</v>
+        <v>24.03</v>
       </c>
       <c r="L151">
-        <v>28.4</v>
+        <v>22.95</v>
       </c>
       <c r="M151" s="16">
-        <v>29.02</v>
+        <v>26.73</v>
       </c>
       <c r="N151" s="16">
-        <v>29.73</v>
+        <v>26.04</v>
       </c>
       <c r="O151" s="21">
         <f>ROUND(AVERAGE(C151:N151),2)</f>
-        <v>27.65</v>
+        <v>28.45</v>
       </c>
       <c r="P151" s="21">
         <f>ROUND(_xlfn.STDEV.P(C151:N151),2)</f>
-        <v>3.49</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C152" s="46" t="s">
+      <c r="C152" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D152" s="46"/>
-      <c r="E152" t="s">
+      <c r="D152" s="51"/>
+      <c r="E152" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F152" s="46" t="s">
+      <c r="F152" s="51"/>
+      <c r="G152" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G152" s="46"/>
-      <c r="H152" t="s">
+      <c r="H152" s="51"/>
+      <c r="I152" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I152" s="46" t="s">
+      <c r="J152" s="51"/>
+      <c r="K152" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="J152" s="46"/>
-      <c r="K152" t="s">
+      <c r="L152" s="52"/>
+      <c r="M152" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="L152" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46"/>
+      <c r="N152" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="C152:D152"/>
-    <mergeCell ref="F152:G152"/>
     <mergeCell ref="I152:J152"/>
-    <mergeCell ref="L152:N152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="M152:N152"/>
   </mergeCells>
   <conditionalFormatting sqref="C150 E150:G150 I150:J150 L150:N150 E151">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="between">
@@ -25053,7 +25021,7 @@
     <cfRule type="aboveAverage" dxfId="7" priority="11"/>
     <cfRule type="aboveAverage" dxfId="6" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R79 R81:R111">
+  <conditionalFormatting sqref="R3:R79 R81:R113">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -25075,8 +25043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D109" activeCellId="1" sqref="I109:K109 C109:D109"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="P114" sqref="P114:P149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25087,7 +25055,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
@@ -25108,20 +25076,20 @@
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="43">
+      <c r="C2" s="48">
         <v>0.85</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="19" t="s">
         <v>39</v>
       </c>
@@ -28194,11 +28162,11 @@
         <v>71</v>
       </c>
       <c r="O61" s="21">
-        <f t="shared" ref="O61:O96" si="6">ROUND(AVERAGE(C61:N61),0)</f>
+        <f t="shared" ref="O61:O94" si="6">ROUND(AVERAGE(C61:N61),0)</f>
         <v>64</v>
       </c>
       <c r="P61" s="21">
-        <f t="shared" ref="P61:P96" si="7">ROUND(_xlfn.STDEV.P(C61:N61),2)</f>
+        <f t="shared" ref="P61:P94" si="7">ROUND(_xlfn.STDEV.P(C61:N61),2)</f>
         <v>7.56</v>
       </c>
       <c r="R61">
@@ -28625,11 +28593,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R69" s="27" t="e">
-        <f t="shared" ref="R69:R111" si="9">O69-A69</f>
+        <f t="shared" ref="R69:R113" si="9">O69-A69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S69" t="e">
-        <f t="shared" ref="S69:S111" si="10">O69/A69</f>
+        <f t="shared" ref="S69:S113" si="10">O69/A69</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30548,6 +30516,9 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>105</v>
+      </c>
       <c r="B112" s="23">
         <v>45937</v>
       </c>
@@ -30595,8 +30566,19 @@
         <f t="shared" si="12"/>
         <v>6.49</v>
       </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R112" s="27">
+        <f t="shared" si="9"/>
+        <v>-54</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="10"/>
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>38</v>
+      </c>
       <c r="B113" s="23">
         <v>45938</v>
       </c>
@@ -30644,46 +30626,54 @@
         <f t="shared" si="12"/>
         <v>6.16</v>
       </c>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R113" s="27">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="10"/>
+        <v>1.5263157894736843</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B114" s="23">
         <v>45939</v>
       </c>
       <c r="C114">
+        <v>49</v>
+      </c>
+      <c r="D114">
         <v>53</v>
       </c>
-      <c r="D114">
-        <v>50</v>
-      </c>
       <c r="E114">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F114">
+        <v>62</v>
+      </c>
+      <c r="G114">
+        <v>67</v>
+      </c>
+      <c r="H114">
+        <v>55</v>
+      </c>
+      <c r="I114">
+        <v>41</v>
+      </c>
+      <c r="J114">
+        <v>51</v>
+      </c>
+      <c r="K114">
         <v>53</v>
       </c>
-      <c r="G114">
-        <v>65</v>
-      </c>
-      <c r="H114">
-        <v>49</v>
-      </c>
-      <c r="I114">
-        <v>50</v>
-      </c>
-      <c r="J114">
-        <v>47</v>
-      </c>
-      <c r="K114">
-        <v>63</v>
-      </c>
       <c r="L114">
+        <v>51</v>
+      </c>
+      <c r="M114">
         <v>54</v>
       </c>
-      <c r="M114">
-        <v>67</v>
-      </c>
       <c r="N114">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O114" s="21">
         <f t="shared" si="11"/>
@@ -30691,195 +30681,195 @@
       </c>
       <c r="P114" s="21">
         <f t="shared" si="12"/>
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B115" s="23">
         <v>45940</v>
       </c>
       <c r="C115">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D115">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E115">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F115">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="G115">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H115">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I115">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="J115">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K115">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L115">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M115">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="N115">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="O115" s="21">
         <f t="shared" si="11"/>
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P115" s="21">
         <f t="shared" si="12"/>
-        <v>21.82</v>
-      </c>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B116" s="23">
         <v>45941</v>
       </c>
       <c r="C116">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D116">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E116">
+        <v>191</v>
+      </c>
+      <c r="F116">
+        <v>175</v>
+      </c>
+      <c r="G116">
+        <v>173</v>
+      </c>
+      <c r="H116">
+        <v>167</v>
+      </c>
+      <c r="I116">
+        <v>152</v>
+      </c>
+      <c r="J116">
         <v>163</v>
       </c>
-      <c r="F116">
-        <v>140</v>
-      </c>
-      <c r="G116">
-        <v>155</v>
-      </c>
-      <c r="H116">
-        <v>169</v>
-      </c>
-      <c r="I116">
-        <v>178</v>
-      </c>
-      <c r="J116">
+      <c r="K116">
+        <v>173</v>
+      </c>
+      <c r="L116">
+        <v>193</v>
+      </c>
+      <c r="M116">
         <v>179</v>
       </c>
-      <c r="K116">
-        <v>184</v>
-      </c>
-      <c r="L116">
-        <v>186</v>
-      </c>
-      <c r="M116">
-        <v>192</v>
-      </c>
       <c r="N116">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O116" s="21">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P116" s="21">
         <f t="shared" si="12"/>
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B117" s="23">
         <v>45942</v>
       </c>
       <c r="C117">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D117">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E117">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F117">
+        <v>56</v>
+      </c>
+      <c r="G117">
         <v>43</v>
       </c>
-      <c r="G117">
-        <v>30</v>
-      </c>
       <c r="H117">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I117">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J117">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K117">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L117">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M117">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N117">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O117" s="21">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P117" s="21">
         <f t="shared" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B118" s="23">
         <v>45943</v>
       </c>
       <c r="C118">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D118">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E118">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F118">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G118">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H118">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I118">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J118">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K118">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L118">
+        <v>42</v>
+      </c>
+      <c r="M118">
+        <v>46</v>
+      </c>
+      <c r="N118">
         <v>43</v>
-      </c>
-      <c r="M118">
-        <v>57</v>
-      </c>
-      <c r="N118">
-        <v>50</v>
       </c>
       <c r="O118" s="21">
         <f t="shared" si="11"/>
@@ -30887,108 +30877,108 @@
       </c>
       <c r="P118" s="21">
         <f t="shared" si="12"/>
-        <v>6.86</v>
-      </c>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B119" s="23">
         <v>45944</v>
       </c>
       <c r="C119">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D119">
+        <v>68</v>
+      </c>
+      <c r="E119">
+        <v>49</v>
+      </c>
+      <c r="F119">
+        <v>41</v>
+      </c>
+      <c r="G119">
+        <v>62</v>
+      </c>
+      <c r="H119">
+        <v>22</v>
+      </c>
+      <c r="I119">
+        <v>45</v>
+      </c>
+      <c r="J119">
+        <v>60</v>
+      </c>
+      <c r="K119">
+        <v>75</v>
+      </c>
+      <c r="L119">
+        <v>64</v>
+      </c>
+      <c r="M119">
+        <v>68</v>
+      </c>
+      <c r="N119">
         <v>69</v>
-      </c>
-      <c r="E119">
-        <v>54</v>
-      </c>
-      <c r="F119">
-        <v>56</v>
-      </c>
-      <c r="G119">
-        <v>29</v>
-      </c>
-      <c r="H119">
-        <v>45</v>
-      </c>
-      <c r="I119">
-        <v>73</v>
-      </c>
-      <c r="J119">
-        <v>65</v>
-      </c>
-      <c r="K119">
-        <v>65</v>
-      </c>
-      <c r="L119">
-        <v>50</v>
-      </c>
-      <c r="M119">
-        <v>60</v>
-      </c>
-      <c r="N119">
-        <v>50</v>
       </c>
       <c r="O119" s="21">
         <f t="shared" si="11"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P119" s="21">
         <f t="shared" si="12"/>
-        <v>12.05</v>
-      </c>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B120" s="23">
         <v>45945</v>
       </c>
       <c r="C120">
+        <v>51</v>
+      </c>
+      <c r="D120">
+        <v>49</v>
+      </c>
+      <c r="E120">
+        <v>57</v>
+      </c>
+      <c r="F120">
         <v>52</v>
       </c>
-      <c r="D120">
-        <v>51</v>
-      </c>
-      <c r="E120">
-        <v>36</v>
-      </c>
-      <c r="F120">
-        <v>32</v>
-      </c>
       <c r="G120">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I120">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J120">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L120">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M120">
         <v>56</v>
       </c>
       <c r="N120">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O120" s="21">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P120" s="21">
         <f t="shared" si="12"/>
-        <v>10.69</v>
-      </c>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B121" s="23">
         <v>45946</v>
       </c>
@@ -30999,45 +30989,45 @@
         <v>83</v>
       </c>
       <c r="E121">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F121">
+        <v>70</v>
+      </c>
+      <c r="G121">
         <v>74</v>
       </c>
-      <c r="G121">
-        <v>62</v>
-      </c>
       <c r="H121">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I121">
+        <v>49</v>
+      </c>
+      <c r="J121">
+        <v>57</v>
+      </c>
+      <c r="K121">
+        <v>83</v>
+      </c>
+      <c r="L121">
+        <v>83</v>
+      </c>
+      <c r="M121">
+        <v>80</v>
+      </c>
+      <c r="N121">
         <v>81</v>
-      </c>
-      <c r="J121">
-        <v>82</v>
-      </c>
-      <c r="K121">
-        <v>81</v>
-      </c>
-      <c r="L121">
-        <v>64</v>
-      </c>
-      <c r="M121">
-        <v>63</v>
-      </c>
-      <c r="N121">
-        <v>68</v>
       </c>
       <c r="O121" s="21">
         <f t="shared" si="11"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P121" s="21">
         <f t="shared" si="12"/>
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B122" s="23">
         <v>45947</v>
       </c>
@@ -31045,97 +31035,97 @@
         <v>148</v>
       </c>
       <c r="D122">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E122">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F122">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G122">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H122">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I122">
+        <v>71</v>
+      </c>
+      <c r="J122">
+        <v>137</v>
+      </c>
+      <c r="K122">
+        <v>150</v>
+      </c>
+      <c r="L122">
         <v>148</v>
       </c>
-      <c r="J122">
-        <v>143</v>
-      </c>
-      <c r="K122">
-        <v>141</v>
-      </c>
-      <c r="L122">
-        <v>124</v>
-      </c>
       <c r="M122">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N122">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="O122" s="21">
         <f t="shared" si="11"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P122" s="21">
         <f t="shared" si="12"/>
-        <v>15.96</v>
-      </c>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B123" s="23">
         <v>45948</v>
       </c>
       <c r="C123">
+        <v>180</v>
+      </c>
+      <c r="D123">
         <v>178</v>
       </c>
-      <c r="D123">
-        <v>177</v>
-      </c>
       <c r="E123">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F123">
         <v>139</v>
       </c>
       <c r="G123">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H123">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I123">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="J123">
+        <v>157</v>
+      </c>
+      <c r="K123">
+        <v>177</v>
+      </c>
+      <c r="L123">
+        <v>177</v>
+      </c>
+      <c r="M123">
+        <v>175</v>
+      </c>
+      <c r="N123">
         <v>176</v>
-      </c>
-      <c r="K123">
-        <v>180</v>
-      </c>
-      <c r="L123">
-        <v>150</v>
-      </c>
-      <c r="M123">
-        <v>167</v>
-      </c>
-      <c r="N123">
-        <v>159</v>
       </c>
       <c r="O123" s="21">
         <f t="shared" si="11"/>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P123" s="21">
         <f t="shared" si="12"/>
-        <v>17.48</v>
-      </c>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B124" s="23">
         <v>45949</v>
       </c>
@@ -31143,184 +31133,184 @@
         <v>52</v>
       </c>
       <c r="D124">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E124">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F124">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G124">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H124">
+        <v>24</v>
+      </c>
+      <c r="I124">
         <v>43</v>
-      </c>
-      <c r="I124">
-        <v>48</v>
       </c>
       <c r="J124">
         <v>56</v>
       </c>
       <c r="K124">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L124">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M124">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N124">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O124" s="21">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P124" s="21">
         <f t="shared" si="12"/>
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B125" s="23">
         <v>45950</v>
       </c>
       <c r="C125">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D125">
+        <v>32</v>
+      </c>
+      <c r="E125">
+        <v>74</v>
+      </c>
+      <c r="F125">
+        <v>61</v>
+      </c>
+      <c r="G125">
+        <v>14</v>
+      </c>
+      <c r="H125">
+        <v>17</v>
+      </c>
+      <c r="I125">
+        <v>64</v>
+      </c>
+      <c r="J125">
+        <v>52</v>
+      </c>
+      <c r="K125">
         <v>34</v>
       </c>
-      <c r="E125">
+      <c r="L125">
         <v>25</v>
       </c>
-      <c r="F125">
-        <v>75</v>
-      </c>
-      <c r="G125">
-        <v>53</v>
-      </c>
-      <c r="H125">
-        <v>40</v>
-      </c>
-      <c r="I125">
-        <v>46</v>
-      </c>
-      <c r="J125">
-        <v>31</v>
-      </c>
-      <c r="K125">
-        <v>30</v>
-      </c>
-      <c r="L125">
-        <v>43</v>
-      </c>
       <c r="M125">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N125">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="O125" s="21">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P125" s="21">
         <f t="shared" si="12"/>
-        <v>14.41</v>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+        <v>19.34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B126" s="23">
         <v>45951</v>
       </c>
       <c r="C126">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D126">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E126">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F126">
+        <v>52</v>
+      </c>
+      <c r="G126">
+        <v>30</v>
+      </c>
+      <c r="H126">
+        <v>27</v>
+      </c>
+      <c r="I126">
         <v>69</v>
       </c>
-      <c r="G126">
-        <v>21</v>
-      </c>
-      <c r="H126">
-        <v>38</v>
-      </c>
-      <c r="I126">
+      <c r="J126">
+        <v>48</v>
+      </c>
+      <c r="K126">
         <v>36</v>
-      </c>
-      <c r="J126">
-        <v>37</v>
-      </c>
-      <c r="K126">
-        <v>39</v>
       </c>
       <c r="L126">
         <v>37</v>
       </c>
       <c r="M126">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N126">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="O126" s="21">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P126" s="21">
         <f t="shared" si="12"/>
-        <v>13.58</v>
-      </c>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B127" s="23">
         <v>45952</v>
       </c>
       <c r="C127">
+        <v>64</v>
+      </c>
+      <c r="D127">
+        <v>60</v>
+      </c>
+      <c r="E127">
+        <v>71</v>
+      </c>
+      <c r="F127">
+        <v>59</v>
+      </c>
+      <c r="G127">
+        <v>66</v>
+      </c>
+      <c r="H127">
+        <v>36</v>
+      </c>
+      <c r="I127">
+        <v>45</v>
+      </c>
+      <c r="J127">
+        <v>51</v>
+      </c>
+      <c r="K127">
+        <v>60</v>
+      </c>
+      <c r="L127">
         <v>61</v>
       </c>
-      <c r="D127">
-        <v>61</v>
-      </c>
-      <c r="E127">
-        <v>55</v>
-      </c>
-      <c r="F127">
-        <v>61</v>
-      </c>
-      <c r="G127">
-        <v>46</v>
-      </c>
-      <c r="H127">
-        <v>45</v>
-      </c>
-      <c r="I127">
-        <v>61</v>
-      </c>
-      <c r="J127">
-        <v>67</v>
-      </c>
-      <c r="K127">
+      <c r="M127">
+        <v>60</v>
+      </c>
+      <c r="N127">
         <v>62</v>
-      </c>
-      <c r="L127">
-        <v>62</v>
-      </c>
-      <c r="M127">
-        <v>56</v>
-      </c>
-      <c r="N127">
-        <v>54</v>
       </c>
       <c r="O127" s="21">
         <f t="shared" si="11"/>
@@ -31328,48 +31318,48 @@
       </c>
       <c r="P127" s="21">
         <f t="shared" si="12"/>
-        <v>6.38</v>
-      </c>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B128" s="23">
         <v>45953</v>
       </c>
       <c r="C128">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D128">
         <v>86</v>
       </c>
       <c r="E128">
+        <v>88</v>
+      </c>
+      <c r="F128">
         <v>76</v>
       </c>
-      <c r="F128">
-        <v>96</v>
-      </c>
       <c r="G128">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H128">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I128">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J128">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K128">
+        <v>83</v>
+      </c>
+      <c r="L128">
+        <v>84</v>
+      </c>
+      <c r="M128">
+        <v>84</v>
+      </c>
+      <c r="N128">
         <v>85</v>
-      </c>
-      <c r="L128">
-        <v>68</v>
-      </c>
-      <c r="M128">
-        <v>66</v>
-      </c>
-      <c r="N128">
-        <v>70</v>
       </c>
       <c r="O128" s="21">
         <f t="shared" si="11"/>
@@ -31377,7 +31367,7 @@
       </c>
       <c r="P128" s="21">
         <f t="shared" si="12"/>
-        <v>11.52</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
@@ -31385,48 +31375,48 @@
         <v>45954</v>
       </c>
       <c r="C129">
+        <v>152</v>
+      </c>
+      <c r="D129">
         <v>148</v>
       </c>
-      <c r="D129">
-        <v>150</v>
-      </c>
       <c r="E129">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F129">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="G129">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="H129">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I129">
+        <v>97</v>
+      </c>
+      <c r="J129">
+        <v>110</v>
+      </c>
+      <c r="K129">
+        <v>154</v>
+      </c>
+      <c r="L129">
+        <v>147</v>
+      </c>
+      <c r="M129">
+        <v>152</v>
+      </c>
+      <c r="N129">
         <v>156</v>
-      </c>
-      <c r="J129">
-        <v>160</v>
-      </c>
-      <c r="K129">
-        <v>148</v>
-      </c>
-      <c r="L129">
-        <v>107</v>
-      </c>
-      <c r="M129">
-        <v>131</v>
-      </c>
-      <c r="N129">
-        <v>121</v>
       </c>
       <c r="O129" s="21">
         <f t="shared" si="11"/>
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P129" s="21">
         <f t="shared" si="12"/>
-        <v>28.28</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
@@ -31434,48 +31424,48 @@
         <v>45955</v>
       </c>
       <c r="C130">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D130">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E130">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="F130">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="G130">
+        <v>144</v>
+      </c>
+      <c r="H130">
+        <v>129</v>
+      </c>
+      <c r="I130">
+        <v>145</v>
+      </c>
+      <c r="J130">
         <v>136</v>
       </c>
-      <c r="H130">
-        <v>95</v>
-      </c>
-      <c r="I130">
-        <v>171</v>
-      </c>
-      <c r="J130">
-        <v>156</v>
-      </c>
       <c r="K130">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L130">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M130">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N130">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O130" s="21">
         <f t="shared" si="11"/>
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P130" s="21">
         <f t="shared" si="12"/>
-        <v>22.86</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
@@ -31483,48 +31473,48 @@
         <v>45956</v>
       </c>
       <c r="C131">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D131">
+        <v>59</v>
+      </c>
+      <c r="E131">
+        <v>77</v>
+      </c>
+      <c r="F131">
+        <v>55</v>
+      </c>
+      <c r="G131">
+        <v>37</v>
+      </c>
+      <c r="H131">
+        <v>40</v>
+      </c>
+      <c r="I131">
+        <v>64</v>
+      </c>
+      <c r="J131">
+        <v>58</v>
+      </c>
+      <c r="K131">
+        <v>68</v>
+      </c>
+      <c r="L131">
+        <v>56</v>
+      </c>
+      <c r="M131">
+        <v>62</v>
+      </c>
+      <c r="N131">
         <v>61</v>
-      </c>
-      <c r="E131">
-        <v>52</v>
-      </c>
-      <c r="F131">
-        <v>65</v>
-      </c>
-      <c r="G131">
-        <v>72</v>
-      </c>
-      <c r="H131">
-        <v>63</v>
-      </c>
-      <c r="I131">
-        <v>69</v>
-      </c>
-      <c r="J131">
-        <v>61</v>
-      </c>
-      <c r="K131">
-        <v>63</v>
-      </c>
-      <c r="L131">
-        <v>45</v>
-      </c>
-      <c r="M131">
-        <v>94</v>
-      </c>
-      <c r="N131">
-        <v>56</v>
       </c>
       <c r="O131" s="21">
         <f t="shared" si="11"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P131" s="21">
         <f t="shared" si="12"/>
-        <v>11.51</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
@@ -31532,40 +31522,40 @@
         <v>45957</v>
       </c>
       <c r="C132">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D132">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E132">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F132">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G132">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I132">
         <v>36</v>
       </c>
       <c r="J132">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K132">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L132">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M132">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N132">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O132" s="21">
         <f t="shared" si="11"/>
@@ -31573,7 +31563,7 @@
       </c>
       <c r="P132" s="21">
         <f t="shared" si="12"/>
-        <v>4.9400000000000004</v>
+        <v>8.11</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
@@ -31581,48 +31571,48 @@
         <v>45958</v>
       </c>
       <c r="C133">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D133">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E133">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F133">
+        <v>35</v>
+      </c>
+      <c r="G133">
         <v>39</v>
       </c>
-      <c r="G133">
-        <v>16</v>
-      </c>
       <c r="H133">
+        <v>19</v>
+      </c>
+      <c r="I133">
         <v>40</v>
       </c>
-      <c r="I133">
-        <v>49</v>
-      </c>
       <c r="J133">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K133">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L133">
         <v>44</v>
       </c>
       <c r="M133">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N133">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O133" s="21">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P133" s="21">
         <f t="shared" si="12"/>
-        <v>8.0299999999999994</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
@@ -31630,40 +31620,40 @@
         <v>45959</v>
       </c>
       <c r="C134">
+        <v>53</v>
+      </c>
+      <c r="D134">
+        <v>53</v>
+      </c>
+      <c r="E134">
+        <v>52</v>
+      </c>
+      <c r="F134">
         <v>58</v>
       </c>
-      <c r="D134">
-        <v>55</v>
-      </c>
-      <c r="E134">
-        <v>44</v>
-      </c>
-      <c r="F134">
-        <v>60</v>
-      </c>
       <c r="G134">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I134">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J134">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>51</v>
       </c>
       <c r="L134">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M134">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N134">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O134" s="21">
         <f t="shared" si="11"/>
@@ -31671,7 +31661,7 @@
       </c>
       <c r="P134" s="21">
         <f t="shared" si="12"/>
-        <v>12.59</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
@@ -31679,40 +31669,40 @@
         <v>45960</v>
       </c>
       <c r="C135">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D135">
         <v>90</v>
       </c>
       <c r="E135">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F135">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G135">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H135">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I135">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="J135">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K135">
         <v>86</v>
       </c>
       <c r="L135">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="M135">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N135">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="O135" s="21">
         <f t="shared" si="11"/>
@@ -31720,7 +31710,7 @@
       </c>
       <c r="P135" s="21">
         <f t="shared" si="12"/>
-        <v>12.35</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
@@ -31728,48 +31718,48 @@
         <v>45961</v>
       </c>
       <c r="C136">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D136">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E136">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F136">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G136">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H136">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I136">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="J136">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K136">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L136">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M136">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N136">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="O136" s="21">
         <f t="shared" si="11"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P136" s="21">
         <f t="shared" si="12"/>
-        <v>13.58</v>
+        <v>18.760000000000002</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
@@ -31777,48 +31767,48 @@
         <v>45962</v>
       </c>
       <c r="C137">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D137">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E137">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="F137">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G137">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="H137">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I137">
+        <v>128</v>
+      </c>
+      <c r="J137">
+        <v>148</v>
+      </c>
+      <c r="K137">
+        <v>166</v>
+      </c>
+      <c r="L137">
+        <v>169</v>
+      </c>
+      <c r="M137">
+        <v>168</v>
+      </c>
+      <c r="N137">
         <v>175</v>
-      </c>
-      <c r="J137">
-        <v>173</v>
-      </c>
-      <c r="K137">
-        <v>177</v>
-      </c>
-      <c r="L137">
-        <v>147</v>
-      </c>
-      <c r="M137">
-        <v>167</v>
-      </c>
-      <c r="N137">
-        <v>158</v>
       </c>
       <c r="O137" s="21">
         <f t="shared" si="11"/>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P137" s="21">
         <f t="shared" si="12"/>
-        <v>23.62</v>
+        <v>18.190000000000001</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
@@ -31826,48 +31816,48 @@
         <v>45963</v>
       </c>
       <c r="C138">
+        <v>63</v>
+      </c>
+      <c r="D138">
+        <v>68</v>
+      </c>
+      <c r="E138">
+        <v>63</v>
+      </c>
+      <c r="F138">
+        <v>59</v>
+      </c>
+      <c r="G138">
+        <v>35</v>
+      </c>
+      <c r="H138">
+        <v>22</v>
+      </c>
+      <c r="I138">
+        <v>51</v>
+      </c>
+      <c r="J138">
+        <v>61</v>
+      </c>
+      <c r="K138">
+        <v>65</v>
+      </c>
+      <c r="L138">
+        <v>69</v>
+      </c>
+      <c r="M138">
+        <v>64</v>
+      </c>
+      <c r="N138">
         <v>66</v>
-      </c>
-      <c r="D138">
-        <v>64</v>
-      </c>
-      <c r="E138">
-        <v>49</v>
-      </c>
-      <c r="F138">
-        <v>58</v>
-      </c>
-      <c r="G138">
-        <v>31</v>
-      </c>
-      <c r="H138">
-        <v>46</v>
-      </c>
-      <c r="I138">
-        <v>68</v>
-      </c>
-      <c r="J138">
-        <v>62</v>
-      </c>
-      <c r="K138">
-        <v>58</v>
-      </c>
-      <c r="L138">
-        <v>41</v>
-      </c>
-      <c r="M138">
-        <v>50</v>
-      </c>
-      <c r="N138">
-        <v>56</v>
       </c>
       <c r="O138" s="21">
         <f t="shared" si="11"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P138" s="21">
         <f t="shared" si="12"/>
-        <v>10.58</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
@@ -31875,40 +31865,40 @@
         <v>45964</v>
       </c>
       <c r="C139">
+        <v>69</v>
+      </c>
+      <c r="D139">
         <v>66</v>
       </c>
-      <c r="D139">
+      <c r="E139">
+        <v>42</v>
+      </c>
+      <c r="F139">
+        <v>39</v>
+      </c>
+      <c r="G139">
+        <v>49</v>
+      </c>
+      <c r="H139">
+        <v>22</v>
+      </c>
+      <c r="I139">
+        <v>45</v>
+      </c>
+      <c r="J139">
+        <v>61</v>
+      </c>
+      <c r="K139">
         <v>65</v>
       </c>
-      <c r="E139">
-        <v>48</v>
-      </c>
-      <c r="F139">
-        <v>46</v>
-      </c>
-      <c r="G139">
-        <v>29</v>
-      </c>
-      <c r="H139">
-        <v>46</v>
-      </c>
-      <c r="I139">
-        <v>68</v>
-      </c>
-      <c r="J139">
-        <v>65</v>
-      </c>
-      <c r="K139">
+      <c r="L139">
         <v>61</v>
       </c>
-      <c r="L139">
-        <v>50</v>
-      </c>
       <c r="M139">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="N139">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="O139" s="21">
         <f t="shared" si="11"/>
@@ -31916,7 +31906,7 @@
       </c>
       <c r="P139" s="21">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
@@ -31924,40 +31914,40 @@
         <v>45965</v>
       </c>
       <c r="C140">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D140">
         <v>25</v>
       </c>
       <c r="E140">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F140">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G140">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H140">
+        <v>14</v>
+      </c>
+      <c r="I140">
+        <v>40</v>
+      </c>
+      <c r="J140">
+        <v>48</v>
+      </c>
+      <c r="K140">
+        <v>41</v>
+      </c>
+      <c r="L140">
+        <v>21</v>
+      </c>
+      <c r="M140">
         <v>34</v>
       </c>
-      <c r="I140">
-        <v>28</v>
-      </c>
-      <c r="J140">
-        <v>32</v>
-      </c>
-      <c r="K140">
-        <v>35</v>
-      </c>
-      <c r="L140">
-        <v>32</v>
-      </c>
-      <c r="M140">
-        <v>41</v>
-      </c>
       <c r="N140">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="O140" s="21">
         <f t="shared" si="11"/>
@@ -31965,7 +31955,7 @@
       </c>
       <c r="P140" s="21">
         <f t="shared" si="12"/>
-        <v>9.16</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
@@ -31973,48 +31963,48 @@
         <v>45966</v>
       </c>
       <c r="C141">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D141">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E141">
+        <v>59</v>
+      </c>
+      <c r="F141">
+        <v>58</v>
+      </c>
+      <c r="G141">
         <v>57</v>
       </c>
-      <c r="F141">
-        <v>50</v>
-      </c>
-      <c r="G141">
-        <v>41</v>
-      </c>
       <c r="H141">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I141">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J141">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L141">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M141">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N141">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O141" s="21">
         <f t="shared" si="11"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P141" s="21">
         <f t="shared" si="12"/>
-        <v>7.68</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
@@ -32022,40 +32012,40 @@
         <v>45967</v>
       </c>
       <c r="C142">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D142">
         <v>83</v>
       </c>
       <c r="E142">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F142">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G142">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H142">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I142">
+        <v>49</v>
+      </c>
+      <c r="J142">
+        <v>58</v>
+      </c>
+      <c r="K142">
+        <v>80</v>
+      </c>
+      <c r="L142">
+        <v>84</v>
+      </c>
+      <c r="M142">
+        <v>83</v>
+      </c>
+      <c r="N142">
         <v>81</v>
-      </c>
-      <c r="J142">
-        <v>81</v>
-      </c>
-      <c r="K142">
-        <v>83</v>
-      </c>
-      <c r="L142">
-        <v>62</v>
-      </c>
-      <c r="M142">
-        <v>65</v>
-      </c>
-      <c r="N142">
-        <v>66</v>
       </c>
       <c r="O142" s="21">
         <f t="shared" si="11"/>
@@ -32063,7 +32053,7 @@
       </c>
       <c r="P142" s="21">
         <f t="shared" si="12"/>
-        <v>10.42</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
@@ -32071,48 +32061,48 @@
         <v>45968</v>
       </c>
       <c r="C143">
+        <v>167</v>
+      </c>
+      <c r="D143">
+        <v>161</v>
+      </c>
+      <c r="E143">
+        <v>120</v>
+      </c>
+      <c r="F143">
+        <v>117</v>
+      </c>
+      <c r="G143">
+        <v>103</v>
+      </c>
+      <c r="H143">
+        <v>69</v>
+      </c>
+      <c r="I143">
+        <v>77</v>
+      </c>
+      <c r="J143">
+        <v>88</v>
+      </c>
+      <c r="K143">
         <v>165</v>
       </c>
-      <c r="D143">
-        <v>160</v>
-      </c>
-      <c r="E143">
-        <v>99</v>
-      </c>
-      <c r="F143">
-        <v>60</v>
-      </c>
-      <c r="G143">
-        <v>48</v>
-      </c>
-      <c r="H143">
-        <v>74</v>
-      </c>
-      <c r="I143">
+      <c r="L143">
+        <v>161</v>
+      </c>
+      <c r="M143">
+        <v>161</v>
+      </c>
+      <c r="N143">
         <v>164</v>
-      </c>
-      <c r="J143">
-        <v>157</v>
-      </c>
-      <c r="K143">
-        <v>155</v>
-      </c>
-      <c r="L143">
-        <v>119</v>
-      </c>
-      <c r="M143">
-        <v>115</v>
-      </c>
-      <c r="N143">
-        <v>122</v>
       </c>
       <c r="O143" s="21">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P143" s="21">
         <f t="shared" si="12"/>
-        <v>40.340000000000003</v>
+        <v>36.42</v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
@@ -32120,48 +32110,48 @@
         <v>45969</v>
       </c>
       <c r="C144">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D144">
+        <v>182</v>
+      </c>
+      <c r="E144">
+        <v>158</v>
+      </c>
+      <c r="F144">
+        <v>116</v>
+      </c>
+      <c r="G144">
+        <v>142</v>
+      </c>
+      <c r="H144">
+        <v>81</v>
+      </c>
+      <c r="I144">
+        <v>79</v>
+      </c>
+      <c r="J144">
+        <v>104</v>
+      </c>
+      <c r="K144">
+        <v>182</v>
+      </c>
+      <c r="L144">
+        <v>183</v>
+      </c>
+      <c r="M144">
         <v>176</v>
       </c>
-      <c r="E144">
-        <v>123</v>
-      </c>
-      <c r="F144">
-        <v>93</v>
-      </c>
-      <c r="G144">
-        <v>95</v>
-      </c>
-      <c r="H144">
-        <v>87</v>
-      </c>
-      <c r="I144">
-        <v>183</v>
-      </c>
-      <c r="J144">
+      <c r="N144">
         <v>179</v>
-      </c>
-      <c r="K144">
-        <v>171</v>
-      </c>
-      <c r="L144">
-        <v>115</v>
-      </c>
-      <c r="M144">
-        <v>121</v>
-      </c>
-      <c r="N144">
-        <v>128</v>
       </c>
       <c r="O144" s="21">
         <f t="shared" si="11"/>
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P144" s="21">
         <f t="shared" si="12"/>
-        <v>36.08</v>
+        <v>39.340000000000003</v>
       </c>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
@@ -32169,48 +32159,48 @@
         <v>45970</v>
       </c>
       <c r="C145">
+        <v>64</v>
+      </c>
+      <c r="D145">
+        <v>66</v>
+      </c>
+      <c r="E145">
         <v>61</v>
       </c>
-      <c r="D145">
-        <v>62</v>
-      </c>
-      <c r="E145">
-        <v>48</v>
-      </c>
       <c r="F145">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G145">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H145">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I145">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J145">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K145">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L145">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M145">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N145">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="O145" s="21">
         <f t="shared" si="11"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P145" s="21">
         <f t="shared" si="12"/>
-        <v>9.08</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.25">
@@ -32221,45 +32211,45 @@
         <v>46</v>
       </c>
       <c r="D146">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E146">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F146">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G146">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I146">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J146">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K146">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L146">
         <v>46</v>
       </c>
       <c r="M146">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N146">
         <v>48</v>
       </c>
       <c r="O146" s="21">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P146" s="21">
         <f t="shared" si="12"/>
-        <v>7.15</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
@@ -32267,48 +32257,48 @@
         <v>45972</v>
       </c>
       <c r="C147">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D147">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E147">
+        <v>66</v>
+      </c>
+      <c r="F147">
+        <v>49</v>
+      </c>
+      <c r="G147">
+        <v>19</v>
+      </c>
+      <c r="H147">
+        <v>19</v>
+      </c>
+      <c r="I147">
         <v>44</v>
       </c>
-      <c r="F147">
-        <v>47</v>
-      </c>
-      <c r="G147">
-        <v>14</v>
-      </c>
-      <c r="H147">
-        <v>42</v>
-      </c>
-      <c r="I147">
-        <v>60</v>
-      </c>
       <c r="J147">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K147">
+        <v>44</v>
+      </c>
+      <c r="L147">
         <v>51</v>
       </c>
-      <c r="L147">
-        <v>46</v>
-      </c>
       <c r="M147">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N147">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O147" s="21">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P147" s="21">
         <f t="shared" si="12"/>
-        <v>11.68</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
@@ -32316,48 +32306,48 @@
         <v>45973</v>
       </c>
       <c r="C148">
+        <v>72</v>
+      </c>
+      <c r="D148">
         <v>68</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>71</v>
       </c>
-      <c r="E148">
-        <v>55</v>
-      </c>
       <c r="F148">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G148">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H148">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I148">
+        <v>48</v>
+      </c>
+      <c r="J148">
+        <v>60</v>
+      </c>
+      <c r="K148">
         <v>69</v>
       </c>
-      <c r="J148">
-        <v>70</v>
-      </c>
-      <c r="K148">
-        <v>68</v>
-      </c>
       <c r="L148">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M148">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="N148">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O148" s="21">
         <f t="shared" si="11"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P148" s="21">
         <f t="shared" si="12"/>
-        <v>15.68</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
@@ -32365,48 +32355,48 @@
         <v>45974</v>
       </c>
       <c r="C149">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D149">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E149">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F149">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G149">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H149">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I149">
+        <v>59</v>
+      </c>
+      <c r="J149">
+        <v>67</v>
+      </c>
+      <c r="K149">
+        <v>116</v>
+      </c>
+      <c r="L149">
+        <v>106</v>
+      </c>
+      <c r="M149">
         <v>105</v>
       </c>
-      <c r="J149">
-        <v>107</v>
-      </c>
-      <c r="K149">
-        <v>102</v>
-      </c>
-      <c r="L149">
-        <v>66</v>
-      </c>
-      <c r="M149">
-        <v>77</v>
-      </c>
       <c r="N149">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="O149" s="21">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P149" s="21">
         <f t="shared" si="12"/>
-        <v>23.45</v>
+        <v>27.41</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
@@ -32457,41 +32447,41 @@
       </c>
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C152" s="46" t="s">
+      <c r="C152" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D152" s="46"/>
-      <c r="E152" t="s">
+      <c r="D152" s="51"/>
+      <c r="E152" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F152" s="46" t="s">
+      <c r="F152" s="51"/>
+      <c r="G152" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G152" s="46"/>
-      <c r="H152" t="s">
+      <c r="H152" s="51"/>
+      <c r="I152" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I152" s="46" t="s">
+      <c r="J152" s="51"/>
+      <c r="K152" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="J152" s="46"/>
-      <c r="K152" t="s">
+      <c r="L152" s="52"/>
+      <c r="M152" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="L152" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46"/>
+      <c r="N152" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="C152:D152"/>
-    <mergeCell ref="F152:G152"/>
     <mergeCell ref="I152:J152"/>
-    <mergeCell ref="L152:N152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="M152:N152"/>
   </mergeCells>
   <conditionalFormatting sqref="C150 I150:J150 E150:G150 L150:N150">
     <cfRule type="aboveAverage" dxfId="5" priority="4"/>
@@ -32508,7 +32498,7 @@
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R111">
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R113">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -32538,30 +32528,30 @@
         <v>43</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
       <c r="Y1" t="s">
         <v>39</v>
       </c>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D5823-E2ED-4880-8111-E324FEC2CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74E1FA-03E7-4EBE-9045-1E96A5804246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -642,11 +642,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="43">
     <dxf>
       <font>
         <b/>
@@ -666,6 +672,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -701,6 +714,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -756,6 +776,251 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1068,8 +1333,8 @@
   <dimension ref="A1:Q603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E560" sqref="E560:E575"/>
+      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L587" sqref="L587:O587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16036,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="H565" s="9">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="N565" s="27"/>
       <c r="P565" s="27"/>
@@ -16065,7 +16330,7 @@
         <v>0</v>
       </c>
       <c r="H566" s="9">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="J566"/>
       <c r="P566" s="27"/>
@@ -16125,9 +16390,7 @@
       <c r="H568" s="9">
         <v>4.8</v>
       </c>
-      <c r="J568" s="42">
-        <v>10.115</v>
-      </c>
+      <c r="J568" s="42"/>
       <c r="Q568" s="27"/>
     </row>
     <row r="569" spans="1:17" x14ac:dyDescent="0.25">
@@ -16141,23 +16404,21 @@
         <v>45940</v>
       </c>
       <c r="D569" s="27">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="E569" s="9">
         <v>56.7</v>
       </c>
       <c r="F569" s="9">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G569" s="9">
         <v>0</v>
       </c>
       <c r="H569" s="9">
-        <v>5.8</v>
-      </c>
-      <c r="J569" s="42">
-        <v>10.86</v>
-      </c>
+        <v>6.1</v>
+      </c>
+      <c r="J569" s="42"/>
       <c r="Q569" s="27"/>
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.25">
@@ -16171,10 +16432,10 @@
         <v>45941</v>
       </c>
       <c r="D570" s="27">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="E570" s="9">
-        <v>60.4</v>
+        <v>58.1</v>
       </c>
       <c r="F570" s="9">
         <v>0</v>
@@ -16183,11 +16444,9 @@
         <v>0</v>
       </c>
       <c r="H570" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="J570" s="42">
-        <v>9.5650000000000013</v>
-      </c>
+        <v>9.4</v>
+      </c>
+      <c r="J570" s="42"/>
       <c r="Q570" s="27"/>
     </row>
     <row r="571" spans="1:17" x14ac:dyDescent="0.25">
@@ -16201,10 +16460,10 @@
         <v>45942</v>
       </c>
       <c r="D571" s="27">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E571" s="9">
-        <v>62.1</v>
+        <v>58.8</v>
       </c>
       <c r="F571" s="9">
         <v>0</v>
@@ -16213,11 +16472,9 @@
         <v>0</v>
       </c>
       <c r="H571" s="9">
-        <v>7.9</v>
-      </c>
-      <c r="J571" s="42">
-        <v>5.17</v>
-      </c>
+        <v>5.8</v>
+      </c>
+      <c r="J571" s="42"/>
       <c r="Q571" s="27"/>
     </row>
     <row r="572" spans="1:17" x14ac:dyDescent="0.25">
@@ -16231,10 +16488,10 @@
         <v>45943</v>
       </c>
       <c r="D572" s="27">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E572" s="9">
-        <v>63.5</v>
+        <v>61.7</v>
       </c>
       <c r="F572" s="9">
         <v>0</v>
@@ -16243,14 +16500,12 @@
         <v>0</v>
       </c>
       <c r="H572" s="9">
-        <v>8.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I572" t="s">
         <v>21</v>
       </c>
-      <c r="J572" s="42">
-        <v>8.9600000000000009</v>
-      </c>
+      <c r="J572" s="42"/>
       <c r="Q572" s="27"/>
     </row>
     <row r="573" spans="1:17" x14ac:dyDescent="0.25">
@@ -16264,10 +16519,10 @@
         <v>45944</v>
       </c>
       <c r="D573" s="27">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E573" s="9">
-        <v>64.599999999999994</v>
+        <v>61.3</v>
       </c>
       <c r="F573" s="9">
         <v>0</v>
@@ -16276,11 +16531,9 @@
         <v>0</v>
       </c>
       <c r="H573" s="9">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J573" s="42">
-        <v>10.645</v>
-      </c>
+        <v>10.1</v>
+      </c>
+      <c r="J573" s="42"/>
       <c r="Q573" s="27"/>
     </row>
     <row r="574" spans="1:17" x14ac:dyDescent="0.25">
@@ -16294,23 +16547,21 @@
         <v>45945</v>
       </c>
       <c r="D574" s="27">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E574" s="9">
-        <v>64</v>
+        <v>57.7</v>
       </c>
       <c r="F574" s="9">
-        <v>0.21</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G574" s="9">
         <v>0</v>
       </c>
       <c r="H574" s="9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J574" s="42">
-        <v>8.0449999999999999</v>
-      </c>
+        <v>10.3</v>
+      </c>
+      <c r="J574" s="42"/>
       <c r="Q574" s="27"/>
     </row>
     <row r="575" spans="1:17" x14ac:dyDescent="0.25">
@@ -16324,10 +16575,10 @@
         <v>45946</v>
       </c>
       <c r="D575" s="27">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E575" s="9">
-        <v>60.4</v>
+        <v>61.3</v>
       </c>
       <c r="F575" s="9">
         <v>0</v>
@@ -16336,11 +16587,9 @@
         <v>0</v>
       </c>
       <c r="H575" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="J575" s="42">
-        <v>10.135</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="J575" s="42"/>
       <c r="Q575" s="27"/>
     </row>
     <row r="576" spans="1:17" x14ac:dyDescent="0.25">
@@ -16354,10 +16603,10 @@
         <v>45947</v>
       </c>
       <c r="D576" s="27">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E576" s="9">
-        <v>52</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="F576" s="9">
         <v>0</v>
@@ -16366,11 +16615,9 @@
         <v>0</v>
       </c>
       <c r="H576" s="9">
-        <v>4</v>
-      </c>
-      <c r="J576" s="42">
-        <v>15.585000000000001</v>
-      </c>
+        <v>10.3</v>
+      </c>
+      <c r="J576" s="42"/>
       <c r="Q576" s="27"/>
     </row>
     <row r="577" spans="1:17" x14ac:dyDescent="0.25">
@@ -16384,23 +16631,21 @@
         <v>45948</v>
       </c>
       <c r="D577" s="27">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E577" s="9">
-        <v>51.5</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="F577" s="9">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="G577" s="9">
         <v>0</v>
       </c>
       <c r="H577" s="9">
-        <v>7</v>
-      </c>
-      <c r="J577" s="42">
-        <v>11.61</v>
-      </c>
+        <v>10.1</v>
+      </c>
+      <c r="J577" s="42"/>
       <c r="Q577" s="27"/>
     </row>
     <row r="578" spans="1:17" x14ac:dyDescent="0.25">
@@ -16414,23 +16659,21 @@
         <v>45949</v>
       </c>
       <c r="D578" s="27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E578" s="9">
-        <v>53.5</v>
+        <v>55.4</v>
       </c>
       <c r="F578" s="9">
-        <v>0.05</v>
+        <v>1.48</v>
       </c>
       <c r="G578" s="9">
         <v>0</v>
       </c>
       <c r="H578" s="9">
-        <v>8</v>
-      </c>
-      <c r="J578" s="42">
-        <v>6.5949999999999998</v>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="J578" s="42"/>
       <c r="Q578" s="27"/>
     </row>
     <row r="579" spans="1:17" x14ac:dyDescent="0.25">
@@ -16444,10 +16687,10 @@
         <v>45950</v>
       </c>
       <c r="D579" s="27">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E579" s="9">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="F579" s="9">
         <v>0</v>
@@ -16456,14 +16699,12 @@
         <v>0</v>
       </c>
       <c r="H579" s="9">
-        <v>14</v>
+        <v>10.6</v>
       </c>
       <c r="I579" t="s">
         <v>52</v>
       </c>
-      <c r="J579" s="42">
-        <v>15.75</v>
-      </c>
+      <c r="J579" s="42"/>
       <c r="Q579" s="27"/>
     </row>
     <row r="580" spans="1:17" x14ac:dyDescent="0.25">
@@ -16477,10 +16718,10 @@
         <v>45951</v>
       </c>
       <c r="D580" s="27">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E580" s="9">
-        <v>55</v>
+        <v>50.4</v>
       </c>
       <c r="F580" s="9">
         <v>0</v>
@@ -16489,11 +16730,9 @@
         <v>0</v>
       </c>
       <c r="H580" s="9">
-        <v>14</v>
-      </c>
-      <c r="J580" s="42">
-        <v>8.61</v>
-      </c>
+        <v>15.8</v>
+      </c>
+      <c r="J580" s="42"/>
       <c r="Q580" s="27"/>
     </row>
     <row r="581" spans="1:17" x14ac:dyDescent="0.25">
@@ -16507,10 +16746,10 @@
         <v>45952</v>
       </c>
       <c r="D581" s="27">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E581" s="9">
-        <v>54</v>
+        <v>48.2</v>
       </c>
       <c r="F581" s="9">
         <v>0</v>
@@ -16519,11 +16758,9 @@
         <v>0</v>
       </c>
       <c r="H581" s="9">
-        <v>6</v>
-      </c>
-      <c r="J581" s="42">
-        <v>7.0049999999999999</v>
-      </c>
+        <v>11.5</v>
+      </c>
+      <c r="J581" s="42"/>
       <c r="Q581" s="27"/>
     </row>
     <row r="582" spans="1:17" x14ac:dyDescent="0.25">
@@ -16537,10 +16774,10 @@
         <v>45953</v>
       </c>
       <c r="D582" s="27">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E582" s="9">
-        <v>54.5</v>
+        <v>50</v>
       </c>
       <c r="F582" s="9">
         <v>0</v>
@@ -16549,11 +16786,9 @@
         <v>0</v>
       </c>
       <c r="H582" s="9">
-        <v>5</v>
-      </c>
-      <c r="J582" s="42">
-        <v>9.4649999999999999</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="J582" s="42"/>
       <c r="Q582" s="27"/>
     </row>
     <row r="583" spans="1:17" x14ac:dyDescent="0.25">
@@ -16567,10 +16802,10 @@
         <v>45954</v>
       </c>
       <c r="D583" s="27">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E583" s="9">
-        <v>55</v>
+        <v>51.4</v>
       </c>
       <c r="F583" s="9">
         <v>0.13</v>
@@ -16579,11 +16814,9 @@
         <v>0</v>
       </c>
       <c r="H583" s="9">
-        <v>8</v>
-      </c>
-      <c r="J583" s="42">
-        <v>15.59</v>
-      </c>
+        <v>8.9</v>
+      </c>
+      <c r="J583" s="42"/>
       <c r="Q583" s="27"/>
     </row>
     <row r="584" spans="1:17" x14ac:dyDescent="0.25">
@@ -16597,10 +16830,10 @@
         <v>45955</v>
       </c>
       <c r="D584" s="27">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E584" s="9">
-        <v>56</v>
+        <v>51.1</v>
       </c>
       <c r="F584" s="9">
         <v>0.55000000000000004</v>
@@ -16609,11 +16842,9 @@
         <v>0</v>
       </c>
       <c r="H584" s="9">
-        <v>14</v>
-      </c>
-      <c r="J584" s="42">
-        <v>15.625</v>
-      </c>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J584" s="42"/>
       <c r="Q584" s="27"/>
     </row>
     <row r="585" spans="1:17" x14ac:dyDescent="0.25">
@@ -16627,10 +16858,10 @@
         <v>45956</v>
       </c>
       <c r="D585" s="27">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E585" s="9">
-        <v>52.5</v>
+        <v>51.3</v>
       </c>
       <c r="F585" s="9">
         <v>0.61</v>
@@ -16639,11 +16870,9 @@
         <v>0</v>
       </c>
       <c r="H585" s="9">
-        <v>15</v>
-      </c>
-      <c r="J585" s="42">
-        <v>9.6999999999999993</v>
-      </c>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J585" s="42"/>
       <c r="Q585" s="27"/>
     </row>
     <row r="586" spans="1:17" x14ac:dyDescent="0.25">
@@ -16657,7 +16886,7 @@
         <v>45957</v>
       </c>
       <c r="D586" s="27">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E586" s="9">
         <v>51.5</v>
@@ -16671,9 +16900,7 @@
       <c r="H586" s="9">
         <v>8</v>
       </c>
-      <c r="J586" s="42">
-        <v>7.0849999999999991</v>
-      </c>
+      <c r="J586" s="42"/>
       <c r="Q586" s="27"/>
     </row>
     <row r="587" spans="1:17" x14ac:dyDescent="0.25">
@@ -16687,7 +16914,7 @@
         <v>45958</v>
       </c>
       <c r="D587" s="27">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E587" s="9">
         <v>49</v>
@@ -16701,9 +16928,7 @@
       <c r="H587" s="9">
         <v>7</v>
       </c>
-      <c r="J587" s="42">
-        <v>6.3049999999999997</v>
-      </c>
+      <c r="J587" s="42"/>
       <c r="Q587" s="27"/>
     </row>
     <row r="588" spans="1:17" x14ac:dyDescent="0.25">
@@ -16717,7 +16942,7 @@
         <v>45959</v>
       </c>
       <c r="D588" s="27">
-        <v>52</v>
+        <v>50.25</v>
       </c>
       <c r="E588" s="9">
         <v>52.5</v>
@@ -16731,9 +16956,10 @@
       <c r="H588" s="9">
         <v>12</v>
       </c>
-      <c r="J588" s="42">
-        <v>6.5050000000000008</v>
-      </c>
+      <c r="J588" s="53">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="K588" s="54"/>
       <c r="Q588" s="27"/>
     </row>
     <row r="589" spans="1:17" x14ac:dyDescent="0.25">
@@ -16747,7 +16973,7 @@
         <v>45960</v>
       </c>
       <c r="D589" s="27">
-        <v>86</v>
+        <v>79.75</v>
       </c>
       <c r="E589" s="9">
         <v>51.5</v>
@@ -16761,9 +16987,10 @@
       <c r="H589" s="9">
         <v>5</v>
       </c>
-      <c r="J589" s="42">
-        <v>10.33</v>
-      </c>
+      <c r="J589" s="53">
+        <v>6.24</v>
+      </c>
+      <c r="K589" s="54"/>
       <c r="Q589" s="27"/>
     </row>
     <row r="590" spans="1:17" x14ac:dyDescent="0.25">
@@ -16776,8 +17003,8 @@
       <c r="C590" s="7">
         <v>45961</v>
       </c>
-      <c r="D590" s="27">
-        <v>108</v>
+      <c r="D590">
+        <v>106</v>
       </c>
       <c r="E590" s="9">
         <v>50</v>
@@ -16794,9 +17021,10 @@
       <c r="I590" t="s">
         <v>51</v>
       </c>
-      <c r="J590" s="42">
-        <v>17.164999999999999</v>
-      </c>
+      <c r="J590" s="53">
+        <v>10.555</v>
+      </c>
+      <c r="K590" s="54"/>
       <c r="Q590" s="27"/>
     </row>
     <row r="591" spans="1:17" x14ac:dyDescent="0.25">
@@ -16809,8 +17037,8 @@
       <c r="C591" s="7">
         <v>45962</v>
       </c>
-      <c r="D591" s="27">
-        <v>166</v>
+      <c r="D591">
+        <v>174</v>
       </c>
       <c r="E591" s="9">
         <v>52</v>
@@ -16824,9 +17052,10 @@
       <c r="H591" s="9">
         <v>9</v>
       </c>
-      <c r="J591" s="42">
-        <v>13.11</v>
-      </c>
+      <c r="J591" s="53">
+        <v>6.7074999999999996</v>
+      </c>
+      <c r="K591" s="54"/>
       <c r="Q591" s="27"/>
     </row>
     <row r="592" spans="1:17" x14ac:dyDescent="0.25">
@@ -16840,7 +17069,7 @@
         <v>45963</v>
       </c>
       <c r="D592" s="27">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E592" s="9">
         <v>51</v>
@@ -16854,9 +17083,10 @@
       <c r="H592" s="9">
         <v>10</v>
       </c>
-      <c r="J592" s="42">
-        <v>9.43</v>
-      </c>
+      <c r="J592" s="53">
+        <v>9.0300000000000011</v>
+      </c>
+      <c r="K592" s="54"/>
       <c r="Q592" s="27"/>
     </row>
     <row r="593" spans="1:17" x14ac:dyDescent="0.25">
@@ -16870,7 +17100,7 @@
         <v>45964</v>
       </c>
       <c r="D593" s="27">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="E593" s="9">
         <v>48.5</v>
@@ -16884,9 +17114,10 @@
       <c r="H593" s="9">
         <v>4</v>
       </c>
-      <c r="J593" s="42">
-        <v>9.995000000000001</v>
-      </c>
+      <c r="J593" s="53">
+        <v>8.8949999999999996</v>
+      </c>
+      <c r="K593" s="54"/>
       <c r="Q593" s="27"/>
     </row>
     <row r="594" spans="1:17" x14ac:dyDescent="0.25">
@@ -16900,7 +17131,7 @@
         <v>45965</v>
       </c>
       <c r="D594" s="27">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E594" s="9">
         <v>50.5</v>
@@ -16917,9 +17148,10 @@
       <c r="I594" t="s">
         <v>23</v>
       </c>
-      <c r="J594" s="42">
-        <v>9.92</v>
-      </c>
+      <c r="J594" s="53">
+        <v>6.0175000000000001</v>
+      </c>
+      <c r="K594" s="54"/>
       <c r="Q594" s="27"/>
     </row>
     <row r="595" spans="1:17" x14ac:dyDescent="0.25">
@@ -16933,7 +17165,7 @@
         <v>45966</v>
       </c>
       <c r="D595" s="27">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E595" s="9">
         <v>50.5</v>
@@ -16947,9 +17179,10 @@
       <c r="H595" s="9">
         <v>7</v>
       </c>
-      <c r="J595" s="42">
-        <v>8.0599999999999987</v>
-      </c>
+      <c r="J595" s="53">
+        <v>4.165</v>
+      </c>
+      <c r="K595" s="54"/>
       <c r="Q595" s="27"/>
     </row>
     <row r="596" spans="1:17" x14ac:dyDescent="0.25">
@@ -16963,7 +17196,7 @@
         <v>45967</v>
       </c>
       <c r="D596" s="27">
-        <v>80</v>
+        <v>78.75</v>
       </c>
       <c r="E596" s="9">
         <v>49.5</v>
@@ -16977,9 +17210,10 @@
       <c r="H596" s="9">
         <v>6</v>
       </c>
-      <c r="J596" s="42">
-        <v>11.105</v>
-      </c>
+      <c r="J596" s="53">
+        <v>7.2949999999999999</v>
+      </c>
+      <c r="K596" s="54"/>
       <c r="Q596" s="27"/>
     </row>
     <row r="597" spans="1:17" x14ac:dyDescent="0.25">
@@ -16992,8 +17226,8 @@
       <c r="C597" s="7">
         <v>45968</v>
       </c>
-      <c r="D597" s="27">
-        <v>143</v>
+      <c r="D597">
+        <v>154</v>
       </c>
       <c r="E597" s="9">
         <v>43.5</v>
@@ -17007,9 +17241,10 @@
       <c r="H597" s="9">
         <v>13</v>
       </c>
-      <c r="J597" s="42">
-        <v>23.32</v>
-      </c>
+      <c r="J597" s="53">
+        <v>9.8125</v>
+      </c>
+      <c r="K597" s="54"/>
       <c r="Q597" s="27"/>
     </row>
     <row r="598" spans="1:17" x14ac:dyDescent="0.25">
@@ -17022,8 +17257,8 @@
       <c r="C598" s="7">
         <v>45969</v>
       </c>
-      <c r="D598" s="27">
-        <v>162</v>
+      <c r="D598">
+        <v>174</v>
       </c>
       <c r="E598" s="9">
         <v>39</v>
@@ -17037,9 +17272,10 @@
       <c r="H598" s="9">
         <v>8</v>
       </c>
-      <c r="J598" s="42">
-        <v>22.42</v>
-      </c>
+      <c r="J598" s="53">
+        <v>12.17</v>
+      </c>
+      <c r="K598" s="54"/>
       <c r="Q598" s="27"/>
     </row>
     <row r="599" spans="1:17" x14ac:dyDescent="0.25">
@@ -17053,7 +17289,7 @@
         <v>45970</v>
       </c>
       <c r="D599" s="27">
-        <v>60</v>
+        <v>83.25</v>
       </c>
       <c r="E599" s="9">
         <v>43</v>
@@ -17067,9 +17303,10 @@
       <c r="H599" s="9">
         <v>9</v>
       </c>
-      <c r="J599" s="42">
-        <v>10.33</v>
-      </c>
+      <c r="J599" s="53">
+        <v>11.647500000000001</v>
+      </c>
+      <c r="K599" s="54"/>
       <c r="Q599" s="27"/>
     </row>
     <row r="600" spans="1:17" x14ac:dyDescent="0.25">
@@ -17083,7 +17320,7 @@
         <v>45971</v>
       </c>
       <c r="D600" s="27">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E600" s="9">
         <v>46.5</v>
@@ -17097,9 +17334,10 @@
       <c r="H600" s="9">
         <v>6</v>
       </c>
-      <c r="J600" s="42">
-        <v>7.22</v>
-      </c>
+      <c r="J600" s="53">
+        <v>5.7949999999999999</v>
+      </c>
+      <c r="K600" s="54"/>
       <c r="Q600" s="27"/>
     </row>
     <row r="601" spans="1:17" x14ac:dyDescent="0.25">
@@ -17113,7 +17351,7 @@
         <v>45972</v>
       </c>
       <c r="D601" s="27">
-        <v>49</v>
+        <v>44.25</v>
       </c>
       <c r="E601" s="9">
         <v>42.5</v>
@@ -17130,9 +17368,10 @@
       <c r="I601" t="s">
         <v>24</v>
       </c>
-      <c r="J601" s="42">
-        <v>10.5</v>
-      </c>
+      <c r="J601" s="53">
+        <v>8.1225000000000005</v>
+      </c>
+      <c r="K601" s="54"/>
       <c r="Q601" s="27"/>
     </row>
     <row r="602" spans="1:17" x14ac:dyDescent="0.25">
@@ -17146,7 +17385,7 @@
         <v>45973</v>
       </c>
       <c r="D602" s="27">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E602" s="9">
         <v>39.5</v>
@@ -17160,9 +17399,10 @@
       <c r="H602" s="9">
         <v>12</v>
       </c>
-      <c r="J602" s="42">
-        <v>10.345000000000001</v>
-      </c>
+      <c r="J602" s="53">
+        <v>7.34</v>
+      </c>
+      <c r="K602" s="54"/>
       <c r="Q602" s="27"/>
     </row>
     <row r="603" spans="1:17" x14ac:dyDescent="0.25">
@@ -17176,7 +17416,7 @@
         <v>45974</v>
       </c>
       <c r="D603" s="27">
-        <v>95</v>
+        <v>91.75</v>
       </c>
       <c r="E603" s="9">
         <v>34.5</v>
@@ -17190,17 +17430,18 @@
       <c r="H603" s="9">
         <v>9</v>
       </c>
-      <c r="J603" s="42">
-        <v>17.490000000000002</v>
-      </c>
+      <c r="J603" s="53">
+        <v>10.094999999999999</v>
+      </c>
+      <c r="K603" s="54"/>
       <c r="Q603" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A603">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17213,8 +17454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P114" sqref="P114:P149"/>
+    <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O134" sqref="O134:P149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23110,6 +23351,9 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="27">
+        <v>59</v>
+      </c>
       <c r="B114" s="23">
         <v>45939</v>
       </c>
@@ -23157,8 +23401,19 @@
         <f t="shared" si="27"/>
         <v>13.69</v>
       </c>
+      <c r="R114" s="27">
+        <f t="shared" ref="R114:R133" si="30">O114-A114</f>
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <f t="shared" ref="S114:S133" si="31">O114/A114</f>
+        <v>1.0508474576271187</v>
+      </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="27">
+        <v>91</v>
+      </c>
       <c r="B115" s="23">
         <v>45940</v>
       </c>
@@ -23206,8 +23461,19 @@
         <f t="shared" si="27"/>
         <v>5.75</v>
       </c>
+      <c r="R115" s="27">
+        <f t="shared" si="30"/>
+        <v>48</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="31"/>
+        <v>1.5274725274725274</v>
+      </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="27">
+        <v>138</v>
+      </c>
       <c r="B116" s="23">
         <v>45941</v>
       </c>
@@ -23255,8 +23521,19 @@
         <f t="shared" si="27"/>
         <v>8.24</v>
       </c>
+      <c r="R116" s="27">
+        <f t="shared" si="30"/>
+        <v>47</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="31"/>
+        <v>1.3405797101449275</v>
+      </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="27">
+        <v>19</v>
+      </c>
       <c r="B117" s="23">
         <v>45942</v>
       </c>
@@ -23304,8 +23581,19 @@
         <f t="shared" si="27"/>
         <v>4.5</v>
       </c>
+      <c r="R117" s="27">
+        <f t="shared" si="30"/>
+        <v>37</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="31"/>
+        <v>2.9473684210526314</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="27">
+        <v>33</v>
+      </c>
       <c r="B118" s="23">
         <v>45943</v>
       </c>
@@ -23353,8 +23641,19 @@
         <f t="shared" si="27"/>
         <v>8.07</v>
       </c>
+      <c r="R118" s="27">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="31"/>
+        <v>1.4545454545454546</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="27">
+        <v>25</v>
+      </c>
       <c r="B119" s="23">
         <v>45944</v>
       </c>
@@ -23402,8 +23701,19 @@
         <f t="shared" si="27"/>
         <v>6.22</v>
       </c>
+      <c r="R119" s="27">
+        <f t="shared" si="30"/>
+        <v>42</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="31"/>
+        <v>2.68</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="27">
+        <v>37</v>
+      </c>
       <c r="B120" s="23">
         <v>45945</v>
       </c>
@@ -23451,8 +23761,19 @@
         <f t="shared" si="27"/>
         <v>4.96</v>
       </c>
+      <c r="R120" s="27">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="31"/>
+        <v>1.5135135135135136</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="27">
+        <v>62</v>
+      </c>
       <c r="B121" s="23">
         <v>45946</v>
       </c>
@@ -23500,8 +23821,19 @@
         <f t="shared" si="27"/>
         <v>6.38</v>
       </c>
+      <c r="R121" s="27">
+        <f t="shared" si="30"/>
+        <v>22</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="31"/>
+        <v>1.3548387096774193</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="27">
+        <v>126</v>
+      </c>
       <c r="B122" s="23">
         <v>45947</v>
       </c>
@@ -23549,8 +23881,19 @@
         <f t="shared" si="27"/>
         <v>5.75</v>
       </c>
+      <c r="R122" s="27">
+        <f t="shared" si="30"/>
+        <v>22</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="31"/>
+        <v>1.1746031746031746</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="27">
+        <v>141</v>
+      </c>
       <c r="B123" s="23">
         <v>45948</v>
       </c>
@@ -23598,8 +23941,19 @@
         <f t="shared" si="27"/>
         <v>5.5</v>
       </c>
+      <c r="R123" s="27">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="31"/>
+        <v>1.2695035460992907</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="27">
+        <v>65</v>
+      </c>
       <c r="B124" s="23">
         <v>45949</v>
       </c>
@@ -23647,8 +24001,19 @@
         <f t="shared" si="27"/>
         <v>3.52</v>
       </c>
+      <c r="R124" s="27">
+        <f t="shared" si="30"/>
+        <v>-9</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="31"/>
+        <v>0.86153846153846159</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="27">
+        <v>46</v>
+      </c>
       <c r="B125" s="23">
         <v>45950</v>
       </c>
@@ -23696,8 +24061,19 @@
         <f t="shared" si="27"/>
         <v>12.16</v>
       </c>
+      <c r="R125" s="27">
+        <f t="shared" si="30"/>
+        <v>-11</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="31"/>
+        <v>0.76086956521739135</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="27">
+        <v>31</v>
+      </c>
       <c r="B126" s="23">
         <v>45951</v>
       </c>
@@ -23745,8 +24121,19 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
+      <c r="R126" s="27">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="31"/>
+        <v>1.2580645161290323</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="27">
+        <v>84</v>
+      </c>
       <c r="B127" s="23">
         <v>45952</v>
       </c>
@@ -23787,15 +24174,26 @@
         <v>62</v>
       </c>
       <c r="O127" s="21">
-        <f t="shared" ref="O127:O149" si="30">ROUND(AVERAGE(C127:N127),0)</f>
+        <f t="shared" ref="O127:O149" si="32">ROUND(AVERAGE(C127:N127),0)</f>
         <v>64</v>
       </c>
       <c r="P127" s="21">
-        <f t="shared" ref="P127:P149" si="31">ROUND(_xlfn.STDEV.P(C127:O127),2)</f>
+        <f t="shared" ref="P127:P149" si="33">ROUND(_xlfn.STDEV.P(C127:O127),2)</f>
         <v>4.84</v>
       </c>
+      <c r="R127" s="27">
+        <f t="shared" si="30"/>
+        <v>-20</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="31"/>
+        <v>0.76190476190476186</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="27">
+        <v>28</v>
+      </c>
       <c r="B128" s="23">
         <v>45953</v>
       </c>
@@ -23836,15 +24234,26 @@
         <v>86</v>
       </c>
       <c r="O128" s="21">
+        <f t="shared" si="32"/>
+        <v>89</v>
+      </c>
+      <c r="P128" s="21">
+        <f t="shared" si="33"/>
+        <v>6.84</v>
+      </c>
+      <c r="R128" s="27">
         <f t="shared" si="30"/>
-        <v>89</v>
-      </c>
-      <c r="P128" s="21">
+        <v>61</v>
+      </c>
+      <c r="S128">
         <f t="shared" si="31"/>
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3.1785714285714284</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="27">
+        <v>131</v>
+      </c>
       <c r="B129" s="23">
         <v>45954</v>
       </c>
@@ -23885,15 +24294,26 @@
         <v>156</v>
       </c>
       <c r="O129" s="21">
+        <f t="shared" si="32"/>
+        <v>146</v>
+      </c>
+      <c r="P129" s="21">
+        <f t="shared" si="33"/>
+        <v>7.08</v>
+      </c>
+      <c r="R129" s="27">
         <f t="shared" si="30"/>
-        <v>146</v>
-      </c>
-      <c r="P129" s="21">
+        <v>15</v>
+      </c>
+      <c r="S129">
         <f t="shared" si="31"/>
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+        <v>1.1145038167938932</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="27">
+        <v>199</v>
+      </c>
       <c r="B130" s="23">
         <v>45955</v>
       </c>
@@ -23934,15 +24354,26 @@
         <v>154</v>
       </c>
       <c r="O130" s="21">
+        <f t="shared" si="32"/>
+        <v>172</v>
+      </c>
+      <c r="P130" s="21">
+        <f t="shared" si="33"/>
+        <v>15.43</v>
+      </c>
+      <c r="R130" s="27">
         <f t="shared" si="30"/>
-        <v>172</v>
-      </c>
-      <c r="P130" s="21">
+        <v>-27</v>
+      </c>
+      <c r="S130">
         <f t="shared" si="31"/>
-        <v>15.43</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+        <v>0.86432160804020097</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="27">
+        <v>49</v>
+      </c>
       <c r="B131" s="23">
         <v>45956</v>
       </c>
@@ -23983,15 +24414,26 @@
         <v>58</v>
       </c>
       <c r="O131" s="21">
+        <f t="shared" si="32"/>
+        <v>59</v>
+      </c>
+      <c r="P131" s="21">
+        <f t="shared" si="33"/>
+        <v>8.81</v>
+      </c>
+      <c r="R131" s="27">
         <f t="shared" si="30"/>
-        <v>59</v>
-      </c>
-      <c r="P131" s="21">
+        <v>10</v>
+      </c>
+      <c r="S131">
         <f t="shared" si="31"/>
-        <v>8.81</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+        <v>1.2040816326530612</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="27">
+        <v>48</v>
+      </c>
       <c r="B132" s="23">
         <v>45957</v>
       </c>
@@ -24032,211 +24474,230 @@
         <v>38</v>
       </c>
       <c r="O132" s="21">
+        <f t="shared" si="32"/>
+        <v>43</v>
+      </c>
+      <c r="P132" s="21">
+        <f t="shared" si="33"/>
+        <v>6.06</v>
+      </c>
+      <c r="R132" s="27">
         <f t="shared" si="30"/>
+        <v>-5</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="31"/>
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="29">
+        <v>58</v>
+      </c>
+      <c r="B133" s="28">
+        <v>45958</v>
+      </c>
+      <c r="C133" s="29">
+        <v>42</v>
+      </c>
+      <c r="D133" s="29">
+        <v>44</v>
+      </c>
+      <c r="E133" s="29">
+        <v>46</v>
+      </c>
+      <c r="F133" s="29">
+        <v>45</v>
+      </c>
+      <c r="G133" s="29">
+        <v>48</v>
+      </c>
+      <c r="H133" s="29">
+        <v>47</v>
+      </c>
+      <c r="I133" s="29">
+        <v>45</v>
+      </c>
+      <c r="J133" s="29">
+        <v>47</v>
+      </c>
+      <c r="K133" s="29">
+        <v>42</v>
+      </c>
+      <c r="L133" s="29">
+        <v>44</v>
+      </c>
+      <c r="M133" s="29">
         <v>43</v>
       </c>
-      <c r="P132" s="21">
+      <c r="N133" s="29">
+        <v>44</v>
+      </c>
+      <c r="O133" s="30">
+        <f t="shared" si="32"/>
+        <v>45</v>
+      </c>
+      <c r="P133" s="30">
+        <f t="shared" si="33"/>
+        <v>1.8</v>
+      </c>
+      <c r="R133" s="29">
+        <f t="shared" si="30"/>
+        <v>-13</v>
+      </c>
+      <c r="S133" s="29">
         <f t="shared" si="31"/>
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B133" s="23">
-        <v>45958</v>
-      </c>
-      <c r="C133">
-        <v>43</v>
-      </c>
-      <c r="D133">
-        <v>43</v>
-      </c>
-      <c r="E133">
-        <v>53</v>
-      </c>
-      <c r="F133">
-        <v>54</v>
-      </c>
-      <c r="G133">
-        <v>59</v>
-      </c>
-      <c r="H133">
-        <v>47</v>
-      </c>
-      <c r="I133">
-        <v>50</v>
-      </c>
-      <c r="J133">
-        <v>50</v>
-      </c>
-      <c r="K133">
-        <v>45</v>
-      </c>
-      <c r="L133">
-        <v>44</v>
-      </c>
-      <c r="M133">
-        <v>42</v>
-      </c>
-      <c r="N133">
-        <v>44</v>
-      </c>
-      <c r="O133" s="21">
-        <f t="shared" si="30"/>
-        <v>48</v>
-      </c>
-      <c r="P133" s="21">
-        <f t="shared" si="31"/>
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+        <v>0.77586206896551724</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B134" s="23">
         <v>45959</v>
       </c>
       <c r="C134">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D134">
         <v>54</v>
       </c>
       <c r="E134">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F134">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G134">
+        <v>62</v>
+      </c>
+      <c r="H134">
         <v>58</v>
       </c>
-      <c r="H134">
-        <v>62</v>
-      </c>
       <c r="I134">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J134">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K134">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L134">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M134">
         <v>54</v>
       </c>
       <c r="N134">
+        <v>53</v>
+      </c>
+      <c r="O134" s="21">
+        <f t="shared" si="32"/>
         <v>55</v>
       </c>
-      <c r="O134" s="21">
-        <f t="shared" si="30"/>
-        <v>55</v>
-      </c>
       <c r="P134" s="21">
-        <f t="shared" si="31"/>
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B135" s="23">
         <v>45960</v>
       </c>
       <c r="C135">
+        <v>88</v>
+      </c>
+      <c r="D135">
+        <v>91</v>
+      </c>
+      <c r="E135">
+        <v>90</v>
+      </c>
+      <c r="F135">
+        <v>93</v>
+      </c>
+      <c r="G135">
+        <v>101</v>
+      </c>
+      <c r="H135">
+        <v>94</v>
+      </c>
+      <c r="I135">
+        <v>96</v>
+      </c>
+      <c r="J135">
         <v>92</v>
       </c>
-      <c r="D135">
+      <c r="K135">
+        <v>85</v>
+      </c>
+      <c r="L135">
         <v>90</v>
       </c>
-      <c r="E135">
-        <v>92</v>
-      </c>
-      <c r="F135">
-        <v>96</v>
-      </c>
-      <c r="G135">
-        <v>109</v>
-      </c>
-      <c r="H135">
-        <v>101</v>
-      </c>
-      <c r="I135">
-        <v>89</v>
-      </c>
-      <c r="J135">
-        <v>89</v>
-      </c>
-      <c r="K135">
+      <c r="M135">
         <v>86</v>
       </c>
-      <c r="L135">
-        <v>87</v>
-      </c>
-      <c r="M135">
-        <v>87</v>
-      </c>
       <c r="N135">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O135" s="21">
-        <f t="shared" si="30"/>
-        <v>92</v>
+        <f t="shared" si="32"/>
+        <v>91</v>
       </c>
       <c r="P135" s="21">
-        <f t="shared" si="31"/>
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B136" s="23">
         <v>45961</v>
       </c>
       <c r="C136">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D136">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E136">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="F136">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="G136">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H136">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="I136">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J136">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="K136">
         <v>109</v>
       </c>
       <c r="L136">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M136">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N136">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O136" s="21">
-        <f t="shared" si="30"/>
-        <v>118</v>
+        <f t="shared" si="32"/>
+        <v>106</v>
       </c>
       <c r="P136" s="21">
-        <f t="shared" si="31"/>
-        <v>15.57</v>
-      </c>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B137" s="23">
         <v>45962</v>
       </c>
@@ -24244,388 +24705,388 @@
         <v>174</v>
       </c>
       <c r="D137">
+        <v>168</v>
+      </c>
+      <c r="E137">
+        <v>172</v>
+      </c>
+      <c r="F137">
         <v>173</v>
       </c>
-      <c r="E137">
+      <c r="G137">
+        <v>182</v>
+      </c>
+      <c r="H137">
+        <v>173</v>
+      </c>
+      <c r="I137">
         <v>178</v>
       </c>
-      <c r="F137">
-        <v>183</v>
-      </c>
-      <c r="G137">
-        <v>186</v>
-      </c>
-      <c r="H137">
-        <v>196</v>
-      </c>
-      <c r="I137">
-        <v>170</v>
-      </c>
       <c r="J137">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K137">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="L137">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M137">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N137">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O137" s="21">
-        <f t="shared" si="30"/>
-        <v>176</v>
+        <f t="shared" si="32"/>
+        <v>174</v>
       </c>
       <c r="P137" s="21">
-        <f t="shared" si="31"/>
-        <v>8.0299999999999994</v>
-      </c>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B138" s="23">
         <v>45963</v>
       </c>
       <c r="C138">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D138">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E138">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F138">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G138">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H138">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I138">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J138">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K138">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L138">
+        <v>70</v>
+      </c>
+      <c r="M138">
         <v>69</v>
-      </c>
-      <c r="M138">
-        <v>65</v>
       </c>
       <c r="N138">
         <v>65</v>
       </c>
       <c r="O138" s="21">
-        <f t="shared" si="30"/>
-        <v>63</v>
+        <f t="shared" si="32"/>
+        <v>61</v>
       </c>
       <c r="P138" s="21">
-        <f t="shared" si="31"/>
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B139" s="23">
         <v>45964</v>
       </c>
       <c r="C139">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D139">
+        <v>60</v>
+      </c>
+      <c r="E139">
+        <v>58</v>
+      </c>
+      <c r="F139">
+        <v>55</v>
+      </c>
+      <c r="G139">
+        <v>54</v>
+      </c>
+      <c r="H139">
+        <v>49</v>
+      </c>
+      <c r="I139">
+        <v>62</v>
+      </c>
+      <c r="J139">
         <v>65</v>
       </c>
-      <c r="E139">
-        <v>61</v>
-      </c>
-      <c r="F139">
-        <v>70</v>
-      </c>
-      <c r="G139">
-        <v>65</v>
-      </c>
-      <c r="H139">
-        <v>45</v>
-      </c>
-      <c r="I139">
-        <v>64</v>
-      </c>
-      <c r="J139">
-        <v>69</v>
-      </c>
       <c r="K139">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L139">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M139">
         <v>66</v>
       </c>
       <c r="N139">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O139" s="21">
-        <f t="shared" si="30"/>
-        <v>64</v>
+        <f t="shared" si="32"/>
+        <v>61</v>
       </c>
       <c r="P139" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.92</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B140" s="23">
         <v>45965</v>
       </c>
       <c r="C140">
+        <v>35</v>
+      </c>
+      <c r="D140">
+        <v>32</v>
+      </c>
+      <c r="E140">
         <v>28</v>
       </c>
-      <c r="D140">
-        <v>23</v>
-      </c>
-      <c r="E140">
-        <v>43</v>
-      </c>
       <c r="F140">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>30</v>
       </c>
       <c r="H140">
+        <v>35</v>
+      </c>
+      <c r="I140">
+        <v>30</v>
+      </c>
+      <c r="J140">
+        <v>32</v>
+      </c>
+      <c r="K140">
+        <v>36</v>
+      </c>
+      <c r="L140">
         <v>33</v>
       </c>
-      <c r="I140">
-        <v>45</v>
-      </c>
-      <c r="J140">
-        <v>41</v>
-      </c>
-      <c r="K140">
-        <v>41</v>
-      </c>
-      <c r="L140">
-        <v>21</v>
-      </c>
       <c r="M140">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N140">
+        <v>26</v>
+      </c>
+      <c r="O140" s="21">
+        <f t="shared" si="32"/>
         <v>31</v>
       </c>
-      <c r="O140" s="21">
-        <f t="shared" si="30"/>
-        <v>35</v>
-      </c>
       <c r="P140" s="21">
-        <f t="shared" si="31"/>
-        <v>8.74</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B141" s="23">
         <v>45966</v>
       </c>
       <c r="C141">
+        <v>63</v>
+      </c>
+      <c r="D141">
+        <v>63</v>
+      </c>
+      <c r="E141">
+        <v>61</v>
+      </c>
+      <c r="F141">
+        <v>60</v>
+      </c>
+      <c r="G141">
+        <v>63</v>
+      </c>
+      <c r="H141">
+        <v>60</v>
+      </c>
+      <c r="I141">
         <v>64</v>
       </c>
-      <c r="D141">
-        <v>59</v>
-      </c>
-      <c r="E141">
-        <v>78</v>
-      </c>
-      <c r="F141">
-        <v>72</v>
-      </c>
-      <c r="G141">
-        <v>72</v>
-      </c>
-      <c r="H141">
-        <v>66</v>
-      </c>
-      <c r="I141">
-        <v>65</v>
-      </c>
       <c r="J141">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K141">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L141">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M141">
         <v>61</v>
       </c>
       <c r="N141">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O141" s="21">
-        <f t="shared" si="30"/>
-        <v>66</v>
+        <f t="shared" si="32"/>
+        <v>63</v>
       </c>
       <c r="P141" s="21">
-        <f t="shared" si="31"/>
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B142" s="23">
         <v>45967</v>
       </c>
       <c r="C142">
+        <v>81</v>
+      </c>
+      <c r="D142">
+        <v>85</v>
+      </c>
+      <c r="E142">
+        <v>87</v>
+      </c>
+      <c r="F142">
+        <v>90</v>
+      </c>
+      <c r="G142">
+        <v>98</v>
+      </c>
+      <c r="H142">
+        <v>93</v>
+      </c>
+      <c r="I142">
+        <v>91</v>
+      </c>
+      <c r="J142">
+        <v>88</v>
+      </c>
+      <c r="K142">
+        <v>81</v>
+      </c>
+      <c r="L142">
+        <v>81</v>
+      </c>
+      <c r="M142">
+        <v>80</v>
+      </c>
+      <c r="N142">
         <v>83</v>
       </c>
-      <c r="D142">
-        <v>83</v>
-      </c>
-      <c r="E142">
-        <v>93</v>
-      </c>
-      <c r="F142">
-        <v>84</v>
-      </c>
-      <c r="G142">
-        <v>106</v>
-      </c>
-      <c r="H142">
-        <v>100</v>
-      </c>
-      <c r="I142">
-        <v>82</v>
-      </c>
-      <c r="J142">
-        <v>82</v>
-      </c>
-      <c r="K142">
-        <v>80</v>
-      </c>
-      <c r="L142">
-        <v>84</v>
-      </c>
-      <c r="M142">
-        <v>83</v>
-      </c>
-      <c r="N142">
-        <v>81</v>
-      </c>
       <c r="O142" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>87</v>
       </c>
       <c r="P142" s="21">
-        <f t="shared" si="31"/>
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B143" s="23">
         <v>45968</v>
       </c>
       <c r="C143">
+        <v>156</v>
+      </c>
+      <c r="D143">
+        <v>161</v>
+      </c>
+      <c r="E143">
+        <v>147</v>
+      </c>
+      <c r="F143">
+        <v>148</v>
+      </c>
+      <c r="G143">
+        <v>142</v>
+      </c>
+      <c r="H143">
+        <v>136</v>
+      </c>
+      <c r="I143">
+        <v>154</v>
+      </c>
+      <c r="J143">
+        <v>150</v>
+      </c>
+      <c r="K143">
+        <v>160</v>
+      </c>
+      <c r="L143">
         <v>167</v>
       </c>
-      <c r="D143">
+      <c r="M143">
+        <v>161</v>
+      </c>
+      <c r="N143">
         <v>162</v>
       </c>
-      <c r="E143">
-        <v>146</v>
-      </c>
-      <c r="F143">
-        <v>165</v>
-      </c>
-      <c r="G143">
-        <v>141</v>
-      </c>
-      <c r="H143">
-        <v>157</v>
-      </c>
-      <c r="I143">
-        <v>133</v>
-      </c>
-      <c r="J143">
-        <v>148</v>
-      </c>
-      <c r="K143">
-        <v>165</v>
-      </c>
-      <c r="L143">
-        <v>162</v>
-      </c>
-      <c r="M143">
-        <v>162</v>
-      </c>
-      <c r="N143">
-        <v>163</v>
-      </c>
       <c r="O143" s="21">
-        <f t="shared" si="30"/>
-        <v>156</v>
+        <f t="shared" si="32"/>
+        <v>154</v>
       </c>
       <c r="P143" s="21">
-        <f t="shared" si="31"/>
-        <v>10.220000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B144" s="23">
         <v>45969</v>
       </c>
       <c r="C144">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D144">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E144">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F144">
+        <v>174</v>
+      </c>
+      <c r="G144">
+        <v>170</v>
+      </c>
+      <c r="H144">
+        <v>169</v>
+      </c>
+      <c r="I144">
+        <v>175</v>
+      </c>
+      <c r="J144">
+        <v>173</v>
+      </c>
+      <c r="K144">
+        <v>186</v>
+      </c>
+      <c r="L144">
+        <v>178</v>
+      </c>
+      <c r="M144">
         <v>172</v>
       </c>
-      <c r="G144">
-        <v>176</v>
-      </c>
-      <c r="H144">
-        <v>179</v>
-      </c>
-      <c r="I144">
-        <v>162</v>
-      </c>
-      <c r="J144">
-        <v>171</v>
-      </c>
-      <c r="K144">
-        <v>182</v>
-      </c>
-      <c r="L144">
-        <v>183</v>
-      </c>
-      <c r="M144">
+      <c r="N144">
         <v>175</v>
       </c>
-      <c r="N144">
-        <v>178</v>
-      </c>
       <c r="O144" s="21">
-        <f t="shared" si="30"/>
-        <v>177</v>
+        <f t="shared" si="32"/>
+        <v>174</v>
       </c>
       <c r="P144" s="21">
-        <f t="shared" si="31"/>
-        <v>5.5</v>
+        <f t="shared" si="33"/>
+        <v>4.62</v>
       </c>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
@@ -24633,48 +25094,48 @@
         <v>45970</v>
       </c>
       <c r="C145">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D145">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E145">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F145">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G145">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H145">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I145">
         <v>61</v>
       </c>
       <c r="J145">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K145">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L145">
         <v>68</v>
       </c>
       <c r="M145">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N145">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O145" s="21">
-        <f t="shared" si="30"/>
-        <v>63</v>
+        <f t="shared" si="32"/>
+        <v>61</v>
       </c>
       <c r="P145" s="21">
-        <f t="shared" si="31"/>
-        <v>5.33</v>
+        <f t="shared" si="33"/>
+        <v>4.41</v>
       </c>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.25">
@@ -24682,48 +25143,48 @@
         <v>45971</v>
       </c>
       <c r="C146">
+        <v>49</v>
+      </c>
+      <c r="D146">
+        <v>50</v>
+      </c>
+      <c r="E146">
+        <v>47</v>
+      </c>
+      <c r="F146">
+        <v>48</v>
+      </c>
+      <c r="G146">
+        <v>49</v>
+      </c>
+      <c r="H146">
+        <v>47</v>
+      </c>
+      <c r="I146">
+        <v>50</v>
+      </c>
+      <c r="J146">
+        <v>50</v>
+      </c>
+      <c r="K146">
         <v>46</v>
       </c>
-      <c r="D146">
-        <v>47</v>
-      </c>
-      <c r="E146">
-        <v>58</v>
-      </c>
-      <c r="F146">
-        <v>59</v>
-      </c>
-      <c r="G146">
-        <v>60</v>
-      </c>
-      <c r="H146">
-        <v>43</v>
-      </c>
-      <c r="I146">
+      <c r="L146">
         <v>53</v>
       </c>
-      <c r="J146">
-        <v>56</v>
-      </c>
-      <c r="K146">
-        <v>48</v>
-      </c>
-      <c r="L146">
-        <v>46</v>
-      </c>
       <c r="M146">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N146">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O146" s="21">
-        <f t="shared" si="30"/>
-        <v>51</v>
+        <f t="shared" si="32"/>
+        <v>49</v>
       </c>
       <c r="P146" s="21">
-        <f t="shared" si="31"/>
-        <v>5.52</v>
+        <f t="shared" si="33"/>
+        <v>1.73</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
@@ -24731,48 +25192,48 @@
         <v>45972</v>
       </c>
       <c r="C147">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D147">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E147">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F147">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G147">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I147">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J147">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K147">
         <v>44</v>
       </c>
       <c r="L147">
+        <v>52</v>
+      </c>
+      <c r="M147">
         <v>51</v>
       </c>
-      <c r="M147">
-        <v>55</v>
-      </c>
       <c r="N147">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O147" s="21">
-        <f t="shared" si="30"/>
-        <v>50</v>
+        <f t="shared" si="32"/>
+        <v>46</v>
       </c>
       <c r="P147" s="21">
-        <f t="shared" si="31"/>
-        <v>7.34</v>
+        <f t="shared" si="33"/>
+        <v>6.62</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
@@ -24780,48 +25241,48 @@
         <v>45973</v>
       </c>
       <c r="C148">
+        <v>68</v>
+      </c>
+      <c r="D148">
         <v>73</v>
       </c>
-      <c r="D148">
-        <v>68</v>
-      </c>
       <c r="E148">
+        <v>62</v>
+      </c>
+      <c r="F148">
+        <v>60</v>
+      </c>
+      <c r="G148">
+        <v>60</v>
+      </c>
+      <c r="H148">
+        <v>62</v>
+      </c>
+      <c r="I148">
+        <v>66</v>
+      </c>
+      <c r="J148">
+        <v>64</v>
+      </c>
+      <c r="K148">
+        <v>73</v>
+      </c>
+      <c r="L148">
+        <v>72</v>
+      </c>
+      <c r="M148">
+        <v>69</v>
+      </c>
+      <c r="N148">
         <v>71</v>
       </c>
-      <c r="F148">
-        <v>65</v>
-      </c>
-      <c r="G148">
-        <v>57</v>
-      </c>
-      <c r="H148">
-        <v>64</v>
-      </c>
-      <c r="I148">
-        <v>64</v>
-      </c>
-      <c r="J148">
-        <v>63</v>
-      </c>
-      <c r="K148">
-        <v>68</v>
-      </c>
-      <c r="L148">
-        <v>69</v>
-      </c>
-      <c r="M148">
-        <v>74</v>
-      </c>
-      <c r="N148">
-        <v>72</v>
-      </c>
       <c r="O148" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>67</v>
       </c>
       <c r="P148" s="21">
-        <f t="shared" si="31"/>
-        <v>4.55</v>
+        <f t="shared" si="33"/>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
@@ -24829,48 +25290,48 @@
         <v>45974</v>
       </c>
       <c r="C149">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D149">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E149">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F149">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G149">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H149">
+        <v>97</v>
+      </c>
+      <c r="I149">
+        <v>107</v>
+      </c>
+      <c r="J149">
+        <v>100</v>
+      </c>
+      <c r="K149">
+        <v>114</v>
+      </c>
+      <c r="L149">
+        <v>119</v>
+      </c>
+      <c r="M149">
+        <v>107</v>
+      </c>
+      <c r="N149">
+        <v>106</v>
+      </c>
+      <c r="O149" s="21">
+        <f t="shared" si="32"/>
         <v>104</v>
       </c>
-      <c r="I149">
-        <v>94</v>
-      </c>
-      <c r="J149">
-        <v>92</v>
-      </c>
-      <c r="K149">
-        <v>116</v>
-      </c>
-      <c r="L149">
-        <v>106</v>
-      </c>
-      <c r="M149">
-        <v>105</v>
-      </c>
-      <c r="N149">
-        <v>108</v>
-      </c>
-      <c r="O149" s="21">
-        <f t="shared" si="30"/>
-        <v>103</v>
-      </c>
       <c r="P149" s="21">
-        <f t="shared" si="31"/>
-        <v>7.57</v>
+        <f t="shared" si="33"/>
+        <v>7.24</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
@@ -24878,48 +25339,48 @@
         <v>40</v>
       </c>
       <c r="C150" s="34">
-        <v>24.78</v>
+        <v>28.45</v>
       </c>
       <c r="D150">
-        <v>25.89</v>
+        <v>26.29</v>
       </c>
       <c r="E150">
-        <v>24.92</v>
+        <v>22.17</v>
       </c>
       <c r="F150">
-        <v>29.54</v>
+        <v>23.33</v>
       </c>
       <c r="G150">
-        <v>21.98</v>
+        <v>21.47</v>
       </c>
       <c r="H150">
-        <v>23.29</v>
+        <v>22.67</v>
       </c>
       <c r="I150">
-        <v>23.6</v>
+        <v>23.24</v>
       </c>
       <c r="J150">
-        <v>25.93</v>
+        <v>23.24</v>
       </c>
       <c r="K150">
-        <v>26.25</v>
+        <v>27.19</v>
       </c>
       <c r="L150">
-        <v>27.71</v>
+        <v>24.39</v>
       </c>
       <c r="M150" s="34">
-        <v>27.86</v>
+        <v>26.89</v>
       </c>
       <c r="N150" s="35">
-        <v>27.31</v>
+        <v>27.35</v>
       </c>
       <c r="O150" s="36">
         <f>ROUND(AVERAGE(C150:N150),2)</f>
-        <v>25.76</v>
+        <v>24.72</v>
       </c>
       <c r="P150" s="36">
         <f>ROUND(_xlfn.STDEV.P(C150:N150),2)</f>
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="151" spans="2:16" x14ac:dyDescent="0.25">
@@ -24927,48 +25388,48 @@
         <v>41</v>
       </c>
       <c r="C151" s="16">
-        <v>29.87</v>
+        <v>26.51</v>
       </c>
       <c r="D151">
-        <v>29.09</v>
+        <v>27.14</v>
       </c>
       <c r="E151">
-        <v>30.06</v>
+        <v>31.25</v>
       </c>
       <c r="F151">
-        <v>27.68</v>
+        <v>29.74</v>
       </c>
       <c r="G151">
-        <v>31.05</v>
+        <v>31.04</v>
       </c>
       <c r="H151">
-        <v>33.520000000000003</v>
+        <v>32.11</v>
       </c>
       <c r="I151">
-        <v>31.42</v>
+        <v>29.29</v>
       </c>
       <c r="J151">
-        <v>28.96</v>
+        <v>29.28</v>
       </c>
       <c r="K151">
-        <v>24.03</v>
+        <v>24.4</v>
       </c>
       <c r="L151">
-        <v>22.95</v>
+        <v>24.76</v>
       </c>
       <c r="M151" s="16">
-        <v>26.73</v>
+        <v>25.3</v>
       </c>
       <c r="N151" s="16">
-        <v>26.04</v>
+        <v>25.23</v>
       </c>
       <c r="O151" s="21">
         <f>ROUND(AVERAGE(C151:N151),2)</f>
-        <v>28.45</v>
+        <v>28</v>
       </c>
       <c r="P151" s="21">
         <f>ROUND(_xlfn.STDEV.P(C151:N151),2)</f>
-        <v>2.97</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.25">
@@ -25009,26 +25470,31 @@
     <mergeCell ref="M152:N152"/>
   </mergeCells>
   <conditionalFormatting sqref="C150 E150:G150 I150:J150 L150:N150 E151">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>$O$150-$P$150</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150:N150 E151">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="aboveAverage" dxfId="7" priority="11"/>
-    <cfRule type="aboveAverage" dxfId="6" priority="12"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="13"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R79 R81:R113">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="R3:R79 R81:R132">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FF92D050"/>
         <color rgb="FFFF0000"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:O132">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>ABS(C114-$A114)&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25043,8 +25509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="P114" sqref="P114:P149"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="O133" sqref="O133:P149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30636,6 +31102,9 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="27">
+        <v>59</v>
+      </c>
       <c r="B114" s="23">
         <v>45939</v>
       </c>
@@ -30683,8 +31152,19 @@
         <f t="shared" si="12"/>
         <v>6.54</v>
       </c>
+      <c r="R114" s="27">
+        <f t="shared" ref="R114:R133" si="13">O114-A114</f>
+        <v>-4</v>
+      </c>
+      <c r="S114">
+        <f t="shared" ref="S114:S133" si="14">O114/A114</f>
+        <v>0.93220338983050843</v>
+      </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="27">
+        <v>91</v>
+      </c>
       <c r="B115" s="23">
         <v>45940</v>
       </c>
@@ -30732,8 +31212,19 @@
         <f t="shared" si="12"/>
         <v>15.97</v>
       </c>
+      <c r="R115" s="27">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="14"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="27">
+        <v>138</v>
+      </c>
       <c r="B116" s="23">
         <v>45941</v>
       </c>
@@ -30781,8 +31272,19 @@
         <f t="shared" si="12"/>
         <v>10.89</v>
       </c>
+      <c r="R116" s="27">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="14"/>
+        <v>1.2753623188405796</v>
+      </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="27">
+        <v>19</v>
+      </c>
       <c r="B117" s="23">
         <v>45942</v>
       </c>
@@ -30830,8 +31332,19 @@
         <f t="shared" si="12"/>
         <v>5.84</v>
       </c>
+      <c r="R117" s="27">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="14"/>
+        <v>2.5789473684210527</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="27">
+        <v>33</v>
+      </c>
       <c r="B118" s="23">
         <v>45943</v>
       </c>
@@ -30879,8 +31392,19 @@
         <f t="shared" si="12"/>
         <v>9.85</v>
       </c>
+      <c r="R118" s="27">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="14"/>
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="27">
+        <v>25</v>
+      </c>
       <c r="B119" s="23">
         <v>45944</v>
       </c>
@@ -30928,8 +31452,19 @@
         <f t="shared" si="12"/>
         <v>15.07</v>
       </c>
+      <c r="R119" s="27">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="14"/>
+        <v>2.3199999999999998</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="27">
+        <v>37</v>
+      </c>
       <c r="B120" s="23">
         <v>45945</v>
       </c>
@@ -30977,8 +31512,19 @@
         <f t="shared" si="12"/>
         <v>11.13</v>
       </c>
+      <c r="R120" s="27">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="14"/>
+        <v>1.3243243243243243</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="27">
+        <v>62</v>
+      </c>
       <c r="B121" s="23">
         <v>45946</v>
       </c>
@@ -31026,8 +31572,19 @@
         <f t="shared" si="12"/>
         <v>13.89</v>
       </c>
+      <c r="R121" s="27">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="14"/>
+        <v>1.1612903225806452</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="27">
+        <v>126</v>
+      </c>
       <c r="B122" s="23">
         <v>45947</v>
       </c>
@@ -31075,8 +31632,19 @@
         <f t="shared" si="12"/>
         <v>25.42</v>
       </c>
+      <c r="R122" s="27">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="14"/>
+        <v>1.0634920634920635</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="27">
+        <v>141</v>
+      </c>
       <c r="B123" s="23">
         <v>45948</v>
       </c>
@@ -31124,8 +31692,19 @@
         <f t="shared" si="12"/>
         <v>17.72</v>
       </c>
+      <c r="R123" s="27">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="14"/>
+        <v>1.1560283687943262</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="27">
+        <v>65</v>
+      </c>
       <c r="B124" s="23">
         <v>45949</v>
       </c>
@@ -31173,8 +31752,19 @@
         <f t="shared" si="12"/>
         <v>9.67</v>
       </c>
+      <c r="R124" s="27">
+        <f t="shared" si="13"/>
+        <v>-16</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="14"/>
+        <v>0.75384615384615383</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="27">
+        <v>46</v>
+      </c>
       <c r="B125" s="23">
         <v>45950</v>
       </c>
@@ -31222,8 +31812,19 @@
         <f t="shared" si="12"/>
         <v>19.34</v>
       </c>
+      <c r="R125" s="27">
+        <f t="shared" si="13"/>
+        <v>-9</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="14"/>
+        <v>0.80434782608695654</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="27">
+        <v>31</v>
+      </c>
       <c r="B126" s="23">
         <v>45951</v>
       </c>
@@ -31271,8 +31872,19 @@
         <f t="shared" si="12"/>
         <v>13.22</v>
       </c>
+      <c r="R126" s="27">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="14"/>
+        <v>1.3870967741935485</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="27">
+        <v>84</v>
+      </c>
       <c r="B127" s="23">
         <v>45952</v>
       </c>
@@ -31320,8 +31932,19 @@
         <f t="shared" si="12"/>
         <v>9.17</v>
       </c>
+      <c r="R127" s="27">
+        <f t="shared" si="13"/>
+        <v>-26</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="14"/>
+        <v>0.69047619047619047</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="27">
+        <v>28</v>
+      </c>
       <c r="B128" s="23">
         <v>45953</v>
       </c>
@@ -31369,8 +31992,19 @@
         <f t="shared" si="12"/>
         <v>12.09</v>
       </c>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R128" s="27">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="14"/>
+        <v>2.7857142857142856</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="27">
+        <v>131</v>
+      </c>
       <c r="B129" s="23">
         <v>45954</v>
       </c>
@@ -31418,8 +32052,19 @@
         <f t="shared" si="12"/>
         <v>24.1</v>
       </c>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R129" s="27">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="14"/>
+        <v>0.99236641221374045</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="27">
+        <v>199</v>
+      </c>
       <c r="B130" s="23">
         <v>45955</v>
       </c>
@@ -31467,8 +32112,19 @@
         <f t="shared" si="12"/>
         <v>15.82</v>
       </c>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R130" s="27">
+        <f t="shared" si="13"/>
+        <v>-42</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="14"/>
+        <v>0.78894472361809043</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="27">
+        <v>49</v>
+      </c>
       <c r="B131" s="23">
         <v>45956</v>
       </c>
@@ -31516,8 +32172,19 @@
         <f t="shared" si="12"/>
         <v>10.59</v>
       </c>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R131" s="27">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="14"/>
+        <v>1.1632653061224489</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="27">
+        <v>48</v>
+      </c>
       <c r="B132" s="23">
         <v>45957</v>
       </c>
@@ -31565,204 +32232,223 @@
         <f t="shared" si="12"/>
         <v>8.11</v>
       </c>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B133" s="23">
+      <c r="R132" s="27">
+        <f t="shared" si="13"/>
+        <v>-11</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="14"/>
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="29">
+        <v>58</v>
+      </c>
+      <c r="B133" s="28">
         <v>45958</v>
       </c>
-      <c r="C133">
-        <v>43</v>
-      </c>
-      <c r="D133">
-        <v>43</v>
-      </c>
-      <c r="E133">
-        <v>37</v>
-      </c>
-      <c r="F133">
-        <v>35</v>
-      </c>
-      <c r="G133">
-        <v>39</v>
-      </c>
-      <c r="H133">
-        <v>19</v>
-      </c>
-      <c r="I133">
-        <v>40</v>
-      </c>
-      <c r="J133">
-        <v>52</v>
-      </c>
-      <c r="K133">
-        <v>45</v>
-      </c>
-      <c r="L133">
+      <c r="C133" s="29">
+        <v>42</v>
+      </c>
+      <c r="D133" s="29">
         <v>44</v>
       </c>
-      <c r="M133">
+      <c r="E133" s="29">
+        <v>27</v>
+      </c>
+      <c r="F133" s="29">
+        <v>31</v>
+      </c>
+      <c r="G133" s="29">
+        <v>34</v>
+      </c>
+      <c r="H133" s="29">
+        <v>51</v>
+      </c>
+      <c r="I133" s="29">
+        <v>20</v>
+      </c>
+      <c r="J133" s="29">
+        <v>15</v>
+      </c>
+      <c r="K133" s="29">
         <v>42</v>
       </c>
-      <c r="N133">
-        <v>45</v>
-      </c>
-      <c r="O133" s="21">
+      <c r="L133" s="29">
+        <v>44</v>
+      </c>
+      <c r="M133" s="29">
+        <v>42</v>
+      </c>
+      <c r="N133" s="29">
+        <v>44</v>
+      </c>
+      <c r="O133" s="30">
         <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="P133" s="21">
+        <v>36</v>
+      </c>
+      <c r="P133" s="30">
         <f t="shared" si="12"/>
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+        <v>10.53</v>
+      </c>
+      <c r="R133" s="29">
+        <f t="shared" si="13"/>
+        <v>-22</v>
+      </c>
+      <c r="S133" s="29">
+        <f t="shared" si="14"/>
+        <v>0.62068965517241381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B134" s="23">
         <v>45959</v>
       </c>
       <c r="C134">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D134">
         <v>53</v>
       </c>
       <c r="E134">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F134">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G134">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H134">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I134">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J134">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K134">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L134">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M134">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N134">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O134" s="21">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P134" s="21">
         <f t="shared" si="12"/>
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B135" s="23">
         <v>45960</v>
       </c>
       <c r="C135">
+        <v>87</v>
+      </c>
+      <c r="D135">
         <v>91</v>
       </c>
-      <c r="D135">
+      <c r="E135">
+        <v>66</v>
+      </c>
+      <c r="F135">
+        <v>80</v>
+      </c>
+      <c r="G135">
+        <v>87</v>
+      </c>
+      <c r="H135">
+        <v>92</v>
+      </c>
+      <c r="I135">
+        <v>69</v>
+      </c>
+      <c r="J135">
+        <v>55</v>
+      </c>
+      <c r="K135">
+        <v>85</v>
+      </c>
+      <c r="L135">
         <v>90</v>
-      </c>
-      <c r="E135">
-        <v>88</v>
-      </c>
-      <c r="F135">
-        <v>77</v>
-      </c>
-      <c r="G135">
-        <v>85</v>
-      </c>
-      <c r="H135">
-        <v>49</v>
-      </c>
-      <c r="I135">
-        <v>52</v>
-      </c>
-      <c r="J135">
-        <v>65</v>
-      </c>
-      <c r="K135">
-        <v>86</v>
-      </c>
-      <c r="L135">
-        <v>87</v>
       </c>
       <c r="M135">
         <v>87</v>
       </c>
       <c r="N135">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O135" s="21">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P135" s="21">
         <f t="shared" si="12"/>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B136" s="23">
         <v>45961</v>
       </c>
       <c r="C136">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D136">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E136">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F136">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G136">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H136">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="I136">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="J136">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K136">
         <v>109</v>
       </c>
       <c r="L136">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M136">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N136">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O136" s="21">
         <f t="shared" si="11"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P136" s="21">
         <f t="shared" si="12"/>
-        <v>18.760000000000002</v>
-      </c>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B137" s="23">
         <v>45962</v>
       </c>
@@ -31770,331 +32456,331 @@
         <v>174</v>
       </c>
       <c r="D137">
+        <v>169</v>
+      </c>
+      <c r="E137">
+        <v>142</v>
+      </c>
+      <c r="F137">
+        <v>153</v>
+      </c>
+      <c r="G137">
+        <v>158</v>
+      </c>
+      <c r="H137">
         <v>173</v>
       </c>
-      <c r="E137">
-        <v>158</v>
-      </c>
-      <c r="F137">
-        <v>122</v>
-      </c>
-      <c r="G137">
-        <v>157</v>
-      </c>
-      <c r="H137">
-        <v>132</v>
-      </c>
       <c r="I137">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="J137">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="K137">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="L137">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M137">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="N137">
         <v>175</v>
       </c>
       <c r="O137" s="21">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P137" s="21">
         <f t="shared" si="12"/>
-        <v>18.190000000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B138" s="23">
         <v>45963</v>
       </c>
       <c r="C138">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D138">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E138">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F138">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G138">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H138">
+        <v>50</v>
+      </c>
+      <c r="I138">
+        <v>23</v>
+      </c>
+      <c r="J138">
         <v>22</v>
       </c>
-      <c r="I138">
-        <v>51</v>
-      </c>
-      <c r="J138">
-        <v>61</v>
-      </c>
       <c r="K138">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L138">
+        <v>70</v>
+      </c>
+      <c r="M138">
         <v>69</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>64</v>
-      </c>
-      <c r="N138">
-        <v>66</v>
       </c>
       <c r="O138" s="21">
         <f t="shared" si="11"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P138" s="21">
         <f t="shared" si="12"/>
-        <v>13.83</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B139" s="23">
         <v>45964</v>
       </c>
       <c r="C139">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D139">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E139">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F139">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G139">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H139">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I139">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J139">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="K139">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L139">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M139">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N139">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O139" s="21">
         <f t="shared" si="11"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P139" s="21">
         <f t="shared" si="12"/>
-        <v>14.07</v>
-      </c>
-    </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B140" s="23">
         <v>45965</v>
       </c>
       <c r="C140">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D140">
+        <v>34</v>
+      </c>
+      <c r="E140">
+        <v>20</v>
+      </c>
+      <c r="F140">
         <v>25</v>
       </c>
-      <c r="E140">
-        <v>43</v>
-      </c>
-      <c r="F140">
-        <v>49</v>
-      </c>
       <c r="G140">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H140">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I140">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J140">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K140">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L140">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M140">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N140">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O140" s="21">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P140" s="21">
         <f t="shared" si="12"/>
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B141" s="23">
         <v>45966</v>
       </c>
       <c r="C141">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D141">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E141">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F141">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G141">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H141">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I141">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J141">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="K141">
+        <v>68</v>
+      </c>
+      <c r="L141">
+        <v>61</v>
+      </c>
+      <c r="M141">
+        <v>63</v>
+      </c>
+      <c r="N141">
         <v>62</v>
-      </c>
-      <c r="L141">
-        <v>62</v>
-      </c>
-      <c r="M141">
-        <v>60</v>
-      </c>
-      <c r="N141">
-        <v>65</v>
       </c>
       <c r="O141" s="21">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P141" s="21">
         <f t="shared" si="12"/>
-        <v>11.03</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B142" s="23">
         <v>45967</v>
       </c>
       <c r="C142">
+        <v>81</v>
+      </c>
+      <c r="D142">
+        <v>84</v>
+      </c>
+      <c r="E142">
+        <v>56</v>
+      </c>
+      <c r="F142">
+        <v>72</v>
+      </c>
+      <c r="G142">
+        <v>79</v>
+      </c>
+      <c r="H142">
+        <v>89</v>
+      </c>
+      <c r="I142">
+        <v>58</v>
+      </c>
+      <c r="J142">
+        <v>41</v>
+      </c>
+      <c r="K142">
+        <v>81</v>
+      </c>
+      <c r="L142">
+        <v>81</v>
+      </c>
+      <c r="M142">
+        <v>80</v>
+      </c>
+      <c r="N142">
         <v>82</v>
-      </c>
-      <c r="D142">
-        <v>83</v>
-      </c>
-      <c r="E142">
-        <v>84</v>
-      </c>
-      <c r="F142">
-        <v>65</v>
-      </c>
-      <c r="G142">
-        <v>77</v>
-      </c>
-      <c r="H142">
-        <v>41</v>
-      </c>
-      <c r="I142">
-        <v>49</v>
-      </c>
-      <c r="J142">
-        <v>58</v>
-      </c>
-      <c r="K142">
-        <v>80</v>
-      </c>
-      <c r="L142">
-        <v>84</v>
-      </c>
-      <c r="M142">
-        <v>83</v>
-      </c>
-      <c r="N142">
-        <v>81</v>
       </c>
       <c r="O142" s="21">
         <f t="shared" si="11"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P142" s="21">
         <f t="shared" si="12"/>
-        <v>14.53</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B143" s="23">
         <v>45968</v>
       </c>
       <c r="C143">
+        <v>156</v>
+      </c>
+      <c r="D143">
+        <v>162</v>
+      </c>
+      <c r="E143">
+        <v>109</v>
+      </c>
+      <c r="F143">
+        <v>113</v>
+      </c>
+      <c r="G143">
+        <v>99</v>
+      </c>
+      <c r="H143">
+        <v>121</v>
+      </c>
+      <c r="I143">
+        <v>84</v>
+      </c>
+      <c r="J143">
+        <v>60</v>
+      </c>
+      <c r="K143">
+        <v>160</v>
+      </c>
+      <c r="L143">
         <v>167</v>
-      </c>
-      <c r="D143">
-        <v>161</v>
-      </c>
-      <c r="E143">
-        <v>120</v>
-      </c>
-      <c r="F143">
-        <v>117</v>
-      </c>
-      <c r="G143">
-        <v>103</v>
-      </c>
-      <c r="H143">
-        <v>69</v>
-      </c>
-      <c r="I143">
-        <v>77</v>
-      </c>
-      <c r="J143">
-        <v>88</v>
-      </c>
-      <c r="K143">
-        <v>165</v>
-      </c>
-      <c r="L143">
-        <v>161</v>
       </c>
       <c r="M143">
         <v>161</v>
       </c>
       <c r="N143">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O143" s="21">
         <f t="shared" si="11"/>
@@ -32102,56 +32788,56 @@
       </c>
       <c r="P143" s="21">
         <f t="shared" si="12"/>
-        <v>36.42</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B144" s="23">
         <v>45969</v>
       </c>
       <c r="C144">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D144">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E144">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="F144">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G144">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H144">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="I144">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="J144">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="K144">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L144">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M144">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N144">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O144" s="21">
         <f t="shared" si="11"/>
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P144" s="21">
         <f t="shared" si="12"/>
-        <v>39.340000000000003</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
@@ -32159,48 +32845,48 @@
         <v>45970</v>
       </c>
       <c r="C145">
+        <v>60</v>
+      </c>
+      <c r="D145">
         <v>64</v>
       </c>
-      <c r="D145">
+      <c r="E145">
+        <v>43</v>
+      </c>
+      <c r="F145">
+        <v>45</v>
+      </c>
+      <c r="G145">
+        <v>22</v>
+      </c>
+      <c r="H145">
+        <v>46</v>
+      </c>
+      <c r="I145">
+        <v>20</v>
+      </c>
+      <c r="J145">
+        <v>22</v>
+      </c>
+      <c r="K145">
         <v>66</v>
-      </c>
-      <c r="E145">
-        <v>61</v>
-      </c>
-      <c r="F145">
-        <v>56</v>
-      </c>
-      <c r="G145">
-        <v>27</v>
-      </c>
-      <c r="H145">
-        <v>20</v>
-      </c>
-      <c r="I145">
-        <v>50</v>
-      </c>
-      <c r="J145">
-        <v>63</v>
-      </c>
-      <c r="K145">
-        <v>64</v>
       </c>
       <c r="L145">
         <v>68</v>
       </c>
       <c r="M145">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N145">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O145" s="21">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P145" s="21">
         <f t="shared" si="12"/>
-        <v>15.33</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.25">
@@ -32208,48 +32894,48 @@
         <v>45971</v>
       </c>
       <c r="C146">
+        <v>49</v>
+      </c>
+      <c r="D146">
+        <v>50</v>
+      </c>
+      <c r="E146">
+        <v>29</v>
+      </c>
+      <c r="F146">
+        <v>34</v>
+      </c>
+      <c r="G146">
+        <v>28</v>
+      </c>
+      <c r="H146">
         <v>46</v>
       </c>
-      <c r="D146">
+      <c r="I146">
+        <v>18</v>
+      </c>
+      <c r="J146">
+        <v>16</v>
+      </c>
+      <c r="K146">
+        <v>46</v>
+      </c>
+      <c r="L146">
+        <v>53</v>
+      </c>
+      <c r="M146">
         <v>47</v>
       </c>
-      <c r="E146">
-        <v>43</v>
-      </c>
-      <c r="F146">
-        <v>35</v>
-      </c>
-      <c r="G146">
-        <v>34</v>
-      </c>
-      <c r="H146">
-        <v>19</v>
-      </c>
-      <c r="I146">
-        <v>43</v>
-      </c>
-      <c r="J146">
-        <v>55</v>
-      </c>
-      <c r="K146">
-        <v>48</v>
-      </c>
-      <c r="L146">
-        <v>46</v>
-      </c>
-      <c r="M146">
-        <v>46</v>
-      </c>
       <c r="N146">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O146" s="21">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P146" s="21">
         <f t="shared" si="12"/>
-        <v>8.92</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
@@ -32257,48 +32943,48 @@
         <v>45972</v>
       </c>
       <c r="C147">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D147">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E147">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F147">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G147">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H147">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I147">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="J147">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="K147">
         <v>44</v>
       </c>
       <c r="L147">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M147">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N147">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O147" s="21">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P147" s="21">
         <f t="shared" si="12"/>
-        <v>13.66</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
@@ -32306,48 +32992,48 @@
         <v>45973</v>
       </c>
       <c r="C148">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D148">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E148">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F148">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G148">
         <v>36</v>
       </c>
       <c r="H148">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I148">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J148">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="K148">
+        <v>73</v>
+      </c>
+      <c r="L148">
+        <v>72</v>
+      </c>
+      <c r="M148">
+        <v>71</v>
+      </c>
+      <c r="N148">
         <v>69</v>
-      </c>
-      <c r="L148">
-        <v>69</v>
-      </c>
-      <c r="M148">
-        <v>73</v>
-      </c>
-      <c r="N148">
-        <v>72</v>
       </c>
       <c r="O148" s="21">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P148" s="21">
         <f t="shared" si="12"/>
-        <v>16.14</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
@@ -32355,48 +33041,48 @@
         <v>45974</v>
       </c>
       <c r="C149">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D149">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E149">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F149">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G149">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H149">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I149">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J149">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="K149">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L149">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M149">
         <v>105</v>
       </c>
       <c r="N149">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O149" s="21">
         <f t="shared" si="11"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P149" s="21">
         <f t="shared" si="12"/>
-        <v>27.41</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
@@ -32484,28 +33170,33 @@
     <mergeCell ref="M152:N152"/>
   </mergeCells>
   <conditionalFormatting sqref="C150 I150:J150 E150:G150 L150:N150">
-    <cfRule type="aboveAverage" dxfId="5" priority="4"/>
-    <cfRule type="aboveAverage" dxfId="4" priority="5"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="6"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150:G150 I150:J150 L150:N150 D151 M151:N151">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150:N150">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>$O$150-$P$150</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R113">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R132">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FF92D050"/>
         <color rgb="FFFF0000"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:O132">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>ABS(C114-$A114)&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74E1FA-03E7-4EBE-9045-1E96A5804246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD18E5-7DFF-4BB4-899E-F85E7F60ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>day</t>
   </si>
@@ -245,6 +245,12 @@
   <si>
     <t>unweighted average is best for weekend data not weekday</t>
   </si>
+  <si>
+    <t>all no pre</t>
+  </si>
+  <si>
+    <t>all pretrain</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -526,11 +532,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -624,6 +641,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,17 +665,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -776,251 +807,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1332,9 +1118,9 @@
   </sheetPr>
   <dimension ref="A1:Q603"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L587" sqref="L587:O587"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J590" sqref="E590:J590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16889,7 +16675,7 @@
         <v>48</v>
       </c>
       <c r="E586" s="9">
-        <v>51.5</v>
+        <v>52.2</v>
       </c>
       <c r="F586" s="9">
         <v>0</v>
@@ -16917,7 +16703,7 @@
         <v>58</v>
       </c>
       <c r="E587" s="9">
-        <v>49</v>
+        <v>52.9</v>
       </c>
       <c r="F587" s="9">
         <v>0</v>
@@ -16942,10 +16728,10 @@
         <v>45959</v>
       </c>
       <c r="D588" s="27">
-        <v>50.25</v>
+        <v>34</v>
       </c>
       <c r="E588" s="9">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="F588" s="9">
         <v>0</v>
@@ -16956,10 +16742,8 @@
       <c r="H588" s="9">
         <v>12</v>
       </c>
-      <c r="J588" s="53">
-        <v>4.7850000000000001</v>
-      </c>
-      <c r="K588" s="54"/>
+      <c r="J588" s="47"/>
+      <c r="K588" s="48"/>
       <c r="Q588" s="27"/>
     </row>
     <row r="589" spans="1:17" x14ac:dyDescent="0.25">
@@ -16973,10 +16757,10 @@
         <v>45960</v>
       </c>
       <c r="D589" s="27">
-        <v>79.75</v>
+        <v>39</v>
       </c>
       <c r="E589" s="9">
-        <v>51.5</v>
+        <v>48.8</v>
       </c>
       <c r="F589" s="9">
         <v>0</v>
@@ -16987,10 +16771,8 @@
       <c r="H589" s="9">
         <v>5</v>
       </c>
-      <c r="J589" s="53">
-        <v>6.24</v>
-      </c>
-      <c r="K589" s="54"/>
+      <c r="J589" s="47"/>
+      <c r="K589" s="48"/>
       <c r="Q589" s="27"/>
     </row>
     <row r="590" spans="1:17" x14ac:dyDescent="0.25">
@@ -17004,10 +16786,10 @@
         <v>45961</v>
       </c>
       <c r="D590">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E590" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F590" s="9">
         <v>0</v>
@@ -17016,15 +16798,15 @@
         <v>0</v>
       </c>
       <c r="H590" s="9">
-        <v>7</v>
+        <v>12.835000000000001</v>
       </c>
       <c r="I590" t="s">
         <v>51</v>
       </c>
-      <c r="J590" s="53">
+      <c r="J590" s="47">
         <v>10.555</v>
       </c>
-      <c r="K590" s="54"/>
+      <c r="K590" s="48"/>
       <c r="Q590" s="27"/>
     </row>
     <row r="591" spans="1:17" x14ac:dyDescent="0.25">
@@ -17037,8 +16819,8 @@
       <c r="C591" s="7">
         <v>45962</v>
       </c>
-      <c r="D591">
-        <v>174</v>
+      <c r="D591" s="41">
+        <v>167.5</v>
       </c>
       <c r="E591" s="9">
         <v>52</v>
@@ -17050,12 +16832,12 @@
         <v>0</v>
       </c>
       <c r="H591" s="9">
-        <v>9</v>
-      </c>
-      <c r="J591" s="53">
+        <v>12.024999999999999</v>
+      </c>
+      <c r="J591" s="47">
         <v>6.7074999999999996</v>
       </c>
-      <c r="K591" s="54"/>
+      <c r="K591" s="48"/>
       <c r="Q591" s="27"/>
     </row>
     <row r="592" spans="1:17" x14ac:dyDescent="0.25">
@@ -17069,7 +16851,7 @@
         <v>45963</v>
       </c>
       <c r="D592" s="27">
-        <v>86</v>
+        <v>50.5</v>
       </c>
       <c r="E592" s="9">
         <v>51</v>
@@ -17081,12 +16863,12 @@
         <v>0</v>
       </c>
       <c r="H592" s="9">
-        <v>10</v>
-      </c>
-      <c r="J592" s="53">
+        <v>11.04</v>
+      </c>
+      <c r="J592" s="47">
         <v>9.0300000000000011</v>
       </c>
-      <c r="K592" s="54"/>
+      <c r="K592" s="48"/>
       <c r="Q592" s="27"/>
     </row>
     <row r="593" spans="1:17" x14ac:dyDescent="0.25">
@@ -17100,7 +16882,7 @@
         <v>45964</v>
       </c>
       <c r="D593" s="27">
-        <v>58.5</v>
+        <v>56</v>
       </c>
       <c r="E593" s="9">
         <v>48.5</v>
@@ -17112,12 +16894,12 @@
         <v>0</v>
       </c>
       <c r="H593" s="9">
-        <v>4</v>
-      </c>
-      <c r="J593" s="53">
+        <v>12.895</v>
+      </c>
+      <c r="J593" s="47">
         <v>8.8949999999999996</v>
       </c>
-      <c r="K593" s="54"/>
+      <c r="K593" s="48"/>
       <c r="Q593" s="27"/>
     </row>
     <row r="594" spans="1:17" x14ac:dyDescent="0.25">
@@ -17131,7 +16913,7 @@
         <v>45965</v>
       </c>
       <c r="D594" s="27">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E594" s="9">
         <v>50.5</v>
@@ -17143,15 +16925,15 @@
         <v>0</v>
       </c>
       <c r="H594" s="9">
-        <v>10</v>
+        <v>7.8149999999999995</v>
       </c>
       <c r="I594" t="s">
         <v>23</v>
       </c>
-      <c r="J594" s="53">
+      <c r="J594" s="47">
         <v>6.0175000000000001</v>
       </c>
-      <c r="K594" s="54"/>
+      <c r="K594" s="48"/>
       <c r="Q594" s="27"/>
     </row>
     <row r="595" spans="1:17" x14ac:dyDescent="0.25">
@@ -17165,7 +16947,7 @@
         <v>45966</v>
       </c>
       <c r="D595" s="27">
-        <v>54</v>
+        <v>61.5</v>
       </c>
       <c r="E595" s="9">
         <v>50.5</v>
@@ -17177,12 +16959,12 @@
         <v>0</v>
       </c>
       <c r="H595" s="9">
-        <v>7</v>
-      </c>
-      <c r="J595" s="53">
+        <v>11.264999999999999</v>
+      </c>
+      <c r="J595" s="47">
         <v>4.165</v>
       </c>
-      <c r="K595" s="54"/>
+      <c r="K595" s="48"/>
       <c r="Q595" s="27"/>
     </row>
     <row r="596" spans="1:17" x14ac:dyDescent="0.25">
@@ -17196,7 +16978,7 @@
         <v>45967</v>
       </c>
       <c r="D596" s="27">
-        <v>78.75</v>
+        <v>79.5</v>
       </c>
       <c r="E596" s="9">
         <v>49.5</v>
@@ -17208,12 +16990,12 @@
         <v>0</v>
       </c>
       <c r="H596" s="9">
-        <v>6</v>
-      </c>
-      <c r="J596" s="53">
+        <v>9.01</v>
+      </c>
+      <c r="J596" s="47">
         <v>7.2949999999999999</v>
       </c>
-      <c r="K596" s="54"/>
+      <c r="K596" s="48"/>
       <c r="Q596" s="27"/>
     </row>
     <row r="597" spans="1:17" x14ac:dyDescent="0.25">
@@ -17226,8 +17008,8 @@
       <c r="C597" s="7">
         <v>45968</v>
       </c>
-      <c r="D597">
-        <v>154</v>
+      <c r="D597" s="41">
+        <v>140.5</v>
       </c>
       <c r="E597" s="9">
         <v>43.5</v>
@@ -17239,12 +17021,12 @@
         <v>0</v>
       </c>
       <c r="H597" s="9">
-        <v>13</v>
-      </c>
-      <c r="J597" s="53">
+        <v>23.465</v>
+      </c>
+      <c r="J597" s="47">
         <v>9.8125</v>
       </c>
-      <c r="K597" s="54"/>
+      <c r="K597" s="48"/>
       <c r="Q597" s="27"/>
     </row>
     <row r="598" spans="1:17" x14ac:dyDescent="0.25">
@@ -17257,8 +17039,8 @@
       <c r="C598" s="7">
         <v>45969</v>
       </c>
-      <c r="D598">
-        <v>174</v>
+      <c r="D598" s="41">
+        <v>156.5</v>
       </c>
       <c r="E598" s="9">
         <v>39</v>
@@ -17270,12 +17052,12 @@
         <v>0.1</v>
       </c>
       <c r="H598" s="9">
-        <v>8</v>
-      </c>
-      <c r="J598" s="53">
+        <v>20.695</v>
+      </c>
+      <c r="J598" s="47">
         <v>12.17</v>
       </c>
-      <c r="K598" s="54"/>
+      <c r="K598" s="48"/>
       <c r="Q598" s="27"/>
     </row>
     <row r="599" spans="1:17" x14ac:dyDescent="0.25">
@@ -17289,7 +17071,7 @@
         <v>45970</v>
       </c>
       <c r="D599" s="27">
-        <v>83.25</v>
+        <v>52.5</v>
       </c>
       <c r="E599" s="9">
         <v>43</v>
@@ -17301,12 +17083,12 @@
         <v>0</v>
       </c>
       <c r="H599" s="9">
-        <v>9</v>
-      </c>
-      <c r="J599" s="53">
+        <v>12.19</v>
+      </c>
+      <c r="J599" s="47">
         <v>11.647500000000001</v>
       </c>
-      <c r="K599" s="54"/>
+      <c r="K599" s="48"/>
       <c r="Q599" s="27"/>
     </row>
     <row r="600" spans="1:17" x14ac:dyDescent="0.25">
@@ -17320,7 +17102,7 @@
         <v>45971</v>
       </c>
       <c r="D600" s="27">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E600" s="9">
         <v>46.5</v>
@@ -17332,12 +17114,12 @@
         <v>0</v>
       </c>
       <c r="H600" s="9">
-        <v>6</v>
-      </c>
-      <c r="J600" s="53">
+        <v>8.5</v>
+      </c>
+      <c r="J600" s="47">
         <v>5.7949999999999999</v>
       </c>
-      <c r="K600" s="54"/>
+      <c r="K600" s="48"/>
       <c r="Q600" s="27"/>
     </row>
     <row r="601" spans="1:17" x14ac:dyDescent="0.25">
@@ -17351,7 +17133,7 @@
         <v>45972</v>
       </c>
       <c r="D601" s="27">
-        <v>44.25</v>
+        <v>40.5</v>
       </c>
       <c r="E601" s="9">
         <v>42.5</v>
@@ -17363,15 +17145,15 @@
         <v>0</v>
       </c>
       <c r="H601" s="9">
-        <v>10</v>
+        <v>10.18</v>
       </c>
       <c r="I601" t="s">
         <v>24</v>
       </c>
-      <c r="J601" s="53">
+      <c r="J601" s="47">
         <v>8.1225000000000005</v>
       </c>
-      <c r="K601" s="54"/>
+      <c r="K601" s="48"/>
       <c r="Q601" s="27"/>
     </row>
     <row r="602" spans="1:17" x14ac:dyDescent="0.25">
@@ -17385,7 +17167,7 @@
         <v>45973</v>
       </c>
       <c r="D602" s="27">
-        <v>60</v>
+        <v>58.5</v>
       </c>
       <c r="E602" s="9">
         <v>39.5</v>
@@ -17397,12 +17179,12 @@
         <v>0</v>
       </c>
       <c r="H602" s="9">
-        <v>12</v>
-      </c>
-      <c r="J602" s="53">
+        <v>12.809999999999999</v>
+      </c>
+      <c r="J602" s="47">
         <v>7.34</v>
       </c>
-      <c r="K602" s="54"/>
+      <c r="K602" s="48"/>
       <c r="Q602" s="27"/>
     </row>
     <row r="603" spans="1:17" x14ac:dyDescent="0.25">
@@ -17416,7 +17198,7 @@
         <v>45974</v>
       </c>
       <c r="D603" s="27">
-        <v>91.75</v>
+        <v>90.5</v>
       </c>
       <c r="E603" s="9">
         <v>34.5</v>
@@ -17428,12 +17210,12 @@
         <v>0</v>
       </c>
       <c r="H603" s="9">
-        <v>9</v>
-      </c>
-      <c r="J603" s="53">
+        <v>20.015000000000001</v>
+      </c>
+      <c r="J603" s="47">
         <v>10.094999999999999</v>
       </c>
-      <c r="K603" s="54"/>
+      <c r="K603" s="48"/>
       <c r="Q603" s="27"/>
     </row>
   </sheetData>
@@ -17452,10 +17234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
-  <dimension ref="A1:S152"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O134" sqref="O134:P149"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P136" sqref="P136:P149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17465,40 +17247,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="48">
+      <c r="C2" s="50">
         <v>0.85</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="19" t="s">
         <v>39</v>
       </c>
@@ -23402,11 +23184,11 @@
         <v>13.69</v>
       </c>
       <c r="R114" s="27">
-        <f t="shared" ref="R114:R133" si="30">O114-A114</f>
+        <f t="shared" ref="R114:R135" si="30">O114-A114</f>
         <v>3</v>
       </c>
       <c r="S114">
-        <f t="shared" ref="S114:S133" si="31">O114/A114</f>
+        <f t="shared" ref="S114:S135" si="31">O114/A114</f>
         <v>1.0508474576271187</v>
       </c>
     </row>
@@ -24174,11 +23956,11 @@
         <v>62</v>
       </c>
       <c r="O127" s="21">
-        <f t="shared" ref="O127:O149" si="32">ROUND(AVERAGE(C127:N127),0)</f>
+        <f>ROUND(AVERAGE(C127:N127),0)</f>
         <v>64</v>
       </c>
       <c r="P127" s="21">
-        <f t="shared" ref="P127:P149" si="33">ROUND(_xlfn.STDEV.P(C127:O127),2)</f>
+        <f>ROUND(_xlfn.STDEV.P(C127:O127),2)</f>
         <v>4.84</v>
       </c>
       <c r="R127" s="27">
@@ -24234,11 +24016,11 @@
         <v>86</v>
       </c>
       <c r="O128" s="21">
-        <f t="shared" si="32"/>
+        <f>ROUND(AVERAGE(C128:N128),0)</f>
         <v>89</v>
       </c>
       <c r="P128" s="21">
-        <f t="shared" si="33"/>
+        <f>ROUND(_xlfn.STDEV.P(C128:O128),2)</f>
         <v>6.84</v>
       </c>
       <c r="R128" s="27">
@@ -24250,7 +24032,7 @@
         <v>3.1785714285714284</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="27">
         <v>131</v>
       </c>
@@ -24294,11 +24076,11 @@
         <v>156</v>
       </c>
       <c r="O129" s="21">
-        <f t="shared" si="32"/>
+        <f>ROUND(AVERAGE(C129:N129),0)</f>
         <v>146</v>
       </c>
       <c r="P129" s="21">
-        <f t="shared" si="33"/>
+        <f>ROUND(_xlfn.STDEV.P(C129:O129),2)</f>
         <v>7.08</v>
       </c>
       <c r="R129" s="27">
@@ -24310,7 +24092,7 @@
         <v>1.1145038167938932</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="27">
         <v>199</v>
       </c>
@@ -24354,11 +24136,11 @@
         <v>154</v>
       </c>
       <c r="O130" s="21">
-        <f t="shared" si="32"/>
+        <f>ROUND(AVERAGE(C130:N130),0)</f>
         <v>172</v>
       </c>
       <c r="P130" s="21">
-        <f t="shared" si="33"/>
+        <f>ROUND(_xlfn.STDEV.P(C130:O130),2)</f>
         <v>15.43</v>
       </c>
       <c r="R130" s="27">
@@ -24370,7 +24152,7 @@
         <v>0.86432160804020097</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="27">
         <v>49</v>
       </c>
@@ -24414,11 +24196,11 @@
         <v>58</v>
       </c>
       <c r="O131" s="21">
-        <f t="shared" si="32"/>
+        <f>ROUND(AVERAGE(C131:N131),0)</f>
         <v>59</v>
       </c>
       <c r="P131" s="21">
-        <f t="shared" si="33"/>
+        <f>ROUND(_xlfn.STDEV.P(C131:O131),2)</f>
         <v>8.81</v>
       </c>
       <c r="R131" s="27">
@@ -24430,7 +24212,7 @@
         <v>1.2040816326530612</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="27">
         <v>48</v>
       </c>
@@ -24474,11 +24256,11 @@
         <v>38</v>
       </c>
       <c r="O132" s="21">
-        <f t="shared" si="32"/>
+        <f>ROUND(AVERAGE(C132:N132),0)</f>
         <v>43</v>
       </c>
       <c r="P132" s="21">
-        <f t="shared" si="33"/>
+        <f>ROUND(_xlfn.STDEV.P(C132:O132),2)</f>
         <v>6.06</v>
       </c>
       <c r="R132" s="27">
@@ -24490,67 +24272,70 @@
         <v>0.89583333333333337</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="29">
+    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="55">
         <v>58</v>
       </c>
-      <c r="B133" s="28">
+      <c r="B133" s="56">
         <v>45958</v>
       </c>
-      <c r="C133" s="29">
+      <c r="C133" s="55">
         <v>42</v>
       </c>
-      <c r="D133" s="29">
+      <c r="D133" s="55">
         <v>44</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E133" s="55">
         <v>46</v>
       </c>
-      <c r="F133" s="29">
+      <c r="F133" s="55">
         <v>45</v>
       </c>
-      <c r="G133" s="29">
+      <c r="G133" s="55">
         <v>48</v>
       </c>
-      <c r="H133" s="29">
+      <c r="H133" s="55">
         <v>47</v>
       </c>
-      <c r="I133" s="29">
+      <c r="I133" s="55">
         <v>45</v>
       </c>
-      <c r="J133" s="29">
+      <c r="J133" s="55">
         <v>47</v>
       </c>
-      <c r="K133" s="29">
+      <c r="K133" s="55">
         <v>42</v>
       </c>
-      <c r="L133" s="29">
+      <c r="L133" s="55">
         <v>44</v>
       </c>
-      <c r="M133" s="29">
+      <c r="M133" s="55">
         <v>43</v>
       </c>
-      <c r="N133" s="29">
+      <c r="N133" s="55">
         <v>44</v>
       </c>
-      <c r="O133" s="30">
-        <f t="shared" si="32"/>
+      <c r="O133" s="57">
+        <f>ROUND(AVERAGE(C133:N133),0)</f>
         <v>45</v>
       </c>
-      <c r="P133" s="30">
-        <f t="shared" si="33"/>
+      <c r="P133" s="57">
+        <f>ROUND(_xlfn.STDEV.P(C133:O133),2)</f>
         <v>1.8</v>
       </c>
-      <c r="R133" s="29">
+      <c r="R133" s="55">
         <f t="shared" si="30"/>
         <v>-13</v>
       </c>
-      <c r="S133" s="29">
+      <c r="S133" s="55">
         <f t="shared" si="31"/>
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="27">
+        <v>34</v>
+      </c>
       <c r="B134" s="23">
         <v>45959</v>
       </c>
@@ -24591,15 +24376,26 @@
         <v>53</v>
       </c>
       <c r="O134" s="21">
-        <f t="shared" si="32"/>
+        <f>ROUND(AVERAGE(C134:N134),0)</f>
         <v>55</v>
       </c>
       <c r="P134" s="21">
-        <f t="shared" si="33"/>
+        <f>ROUND(_xlfn.STDEV.P(C134:O134),2)</f>
         <v>2.87</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R134" s="27">
+        <f t="shared" si="30"/>
+        <v>21</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="31"/>
+        <v>1.6176470588235294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="27">
+        <v>39</v>
+      </c>
       <c r="B135" s="23">
         <v>45960</v>
       </c>
@@ -24640,249 +24436,281 @@
         <v>85</v>
       </c>
       <c r="O135" s="21">
-        <f t="shared" si="32"/>
+        <f>ROUND(AVERAGE(C135:N135),0)</f>
         <v>91</v>
       </c>
       <c r="P135" s="21">
-        <f t="shared" si="33"/>
+        <f>ROUND(_xlfn.STDEV.P(C135:O135),2)</f>
         <v>4.3600000000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B136" s="23">
+      <c r="R135" s="27">
+        <f t="shared" si="30"/>
+        <v>52</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="31"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="28">
         <v>45961</v>
       </c>
-      <c r="C136">
-        <v>78</v>
-      </c>
-      <c r="D136">
+      <c r="C136" s="29">
+        <v>111</v>
+      </c>
+      <c r="D136" s="29">
+        <v>89</v>
+      </c>
+      <c r="E136" s="29">
         <v>115</v>
       </c>
-      <c r="E136">
+      <c r="F136" s="29">
+        <v>113</v>
+      </c>
+      <c r="G136" s="29">
+        <v>118</v>
+      </c>
+      <c r="H136" s="29">
+        <v>114</v>
+      </c>
+      <c r="I136" s="29">
+        <v>121</v>
+      </c>
+      <c r="J136" s="29">
+        <v>113</v>
+      </c>
+      <c r="K136" s="29">
+        <v>87</v>
+      </c>
+      <c r="L136" s="29">
+        <v>98</v>
+      </c>
+      <c r="M136" s="29">
         <v>104</v>
       </c>
-      <c r="F136">
+      <c r="N136" s="29">
+        <v>90</v>
+      </c>
+      <c r="O136" s="30">
+        <f>ROUND(AVERAGE(C136:N136),0)</f>
+        <v>106</v>
+      </c>
+      <c r="P136" s="30">
+        <f>ROUND(_xlfn.STDEV.P(C136:N136),2)</f>
+        <v>11.59</v>
+      </c>
+      <c r="T136" s="29">
         <v>102</v>
       </c>
-      <c r="G136">
-        <v>124</v>
-      </c>
-      <c r="H136">
-        <v>113</v>
-      </c>
-      <c r="I136">
-        <v>113</v>
-      </c>
-      <c r="J136">
-        <v>110</v>
-      </c>
-      <c r="K136">
-        <v>109</v>
-      </c>
-      <c r="L136">
-        <v>107</v>
-      </c>
-      <c r="M136">
-        <v>101</v>
-      </c>
-      <c r="N136">
-        <v>100</v>
-      </c>
-      <c r="O136" s="21">
-        <f t="shared" si="32"/>
-        <v>106</v>
-      </c>
-      <c r="P136" s="21">
-        <f t="shared" si="33"/>
-        <v>10.35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U136" s="29">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B137" s="23">
         <v>45962</v>
       </c>
       <c r="C137">
+        <v>175</v>
+      </c>
+      <c r="D137">
         <v>174</v>
       </c>
-      <c r="D137">
-        <v>168</v>
-      </c>
       <c r="E137">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F137">
+        <v>181</v>
+      </c>
+      <c r="G137">
+        <v>188</v>
+      </c>
+      <c r="H137">
+        <v>165</v>
+      </c>
+      <c r="I137">
+        <v>187</v>
+      </c>
+      <c r="J137">
+        <v>182</v>
+      </c>
+      <c r="K137">
+        <v>175</v>
+      </c>
+      <c r="L137">
+        <v>176</v>
+      </c>
+      <c r="M137">
         <v>173</v>
       </c>
-      <c r="G137">
-        <v>182</v>
-      </c>
-      <c r="H137">
+      <c r="N137">
         <v>173</v>
       </c>
-      <c r="I137">
-        <v>178</v>
-      </c>
-      <c r="J137">
-        <v>171</v>
-      </c>
-      <c r="K137">
+      <c r="O137" s="21">
+        <f t="shared" ref="O137:O149" si="32">ROUND(AVERAGE(C137:N137),0)</f>
         <v>177</v>
       </c>
-      <c r="L137">
-        <v>173</v>
-      </c>
-      <c r="M137">
-        <v>174</v>
-      </c>
-      <c r="N137">
-        <v>172</v>
-      </c>
-      <c r="O137" s="21">
-        <f t="shared" si="32"/>
-        <v>174</v>
-      </c>
       <c r="P137" s="21">
-        <f t="shared" si="33"/>
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P137:P149" si="33">ROUND(_xlfn.STDEV.P(C137:N137),2)</f>
+        <v>6.17</v>
+      </c>
+      <c r="T137">
+        <v>183</v>
+      </c>
+      <c r="U137">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B138" s="23">
         <v>45963</v>
       </c>
       <c r="C138">
+        <v>66</v>
+      </c>
+      <c r="D138">
+        <v>63</v>
+      </c>
+      <c r="E138">
+        <v>55</v>
+      </c>
+      <c r="F138">
+        <v>56</v>
+      </c>
+      <c r="G138">
+        <v>52</v>
+      </c>
+      <c r="H138">
+        <v>52</v>
+      </c>
+      <c r="I138">
+        <v>61</v>
+      </c>
+      <c r="J138">
+        <v>58</v>
+      </c>
+      <c r="K138">
         <v>59</v>
       </c>
-      <c r="D138">
-        <v>64</v>
-      </c>
-      <c r="E138">
-        <v>58</v>
-      </c>
-      <c r="F138">
-        <v>55</v>
-      </c>
-      <c r="G138">
-        <v>51</v>
-      </c>
-      <c r="H138">
-        <v>54</v>
-      </c>
-      <c r="I138">
-        <v>58</v>
-      </c>
-      <c r="J138">
-        <v>62</v>
-      </c>
-      <c r="K138">
-        <v>71</v>
-      </c>
       <c r="L138">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="M138">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N138">
         <v>65</v>
       </c>
       <c r="O138" s="21">
         <f t="shared" si="32"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P138" s="21">
         <f t="shared" si="33"/>
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6.04</v>
+      </c>
+      <c r="T138">
+        <v>56</v>
+      </c>
+      <c r="U138">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B139" s="23">
         <v>45964</v>
       </c>
       <c r="C139">
+        <v>66</v>
+      </c>
+      <c r="D139">
         <v>62</v>
-      </c>
-      <c r="D139">
-        <v>60</v>
       </c>
       <c r="E139">
         <v>58</v>
       </c>
       <c r="F139">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G139">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H139">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I139">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J139">
         <v>65</v>
       </c>
       <c r="K139">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L139">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M139">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="N139">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O139" s="21">
         <f t="shared" si="32"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P139" s="21">
         <f t="shared" si="33"/>
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+      <c r="T139">
+        <v>55</v>
+      </c>
+      <c r="U139">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B140" s="23">
         <v>45965</v>
       </c>
       <c r="C140">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D140">
+        <v>25</v>
+      </c>
+      <c r="E140">
+        <v>27</v>
+      </c>
+      <c r="F140">
+        <v>33</v>
+      </c>
+      <c r="G140">
         <v>32</v>
       </c>
-      <c r="E140">
-        <v>28</v>
-      </c>
-      <c r="F140">
+      <c r="H140">
+        <v>33</v>
+      </c>
+      <c r="I140">
         <v>31</v>
       </c>
-      <c r="G140">
-        <v>30</v>
-      </c>
-      <c r="H140">
-        <v>35</v>
-      </c>
-      <c r="I140">
-        <v>30</v>
-      </c>
       <c r="J140">
+        <v>34</v>
+      </c>
+      <c r="K140">
+        <v>31</v>
+      </c>
+      <c r="L140">
+        <v>47</v>
+      </c>
+      <c r="M140">
+        <v>29</v>
+      </c>
+      <c r="N140">
         <v>32</v>
-      </c>
-      <c r="K140">
-        <v>36</v>
-      </c>
-      <c r="L140">
-        <v>33</v>
-      </c>
-      <c r="M140">
-        <v>27</v>
-      </c>
-      <c r="N140">
-        <v>26</v>
       </c>
       <c r="O140" s="21">
         <f t="shared" si="32"/>
@@ -24890,97 +24718,109 @@
       </c>
       <c r="P140" s="21">
         <f t="shared" si="33"/>
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5.72</v>
+      </c>
+      <c r="T140">
+        <v>24</v>
+      </c>
+      <c r="U140">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B141" s="23">
         <v>45966</v>
       </c>
       <c r="C141">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D141">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E141">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F141">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G141">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H141">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I141">
         <v>64</v>
       </c>
       <c r="J141">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K141">
         <v>68</v>
       </c>
       <c r="L141">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M141">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="N141">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O141" s="21">
         <f t="shared" si="32"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P141" s="21">
         <f t="shared" si="33"/>
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6.13</v>
+      </c>
+      <c r="T141">
+        <v>63</v>
+      </c>
+      <c r="U141">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B142" s="23">
         <v>45967</v>
       </c>
       <c r="C142">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D142">
+        <v>83</v>
+      </c>
+      <c r="E142">
+        <v>90</v>
+      </c>
+      <c r="F142">
         <v>85</v>
       </c>
-      <c r="E142">
-        <v>87</v>
-      </c>
-      <c r="F142">
+      <c r="G142">
+        <v>99</v>
+      </c>
+      <c r="H142">
+        <v>95</v>
+      </c>
+      <c r="I142">
         <v>90</v>
       </c>
-      <c r="G142">
-        <v>98</v>
-      </c>
-      <c r="H142">
-        <v>93</v>
-      </c>
-      <c r="I142">
-        <v>91</v>
-      </c>
       <c r="J142">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K142">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L142">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M142">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N142">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O142" s="21">
         <f t="shared" si="32"/>
@@ -24988,15 +24828,21 @@
       </c>
       <c r="P142" s="21">
         <f t="shared" si="33"/>
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5.42</v>
+      </c>
+      <c r="T142">
+        <v>90</v>
+      </c>
+      <c r="U142">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B143" s="23">
         <v>45968</v>
       </c>
       <c r="C143">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D143">
         <v>161</v>
@@ -25005,28 +24851,28 @@
         <v>147</v>
       </c>
       <c r="F143">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G143">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H143">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I143">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J143">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K143">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L143">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M143">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N143">
         <v>162</v>
@@ -25037,206 +24883,236 @@
       </c>
       <c r="P143" s="21">
         <f t="shared" si="33"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+        <v>10.64</v>
+      </c>
+      <c r="T143">
+        <v>154</v>
+      </c>
+      <c r="U143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B144" s="23">
         <v>45969</v>
       </c>
       <c r="C144">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D144">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E144">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F144">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G144">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H144">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I144">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J144">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K144">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L144">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="M144">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="N144">
         <v>175</v>
       </c>
       <c r="O144" s="21">
         <f t="shared" si="32"/>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P144" s="21">
         <f t="shared" si="33"/>
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+        <v>9.74</v>
+      </c>
+      <c r="T144">
+        <v>177</v>
+      </c>
+      <c r="U144">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B145" s="23">
         <v>45970</v>
       </c>
       <c r="C145">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D145">
         <v>63</v>
       </c>
       <c r="E145">
+        <v>55</v>
+      </c>
+      <c r="F145">
+        <v>52</v>
+      </c>
+      <c r="G145">
+        <v>52</v>
+      </c>
+      <c r="H145">
+        <v>55</v>
+      </c>
+      <c r="I145">
+        <v>62</v>
+      </c>
+      <c r="J145">
+        <v>58</v>
+      </c>
+      <c r="K145">
+        <v>68</v>
+      </c>
+      <c r="L145">
+        <v>62</v>
+      </c>
+      <c r="M145">
         <v>60</v>
       </c>
-      <c r="F145">
-        <v>58</v>
-      </c>
-      <c r="G145">
-        <v>54</v>
-      </c>
-      <c r="H145">
-        <v>53</v>
-      </c>
-      <c r="I145">
-        <v>61</v>
-      </c>
-      <c r="J145">
-        <v>64</v>
-      </c>
-      <c r="K145">
-        <v>65</v>
-      </c>
-      <c r="L145">
-        <v>68</v>
-      </c>
-      <c r="M145">
-        <v>68</v>
-      </c>
       <c r="N145">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O145" s="21">
         <f t="shared" si="32"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P145" s="21">
         <f t="shared" si="33"/>
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+        <v>5.09</v>
+      </c>
+      <c r="T145">
+        <v>56</v>
+      </c>
+      <c r="U145">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B146" s="23">
         <v>45971</v>
       </c>
       <c r="C146">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D146">
+        <v>48</v>
+      </c>
+      <c r="E146">
         <v>50</v>
       </c>
-      <c r="E146">
-        <v>47</v>
-      </c>
       <c r="F146">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G146">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H146">
         <v>47</v>
       </c>
       <c r="I146">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J146">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K146">
+        <v>43</v>
+      </c>
+      <c r="L146">
+        <v>39</v>
+      </c>
+      <c r="M146">
+        <v>38</v>
+      </c>
+      <c r="N146">
         <v>46</v>
-      </c>
-      <c r="L146">
-        <v>53</v>
-      </c>
-      <c r="M146">
-        <v>50</v>
-      </c>
-      <c r="N146">
-        <v>50</v>
       </c>
       <c r="O146" s="21">
         <f t="shared" si="32"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P146" s="21">
         <f t="shared" si="33"/>
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+        <v>4.79</v>
+      </c>
+      <c r="T146">
+        <v>45</v>
+      </c>
+      <c r="U146">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B147" s="23">
         <v>45972</v>
       </c>
       <c r="C147">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D147">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E147">
+        <v>43</v>
+      </c>
+      <c r="F147">
+        <v>40</v>
+      </c>
+      <c r="G147">
+        <v>41</v>
+      </c>
+      <c r="H147">
+        <v>37</v>
+      </c>
+      <c r="I147">
+        <v>47</v>
+      </c>
+      <c r="J147">
         <v>44</v>
       </c>
-      <c r="F147">
-        <v>44</v>
-      </c>
-      <c r="G147">
-        <v>34</v>
-      </c>
-      <c r="H147">
-        <v>38</v>
-      </c>
-      <c r="I147">
-        <v>42</v>
-      </c>
-      <c r="J147">
-        <v>41</v>
-      </c>
       <c r="K147">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L147">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M147">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N147">
         <v>54</v>
       </c>
       <c r="O147" s="21">
         <f t="shared" si="32"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P147" s="21">
         <f t="shared" si="33"/>
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+        <v>5.72</v>
+      </c>
+      <c r="T147">
+        <v>44</v>
+      </c>
+      <c r="U147">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B148" s="23">
         <v>45973</v>
       </c>
@@ -25244,219 +25120,249 @@
         <v>68</v>
       </c>
       <c r="D148">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E148">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F148">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G148">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H148">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I148">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J148">
         <v>64</v>
       </c>
       <c r="K148">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L148">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M148">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N148">
         <v>71</v>
       </c>
       <c r="O148" s="21">
         <f t="shared" si="32"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P148" s="21">
         <f t="shared" si="33"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+        <v>5.31</v>
+      </c>
+      <c r="T148">
+        <v>64</v>
+      </c>
+      <c r="U148">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B149" s="23">
         <v>45974</v>
       </c>
       <c r="C149">
+        <v>109</v>
+      </c>
+      <c r="D149">
         <v>110</v>
       </c>
-      <c r="D149">
-        <v>105</v>
-      </c>
       <c r="E149">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F149">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G149">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H149">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I149">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J149">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K149">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L149">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="M149">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N149">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O149" s="21">
         <f t="shared" si="32"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P149" s="21">
         <f t="shared" si="33"/>
-        <v>7.24</v>
-      </c>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+        <v>7.89</v>
+      </c>
+      <c r="T149">
+        <v>97</v>
+      </c>
+      <c r="U149">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B150" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C150" s="34">
-        <v>28.45</v>
+      <c r="C150">
+        <v>27.8</v>
       </c>
       <c r="D150">
-        <v>26.29</v>
+        <v>24.57</v>
       </c>
       <c r="E150">
-        <v>22.17</v>
+        <v>23.33</v>
       </c>
       <c r="F150">
-        <v>23.33</v>
+        <v>22.99</v>
       </c>
       <c r="G150">
-        <v>21.47</v>
+        <v>22.01</v>
       </c>
       <c r="H150">
-        <v>22.67</v>
+        <v>22.22</v>
       </c>
       <c r="I150">
-        <v>23.24</v>
+        <v>23.85</v>
       </c>
       <c r="J150">
-        <v>23.24</v>
+        <v>24.14</v>
       </c>
       <c r="K150">
-        <v>27.19</v>
+        <v>25.14</v>
       </c>
       <c r="L150">
-        <v>24.39</v>
+        <v>21.66</v>
       </c>
       <c r="M150" s="34">
-        <v>26.89</v>
+        <v>28.66</v>
       </c>
       <c r="N150" s="35">
-        <v>27.35</v>
+        <v>22.93</v>
       </c>
       <c r="O150" s="36">
-        <f>ROUND(AVERAGE(C150:N150),2)</f>
-        <v>24.72</v>
+        <f>ROUND(AVERAGE(D150:N150),2)</f>
+        <v>23.77</v>
       </c>
       <c r="P150" s="36">
-        <f>ROUND(_xlfn.STDEV.P(C150:N150),2)</f>
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+        <f>ROUND(_xlfn.STDEV.P(D150:N150),2)</f>
+        <v>1.86</v>
+      </c>
+      <c r="T150">
+        <v>25.41</v>
+      </c>
+      <c r="U150">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="151" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B151" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="16">
-        <v>26.51</v>
+      <c r="C151">
+        <v>26.34</v>
       </c>
       <c r="D151">
-        <v>27.14</v>
+        <v>25.74</v>
       </c>
       <c r="E151">
-        <v>31.25</v>
+        <v>29.48</v>
       </c>
       <c r="F151">
-        <v>29.74</v>
+        <v>31.19</v>
       </c>
       <c r="G151">
-        <v>31.04</v>
+        <v>31.59</v>
       </c>
       <c r="H151">
-        <v>32.11</v>
+        <v>33.81</v>
       </c>
       <c r="I151">
-        <v>29.29</v>
+        <v>29.08</v>
       </c>
       <c r="J151">
-        <v>29.28</v>
+        <v>28.27</v>
       </c>
       <c r="K151">
-        <v>24.4</v>
+        <v>29.37</v>
       </c>
       <c r="L151">
-        <v>24.76</v>
+        <v>32.78</v>
       </c>
       <c r="M151" s="16">
-        <v>25.3</v>
+        <v>25.21</v>
       </c>
       <c r="N151" s="16">
-        <v>25.23</v>
+        <v>28.58</v>
       </c>
       <c r="O151" s="21">
-        <f>ROUND(AVERAGE(C151:N151),2)</f>
-        <v>28</v>
+        <f>ROUND(AVERAGE(D151:N151),2)</f>
+        <v>29.55</v>
       </c>
       <c r="P151" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C151:N151),2)</f>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C152" s="51" t="s">
+        <f>ROUND(_xlfn.STDEV.P(D151:N151),2)</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T151">
+        <v>27.03</v>
+      </c>
+      <c r="U151">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="152" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C152" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51" t="s">
+      <c r="D152" s="53"/>
+      <c r="E152" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F152" s="51"/>
-      <c r="G152" s="51" t="s">
+      <c r="F152" s="53"/>
+      <c r="G152" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="H152" s="51"/>
-      <c r="I152" s="51" t="s">
+      <c r="H152" s="53"/>
+      <c r="I152" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="J152" s="51"/>
-      <c r="K152" s="52" t="s">
+      <c r="J152" s="53"/>
+      <c r="K152" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L152" s="52"/>
-      <c r="M152" s="52" t="s">
+      <c r="L152" s="54"/>
+      <c r="M152" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="N152" s="52"/>
+      <c r="N152" s="54"/>
+      <c r="T152" t="s">
+        <v>61</v>
+      </c>
+      <c r="U152" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -25469,20 +25375,25 @@
     <mergeCell ref="K152:L152"/>
     <mergeCell ref="M152:N152"/>
   </mergeCells>
-  <conditionalFormatting sqref="C150 E150:G150 I150:J150 L150:N150 E151">
+  <conditionalFormatting sqref="E150:G150 I150:J150 L150:N150 E151">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>$O$150-$P$150</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150:N150 E151">
+  <conditionalFormatting sqref="D150:N150 E151">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
       <formula>20</formula>
     </cfRule>
     <cfRule type="aboveAverage" dxfId="9" priority="13"/>
     <cfRule type="aboveAverage" dxfId="8" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R79 R81:R132">
+  <conditionalFormatting sqref="C114:O135">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>ABS(C114-$A114)&lt;=10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R79 R81:R132 R134:R135">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -25490,11 +25401,6 @@
         <color rgb="FF92D050"/>
         <color rgb="FFFF0000"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:O132">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>ABS(C114-$A114)&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25507,10 +25413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
-  <dimension ref="A1:S152"/>
+  <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="O133" sqref="O133:P149"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="J159" sqref="J159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25520,42 +25426,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="48">
+      <c r="C2" s="50">
         <v>0.85</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="19" t="s">
         <v>39</v>
       </c>
@@ -25587,8 +25493,8 @@
         <v>152</v>
       </c>
       <c r="P3" s="21">
-        <f t="shared" ref="P3:P37" si="1">ROUND(_xlfn.STDEV.P(D3:O3),2)</f>
-        <v>0.83</v>
+        <f t="shared" ref="P3:P59" si="1">ROUND(_xlfn.STDEV.P(C3:N3),2)</f>
+        <v>1.87</v>
       </c>
       <c r="R3" s="27">
         <f t="shared" ref="R3:R4" si="2">O3-A3</f>
@@ -25624,7 +25530,7 @@
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>10.76</v>
+        <v>18.53</v>
       </c>
       <c r="R4" s="27">
         <f t="shared" si="2"/>
@@ -25660,7 +25566,7 @@
       </c>
       <c r="P5" s="21">
         <f t="shared" si="1"/>
-        <v>18.21</v>
+        <v>23.37</v>
       </c>
       <c r="R5" s="27">
         <f>O5-A5</f>
@@ -25696,7 +25602,7 @@
       </c>
       <c r="P6" s="21">
         <f t="shared" si="1"/>
-        <v>12.17</v>
+        <v>15.17</v>
       </c>
       <c r="R6" s="27">
         <f t="shared" ref="R6:R68" si="4">O6-A6</f>
@@ -25732,7 +25638,7 @@
       </c>
       <c r="P7" s="21">
         <f t="shared" si="1"/>
-        <v>6.89</v>
+        <v>7.4</v>
       </c>
       <c r="R7" s="27">
         <f t="shared" si="4"/>
@@ -25768,7 +25674,7 @@
       </c>
       <c r="P8" s="21">
         <f t="shared" si="1"/>
-        <v>3.64</v>
+        <v>7.43</v>
       </c>
       <c r="R8" s="27">
         <f t="shared" si="4"/>
@@ -25804,7 +25710,7 @@
       </c>
       <c r="P9" s="21">
         <f t="shared" si="1"/>
-        <v>9.77</v>
+        <v>10.02</v>
       </c>
       <c r="R9" s="27">
         <f t="shared" si="4"/>
@@ -25840,7 +25746,7 @@
       </c>
       <c r="P10" s="21">
         <f t="shared" si="1"/>
-        <v>11.78</v>
+        <v>12.1</v>
       </c>
       <c r="R10" s="27">
         <f t="shared" si="4"/>
@@ -25876,7 +25782,7 @@
       </c>
       <c r="P11" s="21">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>7.83</v>
       </c>
       <c r="R11" s="27">
         <f t="shared" si="4"/>
@@ -25912,7 +25818,7 @@
       </c>
       <c r="P12" s="21">
         <f t="shared" si="1"/>
-        <v>10.35</v>
+        <v>11.23</v>
       </c>
       <c r="R12" s="27">
         <f t="shared" si="4"/>
@@ -25954,7 +25860,7 @@
       </c>
       <c r="P13" s="21">
         <f t="shared" si="1"/>
-        <v>7.37</v>
+        <v>7.71</v>
       </c>
       <c r="R13" s="27">
         <f t="shared" si="4"/>
@@ -25996,7 +25902,7 @@
       </c>
       <c r="P14" s="21">
         <f t="shared" si="1"/>
-        <v>7.82</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="R14" s="27">
         <f t="shared" si="4"/>
@@ -26038,7 +25944,7 @@
       </c>
       <c r="P15" s="21">
         <f t="shared" si="1"/>
-        <v>6.64</v>
+        <v>7.49</v>
       </c>
       <c r="R15" s="27">
         <f t="shared" si="4"/>
@@ -26080,7 +25986,7 @@
       </c>
       <c r="P16" s="21">
         <f t="shared" si="1"/>
-        <v>6.38</v>
+        <v>6.9</v>
       </c>
       <c r="R16" s="27">
         <f t="shared" si="4"/>
@@ -26122,7 +26028,7 @@
       </c>
       <c r="P17" s="21">
         <f t="shared" si="1"/>
-        <v>15.71</v>
+        <v>16.13</v>
       </c>
       <c r="R17" s="27">
         <f t="shared" si="4"/>
@@ -26164,7 +26070,7 @@
       </c>
       <c r="P18" s="21">
         <f t="shared" si="1"/>
-        <v>8.9</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="R18" s="27">
         <f t="shared" si="4"/>
@@ -26221,7 +26127,7 @@
       </c>
       <c r="P19" s="21">
         <f t="shared" si="1"/>
-        <v>8.7100000000000009</v>
+        <v>9.01</v>
       </c>
       <c r="R19" s="27">
         <f t="shared" si="4"/>
@@ -26278,7 +26184,7 @@
       </c>
       <c r="P20" s="21">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="R20" s="27">
         <f t="shared" si="4"/>
@@ -26335,7 +26241,7 @@
       </c>
       <c r="P21" s="21">
         <f t="shared" si="1"/>
-        <v>6.52</v>
+        <v>7.64</v>
       </c>
       <c r="R21" s="27">
         <f t="shared" si="4"/>
@@ -26392,7 +26298,7 @@
       </c>
       <c r="P22" s="21">
         <f t="shared" si="1"/>
-        <v>18.239999999999998</v>
+        <v>18.55</v>
       </c>
       <c r="R22" s="27">
         <f t="shared" si="4"/>
@@ -26449,7 +26355,7 @@
       </c>
       <c r="P23" s="21">
         <f t="shared" si="1"/>
-        <v>20.82</v>
+        <v>24.05</v>
       </c>
       <c r="R23" s="27">
         <f t="shared" si="4"/>
@@ -26509,7 +26415,7 @@
       </c>
       <c r="P24" s="21">
         <f t="shared" si="1"/>
-        <v>28.78</v>
+        <v>31.32</v>
       </c>
       <c r="R24" s="27">
         <f t="shared" si="4"/>
@@ -26569,7 +26475,7 @@
       </c>
       <c r="P25" s="21">
         <f t="shared" si="1"/>
-        <v>9.18</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="R25" s="27">
         <f t="shared" si="4"/>
@@ -26689,7 +26595,7 @@
       </c>
       <c r="P27" s="21">
         <f t="shared" si="1"/>
-        <v>5.37</v>
+        <v>5.39</v>
       </c>
       <c r="R27" s="27">
         <f t="shared" si="4"/>
@@ -26749,7 +26655,7 @@
       </c>
       <c r="P28" s="21">
         <f t="shared" si="1"/>
-        <v>4.37</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R28" s="27">
         <f t="shared" si="4"/>
@@ -26809,7 +26715,7 @@
       </c>
       <c r="P29" s="21">
         <f t="shared" si="1"/>
-        <v>13.42</v>
+        <v>14.57</v>
       </c>
       <c r="R29" s="27">
         <f t="shared" si="4"/>
@@ -26869,7 +26775,7 @@
       </c>
       <c r="P30" s="21">
         <f t="shared" si="1"/>
-        <v>7.29</v>
+        <v>7.48</v>
       </c>
       <c r="R30" s="27">
         <f t="shared" si="4"/>
@@ -26929,7 +26835,7 @@
       </c>
       <c r="P31" s="21">
         <f t="shared" si="1"/>
-        <v>5.39</v>
+        <v>6.13</v>
       </c>
       <c r="R31" s="27">
         <f t="shared" si="4"/>
@@ -26989,7 +26895,7 @@
       </c>
       <c r="P32" s="21">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="R32" s="27">
         <f t="shared" si="4"/>
@@ -27049,7 +26955,7 @@
       </c>
       <c r="P33" s="21">
         <f t="shared" si="1"/>
-        <v>6.29</v>
+        <v>6.35</v>
       </c>
       <c r="R33">
         <f t="shared" si="4"/>
@@ -27109,7 +27015,7 @@
       </c>
       <c r="P34" s="21">
         <f t="shared" si="1"/>
-        <v>9.41</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="R34" s="27">
         <f t="shared" si="4"/>
@@ -27169,7 +27075,7 @@
       </c>
       <c r="P35" s="21">
         <f t="shared" si="1"/>
-        <v>4.79</v>
+        <v>5.45</v>
       </c>
       <c r="R35" s="27">
         <f t="shared" si="4"/>
@@ -27223,7 +27129,7 @@
       </c>
       <c r="P36" s="21">
         <f t="shared" si="1"/>
-        <v>4.05</v>
+        <v>4.13</v>
       </c>
       <c r="R36" s="27">
         <f t="shared" si="4"/>
@@ -27277,7 +27183,7 @@
       </c>
       <c r="P37" s="21">
         <f t="shared" si="1"/>
-        <v>10.32</v>
+        <v>10.35</v>
       </c>
       <c r="R37" s="27">
         <f t="shared" si="4"/>
@@ -27332,8 +27238,8 @@
         <v>158</v>
       </c>
       <c r="P38" s="21">
-        <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
-        <v>13.12</v>
+        <f t="shared" si="1"/>
+        <v>13.22</v>
       </c>
       <c r="R38" s="27">
         <f t="shared" si="4"/>
@@ -27388,7 +27294,7 @@
         <v>172</v>
       </c>
       <c r="P39" s="21">
-        <f t="shared" ref="P39:P59" si="5">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
+        <f>ROUND(_xlfn.STDEV.P(C39:N39),2)</f>
         <v>2.02</v>
       </c>
       <c r="R39" s="27">
@@ -27444,8 +27350,8 @@
         <v>64</v>
       </c>
       <c r="P40" s="21">
-        <f t="shared" si="5"/>
-        <v>4.9800000000000004</v>
+        <f t="shared" si="1"/>
+        <v>5.62</v>
       </c>
       <c r="R40" s="27">
         <f t="shared" si="4"/>
@@ -27496,12 +27402,12 @@
       <c r="M41" s="16"/>
       <c r="N41" s="17"/>
       <c r="O41" s="21">
-        <f t="shared" si="0"/>
+        <f>ROUND(AVERAGE(C41:N41),0)</f>
         <v>69</v>
       </c>
       <c r="P41" s="21">
-        <f t="shared" si="5"/>
-        <v>3.41</v>
+        <f t="shared" si="1"/>
+        <v>3.9</v>
       </c>
       <c r="R41" s="27">
         <f t="shared" si="4"/>
@@ -27556,8 +27462,8 @@
         <v>73</v>
       </c>
       <c r="P42" s="21">
-        <f t="shared" si="5"/>
-        <v>4.76</v>
+        <f t="shared" si="1"/>
+        <v>5.33</v>
       </c>
       <c r="R42" s="27">
         <f t="shared" si="4"/>
@@ -27612,8 +27518,8 @@
         <v>64</v>
       </c>
       <c r="P43" s="21">
-        <f t="shared" si="5"/>
-        <v>4.0599999999999996</v>
+        <f t="shared" si="1"/>
+        <v>4.32</v>
       </c>
       <c r="R43" s="27">
         <f t="shared" si="4"/>
@@ -27668,8 +27574,8 @@
         <v>85</v>
       </c>
       <c r="P44" s="21">
-        <f t="shared" si="5"/>
-        <v>9.3800000000000008</v>
+        <f t="shared" si="1"/>
+        <v>9.4600000000000009</v>
       </c>
       <c r="R44" s="27">
         <f t="shared" si="4"/>
@@ -27724,7 +27630,7 @@
         <v>159</v>
       </c>
       <c r="P45" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.19</v>
       </c>
       <c r="R45" s="27">
@@ -27780,8 +27686,8 @@
         <v>180</v>
       </c>
       <c r="P46" s="21">
-        <f t="shared" si="5"/>
-        <v>3.01</v>
+        <f t="shared" si="1"/>
+        <v>3.31</v>
       </c>
       <c r="R46" s="27">
         <f t="shared" si="4"/>
@@ -27836,7 +27742,7 @@
         <v>59</v>
       </c>
       <c r="P47" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="R47" s="27">
@@ -27892,8 +27798,8 @@
         <v>73</v>
       </c>
       <c r="P48" s="21">
-        <f t="shared" si="5"/>
-        <v>2.5099999999999998</v>
+        <f t="shared" si="1"/>
+        <v>3.46</v>
       </c>
       <c r="R48" s="27">
         <f t="shared" si="4"/>
@@ -27948,8 +27854,8 @@
         <v>91</v>
       </c>
       <c r="P49" s="21">
-        <f t="shared" si="5"/>
-        <v>3.33</v>
+        <f t="shared" si="1"/>
+        <v>3.64</v>
       </c>
       <c r="R49" s="27">
         <f t="shared" si="4"/>
@@ -28008,8 +27914,8 @@
         <v>70</v>
       </c>
       <c r="P50" s="21">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
+        <f t="shared" si="1"/>
+        <v>1.26</v>
       </c>
       <c r="R50" s="27">
         <f t="shared" si="4"/>
@@ -28068,8 +27974,8 @@
         <v>108</v>
       </c>
       <c r="P51" s="21">
-        <f t="shared" si="5"/>
-        <v>6.86</v>
+        <f t="shared" si="1"/>
+        <v>6.98</v>
       </c>
       <c r="R51" s="27">
         <f t="shared" si="4"/>
@@ -28128,8 +28034,8 @@
         <v>171</v>
       </c>
       <c r="P52" s="21">
-        <f t="shared" si="5"/>
-        <v>4.59</v>
+        <f t="shared" si="1"/>
+        <v>4.7699999999999996</v>
       </c>
       <c r="R52" s="27">
         <f t="shared" si="4"/>
@@ -28188,8 +28094,8 @@
         <v>202</v>
       </c>
       <c r="P53" s="21">
-        <f t="shared" si="5"/>
-        <v>10.94</v>
+        <f t="shared" si="1"/>
+        <v>11.59</v>
       </c>
       <c r="R53" s="27">
         <f t="shared" si="4"/>
@@ -28248,7 +28154,7 @@
         <v>72</v>
       </c>
       <c r="P54" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.48</v>
       </c>
       <c r="R54">
@@ -28308,7 +28214,7 @@
         <v>86</v>
       </c>
       <c r="P55" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.29</v>
       </c>
       <c r="R55" s="27">
@@ -28368,8 +28274,8 @@
         <v>87</v>
       </c>
       <c r="P56" s="21">
-        <f t="shared" si="5"/>
-        <v>3.24</v>
+        <f t="shared" si="1"/>
+        <v>3.56</v>
       </c>
       <c r="R56" s="27">
         <f t="shared" si="4"/>
@@ -28428,7 +28334,7 @@
         <v>107</v>
       </c>
       <c r="P57" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4.3099999999999996</v>
       </c>
       <c r="R57" s="27">
@@ -28488,8 +28394,8 @@
         <v>148</v>
       </c>
       <c r="P58" s="21">
-        <f t="shared" si="5"/>
-        <v>4.8600000000000003</v>
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R58" s="27">
         <f t="shared" si="4"/>
@@ -28518,8 +28424,8 @@
         <v>156</v>
       </c>
       <c r="P59" s="21">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="R59" s="27">
         <f t="shared" si="4"/>
@@ -28628,11 +28534,11 @@
         <v>71</v>
       </c>
       <c r="O61" s="21">
-        <f t="shared" ref="O61:O94" si="6">ROUND(AVERAGE(C61:N61),0)</f>
+        <f t="shared" ref="O61:O94" si="5">ROUND(AVERAGE(C61:N61),0)</f>
         <v>64</v>
       </c>
       <c r="P61" s="21">
-        <f t="shared" ref="P61:P94" si="7">ROUND(_xlfn.STDEV.P(C61:N61),2)</f>
+        <f t="shared" ref="P61:P94" si="6">ROUND(_xlfn.STDEV.P(C61:N61),2)</f>
         <v>7.56</v>
       </c>
       <c r="R61">
@@ -28685,11 +28591,11 @@
         <v>61</v>
       </c>
       <c r="O62" s="21">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="P62" s="21">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="P62" s="21">
-        <f t="shared" si="7"/>
         <v>9.1199999999999992</v>
       </c>
       <c r="R62" s="27">
@@ -28742,11 +28648,11 @@
         <v>74</v>
       </c>
       <c r="O63" s="21">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="P63" s="21">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="P63" s="21">
-        <f t="shared" si="7"/>
         <v>6.72</v>
       </c>
       <c r="R63" s="27">
@@ -28799,11 +28705,11 @@
         <v>83</v>
       </c>
       <c r="O64" s="21">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="P64" s="21">
         <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="P64" s="21">
-        <f t="shared" si="7"/>
         <v>8.8699999999999992</v>
       </c>
       <c r="R64" s="27">
@@ -28856,11 +28762,11 @@
         <v>116</v>
       </c>
       <c r="O65" s="21">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="P65" s="21">
         <f t="shared" si="6"/>
-        <v>106</v>
-      </c>
-      <c r="P65" s="21">
-        <f t="shared" si="7"/>
         <v>7.42</v>
       </c>
       <c r="R65" s="27">
@@ -28913,11 +28819,11 @@
         <v>138</v>
       </c>
       <c r="O66" s="21">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="P66" s="21">
         <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="P66" s="21">
-        <f t="shared" si="7"/>
         <v>14.29</v>
       </c>
       <c r="R66" s="27">
@@ -28970,11 +28876,11 @@
         <v>175</v>
       </c>
       <c r="O67" s="21">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="P67" s="21">
         <f t="shared" si="6"/>
-        <v>189</v>
-      </c>
-      <c r="P67" s="21">
-        <f t="shared" si="7"/>
         <v>16.18</v>
       </c>
       <c r="R67" s="27">
@@ -29027,11 +28933,11 @@
         <v>65</v>
       </c>
       <c r="O68" s="21">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="P68" s="21">
         <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="P68" s="21">
-        <f t="shared" si="7"/>
         <v>7.29</v>
       </c>
       <c r="R68" s="27">
@@ -29039,7 +28945,7 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68" si="8">O68/A68</f>
+        <f t="shared" ref="S68" si="7">O68/A68</f>
         <v>1</v>
       </c>
     </row>
@@ -29051,19 +28957,19 @@
         <v>45894</v>
       </c>
       <c r="O69" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P69" s="21" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P69" s="21" t="e">
-        <f t="shared" si="7"/>
+      <c r="R69" s="27" t="e">
+        <f t="shared" ref="R69:R113" si="8">O69-A69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R69" s="27" t="e">
-        <f t="shared" ref="R69:R113" si="9">O69-A69</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="S69" t="e">
-        <f t="shared" ref="S69:S113" si="10">O69/A69</f>
+        <f t="shared" ref="S69:S113" si="9">O69/A69</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29075,19 +28981,19 @@
         <v>45895</v>
       </c>
       <c r="O70" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P70" s="21" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P70" s="21" t="e">
-        <f t="shared" si="7"/>
+      <c r="R70" s="27" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R70" s="27" t="e">
+      <c r="S70" t="e">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S70" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29099,19 +29005,19 @@
         <v>45896</v>
       </c>
       <c r="O71" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P71" s="21" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P71" s="21" t="e">
-        <f t="shared" si="7"/>
+      <c r="R71" s="27" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R71" s="27" t="e">
+      <c r="S71" t="e">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S71" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29123,19 +29029,19 @@
         <v>45897</v>
       </c>
       <c r="O72" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P72" s="21" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P72" s="21" t="e">
-        <f t="shared" si="7"/>
+      <c r="R72" s="27" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R72" s="27" t="e">
+      <c r="S72" t="e">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S72" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29147,19 +29053,19 @@
         <v>45898</v>
       </c>
       <c r="O73" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P73" s="21" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P73" s="21" t="e">
-        <f t="shared" si="7"/>
+      <c r="R73" s="27" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R73" s="27" t="e">
+      <c r="S73" t="e">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S73" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29171,19 +29077,19 @@
         <v>45899</v>
       </c>
       <c r="O74" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P74" s="21" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P74" s="21" t="e">
-        <f t="shared" si="7"/>
+      <c r="R74" s="27" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R74" s="27" t="e">
+      <c r="S74" t="e">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S74" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29225,19 +29131,19 @@
         <v>66</v>
       </c>
       <c r="O75" s="21">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="P75" s="21">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="P75" s="21">
-        <f t="shared" si="7"/>
         <v>10.42</v>
       </c>
       <c r="R75" s="27">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="S75">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="10"/>
         <v>0.98529411764705888</v>
       </c>
     </row>
@@ -29279,19 +29185,19 @@
         <v>77</v>
       </c>
       <c r="O76" s="21">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="P76" s="21">
         <f t="shared" si="6"/>
+        <v>10.16</v>
+      </c>
+      <c r="R76" s="27">
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="P76" s="21">
-        <f t="shared" si="7"/>
-        <v>10.16</v>
-      </c>
-      <c r="R76" s="27">
+      <c r="S76" t="e">
         <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
-      <c r="S76" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29333,19 +29239,19 @@
         <v>85</v>
       </c>
       <c r="O77" s="21">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="P77" s="21">
         <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="P77" s="21">
-        <f t="shared" si="7"/>
         <v>13.03</v>
       </c>
       <c r="R77" s="27">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="S77">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="10"/>
         <v>1.6888888888888889</v>
       </c>
     </row>
@@ -29387,19 +29293,19 @@
         <v>81</v>
       </c>
       <c r="O78" s="21">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="P78" s="21">
         <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="P78" s="21">
-        <f t="shared" si="7"/>
         <v>13.31</v>
       </c>
       <c r="R78" s="27">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="S78">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="10"/>
         <v>2.1666666666666665</v>
       </c>
     </row>
@@ -29441,19 +29347,19 @@
         <v>133</v>
       </c>
       <c r="O79" s="21">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="P79" s="21">
         <f t="shared" si="6"/>
-        <v>118</v>
-      </c>
-      <c r="P79" s="21">
-        <f t="shared" si="7"/>
         <v>16.829999999999998</v>
       </c>
       <c r="R79" s="27">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="S79">
         <f t="shared" si="9"/>
-        <v>59</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -29495,19 +29401,19 @@
         <v>211</v>
       </c>
       <c r="O80" s="21">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="P80" s="21">
         <f t="shared" si="6"/>
-        <v>168</v>
-      </c>
-      <c r="P80" s="21">
-        <f t="shared" si="7"/>
         <v>23.9</v>
       </c>
       <c r="R80" s="27">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="9"/>
-        <v>61</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="10"/>
         <v>1.5700934579439252</v>
       </c>
     </row>
@@ -29549,19 +29455,19 @@
         <v>236</v>
       </c>
       <c r="O81" s="21">
+        <f>ROUND(AVERAGE(C81:N81),0)</f>
+        <v>189</v>
+      </c>
+      <c r="P81" s="21">
         <f t="shared" si="6"/>
-        <v>189</v>
-      </c>
-      <c r="P81" s="21">
-        <f t="shared" si="7"/>
         <v>23.08</v>
       </c>
       <c r="R81" s="27">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="S81">
         <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="10"/>
         <v>1.243421052631579</v>
       </c>
     </row>
@@ -29603,19 +29509,19 @@
         <v>73</v>
       </c>
       <c r="O82" s="21">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="P82" s="21">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="P82" s="21">
-        <f t="shared" si="7"/>
         <v>8.74</v>
       </c>
       <c r="R82" s="27">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="S82">
         <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="10"/>
         <v>1.3913043478260869</v>
       </c>
     </row>
@@ -29657,19 +29563,19 @@
         <v>76</v>
       </c>
       <c r="O83" s="21">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="P83" s="21">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="P83" s="21">
-        <f t="shared" si="7"/>
         <v>9.92</v>
       </c>
       <c r="R83" s="27">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="S83">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="10"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -29693,19 +29599,19 @@
         <v>67</v>
       </c>
       <c r="O84" s="30">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="P84" s="30">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="P84" s="30">
-        <f t="shared" si="7"/>
         <v>7.4</v>
       </c>
       <c r="R84" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S84">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="10"/>
         <v>1.0344827586206897</v>
       </c>
     </row>
@@ -29729,19 +29635,19 @@
         <v>70</v>
       </c>
       <c r="O85" s="21">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="P85" s="21">
         <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="P85" s="21">
-        <f t="shared" si="7"/>
         <v>11.11</v>
       </c>
       <c r="R85" s="27">
+        <f t="shared" si="8"/>
+        <v>-13</v>
+      </c>
+      <c r="S85">
         <f t="shared" si="9"/>
-        <v>-13</v>
-      </c>
-      <c r="S85">
-        <f t="shared" si="10"/>
         <v>0.84337349397590367</v>
       </c>
     </row>
@@ -29765,19 +29671,19 @@
         <v>51</v>
       </c>
       <c r="O86" s="21">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="P86" s="21">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="P86" s="21">
-        <f t="shared" si="7"/>
         <v>10.11</v>
       </c>
       <c r="R86" s="27">
+        <f t="shared" si="8"/>
+        <v>-14</v>
+      </c>
+      <c r="S86">
         <f t="shared" si="9"/>
-        <v>-14</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="10"/>
         <v>0.8271604938271605</v>
       </c>
     </row>
@@ -29801,19 +29707,19 @@
         <v>147</v>
       </c>
       <c r="O87" s="21">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="P87" s="21">
         <f t="shared" si="6"/>
-        <v>123</v>
-      </c>
-      <c r="P87" s="21">
-        <f t="shared" si="7"/>
         <v>17.34</v>
       </c>
       <c r="R87" s="27">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="S87">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="10"/>
         <v>1.0512820512820513</v>
       </c>
     </row>
@@ -29837,19 +29743,19 @@
         <v>176</v>
       </c>
       <c r="O88" s="21">
+        <f t="shared" si="5"/>
+        <v>193</v>
+      </c>
+      <c r="P88" s="21">
         <f t="shared" si="6"/>
-        <v>193</v>
-      </c>
-      <c r="P88" s="21">
-        <f t="shared" si="7"/>
         <v>15.32</v>
       </c>
       <c r="R88" s="27">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="S88">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="10"/>
         <v>1.3040540540540539</v>
       </c>
     </row>
@@ -29873,19 +29779,19 @@
         <v>78</v>
       </c>
       <c r="O89" s="21">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="P89" s="21">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="P89" s="21">
-        <f t="shared" si="7"/>
         <v>15.41</v>
       </c>
       <c r="R89" s="27">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="S89">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="10"/>
         <v>1.0784313725490196</v>
       </c>
     </row>
@@ -29909,19 +29815,19 @@
         <v>43</v>
       </c>
       <c r="O90" s="21">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="P90" s="21">
         <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-      <c r="P90" s="21">
-        <f t="shared" si="7"/>
         <v>8.99</v>
       </c>
       <c r="R90" s="27">
+        <f t="shared" si="8"/>
+        <v>-26</v>
+      </c>
+      <c r="S90">
         <f t="shared" si="9"/>
-        <v>-26</v>
-      </c>
-      <c r="S90">
-        <f t="shared" si="10"/>
         <v>0.66233766233766234</v>
       </c>
     </row>
@@ -29945,19 +29851,19 @@
         <v>95</v>
       </c>
       <c r="O91" s="21">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="P91" s="21">
         <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="P91" s="21">
-        <f t="shared" si="7"/>
         <v>16.010000000000002</v>
       </c>
       <c r="R91" s="27">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="S91">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="S91">
-        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -29981,19 +29887,19 @@
         <v>48</v>
       </c>
       <c r="O92" s="21">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="P92" s="21">
         <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="P92" s="21">
-        <f t="shared" si="7"/>
         <v>6.1</v>
       </c>
       <c r="R92" s="27">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+      <c r="S92">
         <f t="shared" si="9"/>
-        <v>-10</v>
-      </c>
-      <c r="S92">
-        <f t="shared" si="10"/>
         <v>0.85507246376811596</v>
       </c>
     </row>
@@ -30017,19 +29923,19 @@
         <v>100</v>
       </c>
       <c r="O93" s="21">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="P93" s="21">
         <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="P93" s="21">
-        <f t="shared" si="7"/>
         <v>13.08</v>
       </c>
       <c r="R93" s="27">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="S93">
         <f t="shared" si="9"/>
-        <v>-3</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="10"/>
         <v>0.96938775510204078</v>
       </c>
     </row>
@@ -30053,19 +29959,19 @@
         <v>206</v>
       </c>
       <c r="O94" s="21">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="P94" s="21">
         <f t="shared" si="6"/>
-        <v>184</v>
-      </c>
-      <c r="P94" s="21">
-        <f t="shared" si="7"/>
         <v>14.82</v>
       </c>
       <c r="R94" s="27">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="S94">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="10"/>
         <v>1.2185430463576159</v>
       </c>
     </row>
@@ -30077,19 +29983,19 @@
         <v>45920</v>
       </c>
       <c r="O95" s="21" t="e">
-        <f t="shared" ref="O95:O149" si="11">ROUND(AVERAGE(C95:N95),0)</f>
+        <f>ROUND(AVERAGE(C95:N95),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P95" s="21" t="e">
-        <f t="shared" ref="P95:P149" si="12">ROUND(_xlfn.STDEV.P(C95:N95),2)</f>
+        <f>ROUND(_xlfn.STDEV.P(C95:N95),2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R95" s="27" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S95" t="e">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S95" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30101,19 +30007,19 @@
         <v>45921</v>
       </c>
       <c r="O96" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C96:N96),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P96" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C96:N96),2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R96" s="27" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S96" t="e">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S96" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30125,19 +30031,19 @@
         <v>45922</v>
       </c>
       <c r="O97" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C97:N97),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P97" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C97:N97),2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R97" s="27" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S97" t="e">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S97" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30185,19 +30091,19 @@
         <v>38</v>
       </c>
       <c r="O98" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C98:N98),0)</f>
         <v>49</v>
       </c>
       <c r="P98" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C98:N98),2)</f>
         <v>4.3099999999999996</v>
       </c>
       <c r="R98" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S98">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="10"/>
         <v>1.0425531914893618</v>
       </c>
     </row>
@@ -30245,19 +30151,19 @@
         <v>61</v>
       </c>
       <c r="O99" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C99:N99),0)</f>
         <v>57</v>
       </c>
       <c r="P99" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C99:N99),2)</f>
         <v>8.9499999999999993</v>
       </c>
       <c r="R99" s="27">
+        <f t="shared" si="8"/>
+        <v>-11</v>
+      </c>
+      <c r="S99">
         <f t="shared" si="9"/>
-        <v>-11</v>
-      </c>
-      <c r="S99">
-        <f t="shared" si="10"/>
         <v>0.83823529411764708</v>
       </c>
     </row>
@@ -30305,19 +30211,19 @@
         <v>51</v>
       </c>
       <c r="O100" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C100:N100),0)</f>
         <v>57</v>
       </c>
       <c r="P100" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C100:N100),2)</f>
         <v>8.65</v>
       </c>
       <c r="R100" s="27">
+        <f t="shared" si="8"/>
+        <v>-44</v>
+      </c>
+      <c r="S100">
         <f t="shared" si="9"/>
-        <v>-44</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="10"/>
         <v>0.5643564356435643</v>
       </c>
     </row>
@@ -30365,19 +30271,19 @@
         <v>115</v>
       </c>
       <c r="O101" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C101:N101),0)</f>
         <v>125</v>
       </c>
       <c r="P101" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C101:N101),2)</f>
         <v>47.97</v>
       </c>
       <c r="R101" s="27">
+        <f t="shared" si="8"/>
+        <v>-33</v>
+      </c>
+      <c r="S101">
         <f t="shared" si="9"/>
-        <v>-33</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="10"/>
         <v>0.79113924050632911</v>
       </c>
     </row>
@@ -30425,19 +30331,19 @@
         <v>142</v>
       </c>
       <c r="O102" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C102:N102),0)</f>
         <v>149</v>
       </c>
       <c r="P102" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C102:N102),2)</f>
         <v>46.05</v>
       </c>
       <c r="R102" s="27">
+        <f t="shared" si="8"/>
+        <v>-41</v>
+      </c>
+      <c r="S102">
         <f t="shared" si="9"/>
-        <v>-41</v>
-      </c>
-      <c r="S102">
-        <f t="shared" si="10"/>
         <v>0.78421052631578947</v>
       </c>
     </row>
@@ -30485,19 +30391,19 @@
         <v>41</v>
       </c>
       <c r="O103" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C103:N103),0)</f>
         <v>50</v>
       </c>
       <c r="P103" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C103:N103),2)</f>
         <v>8.77</v>
       </c>
       <c r="R103" s="27">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="S103">
         <f t="shared" si="9"/>
-        <v>-3</v>
-      </c>
-      <c r="S103">
-        <f t="shared" si="10"/>
         <v>0.94339622641509435</v>
       </c>
     </row>
@@ -30545,11 +30451,11 @@
         <v>64</v>
       </c>
       <c r="O104" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C104:N104),0)</f>
         <v>81</v>
       </c>
       <c r="P104" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C104:N104),2)</f>
         <v>23.51</v>
       </c>
       <c r="R104" s="27">
@@ -30557,7 +30463,7 @@
         <v>43</v>
       </c>
       <c r="S104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1315789473684212</v>
       </c>
     </row>
@@ -30605,19 +30511,19 @@
         <v>45</v>
       </c>
       <c r="O105" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C105:N105),0)</f>
         <v>57</v>
       </c>
       <c r="P105" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C105:N105),2)</f>
         <v>6.5</v>
       </c>
       <c r="R105" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S105">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="S105">
-        <f t="shared" si="10"/>
         <v>1.0363636363636364</v>
       </c>
     </row>
@@ -30665,19 +30571,19 @@
         <v>51</v>
       </c>
       <c r="O106" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C106:N106),0)</f>
         <v>58</v>
       </c>
       <c r="P106" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C106:N106),2)</f>
         <v>7.95</v>
       </c>
       <c r="R106" s="27">
+        <f t="shared" si="8"/>
+        <v>-17</v>
+      </c>
+      <c r="S106">
         <f t="shared" si="9"/>
-        <v>-17</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="10"/>
         <v>0.77333333333333332</v>
       </c>
     </row>
@@ -30725,19 +30631,19 @@
         <v>80</v>
       </c>
       <c r="O107" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C107:N107),0)</f>
         <v>77</v>
       </c>
       <c r="P107" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C107:N107),2)</f>
         <v>18.7</v>
       </c>
       <c r="R107" s="27">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="S107">
         <f t="shared" si="9"/>
-        <v>-5</v>
-      </c>
-      <c r="S107">
-        <f t="shared" si="10"/>
         <v>0.93902439024390238</v>
       </c>
     </row>
@@ -30785,19 +30691,19 @@
         <v>115</v>
       </c>
       <c r="O108" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C108:N108),0)</f>
         <v>113</v>
       </c>
       <c r="P108" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C108:N108),2)</f>
         <v>36.229999999999997</v>
       </c>
       <c r="R108" s="27">
+        <f t="shared" si="8"/>
+        <v>-31</v>
+      </c>
+      <c r="S108">
         <f t="shared" si="9"/>
-        <v>-31</v>
-      </c>
-      <c r="S108">
-        <f t="shared" si="10"/>
         <v>0.78472222222222221</v>
       </c>
     </row>
@@ -30845,19 +30751,19 @@
         <v>151</v>
       </c>
       <c r="O109" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C109:N109),0)</f>
         <v>148</v>
       </c>
       <c r="P109" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C109:N109),2)</f>
         <v>47.16</v>
       </c>
       <c r="R109" s="27">
+        <f t="shared" si="8"/>
+        <v>-42</v>
+      </c>
+      <c r="S109">
         <f t="shared" si="9"/>
-        <v>-42</v>
-      </c>
-      <c r="S109">
-        <f t="shared" si="10"/>
         <v>0.77894736842105261</v>
       </c>
     </row>
@@ -30905,19 +30811,19 @@
         <v>62</v>
       </c>
       <c r="O110" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C110:N110),0)</f>
         <v>61</v>
       </c>
       <c r="P110" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C110:N110),2)</f>
         <v>10.35</v>
       </c>
       <c r="R110" s="27">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="S110">
         <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="S110">
-        <f t="shared" si="10"/>
         <v>1.22</v>
       </c>
     </row>
@@ -30965,19 +30871,19 @@
         <v>56</v>
       </c>
       <c r="O111" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C111:N111),0)</f>
         <v>52</v>
       </c>
       <c r="P111" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C111:N111),2)</f>
         <v>6.59</v>
       </c>
       <c r="R111" s="27">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="S111">
         <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="S111">
-        <f t="shared" si="10"/>
         <v>1.368421052631579</v>
       </c>
     </row>
@@ -31025,19 +30931,19 @@
         <v>56</v>
       </c>
       <c r="O112" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C112:N112),0)</f>
         <v>51</v>
       </c>
       <c r="P112" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C112:N112),2)</f>
         <v>6.49</v>
       </c>
       <c r="R112" s="27">
+        <f t="shared" si="8"/>
+        <v>-54</v>
+      </c>
+      <c r="S112">
         <f t="shared" si="9"/>
-        <v>-54</v>
-      </c>
-      <c r="S112">
-        <f t="shared" si="10"/>
         <v>0.48571428571428571</v>
       </c>
     </row>
@@ -31085,19 +30991,19 @@
         <v>53</v>
       </c>
       <c r="O113" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C113:N113),0)</f>
         <v>58</v>
       </c>
       <c r="P113" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C113:N113),2)</f>
         <v>6.16</v>
       </c>
       <c r="R113" s="27">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="S113">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="S113">
-        <f t="shared" si="10"/>
         <v>1.5263157894736843</v>
       </c>
     </row>
@@ -31145,19 +31051,19 @@
         <v>56</v>
       </c>
       <c r="O114" s="21">
-        <f t="shared" si="11"/>
+        <f>ROUND(AVERAGE(C114:N114),0)</f>
         <v>55</v>
       </c>
       <c r="P114" s="21">
-        <f t="shared" si="12"/>
+        <f>ROUND(_xlfn.STDEV.P(C114:N114),2)</f>
         <v>6.54</v>
       </c>
       <c r="R114" s="27">
-        <f t="shared" ref="R114:R133" si="13">O114-A114</f>
+        <f t="shared" ref="R114:R135" si="10">O114-A114</f>
         <v>-4</v>
       </c>
       <c r="S114">
-        <f t="shared" ref="S114:S133" si="14">O114/A114</f>
+        <f t="shared" ref="S114:S135" si="11">O114/A114</f>
         <v>0.93220338983050843</v>
       </c>
     </row>
@@ -31205,19 +31111,19 @@
         <v>141</v>
       </c>
       <c r="O115" s="21">
+        <f>ROUND(AVERAGE(C115:N115),0)</f>
+        <v>130</v>
+      </c>
+      <c r="P115" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C115:N115),2)</f>
+        <v>15.97</v>
+      </c>
+      <c r="R115" s="27">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="S115">
         <f t="shared" si="11"/>
-        <v>130</v>
-      </c>
-      <c r="P115" s="21">
-        <f t="shared" si="12"/>
-        <v>15.97</v>
-      </c>
-      <c r="R115" s="27">
-        <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
-      <c r="S115">
-        <f t="shared" si="14"/>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -31265,19 +31171,19 @@
         <v>181</v>
       </c>
       <c r="O116" s="21">
+        <f>ROUND(AVERAGE(C116:N116),0)</f>
+        <v>176</v>
+      </c>
+      <c r="P116" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C116:N116),2)</f>
+        <v>10.89</v>
+      </c>
+      <c r="R116" s="27">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="S116">
         <f t="shared" si="11"/>
-        <v>176</v>
-      </c>
-      <c r="P116" s="21">
-        <f t="shared" si="12"/>
-        <v>10.89</v>
-      </c>
-      <c r="R116" s="27">
-        <f t="shared" si="13"/>
-        <v>38</v>
-      </c>
-      <c r="S116">
-        <f t="shared" si="14"/>
         <v>1.2753623188405796</v>
       </c>
     </row>
@@ -31325,19 +31231,19 @@
         <v>54</v>
       </c>
       <c r="O117" s="21">
+        <f>ROUND(AVERAGE(C117:N117),0)</f>
+        <v>49</v>
+      </c>
+      <c r="P117" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C117:N117),2)</f>
+        <v>5.84</v>
+      </c>
+      <c r="R117" s="27">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="S117">
         <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
-      <c r="P117" s="21">
-        <f t="shared" si="12"/>
-        <v>5.84</v>
-      </c>
-      <c r="R117" s="27">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="S117">
-        <f t="shared" si="14"/>
         <v>2.5789473684210527</v>
       </c>
     </row>
@@ -31385,19 +31291,19 @@
         <v>43</v>
       </c>
       <c r="O118" s="21">
+        <f>ROUND(AVERAGE(C118:N118),0)</f>
+        <v>44</v>
+      </c>
+      <c r="P118" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C118:N118),2)</f>
+        <v>9.85</v>
+      </c>
+      <c r="R118" s="27">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="S118">
         <f t="shared" si="11"/>
-        <v>44</v>
-      </c>
-      <c r="P118" s="21">
-        <f t="shared" si="12"/>
-        <v>9.85</v>
-      </c>
-      <c r="R118" s="27">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="S118">
-        <f t="shared" si="14"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -31445,19 +31351,19 @@
         <v>69</v>
       </c>
       <c r="O119" s="21">
+        <f>ROUND(AVERAGE(C119:N119),0)</f>
+        <v>58</v>
+      </c>
+      <c r="P119" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C119:N119),2)</f>
+        <v>15.07</v>
+      </c>
+      <c r="R119" s="27">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="S119">
         <f t="shared" si="11"/>
-        <v>58</v>
-      </c>
-      <c r="P119" s="21">
-        <f t="shared" si="12"/>
-        <v>15.07</v>
-      </c>
-      <c r="R119" s="27">
-        <f t="shared" si="13"/>
-        <v>33</v>
-      </c>
-      <c r="S119">
-        <f t="shared" si="14"/>
         <v>2.3199999999999998</v>
       </c>
     </row>
@@ -31505,19 +31411,19 @@
         <v>53</v>
       </c>
       <c r="O120" s="21">
+        <f>ROUND(AVERAGE(C120:N120),0)</f>
+        <v>49</v>
+      </c>
+      <c r="P120" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C120:N120),2)</f>
+        <v>11.13</v>
+      </c>
+      <c r="R120" s="27">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="S120">
         <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
-      <c r="P120" s="21">
-        <f t="shared" si="12"/>
-        <v>11.13</v>
-      </c>
-      <c r="R120" s="27">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="S120">
-        <f t="shared" si="14"/>
         <v>1.3243243243243243</v>
       </c>
     </row>
@@ -31565,19 +31471,19 @@
         <v>81</v>
       </c>
       <c r="O121" s="21">
+        <f>ROUND(AVERAGE(C121:N121),0)</f>
+        <v>72</v>
+      </c>
+      <c r="P121" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C121:N121),2)</f>
+        <v>13.89</v>
+      </c>
+      <c r="R121" s="27">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="S121">
         <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="P121" s="21">
-        <f t="shared" si="12"/>
-        <v>13.89</v>
-      </c>
-      <c r="R121" s="27">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="S121">
-        <f t="shared" si="14"/>
         <v>1.1612903225806452</v>
       </c>
     </row>
@@ -31625,19 +31531,19 @@
         <v>148</v>
       </c>
       <c r="O122" s="21">
+        <f>ROUND(AVERAGE(C122:N122),0)</f>
+        <v>134</v>
+      </c>
+      <c r="P122" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C122:N122),2)</f>
+        <v>25.42</v>
+      </c>
+      <c r="R122" s="27">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="S122">
         <f t="shared" si="11"/>
-        <v>134</v>
-      </c>
-      <c r="P122" s="21">
-        <f t="shared" si="12"/>
-        <v>25.42</v>
-      </c>
-      <c r="R122" s="27">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S122">
-        <f t="shared" si="14"/>
         <v>1.0634920634920635</v>
       </c>
     </row>
@@ -31685,19 +31591,19 @@
         <v>176</v>
       </c>
       <c r="O123" s="21">
+        <f>ROUND(AVERAGE(C123:N123),0)</f>
+        <v>163</v>
+      </c>
+      <c r="P123" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C123:N123),2)</f>
+        <v>17.72</v>
+      </c>
+      <c r="R123" s="27">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="S123">
         <f t="shared" si="11"/>
-        <v>163</v>
-      </c>
-      <c r="P123" s="21">
-        <f t="shared" si="12"/>
-        <v>17.72</v>
-      </c>
-      <c r="R123" s="27">
-        <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-      <c r="S123">
-        <f t="shared" si="14"/>
         <v>1.1560283687943262</v>
       </c>
     </row>
@@ -31745,19 +31651,19 @@
         <v>55</v>
       </c>
       <c r="O124" s="21">
+        <f>ROUND(AVERAGE(C124:N124),0)</f>
+        <v>49</v>
+      </c>
+      <c r="P124" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C124:N124),2)</f>
+        <v>9.67</v>
+      </c>
+      <c r="R124" s="27">
+        <f t="shared" si="10"/>
+        <v>-16</v>
+      </c>
+      <c r="S124">
         <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
-      <c r="P124" s="21">
-        <f t="shared" si="12"/>
-        <v>9.67</v>
-      </c>
-      <c r="R124" s="27">
-        <f t="shared" si="13"/>
-        <v>-16</v>
-      </c>
-      <c r="S124">
-        <f t="shared" si="14"/>
         <v>0.75384615384615383</v>
       </c>
     </row>
@@ -31805,19 +31711,19 @@
         <v>23</v>
       </c>
       <c r="O125" s="21">
+        <f>ROUND(AVERAGE(C125:N125),0)</f>
+        <v>37</v>
+      </c>
+      <c r="P125" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C125:N125),2)</f>
+        <v>19.34</v>
+      </c>
+      <c r="R125" s="27">
+        <f t="shared" si="10"/>
+        <v>-9</v>
+      </c>
+      <c r="S125">
         <f t="shared" si="11"/>
-        <v>37</v>
-      </c>
-      <c r="P125" s="21">
-        <f t="shared" si="12"/>
-        <v>19.34</v>
-      </c>
-      <c r="R125" s="27">
-        <f t="shared" si="13"/>
-        <v>-9</v>
-      </c>
-      <c r="S125">
-        <f t="shared" si="14"/>
         <v>0.80434782608695654</v>
       </c>
     </row>
@@ -31865,19 +31771,19 @@
         <v>36</v>
       </c>
       <c r="O126" s="21">
+        <f>ROUND(AVERAGE(C126:N126),0)</f>
+        <v>43</v>
+      </c>
+      <c r="P126" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C126:N126),2)</f>
+        <v>13.22</v>
+      </c>
+      <c r="R126" s="27">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="S126">
         <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
-      <c r="P126" s="21">
-        <f t="shared" si="12"/>
-        <v>13.22</v>
-      </c>
-      <c r="R126" s="27">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="S126">
-        <f t="shared" si="14"/>
         <v>1.3870967741935485</v>
       </c>
     </row>
@@ -31925,19 +31831,19 @@
         <v>62</v>
       </c>
       <c r="O127" s="21">
+        <f>ROUND(AVERAGE(C127:N127),0)</f>
+        <v>58</v>
+      </c>
+      <c r="P127" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C127:N127),2)</f>
+        <v>9.17</v>
+      </c>
+      <c r="R127" s="27">
+        <f t="shared" si="10"/>
+        <v>-26</v>
+      </c>
+      <c r="S127">
         <f t="shared" si="11"/>
-        <v>58</v>
-      </c>
-      <c r="P127" s="21">
-        <f t="shared" si="12"/>
-        <v>9.17</v>
-      </c>
-      <c r="R127" s="27">
-        <f t="shared" si="13"/>
-        <v>-26</v>
-      </c>
-      <c r="S127">
-        <f t="shared" si="14"/>
         <v>0.69047619047619047</v>
       </c>
     </row>
@@ -31985,23 +31891,23 @@
         <v>85</v>
       </c>
       <c r="O128" s="21">
+        <f>ROUND(AVERAGE(C128:N128),0)</f>
+        <v>78</v>
+      </c>
+      <c r="P128" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C128:N128),2)</f>
+        <v>12.09</v>
+      </c>
+      <c r="R128" s="27">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="S128">
         <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-      <c r="P128" s="21">
-        <f t="shared" si="12"/>
-        <v>12.09</v>
-      </c>
-      <c r="R128" s="27">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="S128">
-        <f t="shared" si="14"/>
         <v>2.7857142857142856</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="27">
         <v>131</v>
       </c>
@@ -32045,23 +31951,23 @@
         <v>156</v>
       </c>
       <c r="O129" s="21">
+        <f>ROUND(AVERAGE(C129:N129),0)</f>
+        <v>130</v>
+      </c>
+      <c r="P129" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C129:N129),2)</f>
+        <v>24.1</v>
+      </c>
+      <c r="R129" s="27">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="S129">
         <f t="shared" si="11"/>
-        <v>130</v>
-      </c>
-      <c r="P129" s="21">
-        <f t="shared" si="12"/>
-        <v>24.1</v>
-      </c>
-      <c r="R129" s="27">
-        <f t="shared" si="13"/>
-        <v>-1</v>
-      </c>
-      <c r="S129">
-        <f t="shared" si="14"/>
         <v>0.99236641221374045</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="27">
         <v>199</v>
       </c>
@@ -32105,23 +32011,23 @@
         <v>157</v>
       </c>
       <c r="O130" s="21">
+        <f>ROUND(AVERAGE(C130:N130),0)</f>
+        <v>157</v>
+      </c>
+      <c r="P130" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C130:N130),2)</f>
+        <v>15.82</v>
+      </c>
+      <c r="R130" s="27">
+        <f t="shared" si="10"/>
+        <v>-42</v>
+      </c>
+      <c r="S130">
         <f t="shared" si="11"/>
-        <v>157</v>
-      </c>
-      <c r="P130" s="21">
-        <f t="shared" si="12"/>
-        <v>15.82</v>
-      </c>
-      <c r="R130" s="27">
-        <f t="shared" si="13"/>
-        <v>-42</v>
-      </c>
-      <c r="S130">
-        <f t="shared" si="14"/>
         <v>0.78894472361809043</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="27">
         <v>49</v>
       </c>
@@ -32165,23 +32071,23 @@
         <v>61</v>
       </c>
       <c r="O131" s="21">
+        <f>ROUND(AVERAGE(C131:N131),0)</f>
+        <v>57</v>
+      </c>
+      <c r="P131" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C131:N131),2)</f>
+        <v>10.59</v>
+      </c>
+      <c r="R131" s="27">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="S131">
         <f t="shared" si="11"/>
-        <v>57</v>
-      </c>
-      <c r="P131" s="21">
-        <f t="shared" si="12"/>
-        <v>10.59</v>
-      </c>
-      <c r="R131" s="27">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S131">
-        <f t="shared" si="14"/>
         <v>1.1632653061224489</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="27">
         <v>48</v>
       </c>
@@ -32225,83 +32131,86 @@
         <v>38</v>
       </c>
       <c r="O132" s="21">
+        <f>ROUND(AVERAGE(C132:N132),0)</f>
+        <v>37</v>
+      </c>
+      <c r="P132" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C132:N132),2)</f>
+        <v>8.11</v>
+      </c>
+      <c r="R132" s="27">
+        <f t="shared" si="10"/>
+        <v>-11</v>
+      </c>
+      <c r="S132">
         <f t="shared" si="11"/>
-        <v>37</v>
-      </c>
-      <c r="P132" s="21">
-        <f t="shared" si="12"/>
-        <v>8.11</v>
-      </c>
-      <c r="R132" s="27">
-        <f t="shared" si="13"/>
-        <v>-11</v>
-      </c>
-      <c r="S132">
-        <f t="shared" si="14"/>
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="29">
+    <row r="133" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="55">
         <v>58</v>
       </c>
-      <c r="B133" s="28">
+      <c r="B133" s="56">
         <v>45958</v>
       </c>
-      <c r="C133" s="29">
+      <c r="C133" s="55">
         <v>42</v>
       </c>
-      <c r="D133" s="29">
+      <c r="D133" s="55">
         <v>44</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E133" s="55">
         <v>27</v>
       </c>
-      <c r="F133" s="29">
+      <c r="F133" s="55">
         <v>31</v>
       </c>
-      <c r="G133" s="29">
+      <c r="G133" s="55">
         <v>34</v>
       </c>
-      <c r="H133" s="29">
+      <c r="H133" s="55">
         <v>51</v>
       </c>
-      <c r="I133" s="29">
+      <c r="I133" s="55">
         <v>20</v>
       </c>
-      <c r="J133" s="29">
+      <c r="J133" s="55">
         <v>15</v>
       </c>
-      <c r="K133" s="29">
+      <c r="K133" s="55">
         <v>42</v>
       </c>
-      <c r="L133" s="29">
+      <c r="L133" s="55">
         <v>44</v>
       </c>
-      <c r="M133" s="29">
+      <c r="M133" s="55">
         <v>42</v>
       </c>
-      <c r="N133" s="29">
+      <c r="N133" s="55">
         <v>44</v>
       </c>
-      <c r="O133" s="30">
+      <c r="O133" s="57">
+        <f>ROUND(AVERAGE(C133:N133),0)</f>
+        <v>36</v>
+      </c>
+      <c r="P133" s="57">
+        <f>ROUND(_xlfn.STDEV.P(C133:N133),2)</f>
+        <v>10.53</v>
+      </c>
+      <c r="R133" s="55">
+        <f t="shared" si="10"/>
+        <v>-22</v>
+      </c>
+      <c r="S133" s="55">
         <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="P133" s="30">
-        <f t="shared" si="12"/>
-        <v>10.53</v>
-      </c>
-      <c r="R133" s="29">
-        <f t="shared" si="13"/>
-        <v>-22</v>
-      </c>
-      <c r="S133" s="29">
-        <f t="shared" si="14"/>
         <v>0.62068965517241381</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="27">
+        <v>34</v>
+      </c>
       <c r="B134" s="23">
         <v>45959</v>
       </c>
@@ -32342,15 +32251,26 @@
         <v>55</v>
       </c>
       <c r="O134" s="21">
+        <f>ROUND(AVERAGE(C134:N134),0)</f>
+        <v>46</v>
+      </c>
+      <c r="P134" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C134:N134),2)</f>
+        <v>11.88</v>
+      </c>
+      <c r="R134" s="27">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="S134">
         <f t="shared" si="11"/>
-        <v>46</v>
-      </c>
-      <c r="P134" s="21">
-        <f t="shared" si="12"/>
-        <v>11.88</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.3529411764705883</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="27">
+        <v>39</v>
+      </c>
       <c r="B135" s="23">
         <v>45960</v>
       </c>
@@ -32391,603 +32311,683 @@
         <v>86</v>
       </c>
       <c r="O135" s="21">
+        <f>ROUND(AVERAGE(C135:N135),0)</f>
+        <v>81</v>
+      </c>
+      <c r="P135" s="21">
+        <f>ROUND(_xlfn.STDEV.P(C135:N135),2)</f>
+        <v>11.17</v>
+      </c>
+      <c r="R135" s="27">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="S135">
         <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="P135" s="21">
-        <f t="shared" si="12"/>
-        <v>11.17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B136" s="23">
+        <v>2.0769230769230771</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="28">
         <v>45961</v>
       </c>
-      <c r="C136">
-        <v>77</v>
-      </c>
-      <c r="D136">
-        <v>119</v>
-      </c>
-      <c r="E136">
-        <v>75</v>
-      </c>
-      <c r="F136">
-        <v>80</v>
-      </c>
-      <c r="G136">
-        <v>107</v>
-      </c>
-      <c r="H136">
-        <v>115</v>
-      </c>
-      <c r="I136">
-        <v>89</v>
-      </c>
-      <c r="J136">
+      <c r="C136" s="29">
+        <v>112</v>
+      </c>
+      <c r="D136" s="29">
+        <v>96</v>
+      </c>
+      <c r="E136" s="29">
+        <v>87</v>
+      </c>
+      <c r="F136" s="29">
+        <v>87</v>
+      </c>
+      <c r="G136" s="29">
         <v>68</v>
       </c>
-      <c r="K136">
-        <v>109</v>
-      </c>
-      <c r="L136">
-        <v>107</v>
-      </c>
-      <c r="M136">
-        <v>106</v>
-      </c>
-      <c r="N136">
-        <v>106</v>
-      </c>
-      <c r="O136" s="21">
-        <f t="shared" si="11"/>
-        <v>97</v>
-      </c>
-      <c r="P136" s="21">
-        <f t="shared" si="12"/>
-        <v>16.809999999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H136" s="29">
+        <v>70</v>
+      </c>
+      <c r="I136" s="29">
+        <v>70</v>
+      </c>
+      <c r="J136" s="29">
+        <v>65</v>
+      </c>
+      <c r="K136" s="29">
+        <v>87</v>
+      </c>
+      <c r="L136" s="29">
+        <v>98</v>
+      </c>
+      <c r="M136" s="29">
+        <v>98</v>
+      </c>
+      <c r="N136" s="29">
+        <v>92</v>
+      </c>
+      <c r="O136" s="30">
+        <f>ROUND(AVERAGE(C136:N136),0)</f>
+        <v>86</v>
+      </c>
+      <c r="P136" s="30">
+        <f>ROUND(_xlfn.STDEV.P(C136:N136),2)</f>
+        <v>14.08</v>
+      </c>
+      <c r="T136" s="29">
+        <v>90</v>
+      </c>
+      <c r="U136" s="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B137" s="23">
         <v>45962</v>
       </c>
       <c r="C137">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D137">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E137">
+        <v>155</v>
+      </c>
+      <c r="F137">
+        <v>152</v>
+      </c>
+      <c r="G137">
+        <v>152</v>
+      </c>
+      <c r="H137">
+        <v>130</v>
+      </c>
+      <c r="I137">
+        <v>130</v>
+      </c>
+      <c r="J137">
+        <v>134</v>
+      </c>
+      <c r="K137">
+        <v>175</v>
+      </c>
+      <c r="L137">
+        <v>176</v>
+      </c>
+      <c r="M137">
+        <v>172</v>
+      </c>
+      <c r="N137">
+        <v>173</v>
+      </c>
+      <c r="O137" s="21">
+        <f t="shared" ref="O137:O149" si="12">ROUND(AVERAGE(C137:N137),0)</f>
+        <v>158</v>
+      </c>
+      <c r="P137" s="21">
+        <f t="shared" ref="P137:P149" si="13">ROUND(_xlfn.STDEV.P(C137:N137),2)</f>
+        <v>17.88</v>
+      </c>
+      <c r="T137">
+        <v>161</v>
+      </c>
+      <c r="U137">
         <v>142</v>
       </c>
-      <c r="F137">
-        <v>153</v>
-      </c>
-      <c r="G137">
-        <v>158</v>
-      </c>
-      <c r="H137">
-        <v>173</v>
-      </c>
-      <c r="I137">
-        <v>143</v>
-      </c>
-      <c r="J137">
-        <v>117</v>
-      </c>
-      <c r="K137">
-        <v>177</v>
-      </c>
-      <c r="L137">
-        <v>173</v>
-      </c>
-      <c r="M137">
-        <v>175</v>
-      </c>
-      <c r="N137">
-        <v>175</v>
-      </c>
-      <c r="O137" s="21">
-        <f t="shared" si="11"/>
-        <v>161</v>
-      </c>
-      <c r="P137" s="21">
-        <f t="shared" si="12"/>
-        <v>17.940000000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B138" s="23">
         <v>45963</v>
       </c>
       <c r="C138">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D138">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E138">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F138">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G138">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H138">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I138">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J138">
         <v>22</v>
       </c>
       <c r="K138">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L138">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="M138">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N138">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O138" s="21">
-        <f t="shared" si="11"/>
-        <v>51</v>
+        <f t="shared" si="12"/>
+        <v>44</v>
       </c>
       <c r="P138" s="21">
-        <f t="shared" si="12"/>
-        <v>17.82</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>16.04</v>
+      </c>
+      <c r="T138">
+        <v>50</v>
+      </c>
+      <c r="U138">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B139" s="23">
         <v>45964</v>
       </c>
       <c r="C139">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D139">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E139">
+        <v>44</v>
+      </c>
+      <c r="F139">
+        <v>42</v>
+      </c>
+      <c r="G139">
+        <v>26</v>
+      </c>
+      <c r="H139">
+        <v>26</v>
+      </c>
+      <c r="I139">
+        <v>35</v>
+      </c>
+      <c r="J139">
+        <v>26</v>
+      </c>
+      <c r="K139">
+        <v>62</v>
+      </c>
+      <c r="L139">
+        <v>64</v>
+      </c>
+      <c r="M139">
+        <v>80</v>
+      </c>
+      <c r="N139">
+        <v>68</v>
+      </c>
+      <c r="O139" s="21">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="P139" s="21">
+        <f t="shared" si="13"/>
+        <v>18.489999999999998</v>
+      </c>
+      <c r="T139">
+        <v>52</v>
+      </c>
+      <c r="U139">
         <v>40</v>
       </c>
-      <c r="F139">
-        <v>48</v>
-      </c>
-      <c r="G139">
-        <v>41</v>
-      </c>
-      <c r="H139">
-        <v>52</v>
-      </c>
-      <c r="I139">
-        <v>26</v>
-      </c>
-      <c r="J139">
-        <v>23</v>
-      </c>
-      <c r="K139">
-        <v>63</v>
-      </c>
-      <c r="L139">
-        <v>74</v>
-      </c>
-      <c r="M139">
-        <v>62</v>
-      </c>
-      <c r="N139">
-        <v>60</v>
-      </c>
-      <c r="O139" s="21">
-        <f t="shared" si="11"/>
-        <v>51</v>
-      </c>
-      <c r="P139" s="21">
-        <f t="shared" si="12"/>
-        <v>15.16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B140" s="23">
         <v>45965</v>
       </c>
       <c r="C140">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D140">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E140">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F140">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G140">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H140">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I140">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J140">
         <v>13</v>
       </c>
       <c r="K140">
+        <v>31</v>
+      </c>
+      <c r="L140">
+        <v>47</v>
+      </c>
+      <c r="M140">
+        <v>28</v>
+      </c>
+      <c r="N140">
         <v>36</v>
       </c>
-      <c r="L140">
-        <v>33</v>
-      </c>
-      <c r="M140">
-        <v>26</v>
-      </c>
-      <c r="N140">
+      <c r="O140" s="21">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="O140" s="21">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
       <c r="P140" s="21">
-        <f t="shared" si="12"/>
-        <v>9.58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>9.91</v>
+      </c>
+      <c r="T140">
+        <v>22</v>
+      </c>
+      <c r="U140">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B141" s="23">
         <v>45966</v>
       </c>
       <c r="C141">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D141">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E141">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F141">
+        <v>44</v>
+      </c>
+      <c r="G141">
+        <v>45</v>
+      </c>
+      <c r="H141">
+        <v>42</v>
+      </c>
+      <c r="I141">
+        <v>37</v>
+      </c>
+      <c r="J141">
+        <v>27</v>
+      </c>
+      <c r="K141">
+        <v>69</v>
+      </c>
+      <c r="L141">
+        <v>77</v>
+      </c>
+      <c r="M141">
+        <v>83</v>
+      </c>
+      <c r="N141">
+        <v>68</v>
+      </c>
+      <c r="O141" s="21">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="P141" s="21">
+        <f t="shared" si="13"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="T141">
+        <v>61</v>
+      </c>
+      <c r="U141">
         <v>48</v>
       </c>
-      <c r="G141">
-        <v>49</v>
-      </c>
-      <c r="H141">
-        <v>66</v>
-      </c>
-      <c r="I141">
-        <v>33</v>
-      </c>
-      <c r="J141">
-        <v>26</v>
-      </c>
-      <c r="K141">
-        <v>68</v>
-      </c>
-      <c r="L141">
-        <v>61</v>
-      </c>
-      <c r="M141">
-        <v>63</v>
-      </c>
-      <c r="N141">
-        <v>62</v>
-      </c>
-      <c r="O141" s="21">
-        <f t="shared" si="11"/>
-        <v>54</v>
-      </c>
-      <c r="P141" s="21">
-        <f t="shared" si="12"/>
-        <v>13.46</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B142" s="23">
         <v>45967</v>
       </c>
       <c r="C142">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D142">
+        <v>83</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>62</v>
+      </c>
+      <c r="G142">
+        <v>73</v>
+      </c>
+      <c r="H142">
+        <v>58</v>
+      </c>
+      <c r="I142">
+        <v>54</v>
+      </c>
+      <c r="J142">
+        <v>49</v>
+      </c>
+      <c r="K142">
+        <v>83</v>
+      </c>
+      <c r="L142">
         <v>84</v>
       </c>
-      <c r="E142">
-        <v>56</v>
-      </c>
-      <c r="F142">
+      <c r="M142">
+        <v>82</v>
+      </c>
+      <c r="N142">
+        <v>83</v>
+      </c>
+      <c r="O142" s="21">
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="G142">
-        <v>79</v>
-      </c>
-      <c r="H142">
-        <v>89</v>
-      </c>
-      <c r="I142">
-        <v>58</v>
-      </c>
-      <c r="J142">
-        <v>41</v>
-      </c>
-      <c r="K142">
-        <v>81</v>
-      </c>
-      <c r="L142">
-        <v>81</v>
-      </c>
-      <c r="M142">
-        <v>80</v>
-      </c>
-      <c r="N142">
-        <v>82</v>
-      </c>
-      <c r="O142" s="21">
-        <f t="shared" si="11"/>
-        <v>74</v>
-      </c>
       <c r="P142" s="21">
-        <f t="shared" si="12"/>
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>12.6</v>
+      </c>
+      <c r="T142">
+        <v>86</v>
+      </c>
+      <c r="U142">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B143" s="23">
         <v>45968</v>
       </c>
       <c r="C143">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D143">
         <v>162</v>
       </c>
       <c r="E143">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F143">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G143">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H143">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="I143">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J143">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="K143">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L143">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M143">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N143">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O143" s="21">
-        <f t="shared" si="11"/>
-        <v>129</v>
+        <f t="shared" si="12"/>
+        <v>127</v>
       </c>
       <c r="P143" s="21">
-        <f t="shared" si="12"/>
-        <v>34.82</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>36.29</v>
+      </c>
+      <c r="T143">
+        <v>125</v>
+      </c>
+      <c r="U143">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B144" s="23">
         <v>45969</v>
       </c>
       <c r="C144">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D144">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E144">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F144">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G144">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H144">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="I144">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J144">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="K144">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L144">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="M144">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="N144">
         <v>177</v>
       </c>
       <c r="O144" s="21">
-        <f t="shared" si="11"/>
-        <v>150</v>
+        <f t="shared" si="12"/>
+        <v>142</v>
       </c>
       <c r="P144" s="21">
-        <f t="shared" si="12"/>
-        <v>33.36</v>
-      </c>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>31.65</v>
+      </c>
+      <c r="T144">
+        <v>145</v>
+      </c>
+      <c r="U144">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B145" s="23">
         <v>45970</v>
       </c>
       <c r="C145">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D145">
         <v>64</v>
       </c>
       <c r="E145">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F145">
+        <v>36</v>
+      </c>
+      <c r="G145">
+        <v>18</v>
+      </c>
+      <c r="H145">
+        <v>25</v>
+      </c>
+      <c r="I145">
+        <v>23</v>
+      </c>
+      <c r="J145">
+        <v>21</v>
+      </c>
+      <c r="K145">
+        <v>68</v>
+      </c>
+      <c r="L145">
+        <v>62</v>
+      </c>
+      <c r="M145">
+        <v>59</v>
+      </c>
+      <c r="N145">
+        <v>67</v>
+      </c>
+      <c r="O145" s="21">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="G145">
-        <v>22</v>
-      </c>
-      <c r="H145">
-        <v>46</v>
-      </c>
-      <c r="I145">
-        <v>20</v>
-      </c>
-      <c r="J145">
-        <v>22</v>
-      </c>
-      <c r="K145">
-        <v>66</v>
-      </c>
-      <c r="L145">
-        <v>68</v>
-      </c>
-      <c r="M145">
-        <v>68</v>
-      </c>
-      <c r="N145">
-        <v>62</v>
-      </c>
-      <c r="O145" s="21">
-        <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
       <c r="P145" s="21">
-        <f t="shared" si="12"/>
-        <v>17.989999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>19.29</v>
+      </c>
+      <c r="T145">
+        <v>45</v>
+      </c>
+      <c r="U145">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B146" s="23">
         <v>45971</v>
       </c>
       <c r="C146">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D146">
         <v>50</v>
       </c>
       <c r="E146">
+        <v>33</v>
+      </c>
+      <c r="F146">
         <v>29</v>
       </c>
-      <c r="F146">
-        <v>34</v>
-      </c>
       <c r="G146">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H146">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I146">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J146">
         <v>16</v>
       </c>
       <c r="K146">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L146">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M146">
+        <v>39</v>
+      </c>
+      <c r="N146">
         <v>47</v>
       </c>
-      <c r="N146">
-        <v>50</v>
-      </c>
       <c r="O146" s="21">
-        <f t="shared" si="11"/>
-        <v>39</v>
+        <f t="shared" si="12"/>
+        <v>34</v>
       </c>
       <c r="P146" s="21">
-        <f t="shared" si="12"/>
-        <v>12.63</v>
-      </c>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>12.21</v>
+      </c>
+      <c r="T146">
+        <v>42</v>
+      </c>
+      <c r="U146">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B147" s="23">
         <v>45972</v>
       </c>
       <c r="C147">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D147">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E147">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F147">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G147">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H147">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I147">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J147">
         <v>17</v>
       </c>
       <c r="K147">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L147">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M147">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N147">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O147" s="21">
-        <f t="shared" si="11"/>
-        <v>39</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="P147" s="21">
-        <f t="shared" si="12"/>
-        <v>15.56</v>
-      </c>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>14.64</v>
+      </c>
+      <c r="T147">
+        <v>34</v>
+      </c>
+      <c r="U147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B148" s="23">
         <v>45973</v>
       </c>
@@ -32995,196 +32995,157 @@
         <v>68</v>
       </c>
       <c r="D148">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E148">
         <v>42</v>
       </c>
       <c r="F148">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G148">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I148">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J148">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K148">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L148">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M148">
+        <v>70</v>
+      </c>
+      <c r="N148">
         <v>71</v>
       </c>
-      <c r="N148">
-        <v>69</v>
-      </c>
       <c r="O148" s="21">
-        <f t="shared" si="11"/>
-        <v>55</v>
+        <f t="shared" si="12"/>
+        <v>51</v>
       </c>
       <c r="P148" s="21">
-        <f t="shared" si="12"/>
-        <v>18.66</v>
-      </c>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>20.309999999999999</v>
+      </c>
+      <c r="T148">
+        <v>50</v>
+      </c>
+      <c r="U148">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B149" s="23">
         <v>45974</v>
       </c>
       <c r="C149">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D149">
+        <v>111</v>
+      </c>
+      <c r="E149">
+        <v>65</v>
+      </c>
+      <c r="F149">
+        <v>65</v>
+      </c>
+      <c r="G149">
+        <v>44</v>
+      </c>
+      <c r="H149">
+        <v>39</v>
+      </c>
+      <c r="I149">
+        <v>40</v>
+      </c>
+      <c r="J149">
+        <v>32</v>
+      </c>
+      <c r="K149">
+        <v>118</v>
+      </c>
+      <c r="L149">
+        <v>101</v>
+      </c>
+      <c r="M149">
+        <v>104</v>
+      </c>
+      <c r="N149">
         <v>107</v>
       </c>
-      <c r="E149">
+      <c r="O149" s="21">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="P149" s="21">
+        <f t="shared" si="13"/>
+        <v>32.14</v>
+      </c>
+      <c r="T149">
+        <v>75</v>
+      </c>
+      <c r="U149">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C150" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" s="58"/>
+      <c r="E150" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F150" s="58"/>
+      <c r="G150" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H150" s="58"/>
+      <c r="I150" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J150" s="58"/>
+      <c r="K150" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L150" s="58"/>
+      <c r="M150" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="N150" s="59"/>
+      <c r="T150" t="s">
+        <v>61</v>
+      </c>
+      <c r="U150" t="s">
         <v>62</v>
       </c>
-      <c r="F149">
-        <v>71</v>
-      </c>
-      <c r="G149">
-        <v>53</v>
-      </c>
-      <c r="H149">
-        <v>94</v>
-      </c>
-      <c r="I149">
-        <v>41</v>
-      </c>
-      <c r="J149">
-        <v>34</v>
-      </c>
-      <c r="K149">
-        <v>114</v>
-      </c>
-      <c r="L149">
-        <v>119</v>
-      </c>
-      <c r="M149">
-        <v>105</v>
-      </c>
-      <c r="N149">
-        <v>106</v>
-      </c>
-      <c r="O149" s="21">
-        <f t="shared" si="11"/>
-        <v>85</v>
-      </c>
-      <c r="P149" s="21">
-        <f t="shared" si="12"/>
-        <v>29.32</v>
-      </c>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B150" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="34"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="34"/>
-      <c r="L150" s="34"/>
-      <c r="M150" s="34"/>
-      <c r="N150" s="35"/>
-      <c r="O150" s="36" t="e">
-        <f>ROUND(AVERAGE(C150:N150),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P150" s="36" t="e">
-        <f>ROUND(_xlfn.STDEV.P(C150:N150),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B151" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="20"/>
-      <c r="I151" s="16"/>
-      <c r="J151" s="16"/>
-      <c r="L151" s="16"/>
-      <c r="M151" s="16"/>
-      <c r="N151" s="16"/>
-      <c r="O151" s="21" t="e">
-        <f>ROUND(AVERAGE(C151:N151),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P151" s="21" t="e">
-        <f>ROUND(_xlfn.STDEV.P(C151:N151),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C152" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="F152" s="51"/>
-      <c r="G152" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H152" s="51"/>
-      <c r="I152" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="J152" s="51"/>
-      <c r="K152" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="L152" s="52"/>
-      <c r="M152" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="N152" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="M150:N150"/>
   </mergeCells>
-  <conditionalFormatting sqref="C150 I150:J150 E150:G150 L150:N150">
-    <cfRule type="aboveAverage" dxfId="6" priority="6"/>
-    <cfRule type="aboveAverage" dxfId="5" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150:G150 I150:J150 L150:N150 D151 M151:N151">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>20</formula>
+  <conditionalFormatting sqref="C114:O135">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>ABS(C114-$A114)&lt;=15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150:N150">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>$O$150-$P$150</formula>
-      <formula>"$O$58+$P$58"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R132">
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R132 R134:R135">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -33192,11 +33153,6 @@
         <color rgb="FF92D050"/>
         <color rgb="FFFF0000"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:O132">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>ABS(C114-$A114)&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33219,30 +33175,30 @@
         <v>43</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
       <c r="Y1" t="s">
         <v>39</v>
       </c>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCEE366-9BB6-4B27-AAD4-BEE1276F5872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D2D048-1602-4E9B-9BB6-9A86D08C9ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30045" yWindow="720" windowWidth="23820" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -674,6 +674,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,14 +703,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,13 +757,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
@@ -789,6 +785,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1122,8 +1125,8 @@
   <dimension ref="A1:Q651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F617" sqref="F617"/>
+      <pane ySplit="1" topLeftCell="A618" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M619" sqref="M619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17039,13 +17042,13 @@
         <v>142</v>
       </c>
       <c r="E598" s="9">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="F598" s="9">
         <v>0.378</v>
       </c>
       <c r="G598" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H598" s="9">
         <v>11.4</v>
@@ -17074,10 +17077,10 @@
         <v>0.24</v>
       </c>
       <c r="G599" s="9">
-        <v>0</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H599" s="9">
-        <v>17.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="J599" s="45"/>
       <c r="K599" s="46"/>
@@ -17097,7 +17100,7 @@
         <v>34</v>
       </c>
       <c r="E600" s="9">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="F600" s="9">
         <v>0.13800000000000001</v>
@@ -17106,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="H600" s="9">
-        <v>14.8</v>
+        <v>14</v>
       </c>
       <c r="J600" s="45"/>
       <c r="K600" s="46"/>
@@ -17135,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="H601" s="9">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="I601" t="s">
         <v>24</v>
@@ -17158,7 +17161,7 @@
         <v>22</v>
       </c>
       <c r="E602" s="9">
-        <v>43</v>
+        <v>45.3</v>
       </c>
       <c r="F602" s="9">
         <v>0</v>
@@ -17167,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="H602" s="9">
-        <v>12.7</v>
+        <v>11</v>
       </c>
       <c r="J602" s="45"/>
       <c r="K602" s="46"/>
@@ -17187,7 +17190,7 @@
         <v>78</v>
       </c>
       <c r="E603" s="9">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="F603" s="9">
         <v>0</v>
@@ -17196,7 +17199,7 @@
         <v>0</v>
       </c>
       <c r="H603" s="9">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="J603" s="45"/>
       <c r="K603" s="46"/>
@@ -17216,7 +17219,7 @@
         <v>110</v>
       </c>
       <c r="E604" s="9">
-        <v>50</v>
+        <v>55.9</v>
       </c>
       <c r="F604" s="9">
         <v>0</v>
@@ -17225,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="H604" s="9">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="605" spans="1:17" x14ac:dyDescent="0.25">
@@ -17239,10 +17242,10 @@
         <v>45976</v>
       </c>
       <c r="D605" s="14">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E605" s="9">
-        <v>55.6</v>
+        <v>61.3</v>
       </c>
       <c r="F605" s="9">
         <v>0</v>
@@ -17251,10 +17254,7 @@
         <v>0</v>
       </c>
       <c r="H605" s="9">
-        <v>11.6</v>
-      </c>
-      <c r="J605" s="9">
-        <v>20.75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="606" spans="1:17" x14ac:dyDescent="0.25">
@@ -17268,22 +17268,19 @@
         <v>45977</v>
       </c>
       <c r="D606" s="14">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E606" s="9">
-        <v>49.6</v>
+        <v>42.4</v>
       </c>
       <c r="F606" s="9">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G606" s="9">
         <v>0</v>
       </c>
       <c r="H606" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="J606" s="9">
-        <v>17.61</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="607" spans="1:17" x14ac:dyDescent="0.25">
@@ -17297,10 +17294,10 @@
         <v>45978</v>
       </c>
       <c r="D607" s="14">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E607" s="9">
-        <v>43</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F607" s="9">
         <v>0</v>
@@ -17309,10 +17306,7 @@
         <v>0</v>
       </c>
       <c r="H607" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="J607" s="9">
-        <v>11.68</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="608" spans="1:17" x14ac:dyDescent="0.25">
@@ -17326,25 +17320,22 @@
         <v>45979</v>
       </c>
       <c r="D608" s="14">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E608" s="9">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="F608" s="9">
-        <v>0</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G608" s="9">
         <v>0</v>
       </c>
       <c r="H608" s="9">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J608" s="9">
-        <v>14.13</v>
-      </c>
-    </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609" s="6">
         <v>4</v>
       </c>
@@ -17355,25 +17346,22 @@
         <v>45980</v>
       </c>
       <c r="D609" s="14">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E609" s="9">
-        <v>41.5</v>
+        <v>43.5</v>
       </c>
       <c r="F609" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G609" s="9">
         <v>0</v>
       </c>
       <c r="H609" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="J609" s="9">
-        <v>20.52</v>
-      </c>
-    </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610" s="6">
         <v>5</v>
       </c>
@@ -17384,25 +17372,22 @@
         <v>45981</v>
       </c>
       <c r="D610" s="14">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E610" s="9">
-        <v>41.5</v>
+        <v>45.1</v>
       </c>
       <c r="F610" s="9">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G610" s="9">
         <v>0</v>
       </c>
       <c r="H610" s="9">
-        <v>10</v>
-      </c>
-      <c r="J610" s="9">
-        <v>25.35</v>
-      </c>
-    </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611" s="6">
         <v>6</v>
       </c>
@@ -17413,10 +17398,10 @@
         <v>45982</v>
       </c>
       <c r="D611" s="14">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E611" s="9">
-        <v>37</v>
+        <v>44.2</v>
       </c>
       <c r="F611" s="9">
         <v>0</v>
@@ -17425,13 +17410,10 @@
         <v>0</v>
       </c>
       <c r="H611" s="9">
-        <v>15</v>
-      </c>
-      <c r="J611" s="9">
-        <v>35.19</v>
-      </c>
-    </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612" s="6">
         <v>7</v>
       </c>
@@ -17442,10 +17424,10 @@
         <v>45983</v>
       </c>
       <c r="D612" s="14">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E612" s="9">
-        <v>35</v>
+        <v>41.7</v>
       </c>
       <c r="F612" s="9">
         <v>0</v>
@@ -17454,13 +17436,10 @@
         <v>0</v>
       </c>
       <c r="H612" s="9">
-        <v>6</v>
-      </c>
-      <c r="J612" s="9">
-        <v>30.87</v>
-      </c>
-    </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613" s="6">
         <v>1</v>
       </c>
@@ -17471,25 +17450,22 @@
         <v>45984</v>
       </c>
       <c r="D613" s="14">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E613" s="9">
-        <v>39.5</v>
+        <v>44.6</v>
       </c>
       <c r="F613" s="9">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G613" s="9">
         <v>0</v>
       </c>
       <c r="H613" s="9">
-        <v>8</v>
-      </c>
-      <c r="J613" s="9">
-        <v>14.53</v>
-      </c>
-    </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614" s="6">
         <v>2</v>
       </c>
@@ -17500,25 +17476,22 @@
         <v>45985</v>
       </c>
       <c r="D614" s="14">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E614" s="9">
-        <v>36</v>
+        <v>44.1</v>
       </c>
       <c r="F614" s="9">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="G614" s="9">
         <v>0</v>
       </c>
       <c r="H614" s="9">
-        <v>21</v>
-      </c>
-      <c r="J614" s="9">
-        <v>18.04</v>
-      </c>
-    </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A615" s="6">
         <v>3</v>
       </c>
@@ -17529,25 +17502,22 @@
         <v>45986</v>
       </c>
       <c r="D615" s="14">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E615" s="9">
-        <v>35.5</v>
+        <v>48.4</v>
       </c>
       <c r="F615" s="9">
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G615" s="9">
         <v>0</v>
       </c>
       <c r="H615" s="9">
-        <v>22</v>
-      </c>
-      <c r="J615" s="9">
-        <v>20.16</v>
-      </c>
-    </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A616" s="6">
         <v>4</v>
       </c>
@@ -17558,10 +17528,10 @@
         <v>45987</v>
       </c>
       <c r="D616" s="14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E616" s="9">
-        <v>27.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F616" s="9">
         <v>0</v>
@@ -17570,13 +17540,10 @@
         <v>0</v>
       </c>
       <c r="H616" s="9">
-        <v>14</v>
-      </c>
-      <c r="J616" s="9">
-        <v>22.78</v>
-      </c>
-    </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A617" s="6">
         <v>5</v>
       </c>
@@ -17587,10 +17554,10 @@
         <v>45988</v>
       </c>
       <c r="D617" s="14">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E617" s="9">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="F617" s="9">
         <v>0</v>
@@ -17599,16 +17566,13 @@
         <v>0</v>
       </c>
       <c r="H617" s="9">
-        <v>8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I617" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J617" s="9">
-        <v>23.41</v>
-      </c>
-    </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A618" s="6">
         <v>6</v>
       </c>
@@ -17619,10 +17583,10 @@
         <v>45989</v>
       </c>
       <c r="D618" s="14">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E618" s="9">
-        <v>30.5</v>
+        <v>26.6</v>
       </c>
       <c r="F618" s="9">
         <v>0</v>
@@ -17631,16 +17595,13 @@
         <v>0</v>
       </c>
       <c r="H618" s="9">
-        <v>4</v>
+        <v>9.9</v>
       </c>
       <c r="I618" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="J618" s="9">
-        <v>29.07</v>
-      </c>
-    </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A619" s="6">
         <v>7</v>
       </c>
@@ -17651,25 +17612,22 @@
         <v>45990</v>
       </c>
       <c r="D619" s="14">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="E619" s="9">
-        <v>33.5</v>
+        <v>28.6</v>
       </c>
       <c r="F619" s="9">
         <v>0</v>
       </c>
       <c r="G619" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H619" s="9">
-        <v>10</v>
-      </c>
-      <c r="J619" s="9">
-        <v>27.85</v>
-      </c>
-    </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A620" s="6">
         <v>1</v>
       </c>
@@ -17680,10 +17638,10 @@
         <v>45991</v>
       </c>
       <c r="D620" s="14">
-        <v>46</v>
+        <v>68.5</v>
       </c>
       <c r="E620" s="9">
-        <v>30</v>
+        <v>25.7</v>
       </c>
       <c r="F620" s="9">
         <v>0</v>
@@ -17692,13 +17650,14 @@
         <v>0</v>
       </c>
       <c r="H620" s="9">
-        <v>9</v>
+        <v>14.6</v>
       </c>
       <c r="J620" s="9">
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16.700000000000003</v>
+      </c>
+      <c r="Q620" s="40"/>
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A621" s="6">
         <v>2</v>
       </c>
@@ -17709,10 +17668,10 @@
         <v>45992</v>
       </c>
       <c r="D621" s="14">
-        <v>38</v>
+        <v>63.5</v>
       </c>
       <c r="E621" s="9">
-        <v>29.5</v>
+        <v>17.8</v>
       </c>
       <c r="F621" s="9">
         <v>0</v>
@@ -17721,13 +17680,14 @@
         <v>0</v>
       </c>
       <c r="H621" s="9">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="J621" s="9">
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17.355</v>
+      </c>
+      <c r="Q621" s="40"/>
+    </row>
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A622" s="6">
         <v>3</v>
       </c>
@@ -17738,10 +17698,10 @@
         <v>45993</v>
       </c>
       <c r="D622" s="14">
-        <v>41</v>
+        <v>71.5</v>
       </c>
       <c r="E622" s="9">
-        <v>36.5</v>
+        <v>20.8</v>
       </c>
       <c r="F622" s="9">
         <v>0.03</v>
@@ -17750,13 +17710,14 @@
         <v>0</v>
       </c>
       <c r="H622" s="9">
-        <v>16</v>
+        <v>8.1</v>
       </c>
       <c r="J622" s="9">
-        <v>16.09</v>
-      </c>
-    </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12.065</v>
+      </c>
+      <c r="Q622" s="40"/>
+    </row>
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A623" s="6">
         <v>4</v>
       </c>
@@ -17767,10 +17728,10 @@
         <v>45994</v>
       </c>
       <c r="D623" s="14">
-        <v>59</v>
+        <v>91.5</v>
       </c>
       <c r="E623" s="9">
-        <v>36.5</v>
+        <v>27.1</v>
       </c>
       <c r="F623" s="9">
         <v>0</v>
@@ -17779,13 +17740,14 @@
         <v>0</v>
       </c>
       <c r="H623" s="9">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="J623" s="9">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.5300000000000011</v>
+      </c>
+      <c r="Q623" s="40"/>
+    </row>
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A624" s="6">
         <v>5</v>
       </c>
@@ -17796,10 +17758,10 @@
         <v>45995</v>
       </c>
       <c r="D624" s="14">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E624" s="9">
-        <v>36.5</v>
+        <v>25.5</v>
       </c>
       <c r="F624" s="9">
         <v>0</v>
@@ -17808,13 +17770,14 @@
         <v>0</v>
       </c>
       <c r="H624" s="9">
-        <v>6</v>
+        <v>10.4</v>
       </c>
       <c r="J624" s="9">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.82</v>
+      </c>
+      <c r="Q624" s="40"/>
+    </row>
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" s="6">
         <v>6</v>
       </c>
@@ -17825,10 +17788,10 @@
         <v>45996</v>
       </c>
       <c r="D625" s="14">
-        <v>123</v>
+        <v>129.5</v>
       </c>
       <c r="E625" s="9">
-        <v>36</v>
+        <v>26.4</v>
       </c>
       <c r="F625" s="9">
         <v>0</v>
@@ -17837,13 +17800,14 @@
         <v>0</v>
       </c>
       <c r="H625" s="9">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="J625" s="9">
-        <v>33.14</v>
-      </c>
-    </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.71</v>
+      </c>
+      <c r="Q625" s="40"/>
+    </row>
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626" s="6">
         <v>7</v>
       </c>
@@ -17854,10 +17818,10 @@
         <v>45997</v>
       </c>
       <c r="D626" s="14">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E626" s="9">
-        <v>30</v>
+        <v>28.8</v>
       </c>
       <c r="F626" s="9">
         <v>0</v>
@@ -17866,13 +17830,14 @@
         <v>0</v>
       </c>
       <c r="H626" s="9">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="J626" s="9">
-        <v>30.64</v>
-      </c>
-    </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.09</v>
+      </c>
+      <c r="Q626" s="40"/>
+    </row>
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627" s="6">
         <v>1</v>
       </c>
@@ -17883,7 +17848,7 @@
         <v>45998</v>
       </c>
       <c r="D627" s="14">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E627" s="9">
         <v>33</v>
@@ -17898,10 +17863,11 @@
         <v>9</v>
       </c>
       <c r="J627" s="9">
-        <v>29.49</v>
-      </c>
-    </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.9550000000000001</v>
+      </c>
+      <c r="Q627" s="40"/>
+    </row>
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628" s="6">
         <v>2</v>
       </c>
@@ -17912,7 +17878,7 @@
         <v>45999</v>
       </c>
       <c r="D628" s="14">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E628" s="9">
         <v>32</v>
@@ -17927,10 +17893,11 @@
         <v>8</v>
       </c>
       <c r="J628" s="9">
-        <v>15.29</v>
-      </c>
-    </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.82</v>
+      </c>
+      <c r="Q628" s="40"/>
+    </row>
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629" s="6">
         <v>3</v>
       </c>
@@ -17941,7 +17908,7 @@
         <v>46000</v>
       </c>
       <c r="D629" s="14">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E629" s="9">
         <v>28.5</v>
@@ -17956,10 +17923,11 @@
         <v>8</v>
       </c>
       <c r="J629" s="9">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.7200000000000006</v>
+      </c>
+      <c r="Q629" s="40"/>
+    </row>
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630" s="6">
         <v>4</v>
       </c>
@@ -17970,7 +17938,7 @@
         <v>46001</v>
       </c>
       <c r="D630" s="14">
-        <v>74</v>
+        <v>99.5</v>
       </c>
       <c r="E630" s="9">
         <v>32</v>
@@ -17985,10 +17953,11 @@
         <v>7</v>
       </c>
       <c r="J630" s="9">
-        <v>25.52</v>
-      </c>
-    </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.6400000000000006</v>
+      </c>
+      <c r="Q630" s="40"/>
+    </row>
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631" s="6">
         <v>5</v>
       </c>
@@ -17999,7 +17968,7 @@
         <v>46002</v>
       </c>
       <c r="D631" s="14">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E631" s="9">
         <v>27</v>
@@ -18014,10 +17983,11 @@
         <v>15</v>
       </c>
       <c r="J631" s="9">
-        <v>23.61</v>
-      </c>
-    </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.82</v>
+      </c>
+      <c r="Q631" s="40"/>
+    </row>
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A632" s="6">
         <v>6</v>
       </c>
@@ -18028,7 +17998,7 @@
         <v>46003</v>
       </c>
       <c r="D632" s="14">
-        <v>106</v>
+        <v>136.5</v>
       </c>
       <c r="E632" s="9">
         <v>21</v>
@@ -18043,10 +18013,11 @@
         <v>9</v>
       </c>
       <c r="J632" s="9">
-        <v>31.38</v>
-      </c>
-    </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="Q632" s="40"/>
+    </row>
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A633" s="6">
         <v>7</v>
       </c>
@@ -18057,7 +18028,7 @@
         <v>46004</v>
       </c>
       <c r="D633" s="14">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E633" s="9">
         <v>20.5</v>
@@ -18072,10 +18043,11 @@
         <v>7</v>
       </c>
       <c r="J633" s="9">
-        <v>37.049999999999997</v>
-      </c>
-    </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18.299999999999997</v>
+      </c>
+      <c r="Q633" s="40"/>
+    </row>
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634" s="6">
         <v>1</v>
       </c>
@@ -18086,7 +18058,7 @@
         <v>46005</v>
       </c>
       <c r="D634" s="14">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E634" s="9">
         <v>23.5</v>
@@ -18101,10 +18073,11 @@
         <v>17</v>
       </c>
       <c r="J634" s="9">
-        <v>25.17</v>
-      </c>
-    </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18.68</v>
+      </c>
+      <c r="Q634" s="40"/>
+    </row>
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635" s="6">
         <v>2</v>
       </c>
@@ -18115,7 +18088,7 @@
         <v>46006</v>
       </c>
       <c r="D635" s="14">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E635" s="9">
         <v>19</v>
@@ -18130,10 +18103,11 @@
         <v>16</v>
       </c>
       <c r="J635" s="9">
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11.835000000000001</v>
+      </c>
+      <c r="Q635" s="40"/>
+    </row>
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636" s="6">
         <v>3</v>
       </c>
@@ -18144,7 +18118,7 @@
         <v>46007</v>
       </c>
       <c r="D636" s="14">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E636" s="9">
         <v>17.5</v>
@@ -18159,10 +18133,11 @@
         <v>13</v>
       </c>
       <c r="J636" s="9">
-        <v>16.46</v>
-      </c>
-    </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.9400000000000013</v>
+      </c>
+      <c r="Q636" s="40"/>
+    </row>
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637" s="6">
         <v>4</v>
       </c>
@@ -18173,7 +18148,7 @@
         <v>46008</v>
       </c>
       <c r="D637" s="14">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E637" s="9">
         <v>18.5</v>
@@ -18188,10 +18163,11 @@
         <v>6</v>
       </c>
       <c r="J637" s="9">
-        <v>26.85</v>
-      </c>
-    </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11.920000000000002</v>
+      </c>
+      <c r="Q637" s="40"/>
+    </row>
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638" s="6">
         <v>5</v>
       </c>
@@ -18202,7 +18178,7 @@
         <v>46009</v>
       </c>
       <c r="D638" s="14">
-        <v>103</v>
+        <v>142.5</v>
       </c>
       <c r="E638" s="9">
         <v>18</v>
@@ -18217,10 +18193,11 @@
         <v>4</v>
       </c>
       <c r="J638" s="9">
-        <v>35.46</v>
-      </c>
-    </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14.405000000000001</v>
+      </c>
+      <c r="Q638" s="40"/>
+    </row>
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A639" s="6">
         <v>6</v>
       </c>
@@ -18231,7 +18208,7 @@
         <v>46010</v>
       </c>
       <c r="D639" s="14">
-        <v>155</v>
+        <v>191.5</v>
       </c>
       <c r="E639" s="9">
         <v>29.5</v>
@@ -18246,10 +18223,11 @@
         <v>2</v>
       </c>
       <c r="J639" s="9">
-        <v>39.18</v>
-      </c>
-    </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.68</v>
+      </c>
+      <c r="Q639" s="40"/>
+    </row>
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A640" s="6">
         <v>7</v>
       </c>
@@ -18260,7 +18238,7 @@
         <v>46011</v>
       </c>
       <c r="D640" s="14">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="E640" s="9">
         <v>30</v>
@@ -18275,10 +18253,11 @@
         <v>5</v>
       </c>
       <c r="J640" s="9">
-        <v>33.11</v>
-      </c>
-    </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="Q640" s="40"/>
+    </row>
+    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A641" s="6">
         <v>1</v>
       </c>
@@ -18289,7 +18268,7 @@
         <v>46012</v>
       </c>
       <c r="D641" s="14">
-        <v>95</v>
+        <v>131.5</v>
       </c>
       <c r="E641" s="9">
         <v>29.5</v>
@@ -18304,10 +18283,11 @@
         <v>9</v>
       </c>
       <c r="J641" s="9">
-        <v>39.630000000000003</v>
-      </c>
-    </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19.645</v>
+      </c>
+      <c r="Q641" s="40"/>
+    </row>
+    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A642" s="6">
         <v>2</v>
       </c>
@@ -18318,7 +18298,7 @@
         <v>46013</v>
       </c>
       <c r="D642" s="14">
-        <v>73</v>
+        <v>114.5</v>
       </c>
       <c r="E642" s="9">
         <v>23</v>
@@ -18333,10 +18313,11 @@
         <v>2</v>
       </c>
       <c r="J642" s="9">
-        <v>23.58</v>
-      </c>
-    </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17.055</v>
+      </c>
+      <c r="Q642" s="40"/>
+    </row>
+    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A643" s="6">
         <v>3</v>
       </c>
@@ -18347,7 +18328,7 @@
         <v>46014</v>
       </c>
       <c r="D643" s="14">
-        <v>70</v>
+        <v>100.5</v>
       </c>
       <c r="E643" s="9">
         <v>22</v>
@@ -18362,10 +18343,11 @@
         <v>10</v>
       </c>
       <c r="J643" s="9">
-        <v>28.43</v>
-      </c>
-    </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13.83</v>
+      </c>
+      <c r="Q643" s="40"/>
+    </row>
+    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A644" s="6">
         <v>4</v>
       </c>
@@ -18376,7 +18358,7 @@
         <v>46015</v>
       </c>
       <c r="D644" s="14">
-        <v>107</v>
+        <v>126.5</v>
       </c>
       <c r="E644" s="9">
         <v>20.5</v>
@@ -18394,10 +18376,11 @@
         <v>27</v>
       </c>
       <c r="J644" s="9">
-        <v>48.91</v>
-      </c>
-    </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28.405000000000001</v>
+      </c>
+      <c r="Q644" s="40"/>
+    </row>
+    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A645" s="6">
         <v>5</v>
       </c>
@@ -18408,7 +18391,7 @@
         <v>46016</v>
       </c>
       <c r="D645" s="14">
-        <v>17</v>
+        <v>46.5</v>
       </c>
       <c r="E645" s="9">
         <v>20.5</v>
@@ -18426,10 +18409,11 @@
         <v>28</v>
       </c>
       <c r="J645" s="9">
-        <v>13.82</v>
-      </c>
-    </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31.355</v>
+      </c>
+      <c r="Q645" s="40"/>
+    </row>
+    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A646" s="6">
         <v>6</v>
       </c>
@@ -18440,7 +18424,7 @@
         <v>46017</v>
       </c>
       <c r="D646" s="14">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E646" s="9">
         <v>15.5</v>
@@ -18458,10 +18442,11 @@
         <v>29</v>
       </c>
       <c r="J646" s="9">
-        <v>21.61</v>
-      </c>
-    </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30.824999999999999</v>
+      </c>
+      <c r="Q646" s="40"/>
+    </row>
+    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A647" s="6">
         <v>7</v>
       </c>
@@ -18472,7 +18457,7 @@
         <v>46018</v>
       </c>
       <c r="D647" s="14">
-        <v>160</v>
+        <v>205.5</v>
       </c>
       <c r="E647" s="9">
         <v>17</v>
@@ -18487,10 +18472,11 @@
         <v>6</v>
       </c>
       <c r="J647" s="9">
-        <v>42.17</v>
-      </c>
-    </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+      <c r="Q647" s="40"/>
+    </row>
+    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A648" s="6">
         <v>1</v>
       </c>
@@ -18501,7 +18487,7 @@
         <v>46019</v>
       </c>
       <c r="D648" s="14">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E648" s="9">
         <v>21</v>
@@ -18516,10 +18502,11 @@
         <v>4</v>
       </c>
       <c r="J648" s="9">
-        <v>17.940000000000001</v>
-      </c>
-    </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q648" s="40"/>
+    </row>
+    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A649" s="6">
         <v>2</v>
       </c>
@@ -18530,7 +18517,7 @@
         <v>46020</v>
       </c>
       <c r="D649" s="14">
-        <v>75</v>
+        <v>113.5</v>
       </c>
       <c r="E649" s="9">
         <v>23</v>
@@ -18545,10 +18532,11 @@
         <v>8</v>
       </c>
       <c r="J649" s="9">
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17.34</v>
+      </c>
+      <c r="Q649" s="40"/>
+    </row>
+    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A650" s="6">
         <v>3</v>
       </c>
@@ -18559,7 +18547,7 @@
         <v>46021</v>
       </c>
       <c r="D650" s="14">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E650" s="9">
         <v>21.5</v>
@@ -18574,10 +18562,11 @@
         <v>6</v>
       </c>
       <c r="J650" s="9">
-        <v>23.37</v>
-      </c>
-    </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.26</v>
+      </c>
+      <c r="Q650" s="40"/>
+    </row>
+    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A651" s="6">
         <v>4</v>
       </c>
@@ -18588,7 +18577,7 @@
         <v>46022</v>
       </c>
       <c r="D651" s="14">
-        <v>132</v>
+        <v>158.5</v>
       </c>
       <c r="E651" s="9">
         <v>19</v>
@@ -18606,8 +18595,9 @@
         <v>30</v>
       </c>
       <c r="J651" s="9">
-        <v>56.01</v>
-      </c>
+        <v>34.725000000000001</v>
+      </c>
+      <c r="Q651" s="40"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A651">
@@ -18627,8 +18617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B165" activeCellId="1" sqref="A164:XFD164 A165:XFD165"/>
+    <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O166" sqref="O166:P197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18638,40 +18628,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="51">
+      <c r="C2" s="53">
         <v>0.85</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
       <c r="O2" s="19" t="s">
         <v>39</v>
       </c>
@@ -26467,47 +26457,47 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="59">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>34</v>
       </c>
-      <c r="B146" s="60">
+      <c r="B146" s="23">
         <v>45971</v>
       </c>
-      <c r="C146" s="59">
+      <c r="C146">
         <v>45</v>
       </c>
-      <c r="D146" s="59">
+      <c r="D146">
         <v>42</v>
       </c>
-      <c r="E146" s="59">
+      <c r="E146">
         <v>47</v>
       </c>
-      <c r="F146" s="59">
+      <c r="F146">
         <v>44</v>
       </c>
-      <c r="G146" s="59">
+      <c r="G146">
         <v>45</v>
       </c>
-      <c r="H146" s="59">
+      <c r="H146">
         <v>52</v>
       </c>
-      <c r="I146" s="59">
+      <c r="I146">
         <v>43</v>
       </c>
-      <c r="J146" s="59">
+      <c r="J146">
         <v>45</v>
       </c>
-      <c r="K146" s="59">
+      <c r="K146">
         <v>51</v>
       </c>
-      <c r="L146" s="59">
+      <c r="L146">
         <v>49</v>
       </c>
-      <c r="M146" s="59">
+      <c r="M146">
         <v>48</v>
       </c>
-      <c r="N146" s="59">
+      <c r="N146">
         <v>48</v>
       </c>
       <c r="O146" s="21">
@@ -26518,18 +26508,18 @@
         <f t="shared" si="27"/>
         <v>2.98</v>
       </c>
-      <c r="R146" s="62">
+      <c r="R146" s="27">
         <f t="shared" si="29"/>
         <v>13</v>
       </c>
-      <c r="S146" s="59">
+      <c r="S146">
         <f t="shared" si="28"/>
         <v>1.3823529411764706</v>
       </c>
-      <c r="T146" s="59">
+      <c r="T146">
         <v>46</v>
       </c>
-      <c r="U146" s="59">
+      <c r="U146">
         <v>47</v>
       </c>
     </row>
@@ -26584,11 +26574,11 @@
         <f t="shared" si="27"/>
         <v>7.39</v>
       </c>
-      <c r="R147" s="62">
+      <c r="R147" s="27">
         <f t="shared" si="29"/>
         <v>15</v>
       </c>
-      <c r="S147" s="59">
+      <c r="S147">
         <f t="shared" si="28"/>
         <v>1.4411764705882353</v>
       </c>
@@ -26600,7 +26590,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A148" s="59">
+      <c r="A148">
         <v>22</v>
       </c>
       <c r="B148" s="23">
@@ -26650,11 +26640,11 @@
         <f t="shared" si="27"/>
         <v>3.88</v>
       </c>
-      <c r="R148" s="62">
+      <c r="R148" s="27">
         <f t="shared" si="29"/>
         <v>46</v>
       </c>
-      <c r="S148" s="59">
+      <c r="S148">
         <f t="shared" si="28"/>
         <v>3.0909090909090908</v>
       </c>
@@ -26716,11 +26706,11 @@
         <f t="shared" si="27"/>
         <v>6.11</v>
       </c>
-      <c r="R149" s="62">
+      <c r="R149" s="27">
         <f t="shared" si="29"/>
         <v>28</v>
       </c>
-      <c r="S149" s="59">
+      <c r="S149">
         <f t="shared" si="28"/>
         <v>1.358974358974359</v>
       </c>
@@ -26732,7 +26722,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A150" s="59">
+      <c r="A150">
         <v>110</v>
       </c>
       <c r="B150" s="23">
@@ -26782,11 +26772,11 @@
         <f t="shared" si="27"/>
         <v>1.96</v>
       </c>
-      <c r="R150" s="62">
+      <c r="R150" s="27">
         <f t="shared" si="29"/>
         <v>40</v>
       </c>
-      <c r="S150" s="59">
+      <c r="S150">
         <f t="shared" si="28"/>
         <v>1.3636363636363635</v>
       </c>
@@ -26797,62 +26787,76 @@
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="28">
+    <row r="151" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="61">
+        <v>178</v>
+      </c>
+      <c r="B151" s="62">
         <v>45976</v>
       </c>
-      <c r="C151" s="29">
+      <c r="C151" s="63">
         <v>197</v>
       </c>
-      <c r="D151" s="29">
+      <c r="D151" s="63">
         <v>193</v>
       </c>
-      <c r="E151" s="29">
+      <c r="E151" s="63">
         <v>190</v>
       </c>
-      <c r="F151" s="29">
+      <c r="F151" s="63">
         <v>192</v>
       </c>
-      <c r="G151" s="29">
+      <c r="G151" s="63">
         <v>182</v>
       </c>
-      <c r="H151" s="29">
+      <c r="H151" s="63">
         <v>182</v>
       </c>
-      <c r="I151" s="29">
+      <c r="I151" s="63">
         <v>194</v>
       </c>
-      <c r="J151" s="29">
+      <c r="J151" s="63">
         <v>194</v>
       </c>
-      <c r="K151" s="29">
+      <c r="K151" s="63">
         <v>188</v>
       </c>
-      <c r="L151" s="29">
+      <c r="L151" s="63">
         <v>195</v>
       </c>
-      <c r="M151" s="29">
+      <c r="M151" s="63">
         <v>196</v>
       </c>
-      <c r="N151" s="29">
+      <c r="N151" s="63">
         <v>190</v>
       </c>
-      <c r="O151" s="30">
+      <c r="O151" s="64">
         <f t="shared" si="26"/>
         <v>191</v>
       </c>
-      <c r="P151" s="30">
+      <c r="P151" s="64">
         <f t="shared" si="27"/>
         <v>4.7699999999999996</v>
       </c>
-      <c r="T151" s="29">
+      <c r="R151" s="65">
+        <f t="shared" ref="R151:R165" si="30">O151-A151</f>
+        <v>13</v>
+      </c>
+      <c r="S151" s="63">
+        <f t="shared" ref="S151:S165" si="31">O151/A151</f>
+        <v>1.0730337078651686</v>
+      </c>
+      <c r="T151" s="63">
         <v>190</v>
       </c>
-      <c r="U151" s="29">
+      <c r="U151" s="63">
         <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="14">
+        <v>59</v>
+      </c>
       <c r="B152" s="23">
         <v>45977</v>
       </c>
@@ -26900,6 +26904,14 @@
         <f t="shared" si="27"/>
         <v>9.6999999999999993</v>
       </c>
+      <c r="R152" s="27">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
       <c r="T152">
         <v>58</v>
       </c>
@@ -26908,6 +26920,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="14">
+        <v>55</v>
+      </c>
       <c r="B153" s="23">
         <v>45978</v>
       </c>
@@ -26955,6 +26970,14 @@
         <f t="shared" si="27"/>
         <v>2.91</v>
       </c>
+      <c r="R153" s="27">
+        <f t="shared" si="30"/>
+        <v>-12</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="31"/>
+        <v>0.78181818181818186</v>
+      </c>
       <c r="T153">
         <v>47</v>
       </c>
@@ -26963,6 +26986,9 @@
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="14">
+        <v>62</v>
+      </c>
       <c r="B154" s="23">
         <v>45979</v>
       </c>
@@ -27010,6 +27036,14 @@
         <f t="shared" si="27"/>
         <v>2.92</v>
       </c>
+      <c r="R154" s="27">
+        <f t="shared" si="30"/>
+        <v>-11</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="31"/>
+        <v>0.82258064516129037</v>
+      </c>
       <c r="T154">
         <v>51</v>
       </c>
@@ -27018,6 +27052,9 @@
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="14">
+        <v>49</v>
+      </c>
       <c r="B155" s="23">
         <v>45980</v>
       </c>
@@ -27065,6 +27102,14 @@
         <f t="shared" si="27"/>
         <v>6.41</v>
       </c>
+      <c r="R155" s="27">
+        <f t="shared" si="30"/>
+        <v>26</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="31"/>
+        <v>1.5306122448979591</v>
+      </c>
       <c r="T155">
         <v>77</v>
       </c>
@@ -27073,6 +27118,9 @@
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="14">
+        <v>48</v>
+      </c>
       <c r="B156" s="23">
         <v>45981</v>
       </c>
@@ -27120,6 +27168,14 @@
         <f t="shared" si="27"/>
         <v>5.65</v>
       </c>
+      <c r="R156" s="27">
+        <f t="shared" si="30"/>
+        <v>53</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="31"/>
+        <v>2.1041666666666665</v>
+      </c>
       <c r="T156">
         <v>106</v>
       </c>
@@ -27128,6 +27184,9 @@
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
+        <v>115</v>
+      </c>
       <c r="B157" s="23">
         <v>45982</v>
       </c>
@@ -27175,6 +27234,14 @@
         <f t="shared" si="27"/>
         <v>9.7200000000000006</v>
       </c>
+      <c r="R157" s="27">
+        <f t="shared" si="30"/>
+        <v>34</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="31"/>
+        <v>1.2956521739130435</v>
+      </c>
       <c r="T157">
         <v>141</v>
       </c>
@@ -27183,6 +27250,9 @@
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="14">
+        <v>155</v>
+      </c>
       <c r="B158" s="23">
         <v>45983</v>
       </c>
@@ -27230,6 +27300,14 @@
         <f t="shared" si="27"/>
         <v>6.51</v>
       </c>
+      <c r="R158" s="27">
+        <f t="shared" si="30"/>
+        <v>35</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="31"/>
+        <v>1.2258064516129032</v>
+      </c>
       <c r="T158">
         <v>192</v>
       </c>
@@ -27238,6 +27316,9 @@
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="14">
+        <v>38</v>
+      </c>
       <c r="B159" s="23">
         <v>45984</v>
       </c>
@@ -27285,6 +27366,14 @@
         <f t="shared" si="27"/>
         <v>1.98</v>
       </c>
+      <c r="R159" s="27">
+        <f t="shared" si="30"/>
+        <v>18</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="31"/>
+        <v>1.4736842105263157</v>
+      </c>
       <c r="T159">
         <v>55</v>
       </c>
@@ -27293,6 +27382,9 @@
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
+        <v>39</v>
+      </c>
       <c r="B160" s="23">
         <v>45985</v>
       </c>
@@ -27340,6 +27432,14 @@
         <f t="shared" si="27"/>
         <v>10.86</v>
       </c>
+      <c r="R160" s="27">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="31"/>
+        <v>1.358974358974359</v>
+      </c>
       <c r="T160">
         <v>57</v>
       </c>
@@ -27347,7 +27447,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="14">
+        <v>41</v>
+      </c>
       <c r="B161" s="23">
         <v>45986</v>
       </c>
@@ -27395,6 +27498,14 @@
         <f t="shared" si="27"/>
         <v>9.43</v>
       </c>
+      <c r="R161" s="27">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="31"/>
+        <v>1.4634146341463414</v>
+      </c>
       <c r="T161">
         <v>65</v>
       </c>
@@ -27402,7 +27513,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="14">
+        <v>34</v>
+      </c>
       <c r="B162" s="23">
         <v>45987</v>
       </c>
@@ -27450,6 +27564,14 @@
         <f t="shared" si="27"/>
         <v>9.27</v>
       </c>
+      <c r="R162" s="27">
+        <f t="shared" si="30"/>
+        <v>40</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="31"/>
+        <v>2.1764705882352939</v>
+      </c>
       <c r="T162">
         <v>75</v>
       </c>
@@ -27457,7 +27579,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="14">
+        <v>0</v>
+      </c>
       <c r="B163" s="23">
         <v>45988</v>
       </c>
@@ -27505,6 +27630,14 @@
         <f t="shared" si="27"/>
         <v>4.3899999999999997</v>
       </c>
+      <c r="R163" s="27">
+        <f t="shared" si="30"/>
+        <v>89</v>
+      </c>
+      <c r="S163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T163">
         <v>92</v>
       </c>
@@ -27512,7 +27645,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="14">
+        <v>20</v>
+      </c>
       <c r="B164" s="23">
         <v>45989</v>
       </c>
@@ -27560,6 +27696,14 @@
         <f t="shared" si="27"/>
         <v>10.35</v>
       </c>
+      <c r="R164" s="27">
+        <f t="shared" si="30"/>
+        <v>114</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="31"/>
+        <v>6.7</v>
+      </c>
       <c r="T164">
         <v>147</v>
       </c>
@@ -27567,7 +27711,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="165" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="14">
+        <v>52</v>
+      </c>
       <c r="B165" s="23">
         <v>45990</v>
       </c>
@@ -27615,6 +27762,14 @@
         <f t="shared" si="27"/>
         <v>3.01</v>
       </c>
+      <c r="R165" s="27">
+        <f t="shared" si="30"/>
+        <v>122</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="31"/>
+        <v>3.3461538461538463</v>
+      </c>
       <c r="T165">
         <v>174</v>
       </c>
@@ -27622,337 +27777,337 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B166" s="23">
+    <row r="166" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="28">
         <v>45991</v>
       </c>
-      <c r="C166">
-        <v>63</v>
-      </c>
-      <c r="D166">
+      <c r="C166" s="29">
+        <v>75</v>
+      </c>
+      <c r="D166" s="29">
+        <v>97</v>
+      </c>
+      <c r="E166" s="29">
+        <v>57</v>
+      </c>
+      <c r="F166" s="29">
+        <v>56</v>
+      </c>
+      <c r="G166" s="29">
+        <v>43</v>
+      </c>
+      <c r="H166" s="29">
+        <v>49</v>
+      </c>
+      <c r="I166" s="29">
+        <v>60</v>
+      </c>
+      <c r="J166" s="29">
+        <v>69</v>
+      </c>
+      <c r="K166" s="29">
+        <v>97</v>
+      </c>
+      <c r="L166" s="29">
+        <v>78</v>
+      </c>
+      <c r="M166" s="29">
+        <v>79</v>
+      </c>
+      <c r="N166" s="29">
+        <v>82</v>
+      </c>
+      <c r="O166" s="30">
+        <f>ROUND(AVERAGE(C166:N166,T166,U166),0)</f>
+        <v>70</v>
+      </c>
+      <c r="P166" s="30">
+        <f>ROUND(_xlfn.STDEV.P(C166:N166,T166,U166),2)</f>
+        <v>15.64</v>
+      </c>
+      <c r="T166" s="29">
+        <v>70</v>
+      </c>
+      <c r="U166" s="29">
         <v>66</v>
       </c>
-      <c r="E166">
-        <v>52</v>
-      </c>
-      <c r="F166">
-        <v>59</v>
-      </c>
-      <c r="G166">
-        <v>66</v>
-      </c>
-      <c r="H166">
-        <v>55</v>
-      </c>
-      <c r="I166">
-        <v>62</v>
-      </c>
-      <c r="J166">
-        <v>64</v>
-      </c>
-      <c r="K166">
-        <v>60</v>
-      </c>
-      <c r="L166">
-        <v>65</v>
-      </c>
-      <c r="M166">
-        <v>63</v>
-      </c>
-      <c r="N166">
-        <v>66</v>
-      </c>
-      <c r="O166" s="21">
-        <f t="shared" si="26"/>
-        <v>62</v>
-      </c>
-      <c r="P166" s="21">
-        <f t="shared" si="27"/>
-        <v>4.32</v>
-      </c>
-      <c r="T166">
-        <v>63</v>
-      </c>
-      <c r="U166">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="167" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B167" s="23">
         <v>45992</v>
       </c>
       <c r="C167">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D167">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E167">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F167">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G167">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H167">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I167">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J167">
+        <v>63</v>
+      </c>
+      <c r="K167">
+        <v>45</v>
+      </c>
+      <c r="L167">
+        <v>43</v>
+      </c>
+      <c r="M167">
+        <v>48</v>
+      </c>
+      <c r="N167">
+        <v>48</v>
+      </c>
+      <c r="O167" s="21">
+        <f>ROUND(AVERAGE(C167:N167,T167:U167),0)</f>
         <v>55</v>
       </c>
-      <c r="K167">
-        <v>51</v>
-      </c>
-      <c r="L167">
-        <v>48</v>
-      </c>
-      <c r="M167">
-        <v>52</v>
-      </c>
-      <c r="N167">
-        <v>53</v>
-      </c>
-      <c r="O167" s="21">
-        <f t="shared" si="26"/>
-        <v>51</v>
-      </c>
       <c r="P167" s="21">
-        <f t="shared" si="27"/>
-        <v>3.12</v>
+        <f>ROUND(_xlfn.STDEV.P(C167:N167,T167:U167),2)</f>
+        <v>8.9600000000000009</v>
       </c>
       <c r="T167">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="U167">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="168" spans="2:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B168" s="23">
         <v>45993</v>
       </c>
       <c r="C168">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D168">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E168">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F168">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G168">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H168">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="I168">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J168">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="K168">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L168">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M168">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N168">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O168" s="21">
-        <f t="shared" si="26"/>
-        <v>49</v>
+        <f t="shared" ref="O168:O197" si="32">ROUND(AVERAGE(C168:N168,T168:U168),0)</f>
+        <v>64</v>
       </c>
       <c r="P168" s="21">
-        <f t="shared" si="27"/>
-        <v>6.32</v>
+        <f t="shared" ref="P168:P197" si="33">ROUND(_xlfn.STDEV.P(C168:N168,T168:U168),2)</f>
+        <v>5</v>
       </c>
       <c r="T168">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="U168">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="169" spans="2:21" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B169" s="23">
         <v>45994</v>
       </c>
       <c r="C169">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D169">
+        <v>94</v>
+      </c>
+      <c r="E169">
         <v>76</v>
       </c>
-      <c r="E169">
-        <v>70</v>
-      </c>
       <c r="F169">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G169">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H169">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I169">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="J169">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="K169">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="L169">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="M169">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="N169">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O169" s="21">
-        <f t="shared" si="26"/>
-        <v>73</v>
+        <f t="shared" si="32"/>
+        <v>89</v>
       </c>
       <c r="P169" s="21">
-        <f t="shared" si="27"/>
-        <v>6.6</v>
+        <f t="shared" si="33"/>
+        <v>10.16</v>
       </c>
       <c r="T169">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="U169">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="170" spans="2:21" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B170" s="23">
         <v>45995</v>
       </c>
       <c r="C170">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D170">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E170">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F170">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G170">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="H170">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I170">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J170">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K170">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L170">
         <v>113</v>
       </c>
       <c r="M170">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="N170">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="O170" s="21">
-        <f t="shared" si="26"/>
-        <v>108</v>
+        <f t="shared" si="32"/>
+        <v>96</v>
       </c>
       <c r="P170" s="21">
-        <f t="shared" si="27"/>
-        <v>4.1100000000000003</v>
+        <f t="shared" si="33"/>
+        <v>7.81</v>
       </c>
       <c r="T170">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="U170">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="171" spans="2:21" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B171" s="23">
         <v>45996</v>
       </c>
       <c r="C171">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D171">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E171">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="F171">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G171">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="H171">
         <v>136</v>
       </c>
       <c r="I171">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J171">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K171">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="L171">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="M171">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="N171">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="O171" s="21">
-        <f t="shared" si="26"/>
-        <v>149</v>
+        <f t="shared" si="32"/>
+        <v>130</v>
       </c>
       <c r="P171" s="21">
-        <f t="shared" si="27"/>
-        <v>6.77</v>
+        <f t="shared" si="33"/>
+        <v>6.35</v>
       </c>
       <c r="T171">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="U171">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="172" spans="2:21" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B172" s="23">
         <v>45997</v>
       </c>
@@ -27960,271 +28115,271 @@
         <v>177</v>
       </c>
       <c r="D172">
+        <v>174</v>
+      </c>
+      <c r="E172">
+        <v>155</v>
+      </c>
+      <c r="F172">
+        <v>175</v>
+      </c>
+      <c r="G172">
+        <v>157</v>
+      </c>
+      <c r="H172">
+        <v>177</v>
+      </c>
+      <c r="I172">
+        <v>170</v>
+      </c>
+      <c r="J172">
+        <v>184</v>
+      </c>
+      <c r="K172">
+        <v>174</v>
+      </c>
+      <c r="L172">
+        <v>177</v>
+      </c>
+      <c r="M172">
+        <v>171</v>
+      </c>
+      <c r="N172">
         <v>173</v>
       </c>
-      <c r="E172">
-        <v>176</v>
-      </c>
-      <c r="F172">
-        <v>178</v>
-      </c>
-      <c r="G172">
-        <v>178</v>
-      </c>
-      <c r="H172">
+      <c r="O172" s="21">
+        <f t="shared" si="32"/>
         <v>172</v>
       </c>
-      <c r="I172">
-        <v>177</v>
-      </c>
-      <c r="J172">
-        <v>187</v>
-      </c>
-      <c r="K172">
-        <v>177</v>
-      </c>
-      <c r="L172">
-        <v>180</v>
-      </c>
-      <c r="M172">
-        <v>177</v>
-      </c>
-      <c r="N172">
-        <v>176</v>
-      </c>
-      <c r="O172" s="21">
-        <f t="shared" si="26"/>
-        <v>177</v>
-      </c>
       <c r="P172" s="21">
-        <f t="shared" si="27"/>
-        <v>3.57</v>
+        <f t="shared" si="33"/>
+        <v>7.4</v>
       </c>
       <c r="T172">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="U172">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" spans="2:21" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B173" s="23">
         <v>45998</v>
       </c>
       <c r="C173">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D173">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E173">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F173">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G173">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H173">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I173">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J173">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K173">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L173">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M173">
         <v>94</v>
       </c>
       <c r="N173">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O173" s="21">
-        <f t="shared" si="26"/>
-        <v>83</v>
+        <f t="shared" si="32"/>
+        <v>84</v>
       </c>
       <c r="P173" s="21">
-        <f t="shared" si="27"/>
-        <v>14.37</v>
+        <f t="shared" si="33"/>
+        <v>11.68</v>
       </c>
       <c r="T173">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U173">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="174" spans="2:21" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B174" s="23">
         <v>45999</v>
       </c>
       <c r="C174">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D174">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E174">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F174">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G174">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H174">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I174">
+        <v>54</v>
+      </c>
+      <c r="J174">
         <v>62</v>
-      </c>
-      <c r="J174">
-        <v>57</v>
       </c>
       <c r="K174">
         <v>54</v>
       </c>
       <c r="L174">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M174">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N174">
+        <v>57</v>
+      </c>
+      <c r="O174" s="21">
+        <f t="shared" si="32"/>
+        <v>57</v>
+      </c>
+      <c r="P174" s="21">
+        <f t="shared" si="33"/>
+        <v>4.07</v>
+      </c>
+      <c r="T174">
         <v>59</v>
-      </c>
-      <c r="O174" s="21">
-        <f t="shared" si="26"/>
-        <v>55</v>
-      </c>
-      <c r="P174" s="21">
-        <f t="shared" si="27"/>
-        <v>3.32</v>
-      </c>
-      <c r="T174">
-        <v>56</v>
       </c>
       <c r="U174">
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B175" s="23">
         <v>46000</v>
       </c>
       <c r="C175">
+        <v>67</v>
+      </c>
+      <c r="D175">
+        <v>65</v>
+      </c>
+      <c r="E175">
+        <v>62</v>
+      </c>
+      <c r="F175">
         <v>71</v>
       </c>
-      <c r="D175">
+      <c r="G175">
+        <v>60</v>
+      </c>
+      <c r="H175">
+        <v>69</v>
+      </c>
+      <c r="I175">
+        <v>63</v>
+      </c>
+      <c r="J175">
+        <v>74</v>
+      </c>
+      <c r="K175">
+        <v>66</v>
+      </c>
+      <c r="L175">
         <v>68</v>
       </c>
-      <c r="E175">
-        <v>61</v>
-      </c>
-      <c r="F175">
-        <v>67</v>
-      </c>
-      <c r="G175">
-        <v>61</v>
-      </c>
-      <c r="H175">
-        <v>58</v>
-      </c>
-      <c r="I175">
-        <v>67</v>
-      </c>
-      <c r="J175">
-        <v>68</v>
-      </c>
-      <c r="K175">
-        <v>71</v>
-      </c>
-      <c r="L175">
-        <v>69</v>
-      </c>
       <c r="M175">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N175">
         <v>68</v>
       </c>
       <c r="O175" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
+        <v>67</v>
+      </c>
+      <c r="P175" s="21">
+        <f t="shared" si="33"/>
+        <v>3.49</v>
+      </c>
+      <c r="T175">
         <v>66</v>
       </c>
-      <c r="P175" s="21">
-        <f t="shared" si="27"/>
-        <v>3.97</v>
-      </c>
-      <c r="T175">
-        <v>65</v>
-      </c>
       <c r="U175">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="176" spans="2:21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B176" s="23">
         <v>46001</v>
       </c>
       <c r="C176">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D176">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E176">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F176">
         <v>97</v>
       </c>
       <c r="G176">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H176">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I176">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J176">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K176">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L176">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M176">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N176">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O176" s="21">
-        <f t="shared" si="26"/>
-        <v>93</v>
+        <f t="shared" si="32"/>
+        <v>95</v>
       </c>
       <c r="P176" s="21">
-        <f t="shared" si="27"/>
-        <v>7.52</v>
+        <f t="shared" si="33"/>
+        <v>7.91</v>
       </c>
       <c r="T176">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U176">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="2:21" x14ac:dyDescent="0.25">
@@ -28232,54 +28387,54 @@
         <v>46002</v>
       </c>
       <c r="C177">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D177">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E177">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F177">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G177">
         <v>75</v>
       </c>
       <c r="H177">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I177">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J177">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K177">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L177">
+        <v>97</v>
+      </c>
+      <c r="M177">
         <v>92</v>
-      </c>
-      <c r="M177">
-        <v>85</v>
       </c>
       <c r="N177">
         <v>90</v>
       </c>
       <c r="O177" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>88</v>
       </c>
       <c r="P177" s="21">
-        <f t="shared" si="27"/>
-        <v>6.32</v>
+        <f t="shared" si="33"/>
+        <v>6.72</v>
       </c>
       <c r="T177">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U177">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="178" spans="2:21" x14ac:dyDescent="0.25">
@@ -28287,54 +28442,54 @@
         <v>46003</v>
       </c>
       <c r="C178">
+        <v>134</v>
+      </c>
+      <c r="D178">
+        <v>130</v>
+      </c>
+      <c r="E178">
+        <v>118</v>
+      </c>
+      <c r="F178">
+        <v>142</v>
+      </c>
+      <c r="G178">
+        <v>125</v>
+      </c>
+      <c r="H178">
+        <v>142</v>
+      </c>
+      <c r="I178">
         <v>133</v>
       </c>
-      <c r="D178">
+      <c r="J178">
+        <v>144</v>
+      </c>
+      <c r="K178">
         <v>132</v>
       </c>
-      <c r="E178">
-        <v>135</v>
-      </c>
-      <c r="F178">
+      <c r="L178">
+        <v>137</v>
+      </c>
+      <c r="M178">
         <v>133</v>
       </c>
-      <c r="G178">
-        <v>131</v>
-      </c>
-      <c r="H178">
-        <v>131</v>
-      </c>
-      <c r="I178">
+      <c r="N178">
+        <v>134</v>
+      </c>
+      <c r="O178" s="21">
+        <f t="shared" si="32"/>
+        <v>133</v>
+      </c>
+      <c r="P178" s="21">
+        <f t="shared" si="33"/>
+        <v>6.54</v>
+      </c>
+      <c r="T178">
         <v>132</v>
       </c>
-      <c r="J178">
-        <v>139</v>
-      </c>
-      <c r="K178">
-        <v>134</v>
-      </c>
-      <c r="L178">
-        <v>134</v>
-      </c>
-      <c r="M178">
-        <v>134</v>
-      </c>
-      <c r="N178">
-        <v>135</v>
-      </c>
-      <c r="O178" s="21">
-        <f t="shared" si="26"/>
-        <v>134</v>
-      </c>
-      <c r="P178" s="21">
-        <f t="shared" si="27"/>
-        <v>2.1</v>
-      </c>
-      <c r="T178">
-        <v>134</v>
-      </c>
       <c r="U178">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179" spans="2:21" x14ac:dyDescent="0.25">
@@ -28342,54 +28497,54 @@
         <v>46004</v>
       </c>
       <c r="C179">
+        <v>191</v>
+      </c>
+      <c r="D179">
+        <v>179</v>
+      </c>
+      <c r="E179">
+        <v>164</v>
+      </c>
+      <c r="F179">
+        <v>190</v>
+      </c>
+      <c r="G179">
+        <v>177</v>
+      </c>
+      <c r="H179">
+        <v>188</v>
+      </c>
+      <c r="I179">
+        <v>184</v>
+      </c>
+      <c r="J179">
+        <v>203</v>
+      </c>
+      <c r="K179">
+        <v>188</v>
+      </c>
+      <c r="L179">
+        <v>192</v>
+      </c>
+      <c r="M179">
+        <v>187</v>
+      </c>
+      <c r="N179">
         <v>186</v>
       </c>
-      <c r="D179">
-        <v>192</v>
-      </c>
-      <c r="E179">
-        <v>177</v>
-      </c>
-      <c r="F179">
-        <v>180</v>
-      </c>
-      <c r="G179">
-        <v>169</v>
-      </c>
-      <c r="H179">
-        <v>173</v>
-      </c>
-      <c r="I179">
-        <v>177</v>
-      </c>
-      <c r="J179">
-        <v>191</v>
-      </c>
-      <c r="K179">
-        <v>189</v>
-      </c>
-      <c r="L179">
-        <v>196</v>
-      </c>
-      <c r="M179">
-        <v>180</v>
-      </c>
-      <c r="N179">
-        <v>189</v>
-      </c>
       <c r="O179" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
+        <v>185</v>
+      </c>
+      <c r="P179" s="21">
+        <f t="shared" si="33"/>
+        <v>8.61</v>
+      </c>
+      <c r="T179">
+        <v>179</v>
+      </c>
+      <c r="U179">
         <v>183</v>
-      </c>
-      <c r="P179" s="21">
-        <f t="shared" si="27"/>
-        <v>8.06</v>
-      </c>
-      <c r="T179">
-        <v>184</v>
-      </c>
-      <c r="U179">
-        <v>177</v>
       </c>
     </row>
     <row r="180" spans="2:21" x14ac:dyDescent="0.25">
@@ -28397,54 +28552,54 @@
         <v>46005</v>
       </c>
       <c r="C180">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D180">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E180">
         <v>56</v>
       </c>
       <c r="F180">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G180">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I180">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J180">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K180">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="L180">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M180">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N180">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O180" s="21">
-        <f t="shared" si="26"/>
-        <v>64</v>
+        <f t="shared" si="32"/>
+        <v>70</v>
       </c>
       <c r="P180" s="21">
-        <f t="shared" si="27"/>
-        <v>15.41</v>
+        <f t="shared" si="33"/>
+        <v>18.36</v>
       </c>
       <c r="T180">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U180">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="2:21" x14ac:dyDescent="0.25">
@@ -28452,54 +28607,54 @@
         <v>46006</v>
       </c>
       <c r="C181">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D181">
+        <v>79</v>
+      </c>
+      <c r="E181">
+        <v>50</v>
+      </c>
+      <c r="F181">
+        <v>46</v>
+      </c>
+      <c r="G181">
+        <v>38</v>
+      </c>
+      <c r="H181">
+        <v>43</v>
+      </c>
+      <c r="I181">
+        <v>53</v>
+      </c>
+      <c r="J181">
+        <v>64</v>
+      </c>
+      <c r="K181">
+        <v>80</v>
+      </c>
+      <c r="L181">
+        <v>59</v>
+      </c>
+      <c r="M181">
+        <v>67</v>
+      </c>
+      <c r="N181">
+        <v>62</v>
+      </c>
+      <c r="O181" s="21">
+        <f t="shared" si="32"/>
+        <v>59</v>
+      </c>
+      <c r="P181" s="21">
+        <f t="shared" si="33"/>
+        <v>11.75</v>
+      </c>
+      <c r="T181">
         <v>60</v>
       </c>
-      <c r="E181">
-        <v>47</v>
-      </c>
-      <c r="F181">
-        <v>53</v>
-      </c>
-      <c r="G181">
-        <v>36</v>
-      </c>
-      <c r="H181">
-        <v>38</v>
-      </c>
-      <c r="I181">
-        <v>51</v>
-      </c>
-      <c r="J181">
-        <v>51</v>
-      </c>
-      <c r="K181">
-        <v>53</v>
-      </c>
-      <c r="L181">
-        <v>61</v>
-      </c>
-      <c r="M181">
-        <v>66</v>
-      </c>
-      <c r="N181">
-        <v>67</v>
-      </c>
-      <c r="O181" s="21">
-        <f t="shared" si="26"/>
-        <v>54</v>
-      </c>
-      <c r="P181" s="21">
-        <f t="shared" si="27"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="T181">
-        <v>63</v>
-      </c>
       <c r="U181">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="2:21" x14ac:dyDescent="0.25">
@@ -28507,54 +28662,54 @@
         <v>46007</v>
       </c>
       <c r="C182">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D182">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E182">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F182">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G182">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H182">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I182">
+        <v>54</v>
+      </c>
+      <c r="J182">
+        <v>65</v>
+      </c>
+      <c r="K182">
         <v>59</v>
       </c>
-      <c r="J182">
-        <v>51</v>
-      </c>
-      <c r="K182">
-        <v>54</v>
-      </c>
       <c r="L182">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M182">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N182">
         <v>59</v>
       </c>
       <c r="O182" s="21">
-        <f t="shared" si="26"/>
-        <v>54</v>
+        <f t="shared" si="32"/>
+        <v>57</v>
       </c>
       <c r="P182" s="21">
-        <f t="shared" si="27"/>
-        <v>5.16</v>
+        <f t="shared" si="33"/>
+        <v>5.73</v>
       </c>
       <c r="T182">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U182">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="2:21" x14ac:dyDescent="0.25">
@@ -28562,54 +28717,54 @@
         <v>46008</v>
       </c>
       <c r="C183">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D183">
+        <v>90</v>
+      </c>
+      <c r="E183">
+        <v>93</v>
+      </c>
+      <c r="F183">
+        <v>109</v>
+      </c>
+      <c r="G183">
+        <v>95</v>
+      </c>
+      <c r="H183">
+        <v>97</v>
+      </c>
+      <c r="I183">
+        <v>92</v>
+      </c>
+      <c r="J183">
+        <v>108</v>
+      </c>
+      <c r="K183">
+        <v>104</v>
+      </c>
+      <c r="L183">
+        <v>93</v>
+      </c>
+      <c r="M183">
+        <v>98</v>
+      </c>
+      <c r="N183">
+        <v>93</v>
+      </c>
+      <c r="O183" s="21">
+        <f t="shared" si="32"/>
+        <v>98</v>
+      </c>
+      <c r="P183" s="21">
+        <f t="shared" si="33"/>
+        <v>5.65</v>
+      </c>
+      <c r="T183">
         <v>100</v>
       </c>
-      <c r="E183">
-        <v>88</v>
-      </c>
-      <c r="F183">
-        <v>97</v>
-      </c>
-      <c r="G183">
-        <v>92</v>
-      </c>
-      <c r="H183">
-        <v>89</v>
-      </c>
-      <c r="I183">
-        <v>86</v>
-      </c>
-      <c r="J183">
-        <v>95</v>
-      </c>
-      <c r="K183">
-        <v>92</v>
-      </c>
-      <c r="L183">
-        <v>97</v>
-      </c>
-      <c r="M183">
+      <c r="U183">
         <v>96</v>
-      </c>
-      <c r="N183">
-        <v>95</v>
-      </c>
-      <c r="O183" s="21">
-        <f t="shared" si="26"/>
-        <v>94</v>
-      </c>
-      <c r="P183" s="21">
-        <f t="shared" si="27"/>
-        <v>4.63</v>
-      </c>
-      <c r="T183">
-        <v>98</v>
-      </c>
-      <c r="U183">
-        <v>99</v>
       </c>
     </row>
     <row r="184" spans="2:21" x14ac:dyDescent="0.25">
@@ -28617,54 +28772,54 @@
         <v>46009</v>
       </c>
       <c r="C184">
+        <v>135</v>
+      </c>
+      <c r="D184">
+        <v>123</v>
+      </c>
+      <c r="E184">
+        <v>127</v>
+      </c>
+      <c r="F184">
+        <v>143</v>
+      </c>
+      <c r="G184">
+        <v>127</v>
+      </c>
+      <c r="H184">
+        <v>128</v>
+      </c>
+      <c r="I184">
+        <v>121</v>
+      </c>
+      <c r="J184">
+        <v>152</v>
+      </c>
+      <c r="K184">
+        <v>147</v>
+      </c>
+      <c r="L184">
+        <v>130</v>
+      </c>
+      <c r="M184">
+        <v>136</v>
+      </c>
+      <c r="N184">
+        <v>123</v>
+      </c>
+      <c r="O184" s="21">
+        <f t="shared" si="32"/>
         <v>133</v>
       </c>
-      <c r="D184">
-        <v>144</v>
-      </c>
-      <c r="E184">
-        <v>121</v>
-      </c>
-      <c r="F184">
-        <v>131</v>
-      </c>
-      <c r="G184">
-        <v>123</v>
-      </c>
-      <c r="H184">
-        <v>118</v>
-      </c>
-      <c r="I184">
-        <v>112</v>
-      </c>
-      <c r="J184">
-        <v>132</v>
-      </c>
-      <c r="K184">
-        <v>114</v>
-      </c>
-      <c r="L184">
-        <v>142</v>
-      </c>
-      <c r="M184">
-        <v>133</v>
-      </c>
-      <c r="N184">
-        <v>130</v>
-      </c>
-      <c r="O184" s="21">
-        <f t="shared" si="26"/>
-        <v>128</v>
-      </c>
       <c r="P184" s="21">
-        <f t="shared" si="27"/>
-        <v>9.82</v>
+        <f t="shared" si="33"/>
+        <v>9.15</v>
       </c>
       <c r="T184">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="U184">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="185" spans="2:21" x14ac:dyDescent="0.25">
@@ -28672,54 +28827,54 @@
         <v>46010</v>
       </c>
       <c r="C185">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D185">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E185">
         <v>171</v>
       </c>
       <c r="F185">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G185">
+        <v>160</v>
+      </c>
+      <c r="H185">
+        <v>170</v>
+      </c>
+      <c r="I185">
         <v>164</v>
       </c>
-      <c r="H185">
-        <v>155</v>
-      </c>
-      <c r="I185">
-        <v>148</v>
-      </c>
       <c r="J185">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K185">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L185">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="M185">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="N185">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O185" s="21">
-        <f t="shared" si="26"/>
-        <v>178</v>
+        <f t="shared" si="32"/>
+        <v>184</v>
       </c>
       <c r="P185" s="21">
-        <f t="shared" si="27"/>
-        <v>15.57</v>
+        <f t="shared" si="33"/>
+        <v>13.34</v>
       </c>
       <c r="T185">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U185">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="2:21" x14ac:dyDescent="0.25">
@@ -28727,54 +28882,54 @@
         <v>46011</v>
       </c>
       <c r="C186">
+        <v>186</v>
+      </c>
+      <c r="D186">
         <v>174</v>
       </c>
-      <c r="D186">
-        <v>183</v>
-      </c>
       <c r="E186">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F186">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G186">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H186">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="I186">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="J186">
         <v>201</v>
       </c>
       <c r="K186">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L186">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M186">
         <v>186</v>
       </c>
       <c r="N186">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O186" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
+        <v>187</v>
+      </c>
+      <c r="P186" s="21">
+        <f t="shared" si="33"/>
+        <v>8.99</v>
+      </c>
+      <c r="T186">
+        <v>188</v>
+      </c>
+      <c r="U186">
         <v>186</v>
-      </c>
-      <c r="P186" s="21">
-        <f t="shared" si="27"/>
-        <v>7.93</v>
-      </c>
-      <c r="T186">
-        <v>192</v>
-      </c>
-      <c r="U186">
-        <v>181</v>
       </c>
     </row>
     <row r="187" spans="2:21" x14ac:dyDescent="0.25">
@@ -28782,54 +28937,54 @@
         <v>46012</v>
       </c>
       <c r="C187">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D187">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E187">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F187">
+        <v>110</v>
+      </c>
+      <c r="G187">
+        <v>69</v>
+      </c>
+      <c r="H187">
+        <v>85</v>
+      </c>
+      <c r="I187">
+        <v>104</v>
+      </c>
+      <c r="J187">
         <v>106</v>
       </c>
-      <c r="G187">
-        <v>84</v>
-      </c>
-      <c r="H187">
-        <v>68</v>
-      </c>
-      <c r="I187">
-        <v>89</v>
-      </c>
-      <c r="J187">
-        <v>111</v>
-      </c>
       <c r="K187">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L187">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="M187">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N187">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="O187" s="21">
-        <f t="shared" si="26"/>
-        <v>114</v>
+        <f t="shared" si="32"/>
+        <v>121</v>
       </c>
       <c r="P187" s="21">
-        <f t="shared" si="27"/>
-        <v>24.11</v>
+        <f t="shared" si="33"/>
+        <v>27.04</v>
       </c>
       <c r="T187">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="U187">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="2:21" x14ac:dyDescent="0.25">
@@ -28837,54 +28992,54 @@
         <v>46013</v>
       </c>
       <c r="C188">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D188">
+        <v>135</v>
+      </c>
+      <c r="E188">
         <v>85</v>
       </c>
-      <c r="E188">
-        <v>80</v>
-      </c>
       <c r="F188">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G188">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H188">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="I188">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J188">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K188">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L188">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M188">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N188">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="O188" s="21">
-        <f t="shared" si="26"/>
-        <v>91</v>
+        <f t="shared" si="32"/>
+        <v>102</v>
       </c>
       <c r="P188" s="21">
-        <f t="shared" si="27"/>
-        <v>8.75</v>
+        <f t="shared" si="33"/>
+        <v>14.01</v>
       </c>
       <c r="T188">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="U188">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="2:21" x14ac:dyDescent="0.25">
@@ -28892,54 +29047,54 @@
         <v>46014</v>
       </c>
       <c r="C189">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D189">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E189">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F189">
         <v>87</v>
       </c>
       <c r="G189">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H189">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I189">
+        <v>81</v>
+      </c>
+      <c r="J189">
+        <v>93</v>
+      </c>
+      <c r="K189">
         <v>86</v>
       </c>
-      <c r="J189">
-        <v>86</v>
-      </c>
-      <c r="K189">
-        <v>98</v>
-      </c>
       <c r="L189">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M189">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N189">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O189" s="21">
-        <f t="shared" si="26"/>
-        <v>86</v>
+        <f t="shared" si="32"/>
+        <v>89</v>
       </c>
       <c r="P189" s="21">
-        <f t="shared" si="27"/>
-        <v>14.92</v>
+        <f t="shared" si="33"/>
+        <v>11.04</v>
       </c>
       <c r="T189">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U189">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190" spans="2:21" x14ac:dyDescent="0.25">
@@ -28947,54 +29102,54 @@
         <v>46015</v>
       </c>
       <c r="C190">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D190">
+        <v>154</v>
+      </c>
+      <c r="E190">
+        <v>91</v>
+      </c>
+      <c r="F190">
+        <v>105</v>
+      </c>
+      <c r="G190">
+        <v>58</v>
+      </c>
+      <c r="H190">
+        <v>79</v>
+      </c>
+      <c r="I190">
+        <v>115</v>
+      </c>
+      <c r="J190">
+        <v>124</v>
+      </c>
+      <c r="K190">
+        <v>126</v>
+      </c>
+      <c r="L190">
         <v>152</v>
       </c>
-      <c r="E190">
-        <v>101</v>
-      </c>
-      <c r="F190">
-        <v>110</v>
-      </c>
-      <c r="G190">
-        <v>61</v>
-      </c>
-      <c r="H190">
-        <v>71</v>
-      </c>
-      <c r="I190">
-        <v>107</v>
-      </c>
-      <c r="J190">
-        <v>108</v>
-      </c>
-      <c r="K190">
-        <v>159</v>
-      </c>
-      <c r="L190">
-        <v>156</v>
-      </c>
       <c r="M190">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N190">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O190" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>124</v>
       </c>
       <c r="P190" s="21">
-        <f t="shared" si="27"/>
-        <v>34.21</v>
+        <f t="shared" si="33"/>
+        <v>32.19</v>
       </c>
       <c r="T190">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U190">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="191" spans="2:21" x14ac:dyDescent="0.25">
@@ -29002,31 +29157,31 @@
         <v>46016</v>
       </c>
       <c r="C191">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E191">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F191">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G191">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H191">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I191">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J191">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K191">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L191">
         <v>16</v>
@@ -29035,21 +29190,21 @@
         <v>15</v>
       </c>
       <c r="N191">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O191" s="21">
-        <f t="shared" si="26"/>
-        <v>34</v>
+        <f t="shared" si="32"/>
+        <v>37</v>
       </c>
       <c r="P191" s="21">
-        <f t="shared" si="27"/>
-        <v>20.85</v>
+        <f t="shared" si="33"/>
+        <v>23.53</v>
       </c>
       <c r="T191">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U191">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="2:21" x14ac:dyDescent="0.25">
@@ -29057,54 +29212,54 @@
         <v>46017</v>
       </c>
       <c r="C192">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D192">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E192">
+        <v>99</v>
+      </c>
+      <c r="F192">
+        <v>118</v>
+      </c>
+      <c r="G192">
+        <v>127</v>
+      </c>
+      <c r="H192">
+        <v>139</v>
+      </c>
+      <c r="I192">
+        <v>105</v>
+      </c>
+      <c r="J192">
+        <v>127</v>
+      </c>
+      <c r="K192">
+        <v>84</v>
+      </c>
+      <c r="L192">
+        <v>89</v>
+      </c>
+      <c r="M192">
+        <v>77</v>
+      </c>
+      <c r="N192">
+        <v>83</v>
+      </c>
+      <c r="O192" s="21">
+        <f t="shared" si="32"/>
+        <v>102</v>
+      </c>
+      <c r="P192" s="21">
+        <f t="shared" si="33"/>
+        <v>18.47</v>
+      </c>
+      <c r="T192">
+        <v>98</v>
+      </c>
+      <c r="U192">
         <v>103</v>
-      </c>
-      <c r="F192">
-        <v>114</v>
-      </c>
-      <c r="G192">
-        <v>112</v>
-      </c>
-      <c r="H192">
-        <v>118</v>
-      </c>
-      <c r="I192">
-        <v>86</v>
-      </c>
-      <c r="J192">
-        <v>103</v>
-      </c>
-      <c r="K192">
-        <v>78</v>
-      </c>
-      <c r="L192">
-        <v>76</v>
-      </c>
-      <c r="M192">
-        <v>79</v>
-      </c>
-      <c r="N192">
-        <v>81</v>
-      </c>
-      <c r="O192" s="21">
-        <f t="shared" si="26"/>
-        <v>93</v>
-      </c>
-      <c r="P192" s="21">
-        <f t="shared" si="27"/>
-        <v>15.17</v>
-      </c>
-      <c r="T192">
-        <v>105</v>
-      </c>
-      <c r="U192">
-        <v>94</v>
       </c>
     </row>
     <row r="193" spans="2:21" x14ac:dyDescent="0.25">
@@ -29112,54 +29267,54 @@
         <v>46018</v>
       </c>
       <c r="C193">
+        <v>206</v>
+      </c>
+      <c r="D193">
         <v>203</v>
       </c>
-      <c r="D193">
-        <v>205</v>
-      </c>
       <c r="E193">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F193">
+        <v>201</v>
+      </c>
+      <c r="G193">
+        <v>185</v>
+      </c>
+      <c r="H193">
+        <v>195</v>
+      </c>
+      <c r="I193">
         <v>190</v>
       </c>
-      <c r="G193">
-        <v>183</v>
-      </c>
-      <c r="H193">
-        <v>180</v>
-      </c>
-      <c r="I193">
-        <v>180</v>
-      </c>
       <c r="J193">
+        <v>214</v>
+      </c>
+      <c r="K193">
+        <v>202</v>
+      </c>
+      <c r="L193">
+        <v>202</v>
+      </c>
+      <c r="M193">
+        <v>199</v>
+      </c>
+      <c r="N193">
+        <v>193</v>
+      </c>
+      <c r="O193" s="21">
+        <f t="shared" si="32"/>
         <v>197</v>
       </c>
-      <c r="K193">
-        <v>196</v>
-      </c>
-      <c r="L193">
-        <v>200</v>
-      </c>
-      <c r="M193">
-        <v>187</v>
-      </c>
-      <c r="N193">
-        <v>198</v>
-      </c>
-      <c r="O193" s="21">
-        <f t="shared" si="26"/>
-        <v>192</v>
-      </c>
       <c r="P193" s="21">
-        <f t="shared" si="27"/>
-        <v>8.43</v>
+        <f t="shared" si="33"/>
+        <v>8.89</v>
       </c>
       <c r="T193">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U193">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="2:21" x14ac:dyDescent="0.25">
@@ -29167,54 +29322,54 @@
         <v>46019</v>
       </c>
       <c r="C194">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D194">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E194">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F194">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G194">
+        <v>66</v>
+      </c>
+      <c r="H194">
+        <v>86</v>
+      </c>
+      <c r="I194">
+        <v>64</v>
+      </c>
+      <c r="J194">
         <v>79</v>
       </c>
-      <c r="H194">
-        <v>64</v>
-      </c>
-      <c r="I194">
+      <c r="K194">
+        <v>73</v>
+      </c>
+      <c r="L194">
+        <v>78</v>
+      </c>
+      <c r="M194">
+        <v>74</v>
+      </c>
+      <c r="N194">
+        <v>76</v>
+      </c>
+      <c r="O194" s="21">
+        <f t="shared" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="P194" s="21">
+        <f t="shared" si="33"/>
+        <v>6.5</v>
+      </c>
+      <c r="T194">
         <v>72</v>
       </c>
-      <c r="J194">
-        <v>68</v>
-      </c>
-      <c r="K194">
-        <v>62</v>
-      </c>
-      <c r="L194">
-        <v>73</v>
-      </c>
-      <c r="M194">
-        <v>69</v>
-      </c>
-      <c r="N194">
-        <v>70</v>
-      </c>
-      <c r="O194" s="21">
-        <f t="shared" si="26"/>
-        <v>68</v>
-      </c>
-      <c r="P194" s="21">
-        <f t="shared" si="27"/>
-        <v>4.96</v>
-      </c>
-      <c r="T194">
-        <v>63</v>
-      </c>
       <c r="U194">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195" spans="2:21" x14ac:dyDescent="0.25">
@@ -29222,54 +29377,54 @@
         <v>46020</v>
       </c>
       <c r="C195">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D195">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E195">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F195">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G195">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H195">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I195">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J195">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K195">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L195">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M195">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N195">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O195" s="21">
-        <f t="shared" ref="O195:O199" si="30">ROUND(AVERAGE(C195:N195),0)</f>
-        <v>92</v>
+        <f t="shared" si="32"/>
+        <v>99</v>
       </c>
       <c r="P195" s="21">
-        <f t="shared" si="27"/>
-        <v>14.16</v>
+        <f t="shared" si="33"/>
+        <v>13.56</v>
       </c>
       <c r="T195">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="U195">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="196" spans="2:21" x14ac:dyDescent="0.25">
@@ -29277,54 +29432,54 @@
         <v>46021</v>
       </c>
       <c r="C196">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D196">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E196">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F196">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G196">
         <v>77</v>
       </c>
       <c r="H196">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I196">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J196">
+        <v>93</v>
+      </c>
+      <c r="K196">
+        <v>87</v>
+      </c>
+      <c r="L196">
+        <v>87</v>
+      </c>
+      <c r="M196">
+        <v>84</v>
+      </c>
+      <c r="N196">
+        <v>89</v>
+      </c>
+      <c r="O196" s="21">
+        <f t="shared" si="32"/>
         <v>85</v>
       </c>
-      <c r="K196">
+      <c r="P196" s="21">
+        <f t="shared" si="33"/>
+        <v>4.68</v>
+      </c>
+      <c r="T196">
+        <v>85</v>
+      </c>
+      <c r="U196">
         <v>83</v>
-      </c>
-      <c r="L196">
-        <v>88</v>
-      </c>
-      <c r="M196">
-        <v>87</v>
-      </c>
-      <c r="N196">
-        <v>83</v>
-      </c>
-      <c r="O196" s="21">
-        <f t="shared" si="30"/>
-        <v>81</v>
-      </c>
-      <c r="P196" s="21">
-        <f t="shared" ref="P196:P199" si="31">ROUND(_xlfn.STDEV.P(C196:N196),2)</f>
-        <v>4.92</v>
-      </c>
-      <c r="T196">
-        <v>82</v>
-      </c>
-      <c r="U196">
-        <v>82</v>
       </c>
     </row>
     <row r="197" spans="2:21" x14ac:dyDescent="0.25">
@@ -29332,51 +29487,51 @@
         <v>46022</v>
       </c>
       <c r="C197" s="47">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D197" s="48">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E197" s="48">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F197" s="48">
         <v>132</v>
       </c>
       <c r="G197" s="48">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H197" s="48">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I197" s="48">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J197" s="48">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K197" s="47">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="L197" s="48">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M197" s="48">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="N197" s="49">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O197" s="21">
-        <f t="shared" si="30"/>
-        <v>149</v>
+        <f t="shared" si="32"/>
+        <v>153</v>
       </c>
       <c r="P197" s="21">
-        <f t="shared" si="31"/>
-        <v>43.64</v>
+        <f t="shared" si="33"/>
+        <v>42.26</v>
       </c>
       <c r="T197">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="U197">
         <v>146</v>
@@ -29387,54 +29542,54 @@
         <v>40</v>
       </c>
       <c r="C198">
-        <v>25.83</v>
+        <v>23.98</v>
       </c>
       <c r="D198">
-        <v>24.38</v>
+        <v>26.23</v>
       </c>
       <c r="E198">
-        <v>23.36</v>
+        <v>22.96</v>
       </c>
       <c r="F198" s="16">
-        <v>25.13</v>
+        <v>23.95</v>
       </c>
       <c r="G198" s="16">
-        <v>21.46</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="H198" s="16">
-        <v>22.87</v>
+        <v>20.68</v>
       </c>
       <c r="I198" s="16">
-        <v>26.56</v>
+        <v>21.79</v>
       </c>
       <c r="J198" s="16">
-        <v>25.88</v>
+        <v>23.2</v>
       </c>
       <c r="K198" s="16">
-        <v>24.72</v>
+        <v>25</v>
       </c>
       <c r="L198" s="16">
-        <v>28.16</v>
+        <v>23.47</v>
       </c>
       <c r="M198" s="16">
-        <v>24.45</v>
+        <v>26.14</v>
       </c>
       <c r="N198" s="17">
-        <v>25.86</v>
+        <v>25.38</v>
       </c>
       <c r="O198" s="34">
-        <f>ROUND(AVERAGE(C198:N198),2)</f>
-        <v>24.89</v>
+        <f>ROUND(AVERAGE(C198:N198,T198:U198),2)</f>
+        <v>23.54</v>
       </c>
       <c r="P198" s="34">
-        <f t="shared" si="31"/>
-        <v>1.71</v>
+        <f>ROUND(_xlfn.STDEV.P(C198:N198,T198:U198),2)</f>
+        <v>1.82</v>
       </c>
       <c r="T198">
-        <v>24.11</v>
+        <v>23.01</v>
       </c>
       <c r="U198">
-        <v>25.33</v>
+        <v>24.04</v>
       </c>
     </row>
     <row r="199" spans="2:21" x14ac:dyDescent="0.25">
@@ -29442,81 +29597,81 @@
         <v>41</v>
       </c>
       <c r="C199">
-        <v>25.01</v>
+        <v>26.73</v>
       </c>
       <c r="D199">
-        <v>25.36</v>
+        <v>25.92</v>
       </c>
       <c r="E199">
-        <v>28.77</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="F199">
-        <v>28.52</v>
+        <v>29.94</v>
       </c>
       <c r="G199">
-        <v>35.17</v>
+        <v>36.97</v>
       </c>
       <c r="H199">
-        <v>32.409999999999997</v>
+        <v>35.15</v>
       </c>
       <c r="I199">
-        <v>25.38</v>
+        <v>33.4</v>
       </c>
       <c r="J199">
-        <v>28.48</v>
+        <v>31.05</v>
       </c>
       <c r="K199">
-        <v>26.15</v>
+        <v>43.51</v>
       </c>
       <c r="L199">
-        <v>24.11</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="M199" s="16">
-        <v>25.15</v>
+        <v>30.58</v>
       </c>
       <c r="N199" s="16">
-        <v>25.97</v>
-      </c>
-      <c r="O199" s="21">
-        <f>ROUND(AVERAGE(C199:N199),2)</f>
-        <v>27.54</v>
-      </c>
-      <c r="P199" s="21">
-        <f t="shared" si="31"/>
-        <v>3.2</v>
+        <v>28.69</v>
+      </c>
+      <c r="O199" s="34">
+        <f>ROUND(AVERAGE(C199:N199,T199:U199),2)</f>
+        <v>32.229999999999997</v>
+      </c>
+      <c r="P199" s="34">
+        <f>ROUND(_xlfn.STDEV.P(C199:N199,T199:U199),2)</f>
+        <v>4.34</v>
       </c>
       <c r="T199">
-        <v>28.13</v>
+        <v>30.79</v>
       </c>
       <c r="U199">
-        <v>26.8</v>
+        <v>30.45</v>
       </c>
     </row>
     <row r="200" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C200" s="54" t="s">
+      <c r="C200" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54" t="s">
+      <c r="D200" s="56"/>
+      <c r="E200" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F200" s="54"/>
-      <c r="G200" s="54" t="s">
+      <c r="F200" s="56"/>
+      <c r="G200" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54" t="s">
+      <c r="H200" s="56"/>
+      <c r="I200" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J200" s="54"/>
-      <c r="K200" s="55" t="s">
+      <c r="J200" s="56"/>
+      <c r="K200" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="L200" s="55"/>
-      <c r="M200" s="55" t="s">
+      <c r="L200" s="57"/>
+      <c r="M200" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="N200" s="55"/>
+      <c r="N200" s="57"/>
       <c r="T200" t="s">
         <v>61</v>
       </c>
@@ -29535,30 +29690,30 @@
     <mergeCell ref="K200:L200"/>
     <mergeCell ref="M200:N200"/>
   </mergeCells>
+  <conditionalFormatting sqref="C114:N135">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>ABS(C114-$A114)&lt;=10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C198:N198">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>$O$198-$P$198</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="25" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="aboveAverage" dxfId="6" priority="26"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C199:N199">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:N135">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>ABS(C114-$A114)&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191:G198 I191:I198 L191:L198">
     <cfRule type="aboveAverage" dxfId="3" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R79 R81:R150">
+  <conditionalFormatting sqref="R3:R79 R81:R165">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -29577,8 +29732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164:I164"/>
+    <sheetView topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O166" sqref="O166:P197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29588,42 +29743,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="51">
+      <c r="C2" s="53">
         <v>0.85</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
       <c r="O2" s="19" t="s">
         <v>39</v>
       </c>
@@ -36233,7 +36388,7 @@
         <v>61</v>
       </c>
       <c r="O131" s="21">
-        <f t="shared" ref="O131:O194" si="12">ROUND(AVERAGE(C131:N131),0)</f>
+        <f t="shared" ref="O131:O150" si="12">ROUND(AVERAGE(C131:N131),0)</f>
         <v>57</v>
       </c>
       <c r="P131" s="21">
@@ -37113,47 +37268,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="59">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>34</v>
       </c>
-      <c r="B146" s="60">
+      <c r="B146" s="23">
         <v>45971</v>
       </c>
-      <c r="C146" s="59">
+      <c r="C146">
         <v>46</v>
       </c>
-      <c r="D146" s="59">
+      <c r="D146">
         <v>44</v>
       </c>
-      <c r="E146" s="59">
+      <c r="E146">
         <v>26</v>
       </c>
-      <c r="F146" s="59">
+      <c r="F146">
         <v>30</v>
       </c>
-      <c r="G146" s="59">
+      <c r="G146">
         <v>15</v>
       </c>
-      <c r="H146" s="59">
+      <c r="H146">
         <v>12</v>
       </c>
-      <c r="I146" s="59">
+      <c r="I146">
         <v>18</v>
       </c>
-      <c r="J146" s="59">
+      <c r="J146">
         <v>17</v>
       </c>
-      <c r="K146" s="59">
+      <c r="K146">
         <v>51</v>
       </c>
-      <c r="L146" s="59">
+      <c r="L146">
         <v>49</v>
       </c>
-      <c r="M146" s="59">
+      <c r="M146">
         <v>47</v>
       </c>
-      <c r="N146" s="59">
+      <c r="N146">
         <v>46</v>
       </c>
       <c r="O146" s="21">
@@ -37164,18 +37319,18 @@
         <f t="shared" si="13"/>
         <v>14.54</v>
       </c>
-      <c r="R146" s="62">
+      <c r="R146" s="27">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="S146" s="59">
+      <c r="S146">
         <f t="shared" si="14"/>
         <v>0.97058823529411764</v>
       </c>
-      <c r="T146" s="59">
+      <c r="T146">
         <v>29</v>
       </c>
-      <c r="U146" s="59">
+      <c r="U146">
         <v>31</v>
       </c>
     </row>
@@ -37230,11 +37385,11 @@
         <f t="shared" si="13"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="R147" s="62">
+      <c r="R147" s="27">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="S147" s="59">
+      <c r="S147">
         <f t="shared" si="14"/>
         <v>1.1176470588235294</v>
       </c>
@@ -37246,7 +37401,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A148" s="59">
+      <c r="A148">
         <v>22</v>
       </c>
       <c r="B148" s="23">
@@ -37296,11 +37451,11 @@
         <f t="shared" si="13"/>
         <v>17.989999999999998</v>
       </c>
-      <c r="R148" s="62">
+      <c r="R148" s="27">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="S148" s="59">
+      <c r="S148">
         <f t="shared" si="14"/>
         <v>2.4545454545454546</v>
       </c>
@@ -37362,11 +37517,11 @@
         <f t="shared" si="13"/>
         <v>27.26</v>
       </c>
-      <c r="R149" s="62">
+      <c r="R149" s="27">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="S149" s="59">
+      <c r="S149">
         <f t="shared" si="14"/>
         <v>1.0769230769230769</v>
       </c>
@@ -37378,7 +37533,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A150" s="59">
+      <c r="A150">
         <v>110</v>
       </c>
       <c r="B150" s="23">
@@ -37428,11 +37583,11 @@
         <f t="shared" si="13"/>
         <v>19.149999999999999</v>
       </c>
-      <c r="R150" s="62">
+      <c r="R150" s="27">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="S150" s="59">
+      <c r="S150">
         <f t="shared" si="14"/>
         <v>1.2272727272727273</v>
       </c>
@@ -37443,62 +37598,76 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="28">
+    <row r="151" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="61">
+        <v>178</v>
+      </c>
+      <c r="B151" s="62">
         <v>45976</v>
       </c>
-      <c r="C151" s="29">
+      <c r="C151" s="63">
         <v>199</v>
       </c>
-      <c r="D151" s="29">
+      <c r="D151" s="63">
         <v>194</v>
       </c>
-      <c r="E151" s="29">
+      <c r="E151" s="63">
         <v>164</v>
       </c>
-      <c r="F151" s="29">
+      <c r="F151" s="63">
         <v>163</v>
       </c>
-      <c r="G151" s="29">
+      <c r="G151" s="63">
         <v>152</v>
       </c>
-      <c r="H151" s="29">
+      <c r="H151" s="63">
         <v>145</v>
       </c>
-      <c r="I151" s="29">
+      <c r="I151" s="63">
         <v>140</v>
       </c>
-      <c r="J151" s="29">
+      <c r="J151" s="63">
         <v>181</v>
       </c>
-      <c r="K151" s="29">
+      <c r="K151" s="63">
         <v>188</v>
       </c>
-      <c r="L151" s="29">
+      <c r="L151" s="63">
         <v>195</v>
       </c>
-      <c r="M151" s="29">
+      <c r="M151" s="63">
         <v>197</v>
       </c>
-      <c r="N151" s="29">
+      <c r="N151" s="63">
         <v>190</v>
       </c>
-      <c r="O151" s="30">
+      <c r="O151" s="64">
         <f>ROUND(AVERAGE(C151:N151,T151,U151),0)</f>
         <v>174</v>
       </c>
-      <c r="P151" s="30">
+      <c r="P151" s="64">
         <f t="shared" si="13"/>
         <v>20.75</v>
       </c>
-      <c r="T151" s="29">
+      <c r="R151" s="65">
+        <f t="shared" ref="R151:R165" si="15">O151-A151</f>
+        <v>-4</v>
+      </c>
+      <c r="S151" s="63">
+        <f t="shared" ref="S151:S165" si="16">O151/A151</f>
+        <v>0.97752808988764039</v>
+      </c>
+      <c r="T151" s="63">
         <v>159</v>
       </c>
-      <c r="U151" s="29">
+      <c r="U151" s="63">
         <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="14">
+        <v>59</v>
+      </c>
       <c r="B152" s="23">
         <v>45977</v>
       </c>
@@ -37538,14 +37707,22 @@
       <c r="N152">
         <v>70</v>
       </c>
-      <c r="O152" s="61">
-        <f t="shared" ref="O152:O197" si="15">ROUND(AVERAGE(C152:N152,T152,U152),0)</f>
+      <c r="O152" s="21">
+        <f t="shared" ref="O152:O197" si="17">ROUND(AVERAGE(C152:N152,T152,U152),0)</f>
         <v>50</v>
       </c>
       <c r="P152" s="21">
         <f t="shared" si="13"/>
         <v>17.61</v>
       </c>
+      <c r="R152" s="27">
+        <f t="shared" si="15"/>
+        <v>-9</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="16"/>
+        <v>0.84745762711864403</v>
+      </c>
       <c r="T152">
         <v>40</v>
       </c>
@@ -37554,6 +37731,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="14">
+        <v>55</v>
+      </c>
       <c r="B153" s="23">
         <v>45978</v>
       </c>
@@ -37593,14 +37773,22 @@
       <c r="N153">
         <v>43</v>
       </c>
-      <c r="O153" s="61">
-        <f t="shared" si="15"/>
+      <c r="O153" s="21">
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="P153" s="21">
         <f t="shared" si="13"/>
         <v>11.68</v>
       </c>
+      <c r="R153" s="27">
+        <f>O153-A153</f>
+        <v>-22</v>
+      </c>
+      <c r="S153">
+        <f>O153/A153</f>
+        <v>0.6</v>
+      </c>
       <c r="T153">
         <v>30</v>
       </c>
@@ -37609,6 +37797,9 @@
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="14">
+        <v>62</v>
+      </c>
       <c r="B154" s="23">
         <v>45979</v>
       </c>
@@ -37648,14 +37839,22 @@
       <c r="N154">
         <v>53</v>
       </c>
-      <c r="O154" s="61">
-        <f t="shared" si="15"/>
+      <c r="O154" s="21">
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="P154" s="21">
         <f t="shared" si="13"/>
         <v>14.13</v>
       </c>
+      <c r="R154" s="27">
+        <f t="shared" si="15"/>
+        <v>-21</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="16"/>
+        <v>0.66129032258064513</v>
+      </c>
       <c r="T154">
         <v>32</v>
       </c>
@@ -37664,6 +37863,9 @@
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="14">
+        <v>49</v>
+      </c>
       <c r="B155" s="23">
         <v>45980</v>
       </c>
@@ -37703,14 +37905,22 @@
       <c r="N155">
         <v>86</v>
       </c>
-      <c r="O155" s="61">
-        <f t="shared" si="15"/>
+      <c r="O155" s="21">
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="P155" s="21">
         <f t="shared" si="13"/>
         <v>20.52</v>
       </c>
+      <c r="R155" s="27">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="16"/>
+        <v>1.2448979591836735</v>
+      </c>
       <c r="T155">
         <v>48</v>
       </c>
@@ -37719,6 +37929,9 @@
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="14">
+        <v>48</v>
+      </c>
       <c r="B156" s="23">
         <v>45981</v>
       </c>
@@ -37758,14 +37971,22 @@
       <c r="N156">
         <v>110</v>
       </c>
-      <c r="O156" s="61">
-        <f t="shared" si="15"/>
+      <c r="O156" s="21">
+        <f t="shared" si="17"/>
         <v>81</v>
       </c>
       <c r="P156" s="21">
         <f t="shared" si="13"/>
         <v>25.35</v>
       </c>
+      <c r="R156" s="27">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="16"/>
+        <v>1.6875</v>
+      </c>
       <c r="T156">
         <v>64</v>
       </c>
@@ -37774,6 +37995,9 @@
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
+        <v>115</v>
+      </c>
       <c r="B157" s="23">
         <v>45982</v>
       </c>
@@ -37813,14 +38037,22 @@
       <c r="N157">
         <v>159</v>
       </c>
-      <c r="O157" s="61">
-        <f t="shared" si="15"/>
+      <c r="O157" s="21">
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="P157" s="21">
         <f t="shared" si="13"/>
         <v>35.19</v>
       </c>
+      <c r="R157" s="27">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="16"/>
+        <v>1.0695652173913044</v>
+      </c>
       <c r="T157">
         <v>97</v>
       </c>
@@ -37829,6 +38061,9 @@
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="14">
+        <v>155</v>
+      </c>
       <c r="B158" s="23">
         <v>45983</v>
       </c>
@@ -37868,14 +38103,22 @@
       <c r="N158">
         <v>197</v>
       </c>
-      <c r="O158" s="61">
-        <f t="shared" si="15"/>
+      <c r="O158" s="21">
+        <f t="shared" si="17"/>
         <v>166</v>
       </c>
       <c r="P158" s="21">
         <f t="shared" si="13"/>
         <v>30.87</v>
       </c>
+      <c r="R158" s="27">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="16"/>
+        <v>1.0709677419354839</v>
+      </c>
       <c r="T158">
         <v>143</v>
       </c>
@@ -37884,6 +38127,9 @@
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="14">
+        <v>38</v>
+      </c>
       <c r="B159" s="23">
         <v>45984</v>
       </c>
@@ -37923,14 +38169,22 @@
       <c r="N159">
         <v>62</v>
       </c>
-      <c r="O159" s="61">
-        <f t="shared" si="15"/>
+      <c r="O159" s="21">
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="P159" s="21">
         <f t="shared" si="13"/>
         <v>14.53</v>
       </c>
+      <c r="R159" s="27">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="16"/>
+        <v>1.131578947368421</v>
+      </c>
       <c r="T159">
         <v>33</v>
       </c>
@@ -37939,6 +38193,9 @@
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
+        <v>39</v>
+      </c>
       <c r="B160" s="23">
         <v>45985</v>
       </c>
@@ -37978,14 +38235,22 @@
       <c r="N160">
         <v>68</v>
       </c>
-      <c r="O160" s="61">
-        <f t="shared" si="15"/>
+      <c r="O160" s="21">
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="P160" s="21">
         <f t="shared" si="13"/>
         <v>18.04</v>
       </c>
+      <c r="R160" s="27">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="16"/>
+        <v>1.2051282051282051</v>
+      </c>
       <c r="T160">
         <v>39</v>
       </c>
@@ -37993,7 +38258,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="14">
+        <v>41</v>
+      </c>
       <c r="B161" s="23">
         <v>45986</v>
       </c>
@@ -38033,14 +38301,22 @@
       <c r="N161">
         <v>74</v>
       </c>
-      <c r="O161" s="61">
-        <f t="shared" si="15"/>
+      <c r="O161" s="21">
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="P161" s="21">
         <f t="shared" si="13"/>
         <v>20.16</v>
       </c>
+      <c r="R161" s="27">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="16"/>
+        <v>1.3414634146341464</v>
+      </c>
       <c r="T161">
         <v>45</v>
       </c>
@@ -38048,7 +38324,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="14">
+        <v>34</v>
+      </c>
       <c r="B162" s="23">
         <v>45987</v>
       </c>
@@ -38088,14 +38367,22 @@
       <c r="N162">
         <v>85</v>
       </c>
-      <c r="O162" s="61">
-        <f t="shared" si="15"/>
+      <c r="O162" s="21">
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="P162" s="21">
         <f t="shared" si="13"/>
         <v>22.78</v>
       </c>
+      <c r="R162" s="27">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="16"/>
+        <v>1.7941176470588236</v>
+      </c>
       <c r="T162">
         <v>51</v>
       </c>
@@ -38103,7 +38390,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="14">
+        <v>0</v>
+      </c>
       <c r="B163" s="23">
         <v>45988</v>
       </c>
@@ -38143,14 +38433,22 @@
       <c r="N163">
         <v>90</v>
       </c>
-      <c r="O163" s="61">
-        <f t="shared" si="15"/>
+      <c r="O163" s="21">
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="P163" s="21">
         <f t="shared" si="13"/>
         <v>23.41</v>
       </c>
+      <c r="R163" s="27">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="S163" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T163">
         <v>55</v>
       </c>
@@ -38158,7 +38456,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="14">
+        <v>20</v>
+      </c>
       <c r="B164" s="23">
         <v>45989</v>
       </c>
@@ -38198,14 +38499,22 @@
       <c r="N164">
         <v>141</v>
       </c>
-      <c r="O164" s="61">
-        <f t="shared" si="15"/>
+      <c r="O164" s="21">
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
       <c r="P164" s="21">
         <f t="shared" si="13"/>
         <v>29.07</v>
       </c>
+      <c r="R164" s="27">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="16"/>
+        <v>5.75</v>
+      </c>
       <c r="T164">
         <v>102</v>
       </c>
@@ -38213,7 +38522,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="14">
+        <v>52</v>
+      </c>
       <c r="B165" s="23">
         <v>45990</v>
       </c>
@@ -38253,14 +38565,22 @@
       <c r="N165">
         <v>172</v>
       </c>
-      <c r="O165" s="61">
-        <f t="shared" si="15"/>
+      <c r="O165" s="21">
+        <f t="shared" si="17"/>
         <v>148</v>
       </c>
       <c r="P165" s="21">
         <f t="shared" si="13"/>
         <v>27.85</v>
       </c>
+      <c r="R165" s="27">
+        <f t="shared" si="15"/>
+        <v>96</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="16"/>
+        <v>2.8461538461538463</v>
+      </c>
       <c r="T165">
         <v>125</v>
       </c>
@@ -38268,392 +38588,392 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B166" s="23">
+    <row r="166" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="28">
         <v>45991</v>
       </c>
-      <c r="C166">
-        <v>63</v>
-      </c>
-      <c r="D166">
-        <v>66</v>
-      </c>
-      <c r="E166">
-        <v>37</v>
-      </c>
-      <c r="F166">
-        <v>37</v>
-      </c>
-      <c r="G166">
-        <v>22</v>
-      </c>
-      <c r="H166">
-        <v>19</v>
-      </c>
-      <c r="I166">
-        <v>21</v>
-      </c>
-      <c r="J166">
+      <c r="C166" s="29">
+        <v>77</v>
+      </c>
+      <c r="D166" s="29">
+        <v>97</v>
+      </c>
+      <c r="E166" s="29">
+        <v>62</v>
+      </c>
+      <c r="F166" s="29">
+        <v>55</v>
+      </c>
+      <c r="G166" s="29">
+        <v>48</v>
+      </c>
+      <c r="H166" s="29">
+        <v>43</v>
+      </c>
+      <c r="I166" s="29">
+        <v>47</v>
+      </c>
+      <c r="J166" s="29">
         <v>45</v>
       </c>
-      <c r="K166">
-        <v>59</v>
-      </c>
-      <c r="L166">
-        <v>65</v>
-      </c>
-      <c r="M166">
+      <c r="K166" s="29">
+        <v>97</v>
+      </c>
+      <c r="L166" s="29">
+        <v>77</v>
+      </c>
+      <c r="M166" s="29">
+        <v>80</v>
+      </c>
+      <c r="N166" s="29">
+        <v>81</v>
+      </c>
+      <c r="O166" s="30">
+        <f>ROUND(AVERAGE(C166:N166,T166,U166),0)</f>
+        <v>67</v>
+      </c>
+      <c r="P166" s="30">
+        <f>ROUND(_xlfn.STDEV.P(C166:N166,T166,U166),2)</f>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="T166" s="29">
+        <v>61</v>
+      </c>
+      <c r="U166" s="29">
         <v>62</v>
       </c>
-      <c r="N166">
-        <v>69</v>
-      </c>
-      <c r="O166" s="61">
-        <f t="shared" si="15"/>
-        <v>46</v>
-      </c>
-      <c r="P166" s="21">
-        <f t="shared" si="13"/>
-        <v>18.45</v>
-      </c>
-      <c r="T166">
-        <v>39</v>
-      </c>
-      <c r="U166">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B167" s="23">
         <v>45992</v>
       </c>
       <c r="C167">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D167">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E167">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F167">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G167">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="H167">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I167">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="J167">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="K167">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L167">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M167">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N167">
-        <v>54</v>
-      </c>
-      <c r="O167" s="61">
-        <f t="shared" si="15"/>
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="O167" s="21">
+        <f t="shared" si="17"/>
+        <v>72</v>
       </c>
       <c r="P167" s="21">
-        <f t="shared" si="13"/>
-        <v>13.95</v>
+        <f>ROUND(_xlfn.STDEV.P(C167:N167,T167,U167),2)</f>
+        <v>25.75</v>
       </c>
       <c r="T167">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="U167">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="2:21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B168" s="23">
         <v>45993</v>
       </c>
       <c r="C168">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D168">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E168">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="F168">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="G168">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="H168">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="I168">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="J168">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="K168">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L168">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M168">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N168">
-        <v>58</v>
-      </c>
-      <c r="O168" s="61">
-        <f t="shared" si="15"/>
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="O168" s="21">
+        <f t="shared" si="17"/>
+        <v>79</v>
       </c>
       <c r="P168" s="21">
-        <f t="shared" si="13"/>
-        <v>16.09</v>
+        <f t="shared" ref="P168:P197" si="18">ROUND(_xlfn.STDEV.P(C168:N168,T168,U168),2)</f>
+        <v>19.13</v>
       </c>
       <c r="T168">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="U168">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="169" spans="2:21" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B169" s="23">
         <v>45994</v>
       </c>
       <c r="C169">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D169">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E169">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F169">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="G169">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="H169">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I169">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J169">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="K169">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="L169">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="M169">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N169">
-        <v>77</v>
-      </c>
-      <c r="O169" s="61">
-        <f t="shared" si="15"/>
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="O169" s="21">
+        <f t="shared" si="17"/>
+        <v>94</v>
       </c>
       <c r="P169" s="21">
-        <f t="shared" si="13"/>
-        <v>21.57</v>
+        <f t="shared" si="18"/>
+        <v>6.9</v>
       </c>
       <c r="T169">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="U169">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="2:21" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B170" s="23">
         <v>45995</v>
       </c>
       <c r="C170">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D170">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E170">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F170">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G170">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H170">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="I170">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="J170">
+        <v>97</v>
+      </c>
+      <c r="K170">
         <v>100</v>
-      </c>
-      <c r="K170">
-        <v>103</v>
       </c>
       <c r="L170">
         <v>113</v>
       </c>
       <c r="M170">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="N170">
-        <v>116</v>
-      </c>
-      <c r="O170" s="61">
-        <f t="shared" si="15"/>
+        <v>89</v>
+      </c>
+      <c r="O170" s="21">
+        <f t="shared" si="17"/>
+        <v>98</v>
+      </c>
+      <c r="P170" s="21">
+        <f t="shared" si="18"/>
+        <v>7.83</v>
+      </c>
+      <c r="T170">
+        <v>98</v>
+      </c>
+      <c r="U170">
         <v>90</v>
       </c>
-      <c r="P170" s="21">
-        <f t="shared" si="13"/>
-        <v>22.95</v>
-      </c>
-      <c r="T170">
-        <v>71</v>
-      </c>
-      <c r="U170">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="171" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B171" s="23">
         <v>45996</v>
       </c>
       <c r="C171">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D171">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E171">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F171">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G171">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H171">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="I171">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="J171">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K171">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="L171">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="M171">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="N171">
-        <v>159</v>
-      </c>
-      <c r="O171" s="61">
-        <f t="shared" si="15"/>
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="O171" s="21">
+        <f t="shared" si="17"/>
+        <v>129</v>
       </c>
       <c r="P171" s="21">
-        <f t="shared" si="13"/>
-        <v>33.14</v>
+        <f t="shared" si="18"/>
+        <v>5.07</v>
       </c>
       <c r="T171">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="U171">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="172" spans="2:21" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B172" s="23">
         <v>45997</v>
       </c>
       <c r="C172">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D172">
+        <v>173</v>
+      </c>
+      <c r="E172">
+        <v>169</v>
+      </c>
+      <c r="F172">
+        <v>171</v>
+      </c>
+      <c r="G172">
+        <v>168</v>
+      </c>
+      <c r="H172">
+        <v>158</v>
+      </c>
+      <c r="I172">
         <v>174</v>
       </c>
-      <c r="E172">
-        <v>126</v>
-      </c>
-      <c r="F172">
-        <v>136</v>
-      </c>
-      <c r="G172">
-        <v>122</v>
-      </c>
-      <c r="H172">
-        <v>117</v>
-      </c>
-      <c r="I172">
-        <v>88</v>
-      </c>
       <c r="J172">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K172">
+        <v>174</v>
+      </c>
+      <c r="L172">
         <v>177</v>
       </c>
-      <c r="L172">
-        <v>180</v>
-      </c>
       <c r="M172">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N172">
-        <v>176</v>
-      </c>
-      <c r="O172" s="61">
-        <f t="shared" si="15"/>
-        <v>150</v>
+        <v>172</v>
+      </c>
+      <c r="O172" s="21">
+        <f t="shared" si="17"/>
+        <v>170</v>
       </c>
       <c r="P172" s="21">
-        <f t="shared" si="13"/>
-        <v>30.64</v>
+        <f t="shared" si="18"/>
+        <v>4.78</v>
       </c>
       <c r="T172">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="U172">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="173" spans="2:21" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B173" s="23">
         <v>45998</v>
       </c>
@@ -38661,216 +38981,216 @@
         <v>92</v>
       </c>
       <c r="D173">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E173">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F173">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G173">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H173">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I173">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="J173">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="K173">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L173">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M173">
         <v>94</v>
       </c>
       <c r="N173">
-        <v>105</v>
-      </c>
-      <c r="O173" s="61">
-        <f t="shared" si="15"/>
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="O173" s="21">
+        <f t="shared" si="17"/>
+        <v>88</v>
       </c>
       <c r="P173" s="21">
-        <f t="shared" si="13"/>
-        <v>29.49</v>
+        <f t="shared" si="18"/>
+        <v>6.23</v>
       </c>
       <c r="T173">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="U173">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="174" spans="2:21" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B174" s="23">
         <v>45999</v>
       </c>
       <c r="C174">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D174">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E174">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F174">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G174">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="H174">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="I174">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J174">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K174">
         <v>54</v>
       </c>
       <c r="L174">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M174">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N174">
-        <v>60</v>
-      </c>
-      <c r="O174" s="61">
-        <f t="shared" si="15"/>
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="O174" s="21">
+        <f t="shared" si="17"/>
+        <v>63</v>
       </c>
       <c r="P174" s="21">
-        <f t="shared" si="13"/>
-        <v>15.29</v>
+        <f t="shared" si="18"/>
+        <v>7.57</v>
       </c>
       <c r="T174">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="U174">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="175" spans="2:21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B175" s="23">
         <v>46000</v>
       </c>
       <c r="C175">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D175">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E175">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F175">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G175">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H175">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I175">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="J175">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="K175">
+        <v>66</v>
+      </c>
+      <c r="L175">
+        <v>68</v>
+      </c>
+      <c r="M175">
+        <v>66</v>
+      </c>
+      <c r="N175">
+        <v>65</v>
+      </c>
+      <c r="O175" s="21">
+        <f t="shared" si="17"/>
+        <v>73</v>
+      </c>
+      <c r="P175" s="21">
+        <f t="shared" si="18"/>
+        <v>7.95</v>
+      </c>
+      <c r="T175">
+        <v>73</v>
+      </c>
+      <c r="U175">
         <v>71</v>
       </c>
-      <c r="L175">
-        <v>69</v>
-      </c>
-      <c r="M175">
-        <v>67</v>
-      </c>
-      <c r="N175">
-        <v>67</v>
-      </c>
-      <c r="O175" s="61">
-        <f t="shared" si="15"/>
-        <v>51</v>
-      </c>
-      <c r="P175" s="21">
-        <f t="shared" si="13"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="T175">
-        <v>40</v>
-      </c>
-      <c r="U175">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B176" s="23">
         <v>46001</v>
       </c>
       <c r="C176">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D176">
+        <v>91</v>
+      </c>
+      <c r="E176">
+        <v>108</v>
+      </c>
+      <c r="F176">
+        <v>108</v>
+      </c>
+      <c r="G176">
+        <v>101</v>
+      </c>
+      <c r="H176">
+        <v>114</v>
+      </c>
+      <c r="I176">
+        <v>113</v>
+      </c>
+      <c r="J176">
+        <v>111</v>
+      </c>
+      <c r="K176">
+        <v>99</v>
+      </c>
+      <c r="L176">
         <v>96</v>
       </c>
-      <c r="E176">
-        <v>60</v>
-      </c>
-      <c r="F176">
-        <v>74</v>
-      </c>
-      <c r="G176">
-        <v>39</v>
-      </c>
-      <c r="H176">
-        <v>39</v>
-      </c>
-      <c r="I176">
-        <v>32</v>
-      </c>
-      <c r="J176">
-        <v>71</v>
-      </c>
-      <c r="K176">
-        <v>97</v>
-      </c>
-      <c r="L176">
-        <v>102</v>
-      </c>
       <c r="M176">
+        <v>101</v>
+      </c>
+      <c r="N176">
+        <v>114</v>
+      </c>
+      <c r="O176" s="21">
+        <f t="shared" si="17"/>
+        <v>104</v>
+      </c>
+      <c r="P176" s="21">
+        <f t="shared" si="18"/>
+        <v>7.37</v>
+      </c>
+      <c r="T176">
+        <v>103</v>
+      </c>
+      <c r="U176">
         <v>93</v>
-      </c>
-      <c r="N176">
-        <v>100</v>
-      </c>
-      <c r="O176" s="61">
-        <f t="shared" si="15"/>
-        <v>74</v>
-      </c>
-      <c r="P176" s="21">
-        <f t="shared" si="13"/>
-        <v>25.52</v>
-      </c>
-      <c r="T176">
-        <v>65</v>
-      </c>
-      <c r="U176">
-        <v>72</v>
       </c>
     </row>
     <row r="177" spans="2:21" x14ac:dyDescent="0.25">
@@ -38881,51 +39201,51 @@
         <v>89</v>
       </c>
       <c r="D177">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E177">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F177">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="G177">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H177">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I177">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="J177">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="K177">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L177">
+        <v>97</v>
+      </c>
+      <c r="M177">
         <v>91</v>
       </c>
-      <c r="M177">
+      <c r="N177">
+        <v>91</v>
+      </c>
+      <c r="O177" s="21">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="P177" s="21">
+        <f t="shared" si="18"/>
+        <v>8.92</v>
+      </c>
+      <c r="T177">
         <v>83</v>
       </c>
-      <c r="N177">
-        <v>86</v>
-      </c>
-      <c r="O177" s="61">
-        <f t="shared" si="15"/>
-        <v>68</v>
-      </c>
-      <c r="P177" s="21">
-        <f t="shared" si="13"/>
-        <v>23.61</v>
-      </c>
-      <c r="T177">
-        <v>55</v>
-      </c>
       <c r="U177">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178" spans="2:21" x14ac:dyDescent="0.25">
@@ -38933,54 +39253,54 @@
         <v>46003</v>
       </c>
       <c r="C178">
+        <v>134</v>
+      </c>
+      <c r="D178">
+        <v>130</v>
+      </c>
+      <c r="E178">
+        <v>142</v>
+      </c>
+      <c r="F178">
+        <v>144</v>
+      </c>
+      <c r="G178">
+        <v>145</v>
+      </c>
+      <c r="H178">
+        <v>145</v>
+      </c>
+      <c r="I178">
+        <v>157</v>
+      </c>
+      <c r="J178">
+        <v>142</v>
+      </c>
+      <c r="K178">
+        <v>132</v>
+      </c>
+      <c r="L178">
+        <v>137</v>
+      </c>
+      <c r="M178">
         <v>133</v>
       </c>
-      <c r="D178">
-        <v>132</v>
-      </c>
-      <c r="E178">
-        <v>85</v>
-      </c>
-      <c r="F178">
-        <v>95</v>
-      </c>
-      <c r="G178">
-        <v>75</v>
-      </c>
-      <c r="H178">
-        <v>65</v>
-      </c>
-      <c r="I178">
-        <v>46</v>
-      </c>
-      <c r="J178">
-        <v>126</v>
-      </c>
-      <c r="K178">
-        <v>134</v>
-      </c>
-      <c r="L178">
-        <v>134</v>
-      </c>
-      <c r="M178">
-        <v>135</v>
-      </c>
       <c r="N178">
-        <v>135</v>
-      </c>
-      <c r="O178" s="61">
-        <f t="shared" si="15"/>
-        <v>106</v>
+        <v>133</v>
+      </c>
+      <c r="O178" s="21">
+        <f t="shared" si="17"/>
+        <v>140</v>
       </c>
       <c r="P178" s="21">
-        <f t="shared" si="13"/>
-        <v>31.38</v>
+        <f t="shared" si="18"/>
+        <v>6.91</v>
       </c>
       <c r="T178">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="U178">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="2:21" x14ac:dyDescent="0.25">
@@ -38988,54 +39308,54 @@
         <v>46004</v>
       </c>
       <c r="C179">
+        <v>193</v>
+      </c>
+      <c r="D179">
+        <v>180</v>
+      </c>
+      <c r="E179">
+        <v>215</v>
+      </c>
+      <c r="F179">
+        <v>217</v>
+      </c>
+      <c r="G179">
+        <v>260</v>
+      </c>
+      <c r="H179">
+        <v>248</v>
+      </c>
+      <c r="I179">
+        <v>260</v>
+      </c>
+      <c r="J179">
+        <v>248</v>
+      </c>
+      <c r="K179">
+        <v>188</v>
+      </c>
+      <c r="L179">
+        <v>192</v>
+      </c>
+      <c r="M179">
         <v>187</v>
       </c>
-      <c r="D179">
-        <v>192</v>
-      </c>
-      <c r="E179">
-        <v>130</v>
-      </c>
-      <c r="F179">
-        <v>134</v>
-      </c>
-      <c r="G179">
-        <v>127</v>
-      </c>
-      <c r="H179">
-        <v>113</v>
-      </c>
-      <c r="I179">
-        <v>80</v>
-      </c>
-      <c r="J179">
-        <v>171</v>
-      </c>
-      <c r="K179">
-        <v>189</v>
-      </c>
-      <c r="L179">
-        <v>196</v>
-      </c>
-      <c r="M179">
-        <v>176</v>
-      </c>
       <c r="N179">
-        <v>192</v>
-      </c>
-      <c r="O179" s="61">
-        <f t="shared" si="15"/>
-        <v>154</v>
+        <v>184</v>
+      </c>
+      <c r="O179" s="21">
+        <f t="shared" si="17"/>
+        <v>215</v>
       </c>
       <c r="P179" s="21">
-        <f t="shared" si="13"/>
-        <v>37.049999999999997</v>
+        <f t="shared" si="18"/>
+        <v>27.99</v>
       </c>
       <c r="T179">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="U179">
-        <v>139</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="2:21" x14ac:dyDescent="0.25">
@@ -39043,54 +39363,54 @@
         <v>46005</v>
       </c>
       <c r="C180">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D180">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E180">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F180">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G180">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H180">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I180">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J180">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="L180">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M180">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N180">
-        <v>83</v>
-      </c>
-      <c r="O180" s="61">
-        <f t="shared" si="15"/>
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="O180" s="21">
+        <f t="shared" si="17"/>
+        <v>68</v>
       </c>
       <c r="P180" s="21">
-        <f t="shared" si="13"/>
-        <v>25.17</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="T180">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="U180">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="2:21" x14ac:dyDescent="0.25">
@@ -39098,54 +39418,54 @@
         <v>46006</v>
       </c>
       <c r="C181">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D181">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E181">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F181">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G181">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H181">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I181">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J181">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K181">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="L181">
+        <v>59</v>
+      </c>
+      <c r="M181">
+        <v>65</v>
+      </c>
+      <c r="N181">
         <v>61</v>
       </c>
-      <c r="M181">
-        <v>69</v>
-      </c>
-      <c r="N181">
-        <v>68</v>
-      </c>
-      <c r="O181" s="61">
-        <f t="shared" si="15"/>
-        <v>45</v>
+      <c r="O181" s="21">
+        <f t="shared" si="17"/>
+        <v>57</v>
       </c>
       <c r="P181" s="21">
-        <f t="shared" si="13"/>
-        <v>19.75</v>
+        <f t="shared" si="18"/>
+        <v>11.92</v>
       </c>
       <c r="T181">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="U181">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182" spans="2:21" x14ac:dyDescent="0.25">
@@ -39153,54 +39473,54 @@
         <v>46007</v>
       </c>
       <c r="C182">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D182">
+        <v>67</v>
+      </c>
+      <c r="E182">
+        <v>65</v>
+      </c>
+      <c r="F182">
+        <v>66</v>
+      </c>
+      <c r="G182">
+        <v>64</v>
+      </c>
+      <c r="H182">
+        <v>81</v>
+      </c>
+      <c r="I182">
+        <v>90</v>
+      </c>
+      <c r="J182">
+        <v>92</v>
+      </c>
+      <c r="K182">
+        <v>59</v>
+      </c>
+      <c r="L182">
+        <v>46</v>
+      </c>
+      <c r="M182">
         <v>58</v>
       </c>
-      <c r="E182">
-        <v>33</v>
-      </c>
-      <c r="F182">
-        <v>36</v>
-      </c>
-      <c r="G182">
-        <v>16</v>
-      </c>
-      <c r="H182">
-        <v>18</v>
-      </c>
-      <c r="I182">
-        <v>21</v>
-      </c>
-      <c r="J182">
-        <v>50</v>
-      </c>
-      <c r="K182">
-        <v>54</v>
-      </c>
-      <c r="L182">
-        <v>54</v>
-      </c>
-      <c r="M182">
-        <v>56</v>
-      </c>
       <c r="N182">
-        <v>59</v>
-      </c>
-      <c r="O182" s="61">
-        <f t="shared" si="15"/>
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="O182" s="21">
+        <f t="shared" si="17"/>
+        <v>67</v>
       </c>
       <c r="P182" s="21">
-        <f t="shared" si="13"/>
-        <v>16.46</v>
+        <f t="shared" si="18"/>
+        <v>12.15</v>
       </c>
       <c r="T182">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="U182">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="2:21" x14ac:dyDescent="0.25">
@@ -39208,54 +39528,54 @@
         <v>46008</v>
       </c>
       <c r="C183">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D183">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E183">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="F183">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G183">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="H183">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="I183">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="J183">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="K183">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L183">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M183">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N183">
-        <v>93</v>
-      </c>
-      <c r="O183" s="61">
-        <f t="shared" si="15"/>
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="O183" s="21">
+        <f t="shared" si="17"/>
+        <v>114</v>
       </c>
       <c r="P183" s="21">
-        <f t="shared" si="13"/>
-        <v>26.85</v>
+        <f t="shared" si="18"/>
+        <v>18.190000000000001</v>
       </c>
       <c r="T183">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="U183">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="2:21" x14ac:dyDescent="0.25">
@@ -39266,51 +39586,51 @@
         <v>136</v>
       </c>
       <c r="D184">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E184">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F184">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="G184">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="H184">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="I184">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="J184">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="K184">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="L184">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M184">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N184">
-        <v>136</v>
-      </c>
-      <c r="O184" s="61">
-        <f t="shared" si="15"/>
-        <v>103</v>
+        <v>133</v>
+      </c>
+      <c r="O184" s="21">
+        <f t="shared" si="17"/>
+        <v>152</v>
       </c>
       <c r="P184" s="21">
-        <f t="shared" si="13"/>
-        <v>35.46</v>
+        <f t="shared" si="18"/>
+        <v>19.66</v>
       </c>
       <c r="T184">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="U184">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" spans="2:21" x14ac:dyDescent="0.25">
@@ -39318,54 +39638,54 @@
         <v>46010</v>
       </c>
       <c r="C185">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D185">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E185">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="F185">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="G185">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="H185">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="I185">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="J185">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="K185">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L185">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="M185">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="N185">
-        <v>192</v>
-      </c>
-      <c r="O185" s="61">
-        <f t="shared" si="15"/>
-        <v>155</v>
+        <v>194</v>
+      </c>
+      <c r="O185" s="21">
+        <f t="shared" si="17"/>
+        <v>199</v>
       </c>
       <c r="P185" s="21">
-        <f t="shared" si="13"/>
-        <v>39.18</v>
+        <f t="shared" si="18"/>
+        <v>8.02</v>
       </c>
       <c r="T185">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="U185">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="2:21" x14ac:dyDescent="0.25">
@@ -39373,54 +39693,54 @@
         <v>46011</v>
       </c>
       <c r="C186">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D186">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E186">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="F186">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="G186">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="H186">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="I186">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="J186">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="K186">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L186">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M186">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N186">
-        <v>194</v>
-      </c>
-      <c r="O186" s="61">
-        <f t="shared" si="15"/>
-        <v>157</v>
+        <v>197</v>
+      </c>
+      <c r="O186" s="21">
+        <f t="shared" si="17"/>
+        <v>215</v>
       </c>
       <c r="P186" s="21">
-        <f t="shared" si="13"/>
-        <v>33.11</v>
+        <f t="shared" si="18"/>
+        <v>24.85</v>
       </c>
       <c r="T186">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="U186">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="2:21" x14ac:dyDescent="0.25">
@@ -39428,54 +39748,54 @@
         <v>46012</v>
       </c>
       <c r="C187">
+        <v>142</v>
+      </c>
+      <c r="D187">
+        <v>150</v>
+      </c>
+      <c r="E187">
+        <v>143</v>
+      </c>
+      <c r="F187">
+        <v>149</v>
+      </c>
+      <c r="G187">
+        <v>132</v>
+      </c>
+      <c r="H187">
+        <v>151</v>
+      </c>
+      <c r="I187">
+        <v>138</v>
+      </c>
+      <c r="J187">
+        <v>144</v>
+      </c>
+      <c r="K187">
+        <v>152</v>
+      </c>
+      <c r="L187">
+        <v>164</v>
+      </c>
+      <c r="M187">
+        <v>135</v>
+      </c>
+      <c r="N187">
         <v>145</v>
       </c>
-      <c r="D187">
-        <v>120</v>
-      </c>
-      <c r="E187">
-        <v>84</v>
-      </c>
-      <c r="F187">
-        <v>91</v>
-      </c>
-      <c r="G187">
-        <v>54</v>
-      </c>
-      <c r="H187">
-        <v>52</v>
-      </c>
-      <c r="I187">
-        <v>37</v>
-      </c>
-      <c r="J187">
-        <v>50</v>
-      </c>
-      <c r="K187">
-        <v>138</v>
-      </c>
-      <c r="L187">
-        <v>132</v>
-      </c>
-      <c r="M187">
-        <v>141</v>
-      </c>
-      <c r="N187">
-        <v>133</v>
-      </c>
-      <c r="O187" s="61">
-        <f t="shared" si="15"/>
-        <v>95</v>
+      <c r="O187" s="21">
+        <f t="shared" si="17"/>
+        <v>142</v>
       </c>
       <c r="P187" s="21">
-        <f t="shared" si="13"/>
-        <v>39.630000000000003</v>
+        <f t="shared" si="18"/>
+        <v>12.25</v>
       </c>
       <c r="T187">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="U187">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="2:21" x14ac:dyDescent="0.25">
@@ -39483,54 +39803,54 @@
         <v>46013</v>
       </c>
       <c r="C188">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D188">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="E188">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="F188">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="G188">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="H188">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="I188">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="J188">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="K188">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L188">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M188">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N188">
-        <v>96</v>
-      </c>
-      <c r="O188" s="61">
-        <f t="shared" si="15"/>
-        <v>73</v>
+        <v>118</v>
+      </c>
+      <c r="O188" s="21">
+        <f t="shared" si="17"/>
+        <v>127</v>
       </c>
       <c r="P188" s="21">
-        <f>ROUND(_xlfn.STDEV.P(C188:N188),2)</f>
-        <v>23.58</v>
+        <f t="shared" si="18"/>
+        <v>20.100000000000001</v>
       </c>
       <c r="T188">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="U188">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="189" spans="2:21" x14ac:dyDescent="0.25">
@@ -39538,54 +39858,54 @@
         <v>46014</v>
       </c>
       <c r="C189">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D189">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E189">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F189">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="G189">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I189">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="J189">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="K189">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L189">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M189">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N189">
-        <v>95</v>
-      </c>
-      <c r="O189" s="61">
-        <f t="shared" si="15"/>
-        <v>70</v>
+        <v>105</v>
+      </c>
+      <c r="O189" s="21">
+        <f t="shared" si="17"/>
+        <v>112</v>
       </c>
       <c r="P189" s="21">
-        <f t="shared" si="13"/>
-        <v>28.43</v>
+        <f t="shared" si="18"/>
+        <v>16.62</v>
       </c>
       <c r="T189">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="U189">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="2:21" x14ac:dyDescent="0.25">
@@ -39593,54 +39913,54 @@
         <v>46015</v>
       </c>
       <c r="C190">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D190">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E190">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F190">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G190">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H190">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="I190">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="J190">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="K190">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="L190">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M190">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="N190">
-        <v>156</v>
-      </c>
-      <c r="O190" s="61">
-        <f t="shared" si="15"/>
-        <v>107</v>
+        <v>149</v>
+      </c>
+      <c r="O190" s="21">
+        <f t="shared" si="17"/>
+        <v>129</v>
       </c>
       <c r="P190" s="21">
-        <f t="shared" si="13"/>
-        <v>48.91</v>
+        <f t="shared" si="18"/>
+        <v>24.62</v>
       </c>
       <c r="T190">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="U190">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="191" spans="2:21" x14ac:dyDescent="0.25">
@@ -39648,54 +39968,54 @@
         <v>46016</v>
       </c>
       <c r="C191">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E191">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F191">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G191">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="H191">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="I191">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="J191">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="K191">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L191">
         <v>16</v>
       </c>
       <c r="M191">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N191">
-        <v>11</v>
-      </c>
-      <c r="O191" s="61">
-        <f t="shared" si="15"/>
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="O191" s="21">
+        <f t="shared" si="17"/>
+        <v>56</v>
       </c>
       <c r="P191" s="21">
-        <f t="shared" si="13"/>
-        <v>13.82</v>
+        <f t="shared" si="18"/>
+        <v>39.18</v>
       </c>
       <c r="T191">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="U191">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192" spans="2:21" x14ac:dyDescent="0.25">
@@ -39703,54 +40023,54 @@
         <v>46017</v>
       </c>
       <c r="C192">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D192">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E192">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="F192">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="G192">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="H192">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="I192">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="J192">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="K192">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L192">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M192">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N192">
-        <v>79</v>
-      </c>
-      <c r="O192" s="61">
-        <f t="shared" si="15"/>
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="O192" s="21">
+        <f t="shared" si="17"/>
+        <v>130</v>
       </c>
       <c r="P192" s="21">
-        <f t="shared" si="13"/>
-        <v>21.61</v>
+        <f t="shared" si="18"/>
+        <v>43.18</v>
       </c>
       <c r="T192">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="U192">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193" spans="2:21" x14ac:dyDescent="0.25">
@@ -39758,54 +40078,54 @@
         <v>46018</v>
       </c>
       <c r="C193">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D193">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E193">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="F193">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="G193">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="H193">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="I193">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="J193">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="K193">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L193">
+        <v>202</v>
+      </c>
+      <c r="M193">
         <v>200</v>
       </c>
-      <c r="M193">
-        <v>186</v>
-      </c>
       <c r="N193">
-        <v>200</v>
-      </c>
-      <c r="O193" s="61">
-        <f t="shared" si="15"/>
-        <v>160</v>
+        <v>197</v>
+      </c>
+      <c r="O193" s="21">
+        <f t="shared" si="17"/>
+        <v>214</v>
       </c>
       <c r="P193" s="21">
-        <f t="shared" si="13"/>
-        <v>42.17</v>
+        <f t="shared" si="18"/>
+        <v>12.51</v>
       </c>
       <c r="T193">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="U193">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="2:21" x14ac:dyDescent="0.25">
@@ -39813,54 +40133,54 @@
         <v>46019</v>
       </c>
       <c r="C194">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D194">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E194">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F194">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G194">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="H194">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="I194">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="J194">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K194">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L194">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M194">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N194">
-        <v>67</v>
-      </c>
-      <c r="O194" s="61">
-        <f t="shared" si="15"/>
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="O194" s="21">
+        <f t="shared" si="17"/>
+        <v>89</v>
       </c>
       <c r="P194" s="21">
-        <f t="shared" si="13"/>
-        <v>17.940000000000001</v>
+        <f t="shared" si="18"/>
+        <v>15.5</v>
       </c>
       <c r="T194">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="U194">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="195" spans="2:21" x14ac:dyDescent="0.25">
@@ -39868,54 +40188,54 @@
         <v>46020</v>
       </c>
       <c r="C195">
+        <v>115</v>
+      </c>
+      <c r="D195">
+        <v>115</v>
+      </c>
+      <c r="E195">
+        <v>132</v>
+      </c>
+      <c r="F195">
+        <v>133</v>
+      </c>
+      <c r="G195">
+        <v>149</v>
+      </c>
+      <c r="H195">
+        <v>164</v>
+      </c>
+      <c r="I195">
+        <v>157</v>
+      </c>
+      <c r="J195">
+        <v>163</v>
+      </c>
+      <c r="K195">
         <v>107</v>
       </c>
-      <c r="D195">
-        <v>92</v>
-      </c>
-      <c r="E195">
-        <v>66</v>
-      </c>
-      <c r="F195">
-        <v>72</v>
-      </c>
-      <c r="G195">
-        <v>35</v>
-      </c>
-      <c r="H195">
-        <v>37</v>
-      </c>
-      <c r="I195">
-        <v>35</v>
-      </c>
-      <c r="J195">
-        <v>46</v>
-      </c>
-      <c r="K195">
-        <v>108</v>
-      </c>
       <c r="L195">
+        <v>116</v>
+      </c>
+      <c r="M195">
+        <v>102</v>
+      </c>
+      <c r="N195">
+        <v>112</v>
+      </c>
+      <c r="O195" s="21">
+        <f t="shared" si="17"/>
+        <v>128</v>
+      </c>
+      <c r="P195" s="21">
+        <f t="shared" si="18"/>
+        <v>21.12</v>
+      </c>
+      <c r="T195">
+        <v>120</v>
+      </c>
+      <c r="U195">
         <v>106</v>
-      </c>
-      <c r="M195">
-        <v>110</v>
-      </c>
-      <c r="N195">
-        <v>102</v>
-      </c>
-      <c r="O195" s="61">
-        <f t="shared" si="15"/>
-        <v>75</v>
-      </c>
-      <c r="P195" s="21">
-        <f t="shared" ref="P195:P197" si="16">ROUND(_xlfn.STDEV.P(C195:N195),2)</f>
-        <v>30.1</v>
-      </c>
-      <c r="T195">
-        <v>64</v>
-      </c>
-      <c r="U195">
-        <v>63</v>
       </c>
     </row>
     <row r="196" spans="2:21" x14ac:dyDescent="0.25">
@@ -39923,54 +40243,54 @@
         <v>46021</v>
       </c>
       <c r="C196">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D196">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E196">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F196">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="G196">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="H196">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="I196">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="J196">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="K196">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L196">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M196">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N196">
-        <v>81</v>
-      </c>
-      <c r="O196" s="61">
-        <f t="shared" si="15"/>
-        <v>62</v>
+        <v>91</v>
+      </c>
+      <c r="O196" s="21">
+        <f t="shared" si="17"/>
+        <v>101</v>
       </c>
       <c r="P196" s="21">
-        <f t="shared" si="16"/>
-        <v>23.37</v>
+        <f t="shared" si="18"/>
+        <v>15.84</v>
       </c>
       <c r="T196">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="U196">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="197" spans="2:21" x14ac:dyDescent="0.25">
@@ -39978,83 +40298,83 @@
         <v>46022</v>
       </c>
       <c r="C197">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D197">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E197">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F197">
+        <v>162</v>
+      </c>
+      <c r="G197">
         <v>123</v>
       </c>
-      <c r="G197">
-        <v>48</v>
-      </c>
       <c r="H197">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="I197">
+        <v>138</v>
+      </c>
+      <c r="J197">
+        <v>144</v>
+      </c>
+      <c r="K197">
+        <v>186</v>
+      </c>
+      <c r="L197">
+        <v>203</v>
+      </c>
+      <c r="M197">
+        <v>201</v>
+      </c>
+      <c r="N197">
+        <v>188</v>
+      </c>
+      <c r="O197" s="21">
+        <f t="shared" si="17"/>
+        <v>164</v>
+      </c>
+      <c r="P197" s="21">
+        <f t="shared" si="18"/>
+        <v>27.19</v>
+      </c>
+      <c r="T197">
+        <v>150</v>
+      </c>
+      <c r="U197">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="198" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C198" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D198" s="59"/>
+      <c r="E198" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="J197">
-        <v>92</v>
-      </c>
-      <c r="K197">
-        <v>206</v>
-      </c>
-      <c r="L197">
-        <v>196</v>
-      </c>
-      <c r="M197">
-        <v>180</v>
-      </c>
-      <c r="N197">
-        <v>178</v>
-      </c>
-      <c r="O197" s="61">
-        <f t="shared" si="15"/>
-        <v>132</v>
-      </c>
-      <c r="P197" s="21">
-        <f t="shared" si="16"/>
-        <v>56.01</v>
-      </c>
-      <c r="T197">
-        <v>120</v>
-      </c>
-      <c r="U197">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="198" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C198" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D198" s="57"/>
-      <c r="E198" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="F198" s="57"/>
-      <c r="G198" s="57" t="s">
+      <c r="F198" s="59"/>
+      <c r="G198" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="H198" s="57"/>
-      <c r="I198" s="57" t="s">
+      <c r="H198" s="59"/>
+      <c r="I198" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="J198" s="57"/>
-      <c r="K198" s="57" t="s">
+      <c r="J198" s="59"/>
+      <c r="K198" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L198" s="57"/>
-      <c r="M198" s="57" t="s">
+      <c r="L198" s="59"/>
+      <c r="M198" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="N198" s="58"/>
-      <c r="O198" s="63"/>
-      <c r="P198" s="64"/>
+      <c r="N198" s="60"/>
+      <c r="O198" s="50"/>
+      <c r="P198" s="51"/>
       <c r="T198" t="s">
         <v>61</v>
       </c>
@@ -40078,7 +40398,7 @@
       <formula>ABS(C114-$A114)&lt;=15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R150">
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R165">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -40108,30 +40428,30 @@
         <v>43</v>
       </c>
       <c r="B1" s="35"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
       <c r="Y1" t="s">
         <v>39</v>
       </c>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D2D048-1602-4E9B-9BB6-9A86D08C9ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E4B7C2-035C-4B75-86CC-532D7FC5732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>day</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>daylight saving end</t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>no prior</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -703,15 +709,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,11 +1124,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q651"/>
+  <dimension ref="A1:R651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A618" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M619" sqref="M619"/>
+      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q652" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17051,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="H598" s="9">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J598" s="45"/>
       <c r="K598" s="46"/>
@@ -17080,7 +17082,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="H599" s="9">
-        <v>17.100000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="J599" s="45"/>
       <c r="K599" s="46"/>
@@ -17109,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="H600" s="9">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="J600" s="45"/>
       <c r="K600" s="46"/>
@@ -17514,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="H615" s="9">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="616" spans="1:17" x14ac:dyDescent="0.25">
@@ -17540,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="H616" s="9">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="617" spans="1:17" x14ac:dyDescent="0.25">
@@ -17557,7 +17559,7 @@
         <v>0</v>
       </c>
       <c r="E617" s="9">
-        <v>28.4</v>
+        <v>29.3</v>
       </c>
       <c r="F617" s="9">
         <v>0</v>
@@ -17566,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="H617" s="9">
-        <v>17.600000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="I617" s="42" t="s">
         <v>25</v>
@@ -17586,7 +17588,7 @@
         <v>20</v>
       </c>
       <c r="E618" s="9">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="F618" s="9">
         <v>0</v>
@@ -17595,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="H618" s="9">
-        <v>9.9</v>
+        <v>7.8</v>
       </c>
       <c r="I618" s="42" t="s">
         <v>26</v>
@@ -17615,16 +17617,16 @@
         <v>52</v>
       </c>
       <c r="E619" s="9">
-        <v>28.6</v>
+        <v>27.5</v>
       </c>
       <c r="F619" s="9">
-        <v>0</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="G619" s="9">
         <v>9</v>
       </c>
       <c r="H619" s="9">
-        <v>9.1999999999999993</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="620" spans="1:17" x14ac:dyDescent="0.25">
@@ -17638,22 +17640,19 @@
         <v>45991</v>
       </c>
       <c r="D620" s="14">
-        <v>68.5</v>
+        <v>53</v>
       </c>
       <c r="E620" s="9">
-        <v>25.7</v>
+        <v>27.9</v>
       </c>
       <c r="F620" s="9">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="G620" s="9">
         <v>0</v>
       </c>
       <c r="H620" s="9">
-        <v>14.6</v>
-      </c>
-      <c r="J620" s="9">
-        <v>16.700000000000003</v>
+        <v>11.2</v>
       </c>
       <c r="Q620" s="40"/>
     </row>
@@ -17668,22 +17667,19 @@
         <v>45992</v>
       </c>
       <c r="D621" s="14">
-        <v>63.5</v>
+        <v>20</v>
       </c>
       <c r="E621" s="9">
-        <v>17.8</v>
+        <v>23.9</v>
       </c>
       <c r="F621" s="9">
-        <v>0</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="G621" s="9">
         <v>0</v>
       </c>
       <c r="H621" s="9">
-        <v>7.7</v>
-      </c>
-      <c r="J621" s="9">
-        <v>17.355</v>
+        <v>4.5</v>
       </c>
       <c r="Q621" s="40"/>
     </row>
@@ -17698,22 +17694,19 @@
         <v>45993</v>
       </c>
       <c r="D622" s="14">
-        <v>71.5</v>
+        <v>66</v>
       </c>
       <c r="E622" s="9">
-        <v>20.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F622" s="9">
-        <v>0.03</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G622" s="9">
         <v>0</v>
       </c>
       <c r="H622" s="9">
-        <v>8.1</v>
-      </c>
-      <c r="J622" s="9">
-        <v>12.065</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q622" s="40"/>
     </row>
@@ -17728,22 +17721,19 @@
         <v>45994</v>
       </c>
       <c r="D623" s="14">
-        <v>91.5</v>
+        <v>95</v>
       </c>
       <c r="E623" s="9">
-        <v>27.1</v>
+        <v>25.2</v>
       </c>
       <c r="F623" s="9">
-        <v>0</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G623" s="9">
         <v>0</v>
       </c>
       <c r="H623" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="J623" s="9">
-        <v>8.5300000000000011</v>
+        <v>11.5</v>
       </c>
       <c r="Q623" s="40"/>
     </row>
@@ -17758,10 +17748,10 @@
         <v>45995</v>
       </c>
       <c r="D624" s="14">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E624" s="9">
-        <v>25.5</v>
+        <v>12.9</v>
       </c>
       <c r="F624" s="9">
         <v>0</v>
@@ -17770,14 +17760,11 @@
         <v>0</v>
       </c>
       <c r="H624" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="J624" s="9">
-        <v>7.82</v>
+        <v>7.7</v>
       </c>
       <c r="Q624" s="40"/>
     </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A625" s="6">
         <v>6</v>
       </c>
@@ -17788,10 +17775,10 @@
         <v>45996</v>
       </c>
       <c r="D625" s="14">
-        <v>129.5</v>
+        <v>113</v>
       </c>
       <c r="E625" s="9">
-        <v>26.4</v>
+        <v>20.3</v>
       </c>
       <c r="F625" s="9">
         <v>0</v>
@@ -17800,14 +17787,11 @@
         <v>0</v>
       </c>
       <c r="H625" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="J625" s="9">
-        <v>5.71</v>
+        <v>10</v>
       </c>
       <c r="Q625" s="40"/>
     </row>
-    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A626" s="6">
         <v>7</v>
       </c>
@@ -17818,10 +17802,10 @@
         <v>45997</v>
       </c>
       <c r="D626" s="14">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E626" s="9">
-        <v>28.8</v>
+        <v>27.1</v>
       </c>
       <c r="F626" s="9">
         <v>0</v>
@@ -17830,14 +17814,11 @@
         <v>0</v>
       </c>
       <c r="H626" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="J626" s="9">
-        <v>6.09</v>
+        <v>8.1</v>
       </c>
       <c r="Q626" s="40"/>
     </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A627" s="6">
         <v>1</v>
       </c>
@@ -17848,10 +17829,10 @@
         <v>45998</v>
       </c>
       <c r="D627" s="14">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E627" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F627" s="9">
         <v>0.06</v>
@@ -17860,14 +17841,11 @@
         <v>0.5</v>
       </c>
       <c r="H627" s="9">
-        <v>9</v>
-      </c>
-      <c r="J627" s="9">
-        <v>8.9550000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="Q627" s="40"/>
     </row>
-    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A628" s="6">
         <v>2</v>
       </c>
@@ -17878,10 +17856,10 @@
         <v>45999</v>
       </c>
       <c r="D628" s="14">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E628" s="9">
-        <v>32</v>
+        <v>22.6</v>
       </c>
       <c r="F628" s="9">
         <v>0.09</v>
@@ -17892,12 +17870,9 @@
       <c r="H628" s="9">
         <v>8</v>
       </c>
-      <c r="J628" s="9">
-        <v>5.82</v>
-      </c>
       <c r="Q628" s="40"/>
     </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A629" s="6">
         <v>3</v>
       </c>
@@ -17908,10 +17883,10 @@
         <v>46000</v>
       </c>
       <c r="D629" s="14">
-        <v>70</v>
+        <v>56.5</v>
       </c>
       <c r="E629" s="9">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="F629" s="9">
         <v>0</v>
@@ -17920,14 +17895,15 @@
         <v>0</v>
       </c>
       <c r="H629" s="9">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="J629" s="9">
-        <v>5.7200000000000006</v>
-      </c>
-      <c r="Q629" s="40"/>
-    </row>
-    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.5649999999999995</v>
+      </c>
+      <c r="Q629" s="39"/>
+      <c r="R629" s="40"/>
+    </row>
+    <row r="630" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A630" s="6">
         <v>4</v>
       </c>
@@ -17938,10 +17914,10 @@
         <v>46001</v>
       </c>
       <c r="D630" s="14">
-        <v>99.5</v>
+        <v>81.5</v>
       </c>
       <c r="E630" s="9">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="F630" s="9">
         <v>7.0000000000000007E-2</v>
@@ -17950,14 +17926,15 @@
         <v>0.7</v>
       </c>
       <c r="H630" s="9">
-        <v>7</v>
+        <v>12.1</v>
       </c>
       <c r="J630" s="9">
-        <v>7.6400000000000006</v>
-      </c>
-      <c r="Q630" s="40"/>
-    </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
+        <v>17.625</v>
+      </c>
+      <c r="Q630" s="39"/>
+      <c r="R630" s="40"/>
+    </row>
+    <row r="631" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A631" s="6">
         <v>5</v>
       </c>
@@ -17968,10 +17945,10 @@
         <v>46002</v>
       </c>
       <c r="D631" s="14">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E631" s="9">
-        <v>27</v>
+        <v>28.9</v>
       </c>
       <c r="F631" s="9">
         <v>0.12</v>
@@ -17980,14 +17957,15 @@
         <v>0.8</v>
       </c>
       <c r="H631" s="9">
-        <v>15</v>
+        <v>12.6</v>
       </c>
       <c r="J631" s="9">
-        <v>7.82</v>
-      </c>
-      <c r="Q631" s="40"/>
-    </row>
-    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
+        <v>17.21</v>
+      </c>
+      <c r="Q631" s="39"/>
+      <c r="R631" s="40"/>
+    </row>
+    <row r="632" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A632" s="6">
         <v>6</v>
       </c>
@@ -17998,10 +17976,10 @@
         <v>46003</v>
       </c>
       <c r="D632" s="14">
-        <v>136.5</v>
+        <v>126.5</v>
       </c>
       <c r="E632" s="9">
-        <v>21</v>
+        <v>28.4</v>
       </c>
       <c r="F632" s="9">
         <v>0</v>
@@ -18010,14 +17988,15 @@
         <v>0</v>
       </c>
       <c r="H632" s="9">
-        <v>9</v>
+        <v>11.6</v>
       </c>
       <c r="J632" s="9">
-        <v>6.7249999999999996</v>
-      </c>
-      <c r="Q632" s="40"/>
-    </row>
-    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21.17</v>
+      </c>
+      <c r="Q632" s="39"/>
+      <c r="R632" s="40"/>
+    </row>
+    <row r="633" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A633" s="6">
         <v>7</v>
       </c>
@@ -18028,7 +18007,7 @@
         <v>46004</v>
       </c>
       <c r="D633" s="14">
-        <v>200</v>
+        <v>179.5</v>
       </c>
       <c r="E633" s="9">
         <v>20.5</v>
@@ -18043,11 +18022,12 @@
         <v>7</v>
       </c>
       <c r="J633" s="9">
-        <v>18.299999999999997</v>
-      </c>
-      <c r="Q633" s="40"/>
-    </row>
-    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25.61</v>
+      </c>
+      <c r="Q633" s="39"/>
+      <c r="R633" s="40"/>
+    </row>
+    <row r="634" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A634" s="6">
         <v>1</v>
       </c>
@@ -18058,7 +18038,7 @@
         <v>46005</v>
       </c>
       <c r="D634" s="14">
-        <v>69</v>
+        <v>67.5</v>
       </c>
       <c r="E634" s="9">
         <v>23.5</v>
@@ -18073,11 +18053,12 @@
         <v>17</v>
       </c>
       <c r="J634" s="9">
-        <v>18.68</v>
-      </c>
-      <c r="Q634" s="40"/>
-    </row>
-    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
+        <v>16.89</v>
+      </c>
+      <c r="Q634" s="39"/>
+      <c r="R634" s="40"/>
+    </row>
+    <row r="635" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A635" s="6">
         <v>2</v>
       </c>
@@ -18088,7 +18069,7 @@
         <v>46006</v>
       </c>
       <c r="D635" s="14">
-        <v>58</v>
+        <v>59.5</v>
       </c>
       <c r="E635" s="9">
         <v>19</v>
@@ -18103,11 +18084,12 @@
         <v>16</v>
       </c>
       <c r="J635" s="9">
-        <v>11.835000000000001</v>
-      </c>
-      <c r="Q635" s="40"/>
-    </row>
-    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11.645</v>
+      </c>
+      <c r="Q635" s="39"/>
+      <c r="R635" s="40"/>
+    </row>
+    <row r="636" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A636" s="6">
         <v>3</v>
       </c>
@@ -18118,7 +18100,7 @@
         <v>46007</v>
       </c>
       <c r="D636" s="14">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E636" s="9">
         <v>17.5</v>
@@ -18133,11 +18115,12 @@
         <v>13</v>
       </c>
       <c r="J636" s="9">
-        <v>8.9400000000000013</v>
-      </c>
-      <c r="Q636" s="40"/>
-    </row>
-    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.8049999999999997</v>
+      </c>
+      <c r="Q636" s="39"/>
+      <c r="R636" s="40"/>
+    </row>
+    <row r="637" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A637" s="6">
         <v>4</v>
       </c>
@@ -18148,7 +18131,7 @@
         <v>46008</v>
       </c>
       <c r="D637" s="14">
-        <v>106</v>
+        <v>94.5</v>
       </c>
       <c r="E637" s="9">
         <v>18.5</v>
@@ -18163,11 +18146,12 @@
         <v>6</v>
       </c>
       <c r="J637" s="9">
-        <v>11.920000000000002</v>
-      </c>
-      <c r="Q637" s="40"/>
-    </row>
-    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18.164999999999999</v>
+      </c>
+      <c r="Q637" s="39"/>
+      <c r="R637" s="40"/>
+    </row>
+    <row r="638" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A638" s="6">
         <v>5</v>
       </c>
@@ -18178,7 +18162,7 @@
         <v>46009</v>
       </c>
       <c r="D638" s="14">
-        <v>142.5</v>
+        <v>140</v>
       </c>
       <c r="E638" s="9">
         <v>18</v>
@@ -18193,11 +18177,12 @@
         <v>4</v>
       </c>
       <c r="J638" s="9">
-        <v>14.405000000000001</v>
-      </c>
-      <c r="Q638" s="40"/>
-    </row>
-    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
+        <v>24.045000000000002</v>
+      </c>
+      <c r="Q638" s="39"/>
+      <c r="R638" s="40"/>
+    </row>
+    <row r="639" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A639" s="6">
         <v>6</v>
       </c>
@@ -18208,7 +18193,7 @@
         <v>46010</v>
       </c>
       <c r="D639" s="14">
-        <v>191.5</v>
+        <v>187</v>
       </c>
       <c r="E639" s="9">
         <v>29.5</v>
@@ -18223,11 +18208,12 @@
         <v>2</v>
       </c>
       <c r="J639" s="9">
-        <v>10.68</v>
-      </c>
-      <c r="Q639" s="40"/>
-    </row>
-    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
+        <v>19.919999999999998</v>
+      </c>
+      <c r="Q639" s="39"/>
+      <c r="R639" s="40"/>
+    </row>
+    <row r="640" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A640" s="6">
         <v>7</v>
       </c>
@@ -18238,7 +18224,7 @@
         <v>46011</v>
       </c>
       <c r="D640" s="14">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E640" s="9">
         <v>30</v>
@@ -18253,11 +18239,12 @@
         <v>5</v>
       </c>
       <c r="J640" s="9">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="Q640" s="40"/>
-    </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22.774999999999999</v>
+      </c>
+      <c r="Q640" s="39"/>
+      <c r="R640" s="40"/>
+    </row>
+    <row r="641" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A641" s="6">
         <v>1</v>
       </c>
@@ -18268,7 +18255,7 @@
         <v>46012</v>
       </c>
       <c r="D641" s="14">
-        <v>131.5</v>
+        <v>111</v>
       </c>
       <c r="E641" s="9">
         <v>29.5</v>
@@ -18283,11 +18270,12 @@
         <v>9</v>
       </c>
       <c r="J641" s="9">
-        <v>19.645</v>
-      </c>
-      <c r="Q641" s="40"/>
-    </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21.66</v>
+      </c>
+      <c r="Q641" s="39"/>
+      <c r="R641" s="40"/>
+    </row>
+    <row r="642" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A642" s="6">
         <v>2</v>
       </c>
@@ -18298,7 +18286,7 @@
         <v>46013</v>
       </c>
       <c r="D642" s="14">
-        <v>114.5</v>
+        <v>93.5</v>
       </c>
       <c r="E642" s="9">
         <v>23</v>
@@ -18313,11 +18301,12 @@
         <v>2</v>
       </c>
       <c r="J642" s="9">
-        <v>17.055</v>
-      </c>
-      <c r="Q642" s="40"/>
-    </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22.85</v>
+      </c>
+      <c r="Q642" s="39"/>
+      <c r="R642" s="40"/>
+    </row>
+    <row r="643" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A643" s="6">
         <v>3</v>
       </c>
@@ -18328,7 +18317,7 @@
         <v>46014</v>
       </c>
       <c r="D643" s="14">
-        <v>100.5</v>
+        <v>88.5</v>
       </c>
       <c r="E643" s="9">
         <v>22</v>
@@ -18343,11 +18332,12 @@
         <v>10</v>
       </c>
       <c r="J643" s="9">
-        <v>13.83</v>
-      </c>
-      <c r="Q643" s="40"/>
-    </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18.810000000000002</v>
+      </c>
+      <c r="Q643" s="39"/>
+      <c r="R643" s="40"/>
+    </row>
+    <row r="644" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A644" s="6">
         <v>4</v>
       </c>
@@ -18358,7 +18348,7 @@
         <v>46015</v>
       </c>
       <c r="D644" s="14">
-        <v>126.5</v>
+        <v>109</v>
       </c>
       <c r="E644" s="9">
         <v>20.5</v>
@@ -18376,11 +18366,12 @@
         <v>27</v>
       </c>
       <c r="J644" s="9">
-        <v>28.405000000000001</v>
-      </c>
-      <c r="Q644" s="40"/>
-    </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30.130000000000003</v>
+      </c>
+      <c r="Q644" s="39"/>
+      <c r="R644" s="40"/>
+    </row>
+    <row r="645" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A645" s="6">
         <v>5</v>
       </c>
@@ -18391,7 +18382,7 @@
         <v>46016</v>
       </c>
       <c r="D645" s="14">
-        <v>46.5</v>
+        <v>40.5</v>
       </c>
       <c r="E645" s="9">
         <v>20.5</v>
@@ -18409,11 +18400,12 @@
         <v>28</v>
       </c>
       <c r="J645" s="9">
-        <v>31.355</v>
-      </c>
-      <c r="Q645" s="40"/>
-    </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
+        <v>19.515000000000001</v>
+      </c>
+      <c r="Q645" s="39"/>
+      <c r="R645" s="40"/>
+    </row>
+    <row r="646" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A646" s="6">
         <v>6</v>
       </c>
@@ -18424,7 +18416,7 @@
         <v>46017</v>
       </c>
       <c r="D646" s="14">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E646" s="9">
         <v>15.5</v>
@@ -18442,11 +18434,12 @@
         <v>29</v>
       </c>
       <c r="J646" s="9">
-        <v>30.824999999999999</v>
-      </c>
-      <c r="Q646" s="40"/>
-    </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28.44</v>
+      </c>
+      <c r="Q646" s="39"/>
+      <c r="R646" s="40"/>
+    </row>
+    <row r="647" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A647" s="6">
         <v>7</v>
       </c>
@@ -18457,7 +18450,7 @@
         <v>46018</v>
       </c>
       <c r="D647" s="14">
-        <v>205.5</v>
+        <v>197</v>
       </c>
       <c r="E647" s="9">
         <v>17</v>
@@ -18472,11 +18465,12 @@
         <v>6</v>
       </c>
       <c r="J647" s="9">
-        <v>10.7</v>
-      </c>
-      <c r="Q647" s="40"/>
-    </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29.945</v>
+      </c>
+      <c r="Q647" s="39"/>
+      <c r="R647" s="40"/>
+    </row>
+    <row r="648" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A648" s="6">
         <v>1</v>
       </c>
@@ -18487,7 +18481,7 @@
         <v>46019</v>
       </c>
       <c r="D648" s="14">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E648" s="9">
         <v>21</v>
@@ -18502,11 +18496,12 @@
         <v>4</v>
       </c>
       <c r="J648" s="9">
-        <v>11</v>
-      </c>
-      <c r="Q648" s="40"/>
-    </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.254999999999999</v>
+      </c>
+      <c r="Q648" s="39"/>
+      <c r="R648" s="40"/>
+    </row>
+    <row r="649" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A649" s="6">
         <v>2</v>
       </c>
@@ -18517,7 +18512,7 @@
         <v>46020</v>
       </c>
       <c r="D649" s="14">
-        <v>113.5</v>
+        <v>101.5</v>
       </c>
       <c r="E649" s="9">
         <v>23</v>
@@ -18532,11 +18527,12 @@
         <v>8</v>
       </c>
       <c r="J649" s="9">
-        <v>17.34</v>
-      </c>
-      <c r="Q649" s="40"/>
-    </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
+        <v>19.89</v>
+      </c>
+      <c r="Q649" s="39"/>
+      <c r="R649" s="40"/>
+    </row>
+    <row r="650" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A650" s="6">
         <v>3</v>
       </c>
@@ -18547,7 +18543,7 @@
         <v>46021</v>
       </c>
       <c r="D650" s="14">
-        <v>93</v>
+        <v>80.5</v>
       </c>
       <c r="E650" s="9">
         <v>21.5</v>
@@ -18562,11 +18558,12 @@
         <v>6</v>
       </c>
       <c r="J650" s="9">
-        <v>10.26</v>
-      </c>
-      <c r="Q650" s="40"/>
-    </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13.895</v>
+      </c>
+      <c r="Q650" s="39"/>
+      <c r="R650" s="40"/>
+    </row>
+    <row r="651" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A651" s="6">
         <v>4</v>
       </c>
@@ -18577,7 +18574,7 @@
         <v>46022</v>
       </c>
       <c r="D651" s="14">
-        <v>158.5</v>
+        <v>135.5</v>
       </c>
       <c r="E651" s="9">
         <v>19</v>
@@ -18595,9 +18592,10 @@
         <v>30</v>
       </c>
       <c r="J651" s="9">
-        <v>34.725000000000001</v>
-      </c>
-      <c r="Q651" s="40"/>
+        <v>45.125</v>
+      </c>
+      <c r="Q651" s="39"/>
+      <c r="R651" s="40"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A651">
@@ -18615,10 +18613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O166" sqref="O166:P197"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O170" sqref="O170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25577,7 +25575,7 @@
         <v>58</v>
       </c>
       <c r="O131" s="21">
-        <f t="shared" ref="O131:O194" si="26">ROUND(AVERAGE(C131:N131),0)</f>
+        <f t="shared" ref="O131:O165" si="26">ROUND(AVERAGE(C131:N131),0)</f>
         <v>59</v>
       </c>
       <c r="P131" s="21">
@@ -25641,7 +25639,7 @@
         <v>43</v>
       </c>
       <c r="P132" s="21">
-        <f t="shared" ref="P132:P195" si="27">ROUND(_xlfn.STDEV.P(C132:N132),2)</f>
+        <f t="shared" ref="P132:P165" si="27">ROUND(_xlfn.STDEV.P(C132:N132),2)</f>
         <v>6.3</v>
       </c>
       <c r="R132" s="27">
@@ -26787,69 +26785,69 @@
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="61">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="14">
         <v>178</v>
       </c>
-      <c r="B151" s="62">
+      <c r="B151" s="23">
         <v>45976</v>
       </c>
-      <c r="C151" s="63">
+      <c r="C151">
         <v>197</v>
       </c>
-      <c r="D151" s="63">
+      <c r="D151">
         <v>193</v>
       </c>
-      <c r="E151" s="63">
+      <c r="E151">
         <v>190</v>
       </c>
-      <c r="F151" s="63">
+      <c r="F151">
         <v>192</v>
       </c>
-      <c r="G151" s="63">
+      <c r="G151">
         <v>182</v>
       </c>
-      <c r="H151" s="63">
+      <c r="H151">
         <v>182</v>
       </c>
-      <c r="I151" s="63">
+      <c r="I151">
         <v>194</v>
       </c>
-      <c r="J151" s="63">
+      <c r="J151">
         <v>194</v>
       </c>
-      <c r="K151" s="63">
+      <c r="K151">
         <v>188</v>
       </c>
-      <c r="L151" s="63">
+      <c r="L151">
         <v>195</v>
       </c>
-      <c r="M151" s="63">
+      <c r="M151">
         <v>196</v>
       </c>
-      <c r="N151" s="63">
+      <c r="N151">
         <v>190</v>
       </c>
-      <c r="O151" s="64">
+      <c r="O151" s="21">
         <f t="shared" si="26"/>
         <v>191</v>
       </c>
-      <c r="P151" s="64">
+      <c r="P151" s="21">
         <f t="shared" si="27"/>
         <v>4.7699999999999996</v>
       </c>
-      <c r="R151" s="65">
+      <c r="R151" s="27">
         <f t="shared" ref="R151:R165" si="30">O151-A151</f>
         <v>13</v>
       </c>
-      <c r="S151" s="63">
+      <c r="S151">
         <f t="shared" ref="S151:S165" si="31">O151/A151</f>
         <v>1.0730337078651686</v>
       </c>
-      <c r="T151" s="63">
+      <c r="T151">
         <v>190</v>
       </c>
-      <c r="U151" s="63">
+      <c r="U151">
         <v>192</v>
       </c>
     </row>
@@ -27777,62 +27775,76 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="28">
+    <row r="166" spans="1:21" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="14">
+        <v>53</v>
+      </c>
+      <c r="B166" s="62">
         <v>45991</v>
       </c>
-      <c r="C166" s="29">
+      <c r="C166" s="61">
         <v>75</v>
       </c>
-      <c r="D166" s="29">
+      <c r="D166" s="61">
         <v>97</v>
       </c>
-      <c r="E166" s="29">
+      <c r="E166" s="61">
         <v>57</v>
       </c>
-      <c r="F166" s="29">
+      <c r="F166" s="61">
         <v>56</v>
       </c>
-      <c r="G166" s="29">
+      <c r="G166" s="61">
         <v>43</v>
       </c>
-      <c r="H166" s="29">
+      <c r="H166" s="61">
         <v>49</v>
       </c>
-      <c r="I166" s="29">
+      <c r="I166" s="61">
         <v>60</v>
       </c>
-      <c r="J166" s="29">
+      <c r="J166" s="61">
         <v>69</v>
       </c>
-      <c r="K166" s="29">
+      <c r="K166" s="61">
         <v>97</v>
       </c>
-      <c r="L166" s="29">
+      <c r="L166" s="61">
         <v>78</v>
       </c>
-      <c r="M166" s="29">
+      <c r="M166" s="61">
         <v>79</v>
       </c>
-      <c r="N166" s="29">
+      <c r="N166" s="61">
         <v>82</v>
       </c>
-      <c r="O166" s="30">
+      <c r="O166" s="63">
         <f>ROUND(AVERAGE(C166:N166,T166,U166),0)</f>
         <v>70</v>
       </c>
-      <c r="P166" s="30">
+      <c r="P166" s="63">
         <f>ROUND(_xlfn.STDEV.P(C166:N166,T166,U166),2)</f>
         <v>15.64</v>
       </c>
-      <c r="T166" s="29">
+      <c r="R166" s="27">
+        <f t="shared" ref="R166:R174" si="32">O166-A166</f>
+        <v>17</v>
+      </c>
+      <c r="S166">
+        <f t="shared" ref="S166:S174" si="33">O166/A166</f>
+        <v>1.320754716981132</v>
+      </c>
+      <c r="T166" s="61">
         <v>70</v>
       </c>
-      <c r="U166" s="29">
+      <c r="U166" s="61">
         <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="14">
+        <v>20</v>
+      </c>
       <c r="B167" s="23">
         <v>45992</v>
       </c>
@@ -27880,6 +27892,14 @@
         <f>ROUND(_xlfn.STDEV.P(C167:N167,T167:U167),2)</f>
         <v>8.9600000000000009</v>
       </c>
+      <c r="R167" s="27">
+        <f t="shared" si="32"/>
+        <v>35</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="33"/>
+        <v>2.75</v>
+      </c>
       <c r="T167">
         <v>57</v>
       </c>
@@ -27888,6 +27908,9 @@
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="14">
+        <v>66</v>
+      </c>
       <c r="B168" s="23">
         <v>45993</v>
       </c>
@@ -27928,12 +27951,20 @@
         <v>60</v>
       </c>
       <c r="O168" s="21">
-        <f t="shared" ref="O168:O197" si="32">ROUND(AVERAGE(C168:N168,T168:U168),0)</f>
+        <f t="shared" ref="O168:O197" si="34">ROUND(AVERAGE(C168:N168,T168:U168),0)</f>
         <v>64</v>
       </c>
       <c r="P168" s="21">
-        <f t="shared" ref="P168:P197" si="33">ROUND(_xlfn.STDEV.P(C168:N168,T168:U168),2)</f>
+        <f t="shared" ref="P168:P197" si="35">ROUND(_xlfn.STDEV.P(C168:N168,T168:U168),2)</f>
         <v>5</v>
+      </c>
+      <c r="R168" s="27">
+        <f t="shared" si="32"/>
+        <v>-2</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="33"/>
+        <v>0.96969696969696972</v>
       </c>
       <c r="T168">
         <v>63</v>
@@ -27943,6 +27974,9 @@
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="14">
+        <v>95</v>
+      </c>
       <c r="B169" s="23">
         <v>45994</v>
       </c>
@@ -27983,12 +28017,20 @@
         <v>97</v>
       </c>
       <c r="O169" s="21">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="P169" s="21">
+        <f t="shared" si="35"/>
+        <v>10.16</v>
+      </c>
+      <c r="R169" s="27">
         <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-      <c r="P169" s="21">
+        <v>-6</v>
+      </c>
+      <c r="S169">
         <f t="shared" si="33"/>
-        <v>10.16</v>
+        <v>0.93684210526315792</v>
       </c>
       <c r="T169">
         <v>88</v>
@@ -27998,6 +28040,9 @@
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="14">
+        <v>115</v>
+      </c>
       <c r="B170" s="23">
         <v>45995</v>
       </c>
@@ -28038,12 +28083,20 @@
         <v>90</v>
       </c>
       <c r="O170" s="21">
+        <f t="shared" si="34"/>
+        <v>96</v>
+      </c>
+      <c r="P170" s="21">
+        <f t="shared" si="35"/>
+        <v>7.81</v>
+      </c>
+      <c r="R170" s="27">
         <f t="shared" si="32"/>
-        <v>96</v>
-      </c>
-      <c r="P170" s="21">
+        <v>-19</v>
+      </c>
+      <c r="S170">
         <f t="shared" si="33"/>
-        <v>7.81</v>
+        <v>0.83478260869565213</v>
       </c>
       <c r="T170">
         <v>100</v>
@@ -28053,6 +28106,9 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="14">
+        <v>113</v>
+      </c>
       <c r="B171" s="23">
         <v>45996</v>
       </c>
@@ -28093,12 +28149,20 @@
         <v>131</v>
       </c>
       <c r="O171" s="21">
+        <f t="shared" si="34"/>
+        <v>130</v>
+      </c>
+      <c r="P171" s="21">
+        <f t="shared" si="35"/>
+        <v>6.35</v>
+      </c>
+      <c r="R171" s="27">
         <f t="shared" si="32"/>
-        <v>130</v>
-      </c>
-      <c r="P171" s="21">
+        <v>17</v>
+      </c>
+      <c r="S171">
         <f t="shared" si="33"/>
-        <v>6.35</v>
+        <v>1.1504424778761062</v>
       </c>
       <c r="T171">
         <v>129</v>
@@ -28108,6 +28172,9 @@
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="14">
+        <v>161</v>
+      </c>
       <c r="B172" s="23">
         <v>45997</v>
       </c>
@@ -28148,12 +28215,20 @@
         <v>173</v>
       </c>
       <c r="O172" s="21">
+        <f t="shared" si="34"/>
+        <v>172</v>
+      </c>
+      <c r="P172" s="21">
+        <f t="shared" si="35"/>
+        <v>7.4</v>
+      </c>
+      <c r="R172" s="27">
         <f t="shared" si="32"/>
-        <v>172</v>
-      </c>
-      <c r="P172" s="21">
+        <v>11</v>
+      </c>
+      <c r="S172">
         <f t="shared" si="33"/>
-        <v>7.4</v>
+        <v>1.0683229813664596</v>
       </c>
       <c r="T172">
         <v>169</v>
@@ -28163,6 +28238,9 @@
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="14">
+        <v>73</v>
+      </c>
       <c r="B173" s="23">
         <v>45998</v>
       </c>
@@ -28203,12 +28281,20 @@
         <v>93</v>
       </c>
       <c r="O173" s="21">
+        <f t="shared" si="34"/>
+        <v>84</v>
+      </c>
+      <c r="P173" s="21">
+        <f t="shared" si="35"/>
+        <v>11.68</v>
+      </c>
+      <c r="R173" s="27">
         <f t="shared" si="32"/>
-        <v>84</v>
-      </c>
-      <c r="P173" s="21">
+        <v>11</v>
+      </c>
+      <c r="S173">
         <f t="shared" si="33"/>
-        <v>11.68</v>
+        <v>1.1506849315068493</v>
       </c>
       <c r="T173">
         <v>86</v>
@@ -28218,6 +28304,9 @@
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="14">
+        <v>47</v>
+      </c>
       <c r="B174" s="23">
         <v>45999</v>
       </c>
@@ -28258,12 +28347,20 @@
         <v>57</v>
       </c>
       <c r="O174" s="21">
+        <f t="shared" si="34"/>
+        <v>57</v>
+      </c>
+      <c r="P174" s="21">
+        <f t="shared" si="35"/>
+        <v>4.07</v>
+      </c>
+      <c r="R174" s="27">
         <f t="shared" si="32"/>
-        <v>57</v>
-      </c>
-      <c r="P174" s="21">
+        <v>10</v>
+      </c>
+      <c r="S174">
         <f t="shared" si="33"/>
-        <v>4.07</v>
+        <v>1.2127659574468086</v>
       </c>
       <c r="T174">
         <v>59</v>
@@ -28272,59 +28369,59 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B175" s="23">
+    <row r="175" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="28">
         <v>46000</v>
       </c>
-      <c r="C175">
-        <v>67</v>
-      </c>
-      <c r="D175">
+      <c r="C175" s="29">
+        <v>55</v>
+      </c>
+      <c r="D175" s="29">
+        <v>60</v>
+      </c>
+      <c r="E175" s="29">
+        <v>45</v>
+      </c>
+      <c r="F175" s="29">
+        <v>59</v>
+      </c>
+      <c r="G175" s="29">
+        <v>43</v>
+      </c>
+      <c r="H175" s="29">
+        <v>59</v>
+      </c>
+      <c r="I175" s="29">
+        <v>62</v>
+      </c>
+      <c r="J175" s="29">
         <v>65</v>
       </c>
-      <c r="E175">
+      <c r="K175" s="29">
+        <v>54</v>
+      </c>
+      <c r="L175" s="29">
+        <v>58</v>
+      </c>
+      <c r="M175" s="29">
+        <v>60</v>
+      </c>
+      <c r="N175" s="29">
+        <v>59</v>
+      </c>
+      <c r="O175" s="30">
+        <f t="shared" si="34"/>
+        <v>57</v>
+      </c>
+      <c r="P175" s="30">
+        <f t="shared" si="35"/>
+        <v>6.05</v>
+      </c>
+      <c r="T175" s="29">
         <v>62</v>
       </c>
-      <c r="F175">
-        <v>71</v>
-      </c>
-      <c r="G175">
-        <v>60</v>
-      </c>
-      <c r="H175">
-        <v>69</v>
-      </c>
-      <c r="I175">
-        <v>63</v>
-      </c>
-      <c r="J175">
-        <v>74</v>
-      </c>
-      <c r="K175">
-        <v>66</v>
-      </c>
-      <c r="L175">
-        <v>68</v>
-      </c>
-      <c r="M175">
-        <v>66</v>
-      </c>
-      <c r="N175">
-        <v>68</v>
-      </c>
-      <c r="O175" s="21">
-        <f t="shared" si="32"/>
-        <v>67</v>
-      </c>
-      <c r="P175" s="21">
-        <f t="shared" si="33"/>
-        <v>3.49</v>
-      </c>
-      <c r="T175">
-        <v>66</v>
-      </c>
-      <c r="U175">
-        <v>69</v>
+      <c r="U175" s="29">
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -28332,54 +28429,54 @@
         <v>46001</v>
       </c>
       <c r="C176">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D176">
+        <v>86</v>
+      </c>
+      <c r="E176">
+        <v>60</v>
+      </c>
+      <c r="F176">
+        <v>78</v>
+      </c>
+      <c r="G176">
+        <v>55</v>
+      </c>
+      <c r="H176">
+        <v>56</v>
+      </c>
+      <c r="I176">
+        <v>71</v>
+      </c>
+      <c r="J176">
+        <v>88</v>
+      </c>
+      <c r="K176">
+        <v>103</v>
+      </c>
+      <c r="L176">
+        <v>93</v>
+      </c>
+      <c r="M176">
+        <v>90</v>
+      </c>
+      <c r="N176">
+        <v>93</v>
+      </c>
+      <c r="O176" s="21">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="P176" s="21">
+        <f t="shared" si="35"/>
+        <v>16.91</v>
+      </c>
+      <c r="T176">
         <v>92</v>
       </c>
-      <c r="E176">
-        <v>89</v>
-      </c>
-      <c r="F176">
-        <v>97</v>
-      </c>
-      <c r="G176">
-        <v>77</v>
-      </c>
-      <c r="H176">
-        <v>86</v>
-      </c>
-      <c r="I176">
-        <v>89</v>
-      </c>
-      <c r="J176">
-        <v>103</v>
-      </c>
-      <c r="K176">
-        <v>99</v>
-      </c>
-      <c r="L176">
-        <v>96</v>
-      </c>
-      <c r="M176">
-        <v>99</v>
-      </c>
-      <c r="N176">
-        <v>106</v>
-      </c>
-      <c r="O176" s="21">
-        <f t="shared" si="32"/>
-        <v>95</v>
-      </c>
-      <c r="P176" s="21">
-        <f t="shared" si="33"/>
-        <v>7.91</v>
-      </c>
-      <c r="T176">
-        <v>99</v>
-      </c>
       <c r="U176">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="177" spans="2:21" x14ac:dyDescent="0.25">
@@ -28387,54 +28484,54 @@
         <v>46002</v>
       </c>
       <c r="C177">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D177">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E177">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F177">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G177">
+        <v>65</v>
+      </c>
+      <c r="H177">
         <v>75</v>
       </c>
-      <c r="H177">
-        <v>92</v>
-      </c>
       <c r="I177">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="J177">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K177">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="L177">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="M177">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="N177">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O177" s="21">
-        <f t="shared" si="32"/>
-        <v>88</v>
+        <f t="shared" si="34"/>
+        <v>98</v>
       </c>
       <c r="P177" s="21">
-        <f t="shared" si="33"/>
-        <v>6.72</v>
+        <f t="shared" si="35"/>
+        <v>16.440000000000001</v>
       </c>
       <c r="T177">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="U177">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="2:21" x14ac:dyDescent="0.25">
@@ -28442,54 +28539,54 @@
         <v>46003</v>
       </c>
       <c r="C178">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D178">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E178">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F178">
+        <v>140</v>
+      </c>
+      <c r="G178">
+        <v>83</v>
+      </c>
+      <c r="H178">
+        <v>126</v>
+      </c>
+      <c r="I178">
+        <v>138</v>
+      </c>
+      <c r="J178">
         <v>142</v>
       </c>
-      <c r="G178">
-        <v>125</v>
-      </c>
-      <c r="H178">
+      <c r="K178">
         <v>142</v>
       </c>
-      <c r="I178">
-        <v>133</v>
-      </c>
-      <c r="J178">
-        <v>144</v>
-      </c>
-      <c r="K178">
-        <v>132</v>
-      </c>
       <c r="L178">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M178">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="N178">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O178" s="21">
-        <f t="shared" si="32"/>
-        <v>133</v>
+        <f t="shared" si="34"/>
+        <v>131</v>
       </c>
       <c r="P178" s="21">
-        <f t="shared" si="33"/>
-        <v>6.54</v>
+        <f t="shared" si="35"/>
+        <v>17.25</v>
       </c>
       <c r="T178">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="U178">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="2:21" x14ac:dyDescent="0.25">
@@ -28497,54 +28594,54 @@
         <v>46004</v>
       </c>
       <c r="C179">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D179">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E179">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="F179">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G179">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="H179">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="I179">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J179">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="K179">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L179">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M179">
+        <v>170</v>
+      </c>
+      <c r="N179">
+        <v>181</v>
+      </c>
+      <c r="O179" s="21">
+        <f t="shared" si="34"/>
+        <v>175</v>
+      </c>
+      <c r="P179" s="21">
+        <f t="shared" si="35"/>
+        <v>17.2</v>
+      </c>
+      <c r="T179">
         <v>187</v>
       </c>
-      <c r="N179">
-        <v>186</v>
-      </c>
-      <c r="O179" s="21">
-        <f t="shared" si="32"/>
-        <v>185</v>
-      </c>
-      <c r="P179" s="21">
-        <f t="shared" si="33"/>
-        <v>8.61</v>
-      </c>
-      <c r="T179">
-        <v>179</v>
-      </c>
       <c r="U179">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="2:21" x14ac:dyDescent="0.25">
@@ -28552,54 +28649,54 @@
         <v>46005</v>
       </c>
       <c r="C180">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D180">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E180">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F180">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G180">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H180">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I180">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J180">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K180">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L180">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M180">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="N180">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O180" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
+        <v>69</v>
+      </c>
+      <c r="P180" s="21">
+        <f t="shared" si="35"/>
+        <v>15.87</v>
+      </c>
+      <c r="T180">
         <v>70</v>
       </c>
-      <c r="P180" s="21">
-        <f t="shared" si="33"/>
-        <v>18.36</v>
-      </c>
-      <c r="T180">
-        <v>72</v>
-      </c>
       <c r="U180">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="2:21" x14ac:dyDescent="0.25">
@@ -28607,54 +28704,54 @@
         <v>46006</v>
       </c>
       <c r="C181">
+        <v>78</v>
+      </c>
+      <c r="D181">
         <v>62</v>
-      </c>
-      <c r="D181">
-        <v>79</v>
       </c>
       <c r="E181">
         <v>50</v>
       </c>
       <c r="F181">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G181">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H181">
         <v>43</v>
       </c>
       <c r="I181">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J181">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K181">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L181">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="M181">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N181">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="O181" s="21">
-        <f t="shared" si="32"/>
-        <v>59</v>
+        <f t="shared" si="34"/>
+        <v>60</v>
       </c>
       <c r="P181" s="21">
-        <f t="shared" si="33"/>
-        <v>11.75</v>
+        <f t="shared" si="35"/>
+        <v>11.4</v>
       </c>
       <c r="T181">
         <v>60</v>
       </c>
       <c r="U181">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="2:21" x14ac:dyDescent="0.25">
@@ -28662,51 +28759,51 @@
         <v>46007</v>
       </c>
       <c r="C182">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D182">
+        <v>62</v>
+      </c>
+      <c r="E182">
+        <v>54</v>
+      </c>
+      <c r="F182">
+        <v>57</v>
+      </c>
+      <c r="G182">
+        <v>38</v>
+      </c>
+      <c r="H182">
+        <v>53</v>
+      </c>
+      <c r="I182">
+        <v>70</v>
+      </c>
+      <c r="J182">
+        <v>61</v>
+      </c>
+      <c r="K182">
+        <v>67</v>
+      </c>
+      <c r="L182">
+        <v>60</v>
+      </c>
+      <c r="M182">
         <v>65</v>
-      </c>
-      <c r="E182">
-        <v>51</v>
-      </c>
-      <c r="F182">
-        <v>55</v>
-      </c>
-      <c r="G182">
-        <v>47</v>
-      </c>
-      <c r="H182">
-        <v>60</v>
-      </c>
-      <c r="I182">
-        <v>54</v>
-      </c>
-      <c r="J182">
-        <v>65</v>
-      </c>
-      <c r="K182">
-        <v>59</v>
-      </c>
-      <c r="L182">
-        <v>46</v>
-      </c>
-      <c r="M182">
-        <v>59</v>
       </c>
       <c r="N182">
         <v>59</v>
       </c>
       <c r="O182" s="21">
-        <f t="shared" si="32"/>
-        <v>57</v>
+        <f t="shared" si="34"/>
+        <v>60</v>
       </c>
       <c r="P182" s="21">
-        <f t="shared" si="33"/>
-        <v>5.73</v>
+        <f t="shared" si="35"/>
+        <v>8.7100000000000009</v>
       </c>
       <c r="T182">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U182">
         <v>56</v>
@@ -28717,54 +28814,54 @@
         <v>46008</v>
       </c>
       <c r="C183">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D183">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E183">
+        <v>74</v>
+      </c>
+      <c r="F183">
+        <v>95</v>
+      </c>
+      <c r="G183">
+        <v>58</v>
+      </c>
+      <c r="H183">
+        <v>103</v>
+      </c>
+      <c r="I183">
+        <v>107</v>
+      </c>
+      <c r="J183">
+        <v>102</v>
+      </c>
+      <c r="K183">
+        <v>102</v>
+      </c>
+      <c r="L183">
+        <v>101</v>
+      </c>
+      <c r="M183">
+        <v>105</v>
+      </c>
+      <c r="N183">
+        <v>99</v>
+      </c>
+      <c r="O183" s="21">
+        <f t="shared" si="34"/>
         <v>93</v>
       </c>
-      <c r="F183">
-        <v>109</v>
-      </c>
-      <c r="G183">
-        <v>95</v>
-      </c>
-      <c r="H183">
-        <v>97</v>
-      </c>
-      <c r="I183">
-        <v>92</v>
-      </c>
-      <c r="J183">
-        <v>108</v>
-      </c>
-      <c r="K183">
-        <v>104</v>
-      </c>
-      <c r="L183">
-        <v>93</v>
-      </c>
-      <c r="M183">
-        <v>98</v>
-      </c>
-      <c r="N183">
-        <v>93</v>
-      </c>
-      <c r="O183" s="21">
-        <f t="shared" si="32"/>
-        <v>98</v>
-      </c>
       <c r="P183" s="21">
-        <f t="shared" si="33"/>
-        <v>5.65</v>
+        <f t="shared" si="35"/>
+        <v>14.02</v>
       </c>
       <c r="T183">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U183">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="2:21" x14ac:dyDescent="0.25">
@@ -28772,54 +28869,54 @@
         <v>46009</v>
       </c>
       <c r="C184">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D184">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E184">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F184">
+        <v>131</v>
+      </c>
+      <c r="G184">
+        <v>90</v>
+      </c>
+      <c r="H184">
+        <v>131</v>
+      </c>
+      <c r="I184">
+        <v>165</v>
+      </c>
+      <c r="J184">
+        <v>124</v>
+      </c>
+      <c r="K184">
+        <v>148</v>
+      </c>
+      <c r="L184">
         <v>143</v>
       </c>
-      <c r="G184">
-        <v>127</v>
-      </c>
-      <c r="H184">
-        <v>128</v>
-      </c>
-      <c r="I184">
-        <v>121</v>
-      </c>
-      <c r="J184">
-        <v>152</v>
-      </c>
-      <c r="K184">
-        <v>147</v>
-      </c>
-      <c r="L184">
+      <c r="M184">
+        <v>162</v>
+      </c>
+      <c r="N184">
+        <v>142</v>
+      </c>
+      <c r="O184" s="21">
+        <f t="shared" si="34"/>
+        <v>138</v>
+      </c>
+      <c r="P184" s="21">
+        <f t="shared" si="35"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="T184">
         <v>130</v>
       </c>
-      <c r="M184">
+      <c r="U184">
         <v>136</v>
-      </c>
-      <c r="N184">
-        <v>123</v>
-      </c>
-      <c r="O184" s="21">
-        <f t="shared" si="32"/>
-        <v>133</v>
-      </c>
-      <c r="P184" s="21">
-        <f t="shared" si="33"/>
-        <v>9.15</v>
-      </c>
-      <c r="T184">
-        <v>139</v>
-      </c>
-      <c r="U184">
-        <v>129</v>
       </c>
     </row>
     <row r="185" spans="2:21" x14ac:dyDescent="0.25">
@@ -28827,54 +28924,54 @@
         <v>46010</v>
       </c>
       <c r="C185">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D185">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E185">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F185">
+        <v>173</v>
+      </c>
+      <c r="G185">
+        <v>122</v>
+      </c>
+      <c r="H185">
+        <v>164</v>
+      </c>
+      <c r="I185">
+        <v>189</v>
+      </c>
+      <c r="J185">
+        <v>173</v>
+      </c>
+      <c r="K185">
+        <v>191</v>
+      </c>
+      <c r="L185">
+        <v>209</v>
+      </c>
+      <c r="M185">
+        <v>197</v>
+      </c>
+      <c r="N185">
+        <v>205</v>
+      </c>
+      <c r="O185" s="21">
+        <f t="shared" si="34"/>
         <v>184</v>
       </c>
-      <c r="G185">
-        <v>160</v>
-      </c>
-      <c r="H185">
-        <v>170</v>
-      </c>
-      <c r="I185">
-        <v>164</v>
-      </c>
-      <c r="J185">
-        <v>206</v>
-      </c>
-      <c r="K185">
-        <v>203</v>
-      </c>
-      <c r="L185">
-        <v>191</v>
-      </c>
-      <c r="M185">
-        <v>192</v>
-      </c>
-      <c r="N185">
-        <v>186</v>
-      </c>
-      <c r="O185" s="21">
-        <f t="shared" si="32"/>
-        <v>184</v>
-      </c>
       <c r="P185" s="21">
-        <f t="shared" si="33"/>
-        <v>13.34</v>
+        <f t="shared" si="35"/>
+        <v>24.58</v>
       </c>
       <c r="T185">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="U185">
-        <v>181</v>
+        <v>219</v>
       </c>
     </row>
     <row r="186" spans="2:21" x14ac:dyDescent="0.25">
@@ -28882,54 +28979,54 @@
         <v>46011</v>
       </c>
       <c r="C186">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D186">
+        <v>180</v>
+      </c>
+      <c r="E186">
         <v>174</v>
       </c>
-      <c r="E186">
-        <v>172</v>
-      </c>
       <c r="F186">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G186">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="H186">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="I186">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J186">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K186">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="L186">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="M186">
         <v>186</v>
       </c>
       <c r="N186">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="O186" s="21">
-        <f t="shared" si="32"/>
-        <v>187</v>
+        <f t="shared" si="34"/>
+        <v>177</v>
       </c>
       <c r="P186" s="21">
-        <f t="shared" si="33"/>
-        <v>8.99</v>
+        <f t="shared" si="35"/>
+        <v>15.36</v>
       </c>
       <c r="T186">
         <v>188</v>
       </c>
       <c r="U186">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="187" spans="2:21" x14ac:dyDescent="0.25">
@@ -28937,54 +29034,54 @@
         <v>46012</v>
       </c>
       <c r="C187">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D187">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E187">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F187">
+        <v>99</v>
+      </c>
+      <c r="G187">
+        <v>84</v>
+      </c>
+      <c r="H187">
+        <v>81</v>
+      </c>
+      <c r="I187">
+        <v>97</v>
+      </c>
+      <c r="J187">
+        <v>113</v>
+      </c>
+      <c r="K187">
+        <v>136</v>
+      </c>
+      <c r="L187">
+        <v>124</v>
+      </c>
+      <c r="M187">
+        <v>121</v>
+      </c>
+      <c r="N187">
+        <v>131</v>
+      </c>
+      <c r="O187" s="21">
+        <f t="shared" si="34"/>
+        <v>112</v>
+      </c>
+      <c r="P187" s="21">
+        <f t="shared" si="35"/>
+        <v>18.11</v>
+      </c>
+      <c r="T187">
         <v>110</v>
       </c>
-      <c r="G187">
-        <v>69</v>
-      </c>
-      <c r="H187">
-        <v>85</v>
-      </c>
-      <c r="I187">
-        <v>104</v>
-      </c>
-      <c r="J187">
-        <v>106</v>
-      </c>
-      <c r="K187">
-        <v>152</v>
-      </c>
-      <c r="L187">
-        <v>164</v>
-      </c>
-      <c r="M187">
-        <v>136</v>
-      </c>
-      <c r="N187">
-        <v>145</v>
-      </c>
-      <c r="O187" s="21">
-        <f t="shared" si="32"/>
+      <c r="U187">
         <v>121</v>
-      </c>
-      <c r="P187" s="21">
-        <f t="shared" si="33"/>
-        <v>27.04</v>
-      </c>
-      <c r="T187">
-        <v>117</v>
-      </c>
-      <c r="U187">
-        <v>120</v>
       </c>
     </row>
     <row r="188" spans="2:21" x14ac:dyDescent="0.25">
@@ -28992,54 +29089,54 @@
         <v>46013</v>
       </c>
       <c r="C188">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D188">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E188">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F188">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G188">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H188">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="I188">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J188">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K188">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="L188">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="M188">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N188">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="O188" s="21">
-        <f t="shared" si="32"/>
-        <v>102</v>
+        <f t="shared" si="34"/>
+        <v>90</v>
       </c>
       <c r="P188" s="21">
-        <f t="shared" si="33"/>
-        <v>14.01</v>
+        <f t="shared" si="35"/>
+        <v>18.28</v>
       </c>
       <c r="T188">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="U188">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189" spans="2:21" x14ac:dyDescent="0.25">
@@ -29047,54 +29144,54 @@
         <v>46014</v>
       </c>
       <c r="C189">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D189">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E189">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F189">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G189">
+        <v>56</v>
+      </c>
+      <c r="H189">
+        <v>69</v>
+      </c>
+      <c r="I189">
         <v>64</v>
       </c>
-      <c r="H189">
-        <v>76</v>
-      </c>
-      <c r="I189">
-        <v>81</v>
-      </c>
       <c r="J189">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K189">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="L189">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M189">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N189">
         <v>100</v>
       </c>
       <c r="O189" s="21">
-        <f t="shared" si="32"/>
-        <v>89</v>
+        <f t="shared" si="34"/>
+        <v>87</v>
       </c>
       <c r="P189" s="21">
-        <f t="shared" si="33"/>
-        <v>11.04</v>
+        <f t="shared" si="35"/>
+        <v>17.850000000000001</v>
       </c>
       <c r="T189">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="U189">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="2:21" x14ac:dyDescent="0.25">
@@ -29102,54 +29199,54 @@
         <v>46015</v>
       </c>
       <c r="C190">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="D190">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E190">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F190">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G190">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H190">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I190">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J190">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K190">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L190">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M190">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="N190">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O190" s="21">
-        <f t="shared" si="32"/>
-        <v>124</v>
+        <f t="shared" si="34"/>
+        <v>110</v>
       </c>
       <c r="P190" s="21">
-        <f t="shared" si="33"/>
-        <v>32.19</v>
+        <f t="shared" si="35"/>
+        <v>30.53</v>
       </c>
       <c r="T190">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U190">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="2:21" x14ac:dyDescent="0.25">
@@ -29157,54 +29254,54 @@
         <v>46016</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D191">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E191">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F191">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G191">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H191">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I191">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J191">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K191">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="L191">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M191">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N191">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O191" s="21">
-        <f t="shared" si="32"/>
-        <v>37</v>
+        <f t="shared" si="34"/>
+        <v>40</v>
       </c>
       <c r="P191" s="21">
-        <f t="shared" si="33"/>
-        <v>23.53</v>
+        <f t="shared" si="35"/>
+        <v>16.52</v>
       </c>
       <c r="T191">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="U191">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="192" spans="2:21" x14ac:dyDescent="0.25">
@@ -29212,54 +29309,54 @@
         <v>46017</v>
       </c>
       <c r="C192">
+        <v>89</v>
+      </c>
+      <c r="D192">
+        <v>76</v>
+      </c>
+      <c r="E192">
+        <v>131</v>
+      </c>
+      <c r="F192">
+        <v>111</v>
+      </c>
+      <c r="G192">
         <v>84</v>
       </c>
-      <c r="D192">
-        <v>94</v>
-      </c>
-      <c r="E192">
-        <v>99</v>
-      </c>
-      <c r="F192">
-        <v>118</v>
-      </c>
-      <c r="G192">
-        <v>127</v>
-      </c>
       <c r="H192">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="I192">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="J192">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K192">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L192">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M192">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N192">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O192" s="21">
-        <f t="shared" si="32"/>
-        <v>102</v>
+        <f t="shared" si="34"/>
+        <v>103</v>
       </c>
       <c r="P192" s="21">
-        <f t="shared" si="33"/>
-        <v>18.47</v>
+        <f t="shared" si="35"/>
+        <v>18.43</v>
       </c>
       <c r="T192">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="U192">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" spans="2:21" x14ac:dyDescent="0.25">
@@ -29267,54 +29364,54 @@
         <v>46018</v>
       </c>
       <c r="C193">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D193">
+        <v>192</v>
+      </c>
+      <c r="E193">
         <v>203</v>
       </c>
-      <c r="E193">
+      <c r="F193">
+        <v>189</v>
+      </c>
+      <c r="G193">
+        <v>120</v>
+      </c>
+      <c r="H193">
         <v>177</v>
       </c>
-      <c r="F193">
-        <v>201</v>
-      </c>
-      <c r="G193">
-        <v>185</v>
-      </c>
-      <c r="H193">
+      <c r="I193">
+        <v>217</v>
+      </c>
+      <c r="J193">
+        <v>197</v>
+      </c>
+      <c r="K193">
+        <v>235</v>
+      </c>
+      <c r="L193">
+        <v>200</v>
+      </c>
+      <c r="M193">
+        <v>212</v>
+      </c>
+      <c r="N193">
         <v>195</v>
       </c>
-      <c r="I193">
-        <v>190</v>
-      </c>
-      <c r="J193">
-        <v>214</v>
-      </c>
-      <c r="K193">
-        <v>202</v>
-      </c>
-      <c r="L193">
-        <v>202</v>
-      </c>
-      <c r="M193">
+      <c r="O193" s="21">
+        <f t="shared" si="34"/>
+        <v>196</v>
+      </c>
+      <c r="P193" s="21">
+        <f t="shared" si="35"/>
+        <v>24.74</v>
+      </c>
+      <c r="T193">
         <v>199</v>
       </c>
-      <c r="N193">
-        <v>193</v>
-      </c>
-      <c r="O193" s="21">
-        <f t="shared" si="32"/>
-        <v>197</v>
-      </c>
-      <c r="P193" s="21">
-        <f t="shared" si="33"/>
-        <v>8.89</v>
-      </c>
-      <c r="T193">
-        <v>194</v>
-      </c>
       <c r="U193">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="2:21" x14ac:dyDescent="0.25">
@@ -29322,54 +29419,54 @@
         <v>46019</v>
       </c>
       <c r="C194">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D194">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E194">
         <v>64</v>
       </c>
       <c r="F194">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G194">
+        <v>56</v>
+      </c>
+      <c r="H194">
+        <v>77</v>
+      </c>
+      <c r="I194">
+        <v>76</v>
+      </c>
+      <c r="J194">
+        <v>76</v>
+      </c>
+      <c r="K194">
+        <v>65</v>
+      </c>
+      <c r="L194">
         <v>66</v>
       </c>
-      <c r="H194">
-        <v>86</v>
-      </c>
-      <c r="I194">
-        <v>64</v>
-      </c>
-      <c r="J194">
-        <v>79</v>
-      </c>
-      <c r="K194">
-        <v>73</v>
-      </c>
-      <c r="L194">
-        <v>78</v>
-      </c>
       <c r="M194">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N194">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O194" s="21">
-        <f t="shared" si="32"/>
-        <v>75</v>
+        <f t="shared" si="34"/>
+        <v>69</v>
       </c>
       <c r="P194" s="21">
-        <f t="shared" si="33"/>
-        <v>6.5</v>
+        <f t="shared" si="35"/>
+        <v>5.77</v>
       </c>
       <c r="T194">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U194">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="2:21" x14ac:dyDescent="0.25">
@@ -29377,54 +29474,54 @@
         <v>46020</v>
       </c>
       <c r="C195">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D195">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E195">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F195">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G195">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H195">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I195">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J195">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K195">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L195">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M195">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N195">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O195" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>99</v>
       </c>
       <c r="P195" s="21">
-        <f t="shared" si="33"/>
-        <v>13.56</v>
+        <f t="shared" si="35"/>
+        <v>17.3</v>
       </c>
       <c r="T195">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U195">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196" spans="2:21" x14ac:dyDescent="0.25">
@@ -29432,54 +29529,54 @@
         <v>46021</v>
       </c>
       <c r="C196">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D196">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E196">
+        <v>60</v>
+      </c>
+      <c r="F196">
         <v>78</v>
       </c>
-      <c r="F196">
-        <v>92</v>
-      </c>
       <c r="G196">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H196">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I196">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J196">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K196">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L196">
         <v>87</v>
       </c>
       <c r="M196">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N196">
+        <v>86</v>
+      </c>
+      <c r="O196" s="21">
+        <f t="shared" si="34"/>
+        <v>79</v>
+      </c>
+      <c r="P196" s="21">
+        <f t="shared" si="35"/>
+        <v>10.51</v>
+      </c>
+      <c r="T196">
         <v>89</v>
       </c>
-      <c r="O196" s="21">
-        <f t="shared" si="32"/>
-        <v>85</v>
-      </c>
-      <c r="P196" s="21">
-        <f t="shared" si="33"/>
-        <v>4.68</v>
-      </c>
-      <c r="T196">
-        <v>85</v>
-      </c>
       <c r="U196">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197" spans="2:21" x14ac:dyDescent="0.25">
@@ -29487,54 +29584,54 @@
         <v>46022</v>
       </c>
       <c r="C197" s="47">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="D197" s="48">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E197" s="48">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F197" s="48">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G197" s="48">
+        <v>56</v>
+      </c>
+      <c r="H197" s="48">
         <v>66</v>
       </c>
-      <c r="H197" s="48">
-        <v>91</v>
-      </c>
       <c r="I197" s="48">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="J197" s="48">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K197" s="47">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L197" s="48">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M197" s="48">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="N197" s="49">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O197" s="21">
-        <f t="shared" si="32"/>
-        <v>153</v>
+        <f t="shared" si="34"/>
+        <v>135</v>
       </c>
       <c r="P197" s="21">
-        <f t="shared" si="33"/>
-        <v>42.26</v>
+        <f t="shared" si="35"/>
+        <v>46.08</v>
       </c>
       <c r="T197">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="U197">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="2:21" x14ac:dyDescent="0.25">
@@ -29542,54 +29639,54 @@
         <v>40</v>
       </c>
       <c r="C198">
-        <v>23.98</v>
+        <v>27.62</v>
       </c>
       <c r="D198">
-        <v>26.23</v>
+        <v>25.61</v>
       </c>
       <c r="E198">
-        <v>22.96</v>
+        <v>23.74</v>
       </c>
       <c r="F198" s="16">
-        <v>23.95</v>
+        <v>24.98</v>
       </c>
       <c r="G198" s="16">
-        <v>19.760000000000002</v>
+        <v>17.88</v>
       </c>
       <c r="H198" s="16">
-        <v>20.68</v>
+        <v>19.12</v>
       </c>
       <c r="I198" s="16">
-        <v>21.79</v>
+        <v>25.39</v>
       </c>
       <c r="J198" s="16">
-        <v>23.2</v>
+        <v>24.14</v>
       </c>
       <c r="K198" s="16">
-        <v>25</v>
+        <v>24.23</v>
       </c>
       <c r="L198" s="16">
-        <v>23.47</v>
+        <v>25.35</v>
       </c>
       <c r="M198" s="16">
-        <v>26.14</v>
+        <v>25.55</v>
       </c>
       <c r="N198" s="17">
-        <v>25.38</v>
+        <v>26.05</v>
       </c>
       <c r="O198" s="34">
         <f>ROUND(AVERAGE(C198:N198,T198:U198),2)</f>
-        <v>23.54</v>
+        <v>24.01</v>
       </c>
       <c r="P198" s="34">
         <f>ROUND(_xlfn.STDEV.P(C198:N198,T198:U198),2)</f>
-        <v>1.82</v>
+        <v>2.58</v>
       </c>
       <c r="T198">
-        <v>23.01</v>
+        <v>24.55</v>
       </c>
       <c r="U198">
-        <v>24.04</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="199" spans="2:21" x14ac:dyDescent="0.25">
@@ -29597,54 +29694,54 @@
         <v>41</v>
       </c>
       <c r="C199">
-        <v>26.73</v>
+        <v>28.11</v>
       </c>
       <c r="D199">
-        <v>25.92</v>
+        <v>25.56</v>
       </c>
       <c r="E199">
-        <v>34.200000000000003</v>
+        <v>30.41</v>
       </c>
       <c r="F199">
-        <v>29.94</v>
+        <v>30.3</v>
       </c>
       <c r="G199">
-        <v>36.97</v>
+        <v>36.04</v>
       </c>
       <c r="H199">
-        <v>35.15</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="I199">
-        <v>33.4</v>
+        <v>29.37</v>
       </c>
       <c r="J199">
-        <v>31.05</v>
+        <v>29.8</v>
       </c>
       <c r="K199">
-        <v>43.51</v>
+        <v>28.88</v>
       </c>
       <c r="L199">
-        <v>33.799999999999997</v>
+        <v>17.48</v>
       </c>
       <c r="M199" s="16">
-        <v>30.58</v>
+        <v>29.2</v>
       </c>
       <c r="N199" s="16">
-        <v>28.69</v>
+        <v>26.62</v>
       </c>
       <c r="O199" s="34">
         <f>ROUND(AVERAGE(C199:N199,T199:U199),2)</f>
-        <v>32.229999999999997</v>
+        <v>29.03</v>
       </c>
       <c r="P199" s="34">
         <f>ROUND(_xlfn.STDEV.P(C199:N199,T199:U199),2)</f>
-        <v>4.34</v>
+        <v>4.2</v>
       </c>
       <c r="T199">
-        <v>30.79</v>
+        <v>29.87</v>
       </c>
       <c r="U199">
-        <v>30.45</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="200" spans="2:21" x14ac:dyDescent="0.25">
@@ -29677,6 +29774,44 @@
       </c>
       <c r="U200" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="201" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>65</v>
+      </c>
+      <c r="D201" t="s">
+        <v>66</v>
+      </c>
+      <c r="E201" t="s">
+        <v>65</v>
+      </c>
+      <c r="F201" t="s">
+        <v>66</v>
+      </c>
+      <c r="G201" t="s">
+        <v>65</v>
+      </c>
+      <c r="H201" t="s">
+        <v>66</v>
+      </c>
+      <c r="I201" t="s">
+        <v>65</v>
+      </c>
+      <c r="J201" t="s">
+        <v>66</v>
+      </c>
+      <c r="K201" t="s">
+        <v>65</v>
+      </c>
+      <c r="L201" t="s">
+        <v>66</v>
+      </c>
+      <c r="M201" t="s">
+        <v>65</v>
+      </c>
+      <c r="N201" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -29713,7 +29848,7 @@
   <conditionalFormatting sqref="F191:G198 I191:I198 L191:L198">
     <cfRule type="aboveAverage" dxfId="3" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R79 R81:R165">
+  <conditionalFormatting sqref="R3:R79 R81:R174">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -29733,7 +29868,7 @@
   <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O166" sqref="O166:P197"/>
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36392,7 +36527,7 @@
         <v>57</v>
       </c>
       <c r="P131" s="21">
-        <f t="shared" ref="P131:P194" si="13">ROUND(_xlfn.STDEV.P(C131:N131),2)</f>
+        <f t="shared" ref="P131:P165" si="13">ROUND(_xlfn.STDEV.P(C131:N131),2)</f>
         <v>10.59</v>
       </c>
       <c r="R131" s="27">
@@ -37598,69 +37733,69 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="61">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="14">
         <v>178</v>
       </c>
-      <c r="B151" s="62">
+      <c r="B151" s="23">
         <v>45976</v>
       </c>
-      <c r="C151" s="63">
+      <c r="C151">
         <v>199</v>
       </c>
-      <c r="D151" s="63">
+      <c r="D151">
         <v>194</v>
       </c>
-      <c r="E151" s="63">
+      <c r="E151">
         <v>164</v>
       </c>
-      <c r="F151" s="63">
+      <c r="F151">
         <v>163</v>
       </c>
-      <c r="G151" s="63">
+      <c r="G151">
         <v>152</v>
       </c>
-      <c r="H151" s="63">
+      <c r="H151">
         <v>145</v>
       </c>
-      <c r="I151" s="63">
+      <c r="I151">
         <v>140</v>
       </c>
-      <c r="J151" s="63">
+      <c r="J151">
         <v>181</v>
       </c>
-      <c r="K151" s="63">
+      <c r="K151">
         <v>188</v>
       </c>
-      <c r="L151" s="63">
+      <c r="L151">
         <v>195</v>
       </c>
-      <c r="M151" s="63">
+      <c r="M151">
         <v>197</v>
       </c>
-      <c r="N151" s="63">
+      <c r="N151">
         <v>190</v>
       </c>
-      <c r="O151" s="64">
+      <c r="O151" s="21">
         <f>ROUND(AVERAGE(C151:N151,T151,U151),0)</f>
         <v>174</v>
       </c>
-      <c r="P151" s="64">
+      <c r="P151" s="21">
         <f t="shared" si="13"/>
         <v>20.75</v>
       </c>
-      <c r="R151" s="65">
+      <c r="R151" s="27">
         <f t="shared" ref="R151:R165" si="15">O151-A151</f>
         <v>-4</v>
       </c>
-      <c r="S151" s="63">
+      <c r="S151">
         <f t="shared" ref="S151:S165" si="16">O151/A151</f>
         <v>0.97752808988764039</v>
       </c>
-      <c r="T151" s="63">
+      <c r="T151">
         <v>159</v>
       </c>
-      <c r="U151" s="63">
+      <c r="U151">
         <v>174</v>
       </c>
     </row>
@@ -38588,62 +38723,76 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="28">
+    <row r="166" spans="1:21" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="14">
+        <v>53</v>
+      </c>
+      <c r="B166" s="62">
         <v>45991</v>
       </c>
-      <c r="C166" s="29">
+      <c r="C166" s="61">
         <v>77</v>
       </c>
-      <c r="D166" s="29">
+      <c r="D166" s="61">
         <v>97</v>
       </c>
-      <c r="E166" s="29">
+      <c r="E166" s="61">
         <v>62</v>
       </c>
-      <c r="F166" s="29">
+      <c r="F166" s="61">
         <v>55</v>
       </c>
-      <c r="G166" s="29">
+      <c r="G166" s="61">
         <v>48</v>
       </c>
-      <c r="H166" s="29">
+      <c r="H166" s="61">
         <v>43</v>
       </c>
-      <c r="I166" s="29">
+      <c r="I166" s="61">
         <v>47</v>
       </c>
-      <c r="J166" s="29">
+      <c r="J166" s="61">
         <v>45</v>
       </c>
-      <c r="K166" s="29">
+      <c r="K166" s="61">
         <v>97</v>
       </c>
-      <c r="L166" s="29">
+      <c r="L166" s="61">
         <v>77</v>
       </c>
-      <c r="M166" s="29">
+      <c r="M166" s="61">
         <v>80</v>
       </c>
-      <c r="N166" s="29">
+      <c r="N166" s="61">
         <v>81</v>
       </c>
-      <c r="O166" s="30">
+      <c r="O166" s="63">
         <f>ROUND(AVERAGE(C166:N166,T166,U166),0)</f>
         <v>67</v>
       </c>
-      <c r="P166" s="30">
+      <c r="P166" s="63">
         <f>ROUND(_xlfn.STDEV.P(C166:N166,T166,U166),2)</f>
         <v>17.760000000000002</v>
       </c>
-      <c r="T166" s="29">
+      <c r="R166" s="27">
+        <f t="shared" ref="R166:R174" si="18">O166-A166</f>
+        <v>14</v>
+      </c>
+      <c r="S166">
+        <f t="shared" ref="S166:S174" si="19">O166/A166</f>
+        <v>1.2641509433962264</v>
+      </c>
+      <c r="T166" s="61">
         <v>61</v>
       </c>
-      <c r="U166" s="29">
+      <c r="U166" s="61">
         <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="14">
+        <v>20</v>
+      </c>
       <c r="B167" s="23">
         <v>45992</v>
       </c>
@@ -38691,6 +38840,14 @@
         <f>ROUND(_xlfn.STDEV.P(C167:N167,T167,U167),2)</f>
         <v>25.75</v>
       </c>
+      <c r="R167" s="27">
+        <f t="shared" si="18"/>
+        <v>52</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="19"/>
+        <v>3.6</v>
+      </c>
       <c r="T167">
         <v>76</v>
       </c>
@@ -38699,6 +38856,9 @@
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="14">
+        <v>66</v>
+      </c>
       <c r="B168" s="23">
         <v>45993</v>
       </c>
@@ -38743,8 +38903,16 @@
         <v>79</v>
       </c>
       <c r="P168" s="21">
-        <f t="shared" ref="P168:P197" si="18">ROUND(_xlfn.STDEV.P(C168:N168,T168,U168),2)</f>
+        <f t="shared" ref="P168:P197" si="20">ROUND(_xlfn.STDEV.P(C168:N168,T168,U168),2)</f>
         <v>19.13</v>
+      </c>
+      <c r="R168" s="27">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="19"/>
+        <v>1.196969696969697</v>
       </c>
       <c r="T168">
         <v>81</v>
@@ -38754,6 +38922,9 @@
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="14">
+        <v>95</v>
+      </c>
       <c r="B169" s="23">
         <v>45994</v>
       </c>
@@ -38798,8 +38969,16 @@
         <v>94</v>
       </c>
       <c r="P169" s="21">
+        <f t="shared" si="20"/>
+        <v>6.9</v>
+      </c>
+      <c r="R169" s="27">
         <f t="shared" si="18"/>
-        <v>6.9</v>
+        <v>-1</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="19"/>
+        <v>0.98947368421052628</v>
       </c>
       <c r="T169">
         <v>91</v>
@@ -38809,6 +38988,9 @@
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="14">
+        <v>115</v>
+      </c>
       <c r="B170" s="23">
         <v>45995</v>
       </c>
@@ -38853,8 +39035,16 @@
         <v>98</v>
       </c>
       <c r="P170" s="21">
+        <f t="shared" si="20"/>
+        <v>7.83</v>
+      </c>
+      <c r="R170" s="27">
         <f t="shared" si="18"/>
-        <v>7.83</v>
+        <v>-17</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="19"/>
+        <v>0.85217391304347823</v>
       </c>
       <c r="T170">
         <v>98</v>
@@ -38864,6 +39054,9 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="14">
+        <v>113</v>
+      </c>
       <c r="B171" s="23">
         <v>45996</v>
       </c>
@@ -38908,8 +39101,16 @@
         <v>129</v>
       </c>
       <c r="P171" s="21">
+        <f t="shared" si="20"/>
+        <v>5.07</v>
+      </c>
+      <c r="R171" s="27">
         <f t="shared" si="18"/>
-        <v>5.07</v>
+        <v>16</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="19"/>
+        <v>1.1415929203539823</v>
       </c>
       <c r="T171">
         <v>126</v>
@@ -38919,6 +39120,9 @@
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="14">
+        <v>161</v>
+      </c>
       <c r="B172" s="23">
         <v>45997</v>
       </c>
@@ -38963,8 +39167,16 @@
         <v>170</v>
       </c>
       <c r="P172" s="21">
+        <f t="shared" si="20"/>
+        <v>4.78</v>
+      </c>
+      <c r="R172" s="27">
         <f t="shared" si="18"/>
-        <v>4.78</v>
+        <v>9</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="19"/>
+        <v>1.0559006211180124</v>
       </c>
       <c r="T172">
         <v>166</v>
@@ -38974,6 +39186,9 @@
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="14">
+        <v>73</v>
+      </c>
       <c r="B173" s="23">
         <v>45998</v>
       </c>
@@ -39018,8 +39233,16 @@
         <v>88</v>
       </c>
       <c r="P173" s="21">
+        <f t="shared" si="20"/>
+        <v>6.23</v>
+      </c>
+      <c r="R173" s="27">
         <f t="shared" si="18"/>
-        <v>6.23</v>
+        <v>15</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="19"/>
+        <v>1.2054794520547945</v>
       </c>
       <c r="T173">
         <v>84</v>
@@ -39029,6 +39252,9 @@
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="14">
+        <v>47</v>
+      </c>
       <c r="B174" s="23">
         <v>45999</v>
       </c>
@@ -39073,8 +39299,16 @@
         <v>63</v>
       </c>
       <c r="P174" s="21">
+        <f t="shared" si="20"/>
+        <v>7.57</v>
+      </c>
+      <c r="R174" s="27">
         <f t="shared" si="18"/>
-        <v>7.57</v>
+        <v>16</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="19"/>
+        <v>1.3404255319148937</v>
       </c>
       <c r="T174">
         <v>65</v>
@@ -39083,59 +39317,59 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B175" s="23">
+    <row r="175" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="28">
         <v>46000</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="29">
+        <v>54</v>
+      </c>
+      <c r="D175" s="29">
+        <v>60</v>
+      </c>
+      <c r="E175" s="29">
+        <v>48</v>
+      </c>
+      <c r="F175" s="29">
+        <v>66</v>
+      </c>
+      <c r="G175" s="29">
+        <v>36</v>
+      </c>
+      <c r="H175" s="29">
         <v>67</v>
       </c>
-      <c r="D175">
-        <v>64</v>
-      </c>
-      <c r="E175">
-        <v>76</v>
-      </c>
-      <c r="F175">
-        <v>73</v>
-      </c>
-      <c r="G175">
-        <v>75</v>
-      </c>
-      <c r="H175">
-        <v>84</v>
-      </c>
-      <c r="I175">
-        <v>92</v>
-      </c>
-      <c r="J175">
-        <v>82</v>
-      </c>
-      <c r="K175">
-        <v>66</v>
-      </c>
-      <c r="L175">
-        <v>68</v>
-      </c>
-      <c r="M175">
-        <v>66</v>
-      </c>
-      <c r="N175">
-        <v>65</v>
-      </c>
-      <c r="O175" s="21">
+      <c r="I175" s="29">
+        <v>50</v>
+      </c>
+      <c r="J175" s="29">
+        <v>70</v>
+      </c>
+      <c r="K175" s="29">
+        <v>54</v>
+      </c>
+      <c r="L175" s="29">
+        <v>58</v>
+      </c>
+      <c r="M175" s="29">
+        <v>60</v>
+      </c>
+      <c r="N175" s="29">
+        <v>60</v>
+      </c>
+      <c r="O175" s="30">
         <f t="shared" si="17"/>
-        <v>73</v>
-      </c>
-      <c r="P175" s="21">
-        <f t="shared" si="18"/>
-        <v>7.95</v>
-      </c>
-      <c r="T175">
-        <v>73</v>
-      </c>
-      <c r="U175">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="P175" s="30">
+        <f t="shared" si="20"/>
+        <v>9.08</v>
+      </c>
+      <c r="T175" s="29">
+        <v>62</v>
+      </c>
+      <c r="U175" s="29">
+        <v>44</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -39143,54 +39377,54 @@
         <v>46001</v>
       </c>
       <c r="C176">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D176">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E176">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F176">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="G176">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="H176">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="I176">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="J176">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="K176">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L176">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M176">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="N176">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="O176" s="21">
         <f t="shared" si="17"/>
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="P176" s="21">
-        <f t="shared" si="18"/>
-        <v>7.37</v>
+        <f t="shared" si="20"/>
+        <v>18.34</v>
       </c>
       <c r="T176">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="U176">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="2:21" x14ac:dyDescent="0.25">
@@ -39198,54 +39432,54 @@
         <v>46002</v>
       </c>
       <c r="C177">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D177">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E177">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F177">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G177">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H177">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="I177">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="J177">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K177">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="L177">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M177">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="N177">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O177" s="21">
         <f t="shared" si="17"/>
         <v>94</v>
       </c>
       <c r="P177" s="21">
-        <f t="shared" si="18"/>
-        <v>8.92</v>
+        <f t="shared" si="20"/>
+        <v>17.98</v>
       </c>
       <c r="T177">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="U177">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="2:21" x14ac:dyDescent="0.25">
@@ -39253,54 +39487,54 @@
         <v>46003</v>
       </c>
       <c r="C178">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D178">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E178">
+        <v>92</v>
+      </c>
+      <c r="F178">
+        <v>117</v>
+      </c>
+      <c r="G178">
+        <v>58</v>
+      </c>
+      <c r="H178">
+        <v>101</v>
+      </c>
+      <c r="I178">
+        <v>150</v>
+      </c>
+      <c r="J178">
+        <v>113</v>
+      </c>
+      <c r="K178">
         <v>142</v>
       </c>
-      <c r="F178">
-        <v>144</v>
-      </c>
-      <c r="G178">
-        <v>145</v>
-      </c>
-      <c r="H178">
-        <v>145</v>
-      </c>
-      <c r="I178">
-        <v>157</v>
-      </c>
-      <c r="J178">
-        <v>142</v>
-      </c>
-      <c r="K178">
-        <v>132</v>
-      </c>
       <c r="L178">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M178">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="N178">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O178" s="21">
         <f t="shared" si="17"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="P178" s="21">
-        <f t="shared" si="18"/>
-        <v>6.91</v>
+        <f t="shared" si="20"/>
+        <v>25.09</v>
       </c>
       <c r="T178">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="U178">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="2:21" x14ac:dyDescent="0.25">
@@ -39308,54 +39542,54 @@
         <v>46004</v>
       </c>
       <c r="C179">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="D179">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E179">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F179">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G179">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="H179">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="I179">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="J179">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="K179">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L179">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M179">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="N179">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O179" s="21">
         <f t="shared" si="17"/>
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="P179" s="21">
-        <f t="shared" si="18"/>
-        <v>27.99</v>
+        <f t="shared" si="20"/>
+        <v>34.020000000000003</v>
       </c>
       <c r="T179">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="U179">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="2:21" x14ac:dyDescent="0.25">
@@ -39363,54 +39597,54 @@
         <v>46005</v>
       </c>
       <c r="C180">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D180">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E180">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F180">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G180">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H180">
+        <v>47</v>
+      </c>
+      <c r="I180">
+        <v>34</v>
+      </c>
+      <c r="J180">
         <v>45</v>
       </c>
-      <c r="I180">
-        <v>44</v>
-      </c>
-      <c r="J180">
-        <v>46</v>
-      </c>
       <c r="K180">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L180">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M180">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N180">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O180" s="21">
         <f t="shared" si="17"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P180" s="21">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="20"/>
+        <v>17.91</v>
       </c>
       <c r="T180">
         <v>64</v>
       </c>
       <c r="U180">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="2:21" x14ac:dyDescent="0.25">
@@ -39418,54 +39652,54 @@
         <v>46006</v>
       </c>
       <c r="C181">
+        <v>79</v>
+      </c>
+      <c r="D181">
         <v>64</v>
       </c>
-      <c r="D181">
-        <v>81</v>
-      </c>
       <c r="E181">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G181">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H181">
+        <v>46</v>
+      </c>
+      <c r="I181">
         <v>40</v>
       </c>
-      <c r="I181">
-        <v>44</v>
-      </c>
       <c r="J181">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L181">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="M181">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N181">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O181" s="21">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P181" s="21">
-        <f t="shared" si="18"/>
-        <v>11.92</v>
+        <f t="shared" si="20"/>
+        <v>11.89</v>
       </c>
       <c r="T181">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U181">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="2:21" x14ac:dyDescent="0.25">
@@ -39473,54 +39707,54 @@
         <v>46007</v>
       </c>
       <c r="C182">
+        <v>77</v>
+      </c>
+      <c r="D182">
         <v>63</v>
       </c>
-      <c r="D182">
+      <c r="E182">
+        <v>59</v>
+      </c>
+      <c r="F182">
+        <v>62</v>
+      </c>
+      <c r="G182">
+        <v>42</v>
+      </c>
+      <c r="H182">
+        <v>52</v>
+      </c>
+      <c r="I182">
+        <v>39</v>
+      </c>
+      <c r="J182">
+        <v>69</v>
+      </c>
+      <c r="K182">
         <v>67</v>
       </c>
-      <c r="E182">
-        <v>65</v>
-      </c>
-      <c r="F182">
-        <v>66</v>
-      </c>
-      <c r="G182">
-        <v>64</v>
-      </c>
-      <c r="H182">
-        <v>81</v>
-      </c>
-      <c r="I182">
-        <v>90</v>
-      </c>
-      <c r="J182">
-        <v>92</v>
-      </c>
-      <c r="K182">
+      <c r="L182">
+        <v>60</v>
+      </c>
+      <c r="M182">
+        <v>71</v>
+      </c>
+      <c r="N182">
         <v>59</v>
-      </c>
-      <c r="L182">
-        <v>46</v>
-      </c>
-      <c r="M182">
-        <v>58</v>
-      </c>
-      <c r="N182">
-        <v>60</v>
       </c>
       <c r="O182" s="21">
         <f t="shared" si="17"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P182" s="21">
-        <f t="shared" si="18"/>
-        <v>12.15</v>
+        <f t="shared" si="20"/>
+        <v>10.9</v>
       </c>
       <c r="T182">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="U182">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183" spans="2:21" x14ac:dyDescent="0.25">
@@ -39528,54 +39762,54 @@
         <v>46008</v>
       </c>
       <c r="C183">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D183">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E183">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="F183">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G183">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="H183">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I183">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="J183">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K183">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L183">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M183">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="N183">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O183" s="21">
         <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="P183" s="21">
+        <f t="shared" si="20"/>
+        <v>22.31</v>
+      </c>
+      <c r="T183">
         <v>114</v>
       </c>
-      <c r="P183" s="21">
-        <f t="shared" si="18"/>
-        <v>18.190000000000001</v>
-      </c>
-      <c r="T183">
-        <v>118</v>
-      </c>
       <c r="U183">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="2:21" x14ac:dyDescent="0.25">
@@ -39583,54 +39817,54 @@
         <v>46009</v>
       </c>
       <c r="C184">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D184">
+        <v>129</v>
+      </c>
+      <c r="E184">
         <v>122</v>
       </c>
-      <c r="E184">
-        <v>157</v>
-      </c>
       <c r="F184">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G184">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="H184">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I184">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J184">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K184">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L184">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M184">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="N184">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O184" s="21">
         <f t="shared" si="17"/>
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="P184" s="21">
-        <f t="shared" si="18"/>
-        <v>19.66</v>
+        <f t="shared" si="20"/>
+        <v>28.19</v>
       </c>
       <c r="T184">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="U184">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185" spans="2:21" x14ac:dyDescent="0.25">
@@ -39638,54 +39872,54 @@
         <v>46010</v>
       </c>
       <c r="C185">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D185">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E185">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="F185">
+        <v>193</v>
+      </c>
+      <c r="G185">
+        <v>156</v>
+      </c>
+      <c r="H185">
+        <v>197</v>
+      </c>
+      <c r="I185">
+        <v>183</v>
+      </c>
+      <c r="J185">
         <v>194</v>
       </c>
-      <c r="G185">
-        <v>222</v>
-      </c>
-      <c r="H185">
-        <v>198</v>
-      </c>
-      <c r="I185">
-        <v>203</v>
-      </c>
-      <c r="J185">
-        <v>208</v>
-      </c>
       <c r="K185">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L185">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M185">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="N185">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="O185" s="21">
         <f t="shared" si="17"/>
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="P185" s="21">
-        <f t="shared" si="18"/>
-        <v>8.02</v>
+        <f t="shared" si="20"/>
+        <v>15.26</v>
       </c>
       <c r="T185">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="U185">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="2:21" x14ac:dyDescent="0.25">
@@ -39693,54 +39927,54 @@
         <v>46011</v>
       </c>
       <c r="C186">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D186">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E186">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="F186">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G186">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="H186">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="I186">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="J186">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K186">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="L186">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="M186">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N186">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O186" s="21">
         <f t="shared" si="17"/>
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="P186" s="21">
-        <f t="shared" si="18"/>
-        <v>24.85</v>
+        <f t="shared" si="20"/>
+        <v>30.19</v>
       </c>
       <c r="T186">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="U186">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="2:21" x14ac:dyDescent="0.25">
@@ -39748,54 +39982,54 @@
         <v>46012</v>
       </c>
       <c r="C187">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D187">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E187">
+        <v>94</v>
+      </c>
+      <c r="F187">
+        <v>117</v>
+      </c>
+      <c r="G187">
+        <v>66</v>
+      </c>
+      <c r="H187">
+        <v>99</v>
+      </c>
+      <c r="I187">
+        <v>56</v>
+      </c>
+      <c r="J187">
+        <v>129</v>
+      </c>
+      <c r="K187">
+        <v>136</v>
+      </c>
+      <c r="L187">
+        <v>124</v>
+      </c>
+      <c r="M187">
+        <v>111</v>
+      </c>
+      <c r="N187">
         <v>143</v>
-      </c>
-      <c r="F187">
-        <v>149</v>
-      </c>
-      <c r="G187">
-        <v>132</v>
-      </c>
-      <c r="H187">
-        <v>151</v>
-      </c>
-      <c r="I187">
-        <v>138</v>
-      </c>
-      <c r="J187">
-        <v>144</v>
-      </c>
-      <c r="K187">
-        <v>152</v>
-      </c>
-      <c r="L187">
-        <v>164</v>
-      </c>
-      <c r="M187">
-        <v>135</v>
-      </c>
-      <c r="N187">
-        <v>145</v>
       </c>
       <c r="O187" s="21">
         <f t="shared" si="17"/>
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="P187" s="21">
-        <f t="shared" si="18"/>
-        <v>12.25</v>
+        <f t="shared" si="20"/>
+        <v>25.21</v>
       </c>
       <c r="T187">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="U187">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="2:21" x14ac:dyDescent="0.25">
@@ -39803,54 +40037,54 @@
         <v>46013</v>
       </c>
       <c r="C188">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D188">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="E188">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="F188">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G188">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="H188">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="I188">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="J188">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K188">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="L188">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="M188">
+        <v>88</v>
+      </c>
+      <c r="N188">
         <v>90</v>
-      </c>
-      <c r="N188">
-        <v>118</v>
       </c>
       <c r="O188" s="21">
         <f t="shared" si="17"/>
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="P188" s="21">
-        <f t="shared" si="18"/>
-        <v>20.100000000000001</v>
+        <f t="shared" si="20"/>
+        <v>27.42</v>
       </c>
       <c r="T188">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="U188">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="189" spans="2:21" x14ac:dyDescent="0.25">
@@ -39858,54 +40092,54 @@
         <v>46014</v>
       </c>
       <c r="C189">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D189">
         <v>91</v>
       </c>
       <c r="E189">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F189">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G189">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="H189">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="I189">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="J189">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="K189">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="L189">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M189">
         <v>93</v>
       </c>
       <c r="N189">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="O189" s="21">
         <f t="shared" si="17"/>
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P189" s="21">
-        <f t="shared" si="18"/>
-        <v>16.62</v>
+        <f t="shared" si="20"/>
+        <v>19.77</v>
       </c>
       <c r="T189">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="U189">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="2:21" x14ac:dyDescent="0.25">
@@ -39913,54 +40147,54 @@
         <v>46015</v>
       </c>
       <c r="C190">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D190">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E190">
+        <v>87</v>
+      </c>
+      <c r="F190">
+        <v>100</v>
+      </c>
+      <c r="G190">
+        <v>76</v>
+      </c>
+      <c r="H190">
+        <v>76</v>
+      </c>
+      <c r="I190">
+        <v>72</v>
+      </c>
+      <c r="J190">
+        <v>92</v>
+      </c>
+      <c r="K190">
         <v>112</v>
       </c>
-      <c r="F190">
-        <v>120</v>
-      </c>
-      <c r="G190">
-        <v>85</v>
-      </c>
-      <c r="H190">
-        <v>106</v>
-      </c>
-      <c r="I190">
-        <v>107</v>
-      </c>
-      <c r="J190">
-        <v>121</v>
-      </c>
-      <c r="K190">
-        <v>126</v>
-      </c>
       <c r="L190">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M190">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="N190">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="O190" s="21">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="P190" s="21">
-        <f t="shared" si="18"/>
-        <v>24.62</v>
+        <f t="shared" si="20"/>
+        <v>29.73</v>
       </c>
       <c r="T190">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="U190">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="191" spans="2:21" x14ac:dyDescent="0.25">
@@ -39968,54 +40202,54 @@
         <v>46016</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E191">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F191">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G191">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="H191">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="I191">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="J191">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K191">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="L191">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M191">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N191">
         <v>14</v>
       </c>
       <c r="O191" s="21">
         <f t="shared" si="17"/>
+        <v>41</v>
+      </c>
+      <c r="P191" s="21">
+        <f t="shared" si="20"/>
+        <v>22.51</v>
+      </c>
+      <c r="T191">
         <v>56</v>
       </c>
-      <c r="P191" s="21">
-        <f t="shared" si="18"/>
-        <v>39.18</v>
-      </c>
-      <c r="T191">
-        <v>67</v>
-      </c>
       <c r="U191">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="2:21" x14ac:dyDescent="0.25">
@@ -40023,54 +40257,54 @@
         <v>46017</v>
       </c>
       <c r="C192">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D192">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E192">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F192">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G192">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="H192">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="I192">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J192">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K192">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L192">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M192">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="N192">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O192" s="21">
         <f t="shared" si="17"/>
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="P192" s="21">
-        <f t="shared" si="18"/>
-        <v>43.18</v>
+        <f t="shared" si="20"/>
+        <v>38.450000000000003</v>
       </c>
       <c r="T192">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="U192">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="2:21" x14ac:dyDescent="0.25">
@@ -40078,54 +40312,54 @@
         <v>46018</v>
       </c>
       <c r="C193">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D193">
+        <v>193</v>
+      </c>
+      <c r="E193">
+        <v>215</v>
+      </c>
+      <c r="F193">
+        <v>212</v>
+      </c>
+      <c r="G193">
+        <v>87</v>
+      </c>
+      <c r="H193">
+        <v>202</v>
+      </c>
+      <c r="I193">
+        <v>233</v>
+      </c>
+      <c r="J193">
+        <v>223</v>
+      </c>
+      <c r="K193">
+        <v>235</v>
+      </c>
+      <c r="L193">
+        <v>200</v>
+      </c>
+      <c r="M193">
         <v>203</v>
       </c>
-      <c r="E193">
-        <v>212</v>
-      </c>
-      <c r="F193">
-        <v>214</v>
-      </c>
-      <c r="G193">
-        <v>240</v>
-      </c>
-      <c r="H193">
-        <v>219</v>
-      </c>
-      <c r="I193">
-        <v>231</v>
-      </c>
-      <c r="J193">
-        <v>228</v>
-      </c>
-      <c r="K193">
-        <v>202</v>
-      </c>
-      <c r="L193">
-        <v>202</v>
-      </c>
-      <c r="M193">
-        <v>200</v>
-      </c>
       <c r="N193">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O193" s="21">
         <f t="shared" si="17"/>
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="P193" s="21">
-        <f t="shared" si="18"/>
-        <v>12.51</v>
+        <f t="shared" si="20"/>
+        <v>35.15</v>
       </c>
       <c r="T193">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="U193">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="2:21" x14ac:dyDescent="0.25">
@@ -40133,54 +40367,54 @@
         <v>46019</v>
       </c>
       <c r="C194">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D194">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E194">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F194">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G194">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="H194">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="I194">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J194">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="K194">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L194">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="M194">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N194">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O194" s="21">
         <f t="shared" si="17"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="P194" s="21">
-        <f t="shared" si="18"/>
-        <v>15.5</v>
+        <f t="shared" si="20"/>
+        <v>12.74</v>
       </c>
       <c r="T194">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U194">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="2:21" x14ac:dyDescent="0.25">
@@ -40188,54 +40422,54 @@
         <v>46020</v>
       </c>
       <c r="C195">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D195">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E195">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F195">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G195">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="H195">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="I195">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="J195">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="K195">
+        <v>121</v>
+      </c>
+      <c r="L195">
+        <v>103</v>
+      </c>
+      <c r="M195">
+        <v>108</v>
+      </c>
+      <c r="N195">
         <v>107</v>
-      </c>
-      <c r="L195">
-        <v>116</v>
-      </c>
-      <c r="M195">
-        <v>102</v>
-      </c>
-      <c r="N195">
-        <v>112</v>
       </c>
       <c r="O195" s="21">
         <f t="shared" si="17"/>
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="P195" s="21">
-        <f t="shared" si="18"/>
-        <v>21.12</v>
+        <f t="shared" si="20"/>
+        <v>22.48</v>
       </c>
       <c r="T195">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="U195">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="196" spans="2:21" x14ac:dyDescent="0.25">
@@ -40243,54 +40477,54 @@
         <v>46021</v>
       </c>
       <c r="C196">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D196">
+        <v>81</v>
+      </c>
+      <c r="E196">
+        <v>54</v>
+      </c>
+      <c r="F196">
+        <v>100</v>
+      </c>
+      <c r="G196">
+        <v>53</v>
+      </c>
+      <c r="H196">
+        <v>107</v>
+      </c>
+      <c r="I196">
+        <v>72</v>
+      </c>
+      <c r="J196">
+        <v>111</v>
+      </c>
+      <c r="K196">
         <v>83</v>
       </c>
-      <c r="E196">
-        <v>106</v>
-      </c>
-      <c r="F196">
-        <v>106</v>
-      </c>
-      <c r="G196">
-        <v>116</v>
-      </c>
-      <c r="H196">
-        <v>124</v>
-      </c>
-      <c r="I196">
-        <v>132</v>
-      </c>
-      <c r="J196">
-        <v>118</v>
-      </c>
-      <c r="K196">
-        <v>87</v>
-      </c>
       <c r="L196">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M196">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N196">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O196" s="21">
         <f t="shared" si="17"/>
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="P196" s="21">
-        <f t="shared" si="18"/>
-        <v>15.84</v>
+        <f t="shared" si="20"/>
+        <v>17.28</v>
       </c>
       <c r="T196">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U196">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="2:21" x14ac:dyDescent="0.25">
@@ -40298,54 +40532,54 @@
         <v>46022</v>
       </c>
       <c r="C197">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="D197">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E197">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F197">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="G197">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H197">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="I197">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="J197">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="K197">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L197">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M197">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N197">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O197" s="21">
         <f t="shared" si="17"/>
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="P197" s="21">
-        <f t="shared" si="18"/>
-        <v>27.19</v>
+        <f t="shared" si="20"/>
+        <v>44.17</v>
       </c>
       <c r="T197">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="U197">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="198" spans="2:21" x14ac:dyDescent="0.25">
@@ -40398,7 +40632,7 @@
       <formula>ABS(C114-$A114)&lt;=15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R165">
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R174">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D287DCAF-0F91-41C2-83C8-98E89C913113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58281BAF-DCEF-4B7C-B9AD-322FDBE33A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31050" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -695,6 +695,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,9 +719,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -721,23 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,15 +1146,15 @@
   <dimension ref="A1:R717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M684" sqref="M684"/>
+      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J657" sqref="J652:J657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="8" customWidth="1"/>
@@ -1178,7 +1172,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1211,7 +1205,7 @@
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="51">
         <v>45373</v>
       </c>
       <c r="D2" s="5">
@@ -1240,7 +1234,7 @@
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="51">
         <v>45374</v>
       </c>
       <c r="D3" s="5">
@@ -1266,7 +1260,7 @@
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="51">
         <v>45375</v>
       </c>
       <c r="D4" s="5">
@@ -1292,7 +1286,7 @@
       <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="51">
         <v>45376</v>
       </c>
       <c r="D5" s="5">
@@ -1318,7 +1312,7 @@
       <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="51">
         <v>45377</v>
       </c>
       <c r="D6" s="5">
@@ -1344,7 +1338,7 @@
       <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="51">
         <v>45378</v>
       </c>
       <c r="D7" s="5">
@@ -1370,7 +1364,7 @@
       <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="51">
         <v>45379</v>
       </c>
       <c r="D8" s="5">
@@ -1396,7 +1390,7 @@
       <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="51">
         <v>45380</v>
       </c>
       <c r="D9" s="5">
@@ -1425,7 +1419,7 @@
       <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="51">
         <v>45381</v>
       </c>
       <c r="D10" s="5">
@@ -1451,7 +1445,7 @@
       <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="51">
         <v>45382</v>
       </c>
       <c r="D11" s="5">
@@ -1482,7 +1476,7 @@
       <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="51">
         <v>45383</v>
       </c>
       <c r="D12" s="5">
@@ -1508,7 +1502,7 @@
       <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="51">
         <v>45384</v>
       </c>
       <c r="D13" s="5">
@@ -1534,7 +1528,7 @@
       <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="51">
         <v>45385</v>
       </c>
       <c r="D14" s="5">
@@ -1560,7 +1554,7 @@
       <c r="B15" s="5">
         <v>14</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="51">
         <v>45386</v>
       </c>
       <c r="D15" s="5">
@@ -1586,7 +1580,7 @@
       <c r="B16" s="5">
         <v>15</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="51">
         <v>45387</v>
       </c>
       <c r="D16" s="5">
@@ -1612,7 +1606,7 @@
       <c r="B17" s="5">
         <v>16</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="51">
         <v>45388</v>
       </c>
       <c r="D17" s="5">
@@ -1638,7 +1632,7 @@
       <c r="B18" s="5">
         <v>17</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="51">
         <v>45389</v>
       </c>
       <c r="D18" s="5">
@@ -1664,7 +1658,7 @@
       <c r="B19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="51">
         <v>45390</v>
       </c>
       <c r="D19" s="5">
@@ -1690,7 +1684,7 @@
       <c r="B20" s="5">
         <v>19</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="51">
         <v>45391</v>
       </c>
       <c r="D20" s="5">
@@ -1716,7 +1710,7 @@
       <c r="B21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="51">
         <v>45392</v>
       </c>
       <c r="D21" s="5">
@@ -1742,7 +1736,7 @@
       <c r="B22" s="5">
         <v>21</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="51">
         <v>45393</v>
       </c>
       <c r="D22" s="5">
@@ -1768,7 +1762,7 @@
       <c r="B23" s="5">
         <v>22</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="51">
         <v>45394</v>
       </c>
       <c r="D23" s="5">
@@ -1794,7 +1788,7 @@
       <c r="B24" s="5">
         <v>23</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="51">
         <v>45395</v>
       </c>
       <c r="D24" s="5">
@@ -1820,7 +1814,7 @@
       <c r="B25" s="5">
         <v>24</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="51">
         <v>45396</v>
       </c>
       <c r="D25" s="5">
@@ -1846,7 +1840,7 @@
       <c r="B26" s="5">
         <v>25</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="51">
         <v>45397</v>
       </c>
       <c r="D26" s="5">
@@ -1872,7 +1866,7 @@
       <c r="B27" s="5">
         <v>26</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="51">
         <v>45398</v>
       </c>
       <c r="D27" s="5">
@@ -1898,7 +1892,7 @@
       <c r="B28" s="5">
         <v>27</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="51">
         <v>45399</v>
       </c>
       <c r="D28" s="5">
@@ -1924,7 +1918,7 @@
       <c r="B29" s="5">
         <v>28</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="51">
         <v>45400</v>
       </c>
       <c r="D29" s="5">
@@ -1950,7 +1944,7 @@
       <c r="B30" s="5">
         <v>29</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="51">
         <v>45401</v>
       </c>
       <c r="D30" s="5">
@@ -1976,7 +1970,7 @@
       <c r="B31" s="5">
         <v>30</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="51">
         <v>45402</v>
       </c>
       <c r="D31" s="5">
@@ -2002,7 +1996,7 @@
       <c r="B32" s="5">
         <v>31</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="51">
         <v>45403</v>
       </c>
       <c r="D32" s="5">
@@ -2028,7 +2022,7 @@
       <c r="B33" s="5">
         <v>32</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="51">
         <v>45404</v>
       </c>
       <c r="D33" s="5">
@@ -2054,7 +2048,7 @@
       <c r="B34" s="5">
         <v>33</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="51">
         <v>45405</v>
       </c>
       <c r="D34" s="5">
@@ -2080,7 +2074,7 @@
       <c r="B35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="51">
         <v>45406</v>
       </c>
       <c r="D35" s="5">
@@ -2106,7 +2100,7 @@
       <c r="B36" s="5">
         <v>35</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="51">
         <v>45407</v>
       </c>
       <c r="D36" s="5">
@@ -2132,7 +2126,7 @@
       <c r="B37" s="5">
         <v>36</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="51">
         <v>45408</v>
       </c>
       <c r="D37" s="5">
@@ -2158,7 +2152,7 @@
       <c r="B38" s="5">
         <v>37</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="51">
         <v>45409</v>
       </c>
       <c r="D38" s="5">
@@ -2184,7 +2178,7 @@
       <c r="B39" s="5">
         <v>38</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="51">
         <v>45410</v>
       </c>
       <c r="D39" s="5">
@@ -2210,7 +2204,7 @@
       <c r="B40" s="5">
         <v>39</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="51">
         <v>45411</v>
       </c>
       <c r="D40" s="5">
@@ -2236,7 +2230,7 @@
       <c r="B41" s="5">
         <v>40</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="51">
         <v>45412</v>
       </c>
       <c r="D41" s="5">
@@ -2262,7 +2256,7 @@
       <c r="B42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="51">
         <v>45413</v>
       </c>
       <c r="D42" s="5">
@@ -2288,7 +2282,7 @@
       <c r="B43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="64">
+      <c r="C43" s="51">
         <v>45414</v>
       </c>
       <c r="D43" s="5">
@@ -2314,7 +2308,7 @@
       <c r="B44" s="5">
         <v>43</v>
       </c>
-      <c r="C44" s="64">
+      <c r="C44" s="51">
         <v>45415</v>
       </c>
       <c r="D44" s="5">
@@ -2340,7 +2334,7 @@
       <c r="B45" s="5">
         <v>44</v>
       </c>
-      <c r="C45" s="64">
+      <c r="C45" s="51">
         <v>45416</v>
       </c>
       <c r="D45" s="5">
@@ -2366,7 +2360,7 @@
       <c r="B46" s="5">
         <v>45</v>
       </c>
-      <c r="C46" s="64">
+      <c r="C46" s="51">
         <v>45417</v>
       </c>
       <c r="D46" s="5">
@@ -2395,7 +2389,7 @@
       <c r="B47" s="5">
         <v>46</v>
       </c>
-      <c r="C47" s="64">
+      <c r="C47" s="51">
         <v>45418</v>
       </c>
       <c r="D47" s="5">
@@ -2421,7 +2415,7 @@
       <c r="B48" s="5">
         <v>47</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="51">
         <v>45419</v>
       </c>
       <c r="D48" s="5">
@@ -2447,7 +2441,7 @@
       <c r="B49" s="5">
         <v>48</v>
       </c>
-      <c r="C49" s="64">
+      <c r="C49" s="51">
         <v>45420</v>
       </c>
       <c r="D49" s="5">
@@ -2473,7 +2467,7 @@
       <c r="B50" s="5">
         <v>49</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="51">
         <v>45421</v>
       </c>
       <c r="D50" s="5">
@@ -2499,7 +2493,7 @@
       <c r="B51" s="5">
         <v>50</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="51">
         <v>45422</v>
       </c>
       <c r="D51" s="5">
@@ -2525,7 +2519,7 @@
       <c r="B52" s="5">
         <v>51</v>
       </c>
-      <c r="C52" s="64">
+      <c r="C52" s="51">
         <v>45423</v>
       </c>
       <c r="D52" s="5">
@@ -2551,7 +2545,7 @@
       <c r="B53" s="5">
         <v>52</v>
       </c>
-      <c r="C53" s="64">
+      <c r="C53" s="51">
         <v>45424</v>
       </c>
       <c r="D53" s="5">
@@ -2580,7 +2574,7 @@
       <c r="B54" s="5">
         <v>53</v>
       </c>
-      <c r="C54" s="64">
+      <c r="C54" s="51">
         <v>45425</v>
       </c>
       <c r="D54" s="5">
@@ -2606,7 +2600,7 @@
       <c r="B55" s="5">
         <v>54</v>
       </c>
-      <c r="C55" s="64">
+      <c r="C55" s="51">
         <v>45426</v>
       </c>
       <c r="D55" s="5">
@@ -2632,7 +2626,7 @@
       <c r="B56" s="5">
         <v>55</v>
       </c>
-      <c r="C56" s="64">
+      <c r="C56" s="51">
         <v>45427</v>
       </c>
       <c r="D56" s="5">
@@ -2658,7 +2652,7 @@
       <c r="B57" s="5">
         <v>56</v>
       </c>
-      <c r="C57" s="64">
+      <c r="C57" s="51">
         <v>45428</v>
       </c>
       <c r="D57" s="5">
@@ -2684,7 +2678,7 @@
       <c r="B58" s="5">
         <v>57</v>
       </c>
-      <c r="C58" s="64">
+      <c r="C58" s="51">
         <v>45429</v>
       </c>
       <c r="D58" s="5">
@@ -2710,7 +2704,7 @@
       <c r="B59" s="5">
         <v>58</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C59" s="51">
         <v>45430</v>
       </c>
       <c r="D59" s="5">
@@ -2736,7 +2730,7 @@
       <c r="B60" s="5">
         <v>59</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="51">
         <v>45431</v>
       </c>
       <c r="D60" s="5">
@@ -2762,7 +2756,7 @@
       <c r="B61" s="5">
         <v>60</v>
       </c>
-      <c r="C61" s="64">
+      <c r="C61" s="51">
         <v>45432</v>
       </c>
       <c r="D61" s="5">
@@ -2788,7 +2782,7 @@
       <c r="B62" s="5">
         <v>61</v>
       </c>
-      <c r="C62" s="64">
+      <c r="C62" s="51">
         <v>45433</v>
       </c>
       <c r="D62" s="5">
@@ -2814,7 +2808,7 @@
       <c r="B63" s="5">
         <v>62</v>
       </c>
-      <c r="C63" s="64">
+      <c r="C63" s="51">
         <v>45434</v>
       </c>
       <c r="D63" s="5">
@@ -2840,7 +2834,7 @@
       <c r="B64" s="5">
         <v>63</v>
       </c>
-      <c r="C64" s="64">
+      <c r="C64" s="51">
         <v>45435</v>
       </c>
       <c r="D64" s="5">
@@ -2866,7 +2860,7 @@
       <c r="B65" s="5">
         <v>64</v>
       </c>
-      <c r="C65" s="64">
+      <c r="C65" s="51">
         <v>45436</v>
       </c>
       <c r="D65" s="5">
@@ -2892,7 +2886,7 @@
       <c r="B66" s="5">
         <v>65</v>
       </c>
-      <c r="C66" s="64">
+      <c r="C66" s="51">
         <v>45437</v>
       </c>
       <c r="D66" s="5">
@@ -2918,7 +2912,7 @@
       <c r="B67" s="5">
         <v>66</v>
       </c>
-      <c r="C67" s="64">
+      <c r="C67" s="51">
         <v>45438</v>
       </c>
       <c r="D67" s="5">
@@ -2944,7 +2938,7 @@
       <c r="B68" s="5">
         <v>67</v>
       </c>
-      <c r="C68" s="64">
+      <c r="C68" s="51">
         <v>45439</v>
       </c>
       <c r="D68" s="5">
@@ -2973,7 +2967,7 @@
       <c r="B69" s="5">
         <v>68</v>
       </c>
-      <c r="C69" s="64">
+      <c r="C69" s="51">
         <v>45440</v>
       </c>
       <c r="D69" s="5">
@@ -2999,7 +2993,7 @@
       <c r="B70" s="5">
         <v>69</v>
       </c>
-      <c r="C70" s="64">
+      <c r="C70" s="51">
         <v>45441</v>
       </c>
       <c r="D70" s="5">
@@ -3025,7 +3019,7 @@
       <c r="B71" s="5">
         <v>70</v>
       </c>
-      <c r="C71" s="64">
+      <c r="C71" s="51">
         <v>45442</v>
       </c>
       <c r="D71" s="5">
@@ -3051,7 +3045,7 @@
       <c r="B72" s="5">
         <v>71</v>
       </c>
-      <c r="C72" s="64">
+      <c r="C72" s="51">
         <v>45443</v>
       </c>
       <c r="D72" s="5">
@@ -3077,7 +3071,7 @@
       <c r="B73" s="5">
         <v>72</v>
       </c>
-      <c r="C73" s="64">
+      <c r="C73" s="51">
         <v>45444</v>
       </c>
       <c r="D73" s="5">
@@ -3103,7 +3097,7 @@
       <c r="B74" s="5">
         <v>73</v>
       </c>
-      <c r="C74" s="64">
+      <c r="C74" s="51">
         <v>45445</v>
       </c>
       <c r="D74" s="5">
@@ -3129,7 +3123,7 @@
       <c r="B75" s="5">
         <v>74</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="51">
         <v>45446</v>
       </c>
       <c r="D75" s="5">
@@ -3155,7 +3149,7 @@
       <c r="B76" s="5">
         <v>75</v>
       </c>
-      <c r="C76" s="64">
+      <c r="C76" s="51">
         <v>45447</v>
       </c>
       <c r="D76" s="5">
@@ -3181,7 +3175,7 @@
       <c r="B77" s="5">
         <v>76</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="51">
         <v>45448</v>
       </c>
       <c r="D77" s="5">
@@ -3207,7 +3201,7 @@
       <c r="B78" s="5">
         <v>77</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="51">
         <v>45449</v>
       </c>
       <c r="D78" s="5">
@@ -3233,7 +3227,7 @@
       <c r="B79" s="5">
         <v>78</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="51">
         <v>45450</v>
       </c>
       <c r="D79" s="5">
@@ -3259,7 +3253,7 @@
       <c r="B80" s="5">
         <v>79</v>
       </c>
-      <c r="C80" s="64">
+      <c r="C80" s="51">
         <v>45451</v>
       </c>
       <c r="D80" s="5">
@@ -3285,7 +3279,7 @@
       <c r="B81" s="5">
         <v>80</v>
       </c>
-      <c r="C81" s="64">
+      <c r="C81" s="51">
         <v>45452</v>
       </c>
       <c r="D81" s="5">
@@ -3311,7 +3305,7 @@
       <c r="B82" s="5">
         <v>81</v>
       </c>
-      <c r="C82" s="64">
+      <c r="C82" s="51">
         <v>45453</v>
       </c>
       <c r="D82" s="5">
@@ -3337,7 +3331,7 @@
       <c r="B83" s="5">
         <v>82</v>
       </c>
-      <c r="C83" s="64">
+      <c r="C83" s="51">
         <v>45454</v>
       </c>
       <c r="D83" s="5">
@@ -3363,7 +3357,7 @@
       <c r="B84" s="5">
         <v>83</v>
       </c>
-      <c r="C84" s="64">
+      <c r="C84" s="51">
         <v>45455</v>
       </c>
       <c r="D84" s="5">
@@ -3389,7 +3383,7 @@
       <c r="B85" s="5">
         <v>84</v>
       </c>
-      <c r="C85" s="64">
+      <c r="C85" s="51">
         <v>45456</v>
       </c>
       <c r="D85" s="5">
@@ -3415,7 +3409,7 @@
       <c r="B86" s="5">
         <v>85</v>
       </c>
-      <c r="C86" s="64">
+      <c r="C86" s="51">
         <v>45457</v>
       </c>
       <c r="D86" s="5">
@@ -3441,7 +3435,7 @@
       <c r="B87" s="5">
         <v>86</v>
       </c>
-      <c r="C87" s="64">
+      <c r="C87" s="51">
         <v>45458</v>
       </c>
       <c r="D87" s="5">
@@ -3467,7 +3461,7 @@
       <c r="B88" s="5">
         <v>87</v>
       </c>
-      <c r="C88" s="64">
+      <c r="C88" s="51">
         <v>45459</v>
       </c>
       <c r="D88" s="5">
@@ -3496,7 +3490,7 @@
       <c r="B89" s="5">
         <v>88</v>
       </c>
-      <c r="C89" s="64">
+      <c r="C89" s="51">
         <v>45460</v>
       </c>
       <c r="D89" s="5">
@@ -3522,7 +3516,7 @@
       <c r="B90" s="5">
         <v>89</v>
       </c>
-      <c r="C90" s="64">
+      <c r="C90" s="51">
         <v>45461</v>
       </c>
       <c r="D90" s="5">
@@ -3548,7 +3542,7 @@
       <c r="B91" s="5">
         <v>90</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="51">
         <v>45462</v>
       </c>
       <c r="D91" s="5">
@@ -3577,7 +3571,7 @@
       <c r="B92" s="5">
         <v>91</v>
       </c>
-      <c r="C92" s="64">
+      <c r="C92" s="51">
         <v>45463</v>
       </c>
       <c r="D92" s="5">
@@ -3603,7 +3597,7 @@
       <c r="B93" s="5">
         <v>92</v>
       </c>
-      <c r="C93" s="64">
+      <c r="C93" s="51">
         <v>45464</v>
       </c>
       <c r="D93" s="5">
@@ -3629,7 +3623,7 @@
       <c r="B94" s="5">
         <v>93</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="51">
         <v>45465</v>
       </c>
       <c r="D94" s="5">
@@ -3655,7 +3649,7 @@
       <c r="B95" s="5">
         <v>94</v>
       </c>
-      <c r="C95" s="64">
+      <c r="C95" s="51">
         <v>45466</v>
       </c>
       <c r="D95" s="5">
@@ -3681,7 +3675,7 @@
       <c r="B96" s="5">
         <v>95</v>
       </c>
-      <c r="C96" s="64">
+      <c r="C96" s="51">
         <v>45467</v>
       </c>
       <c r="D96" s="5">
@@ -3707,7 +3701,7 @@
       <c r="B97" s="5">
         <v>96</v>
       </c>
-      <c r="C97" s="64">
+      <c r="C97" s="51">
         <v>45468</v>
       </c>
       <c r="D97" s="5">
@@ -3733,7 +3727,7 @@
       <c r="B98" s="5">
         <v>97</v>
       </c>
-      <c r="C98" s="64">
+      <c r="C98" s="51">
         <v>45469</v>
       </c>
       <c r="D98" s="5">
@@ -3759,7 +3753,7 @@
       <c r="B99" s="5">
         <v>98</v>
       </c>
-      <c r="C99" s="64">
+      <c r="C99" s="51">
         <v>45470</v>
       </c>
       <c r="D99" s="5">
@@ -3785,7 +3779,7 @@
       <c r="B100" s="5">
         <v>99</v>
       </c>
-      <c r="C100" s="64">
+      <c r="C100" s="51">
         <v>45471</v>
       </c>
       <c r="D100" s="5">
@@ -3811,7 +3805,7 @@
       <c r="B101" s="5">
         <v>100</v>
       </c>
-      <c r="C101" s="64">
+      <c r="C101" s="51">
         <v>45472</v>
       </c>
       <c r="D101" s="5">
@@ -3837,7 +3831,7 @@
       <c r="B102" s="5">
         <v>101</v>
       </c>
-      <c r="C102" s="64">
+      <c r="C102" s="51">
         <v>45473</v>
       </c>
       <c r="D102" s="5">
@@ -3863,7 +3857,7 @@
       <c r="B103" s="5">
         <v>102</v>
       </c>
-      <c r="C103" s="64">
+      <c r="C103" s="51">
         <v>45474</v>
       </c>
       <c r="D103" s="5">
@@ -3889,7 +3883,7 @@
       <c r="B104" s="5">
         <v>103</v>
       </c>
-      <c r="C104" s="64">
+      <c r="C104" s="51">
         <v>45475</v>
       </c>
       <c r="D104" s="5">
@@ -3915,7 +3909,7 @@
       <c r="B105" s="5">
         <v>104</v>
       </c>
-      <c r="C105" s="64">
+      <c r="C105" s="51">
         <v>45476</v>
       </c>
       <c r="D105" s="5">
@@ -3941,7 +3935,7 @@
       <c r="B106" s="5">
         <v>105</v>
       </c>
-      <c r="C106" s="64">
+      <c r="C106" s="51">
         <v>45477</v>
       </c>
       <c r="D106" s="5">
@@ -3970,7 +3964,7 @@
       <c r="B107" s="5">
         <v>106</v>
       </c>
-      <c r="C107" s="64">
+      <c r="C107" s="51">
         <v>45478</v>
       </c>
       <c r="D107" s="5">
@@ -3996,7 +3990,7 @@
       <c r="B108" s="5">
         <v>107</v>
       </c>
-      <c r="C108" s="64">
+      <c r="C108" s="51">
         <v>45479</v>
       </c>
       <c r="D108" s="5">
@@ -4022,7 +4016,7 @@
       <c r="B109" s="5">
         <v>108</v>
       </c>
-      <c r="C109" s="64">
+      <c r="C109" s="51">
         <v>45480</v>
       </c>
       <c r="D109" s="5">
@@ -4048,7 +4042,7 @@
       <c r="B110" s="5">
         <v>109</v>
       </c>
-      <c r="C110" s="64">
+      <c r="C110" s="51">
         <v>45481</v>
       </c>
       <c r="D110" s="5">
@@ -4074,7 +4068,7 @@
       <c r="B111" s="5">
         <v>110</v>
       </c>
-      <c r="C111" s="64">
+      <c r="C111" s="51">
         <v>45482</v>
       </c>
       <c r="D111" s="5">
@@ -4100,7 +4094,7 @@
       <c r="B112" s="5">
         <v>111</v>
       </c>
-      <c r="C112" s="64">
+      <c r="C112" s="51">
         <v>45483</v>
       </c>
       <c r="D112" s="5">
@@ -4126,7 +4120,7 @@
       <c r="B113" s="5">
         <v>112</v>
       </c>
-      <c r="C113" s="64">
+      <c r="C113" s="51">
         <v>45484</v>
       </c>
       <c r="D113" s="5">
@@ -4152,7 +4146,7 @@
       <c r="B114" s="5">
         <v>113</v>
       </c>
-      <c r="C114" s="64">
+      <c r="C114" s="51">
         <v>45485</v>
       </c>
       <c r="D114" s="5">
@@ -4178,7 +4172,7 @@
       <c r="B115" s="5">
         <v>114</v>
       </c>
-      <c r="C115" s="64">
+      <c r="C115" s="51">
         <v>45486</v>
       </c>
       <c r="D115" s="5">
@@ -4204,7 +4198,7 @@
       <c r="B116" s="5">
         <v>115</v>
       </c>
-      <c r="C116" s="64">
+      <c r="C116" s="51">
         <v>45487</v>
       </c>
       <c r="D116" s="5">
@@ -4230,7 +4224,7 @@
       <c r="B117" s="5">
         <v>116</v>
       </c>
-      <c r="C117" s="64">
+      <c r="C117" s="51">
         <v>45488</v>
       </c>
       <c r="D117" s="5">
@@ -4256,7 +4250,7 @@
       <c r="B118" s="5">
         <v>117</v>
       </c>
-      <c r="C118" s="64">
+      <c r="C118" s="51">
         <v>45489</v>
       </c>
       <c r="D118" s="5">
@@ -4282,7 +4276,7 @@
       <c r="B119" s="5">
         <v>118</v>
       </c>
-      <c r="C119" s="64">
+      <c r="C119" s="51">
         <v>45490</v>
       </c>
       <c r="D119" s="5">
@@ -4308,7 +4302,7 @@
       <c r="B120" s="5">
         <v>119</v>
       </c>
-      <c r="C120" s="64">
+      <c r="C120" s="51">
         <v>45491</v>
       </c>
       <c r="D120" s="5">
@@ -4334,7 +4328,7 @@
       <c r="B121" s="5">
         <v>120</v>
       </c>
-      <c r="C121" s="64">
+      <c r="C121" s="51">
         <v>45492</v>
       </c>
       <c r="D121" s="5">
@@ -4360,7 +4354,7 @@
       <c r="B122" s="5">
         <v>121</v>
       </c>
-      <c r="C122" s="64">
+      <c r="C122" s="51">
         <v>45493</v>
       </c>
       <c r="D122" s="5">
@@ -4386,7 +4380,7 @@
       <c r="B123" s="5">
         <v>122</v>
       </c>
-      <c r="C123" s="64">
+      <c r="C123" s="51">
         <v>45494</v>
       </c>
       <c r="D123" s="5">
@@ -4412,7 +4406,7 @@
       <c r="B124" s="5">
         <v>123</v>
       </c>
-      <c r="C124" s="64">
+      <c r="C124" s="51">
         <v>45495</v>
       </c>
       <c r="D124" s="5">
@@ -4438,7 +4432,7 @@
       <c r="B125" s="5">
         <v>124</v>
       </c>
-      <c r="C125" s="64">
+      <c r="C125" s="51">
         <v>45496</v>
       </c>
       <c r="D125" s="5">
@@ -4464,7 +4458,7 @@
       <c r="B126" s="5">
         <v>125</v>
       </c>
-      <c r="C126" s="64">
+      <c r="C126" s="51">
         <v>45497</v>
       </c>
       <c r="D126" s="5">
@@ -4490,7 +4484,7 @@
       <c r="B127" s="5">
         <v>126</v>
       </c>
-      <c r="C127" s="64">
+      <c r="C127" s="51">
         <v>45498</v>
       </c>
       <c r="D127" s="5">
@@ -4516,7 +4510,7 @@
       <c r="B128" s="5">
         <v>127</v>
       </c>
-      <c r="C128" s="64">
+      <c r="C128" s="51">
         <v>45499</v>
       </c>
       <c r="D128" s="5">
@@ -4542,7 +4536,7 @@
       <c r="B129" s="5">
         <v>128</v>
       </c>
-      <c r="C129" s="64">
+      <c r="C129" s="51">
         <v>45500</v>
       </c>
       <c r="D129" s="5">
@@ -4568,7 +4562,7 @@
       <c r="B130" s="5">
         <v>129</v>
       </c>
-      <c r="C130" s="64">
+      <c r="C130" s="51">
         <v>45501</v>
       </c>
       <c r="D130" s="5">
@@ -4594,7 +4588,7 @@
       <c r="B131" s="5">
         <v>130</v>
       </c>
-      <c r="C131" s="64">
+      <c r="C131" s="51">
         <v>45502</v>
       </c>
       <c r="D131" s="5">
@@ -4620,7 +4614,7 @@
       <c r="B132" s="5">
         <v>131</v>
       </c>
-      <c r="C132" s="64">
+      <c r="C132" s="51">
         <v>45503</v>
       </c>
       <c r="D132" s="5">
@@ -4646,7 +4640,7 @@
       <c r="B133" s="5">
         <v>132</v>
       </c>
-      <c r="C133" s="64">
+      <c r="C133" s="51">
         <v>45504</v>
       </c>
       <c r="D133" s="5">
@@ -4672,7 +4666,7 @@
       <c r="B134" s="5">
         <v>133</v>
       </c>
-      <c r="C134" s="64">
+      <c r="C134" s="51">
         <v>45505</v>
       </c>
       <c r="D134" s="5">
@@ -4698,7 +4692,7 @@
       <c r="B135" s="5">
         <v>134</v>
       </c>
-      <c r="C135" s="64">
+      <c r="C135" s="51">
         <v>45506</v>
       </c>
       <c r="D135" s="5">
@@ -4724,7 +4718,7 @@
       <c r="B136" s="5">
         <v>135</v>
       </c>
-      <c r="C136" s="64">
+      <c r="C136" s="51">
         <v>45507</v>
       </c>
       <c r="D136" s="5">
@@ -4750,7 +4744,7 @@
       <c r="B137" s="5">
         <v>136</v>
       </c>
-      <c r="C137" s="64">
+      <c r="C137" s="51">
         <v>45508</v>
       </c>
       <c r="D137" s="5">
@@ -4776,7 +4770,7 @@
       <c r="B138" s="5">
         <v>137</v>
       </c>
-      <c r="C138" s="64">
+      <c r="C138" s="51">
         <v>45509</v>
       </c>
       <c r="D138" s="5">
@@ -4802,7 +4796,7 @@
       <c r="B139" s="5">
         <v>138</v>
       </c>
-      <c r="C139" s="64">
+      <c r="C139" s="51">
         <v>45510</v>
       </c>
       <c r="D139" s="5">
@@ -4828,7 +4822,7 @@
       <c r="B140" s="5">
         <v>139</v>
       </c>
-      <c r="C140" s="64">
+      <c r="C140" s="51">
         <v>45511</v>
       </c>
       <c r="D140" s="5">
@@ -4854,7 +4848,7 @@
       <c r="B141" s="5">
         <v>140</v>
       </c>
-      <c r="C141" s="64">
+      <c r="C141" s="51">
         <v>45512</v>
       </c>
       <c r="D141" s="5">
@@ -4880,7 +4874,7 @@
       <c r="B142" s="5">
         <v>141</v>
       </c>
-      <c r="C142" s="64">
+      <c r="C142" s="51">
         <v>45513</v>
       </c>
       <c r="D142" s="5">
@@ -4906,7 +4900,7 @@
       <c r="B143" s="5">
         <v>142</v>
       </c>
-      <c r="C143" s="64">
+      <c r="C143" s="51">
         <v>45514</v>
       </c>
       <c r="D143" s="5">
@@ -4932,7 +4926,7 @@
       <c r="B144" s="5">
         <v>143</v>
       </c>
-      <c r="C144" s="64">
+      <c r="C144" s="51">
         <v>45515</v>
       </c>
       <c r="D144" s="5">
@@ -4958,7 +4952,7 @@
       <c r="B145" s="5">
         <v>144</v>
       </c>
-      <c r="C145" s="64">
+      <c r="C145" s="51">
         <v>45516</v>
       </c>
       <c r="D145" s="5">
@@ -4984,7 +4978,7 @@
       <c r="B146" s="5">
         <v>145</v>
       </c>
-      <c r="C146" s="64">
+      <c r="C146" s="51">
         <v>45517</v>
       </c>
       <c r="D146" s="5">
@@ -5010,7 +5004,7 @@
       <c r="B147" s="5">
         <v>146</v>
       </c>
-      <c r="C147" s="64">
+      <c r="C147" s="51">
         <v>45518</v>
       </c>
       <c r="D147" s="5">
@@ -5036,7 +5030,7 @@
       <c r="B148" s="5">
         <v>147</v>
       </c>
-      <c r="C148" s="64">
+      <c r="C148" s="51">
         <v>45519</v>
       </c>
       <c r="D148" s="5">
@@ -5062,7 +5056,7 @@
       <c r="B149" s="5">
         <v>148</v>
       </c>
-      <c r="C149" s="64">
+      <c r="C149" s="51">
         <v>45520</v>
       </c>
       <c r="D149" s="5">
@@ -5088,7 +5082,7 @@
       <c r="B150" s="5">
         <v>149</v>
       </c>
-      <c r="C150" s="64">
+      <c r="C150" s="51">
         <v>45521</v>
       </c>
       <c r="D150" s="5">
@@ -5114,7 +5108,7 @@
       <c r="B151" s="5">
         <v>150</v>
       </c>
-      <c r="C151" s="64">
+      <c r="C151" s="51">
         <v>45522</v>
       </c>
       <c r="D151" s="5">
@@ -5140,7 +5134,7 @@
       <c r="B152" s="5">
         <v>151</v>
       </c>
-      <c r="C152" s="64">
+      <c r="C152" s="51">
         <v>45523</v>
       </c>
       <c r="D152" s="5">
@@ -5166,7 +5160,7 @@
       <c r="B153" s="5">
         <v>152</v>
       </c>
-      <c r="C153" s="64">
+      <c r="C153" s="51">
         <v>45524</v>
       </c>
       <c r="D153" s="5">
@@ -5192,7 +5186,7 @@
       <c r="B154" s="5">
         <v>153</v>
       </c>
-      <c r="C154" s="64">
+      <c r="C154" s="51">
         <v>45525</v>
       </c>
       <c r="D154" s="5">
@@ -5218,7 +5212,7 @@
       <c r="B155" s="5">
         <v>154</v>
       </c>
-      <c r="C155" s="64">
+      <c r="C155" s="51">
         <v>45526</v>
       </c>
       <c r="D155" s="5">
@@ -5244,7 +5238,7 @@
       <c r="B156" s="5">
         <v>155</v>
       </c>
-      <c r="C156" s="64">
+      <c r="C156" s="51">
         <v>45527</v>
       </c>
       <c r="D156" s="5">
@@ -5270,7 +5264,7 @@
       <c r="B157" s="5">
         <v>156</v>
       </c>
-      <c r="C157" s="64">
+      <c r="C157" s="51">
         <v>45528</v>
       </c>
       <c r="D157" s="5">
@@ -5296,7 +5290,7 @@
       <c r="B158" s="5">
         <v>157</v>
       </c>
-      <c r="C158" s="64">
+      <c r="C158" s="51">
         <v>45529</v>
       </c>
       <c r="D158" s="5">
@@ -5322,7 +5316,7 @@
       <c r="B159" s="5">
         <v>158</v>
       </c>
-      <c r="C159" s="64">
+      <c r="C159" s="51">
         <v>45530</v>
       </c>
       <c r="D159" s="5">
@@ -5348,7 +5342,7 @@
       <c r="B160" s="5">
         <v>159</v>
       </c>
-      <c r="C160" s="64">
+      <c r="C160" s="51">
         <v>45531</v>
       </c>
       <c r="D160" s="5">
@@ -5374,7 +5368,7 @@
       <c r="B161" s="5">
         <v>160</v>
       </c>
-      <c r="C161" s="64">
+      <c r="C161" s="51">
         <v>45532</v>
       </c>
       <c r="D161" s="5">
@@ -5400,7 +5394,7 @@
       <c r="B162" s="5">
         <v>161</v>
       </c>
-      <c r="C162" s="64">
+      <c r="C162" s="51">
         <v>45533</v>
       </c>
       <c r="D162" s="5">
@@ -5426,7 +5420,7 @@
       <c r="B163" s="5">
         <v>162</v>
       </c>
-      <c r="C163" s="64">
+      <c r="C163" s="51">
         <v>45534</v>
       </c>
       <c r="D163" s="5">
@@ -5452,7 +5446,7 @@
       <c r="B164" s="5">
         <v>163</v>
       </c>
-      <c r="C164" s="64">
+      <c r="C164" s="51">
         <v>45535</v>
       </c>
       <c r="D164" s="5">
@@ -5478,7 +5472,7 @@
       <c r="B165" s="5">
         <v>164</v>
       </c>
-      <c r="C165" s="64">
+      <c r="C165" s="51">
         <v>45536</v>
       </c>
       <c r="D165" s="5">
@@ -5504,7 +5498,7 @@
       <c r="B166" s="5">
         <v>165</v>
       </c>
-      <c r="C166" s="64">
+      <c r="C166" s="51">
         <v>45537</v>
       </c>
       <c r="D166" s="5">
@@ -5533,7 +5527,7 @@
       <c r="B167" s="5">
         <v>166</v>
       </c>
-      <c r="C167" s="64">
+      <c r="C167" s="51">
         <v>45538</v>
       </c>
       <c r="D167" s="5">
@@ -5559,7 +5553,7 @@
       <c r="B168" s="5">
         <v>167</v>
       </c>
-      <c r="C168" s="64">
+      <c r="C168" s="51">
         <v>45539</v>
       </c>
       <c r="D168" s="5">
@@ -5585,7 +5579,7 @@
       <c r="B169" s="5">
         <v>168</v>
       </c>
-      <c r="C169" s="64">
+      <c r="C169" s="51">
         <v>45540</v>
       </c>
       <c r="D169" s="5">
@@ -5611,7 +5605,7 @@
       <c r="B170" s="5">
         <v>169</v>
       </c>
-      <c r="C170" s="64">
+      <c r="C170" s="51">
         <v>45541</v>
       </c>
       <c r="D170" s="5">
@@ -5637,7 +5631,7 @@
       <c r="B171" s="5">
         <v>170</v>
       </c>
-      <c r="C171" s="64">
+      <c r="C171" s="51">
         <v>45542</v>
       </c>
       <c r="D171" s="5">
@@ -5663,7 +5657,7 @@
       <c r="B172" s="5">
         <v>171</v>
       </c>
-      <c r="C172" s="64">
+      <c r="C172" s="51">
         <v>45543</v>
       </c>
       <c r="D172" s="5">
@@ -5689,7 +5683,7 @@
       <c r="B173" s="5">
         <v>172</v>
       </c>
-      <c r="C173" s="64">
+      <c r="C173" s="51">
         <v>45544</v>
       </c>
       <c r="D173" s="5">
@@ -5715,7 +5709,7 @@
       <c r="B174" s="5">
         <v>173</v>
       </c>
-      <c r="C174" s="64">
+      <c r="C174" s="51">
         <v>45545</v>
       </c>
       <c r="D174" s="5">
@@ -5741,7 +5735,7 @@
       <c r="B175" s="5">
         <v>174</v>
       </c>
-      <c r="C175" s="64">
+      <c r="C175" s="51">
         <v>45546</v>
       </c>
       <c r="D175" s="5">
@@ -5767,7 +5761,7 @@
       <c r="B176" s="5">
         <v>175</v>
       </c>
-      <c r="C176" s="64">
+      <c r="C176" s="51">
         <v>45547</v>
       </c>
       <c r="D176" s="5">
@@ -5793,7 +5787,7 @@
       <c r="B177" s="5">
         <v>176</v>
       </c>
-      <c r="C177" s="64">
+      <c r="C177" s="51">
         <v>45548</v>
       </c>
       <c r="D177" s="5">
@@ -5819,7 +5813,7 @@
       <c r="B178" s="5">
         <v>177</v>
       </c>
-      <c r="C178" s="64">
+      <c r="C178" s="51">
         <v>45549</v>
       </c>
       <c r="D178" s="5">
@@ -5845,7 +5839,7 @@
       <c r="B179" s="5">
         <v>178</v>
       </c>
-      <c r="C179" s="64">
+      <c r="C179" s="51">
         <v>45550</v>
       </c>
       <c r="D179" s="5">
@@ -5871,7 +5865,7 @@
       <c r="B180" s="5">
         <v>179</v>
       </c>
-      <c r="C180" s="64">
+      <c r="C180" s="51">
         <v>45551</v>
       </c>
       <c r="D180" s="5">
@@ -5897,7 +5891,7 @@
       <c r="B181" s="5">
         <v>180</v>
       </c>
-      <c r="C181" s="64">
+      <c r="C181" s="51">
         <v>45552</v>
       </c>
       <c r="D181" s="5">
@@ -5923,7 +5917,7 @@
       <c r="B182" s="5">
         <v>181</v>
       </c>
-      <c r="C182" s="64">
+      <c r="C182" s="51">
         <v>45553</v>
       </c>
       <c r="D182" s="5">
@@ -5949,7 +5943,7 @@
       <c r="B183" s="5">
         <v>182</v>
       </c>
-      <c r="C183" s="64">
+      <c r="C183" s="51">
         <v>45554</v>
       </c>
       <c r="D183" s="5">
@@ -5975,7 +5969,7 @@
       <c r="B184" s="5">
         <v>183</v>
       </c>
-      <c r="C184" s="64">
+      <c r="C184" s="51">
         <v>45555</v>
       </c>
       <c r="D184" s="5">
@@ -6001,7 +5995,7 @@
       <c r="B185" s="5">
         <v>184</v>
       </c>
-      <c r="C185" s="64">
+      <c r="C185" s="51">
         <v>45556</v>
       </c>
       <c r="D185" s="5">
@@ -6027,7 +6021,7 @@
       <c r="B186" s="5">
         <v>185</v>
       </c>
-      <c r="C186" s="64">
+      <c r="C186" s="51">
         <v>45557</v>
       </c>
       <c r="D186" s="5">
@@ -6053,7 +6047,7 @@
       <c r="B187" s="5">
         <v>186</v>
       </c>
-      <c r="C187" s="64">
+      <c r="C187" s="51">
         <v>45558</v>
       </c>
       <c r="D187" s="5">
@@ -6079,7 +6073,7 @@
       <c r="B188" s="5">
         <v>187</v>
       </c>
-      <c r="C188" s="64">
+      <c r="C188" s="51">
         <v>45559</v>
       </c>
       <c r="D188" s="5">
@@ -6105,7 +6099,7 @@
       <c r="B189" s="5">
         <v>188</v>
       </c>
-      <c r="C189" s="64">
+      <c r="C189" s="51">
         <v>45560</v>
       </c>
       <c r="D189" s="5">
@@ -6131,7 +6125,7 @@
       <c r="B190" s="5">
         <v>189</v>
       </c>
-      <c r="C190" s="64">
+      <c r="C190" s="51">
         <v>45561</v>
       </c>
       <c r="D190" s="5">
@@ -6157,7 +6151,7 @@
       <c r="B191" s="5">
         <v>190</v>
       </c>
-      <c r="C191" s="64">
+      <c r="C191" s="51">
         <v>45562</v>
       </c>
       <c r="D191" s="5">
@@ -6183,7 +6177,7 @@
       <c r="B192" s="5">
         <v>191</v>
       </c>
-      <c r="C192" s="64">
+      <c r="C192" s="51">
         <v>45563</v>
       </c>
       <c r="D192" s="5">
@@ -6209,7 +6203,7 @@
       <c r="B193" s="5">
         <v>192</v>
       </c>
-      <c r="C193" s="64">
+      <c r="C193" s="51">
         <v>45564</v>
       </c>
       <c r="D193" s="5">
@@ -6235,7 +6229,7 @@
       <c r="B194" s="5">
         <v>193</v>
       </c>
-      <c r="C194" s="64">
+      <c r="C194" s="51">
         <v>45565</v>
       </c>
       <c r="D194" s="5">
@@ -6261,7 +6255,7 @@
       <c r="B195" s="5">
         <v>194</v>
       </c>
-      <c r="C195" s="64">
+      <c r="C195" s="51">
         <v>45566</v>
       </c>
       <c r="D195" s="5">
@@ -6287,7 +6281,7 @@
       <c r="B196" s="5">
         <v>195</v>
       </c>
-      <c r="C196" s="64">
+      <c r="C196" s="51">
         <v>45567</v>
       </c>
       <c r="D196" s="5">
@@ -6313,7 +6307,7 @@
       <c r="B197" s="5">
         <v>196</v>
       </c>
-      <c r="C197" s="64">
+      <c r="C197" s="51">
         <v>45568</v>
       </c>
       <c r="D197" s="5">
@@ -6339,7 +6333,7 @@
       <c r="B198" s="5">
         <v>197</v>
       </c>
-      <c r="C198" s="64">
+      <c r="C198" s="51">
         <v>45569</v>
       </c>
       <c r="D198" s="5">
@@ -6365,7 +6359,7 @@
       <c r="B199" s="5">
         <v>198</v>
       </c>
-      <c r="C199" s="64">
+      <c r="C199" s="51">
         <v>45570</v>
       </c>
       <c r="D199" s="5">
@@ -6391,7 +6385,7 @@
       <c r="B200" s="5">
         <v>199</v>
       </c>
-      <c r="C200" s="64">
+      <c r="C200" s="51">
         <v>45571</v>
       </c>
       <c r="D200" s="5">
@@ -6417,7 +6411,7 @@
       <c r="B201" s="5">
         <v>200</v>
       </c>
-      <c r="C201" s="64">
+      <c r="C201" s="51">
         <v>45572</v>
       </c>
       <c r="D201" s="5">
@@ -6443,7 +6437,7 @@
       <c r="B202" s="5">
         <v>201</v>
       </c>
-      <c r="C202" s="64">
+      <c r="C202" s="51">
         <v>45573</v>
       </c>
       <c r="D202" s="5">
@@ -6469,7 +6463,7 @@
       <c r="B203" s="5">
         <v>202</v>
       </c>
-      <c r="C203" s="64">
+      <c r="C203" s="51">
         <v>45574</v>
       </c>
       <c r="D203" s="5">
@@ -6495,7 +6489,7 @@
       <c r="B204" s="5">
         <v>203</v>
       </c>
-      <c r="C204" s="64">
+      <c r="C204" s="51">
         <v>45575</v>
       </c>
       <c r="D204" s="5">
@@ -6521,7 +6515,7 @@
       <c r="B205" s="5">
         <v>204</v>
       </c>
-      <c r="C205" s="64">
+      <c r="C205" s="51">
         <v>45576</v>
       </c>
       <c r="D205" s="5">
@@ -6547,7 +6541,7 @@
       <c r="B206" s="5">
         <v>205</v>
       </c>
-      <c r="C206" s="64">
+      <c r="C206" s="51">
         <v>45577</v>
       </c>
       <c r="D206" s="5">
@@ -6576,7 +6570,7 @@
       <c r="B207" s="5">
         <v>206</v>
       </c>
-      <c r="C207" s="64">
+      <c r="C207" s="51">
         <v>45578</v>
       </c>
       <c r="D207" s="5">
@@ -6602,7 +6596,7 @@
       <c r="B208" s="5">
         <v>207</v>
       </c>
-      <c r="C208" s="64">
+      <c r="C208" s="51">
         <v>45579</v>
       </c>
       <c r="D208" s="5">
@@ -6631,7 +6625,7 @@
       <c r="B209" s="5">
         <v>208</v>
       </c>
-      <c r="C209" s="64">
+      <c r="C209" s="51">
         <v>45580</v>
       </c>
       <c r="D209" s="5">
@@ -6657,7 +6651,7 @@
       <c r="B210" s="5">
         <v>209</v>
       </c>
-      <c r="C210" s="64">
+      <c r="C210" s="51">
         <v>45581</v>
       </c>
       <c r="D210" s="5">
@@ -6683,7 +6677,7 @@
       <c r="B211" s="5">
         <v>210</v>
       </c>
-      <c r="C211" s="64">
+      <c r="C211" s="51">
         <v>45582</v>
       </c>
       <c r="D211" s="5">
@@ -6709,7 +6703,7 @@
       <c r="B212" s="5">
         <v>211</v>
       </c>
-      <c r="C212" s="64">
+      <c r="C212" s="51">
         <v>45583</v>
       </c>
       <c r="D212" s="5">
@@ -6735,7 +6729,7 @@
       <c r="B213" s="5">
         <v>212</v>
       </c>
-      <c r="C213" s="64">
+      <c r="C213" s="51">
         <v>45584</v>
       </c>
       <c r="D213" s="5">
@@ -6761,7 +6755,7 @@
       <c r="B214" s="5">
         <v>213</v>
       </c>
-      <c r="C214" s="64">
+      <c r="C214" s="51">
         <v>45585</v>
       </c>
       <c r="D214" s="5">
@@ -6787,7 +6781,7 @@
       <c r="B215" s="5">
         <v>214</v>
       </c>
-      <c r="C215" s="64">
+      <c r="C215" s="51">
         <v>45586</v>
       </c>
       <c r="D215" s="5">
@@ -6813,7 +6807,7 @@
       <c r="B216" s="5">
         <v>215</v>
       </c>
-      <c r="C216" s="64">
+      <c r="C216" s="51">
         <v>45587</v>
       </c>
       <c r="D216" s="5">
@@ -6839,7 +6833,7 @@
       <c r="B217" s="5">
         <v>216</v>
       </c>
-      <c r="C217" s="64">
+      <c r="C217" s="51">
         <v>45588</v>
       </c>
       <c r="D217" s="5">
@@ -6865,7 +6859,7 @@
       <c r="B218" s="5">
         <v>217</v>
       </c>
-      <c r="C218" s="64">
+      <c r="C218" s="51">
         <v>45589</v>
       </c>
       <c r="D218" s="5">
@@ -6891,7 +6885,7 @@
       <c r="B219" s="5">
         <v>218</v>
       </c>
-      <c r="C219" s="64">
+      <c r="C219" s="51">
         <v>45590</v>
       </c>
       <c r="D219" s="5">
@@ -6917,7 +6911,7 @@
       <c r="B220" s="5">
         <v>219</v>
       </c>
-      <c r="C220" s="64">
+      <c r="C220" s="51">
         <v>45591</v>
       </c>
       <c r="D220" s="5">
@@ -6943,7 +6937,7 @@
       <c r="B221" s="5">
         <v>220</v>
       </c>
-      <c r="C221" s="64">
+      <c r="C221" s="51">
         <v>45592</v>
       </c>
       <c r="D221" s="5">
@@ -6969,7 +6963,7 @@
       <c r="B222" s="5">
         <v>221</v>
       </c>
-      <c r="C222" s="64">
+      <c r="C222" s="51">
         <v>45593</v>
       </c>
       <c r="D222" s="5">
@@ -6995,7 +6989,7 @@
       <c r="B223" s="5">
         <v>222</v>
       </c>
-      <c r="C223" s="64">
+      <c r="C223" s="51">
         <v>45594</v>
       </c>
       <c r="D223" s="5">
@@ -7021,7 +7015,7 @@
       <c r="B224" s="5">
         <v>223</v>
       </c>
-      <c r="C224" s="64">
+      <c r="C224" s="51">
         <v>45595</v>
       </c>
       <c r="D224" s="5">
@@ -7047,7 +7041,7 @@
       <c r="B225" s="5">
         <v>224</v>
       </c>
-      <c r="C225" s="64">
+      <c r="C225" s="51">
         <v>45596</v>
       </c>
       <c r="D225" s="5">
@@ -7076,7 +7070,7 @@
       <c r="B226" s="5">
         <v>225</v>
       </c>
-      <c r="C226" s="64">
+      <c r="C226" s="51">
         <v>45597</v>
       </c>
       <c r="D226" s="5">
@@ -7102,7 +7096,7 @@
       <c r="B227" s="5">
         <v>226</v>
       </c>
-      <c r="C227" s="64">
+      <c r="C227" s="51">
         <v>45598</v>
       </c>
       <c r="D227" s="5">
@@ -7128,7 +7122,7 @@
       <c r="B228" s="5">
         <v>227</v>
       </c>
-      <c r="C228" s="64">
+      <c r="C228" s="51">
         <v>45599</v>
       </c>
       <c r="D228" s="5">
@@ -7157,7 +7151,7 @@
       <c r="B229" s="5">
         <v>228</v>
       </c>
-      <c r="C229" s="64">
+      <c r="C229" s="51">
         <v>45600</v>
       </c>
       <c r="D229" s="5">
@@ -7183,7 +7177,7 @@
       <c r="B230" s="5">
         <v>229</v>
       </c>
-      <c r="C230" s="64">
+      <c r="C230" s="51">
         <v>45601</v>
       </c>
       <c r="D230" s="5">
@@ -7212,7 +7206,7 @@
       <c r="B231" s="5">
         <v>230</v>
       </c>
-      <c r="C231" s="64">
+      <c r="C231" s="51">
         <v>45602</v>
       </c>
       <c r="D231" s="5">
@@ -7238,7 +7232,7 @@
       <c r="B232" s="5">
         <v>231</v>
       </c>
-      <c r="C232" s="64">
+      <c r="C232" s="51">
         <v>45603</v>
       </c>
       <c r="D232" s="5">
@@ -7264,7 +7258,7 @@
       <c r="B233" s="5">
         <v>232</v>
       </c>
-      <c r="C233" s="64">
+      <c r="C233" s="51">
         <v>45604</v>
       </c>
       <c r="D233" s="5">
@@ -7290,7 +7284,7 @@
       <c r="B234" s="5">
         <v>233</v>
       </c>
-      <c r="C234" s="64">
+      <c r="C234" s="51">
         <v>45605</v>
       </c>
       <c r="D234" s="5">
@@ -7316,7 +7310,7 @@
       <c r="B235" s="5">
         <v>234</v>
       </c>
-      <c r="C235" s="64">
+      <c r="C235" s="51">
         <v>45606</v>
       </c>
       <c r="D235" s="5">
@@ -7342,7 +7336,7 @@
       <c r="B236" s="5">
         <v>235</v>
       </c>
-      <c r="C236" s="64">
+      <c r="C236" s="51">
         <v>45607</v>
       </c>
       <c r="D236" s="5">
@@ -7371,7 +7365,7 @@
       <c r="B237" s="5">
         <v>236</v>
       </c>
-      <c r="C237" s="64">
+      <c r="C237" s="51">
         <v>45608</v>
       </c>
       <c r="D237" s="5">
@@ -7397,7 +7391,7 @@
       <c r="B238" s="5">
         <v>237</v>
       </c>
-      <c r="C238" s="64">
+      <c r="C238" s="51">
         <v>45609</v>
       </c>
       <c r="D238" s="5">
@@ -7423,7 +7417,7 @@
       <c r="B239" s="5">
         <v>238</v>
       </c>
-      <c r="C239" s="64">
+      <c r="C239" s="51">
         <v>45610</v>
       </c>
       <c r="D239" s="5">
@@ -7449,7 +7443,7 @@
       <c r="B240" s="5">
         <v>239</v>
       </c>
-      <c r="C240" s="64">
+      <c r="C240" s="51">
         <v>45611</v>
       </c>
       <c r="D240" s="5">
@@ -7475,7 +7469,7 @@
       <c r="B241" s="5">
         <v>240</v>
       </c>
-      <c r="C241" s="64">
+      <c r="C241" s="51">
         <v>45612</v>
       </c>
       <c r="D241" s="5">
@@ -7501,7 +7495,7 @@
       <c r="B242" s="5">
         <v>241</v>
       </c>
-      <c r="C242" s="64">
+      <c r="C242" s="51">
         <v>45613</v>
       </c>
       <c r="D242" s="5">
@@ -7527,7 +7521,7 @@
       <c r="B243" s="5">
         <v>242</v>
       </c>
-      <c r="C243" s="64">
+      <c r="C243" s="51">
         <v>45614</v>
       </c>
       <c r="D243" s="5">
@@ -7553,7 +7547,7 @@
       <c r="B244" s="5">
         <v>243</v>
       </c>
-      <c r="C244" s="64">
+      <c r="C244" s="51">
         <v>45615</v>
       </c>
       <c r="D244" s="5">
@@ -7579,7 +7573,7 @@
       <c r="B245" s="5">
         <v>244</v>
       </c>
-      <c r="C245" s="64">
+      <c r="C245" s="51">
         <v>45616</v>
       </c>
       <c r="D245" s="5">
@@ -7605,7 +7599,7 @@
       <c r="B246" s="5">
         <v>245</v>
       </c>
-      <c r="C246" s="64">
+      <c r="C246" s="51">
         <v>45617</v>
       </c>
       <c r="D246" s="5">
@@ -7631,7 +7625,7 @@
       <c r="B247" s="5">
         <v>246</v>
       </c>
-      <c r="C247" s="64">
+      <c r="C247" s="51">
         <v>45618</v>
       </c>
       <c r="D247" s="5">
@@ -7657,7 +7651,7 @@
       <c r="B248" s="5">
         <v>247</v>
       </c>
-      <c r="C248" s="64">
+      <c r="C248" s="51">
         <v>45619</v>
       </c>
       <c r="D248" s="5">
@@ -7683,7 +7677,7 @@
       <c r="B249" s="5">
         <v>248</v>
       </c>
-      <c r="C249" s="64">
+      <c r="C249" s="51">
         <v>45620</v>
       </c>
       <c r="D249" s="5">
@@ -7709,7 +7703,7 @@
       <c r="B250" s="5">
         <v>249</v>
       </c>
-      <c r="C250" s="64">
+      <c r="C250" s="51">
         <v>45621</v>
       </c>
       <c r="D250" s="5">
@@ -7735,7 +7729,7 @@
       <c r="B251" s="5">
         <v>250</v>
       </c>
-      <c r="C251" s="64">
+      <c r="C251" s="51">
         <v>45622</v>
       </c>
       <c r="D251" s="5">
@@ -7761,7 +7755,7 @@
       <c r="B252" s="5">
         <v>251</v>
       </c>
-      <c r="C252" s="64">
+      <c r="C252" s="51">
         <v>45623</v>
       </c>
       <c r="D252" s="5">
@@ -7787,7 +7781,7 @@
       <c r="B253" s="5">
         <v>252</v>
       </c>
-      <c r="C253" s="64">
+      <c r="C253" s="51">
         <v>45624</v>
       </c>
       <c r="D253" s="5">
@@ -7816,7 +7810,7 @@
       <c r="B254" s="5">
         <v>253</v>
       </c>
-      <c r="C254" s="64">
+      <c r="C254" s="51">
         <v>45625</v>
       </c>
       <c r="D254" s="5">
@@ -7845,7 +7839,7 @@
       <c r="B255" s="5">
         <v>254</v>
       </c>
-      <c r="C255" s="64">
+      <c r="C255" s="51">
         <v>45626</v>
       </c>
       <c r="D255" s="5">
@@ -7871,7 +7865,7 @@
       <c r="B256" s="5">
         <v>255</v>
       </c>
-      <c r="C256" s="64">
+      <c r="C256" s="51">
         <v>45627</v>
       </c>
       <c r="D256" s="5">
@@ -7897,7 +7891,7 @@
       <c r="B257" s="5">
         <v>256</v>
       </c>
-      <c r="C257" s="64">
+      <c r="C257" s="51">
         <v>45628</v>
       </c>
       <c r="D257" s="5">
@@ -7923,7 +7917,7 @@
       <c r="B258" s="5">
         <v>257</v>
       </c>
-      <c r="C258" s="64">
+      <c r="C258" s="51">
         <v>45629</v>
       </c>
       <c r="D258" s="5">
@@ -7949,7 +7943,7 @@
       <c r="B259" s="5">
         <v>258</v>
       </c>
-      <c r="C259" s="64">
+      <c r="C259" s="51">
         <v>45630</v>
       </c>
       <c r="D259" s="5">
@@ -7975,7 +7969,7 @@
       <c r="B260" s="5">
         <v>259</v>
       </c>
-      <c r="C260" s="64">
+      <c r="C260" s="51">
         <v>45631</v>
       </c>
       <c r="D260" s="5">
@@ -8001,7 +7995,7 @@
       <c r="B261" s="5">
         <v>260</v>
       </c>
-      <c r="C261" s="64">
+      <c r="C261" s="51">
         <v>45632</v>
       </c>
       <c r="D261" s="5">
@@ -8027,7 +8021,7 @@
       <c r="B262" s="5">
         <v>261</v>
       </c>
-      <c r="C262" s="64">
+      <c r="C262" s="51">
         <v>45633</v>
       </c>
       <c r="D262" s="5">
@@ -8053,7 +8047,7 @@
       <c r="B263" s="5">
         <v>262</v>
       </c>
-      <c r="C263" s="64">
+      <c r="C263" s="51">
         <v>45634</v>
       </c>
       <c r="D263" s="5">
@@ -8079,7 +8073,7 @@
       <c r="B264" s="5">
         <v>263</v>
       </c>
-      <c r="C264" s="64">
+      <c r="C264" s="51">
         <v>45635</v>
       </c>
       <c r="D264" s="5">
@@ -8105,7 +8099,7 @@
       <c r="B265" s="5">
         <v>264</v>
       </c>
-      <c r="C265" s="64">
+      <c r="C265" s="51">
         <v>45636</v>
       </c>
       <c r="D265" s="5">
@@ -8131,7 +8125,7 @@
       <c r="B266" s="5">
         <v>265</v>
       </c>
-      <c r="C266" s="64">
+      <c r="C266" s="51">
         <v>45637</v>
       </c>
       <c r="D266" s="5">
@@ -8157,7 +8151,7 @@
       <c r="B267" s="5">
         <v>266</v>
       </c>
-      <c r="C267" s="64">
+      <c r="C267" s="51">
         <v>45638</v>
       </c>
       <c r="D267" s="5">
@@ -8183,7 +8177,7 @@
       <c r="B268" s="5">
         <v>267</v>
       </c>
-      <c r="C268" s="64">
+      <c r="C268" s="51">
         <v>45639</v>
       </c>
       <c r="D268" s="5">
@@ -8209,7 +8203,7 @@
       <c r="B269" s="5">
         <v>268</v>
       </c>
-      <c r="C269" s="64">
+      <c r="C269" s="51">
         <v>45640</v>
       </c>
       <c r="D269" s="5">
@@ -8235,7 +8229,7 @@
       <c r="B270" s="5">
         <v>269</v>
       </c>
-      <c r="C270" s="64">
+      <c r="C270" s="51">
         <v>45641</v>
       </c>
       <c r="D270" s="5">
@@ -8261,7 +8255,7 @@
       <c r="B271" s="5">
         <v>270</v>
       </c>
-      <c r="C271" s="64">
+      <c r="C271" s="51">
         <v>45642</v>
       </c>
       <c r="D271" s="5">
@@ -8287,7 +8281,7 @@
       <c r="B272" s="5">
         <v>271</v>
       </c>
-      <c r="C272" s="64">
+      <c r="C272" s="51">
         <v>45643</v>
       </c>
       <c r="D272" s="5">
@@ -8313,7 +8307,7 @@
       <c r="B273" s="5">
         <v>272</v>
       </c>
-      <c r="C273" s="64">
+      <c r="C273" s="51">
         <v>45644</v>
       </c>
       <c r="D273" s="5">
@@ -8339,7 +8333,7 @@
       <c r="B274" s="5">
         <v>273</v>
       </c>
-      <c r="C274" s="64">
+      <c r="C274" s="51">
         <v>45645</v>
       </c>
       <c r="D274" s="5">
@@ -8365,7 +8359,7 @@
       <c r="B275" s="5">
         <v>274</v>
       </c>
-      <c r="C275" s="64">
+      <c r="C275" s="51">
         <v>45646</v>
       </c>
       <c r="D275" s="5">
@@ -8391,7 +8385,7 @@
       <c r="B276" s="5">
         <v>275</v>
       </c>
-      <c r="C276" s="64">
+      <c r="C276" s="51">
         <v>45647</v>
       </c>
       <c r="D276" s="5">
@@ -8417,7 +8411,7 @@
       <c r="B277" s="5">
         <v>276</v>
       </c>
-      <c r="C277" s="64">
+      <c r="C277" s="51">
         <v>45648</v>
       </c>
       <c r="D277" s="5">
@@ -8443,7 +8437,7 @@
       <c r="B278" s="5">
         <v>277</v>
       </c>
-      <c r="C278" s="64">
+      <c r="C278" s="51">
         <v>45649</v>
       </c>
       <c r="D278" s="5">
@@ -8469,7 +8463,7 @@
       <c r="B279" s="5">
         <v>278</v>
       </c>
-      <c r="C279" s="64">
+      <c r="C279" s="51">
         <v>45650</v>
       </c>
       <c r="D279" s="5">
@@ -8498,7 +8492,7 @@
       <c r="B280" s="5">
         <v>279</v>
       </c>
-      <c r="C280" s="64">
+      <c r="C280" s="51">
         <v>45651</v>
       </c>
       <c r="D280" s="5">
@@ -8527,7 +8521,7 @@
       <c r="B281" s="5">
         <v>280</v>
       </c>
-      <c r="C281" s="64">
+      <c r="C281" s="51">
         <v>45652</v>
       </c>
       <c r="D281" s="5">
@@ -8556,7 +8550,7 @@
       <c r="B282" s="5">
         <v>281</v>
       </c>
-      <c r="C282" s="64">
+      <c r="C282" s="51">
         <v>45653</v>
       </c>
       <c r="D282" s="5">
@@ -8582,7 +8576,7 @@
       <c r="B283" s="5">
         <v>282</v>
       </c>
-      <c r="C283" s="64">
+      <c r="C283" s="51">
         <v>45654</v>
       </c>
       <c r="D283" s="5">
@@ -8608,7 +8602,7 @@
       <c r="B284" s="5">
         <v>283</v>
       </c>
-      <c r="C284" s="64">
+      <c r="C284" s="51">
         <v>45655</v>
       </c>
       <c r="D284" s="5">
@@ -8634,7 +8628,7 @@
       <c r="B285" s="5">
         <v>284</v>
       </c>
-      <c r="C285" s="64">
+      <c r="C285" s="51">
         <v>45656</v>
       </c>
       <c r="D285" s="5">
@@ -8660,7 +8654,7 @@
       <c r="B286" s="5">
         <v>285</v>
       </c>
-      <c r="C286" s="64">
+      <c r="C286" s="51">
         <v>45657</v>
       </c>
       <c r="D286" s="5">
@@ -8689,7 +8683,7 @@
       <c r="B287" s="5">
         <v>286</v>
       </c>
-      <c r="C287" s="64">
+      <c r="C287" s="51">
         <v>45658</v>
       </c>
       <c r="D287" s="5">
@@ -8718,7 +8712,7 @@
       <c r="B288" s="5">
         <v>287</v>
       </c>
-      <c r="C288" s="64">
+      <c r="C288" s="51">
         <v>45659</v>
       </c>
       <c r="D288" s="5">
@@ -8744,7 +8738,7 @@
       <c r="B289" s="5">
         <v>288</v>
       </c>
-      <c r="C289" s="64">
+      <c r="C289" s="51">
         <v>45660</v>
       </c>
       <c r="D289" s="5">
@@ -8770,7 +8764,7 @@
       <c r="B290" s="5">
         <v>289</v>
       </c>
-      <c r="C290" s="64">
+      <c r="C290" s="51">
         <v>45661</v>
       </c>
       <c r="D290" s="5">
@@ -8796,7 +8790,7 @@
       <c r="B291" s="5">
         <v>290</v>
       </c>
-      <c r="C291" s="64">
+      <c r="C291" s="51">
         <v>45662</v>
       </c>
       <c r="D291" s="5">
@@ -8822,7 +8816,7 @@
       <c r="B292" s="5">
         <v>291</v>
       </c>
-      <c r="C292" s="64">
+      <c r="C292" s="51">
         <v>45663</v>
       </c>
       <c r="D292" s="5">
@@ -8848,7 +8842,7 @@
       <c r="B293" s="5">
         <v>292</v>
       </c>
-      <c r="C293" s="64">
+      <c r="C293" s="51">
         <v>45664</v>
       </c>
       <c r="D293" s="5">
@@ -8874,7 +8868,7 @@
       <c r="B294" s="5">
         <v>293</v>
       </c>
-      <c r="C294" s="64">
+      <c r="C294" s="51">
         <v>45665</v>
       </c>
       <c r="D294" s="5">
@@ -8900,7 +8894,7 @@
       <c r="B295" s="5">
         <v>294</v>
       </c>
-      <c r="C295" s="64">
+      <c r="C295" s="51">
         <v>45666</v>
       </c>
       <c r="D295" s="5">
@@ -8926,7 +8920,7 @@
       <c r="B296" s="5">
         <v>295</v>
       </c>
-      <c r="C296" s="64">
+      <c r="C296" s="51">
         <v>45667</v>
       </c>
       <c r="D296" s="5">
@@ -8952,7 +8946,7 @@
       <c r="B297" s="5">
         <v>296</v>
       </c>
-      <c r="C297" s="64">
+      <c r="C297" s="51">
         <v>45668</v>
       </c>
       <c r="D297" s="5">
@@ -8978,7 +8972,7 @@
       <c r="B298" s="5">
         <v>297</v>
       </c>
-      <c r="C298" s="64">
+      <c r="C298" s="51">
         <v>45669</v>
       </c>
       <c r="D298" s="5">
@@ -9004,7 +8998,7 @@
       <c r="B299" s="5">
         <v>298</v>
       </c>
-      <c r="C299" s="64">
+      <c r="C299" s="51">
         <v>45670</v>
       </c>
       <c r="D299" s="5">
@@ -9030,7 +9024,7 @@
       <c r="B300" s="5">
         <v>299</v>
       </c>
-      <c r="C300" s="64">
+      <c r="C300" s="51">
         <v>45671</v>
       </c>
       <c r="D300" s="5">
@@ -9056,7 +9050,7 @@
       <c r="B301" s="5">
         <v>300</v>
       </c>
-      <c r="C301" s="64">
+      <c r="C301" s="51">
         <v>45672</v>
       </c>
       <c r="D301" s="5">
@@ -9082,7 +9076,7 @@
       <c r="B302" s="5">
         <v>301</v>
       </c>
-      <c r="C302" s="64">
+      <c r="C302" s="51">
         <v>45673</v>
       </c>
       <c r="D302" s="5">
@@ -9108,7 +9102,7 @@
       <c r="B303" s="5">
         <v>302</v>
       </c>
-      <c r="C303" s="64">
+      <c r="C303" s="51">
         <v>45674</v>
       </c>
       <c r="D303" s="5">
@@ -9134,7 +9128,7 @@
       <c r="B304" s="5">
         <v>303</v>
       </c>
-      <c r="C304" s="64">
+      <c r="C304" s="51">
         <v>45675</v>
       </c>
       <c r="D304" s="5">
@@ -9160,7 +9154,7 @@
       <c r="B305" s="5">
         <v>304</v>
       </c>
-      <c r="C305" s="64">
+      <c r="C305" s="51">
         <v>45676</v>
       </c>
       <c r="D305" s="5">
@@ -9186,7 +9180,7 @@
       <c r="B306" s="5">
         <v>305</v>
       </c>
-      <c r="C306" s="64">
+      <c r="C306" s="51">
         <v>45677</v>
       </c>
       <c r="D306" s="5">
@@ -9215,7 +9209,7 @@
       <c r="B307" s="5">
         <v>306</v>
       </c>
-      <c r="C307" s="64">
+      <c r="C307" s="51">
         <v>45678</v>
       </c>
       <c r="D307" s="5">
@@ -9241,7 +9235,7 @@
       <c r="B308" s="5">
         <v>307</v>
       </c>
-      <c r="C308" s="64">
+      <c r="C308" s="51">
         <v>45679</v>
       </c>
       <c r="D308" s="5">
@@ -9267,7 +9261,7 @@
       <c r="B309" s="5">
         <v>308</v>
       </c>
-      <c r="C309" s="64">
+      <c r="C309" s="51">
         <v>45680</v>
       </c>
       <c r="D309" s="5">
@@ -9293,7 +9287,7 @@
       <c r="B310" s="5">
         <v>309</v>
       </c>
-      <c r="C310" s="64">
+      <c r="C310" s="51">
         <v>45681</v>
       </c>
       <c r="D310" s="5">
@@ -9319,7 +9313,7 @@
       <c r="B311" s="5">
         <v>310</v>
       </c>
-      <c r="C311" s="64">
+      <c r="C311" s="51">
         <v>45682</v>
       </c>
       <c r="D311" s="5">
@@ -9345,7 +9339,7 @@
       <c r="B312" s="5">
         <v>311</v>
       </c>
-      <c r="C312" s="64">
+      <c r="C312" s="51">
         <v>45683</v>
       </c>
       <c r="D312" s="5">
@@ -9371,7 +9365,7 @@
       <c r="B313" s="5">
         <v>312</v>
       </c>
-      <c r="C313" s="64">
+      <c r="C313" s="51">
         <v>45684</v>
       </c>
       <c r="D313" s="5">
@@ -9397,7 +9391,7 @@
       <c r="B314" s="5">
         <v>313</v>
       </c>
-      <c r="C314" s="64">
+      <c r="C314" s="51">
         <v>45685</v>
       </c>
       <c r="D314" s="5">
@@ -9423,7 +9417,7 @@
       <c r="B315" s="5">
         <v>314</v>
       </c>
-      <c r="C315" s="64">
+      <c r="C315" s="51">
         <v>45686</v>
       </c>
       <c r="D315" s="5">
@@ -9449,7 +9443,7 @@
       <c r="B316" s="5">
         <v>315</v>
       </c>
-      <c r="C316" s="64">
+      <c r="C316" s="51">
         <v>45687</v>
       </c>
       <c r="D316" s="5">
@@ -9475,7 +9469,7 @@
       <c r="B317" s="5">
         <v>316</v>
       </c>
-      <c r="C317" s="64">
+      <c r="C317" s="51">
         <v>45688</v>
       </c>
       <c r="D317" s="5">
@@ -9501,7 +9495,7 @@
       <c r="B318" s="5">
         <v>317</v>
       </c>
-      <c r="C318" s="64">
+      <c r="C318" s="51">
         <v>45689</v>
       </c>
       <c r="D318" s="5">
@@ -9527,7 +9521,7 @@
       <c r="B319" s="5">
         <v>318</v>
       </c>
-      <c r="C319" s="64">
+      <c r="C319" s="51">
         <v>45690</v>
       </c>
       <c r="D319" s="5">
@@ -9553,7 +9547,7 @@
       <c r="B320" s="5">
         <v>319</v>
       </c>
-      <c r="C320" s="64">
+      <c r="C320" s="51">
         <v>45691</v>
       </c>
       <c r="D320" s="5">
@@ -9579,7 +9573,7 @@
       <c r="B321" s="5">
         <v>320</v>
       </c>
-      <c r="C321" s="64">
+      <c r="C321" s="51">
         <v>45692</v>
       </c>
       <c r="D321" s="5">
@@ -9605,7 +9599,7 @@
       <c r="B322" s="5">
         <v>321</v>
       </c>
-      <c r="C322" s="64">
+      <c r="C322" s="51">
         <v>45693</v>
       </c>
       <c r="D322" s="5">
@@ -9631,7 +9625,7 @@
       <c r="B323" s="5">
         <v>322</v>
       </c>
-      <c r="C323" s="64">
+      <c r="C323" s="51">
         <v>45694</v>
       </c>
       <c r="D323" s="5">
@@ -9657,7 +9651,7 @@
       <c r="B324" s="5">
         <v>323</v>
       </c>
-      <c r="C324" s="64">
+      <c r="C324" s="51">
         <v>45695</v>
       </c>
       <c r="D324" s="5">
@@ -9683,7 +9677,7 @@
       <c r="B325" s="5">
         <v>324</v>
       </c>
-      <c r="C325" s="64">
+      <c r="C325" s="51">
         <v>45696</v>
       </c>
       <c r="D325" s="5">
@@ -9709,7 +9703,7 @@
       <c r="B326" s="5">
         <v>325</v>
       </c>
-      <c r="C326" s="64">
+      <c r="C326" s="51">
         <v>45697</v>
       </c>
       <c r="D326" s="5">
@@ -9738,7 +9732,7 @@
       <c r="B327" s="5">
         <v>326</v>
       </c>
-      <c r="C327" s="64">
+      <c r="C327" s="51">
         <v>45698</v>
       </c>
       <c r="D327" s="5">
@@ -9764,7 +9758,7 @@
       <c r="B328" s="5">
         <v>327</v>
       </c>
-      <c r="C328" s="64">
+      <c r="C328" s="51">
         <v>45699</v>
       </c>
       <c r="D328" s="5">
@@ -9790,7 +9784,7 @@
       <c r="B329" s="5">
         <v>328</v>
       </c>
-      <c r="C329" s="64">
+      <c r="C329" s="51">
         <v>45700</v>
       </c>
       <c r="D329" s="5">
@@ -9816,7 +9810,7 @@
       <c r="B330" s="5">
         <v>329</v>
       </c>
-      <c r="C330" s="64">
+      <c r="C330" s="51">
         <v>45701</v>
       </c>
       <c r="D330" s="5">
@@ -9842,7 +9836,7 @@
       <c r="B331" s="5">
         <v>330</v>
       </c>
-      <c r="C331" s="64">
+      <c r="C331" s="51">
         <v>45702</v>
       </c>
       <c r="D331" s="5">
@@ -9871,7 +9865,7 @@
       <c r="B332" s="5">
         <v>331</v>
       </c>
-      <c r="C332" s="64">
+      <c r="C332" s="51">
         <v>45703</v>
       </c>
       <c r="D332" s="5">
@@ -9897,7 +9891,7 @@
       <c r="B333" s="5">
         <v>332</v>
       </c>
-      <c r="C333" s="64">
+      <c r="C333" s="51">
         <v>45704</v>
       </c>
       <c r="D333" s="5">
@@ -9923,7 +9917,7 @@
       <c r="B334" s="5">
         <v>333</v>
       </c>
-      <c r="C334" s="64">
+      <c r="C334" s="51">
         <v>45705</v>
       </c>
       <c r="D334" s="5">
@@ -9952,7 +9946,7 @@
       <c r="B335" s="5">
         <v>334</v>
       </c>
-      <c r="C335" s="64">
+      <c r="C335" s="51">
         <v>45706</v>
       </c>
       <c r="D335" s="5">
@@ -9978,7 +9972,7 @@
       <c r="B336" s="5">
         <v>335</v>
       </c>
-      <c r="C336" s="64">
+      <c r="C336" s="51">
         <v>45707</v>
       </c>
       <c r="D336" s="5">
@@ -10004,7 +9998,7 @@
       <c r="B337" s="5">
         <v>336</v>
       </c>
-      <c r="C337" s="64">
+      <c r="C337" s="51">
         <v>45708</v>
       </c>
       <c r="D337" s="5">
@@ -10030,7 +10024,7 @@
       <c r="B338" s="5">
         <v>337</v>
       </c>
-      <c r="C338" s="64">
+      <c r="C338" s="51">
         <v>45709</v>
       </c>
       <c r="D338" s="5">
@@ -10056,7 +10050,7 @@
       <c r="B339" s="5">
         <v>338</v>
       </c>
-      <c r="C339" s="64">
+      <c r="C339" s="51">
         <v>45710</v>
       </c>
       <c r="D339" s="5">
@@ -10082,7 +10076,7 @@
       <c r="B340" s="5">
         <v>339</v>
       </c>
-      <c r="C340" s="64">
+      <c r="C340" s="51">
         <v>45711</v>
       </c>
       <c r="D340" s="5">
@@ -10108,7 +10102,7 @@
       <c r="B341" s="5">
         <v>340</v>
       </c>
-      <c r="C341" s="64">
+      <c r="C341" s="51">
         <v>45712</v>
       </c>
       <c r="D341" s="5">
@@ -10134,7 +10128,7 @@
       <c r="B342" s="5">
         <v>341</v>
       </c>
-      <c r="C342" s="64">
+      <c r="C342" s="51">
         <v>45713</v>
       </c>
       <c r="D342" s="5">
@@ -10160,7 +10154,7 @@
       <c r="B343" s="5">
         <v>342</v>
       </c>
-      <c r="C343" s="64">
+      <c r="C343" s="51">
         <v>45714</v>
       </c>
       <c r="D343" s="5">
@@ -10186,7 +10180,7 @@
       <c r="B344" s="5">
         <v>343</v>
       </c>
-      <c r="C344" s="64">
+      <c r="C344" s="51">
         <v>45715</v>
       </c>
       <c r="D344" s="5">
@@ -10212,7 +10206,7 @@
       <c r="B345" s="5">
         <v>344</v>
       </c>
-      <c r="C345" s="64">
+      <c r="C345" s="51">
         <v>45716</v>
       </c>
       <c r="D345" s="5">
@@ -10238,7 +10232,7 @@
       <c r="B346" s="5">
         <v>345</v>
       </c>
-      <c r="C346" s="64">
+      <c r="C346" s="51">
         <v>45717</v>
       </c>
       <c r="D346" s="5">
@@ -10267,7 +10261,7 @@
       <c r="B347" s="5">
         <v>346</v>
       </c>
-      <c r="C347" s="64">
+      <c r="C347" s="51">
         <v>45718</v>
       </c>
       <c r="D347" s="5">
@@ -10293,7 +10287,7 @@
       <c r="B348" s="5">
         <v>347</v>
       </c>
-      <c r="C348" s="64">
+      <c r="C348" s="51">
         <v>45719</v>
       </c>
       <c r="D348" s="5">
@@ -10319,7 +10313,7 @@
       <c r="B349" s="5">
         <v>348</v>
       </c>
-      <c r="C349" s="64">
+      <c r="C349" s="51">
         <v>45720</v>
       </c>
       <c r="D349" s="5">
@@ -10345,7 +10339,7 @@
       <c r="B350" s="5">
         <v>349</v>
       </c>
-      <c r="C350" s="64">
+      <c r="C350" s="51">
         <v>45721</v>
       </c>
       <c r="D350" s="5">
@@ -10374,7 +10368,7 @@
       <c r="B351" s="5">
         <v>350</v>
       </c>
-      <c r="C351" s="64">
+      <c r="C351" s="51">
         <v>45722</v>
       </c>
       <c r="D351" s="5">
@@ -10400,7 +10394,7 @@
       <c r="B352" s="5">
         <v>351</v>
       </c>
-      <c r="C352" s="64">
+      <c r="C352" s="51">
         <v>45723</v>
       </c>
       <c r="D352" s="5">
@@ -10429,7 +10423,7 @@
       <c r="B353" s="5">
         <v>352</v>
       </c>
-      <c r="C353" s="64">
+      <c r="C353" s="51">
         <v>45724</v>
       </c>
       <c r="D353" s="5">
@@ -10455,7 +10449,7 @@
       <c r="B354" s="5">
         <v>353</v>
       </c>
-      <c r="C354" s="64">
+      <c r="C354" s="51">
         <v>45725</v>
       </c>
       <c r="D354" s="5">
@@ -10484,7 +10478,7 @@
       <c r="B355" s="5">
         <v>354</v>
       </c>
-      <c r="C355" s="64">
+      <c r="C355" s="51">
         <v>45726</v>
       </c>
       <c r="D355" s="5">
@@ -10510,7 +10504,7 @@
       <c r="B356" s="5">
         <v>355</v>
       </c>
-      <c r="C356" s="64">
+      <c r="C356" s="51">
         <v>45727</v>
       </c>
       <c r="D356" s="5">
@@ -10536,7 +10530,7 @@
       <c r="B357" s="5">
         <v>356</v>
       </c>
-      <c r="C357" s="64">
+      <c r="C357" s="51">
         <v>45728</v>
       </c>
       <c r="D357" s="5">
@@ -10562,7 +10556,7 @@
       <c r="B358" s="5">
         <v>357</v>
       </c>
-      <c r="C358" s="64">
+      <c r="C358" s="51">
         <v>45729</v>
       </c>
       <c r="D358" s="5">
@@ -10588,7 +10582,7 @@
       <c r="B359" s="5">
         <v>358</v>
       </c>
-      <c r="C359" s="64">
+      <c r="C359" s="51">
         <v>45730</v>
       </c>
       <c r="D359" s="5">
@@ -10617,7 +10611,7 @@
       <c r="B360" s="5">
         <v>359</v>
       </c>
-      <c r="C360" s="64">
+      <c r="C360" s="51">
         <v>45731</v>
       </c>
       <c r="D360" s="5">
@@ -10643,7 +10637,7 @@
       <c r="B361" s="5">
         <v>360</v>
       </c>
-      <c r="C361" s="64">
+      <c r="C361" s="51">
         <v>45732</v>
       </c>
       <c r="D361" s="5">
@@ -10669,7 +10663,7 @@
       <c r="B362" s="5">
         <v>361</v>
       </c>
-      <c r="C362" s="64">
+      <c r="C362" s="51">
         <v>45733</v>
       </c>
       <c r="D362" s="5">
@@ -10698,7 +10692,7 @@
       <c r="B363" s="5">
         <v>362</v>
       </c>
-      <c r="C363" s="64">
+      <c r="C363" s="51">
         <v>45734</v>
       </c>
       <c r="D363" s="5">
@@ -10724,7 +10718,7 @@
       <c r="B364" s="5">
         <v>363</v>
       </c>
-      <c r="C364" s="64">
+      <c r="C364" s="51">
         <v>45735</v>
       </c>
       <c r="D364" s="5">
@@ -10750,7 +10744,7 @@
       <c r="B365" s="5">
         <v>364</v>
       </c>
-      <c r="C365" s="64">
+      <c r="C365" s="51">
         <v>45736</v>
       </c>
       <c r="D365" s="5">
@@ -10776,7 +10770,7 @@
       <c r="B366" s="5">
         <v>365</v>
       </c>
-      <c r="C366" s="64">
+      <c r="C366" s="51">
         <v>45737</v>
       </c>
       <c r="D366" s="5">
@@ -10805,7 +10799,7 @@
       <c r="B367" s="5">
         <v>366</v>
       </c>
-      <c r="C367" s="64">
+      <c r="C367" s="51">
         <v>45738</v>
       </c>
       <c r="D367" s="5">
@@ -10831,7 +10825,7 @@
       <c r="B368" s="5">
         <v>367</v>
       </c>
-      <c r="C368" s="64">
+      <c r="C368" s="51">
         <v>45739</v>
       </c>
       <c r="D368" s="5">
@@ -10857,7 +10851,7 @@
       <c r="B369" s="5">
         <v>368</v>
       </c>
-      <c r="C369" s="64">
+      <c r="C369" s="51">
         <v>45740</v>
       </c>
       <c r="D369" s="5">
@@ -10883,7 +10877,7 @@
       <c r="B370" s="5">
         <v>369</v>
       </c>
-      <c r="C370" s="64">
+      <c r="C370" s="51">
         <v>45741</v>
       </c>
       <c r="D370" s="5">
@@ -10909,7 +10903,7 @@
       <c r="B371" s="5">
         <v>370</v>
       </c>
-      <c r="C371" s="64">
+      <c r="C371" s="51">
         <v>45742</v>
       </c>
       <c r="D371" s="5">
@@ -10935,7 +10929,7 @@
       <c r="B372" s="5">
         <v>371</v>
       </c>
-      <c r="C372" s="64">
+      <c r="C372" s="51">
         <v>45743</v>
       </c>
       <c r="D372" s="5">
@@ -10961,7 +10955,7 @@
       <c r="B373" s="5">
         <v>372</v>
       </c>
-      <c r="C373" s="64">
+      <c r="C373" s="51">
         <v>45744</v>
       </c>
       <c r="D373" s="5">
@@ -10990,7 +10984,7 @@
       <c r="B374" s="5">
         <v>373</v>
       </c>
-      <c r="C374" s="64">
+      <c r="C374" s="51">
         <v>45745</v>
       </c>
       <c r="D374" s="5">
@@ -11016,7 +11010,7 @@
       <c r="B375" s="5">
         <v>374</v>
       </c>
-      <c r="C375" s="64">
+      <c r="C375" s="51">
         <v>45746</v>
       </c>
       <c r="D375" s="5">
@@ -11042,7 +11036,7 @@
       <c r="B376" s="5">
         <v>375</v>
       </c>
-      <c r="C376" s="64">
+      <c r="C376" s="51">
         <v>45747</v>
       </c>
       <c r="D376" s="5">
@@ -11068,7 +11062,7 @@
       <c r="B377" s="5">
         <v>376</v>
       </c>
-      <c r="C377" s="64">
+      <c r="C377" s="51">
         <v>45748</v>
       </c>
       <c r="D377" s="5">
@@ -11094,7 +11088,7 @@
       <c r="B378" s="5">
         <v>377</v>
       </c>
-      <c r="C378" s="64">
+      <c r="C378" s="51">
         <v>45749</v>
       </c>
       <c r="D378" s="5">
@@ -11120,7 +11114,7 @@
       <c r="B379" s="5">
         <v>378</v>
       </c>
-      <c r="C379" s="64">
+      <c r="C379" s="51">
         <v>45750</v>
       </c>
       <c r="D379" s="5">
@@ -11146,7 +11140,7 @@
       <c r="B380" s="5">
         <v>379</v>
       </c>
-      <c r="C380" s="64">
+      <c r="C380" s="51">
         <v>45751</v>
       </c>
       <c r="D380" s="5">
@@ -11175,7 +11169,7 @@
       <c r="B381" s="5">
         <v>380</v>
       </c>
-      <c r="C381" s="64">
+      <c r="C381" s="51">
         <v>45752</v>
       </c>
       <c r="D381" s="5">
@@ -11201,7 +11195,7 @@
       <c r="B382" s="5">
         <v>381</v>
       </c>
-      <c r="C382" s="64">
+      <c r="C382" s="51">
         <v>45753</v>
       </c>
       <c r="D382" s="5">
@@ -11227,7 +11221,7 @@
       <c r="B383" s="5">
         <v>382</v>
       </c>
-      <c r="C383" s="64">
+      <c r="C383" s="51">
         <v>45754</v>
       </c>
       <c r="D383" s="5">
@@ -11253,7 +11247,7 @@
       <c r="B384" s="5">
         <v>383</v>
       </c>
-      <c r="C384" s="64">
+      <c r="C384" s="51">
         <v>45755</v>
       </c>
       <c r="D384" s="5">
@@ -11279,7 +11273,7 @@
       <c r="B385" s="5">
         <v>384</v>
       </c>
-      <c r="C385" s="64">
+      <c r="C385" s="51">
         <v>45756</v>
       </c>
       <c r="D385" s="5">
@@ -11305,7 +11299,7 @@
       <c r="B386" s="5">
         <v>385</v>
       </c>
-      <c r="C386" s="64">
+      <c r="C386" s="51">
         <v>45757</v>
       </c>
       <c r="D386" s="5">
@@ -11331,7 +11325,7 @@
       <c r="B387" s="5">
         <v>386</v>
       </c>
-      <c r="C387" s="64">
+      <c r="C387" s="51">
         <v>45758</v>
       </c>
       <c r="D387" s="5">
@@ -11360,7 +11354,7 @@
       <c r="B388" s="5">
         <v>387</v>
       </c>
-      <c r="C388" s="64">
+      <c r="C388" s="51">
         <v>45759</v>
       </c>
       <c r="D388" s="5">
@@ -11386,7 +11380,7 @@
       <c r="B389" s="5">
         <v>388</v>
       </c>
-      <c r="C389" s="64">
+      <c r="C389" s="51">
         <v>45760</v>
       </c>
       <c r="D389" s="5">
@@ -11412,7 +11406,7 @@
       <c r="B390" s="5">
         <v>389</v>
       </c>
-      <c r="C390" s="64">
+      <c r="C390" s="51">
         <v>45761</v>
       </c>
       <c r="D390" s="5">
@@ -11438,7 +11432,7 @@
       <c r="B391" s="5">
         <v>390</v>
       </c>
-      <c r="C391" s="64">
+      <c r="C391" s="51">
         <v>45762</v>
       </c>
       <c r="D391" s="5">
@@ -11464,7 +11458,7 @@
       <c r="B392" s="5">
         <v>391</v>
       </c>
-      <c r="C392" s="64">
+      <c r="C392" s="51">
         <v>45763</v>
       </c>
       <c r="D392" s="5">
@@ -11490,7 +11484,7 @@
       <c r="B393" s="5">
         <v>392</v>
       </c>
-      <c r="C393" s="64">
+      <c r="C393" s="51">
         <v>45764</v>
       </c>
       <c r="D393" s="5">
@@ -11516,7 +11510,7 @@
       <c r="B394" s="5">
         <v>393</v>
       </c>
-      <c r="C394" s="64">
+      <c r="C394" s="51">
         <v>45765</v>
       </c>
       <c r="D394" s="5">
@@ -11545,7 +11539,7 @@
       <c r="B395" s="5">
         <v>394</v>
       </c>
-      <c r="C395" s="64">
+      <c r="C395" s="51">
         <v>45766</v>
       </c>
       <c r="D395" s="5">
@@ -11571,7 +11565,7 @@
       <c r="B396" s="5">
         <v>395</v>
       </c>
-      <c r="C396" s="64">
+      <c r="C396" s="51">
         <v>45767</v>
       </c>
       <c r="D396" s="5">
@@ -11600,7 +11594,7 @@
       <c r="B397" s="5">
         <v>396</v>
       </c>
-      <c r="C397" s="64">
+      <c r="C397" s="51">
         <v>45768</v>
       </c>
       <c r="D397" s="5">
@@ -11626,7 +11620,7 @@
       <c r="B398" s="5">
         <v>397</v>
       </c>
-      <c r="C398" s="64">
+      <c r="C398" s="51">
         <v>45769</v>
       </c>
       <c r="D398" s="5">
@@ -11652,7 +11646,7 @@
       <c r="B399" s="5">
         <v>398</v>
       </c>
-      <c r="C399" s="64">
+      <c r="C399" s="51">
         <v>45770</v>
       </c>
       <c r="D399" s="5">
@@ -11678,7 +11672,7 @@
       <c r="B400" s="5">
         <v>399</v>
       </c>
-      <c r="C400" s="64">
+      <c r="C400" s="51">
         <v>45771</v>
       </c>
       <c r="D400" s="5">
@@ -11704,7 +11698,7 @@
       <c r="B401" s="5">
         <v>400</v>
       </c>
-      <c r="C401" s="64">
+      <c r="C401" s="51">
         <v>45772</v>
       </c>
       <c r="D401" s="5">
@@ -11730,7 +11724,7 @@
       <c r="B402" s="5">
         <v>401</v>
       </c>
-      <c r="C402" s="64">
+      <c r="C402" s="51">
         <v>45773</v>
       </c>
       <c r="D402" s="5">
@@ -11756,7 +11750,7 @@
       <c r="B403" s="5">
         <v>402</v>
       </c>
-      <c r="C403" s="64">
+      <c r="C403" s="51">
         <v>45774</v>
       </c>
       <c r="D403" s="5">
@@ -11782,7 +11776,7 @@
       <c r="B404" s="5">
         <v>403</v>
       </c>
-      <c r="C404" s="64">
+      <c r="C404" s="51">
         <v>45775</v>
       </c>
       <c r="D404" s="5">
@@ -11808,7 +11802,7 @@
       <c r="B405" s="5">
         <v>404</v>
       </c>
-      <c r="C405" s="64">
+      <c r="C405" s="51">
         <v>45776</v>
       </c>
       <c r="D405" s="5">
@@ -11834,7 +11828,7 @@
       <c r="B406" s="5">
         <v>405</v>
       </c>
-      <c r="C406" s="64">
+      <c r="C406" s="51">
         <v>45777</v>
       </c>
       <c r="D406" s="5">
@@ -11860,7 +11854,7 @@
       <c r="B407" s="5">
         <v>406</v>
       </c>
-      <c r="C407" s="64">
+      <c r="C407" s="51">
         <v>45778</v>
       </c>
       <c r="D407" s="5">
@@ -11886,7 +11880,7 @@
       <c r="B408" s="5">
         <v>407</v>
       </c>
-      <c r="C408" s="64">
+      <c r="C408" s="51">
         <v>45779</v>
       </c>
       <c r="D408" s="5">
@@ -11912,7 +11906,7 @@
       <c r="B409" s="5">
         <v>408</v>
       </c>
-      <c r="C409" s="64">
+      <c r="C409" s="51">
         <v>45780</v>
       </c>
       <c r="D409" s="5">
@@ -11938,7 +11932,7 @@
       <c r="B410" s="5">
         <v>409</v>
       </c>
-      <c r="C410" s="64">
+      <c r="C410" s="51">
         <v>45781</v>
       </c>
       <c r="D410" s="5">
@@ -11964,7 +11958,7 @@
       <c r="B411" s="5">
         <v>410</v>
       </c>
-      <c r="C411" s="64">
+      <c r="C411" s="51">
         <v>45782</v>
       </c>
       <c r="D411" s="5">
@@ -11993,7 +11987,7 @@
       <c r="B412" s="5">
         <v>411</v>
       </c>
-      <c r="C412" s="64">
+      <c r="C412" s="51">
         <v>45783</v>
       </c>
       <c r="D412" s="5">
@@ -12019,7 +12013,7 @@
       <c r="B413" s="5">
         <v>412</v>
       </c>
-      <c r="C413" s="64">
+      <c r="C413" s="51">
         <v>45784</v>
       </c>
       <c r="D413" s="5">
@@ -12045,7 +12039,7 @@
       <c r="B414" s="5">
         <v>413</v>
       </c>
-      <c r="C414" s="64">
+      <c r="C414" s="51">
         <v>45785</v>
       </c>
       <c r="D414" s="5">
@@ -12071,7 +12065,7 @@
       <c r="B415" s="5">
         <v>414</v>
       </c>
-      <c r="C415" s="64">
+      <c r="C415" s="51">
         <v>45786</v>
       </c>
       <c r="D415" s="5">
@@ -12097,7 +12091,7 @@
       <c r="B416" s="5">
         <v>415</v>
       </c>
-      <c r="C416" s="64">
+      <c r="C416" s="51">
         <v>45787</v>
       </c>
       <c r="D416" s="5">
@@ -12123,7 +12117,7 @@
       <c r="B417" s="5">
         <v>416</v>
       </c>
-      <c r="C417" s="64">
+      <c r="C417" s="51">
         <v>45788</v>
       </c>
       <c r="D417" s="5">
@@ -12152,7 +12146,7 @@
       <c r="B418" s="5">
         <v>417</v>
       </c>
-      <c r="C418" s="64">
+      <c r="C418" s="51">
         <v>45789</v>
       </c>
       <c r="D418" s="5">
@@ -12178,7 +12172,7 @@
       <c r="B419" s="5">
         <v>418</v>
       </c>
-      <c r="C419" s="64">
+      <c r="C419" s="51">
         <v>45790</v>
       </c>
       <c r="D419" s="5">
@@ -12204,7 +12198,7 @@
       <c r="B420" s="5">
         <v>419</v>
       </c>
-      <c r="C420" s="64">
+      <c r="C420" s="51">
         <v>45791</v>
       </c>
       <c r="D420" s="5">
@@ -12230,7 +12224,7 @@
       <c r="B421" s="5">
         <v>420</v>
       </c>
-      <c r="C421" s="64">
+      <c r="C421" s="51">
         <v>45792</v>
       </c>
       <c r="D421" s="5">
@@ -12256,7 +12250,7 @@
       <c r="B422" s="5">
         <v>421</v>
       </c>
-      <c r="C422" s="64">
+      <c r="C422" s="51">
         <v>45793</v>
       </c>
       <c r="D422" s="5">
@@ -12282,7 +12276,7 @@
       <c r="B423" s="5">
         <v>422</v>
       </c>
-      <c r="C423" s="64">
+      <c r="C423" s="51">
         <v>45794</v>
       </c>
       <c r="D423" s="5">
@@ -12308,7 +12302,7 @@
       <c r="B424" s="5">
         <v>423</v>
       </c>
-      <c r="C424" s="64">
+      <c r="C424" s="51">
         <v>45795</v>
       </c>
       <c r="D424" s="5">
@@ -12334,7 +12328,7 @@
       <c r="B425" s="5">
         <v>424</v>
       </c>
-      <c r="C425" s="64">
+      <c r="C425" s="51">
         <v>45796</v>
       </c>
       <c r="D425" s="5">
@@ -12360,7 +12354,7 @@
       <c r="B426" s="5">
         <v>425</v>
       </c>
-      <c r="C426" s="64">
+      <c r="C426" s="51">
         <v>45797</v>
       </c>
       <c r="D426" s="5">
@@ -12386,7 +12380,7 @@
       <c r="B427" s="5">
         <v>426</v>
       </c>
-      <c r="C427" s="64">
+      <c r="C427" s="51">
         <v>45798</v>
       </c>
       <c r="D427" s="5">
@@ -12412,7 +12406,7 @@
       <c r="B428" s="5">
         <v>427</v>
       </c>
-      <c r="C428" s="64">
+      <c r="C428" s="51">
         <v>45799</v>
       </c>
       <c r="D428" s="5">
@@ -12438,7 +12432,7 @@
       <c r="B429" s="5">
         <v>428</v>
       </c>
-      <c r="C429" s="64">
+      <c r="C429" s="51">
         <v>45800</v>
       </c>
       <c r="D429" s="5">
@@ -12464,7 +12458,7 @@
       <c r="B430" s="5">
         <v>429</v>
       </c>
-      <c r="C430" s="64">
+      <c r="C430" s="51">
         <v>45801</v>
       </c>
       <c r="D430" s="5">
@@ -12490,7 +12484,7 @@
       <c r="B431" s="5">
         <v>430</v>
       </c>
-      <c r="C431" s="64">
+      <c r="C431" s="51">
         <v>45802</v>
       </c>
       <c r="D431" s="5">
@@ -12516,7 +12510,7 @@
       <c r="B432" s="5">
         <v>431</v>
       </c>
-      <c r="C432" s="64">
+      <c r="C432" s="51">
         <v>45803</v>
       </c>
       <c r="D432" s="5">
@@ -12545,7 +12539,7 @@
       <c r="B433" s="5">
         <v>432</v>
       </c>
-      <c r="C433" s="64">
+      <c r="C433" s="51">
         <v>45804</v>
       </c>
       <c r="D433" s="5">
@@ -12572,7 +12566,7 @@
       <c r="B434" s="5">
         <v>433</v>
       </c>
-      <c r="C434" s="64">
+      <c r="C434" s="51">
         <v>45805</v>
       </c>
       <c r="D434" s="11">
@@ -12599,7 +12593,7 @@
       <c r="B435" s="5">
         <v>434</v>
       </c>
-      <c r="C435" s="64">
+      <c r="C435" s="51">
         <v>45806</v>
       </c>
       <c r="D435" s="5">
@@ -12627,7 +12621,7 @@
       <c r="B436" s="5">
         <v>435</v>
       </c>
-      <c r="C436" s="64">
+      <c r="C436" s="51">
         <v>45807</v>
       </c>
       <c r="D436" s="5">
@@ -12655,7 +12649,7 @@
       <c r="B437" s="5">
         <v>436</v>
       </c>
-      <c r="C437" s="64">
+      <c r="C437" s="51">
         <v>45808</v>
       </c>
       <c r="D437" s="5">
@@ -12683,7 +12677,7 @@
       <c r="B438" s="5">
         <v>437</v>
       </c>
-      <c r="C438" s="64">
+      <c r="C438" s="51">
         <v>45809</v>
       </c>
       <c r="D438" s="5">
@@ -12711,7 +12705,7 @@
       <c r="B439" s="5">
         <v>438</v>
       </c>
-      <c r="C439" s="64">
+      <c r="C439" s="51">
         <v>45810</v>
       </c>
       <c r="D439" s="5">
@@ -12739,7 +12733,7 @@
       <c r="B440" s="5">
         <v>439</v>
       </c>
-      <c r="C440" s="64">
+      <c r="C440" s="51">
         <v>45811</v>
       </c>
       <c r="D440" s="5">
@@ -12767,7 +12761,7 @@
       <c r="B441" s="5">
         <v>440</v>
       </c>
-      <c r="C441" s="64">
+      <c r="C441" s="51">
         <v>45812</v>
       </c>
       <c r="D441" s="5">
@@ -12795,7 +12789,7 @@
       <c r="B442" s="5">
         <v>441</v>
       </c>
-      <c r="C442" s="64">
+      <c r="C442" s="51">
         <v>45813</v>
       </c>
       <c r="D442" s="5">
@@ -12823,7 +12817,7 @@
       <c r="B443" s="5">
         <v>442</v>
       </c>
-      <c r="C443" s="64">
+      <c r="C443" s="51">
         <v>45814</v>
       </c>
       <c r="D443" s="5">
@@ -12851,7 +12845,7 @@
       <c r="B444" s="5">
         <v>443</v>
       </c>
-      <c r="C444" s="64">
+      <c r="C444" s="51">
         <v>45815</v>
       </c>
       <c r="D444" s="5">
@@ -12879,7 +12873,7 @@
       <c r="B445" s="5">
         <v>444</v>
       </c>
-      <c r="C445" s="64">
+      <c r="C445" s="51">
         <v>45816</v>
       </c>
       <c r="D445" s="5">
@@ -12907,7 +12901,7 @@
       <c r="B446" s="5">
         <v>445</v>
       </c>
-      <c r="C446" s="64">
+      <c r="C446" s="51">
         <v>45817</v>
       </c>
       <c r="D446" s="5">
@@ -12935,7 +12929,7 @@
       <c r="B447" s="5">
         <v>446</v>
       </c>
-      <c r="C447" s="64">
+      <c r="C447" s="51">
         <v>45818</v>
       </c>
       <c r="D447" s="5">
@@ -12963,7 +12957,7 @@
       <c r="B448" s="5">
         <v>447</v>
       </c>
-      <c r="C448" s="64">
+      <c r="C448" s="51">
         <v>45819</v>
       </c>
       <c r="D448" s="5">
@@ -12991,7 +12985,7 @@
       <c r="B449" s="5">
         <v>448</v>
       </c>
-      <c r="C449" s="64">
+      <c r="C449" s="51">
         <v>45820</v>
       </c>
       <c r="D449" s="5">
@@ -13019,7 +13013,7 @@
       <c r="B450" s="5">
         <v>449</v>
       </c>
-      <c r="C450" s="64">
+      <c r="C450" s="51">
         <v>45821</v>
       </c>
       <c r="D450" s="5">
@@ -13047,7 +13041,7 @@
       <c r="B451" s="5">
         <v>450</v>
       </c>
-      <c r="C451" s="64">
+      <c r="C451" s="51">
         <v>45822</v>
       </c>
       <c r="D451" s="5">
@@ -13075,7 +13069,7 @@
       <c r="B452" s="5">
         <v>451</v>
       </c>
-      <c r="C452" s="64">
+      <c r="C452" s="51">
         <v>45823</v>
       </c>
       <c r="D452" s="5">
@@ -13106,7 +13100,7 @@
       <c r="B453" s="5">
         <v>452</v>
       </c>
-      <c r="C453" s="64">
+      <c r="C453" s="51">
         <v>45824</v>
       </c>
       <c r="D453" s="5">
@@ -13134,7 +13128,7 @@
       <c r="B454" s="5">
         <v>453</v>
       </c>
-      <c r="C454" s="64">
+      <c r="C454" s="51">
         <v>45825</v>
       </c>
       <c r="D454" s="5">
@@ -13162,7 +13156,7 @@
       <c r="B455" s="5">
         <v>454</v>
       </c>
-      <c r="C455" s="64">
+      <c r="C455" s="51">
         <v>45826</v>
       </c>
       <c r="D455" s="5">
@@ -13190,7 +13184,7 @@
       <c r="B456" s="5">
         <v>455</v>
       </c>
-      <c r="C456" s="64">
+      <c r="C456" s="51">
         <v>45827</v>
       </c>
       <c r="D456" s="5">
@@ -13221,7 +13215,7 @@
       <c r="B457" s="5">
         <v>456</v>
       </c>
-      <c r="C457" s="64">
+      <c r="C457" s="51">
         <v>45828</v>
       </c>
       <c r="D457" s="5">
@@ -13249,7 +13243,7 @@
       <c r="B458" s="5">
         <v>457</v>
       </c>
-      <c r="C458" s="64">
+      <c r="C458" s="51">
         <v>45829</v>
       </c>
       <c r="D458" s="5">
@@ -13277,7 +13271,7 @@
       <c r="B459" s="5">
         <v>458</v>
       </c>
-      <c r="C459" s="64">
+      <c r="C459" s="51">
         <v>45830</v>
       </c>
       <c r="D459" s="5">
@@ -13305,7 +13299,7 @@
       <c r="B460" s="5">
         <v>459</v>
       </c>
-      <c r="C460" s="64">
+      <c r="C460" s="51">
         <v>45831</v>
       </c>
       <c r="D460" s="5">
@@ -13333,7 +13327,7 @@
       <c r="B461" s="5">
         <v>460</v>
       </c>
-      <c r="C461" s="64">
+      <c r="C461" s="51">
         <v>45832</v>
       </c>
       <c r="D461" s="5">
@@ -13361,7 +13355,7 @@
       <c r="B462" s="5">
         <v>461</v>
       </c>
-      <c r="C462" s="64">
+      <c r="C462" s="51">
         <v>45833</v>
       </c>
       <c r="D462" s="5">
@@ -13389,7 +13383,7 @@
       <c r="B463" s="5">
         <v>462</v>
       </c>
-      <c r="C463" s="64">
+      <c r="C463" s="51">
         <v>45834</v>
       </c>
       <c r="D463" s="5">
@@ -13417,7 +13411,7 @@
       <c r="B464" s="5">
         <v>463</v>
       </c>
-      <c r="C464" s="64">
+      <c r="C464" s="51">
         <v>45835</v>
       </c>
       <c r="D464" s="5">
@@ -13445,7 +13439,7 @@
       <c r="B465" s="5">
         <v>464</v>
       </c>
-      <c r="C465" s="64">
+      <c r="C465" s="51">
         <v>45836</v>
       </c>
       <c r="D465" s="5">
@@ -13473,7 +13467,7 @@
       <c r="B466" s="5">
         <v>465</v>
       </c>
-      <c r="C466" s="64">
+      <c r="C466" s="51">
         <v>45837</v>
       </c>
       <c r="D466" s="5">
@@ -13501,7 +13495,7 @@
       <c r="B467" s="5">
         <v>466</v>
       </c>
-      <c r="C467" s="64">
+      <c r="C467" s="51">
         <v>45838</v>
       </c>
       <c r="D467" s="5">
@@ -13529,7 +13523,7 @@
       <c r="B468" s="5">
         <v>467</v>
       </c>
-      <c r="C468" s="64">
+      <c r="C468" s="51">
         <v>45839</v>
       </c>
       <c r="D468" s="13">
@@ -13555,7 +13549,7 @@
       <c r="B469" s="5">
         <v>468</v>
       </c>
-      <c r="C469" s="64">
+      <c r="C469" s="51">
         <v>45840</v>
       </c>
       <c r="D469" s="13">
@@ -13581,7 +13575,7 @@
       <c r="B470" s="5">
         <v>469</v>
       </c>
-      <c r="C470" s="64">
+      <c r="C470" s="51">
         <v>45841</v>
       </c>
       <c r="D470" s="13">
@@ -13607,7 +13601,7 @@
       <c r="B471" s="5">
         <v>470</v>
       </c>
-      <c r="C471" s="64">
+      <c r="C471" s="51">
         <v>45842</v>
       </c>
       <c r="D471" s="13">
@@ -13636,7 +13630,7 @@
       <c r="B472" s="5">
         <v>471</v>
       </c>
-      <c r="C472" s="64">
+      <c r="C472" s="51">
         <v>45843</v>
       </c>
       <c r="D472" s="13">
@@ -13662,7 +13656,7 @@
       <c r="B473" s="5">
         <v>472</v>
       </c>
-      <c r="C473" s="64">
+      <c r="C473" s="51">
         <v>45844</v>
       </c>
       <c r="D473" s="13">
@@ -13688,7 +13682,7 @@
       <c r="B474" s="5">
         <v>473</v>
       </c>
-      <c r="C474" s="64">
+      <c r="C474" s="51">
         <v>45845</v>
       </c>
       <c r="D474" s="13">
@@ -13714,7 +13708,7 @@
       <c r="B475" s="5">
         <v>474</v>
       </c>
-      <c r="C475" s="64">
+      <c r="C475" s="51">
         <v>45846</v>
       </c>
       <c r="D475" s="13">
@@ -13740,7 +13734,7 @@
       <c r="B476" s="5">
         <v>475</v>
       </c>
-      <c r="C476" s="64">
+      <c r="C476" s="51">
         <v>45847</v>
       </c>
       <c r="D476" s="13">
@@ -13766,7 +13760,7 @@
       <c r="B477" s="5">
         <v>476</v>
       </c>
-      <c r="C477" s="64">
+      <c r="C477" s="51">
         <v>45848</v>
       </c>
       <c r="D477" s="13">
@@ -13792,7 +13786,7 @@
       <c r="B478" s="5">
         <v>477</v>
       </c>
-      <c r="C478" s="64">
+      <c r="C478" s="51">
         <v>45849</v>
       </c>
       <c r="D478">
@@ -13818,7 +13812,7 @@
       <c r="B479" s="5">
         <v>478</v>
       </c>
-      <c r="C479" s="64">
+      <c r="C479" s="51">
         <v>45850</v>
       </c>
       <c r="D479">
@@ -13844,7 +13838,7 @@
       <c r="B480" s="5">
         <v>479</v>
       </c>
-      <c r="C480" s="64">
+      <c r="C480" s="51">
         <v>45851</v>
       </c>
       <c r="D480">
@@ -13870,7 +13864,7 @@
       <c r="B481" s="5">
         <v>480</v>
       </c>
-      <c r="C481" s="64">
+      <c r="C481" s="51">
         <v>45852</v>
       </c>
       <c r="D481">
@@ -13896,7 +13890,7 @@
       <c r="B482" s="5">
         <v>481</v>
       </c>
-      <c r="C482" s="64">
+      <c r="C482" s="51">
         <v>45853</v>
       </c>
       <c r="D482">
@@ -13922,7 +13916,7 @@
       <c r="B483" s="5">
         <v>482</v>
       </c>
-      <c r="C483" s="64">
+      <c r="C483" s="51">
         <v>45854</v>
       </c>
       <c r="D483">
@@ -13948,7 +13942,7 @@
       <c r="B484" s="5">
         <v>483</v>
       </c>
-      <c r="C484" s="64">
+      <c r="C484" s="51">
         <v>45855</v>
       </c>
       <c r="D484">
@@ -13974,7 +13968,7 @@
       <c r="B485" s="5">
         <v>484</v>
       </c>
-      <c r="C485" s="64">
+      <c r="C485" s="51">
         <v>45856</v>
       </c>
       <c r="D485">
@@ -14000,7 +13994,7 @@
       <c r="B486" s="5">
         <v>485</v>
       </c>
-      <c r="C486" s="64">
+      <c r="C486" s="51">
         <v>45857</v>
       </c>
       <c r="D486">
@@ -14026,7 +14020,7 @@
       <c r="B487" s="5">
         <v>486</v>
       </c>
-      <c r="C487" s="64">
+      <c r="C487" s="51">
         <v>45858</v>
       </c>
       <c r="D487">
@@ -14052,7 +14046,7 @@
       <c r="B488" s="5">
         <v>487</v>
       </c>
-      <c r="C488" s="64">
+      <c r="C488" s="51">
         <v>45859</v>
       </c>
       <c r="D488">
@@ -14078,7 +14072,7 @@
       <c r="B489" s="5">
         <v>488</v>
       </c>
-      <c r="C489" s="64">
+      <c r="C489" s="51">
         <v>45860</v>
       </c>
       <c r="D489">
@@ -14104,7 +14098,7 @@
       <c r="B490" s="5">
         <v>489</v>
       </c>
-      <c r="C490" s="64">
+      <c r="C490" s="51">
         <v>45861</v>
       </c>
       <c r="D490">
@@ -14130,7 +14124,7 @@
       <c r="B491" s="5">
         <v>490</v>
       </c>
-      <c r="C491" s="64">
+      <c r="C491" s="51">
         <v>45862</v>
       </c>
       <c r="D491">
@@ -14156,7 +14150,7 @@
       <c r="B492" s="5">
         <v>491</v>
       </c>
-      <c r="C492" s="64">
+      <c r="C492" s="51">
         <v>45863</v>
       </c>
       <c r="D492">
@@ -14182,7 +14176,7 @@
       <c r="B493" s="5">
         <v>492</v>
       </c>
-      <c r="C493" s="64">
+      <c r="C493" s="51">
         <v>45864</v>
       </c>
       <c r="D493">
@@ -14208,7 +14202,7 @@
       <c r="B494" s="5">
         <v>493</v>
       </c>
-      <c r="C494" s="64">
+      <c r="C494" s="51">
         <v>45865</v>
       </c>
       <c r="D494">
@@ -14234,7 +14228,7 @@
       <c r="B495" s="5">
         <v>494</v>
       </c>
-      <c r="C495" s="64">
+      <c r="C495" s="51">
         <v>45866</v>
       </c>
       <c r="D495">
@@ -14260,7 +14254,7 @@
       <c r="B496" s="5">
         <v>495</v>
       </c>
-      <c r="C496" s="64">
+      <c r="C496" s="51">
         <v>45867</v>
       </c>
       <c r="D496">
@@ -14286,7 +14280,7 @@
       <c r="B497" s="5">
         <v>496</v>
       </c>
-      <c r="C497" s="64">
+      <c r="C497" s="51">
         <v>45868</v>
       </c>
       <c r="D497">
@@ -14312,7 +14306,7 @@
       <c r="B498" s="5">
         <v>497</v>
       </c>
-      <c r="C498" s="64">
+      <c r="C498" s="51">
         <v>45869</v>
       </c>
       <c r="D498">
@@ -14338,7 +14332,7 @@
       <c r="B499" s="5">
         <v>498</v>
       </c>
-      <c r="C499" s="64">
+      <c r="C499" s="51">
         <v>45870</v>
       </c>
       <c r="D499">
@@ -14364,7 +14358,7 @@
       <c r="B500" s="5">
         <v>499</v>
       </c>
-      <c r="C500" s="64">
+      <c r="C500" s="51">
         <v>45871</v>
       </c>
       <c r="D500">
@@ -14390,7 +14384,7 @@
       <c r="B501" s="5">
         <v>500</v>
       </c>
-      <c r="C501" s="64">
+      <c r="C501" s="51">
         <v>45872</v>
       </c>
       <c r="D501">
@@ -14416,7 +14410,7 @@
       <c r="B502" s="5">
         <v>501</v>
       </c>
-      <c r="C502" s="64">
+      <c r="C502" s="51">
         <v>45873</v>
       </c>
       <c r="D502">
@@ -14442,7 +14436,7 @@
       <c r="B503" s="5">
         <v>502</v>
       </c>
-      <c r="C503" s="64">
+      <c r="C503" s="51">
         <v>45874</v>
       </c>
       <c r="D503">
@@ -14468,7 +14462,7 @@
       <c r="B504" s="5">
         <v>503</v>
       </c>
-      <c r="C504" s="64">
+      <c r="C504" s="51">
         <v>45875</v>
       </c>
       <c r="D504">
@@ -14494,7 +14488,7 @@
       <c r="B505" s="5">
         <v>504</v>
       </c>
-      <c r="C505" s="64">
+      <c r="C505" s="51">
         <v>45876</v>
       </c>
       <c r="D505">
@@ -14520,7 +14514,7 @@
       <c r="B506" s="5">
         <v>505</v>
       </c>
-      <c r="C506" s="64">
+      <c r="C506" s="51">
         <v>45877</v>
       </c>
       <c r="D506">
@@ -14546,7 +14540,7 @@
       <c r="B507" s="5">
         <v>506</v>
       </c>
-      <c r="C507" s="64">
+      <c r="C507" s="51">
         <v>45878</v>
       </c>
       <c r="D507">
@@ -14572,7 +14566,7 @@
       <c r="B508" s="5">
         <v>507</v>
       </c>
-      <c r="C508" s="64">
+      <c r="C508" s="51">
         <v>45879</v>
       </c>
       <c r="D508">
@@ -14598,7 +14592,7 @@
       <c r="B509" s="5">
         <v>508</v>
       </c>
-      <c r="C509" s="64">
+      <c r="C509" s="51">
         <v>45880</v>
       </c>
       <c r="D509">
@@ -14624,7 +14618,7 @@
       <c r="B510" s="5">
         <v>509</v>
       </c>
-      <c r="C510" s="64">
+      <c r="C510" s="51">
         <v>45881</v>
       </c>
       <c r="D510">
@@ -14650,7 +14644,7 @@
       <c r="B511" s="5">
         <v>510</v>
       </c>
-      <c r="C511" s="64">
+      <c r="C511" s="51">
         <v>45882</v>
       </c>
       <c r="D511">
@@ -14676,7 +14670,7 @@
       <c r="B512" s="5">
         <v>511</v>
       </c>
-      <c r="C512" s="64">
+      <c r="C512" s="51">
         <v>45883</v>
       </c>
       <c r="D512" s="13">
@@ -14702,7 +14696,7 @@
       <c r="B513" s="5">
         <v>512</v>
       </c>
-      <c r="C513" s="64">
+      <c r="C513" s="51">
         <v>45884</v>
       </c>
       <c r="D513" s="13">
@@ -14728,7 +14722,7 @@
       <c r="B514" s="5">
         <v>513</v>
       </c>
-      <c r="C514" s="64">
+      <c r="C514" s="51">
         <v>45885</v>
       </c>
       <c r="D514" s="13">
@@ -14754,7 +14748,7 @@
       <c r="B515" s="5">
         <v>514</v>
       </c>
-      <c r="C515" s="64">
+      <c r="C515" s="51">
         <v>45886</v>
       </c>
       <c r="D515" s="13">
@@ -14780,7 +14774,7 @@
       <c r="B516" s="5">
         <v>515</v>
       </c>
-      <c r="C516" s="64">
+      <c r="C516" s="51">
         <v>45887</v>
       </c>
       <c r="D516" s="13">
@@ -14806,7 +14800,7 @@
       <c r="B517" s="5">
         <v>516</v>
       </c>
-      <c r="C517" s="64">
+      <c r="C517" s="51">
         <v>45888</v>
       </c>
       <c r="D517" s="13">
@@ -14832,7 +14826,7 @@
       <c r="B518" s="5">
         <v>517</v>
       </c>
-      <c r="C518" s="64">
+      <c r="C518" s="51">
         <v>45889</v>
       </c>
       <c r="D518" s="13">
@@ -14858,7 +14852,7 @@
       <c r="B519" s="5">
         <v>518</v>
       </c>
-      <c r="C519" s="64">
+      <c r="C519" s="51">
         <v>45890</v>
       </c>
       <c r="D519" s="13">
@@ -14884,7 +14878,7 @@
       <c r="B520" s="5">
         <v>519</v>
       </c>
-      <c r="C520" s="64">
+      <c r="C520" s="51">
         <v>45891</v>
       </c>
       <c r="D520" s="13">
@@ -14910,7 +14904,7 @@
       <c r="B521" s="5">
         <v>520</v>
       </c>
-      <c r="C521" s="64">
+      <c r="C521" s="51">
         <v>45892</v>
       </c>
       <c r="D521" s="13">
@@ -14936,7 +14930,7 @@
       <c r="B522" s="5">
         <v>521</v>
       </c>
-      <c r="C522" s="64">
+      <c r="C522" s="51">
         <v>45893</v>
       </c>
       <c r="D522" s="13">
@@ -14962,7 +14956,7 @@
       <c r="B523" s="5">
         <v>522</v>
       </c>
-      <c r="C523" s="64">
+      <c r="C523" s="51">
         <v>45894</v>
       </c>
       <c r="D523" s="13">
@@ -14988,7 +14982,7 @@
       <c r="B524" s="5">
         <v>523</v>
       </c>
-      <c r="C524" s="64">
+      <c r="C524" s="51">
         <v>45895</v>
       </c>
       <c r="D524" s="13">
@@ -15014,7 +15008,7 @@
       <c r="B525" s="5">
         <v>524</v>
       </c>
-      <c r="C525" s="64">
+      <c r="C525" s="51">
         <v>45896</v>
       </c>
       <c r="D525" s="13">
@@ -15040,7 +15034,7 @@
       <c r="B526" s="5">
         <v>525</v>
       </c>
-      <c r="C526" s="64">
+      <c r="C526" s="51">
         <v>45897</v>
       </c>
       <c r="D526" s="13">
@@ -15066,7 +15060,7 @@
       <c r="B527" s="5">
         <v>526</v>
       </c>
-      <c r="C527" s="64">
+      <c r="C527" s="51">
         <v>45898</v>
       </c>
       <c r="D527" s="13">
@@ -15092,7 +15086,7 @@
       <c r="B528" s="5">
         <v>527</v>
       </c>
-      <c r="C528" s="64">
+      <c r="C528" s="51">
         <v>45899</v>
       </c>
       <c r="D528" s="13">
@@ -15118,7 +15112,7 @@
       <c r="B529" s="5">
         <v>528</v>
       </c>
-      <c r="C529" s="64">
+      <c r="C529" s="51">
         <v>45900</v>
       </c>
       <c r="D529" s="13">
@@ -15145,7 +15139,7 @@
       <c r="B530" s="5">
         <v>529</v>
       </c>
-      <c r="C530" s="64">
+      <c r="C530" s="51">
         <v>45901</v>
       </c>
       <c r="D530" s="13">
@@ -15175,7 +15169,7 @@
       <c r="B531" s="5">
         <v>530</v>
       </c>
-      <c r="C531" s="64">
+      <c r="C531" s="51">
         <v>45902</v>
       </c>
       <c r="D531" s="13">
@@ -15202,7 +15196,7 @@
       <c r="B532" s="5">
         <v>531</v>
       </c>
-      <c r="C532" s="64">
+      <c r="C532" s="51">
         <v>45903</v>
       </c>
       <c r="D532" s="13">
@@ -15229,7 +15223,7 @@
       <c r="B533" s="5">
         <v>532</v>
       </c>
-      <c r="C533" s="64">
+      <c r="C533" s="51">
         <v>45904</v>
       </c>
       <c r="D533" s="13">
@@ -15256,7 +15250,7 @@
       <c r="B534" s="5">
         <v>533</v>
       </c>
-      <c r="C534" s="64">
+      <c r="C534" s="51">
         <v>45905</v>
       </c>
       <c r="D534" s="13">
@@ -15283,7 +15277,7 @@
       <c r="B535" s="5">
         <v>534</v>
       </c>
-      <c r="C535" s="64">
+      <c r="C535" s="51">
         <v>45906</v>
       </c>
       <c r="D535" s="13">
@@ -15310,7 +15304,7 @@
       <c r="B536" s="5">
         <v>535</v>
       </c>
-      <c r="C536" s="64">
+      <c r="C536" s="51">
         <v>45907</v>
       </c>
       <c r="D536" s="13">
@@ -15337,7 +15331,7 @@
       <c r="B537" s="5">
         <v>536</v>
       </c>
-      <c r="C537" s="64">
+      <c r="C537" s="51">
         <v>45908</v>
       </c>
       <c r="D537" s="13">
@@ -15364,7 +15358,7 @@
       <c r="B538" s="5">
         <v>537</v>
       </c>
-      <c r="C538" s="64">
+      <c r="C538" s="51">
         <v>45909</v>
       </c>
       <c r="D538" s="13">
@@ -15391,7 +15385,7 @@
       <c r="B539" s="5">
         <v>538</v>
       </c>
-      <c r="C539" s="64">
+      <c r="C539" s="51">
         <v>45910</v>
       </c>
       <c r="D539" s="13">
@@ -15418,7 +15412,7 @@
       <c r="B540" s="5">
         <v>539</v>
       </c>
-      <c r="C540" s="64">
+      <c r="C540" s="51">
         <v>45911</v>
       </c>
       <c r="D540" s="13">
@@ -15445,7 +15439,7 @@
       <c r="B541" s="5">
         <v>540</v>
       </c>
-      <c r="C541" s="64">
+      <c r="C541" s="51">
         <v>45912</v>
       </c>
       <c r="D541" s="13">
@@ -15472,7 +15466,7 @@
       <c r="B542" s="5">
         <v>541</v>
       </c>
-      <c r="C542" s="64">
+      <c r="C542" s="51">
         <v>45913</v>
       </c>
       <c r="D542" s="13">
@@ -15499,7 +15493,7 @@
       <c r="B543" s="5">
         <v>542</v>
       </c>
-      <c r="C543" s="64">
+      <c r="C543" s="51">
         <v>45914</v>
       </c>
       <c r="D543" s="13">
@@ -15526,7 +15520,7 @@
       <c r="B544" s="5">
         <v>543</v>
       </c>
-      <c r="C544" s="64">
+      <c r="C544" s="51">
         <v>45915</v>
       </c>
       <c r="D544" s="13">
@@ -15553,7 +15547,7 @@
       <c r="B545" s="5">
         <v>544</v>
       </c>
-      <c r="C545" s="64">
+      <c r="C545" s="51">
         <v>45916</v>
       </c>
       <c r="D545" s="13">
@@ -15580,7 +15574,7 @@
       <c r="B546" s="5">
         <v>545</v>
       </c>
-      <c r="C546" s="64">
+      <c r="C546" s="51">
         <v>45917</v>
       </c>
       <c r="D546" s="13">
@@ -15607,7 +15601,7 @@
       <c r="B547" s="5">
         <v>546</v>
       </c>
-      <c r="C547" s="64">
+      <c r="C547" s="51">
         <v>45918</v>
       </c>
       <c r="D547" s="13">
@@ -15634,7 +15628,7 @@
       <c r="B548" s="5">
         <v>547</v>
       </c>
-      <c r="C548" s="64">
+      <c r="C548" s="51">
         <v>45919</v>
       </c>
       <c r="D548" s="13">
@@ -15661,7 +15655,7 @@
       <c r="B549" s="5">
         <v>548</v>
       </c>
-      <c r="C549" s="64">
+      <c r="C549" s="51">
         <v>45920</v>
       </c>
       <c r="D549" s="13">
@@ -15687,7 +15681,7 @@
       <c r="B550" s="5">
         <v>549</v>
       </c>
-      <c r="C550" s="64">
+      <c r="C550" s="51">
         <v>45921</v>
       </c>
       <c r="D550" s="13">
@@ -15713,7 +15707,7 @@
       <c r="B551" s="5">
         <v>550</v>
       </c>
-      <c r="C551" s="64">
+      <c r="C551" s="51">
         <v>45922</v>
       </c>
       <c r="D551" s="13">
@@ -15740,7 +15734,7 @@
       <c r="B552" s="5">
         <v>551</v>
       </c>
-      <c r="C552" s="64">
+      <c r="C552" s="51">
         <v>45923</v>
       </c>
       <c r="D552" s="13">
@@ -15768,7 +15762,7 @@
       <c r="B553" s="5">
         <v>552</v>
       </c>
-      <c r="C553" s="64">
+      <c r="C553" s="51">
         <v>45924</v>
       </c>
       <c r="D553" s="13">
@@ -15796,7 +15790,7 @@
       <c r="B554" s="5">
         <v>553</v>
       </c>
-      <c r="C554" s="64">
+      <c r="C554" s="51">
         <v>45925</v>
       </c>
       <c r="D554" s="13">
@@ -15824,7 +15818,7 @@
       <c r="B555" s="5">
         <v>554</v>
       </c>
-      <c r="C555" s="64">
+      <c r="C555" s="51">
         <v>45926</v>
       </c>
       <c r="D555" s="13">
@@ -15852,7 +15846,7 @@
       <c r="B556" s="5">
         <v>555</v>
       </c>
-      <c r="C556" s="64">
+      <c r="C556" s="51">
         <v>45927</v>
       </c>
       <c r="D556" s="13">
@@ -15880,7 +15874,7 @@
       <c r="B557" s="5">
         <v>556</v>
       </c>
-      <c r="C557" s="64">
+      <c r="C557" s="51">
         <v>45928</v>
       </c>
       <c r="D557" s="13">
@@ -15908,7 +15902,7 @@
       <c r="B558" s="5">
         <v>557</v>
       </c>
-      <c r="C558" s="64">
+      <c r="C558" s="51">
         <v>45929</v>
       </c>
       <c r="D558" s="13">
@@ -15936,7 +15930,7 @@
       <c r="B559" s="5">
         <v>558</v>
       </c>
-      <c r="C559" s="64">
+      <c r="C559" s="51">
         <v>45930</v>
       </c>
       <c r="D559" s="13">
@@ -15966,7 +15960,7 @@
       <c r="B560" s="5">
         <v>559</v>
       </c>
-      <c r="C560" s="64">
+      <c r="C560" s="51">
         <v>45931</v>
       </c>
       <c r="D560" s="13">
@@ -15995,7 +15989,7 @@
       <c r="B561" s="5">
         <v>560</v>
       </c>
-      <c r="C561" s="64">
+      <c r="C561" s="51">
         <v>45932</v>
       </c>
       <c r="D561" s="13">
@@ -16027,7 +16021,7 @@
       <c r="B562" s="5">
         <v>561</v>
       </c>
-      <c r="C562" s="64">
+      <c r="C562" s="51">
         <v>45933</v>
       </c>
       <c r="D562" s="13">
@@ -16056,7 +16050,7 @@
       <c r="B563" s="5">
         <v>562</v>
       </c>
-      <c r="C563" s="64">
+      <c r="C563" s="51">
         <v>45934</v>
       </c>
       <c r="D563" s="13">
@@ -16085,7 +16079,7 @@
       <c r="B564" s="5">
         <v>563</v>
       </c>
-      <c r="C564" s="64">
+      <c r="C564" s="51">
         <v>45935</v>
       </c>
       <c r="D564" s="13">
@@ -16113,7 +16107,7 @@
       <c r="B565" s="5">
         <v>564</v>
       </c>
-      <c r="C565" s="64">
+      <c r="C565" s="51">
         <v>45936</v>
       </c>
       <c r="D565" s="13">
@@ -16142,7 +16136,7 @@
       <c r="B566" s="5">
         <v>565</v>
       </c>
-      <c r="C566" s="64">
+      <c r="C566" s="51">
         <v>45937</v>
       </c>
       <c r="D566" s="25">
@@ -16171,7 +16165,7 @@
       <c r="B567" s="5">
         <v>566</v>
       </c>
-      <c r="C567" s="64">
+      <c r="C567" s="51">
         <v>45938</v>
       </c>
       <c r="D567" s="25">
@@ -16200,7 +16194,7 @@
       <c r="B568" s="5">
         <v>567</v>
       </c>
-      <c r="C568" s="64">
+      <c r="C568" s="51">
         <v>45939</v>
       </c>
       <c r="D568" s="25">
@@ -16228,7 +16222,7 @@
       <c r="B569" s="5">
         <v>568</v>
       </c>
-      <c r="C569" s="64">
+      <c r="C569" s="51">
         <v>45940</v>
       </c>
       <c r="D569" s="25">
@@ -16256,7 +16250,7 @@
       <c r="B570" s="5">
         <v>569</v>
       </c>
-      <c r="C570" s="64">
+      <c r="C570" s="51">
         <v>45941</v>
       </c>
       <c r="D570" s="25">
@@ -16284,7 +16278,7 @@
       <c r="B571" s="5">
         <v>570</v>
       </c>
-      <c r="C571" s="64">
+      <c r="C571" s="51">
         <v>45942</v>
       </c>
       <c r="D571" s="25">
@@ -16312,7 +16306,7 @@
       <c r="B572" s="5">
         <v>571</v>
       </c>
-      <c r="C572" s="64">
+      <c r="C572" s="51">
         <v>45943</v>
       </c>
       <c r="D572" s="25">
@@ -16343,7 +16337,7 @@
       <c r="B573" s="5">
         <v>572</v>
       </c>
-      <c r="C573" s="64">
+      <c r="C573" s="51">
         <v>45944</v>
       </c>
       <c r="D573" s="25">
@@ -16371,7 +16365,7 @@
       <c r="B574" s="5">
         <v>573</v>
       </c>
-      <c r="C574" s="64">
+      <c r="C574" s="51">
         <v>45945</v>
       </c>
       <c r="D574" s="25">
@@ -16399,7 +16393,7 @@
       <c r="B575" s="5">
         <v>574</v>
       </c>
-      <c r="C575" s="64">
+      <c r="C575" s="51">
         <v>45946</v>
       </c>
       <c r="D575" s="25">
@@ -16427,7 +16421,7 @@
       <c r="B576" s="5">
         <v>575</v>
       </c>
-      <c r="C576" s="64">
+      <c r="C576" s="51">
         <v>45947</v>
       </c>
       <c r="D576" s="25">
@@ -16455,7 +16449,7 @@
       <c r="B577" s="5">
         <v>576</v>
       </c>
-      <c r="C577" s="64">
+      <c r="C577" s="51">
         <v>45948</v>
       </c>
       <c r="D577" s="25">
@@ -16483,7 +16477,7 @@
       <c r="B578" s="5">
         <v>577</v>
       </c>
-      <c r="C578" s="64">
+      <c r="C578" s="51">
         <v>45949</v>
       </c>
       <c r="D578" s="25">
@@ -16511,7 +16505,7 @@
       <c r="B579" s="5">
         <v>578</v>
       </c>
-      <c r="C579" s="64">
+      <c r="C579" s="51">
         <v>45950</v>
       </c>
       <c r="D579" s="25">
@@ -16542,7 +16536,7 @@
       <c r="B580" s="5">
         <v>579</v>
       </c>
-      <c r="C580" s="64">
+      <c r="C580" s="51">
         <v>45951</v>
       </c>
       <c r="D580" s="25">
@@ -16570,7 +16564,7 @@
       <c r="B581" s="5">
         <v>580</v>
       </c>
-      <c r="C581" s="64">
+      <c r="C581" s="51">
         <v>45952</v>
       </c>
       <c r="D581" s="25">
@@ -16598,7 +16592,7 @@
       <c r="B582" s="5">
         <v>581</v>
       </c>
-      <c r="C582" s="64">
+      <c r="C582" s="51">
         <v>45953</v>
       </c>
       <c r="D582" s="25">
@@ -16626,7 +16620,7 @@
       <c r="B583" s="5">
         <v>582</v>
       </c>
-      <c r="C583" s="64">
+      <c r="C583" s="51">
         <v>45954</v>
       </c>
       <c r="D583" s="25">
@@ -16654,7 +16648,7 @@
       <c r="B584" s="5">
         <v>583</v>
       </c>
-      <c r="C584" s="64">
+      <c r="C584" s="51">
         <v>45955</v>
       </c>
       <c r="D584" s="25">
@@ -16682,7 +16676,7 @@
       <c r="B585" s="5">
         <v>584</v>
       </c>
-      <c r="C585" s="64">
+      <c r="C585" s="51">
         <v>45956</v>
       </c>
       <c r="D585" s="25">
@@ -16710,7 +16704,7 @@
       <c r="B586" s="5">
         <v>585</v>
       </c>
-      <c r="C586" s="64">
+      <c r="C586" s="51">
         <v>45957</v>
       </c>
       <c r="D586" s="25">
@@ -16738,7 +16732,7 @@
       <c r="B587" s="5">
         <v>586</v>
       </c>
-      <c r="C587" s="64">
+      <c r="C587" s="51">
         <v>45958</v>
       </c>
       <c r="D587" s="25">
@@ -16766,7 +16760,7 @@
       <c r="B588" s="5">
         <v>587</v>
       </c>
-      <c r="C588" s="64">
+      <c r="C588" s="51">
         <v>45959</v>
       </c>
       <c r="D588" s="25">
@@ -16795,7 +16789,7 @@
       <c r="B589" s="5">
         <v>588</v>
       </c>
-      <c r="C589" s="64">
+      <c r="C589" s="51">
         <v>45960</v>
       </c>
       <c r="D589" s="25">
@@ -16824,7 +16818,7 @@
       <c r="B590" s="5">
         <v>589</v>
       </c>
-      <c r="C590" s="64">
+      <c r="C590" s="51">
         <v>45961</v>
       </c>
       <c r="D590">
@@ -16856,7 +16850,7 @@
       <c r="B591" s="5">
         <v>590</v>
       </c>
-      <c r="C591" s="64">
+      <c r="C591" s="51">
         <v>45962</v>
       </c>
       <c r="D591" s="37">
@@ -16885,7 +16879,7 @@
       <c r="B592" s="5">
         <v>591</v>
       </c>
-      <c r="C592" s="64">
+      <c r="C592" s="51">
         <v>45963</v>
       </c>
       <c r="D592" s="25">
@@ -16917,7 +16911,7 @@
       <c r="B593" s="5">
         <v>592</v>
       </c>
-      <c r="C593" s="64">
+      <c r="C593" s="51">
         <v>45964</v>
       </c>
       <c r="D593" s="25">
@@ -16946,7 +16940,7 @@
       <c r="B594" s="5">
         <v>593</v>
       </c>
-      <c r="C594" s="64">
+      <c r="C594" s="51">
         <v>45965</v>
       </c>
       <c r="D594" s="25">
@@ -16978,7 +16972,7 @@
       <c r="B595" s="5">
         <v>594</v>
       </c>
-      <c r="C595" s="64">
+      <c r="C595" s="51">
         <v>45966</v>
       </c>
       <c r="D595" s="25">
@@ -17007,7 +17001,7 @@
       <c r="B596" s="5">
         <v>595</v>
       </c>
-      <c r="C596" s="64">
+      <c r="C596" s="51">
         <v>45967</v>
       </c>
       <c r="D596" s="25">
@@ -17036,7 +17030,7 @@
       <c r="B597" s="5">
         <v>596</v>
       </c>
-      <c r="C597" s="64">
+      <c r="C597" s="51">
         <v>45968</v>
       </c>
       <c r="D597" s="37">
@@ -17065,7 +17059,7 @@
       <c r="B598" s="5">
         <v>597</v>
       </c>
-      <c r="C598" s="64">
+      <c r="C598" s="51">
         <v>45969</v>
       </c>
       <c r="D598" s="37">
@@ -17094,7 +17088,7 @@
       <c r="B599" s="5">
         <v>598</v>
       </c>
-      <c r="C599" s="64">
+      <c r="C599" s="51">
         <v>45970</v>
       </c>
       <c r="D599" s="25">
@@ -17123,7 +17117,7 @@
       <c r="B600" s="5">
         <v>599</v>
       </c>
-      <c r="C600" s="64">
+      <c r="C600" s="51">
         <v>45971</v>
       </c>
       <c r="D600" s="25">
@@ -17152,7 +17146,7 @@
       <c r="B601" s="5">
         <v>600</v>
       </c>
-      <c r="C601" s="64">
+      <c r="C601" s="51">
         <v>45972</v>
       </c>
       <c r="D601" s="25">
@@ -17184,7 +17178,7 @@
       <c r="B602" s="5">
         <v>601</v>
       </c>
-      <c r="C602" s="64">
+      <c r="C602" s="51">
         <v>45973</v>
       </c>
       <c r="D602" s="25">
@@ -17213,7 +17207,7 @@
       <c r="B603" s="5">
         <v>602</v>
       </c>
-      <c r="C603" s="64">
+      <c r="C603" s="51">
         <v>45974</v>
       </c>
       <c r="D603" s="25">
@@ -17242,7 +17236,7 @@
       <c r="B604" s="5">
         <v>603</v>
       </c>
-      <c r="C604" s="64">
+      <c r="C604" s="51">
         <v>45975</v>
       </c>
       <c r="D604" s="13">
@@ -17268,7 +17262,7 @@
       <c r="B605" s="5">
         <v>604</v>
       </c>
-      <c r="C605" s="64">
+      <c r="C605" s="51">
         <v>45976</v>
       </c>
       <c r="D605" s="13">
@@ -17294,7 +17288,7 @@
       <c r="B606" s="5">
         <v>605</v>
       </c>
-      <c r="C606" s="64">
+      <c r="C606" s="51">
         <v>45977</v>
       </c>
       <c r="D606" s="13">
@@ -17320,7 +17314,7 @@
       <c r="B607" s="5">
         <v>606</v>
       </c>
-      <c r="C607" s="64">
+      <c r="C607" s="51">
         <v>45978</v>
       </c>
       <c r="D607" s="13">
@@ -17346,7 +17340,7 @@
       <c r="B608" s="5">
         <v>607</v>
       </c>
-      <c r="C608" s="64">
+      <c r="C608" s="51">
         <v>45979</v>
       </c>
       <c r="D608" s="13">
@@ -17372,7 +17366,7 @@
       <c r="B609" s="5">
         <v>608</v>
       </c>
-      <c r="C609" s="64">
+      <c r="C609" s="51">
         <v>45980</v>
       </c>
       <c r="D609" s="13">
@@ -17398,7 +17392,7 @@
       <c r="B610" s="5">
         <v>609</v>
       </c>
-      <c r="C610" s="64">
+      <c r="C610" s="51">
         <v>45981</v>
       </c>
       <c r="D610" s="13">
@@ -17424,7 +17418,7 @@
       <c r="B611" s="5">
         <v>610</v>
       </c>
-      <c r="C611" s="64">
+      <c r="C611" s="51">
         <v>45982</v>
       </c>
       <c r="D611" s="13">
@@ -17450,7 +17444,7 @@
       <c r="B612" s="5">
         <v>611</v>
       </c>
-      <c r="C612" s="64">
+      <c r="C612" s="51">
         <v>45983</v>
       </c>
       <c r="D612" s="13">
@@ -17476,7 +17470,7 @@
       <c r="B613" s="5">
         <v>612</v>
       </c>
-      <c r="C613" s="64">
+      <c r="C613" s="51">
         <v>45984</v>
       </c>
       <c r="D613" s="13">
@@ -17502,7 +17496,7 @@
       <c r="B614" s="5">
         <v>613</v>
       </c>
-      <c r="C614" s="64">
+      <c r="C614" s="51">
         <v>45985</v>
       </c>
       <c r="D614" s="13">
@@ -17528,7 +17522,7 @@
       <c r="B615" s="5">
         <v>614</v>
       </c>
-      <c r="C615" s="64">
+      <c r="C615" s="51">
         <v>45986</v>
       </c>
       <c r="D615" s="13">
@@ -17554,7 +17548,7 @@
       <c r="B616" s="5">
         <v>615</v>
       </c>
-      <c r="C616" s="64">
+      <c r="C616" s="51">
         <v>45987</v>
       </c>
       <c r="D616" s="13">
@@ -17580,7 +17574,7 @@
       <c r="B617" s="5">
         <v>616</v>
       </c>
-      <c r="C617" s="64">
+      <c r="C617" s="51">
         <v>45988</v>
       </c>
       <c r="D617" s="13">
@@ -17609,7 +17603,7 @@
       <c r="B618" s="5">
         <v>617</v>
       </c>
-      <c r="C618" s="64">
+      <c r="C618" s="51">
         <v>45989</v>
       </c>
       <c r="D618" s="13">
@@ -17638,7 +17632,7 @@
       <c r="B619" s="5">
         <v>618</v>
       </c>
-      <c r="C619" s="64">
+      <c r="C619" s="51">
         <v>45990</v>
       </c>
       <c r="D619" s="13">
@@ -17664,7 +17658,7 @@
       <c r="B620" s="5">
         <v>619</v>
       </c>
-      <c r="C620" s="64">
+      <c r="C620" s="51">
         <v>45991</v>
       </c>
       <c r="D620" s="13">
@@ -17691,7 +17685,7 @@
       <c r="B621" s="5">
         <v>620</v>
       </c>
-      <c r="C621" s="64">
+      <c r="C621" s="51">
         <v>45992</v>
       </c>
       <c r="D621" s="13">
@@ -17718,7 +17712,7 @@
       <c r="B622" s="5">
         <v>621</v>
       </c>
-      <c r="C622" s="64">
+      <c r="C622" s="51">
         <v>45993</v>
       </c>
       <c r="D622" s="13">
@@ -17745,7 +17739,7 @@
       <c r="B623" s="5">
         <v>622</v>
       </c>
-      <c r="C623" s="64">
+      <c r="C623" s="51">
         <v>45994</v>
       </c>
       <c r="D623" s="13">
@@ -17772,7 +17766,7 @@
       <c r="B624" s="5">
         <v>623</v>
       </c>
-      <c r="C624" s="64">
+      <c r="C624" s="51">
         <v>45995</v>
       </c>
       <c r="D624" s="13">
@@ -17799,7 +17793,7 @@
       <c r="B625" s="5">
         <v>624</v>
       </c>
-      <c r="C625" s="64">
+      <c r="C625" s="51">
         <v>45996</v>
       </c>
       <c r="D625" s="13">
@@ -17826,7 +17820,7 @@
       <c r="B626" s="5">
         <v>625</v>
       </c>
-      <c r="C626" s="64">
+      <c r="C626" s="51">
         <v>45997</v>
       </c>
       <c r="D626" s="13">
@@ -17853,7 +17847,7 @@
       <c r="B627" s="5">
         <v>626</v>
       </c>
-      <c r="C627" s="64">
+      <c r="C627" s="51">
         <v>45998</v>
       </c>
       <c r="D627" s="13">
@@ -17880,7 +17874,7 @@
       <c r="B628" s="5">
         <v>627</v>
       </c>
-      <c r="C628" s="64">
+      <c r="C628" s="51">
         <v>45999</v>
       </c>
       <c r="D628" s="13">
@@ -17907,7 +17901,7 @@
       <c r="B629" s="5">
         <v>628</v>
       </c>
-      <c r="C629" s="64">
+      <c r="C629" s="51">
         <v>46000</v>
       </c>
       <c r="D629" s="13">
@@ -17935,7 +17929,7 @@
       <c r="B630" s="5">
         <v>629</v>
       </c>
-      <c r="C630" s="64">
+      <c r="C630" s="51">
         <v>46001</v>
       </c>
       <c r="D630" s="13">
@@ -17963,7 +17957,7 @@
       <c r="B631" s="5">
         <v>630</v>
       </c>
-      <c r="C631" s="64">
+      <c r="C631" s="51">
         <v>46002</v>
       </c>
       <c r="D631" s="13">
@@ -17991,7 +17985,7 @@
       <c r="B632" s="5">
         <v>631</v>
       </c>
-      <c r="C632" s="64">
+      <c r="C632" s="51">
         <v>46003</v>
       </c>
       <c r="D632" s="13">
@@ -18019,7 +18013,7 @@
       <c r="B633" s="5">
         <v>632</v>
       </c>
-      <c r="C633" s="64">
+      <c r="C633" s="51">
         <v>46004</v>
       </c>
       <c r="D633" s="13">
@@ -18047,7 +18041,7 @@
       <c r="B634" s="5">
         <v>633</v>
       </c>
-      <c r="C634" s="64">
+      <c r="C634" s="51">
         <v>46005</v>
       </c>
       <c r="D634" s="13">
@@ -18075,7 +18069,7 @@
       <c r="B635" s="5">
         <v>634</v>
       </c>
-      <c r="C635" s="64">
+      <c r="C635" s="51">
         <v>46006</v>
       </c>
       <c r="D635" s="13">
@@ -18103,7 +18097,7 @@
       <c r="B636" s="5">
         <v>635</v>
       </c>
-      <c r="C636" s="64">
+      <c r="C636" s="51">
         <v>46007</v>
       </c>
       <c r="D636" s="13">
@@ -18131,7 +18125,7 @@
       <c r="B637" s="5">
         <v>636</v>
       </c>
-      <c r="C637" s="64">
+      <c r="C637" s="51">
         <v>46008</v>
       </c>
       <c r="D637" s="13">
@@ -18159,7 +18153,7 @@
       <c r="B638" s="5">
         <v>637</v>
       </c>
-      <c r="C638" s="64">
+      <c r="C638" s="51">
         <v>46009</v>
       </c>
       <c r="D638" s="13">
@@ -18187,7 +18181,7 @@
       <c r="B639" s="5">
         <v>638</v>
       </c>
-      <c r="C639" s="64">
+      <c r="C639" s="51">
         <v>46010</v>
       </c>
       <c r="D639" s="13">
@@ -18215,7 +18209,7 @@
       <c r="B640" s="5">
         <v>639</v>
       </c>
-      <c r="C640" s="64">
+      <c r="C640" s="51">
         <v>46011</v>
       </c>
       <c r="D640" s="13">
@@ -18243,7 +18237,7 @@
       <c r="B641" s="5">
         <v>640</v>
       </c>
-      <c r="C641" s="64">
+      <c r="C641" s="51">
         <v>46012</v>
       </c>
       <c r="D641" s="13">
@@ -18271,7 +18265,7 @@
       <c r="B642" s="5">
         <v>641</v>
       </c>
-      <c r="C642" s="64">
+      <c r="C642" s="51">
         <v>46013</v>
       </c>
       <c r="D642" s="13">
@@ -18299,7 +18293,7 @@
       <c r="B643" s="5">
         <v>642</v>
       </c>
-      <c r="C643" s="64">
+      <c r="C643" s="51">
         <v>46014</v>
       </c>
       <c r="D643" s="13">
@@ -18327,7 +18321,7 @@
       <c r="B644" s="5">
         <v>643</v>
       </c>
-      <c r="C644" s="64">
+      <c r="C644" s="51">
         <v>46015</v>
       </c>
       <c r="D644" s="13">
@@ -18358,7 +18352,7 @@
       <c r="B645" s="5">
         <v>644</v>
       </c>
-      <c r="C645" s="64">
+      <c r="C645" s="51">
         <v>46016</v>
       </c>
       <c r="D645" s="13">
@@ -18389,7 +18383,7 @@
       <c r="B646" s="5">
         <v>645</v>
       </c>
-      <c r="C646" s="64">
+      <c r="C646" s="51">
         <v>46017</v>
       </c>
       <c r="D646" s="13">
@@ -18420,7 +18414,7 @@
       <c r="B647" s="5">
         <v>646</v>
       </c>
-      <c r="C647" s="64">
+      <c r="C647" s="51">
         <v>46018</v>
       </c>
       <c r="D647" s="13">
@@ -18448,7 +18442,7 @@
       <c r="B648" s="5">
         <v>647</v>
       </c>
-      <c r="C648" s="64">
+      <c r="C648" s="51">
         <v>46019</v>
       </c>
       <c r="D648" s="13">
@@ -18476,7 +18470,7 @@
       <c r="B649" s="5">
         <v>648</v>
       </c>
-      <c r="C649" s="64">
+      <c r="C649" s="51">
         <v>46020</v>
       </c>
       <c r="D649" s="13">
@@ -18504,7 +18498,7 @@
       <c r="B650" s="5">
         <v>649</v>
       </c>
-      <c r="C650" s="64">
+      <c r="C650" s="51">
         <v>46021</v>
       </c>
       <c r="D650" s="13">
@@ -18532,7 +18526,7 @@
       <c r="B651" s="5">
         <v>650</v>
       </c>
-      <c r="C651" s="64">
+      <c r="C651" s="51">
         <v>46022</v>
       </c>
       <c r="D651" s="13">
@@ -18563,11 +18557,11 @@
       <c r="B652" s="5">
         <v>651</v>
       </c>
-      <c r="C652" s="64">
+      <c r="C652" s="51">
         <v>46023</v>
       </c>
       <c r="D652" s="13">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="E652" s="8">
         <v>28.9</v>
@@ -18583,9 +18577,6 @@
       </c>
       <c r="I652" s="40" t="s">
         <v>31</v>
-      </c>
-      <c r="J652" s="8">
-        <v>8.77</v>
       </c>
     </row>
     <row r="653" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18595,11 +18586,11 @@
       <c r="B653" s="5">
         <v>652</v>
       </c>
-      <c r="C653" s="64">
+      <c r="C653" s="51">
         <v>46024</v>
       </c>
       <c r="D653" s="13">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E653" s="8">
         <v>30.4</v>
@@ -18612,9 +18603,6 @@
       </c>
       <c r="H653" s="8">
         <v>9.6</v>
-      </c>
-      <c r="J653" s="8">
-        <v>23.545000000000002</v>
       </c>
     </row>
     <row r="654" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18624,11 +18612,11 @@
       <c r="B654" s="5">
         <v>653</v>
       </c>
-      <c r="C654" s="64">
+      <c r="C654" s="51">
         <v>46025</v>
       </c>
       <c r="D654" s="13">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E654" s="8">
         <v>30.7</v>
@@ -18641,9 +18629,6 @@
       </c>
       <c r="H654" s="8">
         <v>11.4</v>
-      </c>
-      <c r="J654" s="8">
-        <v>13.745000000000001</v>
       </c>
     </row>
     <row r="655" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18653,11 +18638,11 @@
       <c r="B655" s="5">
         <v>654</v>
       </c>
-      <c r="C655" s="64">
+      <c r="C655" s="51">
         <v>46026</v>
       </c>
       <c r="D655" s="13">
-        <v>127.5</v>
+        <v>41</v>
       </c>
       <c r="E655" s="8">
         <v>29.2</v>
@@ -18670,9 +18655,6 @@
       </c>
       <c r="H655" s="8">
         <v>14</v>
-      </c>
-      <c r="J655" s="8">
-        <v>16.829999999999998</v>
       </c>
     </row>
     <row r="656" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18682,11 +18664,11 @@
       <c r="B656" s="5">
         <v>655</v>
       </c>
-      <c r="C656" s="64">
+      <c r="C656" s="51">
         <v>46027</v>
       </c>
       <c r="D656" s="13">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E656" s="8">
         <v>37.1</v>
@@ -18699,9 +18681,6 @@
       </c>
       <c r="H656" s="8">
         <v>15</v>
-      </c>
-      <c r="J656" s="8">
-        <v>10.530000000000001</v>
       </c>
     </row>
     <row r="657" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18711,11 +18690,11 @@
       <c r="B657" s="5">
         <v>656</v>
       </c>
-      <c r="C657" s="64">
+      <c r="C657" s="51">
         <v>46028</v>
       </c>
       <c r="D657" s="13">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E657" s="8">
         <v>39.700000000000003</v>
@@ -18728,9 +18707,6 @@
       </c>
       <c r="H657" s="8">
         <v>14</v>
-      </c>
-      <c r="J657" s="8">
-        <v>7.94</v>
       </c>
     </row>
     <row r="658" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18740,7 +18716,7 @@
       <c r="B658" s="5">
         <v>657</v>
       </c>
-      <c r="C658" s="64">
+      <c r="C658" s="51">
         <v>46029</v>
       </c>
       <c r="D658" s="13">
@@ -18769,7 +18745,7 @@
       <c r="B659" s="5">
         <v>658</v>
       </c>
-      <c r="C659" s="64">
+      <c r="C659" s="51">
         <v>46030</v>
       </c>
       <c r="D659" s="13">
@@ -18798,7 +18774,7 @@
       <c r="B660" s="5">
         <v>659</v>
       </c>
-      <c r="C660" s="64">
+      <c r="C660" s="51">
         <v>46031</v>
       </c>
       <c r="D660" s="13">
@@ -18827,7 +18803,7 @@
       <c r="B661" s="5">
         <v>660</v>
       </c>
-      <c r="C661" s="64">
+      <c r="C661" s="51">
         <v>46032</v>
       </c>
       <c r="D661" s="13">
@@ -18856,7 +18832,7 @@
       <c r="B662" s="5">
         <v>661</v>
       </c>
-      <c r="C662" s="64">
+      <c r="C662" s="51">
         <v>46033</v>
       </c>
       <c r="D662" s="13">
@@ -18885,7 +18861,7 @@
       <c r="B663" s="5">
         <v>662</v>
       </c>
-      <c r="C663" s="64">
+      <c r="C663" s="51">
         <v>46034</v>
       </c>
       <c r="D663" s="13">
@@ -18914,7 +18890,7 @@
       <c r="B664" s="5">
         <v>663</v>
       </c>
-      <c r="C664" s="64">
+      <c r="C664" s="51">
         <v>46035</v>
       </c>
       <c r="D664" s="13">
@@ -18943,7 +18919,7 @@
       <c r="B665" s="5">
         <v>664</v>
       </c>
-      <c r="C665" s="64">
+      <c r="C665" s="51">
         <v>46036</v>
       </c>
       <c r="D665" s="13">
@@ -18972,7 +18948,7 @@
       <c r="B666" s="5">
         <v>665</v>
       </c>
-      <c r="C666" s="64">
+      <c r="C666" s="51">
         <v>46037</v>
       </c>
       <c r="D666" s="13">
@@ -19001,7 +18977,7 @@
       <c r="B667" s="5">
         <v>666</v>
       </c>
-      <c r="C667" s="64">
+      <c r="C667" s="51">
         <v>46038</v>
       </c>
       <c r="D667" s="13">
@@ -19030,7 +19006,7 @@
       <c r="B668" s="5">
         <v>667</v>
       </c>
-      <c r="C668" s="64">
+      <c r="C668" s="51">
         <v>46039</v>
       </c>
       <c r="D668" s="13">
@@ -19059,7 +19035,7 @@
       <c r="B669" s="5">
         <v>668</v>
       </c>
-      <c r="C669" s="64">
+      <c r="C669" s="51">
         <v>46040</v>
       </c>
       <c r="D669" s="13">
@@ -19088,7 +19064,7 @@
       <c r="B670" s="5">
         <v>669</v>
       </c>
-      <c r="C670" s="64">
+      <c r="C670" s="51">
         <v>46041</v>
       </c>
       <c r="D670" s="13">
@@ -19120,7 +19096,7 @@
       <c r="B671" s="5">
         <v>670</v>
       </c>
-      <c r="C671" s="64">
+      <c r="C671" s="51">
         <v>46042</v>
       </c>
       <c r="D671" s="13">
@@ -19149,7 +19125,7 @@
       <c r="B672" s="5">
         <v>671</v>
       </c>
-      <c r="C672" s="64">
+      <c r="C672" s="51">
         <v>46043</v>
       </c>
       <c r="D672" s="13">
@@ -19178,7 +19154,7 @@
       <c r="B673" s="5">
         <v>672</v>
       </c>
-      <c r="C673" s="64">
+      <c r="C673" s="51">
         <v>46044</v>
       </c>
       <c r="D673" s="13">
@@ -19207,7 +19183,7 @@
       <c r="B674" s="5">
         <v>673</v>
       </c>
-      <c r="C674" s="64">
+      <c r="C674" s="51">
         <v>46045</v>
       </c>
       <c r="D674" s="13">
@@ -19236,7 +19212,7 @@
       <c r="B675" s="5">
         <v>674</v>
       </c>
-      <c r="C675" s="64">
+      <c r="C675" s="51">
         <v>46046</v>
       </c>
       <c r="D675" s="13">
@@ -19265,7 +19241,7 @@
       <c r="B676" s="5">
         <v>675</v>
       </c>
-      <c r="C676" s="64">
+      <c r="C676" s="51">
         <v>46047</v>
       </c>
       <c r="D676" s="13">
@@ -19294,7 +19270,7 @@
       <c r="B677" s="5">
         <v>676</v>
       </c>
-      <c r="C677" s="64">
+      <c r="C677" s="51">
         <v>46048</v>
       </c>
       <c r="D677" s="13">
@@ -19323,7 +19299,7 @@
       <c r="B678" s="5">
         <v>677</v>
       </c>
-      <c r="C678" s="64">
+      <c r="C678" s="51">
         <v>46049</v>
       </c>
       <c r="D678" s="13">
@@ -19352,7 +19328,7 @@
       <c r="B679" s="5">
         <v>678</v>
       </c>
-      <c r="C679" s="64">
+      <c r="C679" s="51">
         <v>46050</v>
       </c>
       <c r="D679" s="13">
@@ -19381,7 +19357,7 @@
       <c r="B680" s="5">
         <v>679</v>
       </c>
-      <c r="C680" s="64">
+      <c r="C680" s="51">
         <v>46051</v>
       </c>
       <c r="D680" s="13">
@@ -19410,7 +19386,7 @@
       <c r="B681" s="5">
         <v>680</v>
       </c>
-      <c r="C681" s="64">
+      <c r="C681" s="51">
         <v>46052</v>
       </c>
       <c r="D681" s="13">
@@ -19439,7 +19415,7 @@
       <c r="B682" s="5">
         <v>681</v>
       </c>
-      <c r="C682" s="64">
+      <c r="C682" s="51">
         <v>46053</v>
       </c>
       <c r="D682" s="13">
@@ -19468,7 +19444,7 @@
       <c r="B683" s="5">
         <v>682</v>
       </c>
-      <c r="C683" s="64">
+      <c r="C683" s="51">
         <v>46054</v>
       </c>
       <c r="D683" s="13">
@@ -19497,7 +19473,7 @@
       <c r="B684" s="5">
         <v>683</v>
       </c>
-      <c r="C684" s="64">
+      <c r="C684" s="51">
         <v>46055</v>
       </c>
       <c r="D684" s="13">
@@ -19526,7 +19502,7 @@
       <c r="B685" s="5">
         <v>684</v>
       </c>
-      <c r="C685" s="64">
+      <c r="C685" s="51">
         <v>46056</v>
       </c>
       <c r="D685" s="13">
@@ -19555,7 +19531,7 @@
       <c r="B686" s="5">
         <v>685</v>
       </c>
-      <c r="C686" s="64">
+      <c r="C686" s="51">
         <v>46057</v>
       </c>
       <c r="D686" s="13">
@@ -19584,7 +19560,7 @@
       <c r="B687" s="5">
         <v>686</v>
       </c>
-      <c r="C687" s="64">
+      <c r="C687" s="51">
         <v>46058</v>
       </c>
       <c r="D687" s="13">
@@ -19613,7 +19589,7 @@
       <c r="B688" s="5">
         <v>687</v>
       </c>
-      <c r="C688" s="64">
+      <c r="C688" s="51">
         <v>46059</v>
       </c>
       <c r="D688" s="13">
@@ -19642,7 +19618,7 @@
       <c r="B689" s="5">
         <v>688</v>
       </c>
-      <c r="C689" s="64">
+      <c r="C689" s="51">
         <v>46060</v>
       </c>
       <c r="D689" s="13">
@@ -19671,7 +19647,7 @@
       <c r="B690" s="5">
         <v>689</v>
       </c>
-      <c r="C690" s="64">
+      <c r="C690" s="51">
         <v>46061</v>
       </c>
       <c r="D690" s="13">
@@ -19703,7 +19679,7 @@
       <c r="B691" s="5">
         <v>690</v>
       </c>
-      <c r="C691" s="64">
+      <c r="C691" s="51">
         <v>46062</v>
       </c>
       <c r="D691" s="13">
@@ -19732,7 +19708,7 @@
       <c r="B692" s="5">
         <v>691</v>
       </c>
-      <c r="C692" s="64">
+      <c r="C692" s="51">
         <v>46063</v>
       </c>
       <c r="D692" s="13">
@@ -19761,7 +19737,7 @@
       <c r="B693" s="5">
         <v>692</v>
       </c>
-      <c r="C693" s="64">
+      <c r="C693" s="51">
         <v>46064</v>
       </c>
       <c r="D693" s="13">
@@ -19790,7 +19766,7 @@
       <c r="B694" s="5">
         <v>693</v>
       </c>
-      <c r="C694" s="64">
+      <c r="C694" s="51">
         <v>46065</v>
       </c>
       <c r="D694" s="13">
@@ -19819,7 +19795,7 @@
       <c r="B695" s="5">
         <v>694</v>
       </c>
-      <c r="C695" s="64">
+      <c r="C695" s="51">
         <v>46066</v>
       </c>
       <c r="D695" s="13">
@@ -19848,7 +19824,7 @@
       <c r="B696" s="5">
         <v>695</v>
       </c>
-      <c r="C696" s="64">
+      <c r="C696" s="51">
         <v>46067</v>
       </c>
       <c r="D696" s="13">
@@ -19880,7 +19856,7 @@
       <c r="B697" s="5">
         <v>696</v>
       </c>
-      <c r="C697" s="64">
+      <c r="C697" s="51">
         <v>46068</v>
       </c>
       <c r="D697" s="13">
@@ -19909,7 +19885,7 @@
       <c r="B698" s="5">
         <v>697</v>
       </c>
-      <c r="C698" s="64">
+      <c r="C698" s="51">
         <v>46069</v>
       </c>
       <c r="D698" s="13">
@@ -19941,7 +19917,7 @@
       <c r="B699" s="5">
         <v>698</v>
       </c>
-      <c r="C699" s="64">
+      <c r="C699" s="51">
         <v>46070</v>
       </c>
       <c r="D699" s="13">
@@ -19970,7 +19946,7 @@
       <c r="B700" s="5">
         <v>699</v>
       </c>
-      <c r="C700" s="64">
+      <c r="C700" s="51">
         <v>46071</v>
       </c>
       <c r="D700" s="13">
@@ -20002,7 +19978,7 @@
       <c r="B701" s="5">
         <v>700</v>
       </c>
-      <c r="C701" s="64">
+      <c r="C701" s="51">
         <v>46072</v>
       </c>
       <c r="D701" s="13">
@@ -20031,7 +20007,7 @@
       <c r="B702" s="5">
         <v>701</v>
       </c>
-      <c r="C702" s="64">
+      <c r="C702" s="51">
         <v>46073</v>
       </c>
       <c r="D702" s="13">
@@ -20063,7 +20039,7 @@
       <c r="B703" s="5">
         <v>702</v>
       </c>
-      <c r="C703" s="64">
+      <c r="C703" s="51">
         <v>46074</v>
       </c>
       <c r="D703" s="13">
@@ -20092,7 +20068,7 @@
       <c r="B704" s="5">
         <v>703</v>
       </c>
-      <c r="C704" s="64">
+      <c r="C704" s="51">
         <v>46075</v>
       </c>
       <c r="D704" s="13">
@@ -20121,7 +20097,7 @@
       <c r="B705" s="5">
         <v>704</v>
       </c>
-      <c r="C705" s="64">
+      <c r="C705" s="51">
         <v>46076</v>
       </c>
       <c r="D705" s="13">
@@ -20150,7 +20126,7 @@
       <c r="B706" s="5">
         <v>705</v>
       </c>
-      <c r="C706" s="64">
+      <c r="C706" s="51">
         <v>46077</v>
       </c>
       <c r="D706" s="13">
@@ -20179,7 +20155,7 @@
       <c r="B707" s="5">
         <v>706</v>
       </c>
-      <c r="C707" s="64">
+      <c r="C707" s="51">
         <v>46078</v>
       </c>
       <c r="D707" s="13">
@@ -20208,7 +20184,7 @@
       <c r="B708" s="5">
         <v>707</v>
       </c>
-      <c r="C708" s="64">
+      <c r="C708" s="51">
         <v>46079</v>
       </c>
       <c r="D708" s="13">
@@ -20237,7 +20213,7 @@
       <c r="B709" s="5">
         <v>708</v>
       </c>
-      <c r="C709" s="64">
+      <c r="C709" s="51">
         <v>46080</v>
       </c>
       <c r="D709" s="13">
@@ -20269,7 +20245,7 @@
       <c r="B710" s="5">
         <v>709</v>
       </c>
-      <c r="C710" s="64">
+      <c r="C710" s="51">
         <v>46081</v>
       </c>
       <c r="D710" s="13">
@@ -20298,7 +20274,7 @@
       <c r="B711" s="5">
         <v>710</v>
       </c>
-      <c r="C711" s="64">
+      <c r="C711" s="51">
         <v>46082</v>
       </c>
       <c r="D711" s="13">
@@ -20327,7 +20303,7 @@
       <c r="B712" s="5">
         <v>711</v>
       </c>
-      <c r="C712" s="64">
+      <c r="C712" s="51">
         <v>46083</v>
       </c>
       <c r="E712" s="8">
@@ -20350,7 +20326,7 @@
       <c r="B713" s="5">
         <v>712</v>
       </c>
-      <c r="C713" s="64">
+      <c r="C713" s="51">
         <v>46084</v>
       </c>
       <c r="E713" s="8">
@@ -20373,7 +20349,7 @@
       <c r="B714" s="5">
         <v>713</v>
       </c>
-      <c r="C714" s="64">
+      <c r="C714" s="51">
         <v>46085</v>
       </c>
       <c r="E714" s="8">
@@ -20396,7 +20372,7 @@
       <c r="B715" s="5">
         <v>714</v>
       </c>
-      <c r="C715" s="64">
+      <c r="C715" s="51">
         <v>46086</v>
       </c>
       <c r="E715" s="8">
@@ -20419,7 +20395,7 @@
       <c r="B716" s="5">
         <v>715</v>
       </c>
-      <c r="C716" s="64">
+      <c r="C716" s="51">
         <v>46087</v>
       </c>
       <c r="E716" s="8">
@@ -20445,7 +20421,7 @@
       <c r="B717" s="5">
         <v>716</v>
       </c>
-      <c r="C717" s="64">
+      <c r="C717" s="51">
         <v>46088</v>
       </c>
       <c r="E717" s="8">
@@ -20490,40 +20466,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="49">
+      <c r="C2" s="55">
         <v>0.85</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
@@ -30233,69 +30209,69 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>72</v>
       </c>
-      <c r="B175" s="60">
+      <c r="B175" s="21">
         <v>46000</v>
       </c>
-      <c r="C175" s="59">
+      <c r="C175">
         <v>55</v>
       </c>
-      <c r="D175" s="59">
+      <c r="D175">
         <v>60</v>
       </c>
-      <c r="E175" s="59">
+      <c r="E175">
         <v>45</v>
       </c>
-      <c r="F175" s="59">
+      <c r="F175">
         <v>59</v>
       </c>
-      <c r="G175" s="59">
+      <c r="G175">
         <v>43</v>
       </c>
-      <c r="H175" s="59">
+      <c r="H175">
         <v>59</v>
       </c>
-      <c r="I175" s="59">
+      <c r="I175">
         <v>62</v>
       </c>
-      <c r="J175" s="59">
+      <c r="J175">
         <v>65</v>
       </c>
-      <c r="K175" s="59">
+      <c r="K175">
         <v>54</v>
       </c>
-      <c r="L175" s="59">
+      <c r="L175">
         <v>58</v>
       </c>
-      <c r="M175" s="59">
+      <c r="M175">
         <v>60</v>
       </c>
-      <c r="N175" s="59">
+      <c r="N175">
         <v>59</v>
       </c>
-      <c r="O175" s="61">
+      <c r="O175" s="19">
         <f t="shared" si="34"/>
         <v>57</v>
       </c>
-      <c r="P175" s="61">
+      <c r="P175" s="19">
         <f t="shared" si="35"/>
         <v>6.05</v>
       </c>
-      <c r="R175" s="62">
+      <c r="R175" s="25">
         <f t="shared" si="32"/>
         <v>-15</v>
       </c>
-      <c r="S175" s="59">
+      <c r="S175">
         <f t="shared" si="33"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="T175" s="59">
+      <c r="T175">
         <v>62</v>
       </c>
-      <c r="U175" s="59">
+      <c r="U175">
         <v>53</v>
       </c>
     </row>
@@ -30350,11 +30326,11 @@
         <f t="shared" si="35"/>
         <v>16.91</v>
       </c>
-      <c r="R176" s="62">
+      <c r="R176" s="25">
         <f t="shared" si="32"/>
         <v>40</v>
       </c>
-      <c r="S176" s="59">
+      <c r="S176">
         <f t="shared" si="33"/>
         <v>1.930232558139535</v>
       </c>
@@ -30416,11 +30392,11 @@
         <f t="shared" si="35"/>
         <v>16.440000000000001</v>
       </c>
-      <c r="R177" s="62">
+      <c r="R177" s="25">
         <f t="shared" si="32"/>
         <v>-2</v>
       </c>
-      <c r="S177" s="59">
+      <c r="S177">
         <f t="shared" si="33"/>
         <v>0.98</v>
       </c>
@@ -30482,11 +30458,11 @@
         <f t="shared" si="35"/>
         <v>17.25</v>
       </c>
-      <c r="R178" s="62">
+      <c r="R178" s="25">
         <f t="shared" si="32"/>
         <v>-45</v>
       </c>
-      <c r="S178" s="59">
+      <c r="S178">
         <f t="shared" si="33"/>
         <v>0.74431818181818177</v>
       </c>
@@ -30548,11 +30524,11 @@
         <f t="shared" si="35"/>
         <v>17.2</v>
       </c>
-      <c r="R179" s="62">
+      <c r="R179" s="25">
         <f t="shared" si="32"/>
         <v>23</v>
       </c>
-      <c r="S179" s="59">
+      <c r="S179">
         <f t="shared" si="33"/>
         <v>1.1513157894736843</v>
       </c>
@@ -30614,11 +30590,11 @@
         <f t="shared" si="35"/>
         <v>15.87</v>
       </c>
-      <c r="R180" s="62">
+      <c r="R180" s="25">
         <f t="shared" si="32"/>
         <v>27</v>
       </c>
-      <c r="S180" s="59">
+      <c r="S180">
         <f t="shared" si="33"/>
         <v>1.6428571428571428</v>
       </c>
@@ -30680,11 +30656,11 @@
         <f t="shared" si="35"/>
         <v>11.4</v>
       </c>
-      <c r="R181" s="62">
+      <c r="R181" s="25">
         <f t="shared" si="32"/>
         <v>34</v>
       </c>
-      <c r="S181" s="59">
+      <c r="S181">
         <f t="shared" si="33"/>
         <v>2.3076923076923075</v>
       </c>
@@ -30746,11 +30722,11 @@
         <f t="shared" si="35"/>
         <v>8.7100000000000009</v>
       </c>
-      <c r="R182" s="62">
+      <c r="R182" s="25">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="S182" s="59">
+      <c r="S182">
         <f t="shared" si="33"/>
         <v>1.0344827586206897</v>
       </c>
@@ -30812,11 +30788,11 @@
         <f t="shared" si="35"/>
         <v>14.02</v>
       </c>
-      <c r="R183" s="62">
+      <c r="R183" s="25">
         <f t="shared" si="32"/>
         <v>26</v>
       </c>
-      <c r="S183" s="59">
+      <c r="S183">
         <f t="shared" si="33"/>
         <v>1.3880597014925373</v>
       </c>
@@ -30878,11 +30854,11 @@
         <f t="shared" si="35"/>
         <v>19.899999999999999</v>
       </c>
-      <c r="R184" s="62">
+      <c r="R184" s="25">
         <f t="shared" si="32"/>
         <v>57</v>
       </c>
-      <c r="S184" s="59">
+      <c r="S184">
         <f t="shared" si="33"/>
         <v>1.7037037037037037</v>
       </c>
@@ -30944,11 +30920,11 @@
         <f t="shared" si="35"/>
         <v>24.58</v>
       </c>
-      <c r="R185" s="62">
+      <c r="R185" s="25">
         <f t="shared" ref="R185:R203" si="36">O185-A185</f>
         <v>8</v>
       </c>
-      <c r="S185" s="59">
+      <c r="S185">
         <f t="shared" ref="S185:S203" si="37">O185/A185</f>
         <v>1.0454545454545454</v>
       </c>
@@ -31010,11 +30986,11 @@
         <f t="shared" si="35"/>
         <v>15.36</v>
       </c>
-      <c r="R186" s="62">
+      <c r="R186" s="25">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="S186" s="59">
+      <c r="S186">
         <f t="shared" si="37"/>
         <v>1.1644736842105263</v>
       </c>
@@ -31076,11 +31052,11 @@
         <f t="shared" si="35"/>
         <v>18.11</v>
       </c>
-      <c r="R187" s="62">
+      <c r="R187" s="25">
         <f t="shared" si="36"/>
         <v>43</v>
       </c>
-      <c r="S187" s="59">
+      <c r="S187">
         <f t="shared" si="37"/>
         <v>1.6231884057971016</v>
       </c>
@@ -31142,11 +31118,11 @@
         <f t="shared" si="35"/>
         <v>18.28</v>
       </c>
-      <c r="R188" s="62">
+      <c r="R188" s="25">
         <f t="shared" si="36"/>
         <v>-4</v>
       </c>
-      <c r="S188" s="59">
+      <c r="S188">
         <f t="shared" si="37"/>
         <v>0.95744680851063835</v>
       </c>
@@ -31208,11 +31184,11 @@
         <f t="shared" si="35"/>
         <v>17.850000000000001</v>
       </c>
-      <c r="R189" s="62">
+      <c r="R189" s="25">
         <f t="shared" si="36"/>
         <v>11</v>
       </c>
-      <c r="S189" s="59">
+      <c r="S189">
         <f t="shared" si="37"/>
         <v>1.1447368421052631</v>
       </c>
@@ -31274,11 +31250,11 @@
         <f t="shared" si="35"/>
         <v>30.53</v>
       </c>
-      <c r="R190" s="62">
+      <c r="R190" s="25">
         <f t="shared" si="36"/>
         <v>-27</v>
       </c>
-      <c r="S190" s="59">
+      <c r="S190">
         <f t="shared" si="37"/>
         <v>0.8029197080291971</v>
       </c>
@@ -31340,11 +31316,11 @@
         <f t="shared" si="35"/>
         <v>16.52</v>
       </c>
-      <c r="R191" s="62">
+      <c r="R191" s="25">
         <f t="shared" si="36"/>
         <v>40</v>
       </c>
-      <c r="S191" s="59" t="e">
+      <c r="S191" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
@@ -31406,11 +31382,11 @@
         <f t="shared" si="35"/>
         <v>18.43</v>
       </c>
-      <c r="R192" s="62">
+      <c r="R192" s="25">
         <f t="shared" si="36"/>
         <v>-35</v>
       </c>
-      <c r="S192" s="59">
+      <c r="S192">
         <f t="shared" si="37"/>
         <v>0.74637681159420288</v>
       </c>
@@ -31472,11 +31448,11 @@
         <f t="shared" si="35"/>
         <v>24.74</v>
       </c>
-      <c r="R193" s="62">
+      <c r="R193" s="25">
         <f t="shared" si="36"/>
         <v>44</v>
       </c>
-      <c r="S193" s="59">
+      <c r="S193">
         <f t="shared" si="37"/>
         <v>1.2894736842105263</v>
       </c>
@@ -31538,11 +31514,11 @@
         <f t="shared" si="35"/>
         <v>5.77</v>
       </c>
-      <c r="R194" s="62">
+      <c r="R194" s="25">
         <f t="shared" si="36"/>
         <v>-9</v>
       </c>
-      <c r="S194" s="59">
+      <c r="S194">
         <f t="shared" si="37"/>
         <v>0.88461538461538458</v>
       </c>
@@ -31604,11 +31580,11 @@
         <f t="shared" si="35"/>
         <v>17.3</v>
       </c>
-      <c r="R195" s="62">
+      <c r="R195" s="25">
         <f t="shared" si="36"/>
         <v>50</v>
       </c>
-      <c r="S195" s="59">
+      <c r="S195">
         <f t="shared" si="37"/>
         <v>2.0204081632653059</v>
       </c>
@@ -31670,11 +31646,11 @@
         <f t="shared" si="35"/>
         <v>10.51</v>
       </c>
-      <c r="R196" s="62">
+      <c r="R196" s="25">
         <f t="shared" si="36"/>
         <v>9</v>
       </c>
-      <c r="S196" s="59">
+      <c r="S196">
         <f t="shared" si="37"/>
         <v>1.1285714285714286</v>
       </c>
@@ -31736,11 +31712,11 @@
         <f t="shared" si="35"/>
         <v>46.08</v>
       </c>
-      <c r="R197" s="62">
+      <c r="R197" s="25">
         <f>O197-A197</f>
         <v>-64</v>
       </c>
-      <c r="S197" s="59">
+      <c r="S197">
         <f t="shared" si="37"/>
         <v>0.67839195979899503</v>
       </c>
@@ -31802,11 +31778,11 @@
         <f t="shared" ref="P198:P261" si="39">ROUND(_xlfn.STDEV.P(C198:N198,T198:U198),2)</f>
         <v>6.66</v>
       </c>
-      <c r="R198" s="62">
+      <c r="R198" s="25">
         <f t="shared" si="36"/>
         <v>62</v>
       </c>
-      <c r="S198" s="59">
+      <c r="S198">
         <f>O198/(A198+1)</f>
         <v>62</v>
       </c>
@@ -31868,11 +31844,11 @@
         <f t="shared" si="39"/>
         <v>17.760000000000002</v>
       </c>
-      <c r="R199" s="62">
+      <c r="R199" s="25">
         <f t="shared" si="36"/>
         <v>-3</v>
       </c>
-      <c r="S199" s="59">
+      <c r="S199">
         <f t="shared" si="37"/>
         <v>0.97345132743362828</v>
       </c>
@@ -31934,11 +31910,11 @@
         <f t="shared" si="39"/>
         <v>20.39</v>
       </c>
-      <c r="R200" s="62">
+      <c r="R200" s="25">
         <f t="shared" si="36"/>
         <v>39</v>
       </c>
-      <c r="S200" s="59">
+      <c r="S200">
         <f t="shared" si="37"/>
         <v>1.3545454545454545</v>
       </c>
@@ -32000,11 +31976,11 @@
         <f t="shared" si="39"/>
         <v>5.69</v>
       </c>
-      <c r="R201" s="62">
+      <c r="R201" s="25">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="S201" s="59">
+      <c r="S201">
         <f t="shared" si="37"/>
         <v>1.0487804878048781</v>
       </c>
@@ -32066,11 +32042,11 @@
         <f t="shared" si="39"/>
         <v>5.9</v>
       </c>
-      <c r="R202" s="62">
+      <c r="R202" s="25">
         <f t="shared" si="36"/>
         <v>27</v>
       </c>
-      <c r="S202" s="59">
+      <c r="S202">
         <f t="shared" si="37"/>
         <v>3.0769230769230771</v>
       </c>
@@ -32132,11 +32108,11 @@
         <f t="shared" si="39"/>
         <v>7.33</v>
       </c>
-      <c r="R203" s="62">
+      <c r="R203" s="25">
         <f t="shared" si="36"/>
         <v>24</v>
       </c>
-      <c r="S203" s="59">
+      <c r="S203">
         <f t="shared" si="37"/>
         <v>2.3333333333333335</v>
       </c>
@@ -35558,34 +35534,34 @@
       </c>
     </row>
     <row r="266" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C266" s="52" t="s">
+      <c r="C266" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D266" s="52"/>
-      <c r="E266" s="52" t="s">
+      <c r="D266" s="53"/>
+      <c r="E266" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F266" s="52"/>
-      <c r="G266" s="52" t="s">
+      <c r="F266" s="53"/>
+      <c r="G266" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="H266" s="52"/>
-      <c r="I266" s="52" t="s">
+      <c r="H266" s="53"/>
+      <c r="I266" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="J266" s="52"/>
-      <c r="K266" s="53" t="s">
+      <c r="J266" s="53"/>
+      <c r="K266" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="L266" s="53"/>
-      <c r="M266" s="53" t="s">
+      <c r="L266" s="58"/>
+      <c r="M266" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="N266" s="53"/>
-      <c r="T266" s="52" t="s">
+      <c r="N266" s="58"/>
+      <c r="T266" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="U266" s="52"/>
+      <c r="U266" s="53"/>
     </row>
     <row r="267" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
@@ -35733,6 +35709,9 @@
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F191:G197 F264:G264 I191:I197 I264 L191:L197 L264">
+    <cfRule type="aboveAverage" dxfId="3" priority="27" stopIfTrue="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R3:R79 R81:R203">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -35742,9 +35721,6 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F191:G197 F264:G264 I191:I197 I264 L191:L197 L264">
-    <cfRule type="aboveAverage" dxfId="3" priority="27" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35766,42 +35742,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="49">
+      <c r="C2" s="55">
         <v>0.85</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
@@ -45205,54 +45181,54 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>72</v>
       </c>
-      <c r="B175" s="60">
+      <c r="B175" s="21">
         <v>46000</v>
       </c>
-      <c r="C175" s="59">
+      <c r="C175">
         <v>54</v>
       </c>
-      <c r="D175" s="59">
+      <c r="D175">
         <v>60</v>
       </c>
-      <c r="E175" s="59">
+      <c r="E175">
         <v>48</v>
       </c>
-      <c r="F175" s="59">
+      <c r="F175">
         <v>66</v>
       </c>
-      <c r="G175" s="59">
+      <c r="G175">
         <v>36</v>
       </c>
-      <c r="H175" s="59">
+      <c r="H175">
         <v>67</v>
       </c>
-      <c r="I175" s="59">
+      <c r="I175">
         <v>50</v>
       </c>
-      <c r="J175" s="59">
+      <c r="J175">
         <v>70</v>
       </c>
-      <c r="K175" s="59">
+      <c r="K175">
         <v>54</v>
       </c>
-      <c r="L175" s="59">
+      <c r="L175">
         <v>58</v>
       </c>
-      <c r="M175" s="59">
+      <c r="M175">
         <v>60</v>
       </c>
-      <c r="N175" s="59">
+      <c r="N175">
         <v>60</v>
       </c>
-      <c r="O175" s="61">
+      <c r="O175" s="19">
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="P175" s="61">
+      <c r="P175" s="19">
         <f t="shared" si="20"/>
         <v>9.08</v>
       </c>
@@ -45264,10 +45240,10 @@
         <f t="shared" ref="S175:S203" si="22">O175/A175</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="T175" s="59">
+      <c r="T175">
         <v>62</v>
       </c>
-      <c r="U175" s="59">
+      <c r="U175">
         <v>44</v>
       </c>
     </row>
@@ -49601,7 +49577,7 @@
       <c r="C249">
         <v>163</v>
       </c>
-      <c r="D249" s="59">
+      <c r="D249">
         <v>155</v>
       </c>
       <c r="E249">
@@ -50421,36 +50397,36 @@
     </row>
     <row r="264" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B264" s="33"/>
-      <c r="C264" s="54" t="s">
+      <c r="C264" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D264" s="55"/>
-      <c r="E264" s="55" t="s">
+      <c r="D264" s="60"/>
+      <c r="E264" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="F264" s="55"/>
-      <c r="G264" s="55" t="s">
+      <c r="F264" s="60"/>
+      <c r="G264" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H264" s="55"/>
-      <c r="I264" s="55" t="s">
+      <c r="H264" s="60"/>
+      <c r="I264" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="J264" s="55"/>
-      <c r="K264" s="55" t="s">
+      <c r="J264" s="60"/>
+      <c r="K264" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L264" s="55"/>
-      <c r="M264" s="55" t="s">
+      <c r="L264" s="60"/>
+      <c r="M264" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="N264" s="56"/>
-      <c r="O264" s="57"/>
-      <c r="P264" s="58"/>
-      <c r="T264" s="52" t="s">
+      <c r="N264" s="61"/>
+      <c r="O264" s="48"/>
+      <c r="P264" s="49"/>
+      <c r="T264" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="U264" s="52"/>
+      <c r="U264" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50499,30 +50475,30 @@
         <v>43</v>
       </c>
       <c r="B1" s="33"/>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
       <c r="Y1" t="s">
         <v>39</v>
       </c>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58281BAF-DCEF-4B7C-B9AD-322FDBE33A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146EF509-81EC-4D9B-AD61-F35921157402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1146,8 +1146,8 @@
   <dimension ref="A1:R717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J657" sqref="J652:J657"/>
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A657" sqref="A1:J717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18720,7 +18720,7 @@
         <v>46029</v>
       </c>
       <c r="D658" s="13">
-        <v>42.5</v>
+        <v>46.5</v>
       </c>
       <c r="E658" s="8">
         <v>35.6</v>
@@ -18735,7 +18735,7 @@
         <v>8</v>
       </c>
       <c r="J658" s="8">
-        <v>5.2249999999999996</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="659" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18749,7 +18749,7 @@
         <v>46030</v>
       </c>
       <c r="D659" s="13">
-        <v>49.5</v>
+        <v>85</v>
       </c>
       <c r="E659" s="8">
         <v>50</v>
@@ -18764,7 +18764,7 @@
         <v>13</v>
       </c>
       <c r="J659" s="8">
-        <v>12.955</v>
+        <v>23.545000000000002</v>
       </c>
     </row>
     <row r="660" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18778,7 +18778,7 @@
         <v>46031</v>
       </c>
       <c r="D660" s="13">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E660" s="8">
         <v>40.5</v>
@@ -18793,7 +18793,7 @@
         <v>10</v>
       </c>
       <c r="J660" s="8">
-        <v>21.13</v>
+        <v>13.745000000000001</v>
       </c>
     </row>
     <row r="661" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18807,7 +18807,7 @@
         <v>46032</v>
       </c>
       <c r="D661" s="13">
-        <v>133</v>
+        <v>127.5</v>
       </c>
       <c r="E661" s="8">
         <v>30.5</v>
@@ -18822,7 +18822,7 @@
         <v>12</v>
       </c>
       <c r="J661" s="8">
-        <v>36.905000000000001</v>
+        <v>16.829999999999998</v>
       </c>
     </row>
     <row r="662" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18836,7 +18836,7 @@
         <v>46033</v>
       </c>
       <c r="D662" s="13">
-        <v>151.5</v>
+        <v>45</v>
       </c>
       <c r="E662" s="8">
         <v>25</v>
@@ -18851,7 +18851,7 @@
         <v>15</v>
       </c>
       <c r="J662" s="8">
-        <v>22.42</v>
+        <v>10.530000000000001</v>
       </c>
     </row>
     <row r="663" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18865,7 +18865,7 @@
         <v>46034</v>
       </c>
       <c r="D663" s="13">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E663" s="8">
         <v>33.5</v>
@@ -18880,7 +18880,7 @@
         <v>13</v>
       </c>
       <c r="J663" s="8">
-        <v>10.675000000000001</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="664" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18894,7 +18894,7 @@
         <v>46035</v>
       </c>
       <c r="D664" s="13">
-        <v>28</v>
+        <v>42.5</v>
       </c>
       <c r="E664" s="8">
         <v>35</v>
@@ -18909,7 +18909,7 @@
         <v>10</v>
       </c>
       <c r="J664" s="8">
-        <v>16.21</v>
+        <v>5.2249999999999996</v>
       </c>
     </row>
     <row r="665" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18923,7 +18923,7 @@
         <v>46036</v>
       </c>
       <c r="D665" s="13">
-        <v>54.5</v>
+        <v>49.5</v>
       </c>
       <c r="E665" s="8">
         <v>28.5</v>
@@ -18938,7 +18938,7 @@
         <v>9</v>
       </c>
       <c r="J665" s="8">
-        <v>12.065</v>
+        <v>12.955</v>
       </c>
     </row>
     <row r="666" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18952,7 +18952,7 @@
         <v>46037</v>
       </c>
       <c r="D666" s="13">
-        <v>43.5</v>
+        <v>80</v>
       </c>
       <c r="E666" s="8">
         <v>28.5</v>
@@ -18967,7 +18967,7 @@
         <v>6</v>
       </c>
       <c r="J666" s="8">
-        <v>4.9749999999999996</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="667" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18981,7 +18981,7 @@
         <v>46038</v>
       </c>
       <c r="D667" s="13">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="E667" s="8">
         <v>21.5</v>
@@ -18996,7 +18996,7 @@
         <v>8</v>
       </c>
       <c r="J667" s="8">
-        <v>14.819999999999999</v>
+        <v>36.905000000000001</v>
       </c>
     </row>
     <row r="668" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19010,7 +19010,7 @@
         <v>46039</v>
       </c>
       <c r="D668" s="13">
-        <v>119</v>
+        <v>151.5</v>
       </c>
       <c r="E668" s="8">
         <v>23</v>
@@ -19025,7 +19025,7 @@
         <v>10</v>
       </c>
       <c r="J668" s="8">
-        <v>23.6</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="669" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19039,7 +19039,7 @@
         <v>46040</v>
       </c>
       <c r="D669" s="13">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="E669" s="8">
         <v>19.5</v>
@@ -19054,7 +19054,7 @@
         <v>13</v>
       </c>
       <c r="J669" s="8">
-        <v>23.684999999999999</v>
+        <v>10.675000000000001</v>
       </c>
     </row>
     <row r="670" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19068,7 +19068,7 @@
         <v>46041</v>
       </c>
       <c r="D670" s="13">
-        <v>48.5</v>
+        <v>28</v>
       </c>
       <c r="E670" s="8">
         <v>19.5</v>
@@ -19086,7 +19086,7 @@
         <v>32</v>
       </c>
       <c r="J670" s="8">
-        <v>26.77</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="671" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19100,7 +19100,7 @@
         <v>46042</v>
       </c>
       <c r="D671" s="13">
-        <v>59</v>
+        <v>54.5</v>
       </c>
       <c r="E671" s="8">
         <v>21.5</v>
@@ -19115,7 +19115,7 @@
         <v>8</v>
       </c>
       <c r="J671" s="8">
-        <v>27.07</v>
+        <v>12.065</v>
       </c>
     </row>
     <row r="672" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19129,7 +19129,7 @@
         <v>46043</v>
       </c>
       <c r="D672" s="13">
-        <v>61.5</v>
+        <v>43.5</v>
       </c>
       <c r="E672" s="8">
         <v>30.5</v>
@@ -19144,7 +19144,7 @@
         <v>12</v>
       </c>
       <c r="J672" s="8">
-        <v>21.645</v>
+        <v>4.9749999999999996</v>
       </c>
     </row>
     <row r="673" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19158,7 +19158,7 @@
         <v>46044</v>
       </c>
       <c r="D673" s="13">
-        <v>44.5</v>
+        <v>61</v>
       </c>
       <c r="E673" s="8">
         <v>26.5</v>
@@ -19173,7 +19173,7 @@
         <v>9</v>
       </c>
       <c r="J673" s="8">
-        <v>5.4649999999999999</v>
+        <v>14.819999999999999</v>
       </c>
     </row>
     <row r="674" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19187,7 +19187,7 @@
         <v>46045</v>
       </c>
       <c r="D674" s="13">
-        <v>63.5</v>
+        <v>119</v>
       </c>
       <c r="E674" s="8">
         <v>24</v>
@@ -19202,7 +19202,7 @@
         <v>13</v>
       </c>
       <c r="J674" s="8">
-        <v>10.54</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="675" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19216,7 +19216,7 @@
         <v>46046</v>
       </c>
       <c r="D675" s="13">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E675" s="8">
         <v>22</v>
@@ -19231,7 +19231,7 @@
         <v>12</v>
       </c>
       <c r="J675" s="8">
-        <v>44.05</v>
+        <v>23.684999999999999</v>
       </c>
     </row>
     <row r="676" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19245,7 +19245,7 @@
         <v>46047</v>
       </c>
       <c r="D676" s="13">
-        <v>157</v>
+        <v>48.5</v>
       </c>
       <c r="E676" s="8">
         <v>15</v>
@@ -19260,7 +19260,7 @@
         <v>4</v>
       </c>
       <c r="J676" s="8">
-        <v>27.130000000000003</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="677" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19274,7 +19274,7 @@
         <v>46048</v>
       </c>
       <c r="D677" s="13">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E677" s="8">
         <v>15</v>
@@ -19289,7 +19289,7 @@
         <v>5</v>
       </c>
       <c r="J677" s="8">
-        <v>11.195</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="678" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19303,7 +19303,7 @@
         <v>46049</v>
       </c>
       <c r="D678" s="13">
-        <v>44</v>
+        <v>61.5</v>
       </c>
       <c r="E678" s="8">
         <v>15</v>
@@ -19318,7 +19318,7 @@
         <v>6</v>
       </c>
       <c r="J678" s="8">
-        <v>6.81</v>
+        <v>21.645</v>
       </c>
     </row>
     <row r="679" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19332,7 +19332,7 @@
         <v>46050</v>
       </c>
       <c r="D679" s="13">
-        <v>63</v>
+        <v>44.5</v>
       </c>
       <c r="E679" s="8">
         <v>25</v>
@@ -19347,7 +19347,7 @@
         <v>13</v>
       </c>
       <c r="J679" s="8">
-        <v>21.18</v>
+        <v>5.4649999999999999</v>
       </c>
     </row>
     <row r="680" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19361,7 +19361,7 @@
         <v>46051</v>
       </c>
       <c r="D680" s="13">
-        <v>46.5</v>
+        <v>63.5</v>
       </c>
       <c r="E680" s="8">
         <v>31</v>
@@ -19376,7 +19376,7 @@
         <v>9</v>
       </c>
       <c r="J680" s="8">
-        <v>5.2249999999999996</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="681" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19390,7 +19390,7 @@
         <v>46052</v>
       </c>
       <c r="D681" s="13">
-        <v>75.5</v>
+        <v>129</v>
       </c>
       <c r="E681" s="8">
         <v>24</v>
@@ -19405,7 +19405,7 @@
         <v>17</v>
       </c>
       <c r="J681" s="8">
-        <v>23.375</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="682" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19419,7 +19419,7 @@
         <v>46053</v>
       </c>
       <c r="D682" s="13">
-        <v>155.5</v>
+        <v>157</v>
       </c>
       <c r="E682" s="8">
         <v>14.5</v>
@@ -19434,7 +19434,7 @@
         <v>9</v>
       </c>
       <c r="J682" s="8">
-        <v>29.189999999999998</v>
+        <v>27.130000000000003</v>
       </c>
     </row>
     <row r="683" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19448,7 +19448,7 @@
         <v>46054</v>
       </c>
       <c r="D683" s="13">
-        <v>177.5</v>
+        <v>52</v>
       </c>
       <c r="E683" s="8">
         <v>22.5</v>
@@ -19463,7 +19463,7 @@
         <v>13</v>
       </c>
       <c r="J683" s="8">
-        <v>32.155000000000001</v>
+        <v>11.195</v>
       </c>
     </row>
     <row r="684" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19477,7 +19477,7 @@
         <v>46055</v>
       </c>
       <c r="D684" s="13">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E684" s="8">
         <v>23</v>
@@ -19492,7 +19492,7 @@
         <v>15</v>
       </c>
       <c r="J684" s="8">
-        <v>11.7</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="685" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19506,7 +19506,7 @@
         <v>46056</v>
       </c>
       <c r="D685" s="13">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E685" s="8">
         <v>17</v>
@@ -19521,7 +19521,7 @@
         <v>5</v>
       </c>
       <c r="J685" s="8">
-        <v>7.5350000000000001</v>
+        <v>21.18</v>
       </c>
     </row>
     <row r="686" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19535,7 +19535,7 @@
         <v>46057</v>
       </c>
       <c r="D686" s="13">
-        <v>44</v>
+        <v>46.5</v>
       </c>
       <c r="E686" s="8">
         <v>18</v>
@@ -19550,7 +19550,7 @@
         <v>14</v>
       </c>
       <c r="J686" s="8">
-        <v>4.1950000000000003</v>
+        <v>5.2249999999999996</v>
       </c>
     </row>
     <row r="687" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19564,7 +19564,7 @@
         <v>46058</v>
       </c>
       <c r="D687" s="13">
-        <v>64.5</v>
+        <v>75.5</v>
       </c>
       <c r="E687" s="8">
         <v>16</v>
@@ -19579,7 +19579,7 @@
         <v>8</v>
       </c>
       <c r="J687" s="8">
-        <v>24.19</v>
+        <v>23.375</v>
       </c>
     </row>
     <row r="688" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19593,7 +19593,7 @@
         <v>46059</v>
       </c>
       <c r="D688" s="13">
-        <v>90</v>
+        <v>155.5</v>
       </c>
       <c r="E688" s="8">
         <v>18.5</v>
@@ -19608,7 +19608,7 @@
         <v>6</v>
       </c>
       <c r="J688" s="8">
-        <v>26.004999999999999</v>
+        <v>29.189999999999998</v>
       </c>
     </row>
     <row r="689" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19622,7 +19622,7 @@
         <v>46060</v>
       </c>
       <c r="D689" s="13">
-        <v>136</v>
+        <v>177.5</v>
       </c>
       <c r="E689" s="8">
         <v>17</v>
@@ -19637,7 +19637,7 @@
         <v>10</v>
       </c>
       <c r="J689" s="8">
-        <v>22.6</v>
+        <v>32.155000000000001</v>
       </c>
     </row>
     <row r="690" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19651,7 +19651,7 @@
         <v>46061</v>
       </c>
       <c r="D690" s="13">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="E690" s="8">
         <v>15.5</v>
@@ -19669,7 +19669,7 @@
         <v>33</v>
       </c>
       <c r="J690" s="8">
-        <v>42.284999999999997</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="691" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19683,7 +19683,7 @@
         <v>46062</v>
       </c>
       <c r="D691" s="13">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E691" s="8">
         <v>14.5</v>
@@ -19698,7 +19698,7 @@
         <v>16</v>
       </c>
       <c r="J691" s="8">
-        <v>8.51</v>
+        <v>7.5350000000000001</v>
       </c>
     </row>
     <row r="692" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19712,7 +19712,7 @@
         <v>46063</v>
       </c>
       <c r="D692" s="13">
-        <v>48.5</v>
+        <v>44</v>
       </c>
       <c r="E692" s="8">
         <v>16.5</v>
@@ -19727,7 +19727,7 @@
         <v>13</v>
       </c>
       <c r="J692" s="8">
-        <v>10.005000000000001</v>
+        <v>4.1950000000000003</v>
       </c>
     </row>
     <row r="693" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19741,7 +19741,7 @@
         <v>46064</v>
       </c>
       <c r="D693" s="13">
-        <v>65</v>
+        <v>64.5</v>
       </c>
       <c r="E693" s="8">
         <v>16.5</v>
@@ -19756,7 +19756,7 @@
         <v>6</v>
       </c>
       <c r="J693" s="8">
-        <v>20.98</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="694" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19770,7 +19770,7 @@
         <v>46065</v>
       </c>
       <c r="D694" s="13">
-        <v>83.5</v>
+        <v>90</v>
       </c>
       <c r="E694" s="8">
         <v>17</v>
@@ -19785,7 +19785,7 @@
         <v>5</v>
       </c>
       <c r="J694" s="8">
-        <v>28.405000000000001</v>
+        <v>26.004999999999999</v>
       </c>
     </row>
     <row r="695" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19799,7 +19799,7 @@
         <v>46066</v>
       </c>
       <c r="D695" s="13">
-        <v>66.5</v>
+        <v>136</v>
       </c>
       <c r="E695" s="8">
         <v>17</v>
@@ -19814,7 +19814,7 @@
         <v>6</v>
       </c>
       <c r="J695" s="8">
-        <v>21.880000000000003</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="696" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19828,7 +19828,7 @@
         <v>46067</v>
       </c>
       <c r="D696" s="13">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="E696" s="8">
         <v>17</v>
@@ -19846,7 +19846,7 @@
         <v>34</v>
       </c>
       <c r="J696" s="8">
-        <v>16.97</v>
+        <v>42.284999999999997</v>
       </c>
     </row>
     <row r="697" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19860,7 +19860,7 @@
         <v>46068</v>
       </c>
       <c r="D697" s="13">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="E697" s="8">
         <v>19.5</v>
@@ -19875,7 +19875,7 @@
         <v>12</v>
       </c>
       <c r="J697" s="8">
-        <v>25.495000000000001</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="698" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19889,7 +19889,7 @@
         <v>46069</v>
       </c>
       <c r="D698" s="13">
-        <v>51.5</v>
+        <v>48.5</v>
       </c>
       <c r="E698" s="8">
         <v>23.5</v>
@@ -19907,7 +19907,7 @@
         <v>35</v>
       </c>
       <c r="J698" s="8">
-        <v>13.54</v>
+        <v>10.005000000000001</v>
       </c>
     </row>
     <row r="699" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19921,7 +19921,7 @@
         <v>46070</v>
       </c>
       <c r="D699" s="13">
-        <v>50.5</v>
+        <v>65</v>
       </c>
       <c r="E699" s="8">
         <v>18.5</v>
@@ -19936,7 +19936,7 @@
         <v>4</v>
       </c>
       <c r="J699" s="8">
-        <v>7.6349999999999998</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="700" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19950,7 +19950,7 @@
         <v>46071</v>
       </c>
       <c r="D700" s="13">
-        <v>65.5</v>
+        <v>83.5</v>
       </c>
       <c r="E700" s="8">
         <v>20</v>
@@ -19968,7 +19968,7 @@
         <v>37</v>
       </c>
       <c r="J700" s="8">
-        <v>19.350000000000001</v>
+        <v>28.405000000000001</v>
       </c>
     </row>
     <row r="701" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19982,7 +19982,7 @@
         <v>46072</v>
       </c>
       <c r="D701" s="13">
-        <v>39</v>
+        <v>66.5</v>
       </c>
       <c r="E701" s="8">
         <v>27.5</v>
@@ -19997,7 +19997,7 @@
         <v>6</v>
       </c>
       <c r="J701" s="8">
-        <v>5.8149999999999995</v>
+        <v>21.880000000000003</v>
       </c>
     </row>
     <row r="702" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20011,7 +20011,7 @@
         <v>46073</v>
       </c>
       <c r="D702" s="13">
-        <v>67.5</v>
+        <v>80</v>
       </c>
       <c r="E702" s="8">
         <v>21.5</v>
@@ -20029,7 +20029,7 @@
         <v>10</v>
       </c>
       <c r="J702" s="8">
-        <v>20.245000000000001</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="703" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20043,7 +20043,7 @@
         <v>46074</v>
       </c>
       <c r="D703" s="13">
-        <v>76.5</v>
+        <v>144</v>
       </c>
       <c r="E703" s="8">
         <v>18.5</v>
@@ -20058,7 +20058,7 @@
         <v>13</v>
       </c>
       <c r="J703" s="8">
-        <v>12.734999999999999</v>
+        <v>25.495000000000001</v>
       </c>
     </row>
     <row r="704" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20072,7 +20072,7 @@
         <v>46075</v>
       </c>
       <c r="D704" s="13">
-        <v>155</v>
+        <v>51.5</v>
       </c>
       <c r="E704" s="8">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         <v>8</v>
       </c>
       <c r="J704" s="8">
-        <v>18.98</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="705" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20101,7 +20101,7 @@
         <v>46076</v>
       </c>
       <c r="D705" s="13">
-        <v>42.5</v>
+        <v>50.5</v>
       </c>
       <c r="E705" s="8">
         <v>22.5</v>
@@ -20116,7 +20116,7 @@
         <v>12</v>
       </c>
       <c r="J705" s="8">
-        <v>7.9050000000000002</v>
+        <v>7.6349999999999998</v>
       </c>
     </row>
     <row r="706" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20130,7 +20130,7 @@
         <v>46077</v>
       </c>
       <c r="D706" s="13">
-        <v>52</v>
+        <v>65.5</v>
       </c>
       <c r="E706" s="8">
         <v>22.5</v>
@@ -20145,7 +20145,7 @@
         <v>5</v>
       </c>
       <c r="J706" s="8">
-        <v>4.8650000000000002</v>
+        <v>19.350000000000001</v>
       </c>
     </row>
     <row r="707" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20159,7 +20159,7 @@
         <v>46078</v>
       </c>
       <c r="D707" s="13">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E707" s="8">
         <v>26.5</v>
@@ -20174,7 +20174,7 @@
         <v>13</v>
       </c>
       <c r="J707" s="8">
-        <v>6.7250000000000005</v>
+        <v>5.8149999999999995</v>
       </c>
     </row>
     <row r="708" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20188,7 +20188,7 @@
         <v>46079</v>
       </c>
       <c r="D708" s="13">
-        <v>44.5</v>
+        <v>67.5</v>
       </c>
       <c r="E708" s="8">
         <v>20</v>
@@ -20203,7 +20203,7 @@
         <v>9</v>
       </c>
       <c r="J708" s="8">
-        <v>10.41</v>
+        <v>20.245000000000001</v>
       </c>
     </row>
     <row r="709" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20217,7 +20217,7 @@
         <v>46080</v>
       </c>
       <c r="D709" s="13">
-        <v>54</v>
+        <v>76.5</v>
       </c>
       <c r="E709" s="8">
         <v>20.5</v>
@@ -20235,7 +20235,7 @@
         <v>10</v>
       </c>
       <c r="J709" s="8">
-        <v>13.540000000000001</v>
+        <v>12.734999999999999</v>
       </c>
     </row>
     <row r="710" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20249,7 +20249,7 @@
         <v>46081</v>
       </c>
       <c r="D710" s="13">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="E710" s="8">
         <v>25</v>
@@ -20264,7 +20264,7 @@
         <v>7</v>
       </c>
       <c r="J710" s="8">
-        <v>13.675000000000001</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="711" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20278,7 +20278,7 @@
         <v>46082</v>
       </c>
       <c r="D711" s="13">
-        <v>140</v>
+        <v>42.5</v>
       </c>
       <c r="E711" s="8">
         <v>34</v>
@@ -20293,7 +20293,7 @@
         <v>14</v>
       </c>
       <c r="J711" s="8">
-        <v>29.02</v>
+        <v>7.9050000000000002</v>
       </c>
     </row>
     <row r="712" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20306,6 +20306,9 @@
       <c r="C712" s="51">
         <v>46083</v>
       </c>
+      <c r="D712" s="13">
+        <v>52</v>
+      </c>
       <c r="E712" s="8">
         <v>30</v>
       </c>
@@ -20317,6 +20320,9 @@
       </c>
       <c r="H712" s="8">
         <v>9</v>
+      </c>
+      <c r="J712" s="8">
+        <v>4.8650000000000002</v>
       </c>
     </row>
     <row r="713" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20329,6 +20335,9 @@
       <c r="C713" s="51">
         <v>46084</v>
       </c>
+      <c r="D713" s="13">
+        <v>58</v>
+      </c>
       <c r="E713" s="8">
         <v>31</v>
       </c>
@@ -20340,6 +20349,9 @@
       </c>
       <c r="H713" s="8">
         <v>8</v>
+      </c>
+      <c r="J713" s="8">
+        <v>6.7250000000000005</v>
       </c>
     </row>
     <row r="714" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20352,6 +20364,9 @@
       <c r="C714" s="51">
         <v>46085</v>
       </c>
+      <c r="D714" s="13">
+        <v>44.5</v>
+      </c>
       <c r="E714" s="8">
         <v>31</v>
       </c>
@@ -20363,6 +20378,9 @@
       </c>
       <c r="H714" s="8">
         <v>22</v>
+      </c>
+      <c r="J714" s="8">
+        <v>10.41</v>
       </c>
     </row>
     <row r="715" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20375,6 +20393,9 @@
       <c r="C715" s="51">
         <v>46086</v>
       </c>
+      <c r="D715" s="13">
+        <v>54</v>
+      </c>
       <c r="E715" s="8">
         <v>32</v>
       </c>
@@ -20386,6 +20407,9 @@
       </c>
       <c r="H715" s="8">
         <v>8</v>
+      </c>
+      <c r="J715" s="8">
+        <v>13.540000000000001</v>
       </c>
     </row>
     <row r="716" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20398,6 +20422,9 @@
       <c r="C716" s="51">
         <v>46087</v>
       </c>
+      <c r="D716" s="13">
+        <v>70</v>
+      </c>
       <c r="E716" s="8">
         <v>37.5</v>
       </c>
@@ -20412,6 +20439,9 @@
       </c>
       <c r="I716" s="40" t="s">
         <v>10</v>
+      </c>
+      <c r="J716" s="8">
+        <v>13.675000000000001</v>
       </c>
     </row>
     <row r="717" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20424,6 +20454,9 @@
       <c r="C717" s="51">
         <v>46088</v>
       </c>
+      <c r="D717" s="13">
+        <v>140</v>
+      </c>
       <c r="E717" s="8">
         <v>39</v>
       </c>
@@ -20435,6 +20468,9 @@
       </c>
       <c r="H717" s="8">
         <v>16</v>
+      </c>
+      <c r="J717" s="8">
+        <v>29.02</v>
       </c>
     </row>
   </sheetData>
@@ -20455,8 +20491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:U269"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P204" sqref="P204:P263"/>
+    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O204" sqref="O204:P263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35731,8 +35767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
   <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P204" sqref="P204:P263"/>
+    <sheetView topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P204" sqref="O204:P263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146EF509-81EC-4D9B-AD61-F35921157402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD970482-847F-4A31-B72E-EDA235F9A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>day</t>
   </si>
@@ -261,28 +261,10 @@
     <t>time(sec)</t>
   </si>
   <si>
-    <t>67% trn</t>
-  </si>
-  <si>
-    <t>85% trn</t>
-  </si>
-  <si>
-    <t>80% trn</t>
-  </si>
-  <si>
-    <t>70% trn</t>
-  </si>
-  <si>
-    <t>75% trn</t>
-  </si>
-  <si>
-    <t>68.5% trn</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
-    <t>77.6% trn</t>
+    <t>trn %</t>
   </si>
 </sst>
 </file>
@@ -600,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -706,6 +688,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1146,8 +1130,8 @@
   <dimension ref="A1:R717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A657" sqref="A1:J717"/>
+      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J665" sqref="J665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18449,16 +18433,16 @@
         <v>78</v>
       </c>
       <c r="E648" s="8">
-        <v>43.2</v>
+        <v>45.5</v>
       </c>
       <c r="F648" s="8">
-        <v>1.524</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="G648" s="8">
         <v>0</v>
       </c>
       <c r="H648" s="8">
-        <v>11.1</v>
+        <v>9.4</v>
       </c>
       <c r="Q648" s="37"/>
       <c r="R648" s="38"/>
@@ -18477,16 +18461,16 @@
         <v>49</v>
       </c>
       <c r="E649" s="8">
-        <v>23.4</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F649" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="G649" s="8">
-        <v>1.8</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H649" s="8">
-        <v>15.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Q649" s="37"/>
       <c r="R649" s="38"/>
@@ -18505,16 +18489,16 @@
         <v>70</v>
       </c>
       <c r="E650" s="8">
-        <v>23.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F650" s="8">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G650" s="8">
         <v>0.2</v>
       </c>
       <c r="H650" s="8">
-        <v>11.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q650" s="37"/>
       <c r="R650" s="38"/>
@@ -18533,16 +18517,16 @@
         <v>199</v>
       </c>
       <c r="E651" s="8">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F651" s="8">
-        <v>0.02</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G651" s="8">
-        <v>0.3</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H651" s="8">
-        <v>11.4</v>
+        <v>13.1</v>
       </c>
       <c r="I651" s="40" t="s">
         <v>30</v>
@@ -18564,16 +18548,16 @@
         <v>0</v>
       </c>
       <c r="E652" s="8">
-        <v>28.9</v>
+        <v>15.3</v>
       </c>
       <c r="F652" s="8">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G652" s="8">
         <v>0</v>
       </c>
       <c r="H652" s="8">
-        <v>10.8</v>
+        <v>6.8</v>
       </c>
       <c r="I652" s="40" t="s">
         <v>31</v>
@@ -18593,7 +18577,7 @@
         <v>113</v>
       </c>
       <c r="E653" s="8">
-        <v>30.4</v>
+        <v>20.3</v>
       </c>
       <c r="F653" s="8">
         <v>0</v>
@@ -18602,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="H653" s="8">
-        <v>9.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="654" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18619,7 +18603,7 @@
         <v>110</v>
       </c>
       <c r="E654" s="8">
-        <v>30.7</v>
+        <v>23.2</v>
       </c>
       <c r="F654" s="8">
         <v>0</v>
@@ -18628,7 +18612,7 @@
         <v>0</v>
       </c>
       <c r="H654" s="8">
-        <v>11.4</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="655" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18645,16 +18629,16 @@
         <v>41</v>
       </c>
       <c r="E655" s="8">
-        <v>29.2</v>
+        <v>28</v>
       </c>
       <c r="F655" s="8">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G655" s="8">
         <v>0</v>
       </c>
       <c r="H655" s="8">
-        <v>14</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="656" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18671,7 +18655,7 @@
         <v>13</v>
       </c>
       <c r="E656" s="8">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="F656" s="8">
         <v>0</v>
@@ -18680,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="H656" s="8">
-        <v>15</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="657" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18697,16 +18681,16 @@
         <v>18</v>
       </c>
       <c r="E657" s="8">
-        <v>39.700000000000003</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F657" s="8">
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G657" s="8">
         <v>0</v>
       </c>
       <c r="H657" s="8">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="658" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18720,10 +18704,10 @@
         <v>46029</v>
       </c>
       <c r="D658" s="13">
-        <v>46.5</v>
+        <v>28</v>
       </c>
       <c r="E658" s="8">
-        <v>35.6</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F658" s="8">
         <v>0</v>
@@ -18732,10 +18716,7 @@
         <v>0</v>
       </c>
       <c r="H658" s="8">
-        <v>8</v>
-      </c>
-      <c r="J658" s="8">
-        <v>8.77</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="659" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18749,22 +18730,19 @@
         <v>46030</v>
       </c>
       <c r="D659" s="13">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="E659" s="8">
-        <v>50</v>
+        <v>50.9</v>
       </c>
       <c r="F659" s="8">
-        <v>0.49</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G659" s="8">
         <v>0</v>
       </c>
       <c r="H659" s="8">
-        <v>13</v>
-      </c>
-      <c r="J659" s="8">
-        <v>23.545000000000002</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="660" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18781,19 +18759,16 @@
         <v>113</v>
       </c>
       <c r="E660" s="8">
-        <v>40.5</v>
+        <v>45.5</v>
       </c>
       <c r="F660" s="8">
-        <v>0.01</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G660" s="8">
         <v>0</v>
       </c>
       <c r="H660" s="8">
-        <v>10</v>
-      </c>
-      <c r="J660" s="8">
-        <v>13.745000000000001</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="661" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18807,22 +18782,19 @@
         <v>46032</v>
       </c>
       <c r="D661" s="13">
-        <v>127.5</v>
+        <v>66</v>
       </c>
       <c r="E661" s="8">
-        <v>30.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F661" s="8">
-        <v>0.13</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="G661" s="8">
         <v>0.5</v>
       </c>
       <c r="H661" s="8">
-        <v>12</v>
-      </c>
-      <c r="J661" s="8">
-        <v>16.829999999999998</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="662" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18836,10 +18808,10 @@
         <v>46033</v>
       </c>
       <c r="D662" s="13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E662" s="8">
-        <v>25</v>
+        <v>27.1</v>
       </c>
       <c r="F662" s="8">
         <v>0</v>
@@ -18848,10 +18820,7 @@
         <v>0</v>
       </c>
       <c r="H662" s="8">
-        <v>15</v>
-      </c>
-      <c r="J662" s="8">
-        <v>10.530000000000001</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="663" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18865,10 +18834,10 @@
         <v>46034</v>
       </c>
       <c r="D663" s="13">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E663" s="8">
-        <v>33.5</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F663" s="8">
         <v>0</v>
@@ -18877,10 +18846,7 @@
         <v>0</v>
       </c>
       <c r="H663" s="8">
-        <v>13</v>
-      </c>
-      <c r="J663" s="8">
-        <v>7.94</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="664" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18894,22 +18860,19 @@
         <v>46035</v>
       </c>
       <c r="D664" s="13">
-        <v>42.5</v>
+        <v>20</v>
       </c>
       <c r="E664" s="8">
-        <v>35</v>
+        <v>39.9</v>
       </c>
       <c r="F664" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G664" s="8">
         <v>0</v>
       </c>
       <c r="H664" s="8">
-        <v>10</v>
-      </c>
-      <c r="J664" s="8">
-        <v>5.2249999999999996</v>
+        <v>15</v>
       </c>
     </row>
     <row r="665" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18923,10 +18886,10 @@
         <v>46036</v>
       </c>
       <c r="D665" s="13">
-        <v>49.5</v>
+        <v>35</v>
       </c>
       <c r="E665" s="8">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="F665" s="8">
         <v>0.05</v>
@@ -18935,10 +18898,7 @@
         <v>0.7</v>
       </c>
       <c r="H665" s="8">
-        <v>9</v>
-      </c>
-      <c r="J665" s="8">
-        <v>12.955</v>
+        <v>17</v>
       </c>
     </row>
     <row r="666" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18955,7 +18915,7 @@
         <v>80</v>
       </c>
       <c r="E666" s="8">
-        <v>28.5</v>
+        <v>21.9</v>
       </c>
       <c r="F666" s="8">
         <v>0.08</v>
@@ -18964,7 +18924,7 @@
         <v>1.2</v>
       </c>
       <c r="H666" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J666" s="8">
         <v>21.13</v>
@@ -18984,7 +18944,7 @@
         <v>133</v>
       </c>
       <c r="E667" s="8">
-        <v>21.5</v>
+        <v>25.2</v>
       </c>
       <c r="F667" s="8">
         <v>0.26</v>
@@ -18993,7 +18953,7 @@
         <v>3.9</v>
       </c>
       <c r="H667" s="8">
-        <v>8</v>
+        <v>10.1</v>
       </c>
       <c r="J667" s="8">
         <v>36.905000000000001</v>
@@ -19013,7 +18973,7 @@
         <v>151.5</v>
       </c>
       <c r="E668" s="8">
-        <v>23</v>
+        <v>20.5</v>
       </c>
       <c r="F668" s="8">
         <v>0.05</v>
@@ -19022,7 +18982,7 @@
         <v>0.9</v>
       </c>
       <c r="H668" s="8">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="J668" s="8">
         <v>22.42</v>
@@ -19042,7 +19002,7 @@
         <v>53</v>
       </c>
       <c r="E669" s="8">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="F669" s="8">
         <v>0</v>
@@ -19051,7 +19011,7 @@
         <v>0</v>
       </c>
       <c r="H669" s="8">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J669" s="8">
         <v>10.675000000000001</v>
@@ -19071,7 +19031,7 @@
         <v>28</v>
       </c>
       <c r="E670" s="8">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="F670" s="8">
         <v>0</v>
@@ -19080,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="H670" s="8">
-        <v>9</v>
+        <v>11.6</v>
       </c>
       <c r="I670" t="s">
         <v>32</v>
@@ -19103,7 +19063,7 @@
         <v>54.5</v>
       </c>
       <c r="E671" s="8">
-        <v>21.5</v>
+        <v>16.7</v>
       </c>
       <c r="F671" s="8">
         <v>0</v>
@@ -19112,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="H671" s="8">
-        <v>8</v>
+        <v>10.4</v>
       </c>
       <c r="J671" s="8">
         <v>12.065</v>
@@ -20491,8 +20451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:U269"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O204" sqref="O204:P263"/>
+    <sheetView topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20502,40 +20462,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="55">
+      <c r="C2" s="57">
         <v>0.85</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
@@ -31356,9 +31316,9 @@
         <f t="shared" si="36"/>
         <v>40</v>
       </c>
-      <c r="S191" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+      <c r="S191">
+        <f>O191/(A191+1)</f>
+        <v>40</v>
       </c>
       <c r="T191">
         <v>44</v>
@@ -32159,62 +32119,76 @@
         <v>40</v>
       </c>
     </row>
-    <row r="204" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="26">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="13">
+        <v>28</v>
+      </c>
+      <c r="B204" s="21">
         <v>46029</v>
       </c>
-      <c r="C204" s="27">
+      <c r="C204">
         <v>39</v>
       </c>
-      <c r="D204" s="27">
+      <c r="D204">
         <v>31</v>
       </c>
-      <c r="E204" s="27">
+      <c r="E204">
         <v>49</v>
       </c>
-      <c r="F204" s="27">
+      <c r="F204">
         <v>42</v>
       </c>
-      <c r="G204" s="27">
+      <c r="G204">
         <v>53</v>
       </c>
-      <c r="H204" s="27">
+      <c r="H204">
         <v>53</v>
       </c>
-      <c r="I204" s="27">
+      <c r="I204">
         <v>52</v>
       </c>
-      <c r="J204" s="27">
+      <c r="J204">
         <v>41</v>
       </c>
-      <c r="K204" s="27">
+      <c r="K204">
         <v>47</v>
       </c>
-      <c r="L204" s="27">
+      <c r="L204">
         <v>36</v>
       </c>
-      <c r="M204" s="27">
+      <c r="M204">
         <v>54</v>
       </c>
-      <c r="N204" s="27">
+      <c r="N204">
         <v>38</v>
       </c>
-      <c r="O204" s="28">
+      <c r="O204" s="19">
         <f t="shared" si="38"/>
         <v>45</v>
       </c>
-      <c r="P204" s="28">
+      <c r="P204" s="19">
         <f t="shared" si="39"/>
         <v>7.01</v>
       </c>
-      <c r="T204" s="27">
+      <c r="R204" s="25">
+        <f t="shared" ref="R204:R211" si="40">O204-A204</f>
+        <v>17</v>
+      </c>
+      <c r="S204">
+        <f t="shared" ref="S204:S207" si="41">O204/A204</f>
+        <v>1.6071428571428572</v>
+      </c>
+      <c r="T204">
         <v>49</v>
       </c>
-      <c r="U204" s="27">
+      <c r="U204">
         <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205" s="13">
+        <v>46</v>
+      </c>
       <c r="B205" s="21">
         <v>46030</v>
       </c>
@@ -32262,6 +32236,14 @@
         <f t="shared" si="39"/>
         <v>16.28</v>
       </c>
+      <c r="R205" s="25">
+        <f t="shared" si="40"/>
+        <v>47</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="41"/>
+        <v>2.0217391304347827</v>
+      </c>
       <c r="T205">
         <v>89</v>
       </c>
@@ -32270,6 +32252,9 @@
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="13">
+        <v>113</v>
+      </c>
       <c r="B206" s="21">
         <v>46031</v>
       </c>
@@ -32317,6 +32302,14 @@
         <f t="shared" si="39"/>
         <v>12.74</v>
       </c>
+      <c r="R206" s="25">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="41"/>
+        <v>0.98230088495575218</v>
+      </c>
       <c r="T206">
         <v>113</v>
       </c>
@@ -32325,6 +32318,9 @@
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207" s="13">
+        <v>66</v>
+      </c>
       <c r="B207" s="21">
         <v>46032</v>
       </c>
@@ -32372,6 +32368,14 @@
         <f t="shared" si="39"/>
         <v>9.32</v>
       </c>
+      <c r="R207" s="25">
+        <f t="shared" si="40"/>
+        <v>62</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="41"/>
+        <v>1.9393939393939394</v>
+      </c>
       <c r="T207">
         <v>125</v>
       </c>
@@ -32380,6 +32384,9 @@
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208" s="13">
+        <v>50</v>
+      </c>
       <c r="B208" s="21">
         <v>46033</v>
       </c>
@@ -32427,6 +32434,14 @@
         <f t="shared" si="39"/>
         <v>7.08</v>
       </c>
+      <c r="R208" s="25">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+      <c r="S208">
+        <f>O208/A208</f>
+        <v>0.98</v>
+      </c>
       <c r="T208">
         <v>47</v>
       </c>
@@ -32434,7 +32449,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209" s="13">
+        <v>20</v>
+      </c>
       <c r="B209" s="21">
         <v>46034</v>
       </c>
@@ -32454,7 +32472,7 @@
         <v>46</v>
       </c>
       <c r="H209">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I209">
         <v>50</v>
@@ -32463,10 +32481,10 @@
         <v>39</v>
       </c>
       <c r="K209">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L209">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M209">
         <v>24</v>
@@ -32480,7 +32498,15 @@
       </c>
       <c r="P209" s="19">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>6.17</v>
+      </c>
+      <c r="R209" s="25">
+        <f t="shared" si="40"/>
+        <v>20</v>
+      </c>
+      <c r="S209">
+        <f>O209/A209</f>
+        <v>2</v>
       </c>
       <c r="T209">
         <v>41</v>
@@ -32489,7 +32515,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="13">
+        <v>20</v>
+      </c>
       <c r="B210" s="21">
         <v>46035</v>
       </c>
@@ -32509,7 +32538,7 @@
         <v>43</v>
       </c>
       <c r="H210">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I210">
         <v>53</v>
@@ -32518,10 +32547,10 @@
         <v>40</v>
       </c>
       <c r="K210">
+        <v>41</v>
+      </c>
+      <c r="L210">
         <v>44</v>
-      </c>
-      <c r="L210">
-        <v>43</v>
       </c>
       <c r="M210">
         <v>37</v>
@@ -32535,7 +32564,15 @@
       </c>
       <c r="P210" s="19">
         <f t="shared" si="39"/>
-        <v>4.21</v>
+        <v>4.28</v>
+      </c>
+      <c r="R210" s="25">
+        <f t="shared" si="40"/>
+        <v>24</v>
+      </c>
+      <c r="S210">
+        <f>O210/A210</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T210">
         <v>49</v>
@@ -32544,62 +32581,73 @@
         <v>40</v>
       </c>
     </row>
-    <row r="211" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B211" s="21">
+    <row r="211" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="27">
+        <v>35</v>
+      </c>
+      <c r="B211" s="26">
         <v>46036</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="27">
         <v>45</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="27">
         <v>36</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="27">
         <v>52</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="27">
         <v>44</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="27">
         <v>51</v>
       </c>
-      <c r="H211">
-        <v>49</v>
-      </c>
-      <c r="I211">
+      <c r="H211" s="27">
+        <v>52</v>
+      </c>
+      <c r="I211" s="27">
         <v>51</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="27">
         <v>42</v>
       </c>
-      <c r="K211">
-        <v>45</v>
-      </c>
-      <c r="L211">
-        <v>37</v>
-      </c>
-      <c r="M211">
+      <c r="K211" s="27">
+        <v>32</v>
+      </c>
+      <c r="L211" s="27">
+        <v>41</v>
+      </c>
+      <c r="M211" s="27">
         <v>42</v>
       </c>
-      <c r="N211">
+      <c r="N211" s="27">
         <v>39</v>
       </c>
-      <c r="O211" s="19">
+      <c r="O211" s="28">
         <f t="shared" si="38"/>
         <v>45</v>
       </c>
-      <c r="P211" s="19">
+      <c r="P211" s="28">
         <f t="shared" si="39"/>
-        <v>5.61</v>
-      </c>
-      <c r="T211">
+        <v>6.51</v>
+      </c>
+      <c r="R211" s="27">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="S211" s="27">
+        <f>O211/A211</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="T211" s="27">
         <v>55</v>
       </c>
-      <c r="U211">
+      <c r="U211" s="27">
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B212" s="21">
         <v>46037</v>
       </c>
@@ -32619,7 +32667,7 @@
         <v>86</v>
       </c>
       <c r="H212">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I212">
         <v>80</v>
@@ -32628,10 +32676,10 @@
         <v>65</v>
       </c>
       <c r="K212">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="L212">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M212">
         <v>58</v>
@@ -32641,11 +32689,11 @@
       </c>
       <c r="O212" s="19">
         <f t="shared" si="38"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P212" s="19">
         <f t="shared" si="39"/>
-        <v>8.0299999999999994</v>
+        <v>11.79</v>
       </c>
       <c r="T212">
         <v>63</v>
@@ -32654,7 +32702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="213" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B213" s="21">
         <v>46038</v>
       </c>
@@ -32674,7 +32722,7 @@
         <v>142</v>
       </c>
       <c r="H213">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="I213">
         <v>171</v>
@@ -32683,10 +32731,10 @@
         <v>116</v>
       </c>
       <c r="K213">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="L213">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="M213">
         <v>150</v>
@@ -32696,11 +32744,11 @@
       </c>
       <c r="O213" s="19">
         <f t="shared" si="38"/>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P213" s="19">
         <f t="shared" si="39"/>
-        <v>33.42</v>
+        <v>22.72</v>
       </c>
       <c r="T213">
         <v>101</v>
@@ -32709,7 +32757,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B214" s="21">
         <v>46039</v>
       </c>
@@ -32729,7 +32777,7 @@
         <v>129</v>
       </c>
       <c r="H214">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I214">
         <v>148</v>
@@ -32738,10 +32786,10 @@
         <v>129</v>
       </c>
       <c r="K214">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="L214">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="M214">
         <v>170</v>
@@ -32751,11 +32799,11 @@
       </c>
       <c r="O214" s="19">
         <f t="shared" si="38"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P214" s="19">
         <f t="shared" si="39"/>
-        <v>14.15</v>
+        <v>15.59</v>
       </c>
       <c r="T214">
         <v>152</v>
@@ -32764,7 +32812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B215" s="21">
         <v>46040</v>
       </c>
@@ -32784,7 +32832,7 @@
         <v>58</v>
       </c>
       <c r="H215">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I215">
         <v>53</v>
@@ -32793,10 +32841,10 @@
         <v>56</v>
       </c>
       <c r="K215">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L215">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M215">
         <v>78</v>
@@ -32806,11 +32854,11 @@
       </c>
       <c r="O215" s="19">
         <f t="shared" si="38"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P215" s="19">
         <f t="shared" si="39"/>
-        <v>7.74</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="T215">
         <v>57</v>
@@ -32819,7 +32867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B216" s="21">
         <v>46041</v>
       </c>
@@ -32839,7 +32887,7 @@
         <v>47</v>
       </c>
       <c r="H216">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I216">
         <v>34</v>
@@ -32848,10 +32896,10 @@
         <v>29</v>
       </c>
       <c r="K216">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L216">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M216">
         <v>15</v>
@@ -32865,7 +32913,7 @@
       </c>
       <c r="P216" s="19">
         <f t="shared" si="39"/>
-        <v>11.85</v>
+        <v>10.08</v>
       </c>
       <c r="T216">
         <v>22</v>
@@ -32874,7 +32922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B217" s="21">
         <v>46042</v>
       </c>
@@ -32894,7 +32942,7 @@
         <v>47</v>
       </c>
       <c r="H217">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I217">
         <v>52</v>
@@ -32903,10 +32951,10 @@
         <v>50</v>
       </c>
       <c r="K217">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L217">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M217">
         <v>47</v>
@@ -32916,11 +32964,11 @@
       </c>
       <c r="O217" s="19">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P217" s="19">
         <f t="shared" si="39"/>
-        <v>2.77</v>
+        <v>3.25</v>
       </c>
       <c r="T217">
         <v>50</v>
@@ -32929,7 +32977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B218" s="21">
         <v>46043</v>
       </c>
@@ -32949,7 +32997,7 @@
         <v>48</v>
       </c>
       <c r="H218">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I218">
         <v>53</v>
@@ -32958,10 +33006,10 @@
         <v>41</v>
       </c>
       <c r="K218">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L218">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M218">
         <v>40</v>
@@ -32975,7 +33023,7 @@
       </c>
       <c r="P218" s="19">
         <f t="shared" si="39"/>
-        <v>4.88</v>
+        <v>4.43</v>
       </c>
       <c r="T218">
         <v>42</v>
@@ -32984,7 +33032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B219" s="21">
         <v>46044</v>
       </c>
@@ -33004,7 +33052,7 @@
         <v>63</v>
       </c>
       <c r="H219">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I219">
         <v>67</v>
@@ -33013,10 +33061,10 @@
         <v>57</v>
       </c>
       <c r="K219">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L219">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M219">
         <v>53</v>
@@ -33026,11 +33074,11 @@
       </c>
       <c r="O219" s="19">
         <f t="shared" si="38"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P219" s="19">
         <f t="shared" si="39"/>
-        <v>5.81</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="T219">
         <v>53</v>
@@ -33039,7 +33087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="220" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B220" s="21">
         <v>46045</v>
       </c>
@@ -33059,7 +33107,7 @@
         <v>89</v>
       </c>
       <c r="H220">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I220">
         <v>117</v>
@@ -33068,10 +33116,10 @@
         <v>118</v>
       </c>
       <c r="K220">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="L220">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="M220">
         <v>139</v>
@@ -33085,7 +33133,7 @@
       </c>
       <c r="P220" s="19">
         <f t="shared" si="39"/>
-        <v>17.48</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="T220">
         <v>113</v>
@@ -33094,7 +33142,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="221" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B221" s="21">
         <v>46046</v>
       </c>
@@ -33114,7 +33162,7 @@
         <v>115</v>
       </c>
       <c r="H221">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I221">
         <v>140</v>
@@ -33123,10 +33171,10 @@
         <v>140</v>
       </c>
       <c r="K221">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L221">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="M221">
         <v>159</v>
@@ -33136,11 +33184,11 @@
       </c>
       <c r="O221" s="19">
         <f t="shared" si="38"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P221" s="19">
         <f t="shared" si="39"/>
-        <v>13.5</v>
+        <v>12.24</v>
       </c>
       <c r="T221">
         <v>131</v>
@@ -33149,7 +33197,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="222" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B222" s="21">
         <v>46047</v>
       </c>
@@ -33169,7 +33217,7 @@
         <v>63</v>
       </c>
       <c r="H222">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I222">
         <v>47</v>
@@ -33178,10 +33226,10 @@
         <v>46</v>
       </c>
       <c r="K222">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L222">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M222">
         <v>10</v>
@@ -33195,7 +33243,7 @@
       </c>
       <c r="P222" s="19">
         <f t="shared" si="39"/>
-        <v>13.46</v>
+        <v>11.34</v>
       </c>
       <c r="T222">
         <v>40</v>
@@ -33204,7 +33252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B223" s="21">
         <v>46048</v>
       </c>
@@ -33224,7 +33272,7 @@
         <v>67</v>
       </c>
       <c r="H223">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I223">
         <v>52</v>
@@ -33233,10 +33281,10 @@
         <v>48</v>
       </c>
       <c r="K223">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L223">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M223">
         <v>30</v>
@@ -33246,11 +33294,11 @@
       </c>
       <c r="O223" s="19">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P223" s="19">
         <f t="shared" si="39"/>
-        <v>9.56</v>
+        <v>8.24</v>
       </c>
       <c r="T223">
         <v>48</v>
@@ -33259,7 +33307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B224" s="21">
         <v>46049</v>
       </c>
@@ -33279,7 +33327,7 @@
         <v>56</v>
       </c>
       <c r="H224">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I224">
         <v>55</v>
@@ -33288,10 +33336,10 @@
         <v>56</v>
       </c>
       <c r="K224">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L224">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M224">
         <v>50</v>
@@ -33301,11 +33349,11 @@
       </c>
       <c r="O224" s="19">
         <f t="shared" si="38"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P224" s="19">
         <f t="shared" si="39"/>
-        <v>5.13</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="T224">
         <v>48</v>
@@ -33334,7 +33382,7 @@
         <v>49</v>
       </c>
       <c r="H225">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I225">
         <v>55</v>
@@ -33343,10 +33391,10 @@
         <v>44</v>
       </c>
       <c r="K225">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L225">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M225">
         <v>50</v>
@@ -33356,11 +33404,11 @@
       </c>
       <c r="O225" s="19">
         <f t="shared" si="38"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P225" s="19">
         <f t="shared" si="39"/>
-        <v>4.63</v>
+        <v>4.46</v>
       </c>
       <c r="T225">
         <v>45</v>
@@ -33389,7 +33437,7 @@
         <v>76</v>
       </c>
       <c r="H226">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I226">
         <v>62</v>
@@ -33398,10 +33446,10 @@
         <v>58</v>
       </c>
       <c r="K226">
+        <v>60</v>
+      </c>
+      <c r="L226">
         <v>54</v>
-      </c>
-      <c r="L226">
-        <v>62</v>
       </c>
       <c r="M226">
         <v>60</v>
@@ -33415,7 +33463,7 @@
       </c>
       <c r="P226" s="19">
         <f t="shared" si="39"/>
-        <v>5.6</v>
+        <v>5.52</v>
       </c>
       <c r="T226">
         <v>52</v>
@@ -33444,7 +33492,7 @@
         <v>96</v>
       </c>
       <c r="H227">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="I227">
         <v>121</v>
@@ -33453,10 +33501,10 @@
         <v>122</v>
       </c>
       <c r="K227">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="L227">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="M227">
         <v>232</v>
@@ -33466,11 +33514,11 @@
       </c>
       <c r="O227" s="19">
         <f t="shared" si="38"/>
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P227" s="19">
         <f t="shared" si="39"/>
-        <v>34.299999999999997</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="T227">
         <v>117</v>
@@ -33499,7 +33547,7 @@
         <v>126</v>
       </c>
       <c r="H228">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I228">
         <v>141</v>
@@ -33508,10 +33556,10 @@
         <v>139</v>
       </c>
       <c r="K228">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L228">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="M228">
         <v>179</v>
@@ -33525,7 +33573,7 @@
       </c>
       <c r="P228" s="19">
         <f t="shared" si="39"/>
-        <v>14.81</v>
+        <v>17.77</v>
       </c>
       <c r="T228">
         <v>146</v>
@@ -33554,7 +33602,7 @@
         <v>57</v>
       </c>
       <c r="H229">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I229">
         <v>53</v>
@@ -33563,10 +33611,10 @@
         <v>55</v>
       </c>
       <c r="K229">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L229">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M229">
         <v>78</v>
@@ -33576,11 +33624,11 @@
       </c>
       <c r="O229" s="19">
         <f t="shared" si="38"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P229" s="19">
         <f t="shared" si="39"/>
-        <v>8.1</v>
+        <v>8.64</v>
       </c>
       <c r="T229">
         <v>56</v>
@@ -33609,7 +33657,7 @@
         <v>49</v>
       </c>
       <c r="H230">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I230">
         <v>50</v>
@@ -33618,10 +33666,10 @@
         <v>45</v>
       </c>
       <c r="K230">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L230">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M230">
         <v>48</v>
@@ -33631,11 +33679,11 @@
       </c>
       <c r="O230" s="19">
         <f t="shared" si="38"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P230" s="19">
         <f t="shared" si="39"/>
-        <v>3.17</v>
+        <v>4.07</v>
       </c>
       <c r="T230">
         <v>50</v>
@@ -33664,7 +33712,7 @@
         <v>59</v>
       </c>
       <c r="H231">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I231">
         <v>57</v>
@@ -33676,7 +33724,7 @@
         <v>52</v>
       </c>
       <c r="L231">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M231">
         <v>53</v>
@@ -33686,11 +33734,11 @@
       </c>
       <c r="O231" s="19">
         <f t="shared" si="38"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P231" s="19">
         <f t="shared" si="39"/>
-        <v>4.62</v>
+        <v>4.42</v>
       </c>
       <c r="T231">
         <v>49</v>
@@ -33719,7 +33767,7 @@
         <v>50</v>
       </c>
       <c r="H232">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I232">
         <v>55</v>
@@ -33728,10 +33776,10 @@
         <v>45</v>
       </c>
       <c r="K232">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L232">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M232">
         <v>56</v>
@@ -33741,11 +33789,11 @@
       </c>
       <c r="O232" s="19">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P232" s="19">
         <f t="shared" si="39"/>
-        <v>4.25</v>
+        <v>4.54</v>
       </c>
       <c r="T232">
         <v>50</v>
@@ -33774,7 +33822,7 @@
         <v>75</v>
       </c>
       <c r="H233">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I233">
         <v>79</v>
@@ -33783,10 +33831,10 @@
         <v>67</v>
       </c>
       <c r="K233">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L233">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M233">
         <v>67</v>
@@ -33796,11 +33844,11 @@
       </c>
       <c r="O233" s="19">
         <f t="shared" si="38"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P233" s="19">
         <f t="shared" si="39"/>
-        <v>6.84</v>
+        <v>7.07</v>
       </c>
       <c r="T233">
         <v>60</v>
@@ -33829,7 +33877,7 @@
         <v>126</v>
       </c>
       <c r="H234">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I234">
         <v>174</v>
@@ -33838,10 +33886,10 @@
         <v>132</v>
       </c>
       <c r="K234">
+        <v>106</v>
+      </c>
+      <c r="L234">
         <v>118</v>
-      </c>
-      <c r="L234">
-        <v>155</v>
       </c>
       <c r="M234">
         <v>136</v>
@@ -33851,11 +33899,11 @@
       </c>
       <c r="O234" s="19">
         <f t="shared" si="38"/>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P234" s="19">
         <f t="shared" si="39"/>
-        <v>19.09</v>
+        <v>18.95</v>
       </c>
       <c r="T234">
         <v>138</v>
@@ -33884,7 +33932,7 @@
         <v>144</v>
       </c>
       <c r="H235">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="I235">
         <v>193</v>
@@ -33893,10 +33941,10 @@
         <v>148</v>
       </c>
       <c r="K235">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="L235">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="M235">
         <v>206</v>
@@ -33906,11 +33954,11 @@
       </c>
       <c r="O235" s="19">
         <f t="shared" si="38"/>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P235" s="19">
         <f t="shared" si="39"/>
-        <v>23.6</v>
+        <v>25.86</v>
       </c>
       <c r="T235">
         <v>175</v>
@@ -33939,7 +33987,7 @@
         <v>52</v>
       </c>
       <c r="H236">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I236">
         <v>37</v>
@@ -33948,10 +33996,10 @@
         <v>32</v>
       </c>
       <c r="K236">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L236">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M236">
         <v>21</v>
@@ -33961,11 +34009,11 @@
       </c>
       <c r="O236" s="19">
         <f t="shared" si="38"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P236" s="19">
         <f t="shared" si="39"/>
-        <v>12.34</v>
+        <v>11.68</v>
       </c>
       <c r="T236">
         <v>38</v>
@@ -33994,7 +34042,7 @@
         <v>40</v>
       </c>
       <c r="H237">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I237">
         <v>47</v>
@@ -34003,10 +34051,10 @@
         <v>42</v>
       </c>
       <c r="K237">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L237">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M237">
         <v>39</v>
@@ -34020,7 +34068,7 @@
       </c>
       <c r="P237" s="19">
         <f t="shared" si="39"/>
-        <v>6.61</v>
+        <v>6.15</v>
       </c>
       <c r="T237">
         <v>50</v>
@@ -34049,7 +34097,7 @@
         <v>44</v>
       </c>
       <c r="H238">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I238">
         <v>44</v>
@@ -34058,10 +34106,10 @@
         <v>45</v>
       </c>
       <c r="K238">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L238">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M238">
         <v>47</v>
@@ -34071,11 +34119,11 @@
       </c>
       <c r="O238" s="19">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P238" s="19">
         <f t="shared" si="39"/>
-        <v>2.79</v>
+        <v>2.72</v>
       </c>
       <c r="T238">
         <v>40</v>
@@ -34104,7 +34152,7 @@
         <v>63</v>
       </c>
       <c r="H239">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I239">
         <v>62</v>
@@ -34113,10 +34161,10 @@
         <v>58</v>
       </c>
       <c r="K239">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L239">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M239">
         <v>52</v>
@@ -34126,11 +34174,11 @@
       </c>
       <c r="O239" s="19">
         <f t="shared" si="38"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P239" s="19">
         <f t="shared" si="39"/>
-        <v>6.86</v>
+        <v>5.8</v>
       </c>
       <c r="T239">
         <v>48</v>
@@ -34159,7 +34207,7 @@
         <v>88</v>
       </c>
       <c r="H240">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I240">
         <v>86</v>
@@ -34168,10 +34216,10 @@
         <v>78</v>
       </c>
       <c r="K240">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L240">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M240">
         <v>76</v>
@@ -34181,11 +34229,11 @@
       </c>
       <c r="O240" s="19">
         <f t="shared" si="38"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P240" s="19">
         <f t="shared" si="39"/>
-        <v>6.83</v>
+        <v>10.61</v>
       </c>
       <c r="T240">
         <v>71</v>
@@ -34214,7 +34262,7 @@
         <v>114</v>
       </c>
       <c r="H241">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I241">
         <v>125</v>
@@ -34223,10 +34271,10 @@
         <v>117</v>
       </c>
       <c r="K241">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L241">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="M241">
         <v>128</v>
@@ -34236,11 +34284,11 @@
       </c>
       <c r="O241" s="19">
         <f t="shared" si="38"/>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P241" s="19">
         <f t="shared" si="39"/>
-        <v>10.68</v>
+        <v>13.37</v>
       </c>
       <c r="T241">
         <v>128</v>
@@ -34269,7 +34317,7 @@
         <v>139</v>
       </c>
       <c r="H242">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="I242">
         <v>178</v>
@@ -34278,10 +34326,10 @@
         <v>176</v>
       </c>
       <c r="K242">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="L242">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="M242">
         <v>162</v>
@@ -34291,11 +34339,11 @@
       </c>
       <c r="O242" s="19">
         <f t="shared" si="38"/>
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P242" s="19">
         <f t="shared" si="39"/>
-        <v>39.380000000000003</v>
+        <v>27.13</v>
       </c>
       <c r="T242">
         <v>214</v>
@@ -34324,7 +34372,7 @@
         <v>58</v>
       </c>
       <c r="H243">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I243">
         <v>53</v>
@@ -34333,10 +34381,10 @@
         <v>58</v>
       </c>
       <c r="K243">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L243">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M243">
         <v>69</v>
@@ -34346,11 +34394,11 @@
       </c>
       <c r="O243" s="19">
         <f t="shared" si="38"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P243" s="19">
         <f t="shared" si="39"/>
-        <v>5.64</v>
+        <v>7.73</v>
       </c>
       <c r="T243">
         <v>60</v>
@@ -34379,7 +34427,7 @@
         <v>49</v>
       </c>
       <c r="H244">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I244">
         <v>54</v>
@@ -34388,10 +34436,10 @@
         <v>45</v>
       </c>
       <c r="K244">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="L244">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M244">
         <v>54</v>
@@ -34401,11 +34449,11 @@
       </c>
       <c r="O244" s="19">
         <f t="shared" si="38"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P244" s="19">
         <f t="shared" si="39"/>
-        <v>8.8800000000000008</v>
+        <v>7.5</v>
       </c>
       <c r="T244">
         <v>40</v>
@@ -34434,7 +34482,7 @@
         <v>61</v>
       </c>
       <c r="H245">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I245">
         <v>58</v>
@@ -34443,10 +34491,10 @@
         <v>59</v>
       </c>
       <c r="K245">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L245">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M245">
         <v>56</v>
@@ -34456,11 +34504,11 @@
       </c>
       <c r="O245" s="19">
         <f t="shared" si="38"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P245" s="19">
         <f t="shared" si="39"/>
-        <v>3.92</v>
+        <v>5.27</v>
       </c>
       <c r="T245">
         <v>51</v>
@@ -34489,7 +34537,7 @@
         <v>70</v>
       </c>
       <c r="H246">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I246">
         <v>71</v>
@@ -34498,10 +34546,10 @@
         <v>68</v>
       </c>
       <c r="K246">
+        <v>43</v>
+      </c>
+      <c r="L246">
         <v>60</v>
-      </c>
-      <c r="L246">
-        <v>74</v>
       </c>
       <c r="M246">
         <v>53</v>
@@ -34511,11 +34559,11 @@
       </c>
       <c r="O246" s="19">
         <f t="shared" si="38"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P246" s="19">
         <f t="shared" si="39"/>
-        <v>8.3000000000000007</v>
+        <v>11.7</v>
       </c>
       <c r="T246">
         <v>76</v>
@@ -34544,7 +34592,7 @@
         <v>74</v>
       </c>
       <c r="H247">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I247">
         <v>68</v>
@@ -34553,10 +34601,10 @@
         <v>58</v>
       </c>
       <c r="K247">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L247">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M247">
         <v>48</v>
@@ -34566,11 +34614,11 @@
       </c>
       <c r="O247" s="19">
         <f t="shared" si="38"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P247" s="19">
         <f t="shared" si="39"/>
-        <v>9.23</v>
+        <v>8.67</v>
       </c>
       <c r="T247">
         <v>55</v>
@@ -34599,7 +34647,7 @@
         <v>99</v>
       </c>
       <c r="H248">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="I248">
         <v>84</v>
@@ -34608,10 +34656,10 @@
         <v>75</v>
       </c>
       <c r="K248">
+        <v>120</v>
+      </c>
+      <c r="L248">
         <v>68</v>
-      </c>
-      <c r="L248">
-        <v>83</v>
       </c>
       <c r="M248">
         <v>93</v>
@@ -34621,11 +34669,11 @@
       </c>
       <c r="O248" s="19">
         <f t="shared" si="38"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P248" s="19">
         <f t="shared" si="39"/>
-        <v>13.28</v>
+        <v>16.34</v>
       </c>
       <c r="T248">
         <v>102</v>
@@ -34654,7 +34702,7 @@
         <v>115</v>
       </c>
       <c r="H249">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="I249">
         <v>139</v>
@@ -34663,10 +34711,10 @@
         <v>142</v>
       </c>
       <c r="K249">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="L249">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="M249">
         <v>166</v>
@@ -34676,11 +34724,11 @@
       </c>
       <c r="O249" s="19">
         <f t="shared" si="38"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P249" s="19">
         <f t="shared" si="39"/>
-        <v>14.93</v>
+        <v>14.9</v>
       </c>
       <c r="T249">
         <v>124</v>
@@ -34709,7 +34757,7 @@
         <v>55</v>
       </c>
       <c r="H250">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I250">
         <v>48</v>
@@ -34718,10 +34766,10 @@
         <v>42</v>
       </c>
       <c r="K250">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L250">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M250">
         <v>65</v>
@@ -34731,11 +34779,11 @@
       </c>
       <c r="O250" s="19">
         <f t="shared" si="38"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P250" s="19">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>7.04</v>
       </c>
       <c r="T250">
         <v>47</v>
@@ -34764,7 +34812,7 @@
         <v>52</v>
       </c>
       <c r="H251">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I251">
         <v>51</v>
@@ -34773,10 +34821,10 @@
         <v>51</v>
       </c>
       <c r="K251">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L251">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M251">
         <v>66</v>
@@ -34786,11 +34834,11 @@
       </c>
       <c r="O251" s="19">
         <f t="shared" si="38"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P251" s="19">
         <f t="shared" si="39"/>
-        <v>5.24</v>
+        <v>5.59</v>
       </c>
       <c r="T251">
         <v>48</v>
@@ -34819,7 +34867,7 @@
         <v>61</v>
       </c>
       <c r="H252">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I252">
         <v>58</v>
@@ -34828,10 +34876,10 @@
         <v>55</v>
       </c>
       <c r="K252">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L252">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M252">
         <v>53</v>
@@ -34841,11 +34889,11 @@
       </c>
       <c r="O252" s="19">
         <f t="shared" si="38"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P252" s="19">
         <f t="shared" si="39"/>
-        <v>4.5599999999999996</v>
+        <v>6.09</v>
       </c>
       <c r="T252">
         <v>60</v>
@@ -34874,7 +34922,7 @@
         <v>44</v>
       </c>
       <c r="H253">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I253">
         <v>49</v>
@@ -34883,10 +34931,10 @@
         <v>37</v>
       </c>
       <c r="K253">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L253">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M253">
         <v>33</v>
@@ -34896,11 +34944,11 @@
       </c>
       <c r="O253" s="19">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P253" s="19">
         <f t="shared" si="39"/>
-        <v>6.1</v>
+        <v>6.53</v>
       </c>
       <c r="T253">
         <v>42</v>
@@ -34929,7 +34977,7 @@
         <v>68</v>
       </c>
       <c r="H254">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I254">
         <v>85</v>
@@ -34938,10 +34986,10 @@
         <v>59</v>
       </c>
       <c r="K254">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L254">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M254">
         <v>77</v>
@@ -34951,11 +34999,11 @@
       </c>
       <c r="O254" s="19">
         <f t="shared" si="38"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P254" s="19">
         <f t="shared" si="39"/>
-        <v>9.76</v>
+        <v>9.75</v>
       </c>
       <c r="T254">
         <v>54</v>
@@ -34984,7 +35032,7 @@
         <v>85</v>
       </c>
       <c r="H255">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I255">
         <v>79</v>
@@ -34993,10 +35041,10 @@
         <v>80</v>
       </c>
       <c r="K255">
+        <v>107</v>
+      </c>
+      <c r="L255">
         <v>70</v>
-      </c>
-      <c r="L255">
-        <v>85</v>
       </c>
       <c r="M255">
         <v>102</v>
@@ -35006,11 +35054,11 @@
       </c>
       <c r="O255" s="19">
         <f t="shared" si="38"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P255" s="19">
         <f t="shared" si="39"/>
-        <v>7.32</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="T255">
         <v>78</v>
@@ -35039,7 +35087,7 @@
         <v>133</v>
       </c>
       <c r="H256">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="I256">
         <v>143</v>
@@ -35048,10 +35096,10 @@
         <v>137</v>
       </c>
       <c r="K256">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L256">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="M256">
         <v>155</v>
@@ -35061,11 +35109,11 @@
       </c>
       <c r="O256" s="19">
         <f t="shared" si="38"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P256" s="19">
         <f t="shared" si="39"/>
-        <v>10.6</v>
+        <v>12.01</v>
       </c>
       <c r="T256">
         <v>141</v>
@@ -35094,7 +35142,7 @@
         <v>47</v>
       </c>
       <c r="H257">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I257">
         <v>48</v>
@@ -35103,7 +35151,7 @@
         <v>43</v>
       </c>
       <c r="K257">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L257">
         <v>42</v>
@@ -35116,11 +35164,11 @@
       </c>
       <c r="O257" s="19">
         <f t="shared" si="38"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P257" s="19">
         <f t="shared" si="39"/>
-        <v>3.58</v>
+        <v>3.68</v>
       </c>
       <c r="T257">
         <v>45</v>
@@ -35149,7 +35197,7 @@
         <v>48</v>
       </c>
       <c r="H258">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I258">
         <v>55</v>
@@ -35158,10 +35206,10 @@
         <v>52</v>
       </c>
       <c r="K258">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L258">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M258">
         <v>52</v>
@@ -35171,11 +35219,11 @@
       </c>
       <c r="O258" s="19">
         <f t="shared" si="38"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P258" s="19">
         <f t="shared" si="39"/>
-        <v>3.46</v>
+        <v>3.75</v>
       </c>
       <c r="T258">
         <v>48</v>
@@ -35204,7 +35252,7 @@
         <v>46</v>
       </c>
       <c r="H259">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I259">
         <v>59</v>
@@ -35213,10 +35261,10 @@
         <v>52</v>
       </c>
       <c r="K259">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L259">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="M259">
         <v>60</v>
@@ -35226,11 +35274,11 @@
       </c>
       <c r="O259" s="19">
         <f t="shared" si="38"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P259" s="19">
         <f t="shared" si="39"/>
-        <v>4.49</v>
+        <v>5.7</v>
       </c>
       <c r="T259">
         <v>59</v>
@@ -35259,7 +35307,7 @@
         <v>65</v>
       </c>
       <c r="H260">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I260">
         <v>50</v>
@@ -35268,10 +35316,10 @@
         <v>48</v>
       </c>
       <c r="K260">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L260">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M260">
         <v>41</v>
@@ -35285,7 +35333,7 @@
       </c>
       <c r="P260" s="19">
         <f t="shared" si="39"/>
-        <v>8.4</v>
+        <v>10.06</v>
       </c>
       <c r="T260">
         <v>64</v>
@@ -35314,7 +35362,7 @@
         <v>60</v>
       </c>
       <c r="H261">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I261">
         <v>60</v>
@@ -35326,7 +35374,7 @@
         <v>46</v>
       </c>
       <c r="L261">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M261">
         <v>48</v>
@@ -35336,11 +35384,11 @@
       </c>
       <c r="O261" s="19">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P261" s="19">
         <f t="shared" si="39"/>
-        <v>7.37</v>
+        <v>6.68</v>
       </c>
       <c r="T261">
         <v>51</v>
@@ -35369,7 +35417,7 @@
         <v>100</v>
       </c>
       <c r="H262">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I262">
         <v>74</v>
@@ -35378,10 +35426,10 @@
         <v>66</v>
       </c>
       <c r="K262">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L262">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M262">
         <v>67</v>
@@ -35390,12 +35438,12 @@
         <v>62</v>
       </c>
       <c r="O262" s="19">
-        <f t="shared" ref="O262:O263" si="40">ROUND(AVERAGE(C262:N262,T262:U262),0)</f>
-        <v>68</v>
+        <f t="shared" ref="O262:O263" si="42">ROUND(AVERAGE(C262:N262,T262:U262),0)</f>
+        <v>69</v>
       </c>
       <c r="P262" s="19">
-        <f t="shared" ref="P262:P263" si="41">ROUND(_xlfn.STDEV.P(C262:N262,T262:U262),2)</f>
-        <v>9.8000000000000007</v>
+        <f t="shared" ref="P262:P263" si="43">ROUND(_xlfn.STDEV.P(C262:N262,T262:U262),2)</f>
+        <v>11.01</v>
       </c>
       <c r="T262">
         <v>63</v>
@@ -35424,7 +35472,7 @@
         <v>141</v>
       </c>
       <c r="H263">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="I263">
         <v>165</v>
@@ -35433,10 +35481,10 @@
         <v>135</v>
       </c>
       <c r="K263">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="L263">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="M263">
         <v>138</v>
@@ -35445,12 +35493,12 @@
         <v>165</v>
       </c>
       <c r="O263" s="19">
-        <f t="shared" si="40"/>
-        <v>151</v>
+        <f t="shared" si="42"/>
+        <v>154</v>
       </c>
       <c r="P263" s="19">
-        <f t="shared" si="41"/>
-        <v>13.62</v>
+        <f t="shared" si="43"/>
+        <v>17.649999999999999</v>
       </c>
       <c r="T263">
         <v>164</v>
@@ -35479,7 +35527,7 @@
         <v>22.15</v>
       </c>
       <c r="H264" s="14">
-        <v>20.46</v>
+        <v>23.48</v>
       </c>
       <c r="I264" s="14">
         <v>23.93</v>
@@ -35488,10 +35536,10 @@
         <v>22.01</v>
       </c>
       <c r="K264" s="14">
-        <v>22.37</v>
+        <v>24.22</v>
       </c>
       <c r="L264" s="14">
-        <v>25.33</v>
+        <v>31.53</v>
       </c>
       <c r="M264" s="14">
         <v>32.619999999999997</v>
@@ -35501,11 +35549,11 @@
       </c>
       <c r="O264" s="32">
         <f>ROUND(AVERAGE(C264:N264,T264:U264),2)</f>
-        <v>24.37</v>
+        <v>25.16</v>
       </c>
       <c r="P264" s="32">
         <f>ROUND(_xlfn.STDEV.P(C264:N264,T264:U264),2)</f>
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="T264">
         <v>22.77</v>
@@ -35534,7 +35582,7 @@
         <v>31.1</v>
       </c>
       <c r="H265">
-        <v>33.6</v>
+        <v>30.78</v>
       </c>
       <c r="I265">
         <v>32.85</v>
@@ -35543,10 +35591,10 @@
         <v>31.65</v>
       </c>
       <c r="K265">
-        <v>33.380000000000003</v>
+        <v>29.28</v>
       </c>
       <c r="L265">
-        <v>27.63</v>
+        <v>25.2</v>
       </c>
       <c r="M265" s="14">
         <v>24.91</v>
@@ -35556,11 +35604,11 @@
       </c>
       <c r="O265" s="32">
         <f>ROUND(AVERAGE(C265:N265,T265:U265),2)</f>
-        <v>29.49</v>
+        <v>28.82</v>
       </c>
       <c r="P265" s="32">
         <f>ROUND(_xlfn.STDEV.P(C265:N265,T265:U265),2)</f>
-        <v>2.78</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="T265">
         <v>29.54</v>
@@ -35570,34 +35618,34 @@
       </c>
     </row>
     <row r="266" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C266" s="53" t="s">
+      <c r="C266" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D266" s="53"/>
-      <c r="E266" s="53" t="s">
+      <c r="D266" s="55"/>
+      <c r="E266" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F266" s="53"/>
-      <c r="G266" s="53" t="s">
+      <c r="F266" s="55"/>
+      <c r="G266" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="H266" s="53"/>
-      <c r="I266" s="53" t="s">
+      <c r="H266" s="55"/>
+      <c r="I266" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="J266" s="53"/>
-      <c r="K266" s="58" t="s">
+      <c r="J266" s="55"/>
+      <c r="K266" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L266" s="58"/>
-      <c r="M266" s="58" t="s">
+      <c r="L266" s="60"/>
+      <c r="M266" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="N266" s="58"/>
-      <c r="T266" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="U266" s="53"/>
+      <c r="N266" s="60"/>
+      <c r="T266" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="U266" s="55"/>
     </row>
     <row r="267" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
@@ -35660,7 +35708,7 @@
         <v>21</v>
       </c>
       <c r="H268">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="I268">
         <v>133</v>
@@ -35669,10 +35717,10 @@
         <v>142</v>
       </c>
       <c r="K268">
-        <v>118</v>
+        <v>96.6</v>
       </c>
       <c r="L268">
-        <v>93</v>
+        <v>90.6</v>
       </c>
       <c r="M268">
         <v>165</v>
@@ -35688,29 +35736,38 @@
       </c>
     </row>
     <row r="269" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I269" t="s">
-        <v>68</v>
-      </c>
-      <c r="J269" t="s">
+      <c r="B269" t="s">
         <v>67</v>
       </c>
-      <c r="K269" t="s">
-        <v>67</v>
-      </c>
-      <c r="L269" t="s">
-        <v>66</v>
-      </c>
-      <c r="M269" t="s">
-        <v>69</v>
-      </c>
-      <c r="N269" t="s">
-        <v>70</v>
-      </c>
-      <c r="T269" t="s">
-        <v>71</v>
-      </c>
-      <c r="U269" t="s">
-        <v>73</v>
+      <c r="C269" s="33"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="33"/>
+      <c r="F269" s="33"/>
+      <c r="G269" s="33"/>
+      <c r="H269" s="33"/>
+      <c r="I269" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="J269" s="53">
+        <v>0.85</v>
+      </c>
+      <c r="K269" s="54">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="L269" s="53">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="M269" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="N269" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="T269" s="54">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="U269" s="54">
+        <v>0.77600000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -35748,7 +35805,7 @@
   <conditionalFormatting sqref="F191:G197 F264:G264 I191:I197 I264 L191:L197 L264">
     <cfRule type="aboveAverage" dxfId="3" priority="27" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R79 R81:R203">
+  <conditionalFormatting sqref="R3:R79 R81:R210">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -35767,8 +35824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
   <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P204" sqref="O204:P263"/>
+    <sheetView topLeftCell="A197" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35778,42 +35835,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="55">
+      <c r="C2" s="57">
         <v>0.85</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
@@ -47100,7 +47157,7 @@
         <v>33</v>
       </c>
       <c r="L203">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M203">
         <v>25</v>
@@ -47110,19 +47167,19 @@
       </c>
       <c r="O203" s="19">
         <f t="shared" si="23"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P203" s="19">
         <f t="shared" si="24"/>
-        <v>9.66</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="R203" s="25">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S203">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>2.0555555555555554</v>
       </c>
       <c r="T203">
         <v>46</v>
@@ -47131,62 +47188,76 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="26">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="13">
+        <v>28</v>
+      </c>
+      <c r="B204" s="21">
         <v>46029</v>
       </c>
-      <c r="C204" s="27">
+      <c r="C204">
         <v>39</v>
       </c>
-      <c r="D204" s="27">
+      <c r="D204">
         <v>31</v>
       </c>
-      <c r="E204" s="27">
+      <c r="E204">
         <v>45</v>
       </c>
-      <c r="F204" s="27">
+      <c r="F204">
         <v>57</v>
       </c>
-      <c r="G204" s="27">
+      <c r="G204">
         <v>42</v>
       </c>
-      <c r="H204" s="27">
+      <c r="H204">
         <v>68</v>
       </c>
-      <c r="I204" s="27">
+      <c r="I204">
         <v>53</v>
       </c>
-      <c r="J204" s="27">
+      <c r="J204">
         <v>66</v>
       </c>
-      <c r="K204" s="27">
+      <c r="K204">
         <v>47</v>
       </c>
-      <c r="L204" s="27">
-        <v>36</v>
-      </c>
-      <c r="M204" s="27">
+      <c r="L204">
+        <v>41</v>
+      </c>
+      <c r="M204">
         <v>54</v>
       </c>
-      <c r="N204" s="27">
+      <c r="N204">
         <v>37</v>
       </c>
-      <c r="O204" s="28">
+      <c r="O204" s="19">
         <f t="shared" si="23"/>
         <v>48</v>
       </c>
-      <c r="P204" s="28">
+      <c r="P204" s="19">
         <f t="shared" si="24"/>
-        <v>10.53</v>
-      </c>
-      <c r="T204" s="27">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="R204" s="25">
+        <f t="shared" ref="R204:R211" si="25">O204-A204</f>
+        <v>20</v>
+      </c>
+      <c r="S204">
+        <f t="shared" ref="S204:S211" si="26">O204/A204</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="T204">
         <v>46</v>
       </c>
-      <c r="U204" s="27">
+      <c r="U204">
         <v>46</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205" s="13">
+        <v>46</v>
+      </c>
       <c r="B205" s="21">
         <v>46030</v>
       </c>
@@ -47218,7 +47289,7 @@
         <v>131</v>
       </c>
       <c r="L205">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M205">
         <v>125</v>
@@ -47228,11 +47299,19 @@
       </c>
       <c r="O205" s="19">
         <f t="shared" si="23"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P205" s="19">
         <f t="shared" si="24"/>
-        <v>30.81</v>
+        <v>30.63</v>
+      </c>
+      <c r="R205" s="25">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="26"/>
+        <v>1.6521739130434783</v>
       </c>
       <c r="T205">
         <v>83</v>
@@ -47242,6 +47321,9 @@
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="13">
+        <v>113</v>
+      </c>
       <c r="B206" s="21">
         <v>46031</v>
       </c>
@@ -47273,7 +47355,7 @@
         <v>131</v>
       </c>
       <c r="L206">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M206">
         <v>119</v>
@@ -47283,11 +47365,19 @@
       </c>
       <c r="O206" s="19">
         <f t="shared" si="23"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P206" s="19">
         <f t="shared" si="24"/>
-        <v>14.75</v>
+        <v>14.69</v>
+      </c>
+      <c r="R206" s="25">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="26"/>
+        <v>1.0265486725663717</v>
       </c>
       <c r="T206">
         <v>124</v>
@@ -47297,6 +47387,9 @@
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207" s="13">
+        <v>66</v>
+      </c>
       <c r="B207" s="21">
         <v>46032</v>
       </c>
@@ -47328,7 +47421,7 @@
         <v>134</v>
       </c>
       <c r="L207">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="M207">
         <v>103</v>
@@ -47338,11 +47431,19 @@
       </c>
       <c r="O207" s="19">
         <f t="shared" si="23"/>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P207" s="19">
         <f t="shared" si="24"/>
-        <v>24.34</v>
+        <v>24.44</v>
+      </c>
+      <c r="R207" s="25">
+        <f t="shared" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="26"/>
+        <v>1.893939393939394</v>
       </c>
       <c r="T207">
         <v>151</v>
@@ -47352,6 +47453,9 @@
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208" s="13">
+        <v>50</v>
+      </c>
       <c r="B208" s="21">
         <v>46033</v>
       </c>
@@ -47383,7 +47487,7 @@
         <v>58</v>
       </c>
       <c r="L208">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M208">
         <v>67</v>
@@ -47397,7 +47501,15 @@
       </c>
       <c r="P208" s="19">
         <f t="shared" si="24"/>
-        <v>13.98</v>
+        <v>13.99</v>
+      </c>
+      <c r="R208" s="25">
+        <f t="shared" si="25"/>
+        <v>-9</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="26"/>
+        <v>0.82</v>
       </c>
       <c r="T208">
         <v>45</v>
@@ -47406,7 +47518,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209" s="13">
+        <v>20</v>
+      </c>
       <c r="B209" s="21">
         <v>46034</v>
       </c>
@@ -47426,7 +47541,7 @@
         <v>35</v>
       </c>
       <c r="H209">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I209">
         <v>51</v>
@@ -47435,7 +47550,7 @@
         <v>20</v>
       </c>
       <c r="K209">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L209">
         <v>39</v>
@@ -47448,11 +47563,19 @@
       </c>
       <c r="O209" s="19">
         <f t="shared" si="23"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P209" s="19">
         <f t="shared" si="24"/>
-        <v>8.8800000000000008</v>
+        <v>7.38</v>
+      </c>
+      <c r="R209" s="25">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="26"/>
+        <v>1.8</v>
       </c>
       <c r="T209">
         <v>41</v>
@@ -47461,7 +47584,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="13">
+        <v>20</v>
+      </c>
       <c r="B210" s="21">
         <v>46035</v>
       </c>
@@ -47481,7 +47607,7 @@
         <v>36</v>
       </c>
       <c r="H210">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I210">
         <v>53</v>
@@ -47490,10 +47616,10 @@
         <v>37</v>
       </c>
       <c r="K210">
+        <v>41</v>
+      </c>
+      <c r="L210">
         <v>44</v>
-      </c>
-      <c r="L210">
-        <v>43</v>
       </c>
       <c r="M210">
         <v>39</v>
@@ -47503,11 +47629,19 @@
       </c>
       <c r="O210" s="19">
         <f t="shared" si="23"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P210" s="19">
         <f t="shared" si="24"/>
-        <v>6.24</v>
+        <v>5.13</v>
+      </c>
+      <c r="R210" s="25">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="26"/>
+        <v>2.1</v>
       </c>
       <c r="T210">
         <v>49</v>
@@ -47516,62 +47650,73 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B211" s="21">
+    <row r="211" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="27">
+        <v>35</v>
+      </c>
+      <c r="B211" s="26">
         <v>46036</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="27">
         <v>45</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="27">
         <v>36</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="27">
         <v>54</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="27">
         <v>77</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="27">
         <v>36</v>
       </c>
-      <c r="H211">
-        <v>103</v>
-      </c>
-      <c r="I211">
+      <c r="H211" s="27">
+        <v>32</v>
+      </c>
+      <c r="I211" s="27">
         <v>50</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="27">
         <v>88</v>
       </c>
-      <c r="K211">
-        <v>45</v>
-      </c>
-      <c r="L211">
-        <v>37</v>
-      </c>
-      <c r="M211">
+      <c r="K211" s="27">
+        <v>32</v>
+      </c>
+      <c r="L211" s="27">
+        <v>41</v>
+      </c>
+      <c r="M211" s="27">
         <v>42</v>
       </c>
-      <c r="N211">
+      <c r="N211" s="27">
         <v>35</v>
       </c>
-      <c r="O211" s="19">
+      <c r="O211" s="28">
         <f t="shared" si="23"/>
-        <v>54</v>
-      </c>
-      <c r="P211" s="19">
+        <v>48</v>
+      </c>
+      <c r="P211" s="28">
         <f t="shared" si="24"/>
-        <v>20.3</v>
-      </c>
-      <c r="T211">
+        <v>16.23</v>
+      </c>
+      <c r="R211" s="27">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="S211" s="27">
+        <f t="shared" si="26"/>
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="T211" s="27">
         <v>49</v>
       </c>
-      <c r="U211">
+      <c r="U211" s="27">
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B212" s="21">
         <v>46037</v>
       </c>
@@ -47591,7 +47736,7 @@
         <v>114</v>
       </c>
       <c r="H212">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="I212">
         <v>85</v>
@@ -47600,10 +47745,10 @@
         <v>134</v>
       </c>
       <c r="K212">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="L212">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M212">
         <v>57</v>
@@ -47613,11 +47758,11 @@
       </c>
       <c r="O212" s="19">
         <f t="shared" si="23"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="P212" s="19">
         <f t="shared" si="24"/>
-        <v>34.229999999999997</v>
+        <v>28.53</v>
       </c>
       <c r="T212">
         <v>80</v>
@@ -47626,7 +47771,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="213" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B213" s="21">
         <v>46038</v>
       </c>
@@ -47646,7 +47791,7 @@
         <v>59</v>
       </c>
       <c r="H213">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I213">
         <v>125</v>
@@ -47655,10 +47800,10 @@
         <v>134</v>
       </c>
       <c r="K213">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="L213">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="M213">
         <v>173</v>
@@ -47668,11 +47813,11 @@
       </c>
       <c r="O213" s="19">
         <f t="shared" si="23"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P213" s="19">
         <f t="shared" si="24"/>
-        <v>40.39</v>
+        <v>32.82</v>
       </c>
       <c r="T213">
         <v>137</v>
@@ -47681,7 +47826,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B214" s="21">
         <v>46039</v>
       </c>
@@ -47701,7 +47846,7 @@
         <v>65</v>
       </c>
       <c r="H214">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="I214">
         <v>184</v>
@@ -47710,10 +47855,10 @@
         <v>180</v>
       </c>
       <c r="K214">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L214">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="M214">
         <v>170</v>
@@ -47723,11 +47868,11 @@
       </c>
       <c r="O214" s="19">
         <f t="shared" si="23"/>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P214" s="19">
         <f t="shared" si="24"/>
-        <v>30.69</v>
+        <v>31.78</v>
       </c>
       <c r="T214">
         <v>191</v>
@@ -47736,7 +47881,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="215" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B215" s="21">
         <v>46040</v>
       </c>
@@ -47756,7 +47901,7 @@
         <v>35</v>
       </c>
       <c r="H215">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I215">
         <v>53</v>
@@ -47765,10 +47910,10 @@
         <v>36</v>
       </c>
       <c r="K215">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L215">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M215">
         <v>77</v>
@@ -47782,7 +47927,7 @@
       </c>
       <c r="P215" s="19">
         <f t="shared" si="24"/>
-        <v>13.61</v>
+        <v>11.84</v>
       </c>
       <c r="T215">
         <v>49</v>
@@ -47791,7 +47936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B216" s="21">
         <v>46041</v>
       </c>
@@ -47811,7 +47956,7 @@
         <v>35</v>
       </c>
       <c r="H216">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I216">
         <v>37</v>
@@ -47820,10 +47965,10 @@
         <v>62</v>
       </c>
       <c r="K216">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L216">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M216">
         <v>17</v>
@@ -47833,11 +47978,11 @@
       </c>
       <c r="O216" s="19">
         <f t="shared" si="23"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P216" s="19">
         <f t="shared" si="24"/>
-        <v>20.57</v>
+        <v>15.89</v>
       </c>
       <c r="T216">
         <v>27</v>
@@ -47846,7 +47991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="217" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B217" s="21">
         <v>46042</v>
       </c>
@@ -47866,7 +48011,7 @@
         <v>35</v>
       </c>
       <c r="H217">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I217">
         <v>52</v>
@@ -47875,10 +48020,10 @@
         <v>98</v>
       </c>
       <c r="K217">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L217">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M217">
         <v>46</v>
@@ -47888,11 +48033,11 @@
       </c>
       <c r="O217" s="19">
         <f t="shared" si="23"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P217" s="19">
         <f t="shared" si="24"/>
-        <v>21.36</v>
+        <v>17.18</v>
       </c>
       <c r="T217">
         <v>42</v>
@@ -47901,7 +48046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="218" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B218" s="21">
         <v>46043</v>
       </c>
@@ -47921,7 +48066,7 @@
         <v>40</v>
       </c>
       <c r="H218">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I218">
         <v>47</v>
@@ -47930,10 +48075,10 @@
         <v>37</v>
       </c>
       <c r="K218">
+        <v>41</v>
+      </c>
+      <c r="L218">
         <v>43</v>
-      </c>
-      <c r="L218">
-        <v>39</v>
       </c>
       <c r="M218">
         <v>42</v>
@@ -47947,7 +48092,7 @@
       </c>
       <c r="P218" s="19">
         <f t="shared" si="24"/>
-        <v>5.07</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="T218">
         <v>37</v>
@@ -47956,7 +48101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="219" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B219" s="21">
         <v>46044</v>
       </c>
@@ -47976,7 +48121,7 @@
         <v>37</v>
       </c>
       <c r="H219">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="I219">
         <v>95</v>
@@ -47985,10 +48130,10 @@
         <v>105</v>
       </c>
       <c r="K219">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L219">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M219">
         <v>54</v>
@@ -47998,11 +48143,11 @@
       </c>
       <c r="O219" s="19">
         <f t="shared" si="23"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P219" s="19">
         <f t="shared" si="24"/>
-        <v>23.83</v>
+        <v>19.18</v>
       </c>
       <c r="T219">
         <v>45</v>
@@ -48011,7 +48156,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B220" s="21">
         <v>46045</v>
       </c>
@@ -48031,7 +48176,7 @@
         <v>37</v>
       </c>
       <c r="H220">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I220">
         <v>82</v>
@@ -48040,10 +48185,10 @@
         <v>115</v>
       </c>
       <c r="K220">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="L220">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="M220">
         <v>141</v>
@@ -48053,11 +48198,11 @@
       </c>
       <c r="O220" s="19">
         <f t="shared" si="23"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P220" s="19">
         <f t="shared" si="24"/>
-        <v>29.72</v>
+        <v>29.49</v>
       </c>
       <c r="T220">
         <v>91</v>
@@ -48066,7 +48211,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="221" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B221" s="21">
         <v>46046</v>
       </c>
@@ -48086,7 +48231,7 @@
         <v>41</v>
       </c>
       <c r="H221">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I221">
         <v>203</v>
@@ -48095,10 +48240,10 @@
         <v>166</v>
       </c>
       <c r="K221">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L221">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="M221">
         <v>167</v>
@@ -48108,11 +48253,11 @@
       </c>
       <c r="O221" s="19">
         <f t="shared" si="23"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P221" s="19">
         <f t="shared" si="24"/>
-        <v>33.869999999999997</v>
+        <v>34.03</v>
       </c>
       <c r="T221">
         <v>132</v>
@@ -48121,7 +48266,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B222" s="21">
         <v>46047</v>
       </c>
@@ -48141,7 +48286,7 @@
         <v>35</v>
       </c>
       <c r="H222">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="I222">
         <v>45</v>
@@ -48150,7 +48295,7 @@
         <v>122</v>
       </c>
       <c r="K222">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L222">
         <v>33</v>
@@ -48163,11 +48308,11 @@
       </c>
       <c r="O222" s="19">
         <f t="shared" si="23"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P222" s="19">
         <f t="shared" si="24"/>
-        <v>40.08</v>
+        <v>29.94</v>
       </c>
       <c r="T222">
         <v>30</v>
@@ -48176,7 +48321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B223" s="21">
         <v>46048</v>
       </c>
@@ -48196,7 +48341,7 @@
         <v>35</v>
       </c>
       <c r="H223">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="I223">
         <v>52</v>
@@ -48205,10 +48350,10 @@
         <v>138</v>
       </c>
       <c r="K223">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L223">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M223">
         <v>33</v>
@@ -48218,11 +48363,11 @@
       </c>
       <c r="O223" s="19">
         <f t="shared" si="23"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P223" s="19">
         <f t="shared" si="24"/>
-        <v>44.58</v>
+        <v>33.06</v>
       </c>
       <c r="T223">
         <v>36</v>
@@ -48231,7 +48376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B224" s="21">
         <v>46049</v>
       </c>
@@ -48251,7 +48396,7 @@
         <v>35</v>
       </c>
       <c r="H224">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="I224">
         <v>60</v>
@@ -48260,10 +48405,10 @@
         <v>134</v>
       </c>
       <c r="K224">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L224">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M224">
         <v>50</v>
@@ -48273,11 +48418,11 @@
       </c>
       <c r="O224" s="19">
         <f t="shared" si="23"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P224" s="19">
         <f t="shared" si="24"/>
-        <v>38.159999999999997</v>
+        <v>28.75</v>
       </c>
       <c r="T224">
         <v>35</v>
@@ -48306,7 +48451,7 @@
         <v>35</v>
       </c>
       <c r="H225">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I225">
         <v>44</v>
@@ -48315,10 +48460,10 @@
         <v>39</v>
       </c>
       <c r="K225">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L225">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M225">
         <v>51</v>
@@ -48332,7 +48477,7 @@
       </c>
       <c r="P225" s="19">
         <f t="shared" si="24"/>
-        <v>6.3</v>
+        <v>5.35</v>
       </c>
       <c r="T225">
         <v>38</v>
@@ -48361,7 +48506,7 @@
         <v>62</v>
       </c>
       <c r="H226">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="I226">
         <v>72</v>
@@ -48370,10 +48515,10 @@
         <v>95</v>
       </c>
       <c r="K226">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L226">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="M226">
         <v>62</v>
@@ -48383,11 +48528,11 @@
       </c>
       <c r="O226" s="19">
         <f t="shared" si="23"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P226" s="19">
         <f t="shared" si="24"/>
-        <v>15.48</v>
+        <v>12.58</v>
       </c>
       <c r="T226">
         <v>57</v>
@@ -48416,7 +48561,7 @@
         <v>35</v>
       </c>
       <c r="H227">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I227">
         <v>76</v>
@@ -48425,10 +48570,10 @@
         <v>77</v>
       </c>
       <c r="K227">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="L227">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="M227">
         <v>229</v>
@@ -48442,7 +48587,7 @@
       </c>
       <c r="P227" s="19">
         <f t="shared" si="24"/>
-        <v>53.8</v>
+        <v>47.35</v>
       </c>
       <c r="T227">
         <v>76</v>
@@ -48471,7 +48616,7 @@
         <v>64</v>
       </c>
       <c r="H228">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="I228">
         <v>210</v>
@@ -48480,10 +48625,10 @@
         <v>213</v>
       </c>
       <c r="K228">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L228">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="M228">
         <v>181</v>
@@ -48493,11 +48638,11 @@
       </c>
       <c r="O228" s="19">
         <f t="shared" si="23"/>
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P228" s="19">
         <f t="shared" si="24"/>
-        <v>39.450000000000003</v>
+        <v>37.1</v>
       </c>
       <c r="T228">
         <v>169</v>
@@ -48526,7 +48671,7 @@
         <v>35</v>
       </c>
       <c r="H229">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I229">
         <v>54</v>
@@ -48535,10 +48680,10 @@
         <v>33</v>
       </c>
       <c r="K229">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L229">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M229">
         <v>77</v>
@@ -48552,7 +48697,7 @@
       </c>
       <c r="P229" s="19">
         <f t="shared" si="24"/>
-        <v>14.29</v>
+        <v>11.67</v>
       </c>
       <c r="T229">
         <v>49</v>
@@ -48581,7 +48726,7 @@
         <v>35</v>
       </c>
       <c r="H230">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I230">
         <v>52</v>
@@ -48590,10 +48735,10 @@
         <v>25</v>
       </c>
       <c r="K230">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L230">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M230">
         <v>48</v>
@@ -48607,7 +48752,7 @@
       </c>
       <c r="P230" s="19">
         <f t="shared" si="24"/>
-        <v>10.45</v>
+        <v>7.95</v>
       </c>
       <c r="T230">
         <v>43</v>
@@ -48636,7 +48781,7 @@
         <v>36</v>
       </c>
       <c r="H231">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="I231">
         <v>66</v>
@@ -48648,7 +48793,7 @@
         <v>52</v>
       </c>
       <c r="L231">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M231">
         <v>53</v>
@@ -48658,11 +48803,11 @@
       </c>
       <c r="O231" s="19">
         <f t="shared" si="23"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P231" s="19">
         <f t="shared" si="24"/>
-        <v>37.74</v>
+        <v>28.31</v>
       </c>
       <c r="T231">
         <v>37</v>
@@ -48691,7 +48836,7 @@
         <v>35</v>
       </c>
       <c r="H232">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I232">
         <v>40</v>
@@ -48700,10 +48845,10 @@
         <v>43</v>
       </c>
       <c r="K232">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L232">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M232">
         <v>54</v>
@@ -48717,7 +48862,7 @@
       </c>
       <c r="P232" s="19">
         <f t="shared" si="24"/>
-        <v>6.2</v>
+        <v>5.77</v>
       </c>
       <c r="T232">
         <v>41</v>
@@ -48746,7 +48891,7 @@
         <v>40</v>
       </c>
       <c r="H233">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="I233">
         <v>111</v>
@@ -48755,10 +48900,10 @@
         <v>146</v>
       </c>
       <c r="K233">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L233">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M233">
         <v>70</v>
@@ -48768,11 +48913,11 @@
       </c>
       <c r="O233" s="19">
         <f t="shared" si="23"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P233" s="19">
         <f t="shared" si="24"/>
-        <v>39.909999999999997</v>
+        <v>30.06</v>
       </c>
       <c r="T233">
         <v>49</v>
@@ -48801,7 +48946,7 @@
         <v>97</v>
       </c>
       <c r="H234">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="I234">
         <v>133</v>
@@ -48810,10 +48955,10 @@
         <v>195</v>
       </c>
       <c r="K234">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="L234">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="M234">
         <v>141</v>
@@ -48823,11 +48968,11 @@
       </c>
       <c r="O234" s="19">
         <f t="shared" si="23"/>
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="P234" s="19">
         <f t="shared" si="24"/>
-        <v>39.29</v>
+        <v>37.67</v>
       </c>
       <c r="T234">
         <v>181</v>
@@ -48856,7 +49001,7 @@
         <v>56</v>
       </c>
       <c r="H235">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I235">
         <v>165</v>
@@ -48865,10 +49010,10 @@
         <v>190</v>
       </c>
       <c r="K235">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="L235">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="M235">
         <v>222</v>
@@ -48878,11 +49023,11 @@
       </c>
       <c r="O235" s="19">
         <f t="shared" si="23"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P235" s="19">
         <f t="shared" si="24"/>
-        <v>40.71</v>
+        <v>43.77</v>
       </c>
       <c r="T235">
         <v>226</v>
@@ -48911,7 +49056,7 @@
         <v>35</v>
       </c>
       <c r="H236">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I236">
         <v>41</v>
@@ -48920,10 +49065,10 @@
         <v>23</v>
       </c>
       <c r="K236">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L236">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M236">
         <v>18</v>
@@ -48933,7 +49078,7 @@
       </c>
       <c r="O236" s="19">
         <f t="shared" si="23"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P236" s="19">
         <f t="shared" si="24"/>
@@ -48966,7 +49111,7 @@
         <v>36</v>
       </c>
       <c r="H237">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I237">
         <v>46</v>
@@ -48975,10 +49120,10 @@
         <v>37</v>
       </c>
       <c r="K237">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L237">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M237">
         <v>39</v>
@@ -48992,7 +49137,7 @@
       </c>
       <c r="P237" s="19">
         <f t="shared" si="24"/>
-        <v>8.4600000000000009</v>
+        <v>7.67</v>
       </c>
       <c r="T237">
         <v>50</v>
@@ -49021,7 +49166,7 @@
         <v>35</v>
       </c>
       <c r="H238">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I238">
         <v>39</v>
@@ -49030,10 +49175,10 @@
         <v>46</v>
       </c>
       <c r="K238">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L238">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M238">
         <v>48</v>
@@ -49043,11 +49188,11 @@
       </c>
       <c r="O238" s="19">
         <f t="shared" si="23"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P238" s="19">
         <f t="shared" si="24"/>
-        <v>5.6</v>
+        <v>5.09</v>
       </c>
       <c r="T238">
         <v>35</v>
@@ -49076,7 +49221,7 @@
         <v>39</v>
       </c>
       <c r="H239">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="I239">
         <v>83</v>
@@ -49085,7 +49230,7 @@
         <v>141</v>
       </c>
       <c r="K239">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L239">
         <v>43</v>
@@ -49098,11 +49243,11 @@
       </c>
       <c r="O239" s="19">
         <f t="shared" si="23"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="P239" s="19">
         <f t="shared" si="24"/>
-        <v>41.52</v>
+        <v>30.8</v>
       </c>
       <c r="T239">
         <v>34</v>
@@ -49131,7 +49276,7 @@
         <v>116</v>
       </c>
       <c r="H240">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="I240">
         <v>133</v>
@@ -49140,10 +49285,10 @@
         <v>171</v>
       </c>
       <c r="K240">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L240">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M240">
         <v>69</v>
@@ -49153,11 +49298,11 @@
       </c>
       <c r="O240" s="19">
         <f t="shared" si="23"/>
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="P240" s="19">
         <f t="shared" si="24"/>
-        <v>45.18</v>
+        <v>35.83</v>
       </c>
       <c r="T240">
         <v>67</v>
@@ -49186,7 +49331,7 @@
         <v>118</v>
       </c>
       <c r="H241">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="I241">
         <v>172</v>
@@ -49195,10 +49340,10 @@
         <v>203</v>
       </c>
       <c r="K241">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L241">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="M241">
         <v>125</v>
@@ -49208,11 +49353,11 @@
       </c>
       <c r="O241" s="19">
         <f t="shared" si="23"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="P241" s="19">
         <f t="shared" si="24"/>
-        <v>34.520000000000003</v>
+        <v>28.89</v>
       </c>
       <c r="T241">
         <v>137</v>
@@ -49241,7 +49386,7 @@
         <v>91</v>
       </c>
       <c r="H242">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="I242">
         <v>252</v>
@@ -49250,10 +49395,10 @@
         <v>225</v>
       </c>
       <c r="K242">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="L242">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="M242">
         <v>160</v>
@@ -49262,12 +49407,12 @@
         <v>228</v>
       </c>
       <c r="O242" s="19">
-        <f t="shared" si="23"/>
-        <v>216</v>
+        <f>ROUND(AVERAGE(C242:N242,T242,U242),0)</f>
+        <v>201</v>
       </c>
       <c r="P242" s="19">
         <f t="shared" si="24"/>
-        <v>45.19</v>
+        <v>45.72</v>
       </c>
       <c r="T242">
         <v>253</v>
@@ -49296,7 +49441,7 @@
         <v>35</v>
       </c>
       <c r="H243">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I243">
         <v>51</v>
@@ -49305,10 +49450,10 @@
         <v>42</v>
       </c>
       <c r="K243">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L243">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M243">
         <v>69</v>
@@ -49318,11 +49463,11 @@
       </c>
       <c r="O243" s="19">
         <f t="shared" si="23"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P243" s="19">
         <f t="shared" si="24"/>
-        <v>11.38</v>
+        <v>10.17</v>
       </c>
       <c r="T243">
         <v>53</v>
@@ -49351,7 +49496,7 @@
         <v>35</v>
       </c>
       <c r="H244">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I244">
         <v>47</v>
@@ -49360,10 +49505,10 @@
         <v>64</v>
       </c>
       <c r="K244">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="L244">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M244">
         <v>59</v>
@@ -49373,11 +49518,11 @@
       </c>
       <c r="O244" s="19">
         <f t="shared" si="23"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P244" s="19">
         <f t="shared" si="24"/>
-        <v>11.13</v>
+        <v>10.87</v>
       </c>
       <c r="T244">
         <v>44</v>
@@ -49406,7 +49551,7 @@
         <v>39</v>
       </c>
       <c r="H245">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="I245">
         <v>69</v>
@@ -49415,10 +49560,10 @@
         <v>137</v>
       </c>
       <c r="K245">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L245">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M245">
         <v>57</v>
@@ -49428,11 +49573,11 @@
       </c>
       <c r="O245" s="19">
         <f t="shared" si="23"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P245" s="19">
         <f t="shared" si="24"/>
-        <v>38.04</v>
+        <v>28.91</v>
       </c>
       <c r="T245">
         <v>38</v>
@@ -49461,7 +49606,7 @@
         <v>52</v>
       </c>
       <c r="H246">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I246">
         <v>69</v>
@@ -49470,10 +49615,10 @@
         <v>162</v>
       </c>
       <c r="K246">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L246">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M246">
         <v>52</v>
@@ -49483,11 +49628,11 @@
       </c>
       <c r="O246" s="19">
         <f t="shared" si="23"/>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="P246" s="19">
         <f t="shared" si="24"/>
-        <v>48.51</v>
+        <v>38.85</v>
       </c>
       <c r="T246">
         <v>69</v>
@@ -49516,7 +49661,7 @@
         <v>114</v>
       </c>
       <c r="H247">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="I247">
         <v>107</v>
@@ -49525,10 +49670,10 @@
         <v>124</v>
       </c>
       <c r="K247">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L247">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M247">
         <v>46</v>
@@ -49538,11 +49683,11 @@
       </c>
       <c r="O247" s="19">
         <f t="shared" si="23"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P247" s="19">
         <f t="shared" si="24"/>
-        <v>34.53</v>
+        <v>27.88</v>
       </c>
       <c r="T247">
         <v>50</v>
@@ -49571,7 +49716,7 @@
         <v>38</v>
       </c>
       <c r="H248">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="I248">
         <v>105</v>
@@ -49580,10 +49725,10 @@
         <v>73</v>
       </c>
       <c r="K248">
+        <v>120</v>
+      </c>
+      <c r="L248">
         <v>68</v>
-      </c>
-      <c r="L248">
-        <v>83</v>
       </c>
       <c r="M248">
         <v>95</v>
@@ -49593,11 +49738,11 @@
       </c>
       <c r="O248" s="19">
         <f t="shared" si="23"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P248" s="19">
         <f t="shared" si="24"/>
-        <v>20.66</v>
+        <v>23.84</v>
       </c>
       <c r="T248">
         <v>127</v>
@@ -49635,10 +49780,10 @@
         <v>163</v>
       </c>
       <c r="K249">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="L249">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="M249">
         <v>173</v>
@@ -49652,7 +49797,7 @@
       </c>
       <c r="P249" s="19">
         <f t="shared" si="24"/>
-        <v>36.06</v>
+        <v>36.31</v>
       </c>
       <c r="T249">
         <v>100</v>
@@ -49681,7 +49826,7 @@
         <v>35</v>
       </c>
       <c r="H250">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="I250">
         <v>42</v>
@@ -49690,10 +49835,10 @@
         <v>91</v>
       </c>
       <c r="K250">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L250">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M250">
         <v>66</v>
@@ -49703,11 +49848,11 @@
       </c>
       <c r="O250" s="19">
         <f t="shared" si="23"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P250" s="19">
         <f t="shared" si="24"/>
-        <v>20.079999999999998</v>
+        <v>18.53</v>
       </c>
       <c r="T250">
         <v>46</v>
@@ -49736,7 +49881,7 @@
         <v>35</v>
       </c>
       <c r="H251">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I251">
         <v>51</v>
@@ -49745,10 +49890,10 @@
         <v>41</v>
       </c>
       <c r="K251">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L251">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M251">
         <v>66</v>
@@ -49758,11 +49903,11 @@
       </c>
       <c r="O251" s="19">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P251" s="19">
         <f t="shared" si="24"/>
-        <v>10.029999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="T251">
         <v>41</v>
@@ -49791,7 +49936,7 @@
         <v>36</v>
       </c>
       <c r="H252">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="I252">
         <v>57</v>
@@ -49800,10 +49945,10 @@
         <v>126</v>
       </c>
       <c r="K252">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L252">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M252">
         <v>51</v>
@@ -49813,11 +49958,11 @@
       </c>
       <c r="O252" s="19">
         <f t="shared" si="23"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P252" s="19">
         <f t="shared" si="24"/>
-        <v>34.14</v>
+        <v>27.02</v>
       </c>
       <c r="T252">
         <v>44</v>
@@ -49846,7 +49991,7 @@
         <v>35</v>
       </c>
       <c r="H253">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I253">
         <v>42</v>
@@ -49855,10 +50000,10 @@
         <v>38</v>
       </c>
       <c r="K253">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L253">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M253">
         <v>33</v>
@@ -49868,11 +50013,11 @@
       </c>
       <c r="O253" s="19">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P253" s="19">
         <f t="shared" si="24"/>
-        <v>5.53</v>
+        <v>5.59</v>
       </c>
       <c r="T253">
         <v>42</v>
@@ -49901,7 +50046,7 @@
         <v>37</v>
       </c>
       <c r="H254">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="I254">
         <v>77</v>
@@ -49910,10 +50055,10 @@
         <v>123</v>
       </c>
       <c r="K254">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L254">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M254">
         <v>82</v>
@@ -49923,11 +50068,11 @@
       </c>
       <c r="O254" s="19">
         <f t="shared" si="23"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P254" s="19">
         <f t="shared" si="24"/>
-        <v>30.73</v>
+        <v>23.2</v>
       </c>
       <c r="T254">
         <v>44</v>
@@ -49956,7 +50101,7 @@
         <v>35</v>
       </c>
       <c r="H255">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="I255">
         <v>58</v>
@@ -49965,10 +50110,10 @@
         <v>71</v>
       </c>
       <c r="K255">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="L255">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="M255">
         <v>113</v>
@@ -49978,11 +50123,11 @@
       </c>
       <c r="O255" s="19">
         <f t="shared" si="23"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P255" s="19">
         <f t="shared" si="24"/>
-        <v>18.149999999999999</v>
+        <v>20.04</v>
       </c>
       <c r="T255">
         <v>54</v>
@@ -50011,7 +50156,7 @@
         <v>139</v>
       </c>
       <c r="H256">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="I256">
         <v>213</v>
@@ -50020,10 +50165,10 @@
         <v>204</v>
       </c>
       <c r="K256">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L256">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="M256">
         <v>152</v>
@@ -50033,11 +50178,11 @@
       </c>
       <c r="O256" s="19">
         <f t="shared" si="23"/>
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P256" s="19">
         <f t="shared" si="24"/>
-        <v>27.36</v>
+        <v>25.63</v>
       </c>
       <c r="T256">
         <v>175</v>
@@ -50066,7 +50211,7 @@
         <v>35</v>
       </c>
       <c r="H257">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I257">
         <v>51</v>
@@ -50075,7 +50220,7 @@
         <v>21</v>
       </c>
       <c r="K257">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L257">
         <v>42</v>
@@ -50088,11 +50233,11 @@
       </c>
       <c r="O257" s="19">
         <f t="shared" si="23"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P257" s="19">
         <f t="shared" si="24"/>
-        <v>12.23</v>
+        <v>9.07</v>
       </c>
       <c r="T257">
         <v>43</v>
@@ -50121,7 +50266,7 @@
         <v>35</v>
       </c>
       <c r="H258">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I258">
         <v>52</v>
@@ -50130,10 +50275,10 @@
         <v>61</v>
       </c>
       <c r="K258">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L258">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M258">
         <v>53</v>
@@ -50143,11 +50288,11 @@
       </c>
       <c r="O258" s="19">
         <f t="shared" si="23"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P258" s="19">
         <f t="shared" si="24"/>
-        <v>6.27</v>
+        <v>6.83</v>
       </c>
       <c r="T258">
         <v>46</v>
@@ -50176,7 +50321,7 @@
         <v>35</v>
       </c>
       <c r="H259">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I259">
         <v>57</v>
@@ -50185,10 +50330,10 @@
         <v>77</v>
       </c>
       <c r="K259">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L259">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M259">
         <v>63</v>
@@ -50198,11 +50343,11 @@
       </c>
       <c r="O259" s="19">
         <f t="shared" si="23"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P259" s="19">
         <f t="shared" si="24"/>
-        <v>8.9600000000000009</v>
+        <v>10.58</v>
       </c>
       <c r="T259">
         <v>54</v>
@@ -50231,7 +50376,7 @@
         <v>35</v>
       </c>
       <c r="H260">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I260">
         <v>43</v>
@@ -50240,10 +50385,10 @@
         <v>19</v>
       </c>
       <c r="K260">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L260">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M260">
         <v>41</v>
@@ -50257,7 +50402,7 @@
       </c>
       <c r="P260" s="19">
         <f t="shared" si="24"/>
-        <v>12.42</v>
+        <v>10.43</v>
       </c>
       <c r="T260">
         <v>54</v>
@@ -50286,7 +50431,7 @@
         <v>53</v>
       </c>
       <c r="H261">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="I261">
         <v>82</v>
@@ -50298,7 +50443,7 @@
         <v>46</v>
       </c>
       <c r="L261">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M261">
         <v>48</v>
@@ -50308,11 +50453,11 @@
       </c>
       <c r="O261" s="19">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P261" s="19">
         <f t="shared" si="24"/>
-        <v>19.71</v>
+        <v>15.56</v>
       </c>
       <c r="T261">
         <v>41</v>
@@ -50341,7 +50486,7 @@
         <v>89</v>
       </c>
       <c r="H262">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I262">
         <v>127</v>
@@ -50350,10 +50495,10 @@
         <v>74</v>
       </c>
       <c r="K262">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L262">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M262">
         <v>67</v>
@@ -50362,12 +50507,12 @@
         <v>64</v>
       </c>
       <c r="O262" s="19">
-        <f t="shared" ref="O262:O263" si="25">ROUND(AVERAGE(C262:N262,T262,U262),0)</f>
-        <v>72</v>
+        <f t="shared" ref="O262:O263" si="27">ROUND(AVERAGE(C262:N262,T262,U262),0)</f>
+        <v>75</v>
       </c>
       <c r="P262" s="19">
-        <f t="shared" ref="P262:P263" si="26">ROUND(_xlfn.STDEV.P(C262:N262,T262,U262),2)</f>
-        <v>17.55</v>
+        <f t="shared" ref="P262:P263" si="28">ROUND(_xlfn.STDEV.P(C262:N262,T262,U262),2)</f>
+        <v>18.510000000000002</v>
       </c>
       <c r="T262">
         <v>83</v>
@@ -50396,7 +50541,7 @@
         <v>43</v>
       </c>
       <c r="H263">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="I263">
         <v>167</v>
@@ -50405,10 +50550,10 @@
         <v>81</v>
       </c>
       <c r="K263">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="L263">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="M263">
         <v>134</v>
@@ -50417,12 +50562,12 @@
         <v>167</v>
       </c>
       <c r="O263" s="19">
-        <f t="shared" si="25"/>
-        <v>129</v>
+        <f t="shared" si="27"/>
+        <v>136</v>
       </c>
       <c r="P263" s="19">
-        <f t="shared" si="26"/>
-        <v>44.42</v>
+        <f t="shared" si="28"/>
+        <v>39.33</v>
       </c>
       <c r="T263">
         <v>164</v>
@@ -50433,36 +50578,36 @@
     </row>
     <row r="264" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B264" s="33"/>
-      <c r="C264" s="59" t="s">
+      <c r="C264" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D264" s="60"/>
-      <c r="E264" s="60" t="s">
+      <c r="D264" s="62"/>
+      <c r="E264" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F264" s="60"/>
-      <c r="G264" s="60" t="s">
+      <c r="F264" s="62"/>
+      <c r="G264" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="H264" s="60"/>
-      <c r="I264" s="60" t="s">
+      <c r="H264" s="62"/>
+      <c r="I264" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J264" s="60"/>
-      <c r="K264" s="60" t="s">
+      <c r="J264" s="62"/>
+      <c r="K264" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L264" s="60"/>
-      <c r="M264" s="60" t="s">
+      <c r="L264" s="62"/>
+      <c r="M264" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="N264" s="61"/>
+      <c r="N264" s="63"/>
       <c r="O264" s="48"/>
       <c r="P264" s="49"/>
-      <c r="T264" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="U264" s="53"/>
+      <c r="T264" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="U264" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50481,7 +50626,7 @@
       <formula>ABS(C114-$A114)&lt;=15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R203">
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R210">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -50511,30 +50656,30 @@
         <v>43</v>
       </c>
       <c r="B1" s="33"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
       <c r="Y1" t="s">
         <v>39</v>
       </c>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD970482-847F-4A31-B72E-EDA235F9A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C283CB7-1660-4B5F-A80B-03A8D5AC62B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,6 +271,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,7 +691,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,6 +719,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,8 +1138,8 @@
   <dimension ref="A1:R717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J665" sqref="J665"/>
+      <pane ySplit="1" topLeftCell="A683" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P701" sqref="P701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18433,7 +18441,7 @@
         <v>78</v>
       </c>
       <c r="E648" s="8">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="F648" s="8">
         <v>1.3819999999999999</v>
@@ -18442,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="H648" s="8">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q648" s="37"/>
       <c r="R648" s="38"/>
@@ -18470,7 +18478,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="H649" s="8">
-        <v>18.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Q649" s="37"/>
       <c r="R649" s="38"/>
@@ -18489,7 +18497,7 @@
         <v>70</v>
       </c>
       <c r="E650" s="8">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="F650" s="8">
         <v>8.3000000000000004E-2</v>
@@ -18526,7 +18534,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="H651" s="8">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="I651" s="40" t="s">
         <v>30</v>
@@ -18742,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="H659" s="8">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="660" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18768,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="H660" s="8">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="661" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18811,7 +18819,7 @@
         <v>50</v>
       </c>
       <c r="E662" s="8">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F662" s="8">
         <v>0</v>
@@ -18820,7 +18828,7 @@
         <v>0</v>
       </c>
       <c r="H662" s="8">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="663" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18837,7 +18845,7 @@
         <v>20</v>
       </c>
       <c r="E663" s="8">
-        <v>34.299999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="F663" s="8">
         <v>0</v>
@@ -18846,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="H663" s="8">
-        <v>12.5</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="664" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18863,7 +18871,7 @@
         <v>20</v>
       </c>
       <c r="E664" s="8">
-        <v>39.9</v>
+        <v>41.5</v>
       </c>
       <c r="F664" s="8">
         <v>0</v>
@@ -18872,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="H664" s="8">
-        <v>15</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="665" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18889,16 +18897,16 @@
         <v>35</v>
       </c>
       <c r="E665" s="8">
-        <v>29.5</v>
+        <v>26.2</v>
       </c>
       <c r="F665" s="8">
-        <v>0.05</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G665" s="8">
         <v>0.7</v>
       </c>
       <c r="H665" s="8">
-        <v>17</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="666" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18912,22 +18920,19 @@
         <v>46037</v>
       </c>
       <c r="D666" s="13">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E666" s="8">
-        <v>21.9</v>
+        <v>20.8</v>
       </c>
       <c r="F666" s="8">
-        <v>0.08</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G666" s="8">
         <v>1.2</v>
       </c>
       <c r="H666" s="8">
-        <v>10</v>
-      </c>
-      <c r="J666" s="8">
-        <v>21.13</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="667" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18941,22 +18946,19 @@
         <v>46038</v>
       </c>
       <c r="D667" s="13">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E667" s="8">
-        <v>25.2</v>
+        <v>30.7</v>
       </c>
       <c r="F667" s="8">
-        <v>0.26</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G667" s="8">
         <v>3.9</v>
       </c>
       <c r="H667" s="8">
-        <v>10.1</v>
-      </c>
-      <c r="J667" s="8">
-        <v>36.905000000000001</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="668" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18970,22 +18972,22 @@
         <v>46039</v>
       </c>
       <c r="D668" s="13">
-        <v>151.5</v>
+        <v>133</v>
       </c>
       <c r="E668" s="8">
         <v>20.5</v>
       </c>
       <c r="F668" s="8">
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G668" s="8">
         <v>0.9</v>
       </c>
       <c r="H668" s="8">
-        <v>11.2</v>
+        <v>13.5</v>
       </c>
       <c r="J668" s="8">
-        <v>22.42</v>
+        <v>16.215</v>
       </c>
     </row>
     <row r="669" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18999,10 +19001,10 @@
         <v>46040</v>
       </c>
       <c r="D669" s="13">
-        <v>53</v>
+        <v>45.5</v>
       </c>
       <c r="E669" s="8">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="F669" s="8">
         <v>0</v>
@@ -19011,10 +19013,10 @@
         <v>0</v>
       </c>
       <c r="H669" s="8">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="J669" s="8">
-        <v>10.675000000000001</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="670" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19028,10 +19030,10 @@
         <v>46041</v>
       </c>
       <c r="D670" s="13">
-        <v>28</v>
+        <v>34.5</v>
       </c>
       <c r="E670" s="8">
-        <v>14.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F670" s="8">
         <v>0</v>
@@ -19040,13 +19042,13 @@
         <v>0</v>
       </c>
       <c r="H670" s="8">
-        <v>11.6</v>
+        <v>15</v>
       </c>
       <c r="I670" t="s">
         <v>32</v>
       </c>
       <c r="J670" s="8">
-        <v>16.21</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="671" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19060,10 +19062,10 @@
         <v>46042</v>
       </c>
       <c r="D671" s="13">
-        <v>54.5</v>
+        <v>45.5</v>
       </c>
       <c r="E671" s="8">
-        <v>16.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F671" s="8">
         <v>0</v>
@@ -19072,10 +19074,10 @@
         <v>0</v>
       </c>
       <c r="H671" s="8">
-        <v>10.4</v>
+        <v>11.6</v>
       </c>
       <c r="J671" s="8">
-        <v>12.065</v>
+        <v>9.1950000000000003</v>
       </c>
     </row>
     <row r="672" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19089,10 +19091,10 @@
         <v>46043</v>
       </c>
       <c r="D672" s="13">
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="E672" s="8">
-        <v>30.5</v>
+        <v>14.7</v>
       </c>
       <c r="F672" s="8">
         <v>0</v>
@@ -19101,10 +19103,10 @@
         <v>0</v>
       </c>
       <c r="H672" s="8">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="J672" s="8">
-        <v>4.9749999999999996</v>
+        <v>9.8550000000000004</v>
       </c>
     </row>
     <row r="673" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19118,10 +19120,10 @@
         <v>46044</v>
       </c>
       <c r="D673" s="13">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E673" s="8">
-        <v>26.5</v>
+        <v>20.5</v>
       </c>
       <c r="F673" s="8">
         <v>0</v>
@@ -19130,10 +19132,10 @@
         <v>0</v>
       </c>
       <c r="H673" s="8">
-        <v>9</v>
+        <v>11.2</v>
       </c>
       <c r="J673" s="8">
-        <v>14.819999999999999</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="674" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19147,10 +19149,10 @@
         <v>46045</v>
       </c>
       <c r="D674" s="13">
-        <v>119</v>
+        <v>105.5</v>
       </c>
       <c r="E674" s="8">
-        <v>24</v>
+        <v>22.1</v>
       </c>
       <c r="F674" s="8">
         <v>0</v>
@@ -19159,10 +19161,10 @@
         <v>0</v>
       </c>
       <c r="H674" s="8">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J674" s="8">
-        <v>23.6</v>
+        <v>21.424999999999997</v>
       </c>
     </row>
     <row r="675" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19176,7 +19178,7 @@
         <v>46046</v>
       </c>
       <c r="D675" s="13">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E675" s="8">
         <v>22</v>
@@ -19191,7 +19193,7 @@
         <v>12</v>
       </c>
       <c r="J675" s="8">
-        <v>23.684999999999999</v>
+        <v>16.934999999999999</v>
       </c>
     </row>
     <row r="676" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19205,7 +19207,7 @@
         <v>46047</v>
       </c>
       <c r="D676" s="13">
-        <v>48.5</v>
+        <v>43.5</v>
       </c>
       <c r="E676" s="8">
         <v>15</v>
@@ -19220,7 +19222,7 @@
         <v>4</v>
       </c>
       <c r="J676" s="8">
-        <v>26.77</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="677" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19234,7 +19236,7 @@
         <v>46048</v>
       </c>
       <c r="D677" s="13">
-        <v>59</v>
+        <v>44.5</v>
       </c>
       <c r="E677" s="8">
         <v>15</v>
@@ -19249,7 +19251,7 @@
         <v>5</v>
       </c>
       <c r="J677" s="8">
-        <v>27.07</v>
+        <v>12.215</v>
       </c>
     </row>
     <row r="678" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19263,7 +19265,7 @@
         <v>46049</v>
       </c>
       <c r="D678" s="13">
-        <v>61.5</v>
+        <v>47.5</v>
       </c>
       <c r="E678" s="8">
         <v>15</v>
@@ -19278,7 +19280,7 @@
         <v>6</v>
       </c>
       <c r="J678" s="8">
-        <v>21.645</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="679" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19292,7 +19294,7 @@
         <v>46050</v>
       </c>
       <c r="D679" s="13">
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="E679" s="8">
         <v>25</v>
@@ -19307,7 +19309,7 @@
         <v>13</v>
       </c>
       <c r="J679" s="8">
-        <v>5.4649999999999999</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="680" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19321,7 +19323,7 @@
         <v>46051</v>
       </c>
       <c r="D680" s="13">
-        <v>63.5</v>
+        <v>55</v>
       </c>
       <c r="E680" s="8">
         <v>31</v>
@@ -19336,7 +19338,7 @@
         <v>9</v>
       </c>
       <c r="J680" s="8">
-        <v>10.54</v>
+        <v>6.3049999999999997</v>
       </c>
     </row>
     <row r="681" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19350,7 +19352,7 @@
         <v>46052</v>
       </c>
       <c r="D681" s="13">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E681" s="8">
         <v>24</v>
@@ -19365,7 +19367,7 @@
         <v>17</v>
       </c>
       <c r="J681" s="8">
-        <v>44.05</v>
+        <v>26.714999999999996</v>
       </c>
     </row>
     <row r="682" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19379,7 +19381,7 @@
         <v>46053</v>
       </c>
       <c r="D682" s="13">
-        <v>157</v>
+        <v>125.5</v>
       </c>
       <c r="E682" s="8">
         <v>14.5</v>
@@ -19394,7 +19396,7 @@
         <v>9</v>
       </c>
       <c r="J682" s="8">
-        <v>27.130000000000003</v>
+        <v>16.009999999999998</v>
       </c>
     </row>
     <row r="683" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19408,7 +19410,7 @@
         <v>46054</v>
       </c>
       <c r="D683" s="13">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E683" s="8">
         <v>22.5</v>
@@ -19423,7 +19425,7 @@
         <v>13</v>
       </c>
       <c r="J683" s="8">
-        <v>11.195</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="684" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19437,7 +19439,7 @@
         <v>46055</v>
       </c>
       <c r="D684" s="13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E684" s="8">
         <v>23</v>
@@ -19452,7 +19454,7 @@
         <v>15</v>
       </c>
       <c r="J684" s="8">
-        <v>6.81</v>
+        <v>11.244999999999999</v>
       </c>
     </row>
     <row r="685" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19466,7 +19468,7 @@
         <v>46056</v>
       </c>
       <c r="D685" s="13">
-        <v>63</v>
+        <v>48.5</v>
       </c>
       <c r="E685" s="8">
         <v>17</v>
@@ -19481,7 +19483,7 @@
         <v>5</v>
       </c>
       <c r="J685" s="8">
-        <v>21.18</v>
+        <v>8.4649999999999999</v>
       </c>
     </row>
     <row r="686" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19495,7 +19497,7 @@
         <v>46057</v>
       </c>
       <c r="D686" s="13">
-        <v>46.5</v>
+        <v>45.5</v>
       </c>
       <c r="E686" s="8">
         <v>18</v>
@@ -19510,7 +19512,7 @@
         <v>14</v>
       </c>
       <c r="J686" s="8">
-        <v>5.2249999999999996</v>
+        <v>9.6950000000000003</v>
       </c>
     </row>
     <row r="687" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19524,7 +19526,7 @@
         <v>46058</v>
       </c>
       <c r="D687" s="13">
-        <v>75.5</v>
+        <v>57</v>
       </c>
       <c r="E687" s="8">
         <v>16</v>
@@ -19539,7 +19541,7 @@
         <v>8</v>
       </c>
       <c r="J687" s="8">
-        <v>23.375</v>
+        <v>8.3949999999999996</v>
       </c>
     </row>
     <row r="688" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19553,7 +19555,7 @@
         <v>46059</v>
       </c>
       <c r="D688" s="13">
-        <v>155.5</v>
+        <v>126</v>
       </c>
       <c r="E688" s="8">
         <v>18.5</v>
@@ -19568,7 +19570,7 @@
         <v>6</v>
       </c>
       <c r="J688" s="8">
-        <v>29.189999999999998</v>
+        <v>22.204999999999998</v>
       </c>
     </row>
     <row r="689" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19582,7 +19584,7 @@
         <v>46060</v>
       </c>
       <c r="D689" s="13">
-        <v>177.5</v>
+        <v>154</v>
       </c>
       <c r="E689" s="8">
         <v>17</v>
@@ -19597,7 +19599,7 @@
         <v>10</v>
       </c>
       <c r="J689" s="8">
-        <v>32.155000000000001</v>
+        <v>26.234999999999999</v>
       </c>
     </row>
     <row r="690" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19611,7 +19613,7 @@
         <v>46061</v>
       </c>
       <c r="D690" s="13">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="E690" s="8">
         <v>15.5</v>
@@ -19629,7 +19631,7 @@
         <v>33</v>
       </c>
       <c r="J690" s="8">
-        <v>11.7</v>
+        <v>13.120000000000001</v>
       </c>
     </row>
     <row r="691" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19643,7 +19645,7 @@
         <v>46062</v>
       </c>
       <c r="D691" s="13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E691" s="8">
         <v>14.5</v>
@@ -19658,7 +19660,7 @@
         <v>16</v>
       </c>
       <c r="J691" s="8">
-        <v>7.5350000000000001</v>
+        <v>12.015000000000001</v>
       </c>
     </row>
     <row r="692" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19687,7 +19689,7 @@
         <v>13</v>
       </c>
       <c r="J692" s="8">
-        <v>4.1950000000000003</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="693" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19701,7 +19703,7 @@
         <v>46064</v>
       </c>
       <c r="D693" s="13">
-        <v>64.5</v>
+        <v>49.5</v>
       </c>
       <c r="E693" s="8">
         <v>16.5</v>
@@ -19716,7 +19718,7 @@
         <v>6</v>
       </c>
       <c r="J693" s="8">
-        <v>24.19</v>
+        <v>8.7199999999999989</v>
       </c>
     </row>
     <row r="694" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19730,7 +19732,7 @@
         <v>46065</v>
       </c>
       <c r="D694" s="13">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E694" s="8">
         <v>17</v>
@@ -19745,7 +19747,7 @@
         <v>5</v>
       </c>
       <c r="J694" s="8">
-        <v>26.004999999999999</v>
+        <v>10.404999999999999</v>
       </c>
     </row>
     <row r="695" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19759,7 +19761,7 @@
         <v>46066</v>
       </c>
       <c r="D695" s="13">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="E695" s="8">
         <v>17</v>
@@ -19774,7 +19776,7 @@
         <v>6</v>
       </c>
       <c r="J695" s="8">
-        <v>22.6</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="696" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19788,7 +19790,7 @@
         <v>46067</v>
       </c>
       <c r="D696" s="13">
-        <v>203</v>
+        <v>164.5</v>
       </c>
       <c r="E696" s="8">
         <v>17</v>
@@ -19806,7 +19808,7 @@
         <v>34</v>
       </c>
       <c r="J696" s="8">
-        <v>42.284999999999997</v>
+        <v>34.715000000000003</v>
       </c>
     </row>
     <row r="697" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19820,7 +19822,7 @@
         <v>46068</v>
       </c>
       <c r="D697" s="13">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E697" s="8">
         <v>19.5</v>
@@ -19835,7 +19837,7 @@
         <v>12</v>
       </c>
       <c r="J697" s="8">
-        <v>8.51</v>
+        <v>12.844999999999999</v>
       </c>
     </row>
     <row r="698" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19849,7 +19851,7 @@
         <v>46069</v>
       </c>
       <c r="D698" s="13">
-        <v>48.5</v>
+        <v>42</v>
       </c>
       <c r="E698" s="8">
         <v>23.5</v>
@@ -19867,7 +19869,7 @@
         <v>35</v>
       </c>
       <c r="J698" s="8">
-        <v>10.005000000000001</v>
+        <v>10.780000000000001</v>
       </c>
     </row>
     <row r="699" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19881,7 +19883,7 @@
         <v>46070</v>
       </c>
       <c r="D699" s="13">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E699" s="8">
         <v>18.5</v>
@@ -19896,7 +19898,7 @@
         <v>4</v>
       </c>
       <c r="J699" s="8">
-        <v>20.98</v>
+        <v>8.2349999999999994</v>
       </c>
     </row>
     <row r="700" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19910,7 +19912,7 @@
         <v>46071</v>
       </c>
       <c r="D700" s="13">
-        <v>83.5</v>
+        <v>54.5</v>
       </c>
       <c r="E700" s="8">
         <v>20</v>
@@ -19928,7 +19930,7 @@
         <v>37</v>
       </c>
       <c r="J700" s="8">
-        <v>28.405000000000001</v>
+        <v>9.9749999999999996</v>
       </c>
     </row>
     <row r="701" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19942,7 +19944,7 @@
         <v>46072</v>
       </c>
       <c r="D701" s="13">
-        <v>66.5</v>
+        <v>50.5</v>
       </c>
       <c r="E701" s="8">
         <v>27.5</v>
@@ -19957,7 +19959,7 @@
         <v>6</v>
       </c>
       <c r="J701" s="8">
-        <v>21.880000000000003</v>
+        <v>8.6950000000000003</v>
       </c>
     </row>
     <row r="702" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19971,7 +19973,7 @@
         <v>46073</v>
       </c>
       <c r="D702" s="13">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E702" s="8">
         <v>21.5</v>
@@ -19989,7 +19991,7 @@
         <v>10</v>
       </c>
       <c r="J702" s="8">
-        <v>16.97</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="703" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20003,7 +20005,7 @@
         <v>46074</v>
       </c>
       <c r="D703" s="13">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E703" s="8">
         <v>18.5</v>
@@ -20018,7 +20020,7 @@
         <v>13</v>
       </c>
       <c r="J703" s="8">
-        <v>25.495000000000001</v>
+        <v>18.975000000000001</v>
       </c>
     </row>
     <row r="704" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20032,7 +20034,7 @@
         <v>46075</v>
       </c>
       <c r="D704" s="13">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="E704" s="8">
         <v>20</v>
@@ -20047,7 +20049,7 @@
         <v>8</v>
       </c>
       <c r="J704" s="8">
-        <v>13.54</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="705" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20061,7 +20063,7 @@
         <v>46076</v>
       </c>
       <c r="D705" s="13">
-        <v>50.5</v>
+        <v>45.5</v>
       </c>
       <c r="E705" s="8">
         <v>22.5</v>
@@ -20076,7 +20078,7 @@
         <v>12</v>
       </c>
       <c r="J705" s="8">
-        <v>7.6349999999999998</v>
+        <v>10.734999999999999</v>
       </c>
     </row>
     <row r="706" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20090,7 +20092,7 @@
         <v>46077</v>
       </c>
       <c r="D706" s="13">
-        <v>65.5</v>
+        <v>48</v>
       </c>
       <c r="E706" s="8">
         <v>22.5</v>
@@ -20105,7 +20107,7 @@
         <v>5</v>
       </c>
       <c r="J706" s="8">
-        <v>19.350000000000001</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="707" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20119,7 +20121,7 @@
         <v>46078</v>
       </c>
       <c r="D707" s="13">
-        <v>39</v>
+        <v>41.5</v>
       </c>
       <c r="E707" s="8">
         <v>26.5</v>
@@ -20134,7 +20136,7 @@
         <v>13</v>
       </c>
       <c r="J707" s="8">
-        <v>5.8149999999999995</v>
+        <v>9.7650000000000006</v>
       </c>
     </row>
     <row r="708" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20148,7 +20150,7 @@
         <v>46079</v>
       </c>
       <c r="D708" s="13">
-        <v>67.5</v>
+        <v>54.5</v>
       </c>
       <c r="E708" s="8">
         <v>20</v>
@@ -20163,7 +20165,7 @@
         <v>9</v>
       </c>
       <c r="J708" s="8">
-        <v>20.245000000000001</v>
+        <v>6.7750000000000004</v>
       </c>
     </row>
     <row r="709" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20177,7 +20179,7 @@
         <v>46080</v>
       </c>
       <c r="D709" s="13">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="E709" s="8">
         <v>20.5</v>
@@ -20195,7 +20197,7 @@
         <v>10</v>
       </c>
       <c r="J709" s="8">
-        <v>12.734999999999999</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="710" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20209,7 +20211,7 @@
         <v>46081</v>
       </c>
       <c r="D710" s="13">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E710" s="8">
         <v>25</v>
@@ -20224,7 +20226,7 @@
         <v>7</v>
       </c>
       <c r="J710" s="8">
-        <v>18.98</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="711" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20238,7 +20240,7 @@
         <v>46082</v>
       </c>
       <c r="D711" s="13">
-        <v>42.5</v>
+        <v>43.5</v>
       </c>
       <c r="E711" s="8">
         <v>34</v>
@@ -20253,7 +20255,7 @@
         <v>14</v>
       </c>
       <c r="J711" s="8">
-        <v>7.9050000000000002</v>
+        <v>10.465</v>
       </c>
     </row>
     <row r="712" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20267,7 +20269,7 @@
         <v>46083</v>
       </c>
       <c r="D712" s="13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E712" s="8">
         <v>30</v>
@@ -20282,7 +20284,7 @@
         <v>9</v>
       </c>
       <c r="J712" s="8">
-        <v>4.8650000000000002</v>
+        <v>8.4750000000000014</v>
       </c>
     </row>
     <row r="713" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20296,7 +20298,7 @@
         <v>46084</v>
       </c>
       <c r="D713" s="13">
-        <v>58</v>
+        <v>46.5</v>
       </c>
       <c r="E713" s="8">
         <v>31</v>
@@ -20311,7 +20313,7 @@
         <v>8</v>
       </c>
       <c r="J713" s="8">
-        <v>6.7250000000000005</v>
+        <v>8.5449999999999999</v>
       </c>
     </row>
     <row r="714" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20325,7 +20327,7 @@
         <v>46085</v>
       </c>
       <c r="D714" s="13">
-        <v>44.5</v>
+        <v>50.5</v>
       </c>
       <c r="E714" s="8">
         <v>31</v>
@@ -20340,7 +20342,7 @@
         <v>22</v>
       </c>
       <c r="J714" s="8">
-        <v>10.41</v>
+        <v>14.114999999999998</v>
       </c>
     </row>
     <row r="715" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20354,7 +20356,7 @@
         <v>46086</v>
       </c>
       <c r="D715" s="13">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E715" s="8">
         <v>32</v>
@@ -20369,7 +20371,7 @@
         <v>8</v>
       </c>
       <c r="J715" s="8">
-        <v>13.540000000000001</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="716" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20383,7 +20385,7 @@
         <v>46087</v>
       </c>
       <c r="D716" s="13">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E716" s="8">
         <v>37.5</v>
@@ -20401,7 +20403,7 @@
         <v>10</v>
       </c>
       <c r="J716" s="8">
-        <v>13.675000000000001</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="717" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20415,7 +20417,7 @@
         <v>46088</v>
       </c>
       <c r="D717" s="13">
-        <v>140</v>
+        <v>135.5</v>
       </c>
       <c r="E717" s="8">
         <v>39</v>
@@ -20430,7 +20432,7 @@
         <v>16</v>
       </c>
       <c r="J717" s="8">
-        <v>29.02</v>
+        <v>25.36</v>
       </c>
     </row>
   </sheetData>
@@ -20451,8 +20453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:U269"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O214" sqref="O214:P263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20462,40 +20464,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <v>0.85</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
@@ -32171,7 +32173,7 @@
         <v>7.01</v>
       </c>
       <c r="R204" s="25">
-        <f t="shared" ref="R204:R211" si="40">O204-A204</f>
+        <f t="shared" ref="R204:R213" si="40">O204-A204</f>
         <v>17</v>
       </c>
       <c r="S204">
@@ -32581,73 +32583,76 @@
         <v>40</v>
       </c>
     </row>
-    <row r="211" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="27">
+    <row r="211" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="63">
         <v>35</v>
       </c>
-      <c r="B211" s="26">
+      <c r="B211" s="64">
         <v>46036</v>
       </c>
-      <c r="C211" s="27">
+      <c r="C211" s="63">
         <v>45</v>
       </c>
-      <c r="D211" s="27">
+      <c r="D211" s="63">
         <v>36</v>
       </c>
-      <c r="E211" s="27">
+      <c r="E211" s="63">
         <v>52</v>
       </c>
-      <c r="F211" s="27">
+      <c r="F211" s="63">
         <v>44</v>
       </c>
-      <c r="G211" s="27">
+      <c r="G211" s="63">
         <v>51</v>
       </c>
-      <c r="H211" s="27">
+      <c r="H211" s="63">
         <v>52</v>
       </c>
-      <c r="I211" s="27">
+      <c r="I211" s="63">
         <v>51</v>
       </c>
-      <c r="J211" s="27">
+      <c r="J211" s="63">
         <v>42</v>
       </c>
-      <c r="K211" s="27">
+      <c r="K211" s="63">
         <v>32</v>
       </c>
-      <c r="L211" s="27">
+      <c r="L211" s="63">
         <v>41</v>
       </c>
-      <c r="M211" s="27">
+      <c r="M211" s="63">
         <v>42</v>
       </c>
-      <c r="N211" s="27">
+      <c r="N211" s="63">
         <v>39</v>
       </c>
-      <c r="O211" s="28">
+      <c r="O211" s="65">
         <f t="shared" si="38"/>
         <v>45</v>
       </c>
-      <c r="P211" s="28">
+      <c r="P211" s="65">
         <f t="shared" si="39"/>
         <v>6.51</v>
       </c>
-      <c r="R211" s="27">
+      <c r="R211" s="25">
         <f t="shared" si="40"/>
         <v>10</v>
       </c>
-      <c r="S211" s="27">
+      <c r="S211" s="63">
         <f>O211/A211</f>
         <v>1.2857142857142858</v>
       </c>
-      <c r="T211" s="27">
+      <c r="T211" s="63">
         <v>55</v>
       </c>
-      <c r="U211" s="27">
+      <c r="U211" s="63">
         <v>43</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="13">
+        <v>11</v>
+      </c>
       <c r="B212" s="21">
         <v>46037</v>
       </c>
@@ -32695,6 +32700,14 @@
         <f t="shared" si="39"/>
         <v>11.79</v>
       </c>
+      <c r="R212" s="25">
+        <f t="shared" si="40"/>
+        <v>55</v>
+      </c>
+      <c r="S212">
+        <f>O212/A212</f>
+        <v>6</v>
+      </c>
       <c r="T212">
         <v>63</v>
       </c>
@@ -32703,6 +32716,9 @@
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="13">
+        <v>81</v>
+      </c>
       <c r="B213" s="21">
         <v>46038</v>
       </c>
@@ -32750,6 +32766,14 @@
         <f t="shared" si="39"/>
         <v>22.72</v>
       </c>
+      <c r="R213" s="25">
+        <f t="shared" si="40"/>
+        <v>53</v>
+      </c>
+      <c r="S213">
+        <f>O213/A213</f>
+        <v>1.654320987654321</v>
+      </c>
       <c r="T213">
         <v>101</v>
       </c>
@@ -32757,59 +32781,59 @@
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B214" s="21">
+    <row r="214" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="26">
         <v>46039</v>
       </c>
-      <c r="C214">
-        <v>148</v>
-      </c>
-      <c r="D214">
-        <v>151</v>
-      </c>
-      <c r="E214">
-        <v>141</v>
-      </c>
-      <c r="F214">
-        <v>130</v>
-      </c>
-      <c r="G214">
-        <v>129</v>
-      </c>
-      <c r="H214">
+      <c r="C214" s="27">
+        <v>153</v>
+      </c>
+      <c r="D214" s="27">
+        <v>132</v>
+      </c>
+      <c r="E214" s="27">
+        <v>131</v>
+      </c>
+      <c r="F214" s="27">
+        <v>107</v>
+      </c>
+      <c r="G214" s="27">
+        <v>121</v>
+      </c>
+      <c r="H214" s="27">
+        <v>100</v>
+      </c>
+      <c r="I214" s="27">
         <v>143</v>
       </c>
-      <c r="I214">
-        <v>148</v>
-      </c>
-      <c r="J214">
-        <v>129</v>
-      </c>
-      <c r="K214">
-        <v>182</v>
-      </c>
-      <c r="L214">
-        <v>125</v>
-      </c>
-      <c r="M214">
-        <v>170</v>
-      </c>
-      <c r="N214">
+      <c r="J214" s="27">
+        <v>111</v>
+      </c>
+      <c r="K214" s="27">
+        <v>161</v>
+      </c>
+      <c r="L214" s="27">
+        <v>142</v>
+      </c>
+      <c r="M214" s="27">
         <v>152</v>
       </c>
-      <c r="O214" s="19">
+      <c r="N214" s="27">
+        <v>142</v>
+      </c>
+      <c r="O214" s="28">
         <f t="shared" si="38"/>
-        <v>145</v>
-      </c>
-      <c r="P214" s="19">
+        <v>133</v>
+      </c>
+      <c r="P214" s="28">
         <f t="shared" si="39"/>
-        <v>15.59</v>
-      </c>
-      <c r="T214">
-        <v>152</v>
-      </c>
-      <c r="U214">
-        <v>135</v>
+        <v>18.18</v>
+      </c>
+      <c r="T214" s="27">
+        <v>147</v>
+      </c>
+      <c r="U214" s="27">
+        <v>118</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -32817,54 +32841,54 @@
         <v>46040</v>
       </c>
       <c r="C215">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D215">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E215">
+        <v>74</v>
+      </c>
+      <c r="F215">
+        <v>35</v>
+      </c>
+      <c r="G215">
+        <v>52</v>
+      </c>
+      <c r="H215">
+        <v>35</v>
+      </c>
+      <c r="I215">
         <v>58</v>
       </c>
-      <c r="F215">
-        <v>53</v>
-      </c>
-      <c r="G215">
-        <v>58</v>
-      </c>
-      <c r="H215">
-        <v>44</v>
-      </c>
-      <c r="I215">
-        <v>53</v>
-      </c>
       <c r="J215">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K215">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L215">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M215">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N215">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="O215" s="19">
         <f t="shared" si="38"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P215" s="19">
         <f t="shared" si="39"/>
-        <v>9.2899999999999991</v>
+        <v>12.15</v>
       </c>
       <c r="T215">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="U215">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -32872,54 +32896,54 @@
         <v>46041</v>
       </c>
       <c r="C216">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D216">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E216">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F216">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G216">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H216">
         <v>23</v>
       </c>
       <c r="I216">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J216">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K216">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L216">
         <v>27</v>
       </c>
       <c r="M216">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N216">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O216" s="19">
         <f t="shared" si="38"/>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P216" s="19">
         <f t="shared" si="39"/>
-        <v>10.08</v>
+        <v>13.93</v>
       </c>
       <c r="T216">
+        <v>46</v>
+      </c>
+      <c r="U216">
         <v>22</v>
-      </c>
-      <c r="U216">
-        <v>21</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -32927,54 +32951,54 @@
         <v>46042</v>
       </c>
       <c r="C217">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D217">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E217">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F217">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G217">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H217">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I217">
         <v>52</v>
       </c>
       <c r="J217">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K217">
         <v>52</v>
       </c>
       <c r="L217">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M217">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N217">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O217" s="19">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P217" s="19">
         <f t="shared" si="39"/>
-        <v>3.25</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="T217">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U217">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -32982,54 +33006,54 @@
         <v>46043</v>
       </c>
       <c r="C218">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D218">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E218">
+        <v>65</v>
+      </c>
+      <c r="F218">
+        <v>35</v>
+      </c>
+      <c r="G218">
         <v>55</v>
       </c>
-      <c r="F218">
-        <v>44</v>
-      </c>
-      <c r="G218">
-        <v>48</v>
-      </c>
       <c r="H218">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I218">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J218">
         <v>41</v>
       </c>
       <c r="K218">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L218">
+        <v>42</v>
+      </c>
+      <c r="M218">
+        <v>49</v>
+      </c>
+      <c r="N218">
         <v>44</v>
-      </c>
-      <c r="M218">
-        <v>40</v>
-      </c>
-      <c r="N218">
-        <v>40</v>
       </c>
       <c r="O218" s="19">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P218" s="19">
         <f t="shared" si="39"/>
-        <v>4.43</v>
+        <v>8.76</v>
       </c>
       <c r="T218">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="U218">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -33037,54 +33061,54 @@
         <v>46044</v>
       </c>
       <c r="C219">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D219">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E219">
+        <v>66</v>
+      </c>
+      <c r="F219">
+        <v>46</v>
+      </c>
+      <c r="G219">
+        <v>55</v>
+      </c>
+      <c r="H219">
+        <v>46</v>
+      </c>
+      <c r="I219">
+        <v>60</v>
+      </c>
+      <c r="J219">
+        <v>46</v>
+      </c>
+      <c r="K219">
         <v>56</v>
       </c>
-      <c r="F219">
-        <v>56</v>
-      </c>
-      <c r="G219">
-        <v>63</v>
-      </c>
-      <c r="H219">
-        <v>58</v>
-      </c>
-      <c r="I219">
-        <v>67</v>
-      </c>
-      <c r="J219">
+      <c r="L219">
+        <v>48</v>
+      </c>
+      <c r="M219">
         <v>57</v>
       </c>
-      <c r="K219">
-        <v>54</v>
-      </c>
-      <c r="L219">
-        <v>47</v>
-      </c>
-      <c r="M219">
-        <v>53</v>
-      </c>
       <c r="N219">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O219" s="19">
         <f t="shared" si="38"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P219" s="19">
         <f t="shared" si="39"/>
-        <v>4.9400000000000004</v>
+        <v>6.82</v>
       </c>
       <c r="T219">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="U219">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -33092,54 +33116,54 @@
         <v>46045</v>
       </c>
       <c r="C220">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D220">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E220">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F220">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G220">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H220">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="I220">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J220">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K220">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L220">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M220">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="N220">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="O220" s="19">
         <f t="shared" si="38"/>
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="P220" s="19">
         <f t="shared" si="39"/>
-        <v>16.829999999999998</v>
+        <v>18.36</v>
       </c>
       <c r="T220">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U220">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -33147,54 +33171,54 @@
         <v>46046</v>
       </c>
       <c r="C221">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D221">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E221">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F221">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G221">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H221">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="I221">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J221">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="K221">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L221">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="M221">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="N221">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O221" s="19">
         <f t="shared" si="38"/>
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="P221" s="19">
         <f t="shared" si="39"/>
-        <v>12.24</v>
+        <v>14.94</v>
       </c>
       <c r="T221">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="U221">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -33202,54 +33226,54 @@
         <v>46047</v>
       </c>
       <c r="C222">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D222">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E222">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F222">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G222">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H222">
         <v>46</v>
       </c>
       <c r="I222">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J222">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K222">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L222">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M222">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N222">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O222" s="19">
         <f t="shared" si="38"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P222" s="19">
         <f t="shared" si="39"/>
-        <v>11.34</v>
+        <v>10.63</v>
       </c>
       <c r="T222">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="U222">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -33260,51 +33284,51 @@
         <v>53</v>
       </c>
       <c r="D223">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E223">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F223">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G223">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H223">
         <v>43</v>
       </c>
       <c r="I223">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J223">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K223">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="L223">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M223">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N223">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O223" s="19">
         <f t="shared" si="38"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P223" s="19">
         <f t="shared" si="39"/>
-        <v>8.24</v>
+        <v>11.64</v>
       </c>
       <c r="T223">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U223">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -33315,51 +33339,51 @@
         <v>50</v>
       </c>
       <c r="D224">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E224">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F224">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G224">
         <v>56</v>
       </c>
       <c r="H224">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I224">
         <v>55</v>
       </c>
       <c r="J224">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K224">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L224">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M224">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N224">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O224" s="19">
         <f t="shared" si="38"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P224" s="19">
         <f t="shared" si="39"/>
-        <v>4.2300000000000004</v>
+        <v>8.15</v>
       </c>
       <c r="T224">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U224">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225" spans="2:21" x14ac:dyDescent="0.25">
@@ -33367,54 +33391,54 @@
         <v>46050</v>
       </c>
       <c r="C225">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D225">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E225">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F225">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G225">
+        <v>57</v>
+      </c>
+      <c r="H225">
+        <v>34</v>
+      </c>
+      <c r="I225">
+        <v>53</v>
+      </c>
+      <c r="J225">
+        <v>41</v>
+      </c>
+      <c r="K225">
+        <v>54</v>
+      </c>
+      <c r="L225">
+        <v>44</v>
+      </c>
+      <c r="M225">
         <v>49</v>
       </c>
-      <c r="H225">
-        <v>43</v>
-      </c>
-      <c r="I225">
-        <v>55</v>
-      </c>
-      <c r="J225">
+      <c r="N225">
         <v>44</v>
-      </c>
-      <c r="K225">
-        <v>43</v>
-      </c>
-      <c r="L225">
-        <v>43</v>
-      </c>
-      <c r="M225">
-        <v>50</v>
-      </c>
-      <c r="N225">
-        <v>42</v>
       </c>
       <c r="O225" s="19">
         <f t="shared" si="38"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P225" s="19">
         <f t="shared" si="39"/>
-        <v>4.46</v>
+        <v>8.68</v>
       </c>
       <c r="T225">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="U225">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="226" spans="2:21" x14ac:dyDescent="0.25">
@@ -33422,54 +33446,54 @@
         <v>46051</v>
       </c>
       <c r="C226">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D226">
+        <v>52</v>
+      </c>
+      <c r="E226">
         <v>61</v>
       </c>
-      <c r="E226">
-        <v>56</v>
-      </c>
       <c r="F226">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G226">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H226">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I226">
         <v>62</v>
       </c>
       <c r="J226">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L226">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M226">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N226">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O226" s="19">
         <f t="shared" si="38"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P226" s="19">
         <f t="shared" si="39"/>
-        <v>5.52</v>
+        <v>6.46</v>
       </c>
       <c r="T226">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="U226">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="2:21" x14ac:dyDescent="0.25">
@@ -33477,54 +33501,54 @@
         <v>46052</v>
       </c>
       <c r="C227">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D227">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E227">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F227">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="G227">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H227">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I227">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J227">
+        <v>104</v>
+      </c>
+      <c r="K227">
+        <v>136</v>
+      </c>
+      <c r="L227">
+        <v>130</v>
+      </c>
+      <c r="M227">
+        <v>151</v>
+      </c>
+      <c r="N227">
         <v>122</v>
-      </c>
-      <c r="K227">
-        <v>150</v>
-      </c>
-      <c r="L227">
-        <v>117</v>
-      </c>
-      <c r="M227">
-        <v>232</v>
-      </c>
-      <c r="N227">
-        <v>152</v>
       </c>
       <c r="O227" s="19">
         <f t="shared" si="38"/>
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P227" s="19">
         <f t="shared" si="39"/>
-        <v>32.229999999999997</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="T227">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="U227">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="2:21" x14ac:dyDescent="0.25">
@@ -33532,54 +33556,54 @@
         <v>46053</v>
       </c>
       <c r="C228">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D228">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="E228">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F228">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G228">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="H228">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="I228">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J228">
+        <v>112</v>
+      </c>
+      <c r="K228">
+        <v>129</v>
+      </c>
+      <c r="L228">
         <v>139</v>
       </c>
-      <c r="K228">
-        <v>184</v>
-      </c>
-      <c r="L228">
-        <v>121</v>
-      </c>
       <c r="M228">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="N228">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="O228" s="19">
         <f t="shared" si="38"/>
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="P228" s="19">
         <f t="shared" si="39"/>
-        <v>17.77</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="T228">
         <v>146</v>
       </c>
       <c r="U228">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="2:21" x14ac:dyDescent="0.25">
@@ -33587,54 +33611,54 @@
         <v>46054</v>
       </c>
       <c r="C229">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D229">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E229">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F229">
+        <v>33</v>
+      </c>
+      <c r="G229">
         <v>52</v>
       </c>
-      <c r="G229">
-        <v>57</v>
-      </c>
       <c r="H229">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I229">
         <v>53</v>
       </c>
       <c r="J229">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K229">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L229">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M229">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N229">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="O229" s="19">
         <f t="shared" si="38"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P229" s="19">
         <f t="shared" si="39"/>
-        <v>8.64</v>
+        <v>11.42</v>
       </c>
       <c r="T229">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="U229">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230" spans="2:21" x14ac:dyDescent="0.25">
@@ -33642,54 +33666,54 @@
         <v>46055</v>
       </c>
       <c r="C230">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D230">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E230">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F230">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G230">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H230">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I230">
+        <v>53</v>
+      </c>
+      <c r="J230">
+        <v>37</v>
+      </c>
+      <c r="K230">
         <v>50</v>
       </c>
-      <c r="J230">
-        <v>45</v>
-      </c>
-      <c r="K230">
-        <v>47</v>
-      </c>
       <c r="L230">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M230">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N230">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O230" s="19">
         <f t="shared" si="38"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P230" s="19">
         <f t="shared" si="39"/>
-        <v>4.07</v>
+        <v>10.45</v>
       </c>
       <c r="T230">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U230">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231" spans="2:21" x14ac:dyDescent="0.25">
@@ -33697,54 +33721,54 @@
         <v>46056</v>
       </c>
       <c r="C231">
+        <v>51</v>
+      </c>
+      <c r="D231">
+        <v>46</v>
+      </c>
+      <c r="E231">
+        <v>66</v>
+      </c>
+      <c r="F231">
+        <v>43</v>
+      </c>
+      <c r="G231">
+        <v>57</v>
+      </c>
+      <c r="H231">
+        <v>42</v>
+      </c>
+      <c r="I231">
+        <v>55</v>
+      </c>
+      <c r="J231">
+        <v>43</v>
+      </c>
+      <c r="K231">
+        <v>42</v>
+      </c>
+      <c r="L231">
+        <v>48</v>
+      </c>
+      <c r="M231">
         <v>52</v>
       </c>
-      <c r="D231">
-        <v>53</v>
-      </c>
-      <c r="E231">
-        <v>52</v>
-      </c>
-      <c r="F231">
-        <v>57</v>
-      </c>
-      <c r="G231">
-        <v>59</v>
-      </c>
-      <c r="H231">
-        <v>44</v>
-      </c>
-      <c r="I231">
-        <v>57</v>
-      </c>
-      <c r="J231">
-        <v>58</v>
-      </c>
-      <c r="K231">
-        <v>52</v>
-      </c>
-      <c r="L231">
-        <v>44</v>
-      </c>
-      <c r="M231">
-        <v>53</v>
-      </c>
       <c r="N231">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O231" s="19">
         <f t="shared" si="38"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P231" s="19">
         <f t="shared" si="39"/>
-        <v>4.42</v>
+        <v>7.31</v>
       </c>
       <c r="T231">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="U231">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="232" spans="2:21" x14ac:dyDescent="0.25">
@@ -33752,37 +33776,37 @@
         <v>46057</v>
       </c>
       <c r="C232">
+        <v>51</v>
+      </c>
+      <c r="D232">
+        <v>43</v>
+      </c>
+      <c r="E232">
+        <v>66</v>
+      </c>
+      <c r="F232">
+        <v>35</v>
+      </c>
+      <c r="G232">
+        <v>59</v>
+      </c>
+      <c r="H232">
+        <v>34</v>
+      </c>
+      <c r="I232">
+        <v>52</v>
+      </c>
+      <c r="J232">
+        <v>42</v>
+      </c>
+      <c r="K232">
+        <v>52</v>
+      </c>
+      <c r="L232">
         <v>46</v>
       </c>
-      <c r="D232">
-        <v>45</v>
-      </c>
-      <c r="E232">
-        <v>56</v>
-      </c>
-      <c r="F232">
-        <v>48</v>
-      </c>
-      <c r="G232">
-        <v>50</v>
-      </c>
-      <c r="H232">
-        <v>44</v>
-      </c>
-      <c r="I232">
-        <v>55</v>
-      </c>
-      <c r="J232">
-        <v>45</v>
-      </c>
-      <c r="K232">
-        <v>44</v>
-      </c>
-      <c r="L232">
-        <v>43</v>
-      </c>
       <c r="M232">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N232">
         <v>45</v>
@@ -33793,13 +33817,13 @@
       </c>
       <c r="P232" s="19">
         <f t="shared" si="39"/>
-        <v>4.54</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="T232">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U232">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" spans="2:21" x14ac:dyDescent="0.25">
@@ -33807,54 +33831,54 @@
         <v>46058</v>
       </c>
       <c r="C233">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D233">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E233">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F233">
+        <v>50</v>
+      </c>
+      <c r="G233">
+        <v>58</v>
+      </c>
+      <c r="H233">
+        <v>49</v>
+      </c>
+      <c r="I233">
         <v>67</v>
       </c>
-      <c r="G233">
-        <v>75</v>
-      </c>
-      <c r="H233">
-        <v>58</v>
-      </c>
-      <c r="I233">
-        <v>79</v>
-      </c>
       <c r="J233">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L233">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M233">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N233">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O233" s="19">
         <f t="shared" si="38"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P233" s="19">
         <f t="shared" si="39"/>
-        <v>7.07</v>
+        <v>7.55</v>
       </c>
       <c r="T233">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="U233">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="234" spans="2:21" x14ac:dyDescent="0.25">
@@ -33862,54 +33886,54 @@
         <v>46059</v>
       </c>
       <c r="C234">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D234">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="E234">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F234">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="G234">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H234">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="I234">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="J234">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="K234">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="L234">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="M234">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="N234">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="O234" s="19">
         <f t="shared" si="38"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="P234" s="19">
         <f t="shared" si="39"/>
-        <v>18.95</v>
+        <v>22.58</v>
       </c>
       <c r="T234">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="U234">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="2:21" x14ac:dyDescent="0.25">
@@ -33917,54 +33941,54 @@
         <v>46060</v>
       </c>
       <c r="C235">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D235">
+        <v>147</v>
+      </c>
+      <c r="E235">
+        <v>149</v>
+      </c>
+      <c r="F235">
+        <v>118</v>
+      </c>
+      <c r="G235">
+        <v>137</v>
+      </c>
+      <c r="H235">
+        <v>108</v>
+      </c>
+      <c r="I235">
+        <v>141</v>
+      </c>
+      <c r="J235">
+        <v>120</v>
+      </c>
+      <c r="K235">
         <v>190</v>
       </c>
-      <c r="E235">
-        <v>182</v>
-      </c>
-      <c r="F235">
-        <v>147</v>
-      </c>
-      <c r="G235">
-        <v>144</v>
-      </c>
-      <c r="H235">
-        <v>160</v>
-      </c>
-      <c r="I235">
-        <v>193</v>
-      </c>
-      <c r="J235">
-        <v>148</v>
-      </c>
-      <c r="K235">
-        <v>239</v>
-      </c>
       <c r="L235">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M235">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="N235">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="O235" s="19">
         <f t="shared" si="38"/>
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="P235" s="19">
         <f t="shared" si="39"/>
-        <v>25.86</v>
+        <v>27.94</v>
       </c>
       <c r="T235">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="U235">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="236" spans="2:21" x14ac:dyDescent="0.25">
@@ -33972,54 +33996,54 @@
         <v>46061</v>
       </c>
       <c r="C236">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D236">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E236">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F236">
+        <v>26</v>
+      </c>
+      <c r="G236">
+        <v>54</v>
+      </c>
+      <c r="H236">
         <v>24</v>
       </c>
-      <c r="G236">
-        <v>52</v>
-      </c>
-      <c r="H236">
+      <c r="I236">
+        <v>39</v>
+      </c>
+      <c r="J236">
         <v>26</v>
       </c>
-      <c r="I236">
-        <v>37</v>
-      </c>
-      <c r="J236">
-        <v>32</v>
-      </c>
       <c r="K236">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="L236">
         <v>27</v>
       </c>
       <c r="M236">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N236">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O236" s="19">
         <f t="shared" si="38"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="P236" s="19">
         <f t="shared" si="39"/>
-        <v>11.68</v>
+        <v>13.52</v>
       </c>
       <c r="T236">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U236">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237" spans="2:21" x14ac:dyDescent="0.25">
@@ -34027,54 +34051,54 @@
         <v>46062</v>
       </c>
       <c r="C237">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D237">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E237">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F237">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G237">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H237">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I237">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J237">
+        <v>36</v>
+      </c>
+      <c r="K237">
+        <v>54</v>
+      </c>
+      <c r="L237">
+        <v>45</v>
+      </c>
+      <c r="M237">
         <v>42</v>
       </c>
-      <c r="K237">
-        <v>37</v>
-      </c>
-      <c r="L237">
-        <v>42</v>
-      </c>
-      <c r="M237">
-        <v>39</v>
-      </c>
       <c r="N237">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O237" s="19">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P237" s="19">
         <f t="shared" si="39"/>
-        <v>6.15</v>
+        <v>10.97</v>
       </c>
       <c r="T237">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U237">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="2:21" x14ac:dyDescent="0.25">
@@ -34085,51 +34109,51 @@
         <v>48</v>
       </c>
       <c r="D238">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E238">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F238">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G238">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H238">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I238">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J238">
+        <v>38</v>
+      </c>
+      <c r="K238">
+        <v>46</v>
+      </c>
+      <c r="L238">
         <v>45</v>
       </c>
-      <c r="K238">
-        <v>41</v>
-      </c>
-      <c r="L238">
+      <c r="M238">
+        <v>51</v>
+      </c>
+      <c r="N238">
         <v>40</v>
-      </c>
-      <c r="M238">
-        <v>47</v>
-      </c>
-      <c r="N238">
-        <v>43</v>
       </c>
       <c r="O238" s="19">
         <f t="shared" si="38"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P238" s="19">
         <f t="shared" si="39"/>
-        <v>2.72</v>
+        <v>9.83</v>
       </c>
       <c r="T238">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="U238">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="2:21" x14ac:dyDescent="0.25">
@@ -34137,54 +34161,54 @@
         <v>46064</v>
       </c>
       <c r="C239">
+        <v>52</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239">
+        <v>63</v>
+      </c>
+      <c r="F239">
+        <v>44</v>
+      </c>
+      <c r="G239">
+        <v>55</v>
+      </c>
+      <c r="H239">
+        <v>41</v>
+      </c>
+      <c r="I239">
+        <v>60</v>
+      </c>
+      <c r="J239">
+        <v>43</v>
+      </c>
+      <c r="K239">
         <v>50</v>
       </c>
-      <c r="D239">
-        <v>52</v>
-      </c>
-      <c r="E239">
+      <c r="L239">
+        <v>47</v>
+      </c>
+      <c r="M239">
         <v>54</v>
       </c>
-      <c r="F239">
-        <v>60</v>
-      </c>
-      <c r="G239">
-        <v>63</v>
-      </c>
-      <c r="H239">
-        <v>45</v>
-      </c>
-      <c r="I239">
-        <v>62</v>
-      </c>
-      <c r="J239">
-        <v>58</v>
-      </c>
-      <c r="K239">
-        <v>48</v>
-      </c>
-      <c r="L239">
-        <v>44</v>
-      </c>
-      <c r="M239">
-        <v>52</v>
-      </c>
       <c r="N239">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O239" s="19">
         <f t="shared" si="38"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P239" s="19">
         <f t="shared" si="39"/>
-        <v>5.8</v>
+        <v>7.02</v>
       </c>
       <c r="T239">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="U239">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="2:21" x14ac:dyDescent="0.25">
@@ -34192,54 +34216,54 @@
         <v>46065</v>
       </c>
       <c r="C240">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D240">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E240">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F240">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G240">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H240">
+        <v>53</v>
+      </c>
+      <c r="I240">
+        <v>76</v>
+      </c>
+      <c r="J240">
+        <v>51</v>
+      </c>
+      <c r="K240">
+        <v>61</v>
+      </c>
+      <c r="L240">
+        <v>56</v>
+      </c>
+      <c r="M240">
         <v>58</v>
       </c>
-      <c r="I240">
-        <v>86</v>
-      </c>
-      <c r="J240">
-        <v>78</v>
-      </c>
-      <c r="K240">
-        <v>67</v>
-      </c>
-      <c r="L240">
-        <v>45</v>
-      </c>
-      <c r="M240">
-        <v>76</v>
-      </c>
       <c r="N240">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O240" s="19">
         <f t="shared" si="38"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="P240" s="19">
         <f t="shared" si="39"/>
-        <v>10.61</v>
+        <v>7.72</v>
       </c>
       <c r="T240">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U240">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="241" spans="2:21" x14ac:dyDescent="0.25">
@@ -34247,54 +34271,54 @@
         <v>46066</v>
       </c>
       <c r="C241">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D241">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E241">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F241">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G241">
+        <v>72</v>
+      </c>
+      <c r="H241">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>112</v>
+      </c>
+      <c r="J241">
+        <v>84</v>
+      </c>
+      <c r="K241">
+        <v>104</v>
+      </c>
+      <c r="L241">
         <v>114</v>
       </c>
-      <c r="H241">
-        <v>98</v>
-      </c>
-      <c r="I241">
-        <v>125</v>
-      </c>
-      <c r="J241">
-        <v>117</v>
-      </c>
-      <c r="K241">
-        <v>142</v>
-      </c>
-      <c r="L241">
-        <v>91</v>
-      </c>
       <c r="M241">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N241">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="O241" s="19">
         <f t="shared" si="38"/>
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="P241" s="19">
         <f t="shared" si="39"/>
-        <v>13.37</v>
+        <v>14.8</v>
       </c>
       <c r="T241">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="U241">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="2:21" x14ac:dyDescent="0.25">
@@ -34302,54 +34326,54 @@
         <v>46067</v>
       </c>
       <c r="C242">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D242">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E242">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F242">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="G242">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H242">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="I242">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="J242">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K242">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="L242">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="M242">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N242">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="O242" s="19">
         <f t="shared" si="38"/>
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="P242" s="19">
         <f t="shared" si="39"/>
-        <v>27.13</v>
+        <v>36.53</v>
       </c>
       <c r="T242">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="U242">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="243" spans="2:21" x14ac:dyDescent="0.25">
@@ -34357,54 +34381,54 @@
         <v>46068</v>
       </c>
       <c r="C243">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D243">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E243">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F243">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G243">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H243">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I243">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J243">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="K243">
+        <v>51</v>
+      </c>
+      <c r="L243">
+        <v>40</v>
+      </c>
+      <c r="M243">
         <v>60</v>
       </c>
-      <c r="L243">
-        <v>37</v>
-      </c>
-      <c r="M243">
-        <v>69</v>
-      </c>
       <c r="N243">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O243" s="19">
         <f t="shared" si="38"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P243" s="19">
         <f t="shared" si="39"/>
-        <v>7.73</v>
+        <v>12.29</v>
       </c>
       <c r="T243">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="U243">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="244" spans="2:21" x14ac:dyDescent="0.25">
@@ -34412,54 +34436,54 @@
         <v>46069</v>
       </c>
       <c r="C244">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D244">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E244">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F244">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G244">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H244">
         <v>31</v>
       </c>
       <c r="I244">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J244">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K244">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L244">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M244">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N244">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O244" s="19">
         <f t="shared" si="38"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P244" s="19">
         <f t="shared" si="39"/>
-        <v>7.5</v>
+        <v>10.39</v>
       </c>
       <c r="T244">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="U244">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="245" spans="2:21" x14ac:dyDescent="0.25">
@@ -34467,54 +34491,54 @@
         <v>46070</v>
       </c>
       <c r="C245">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D245">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E245">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F245">
+        <v>43</v>
+      </c>
+      <c r="G245">
         <v>58</v>
       </c>
-      <c r="G245">
-        <v>61</v>
-      </c>
       <c r="H245">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I245">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J245">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="K245">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L245">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M245">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N245">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O245" s="19">
         <f t="shared" si="38"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P245" s="19">
         <f t="shared" si="39"/>
-        <v>5.27</v>
+        <v>6.64</v>
       </c>
       <c r="T245">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="U245">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246" spans="2:21" x14ac:dyDescent="0.25">
@@ -34522,54 +34546,54 @@
         <v>46071</v>
       </c>
       <c r="C246">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D246">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E246">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F246">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G246">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H246">
+        <v>47</v>
+      </c>
+      <c r="I246">
+        <v>55</v>
+      </c>
+      <c r="J246">
         <v>51</v>
       </c>
-      <c r="I246">
-        <v>71</v>
-      </c>
-      <c r="J246">
-        <v>68</v>
-      </c>
       <c r="K246">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L246">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M246">
+        <v>55</v>
+      </c>
+      <c r="N246">
         <v>53</v>
-      </c>
-      <c r="N246">
-        <v>74</v>
       </c>
       <c r="O246" s="19">
         <f t="shared" si="38"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P246" s="19">
         <f t="shared" si="39"/>
-        <v>11.7</v>
+        <v>7.12</v>
       </c>
       <c r="T246">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="U246">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247" spans="2:21" x14ac:dyDescent="0.25">
@@ -34577,54 +34601,54 @@
         <v>46072</v>
       </c>
       <c r="C247">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D247">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E247">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F247">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G247">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H247">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I247">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J247">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K247">
+        <v>51</v>
+      </c>
+      <c r="L247">
         <v>46</v>
       </c>
-      <c r="L247">
-        <v>43</v>
-      </c>
       <c r="M247">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N247">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O247" s="19">
         <f t="shared" si="38"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P247" s="19">
         <f t="shared" si="39"/>
-        <v>8.67</v>
+        <v>6.87</v>
       </c>
       <c r="T247">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U247">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="248" spans="2:21" x14ac:dyDescent="0.25">
@@ -34632,54 +34656,54 @@
         <v>46073</v>
       </c>
       <c r="C248">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D248">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E248">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F248">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G248">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H248">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="I248">
         <v>84</v>
       </c>
       <c r="J248">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K248">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="L248">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="M248">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N248">
         <v>72</v>
       </c>
       <c r="O248" s="19">
         <f t="shared" si="38"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P248" s="19">
         <f t="shared" si="39"/>
-        <v>16.34</v>
+        <v>15.27</v>
       </c>
       <c r="T248">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U248">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="249" spans="2:21" x14ac:dyDescent="0.25">
@@ -34687,54 +34711,54 @@
         <v>46074</v>
       </c>
       <c r="C249">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D249">
+        <v>138</v>
+      </c>
+      <c r="E249">
+        <v>133</v>
+      </c>
+      <c r="F249">
+        <v>112</v>
+      </c>
+      <c r="G249">
+        <v>112</v>
+      </c>
+      <c r="H249">
+        <v>102</v>
+      </c>
+      <c r="I249">
+        <v>122</v>
+      </c>
+      <c r="J249">
+        <v>121</v>
+      </c>
+      <c r="K249">
+        <v>132</v>
+      </c>
+      <c r="L249">
         <v>154</v>
       </c>
-      <c r="E249">
-        <v>139</v>
-      </c>
-      <c r="F249">
-        <v>138</v>
-      </c>
-      <c r="G249">
-        <v>115</v>
-      </c>
-      <c r="H249">
-        <v>145</v>
-      </c>
-      <c r="I249">
-        <v>139</v>
-      </c>
-      <c r="J249">
-        <v>142</v>
-      </c>
-      <c r="K249">
-        <v>165</v>
-      </c>
-      <c r="L249">
-        <v>132</v>
-      </c>
       <c r="M249">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="N249">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O249" s="19">
         <f t="shared" si="38"/>
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="P249" s="19">
         <f t="shared" si="39"/>
-        <v>14.9</v>
+        <v>15.46</v>
       </c>
       <c r="T249">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="U249">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="250" spans="2:21" x14ac:dyDescent="0.25">
@@ -34742,54 +34766,54 @@
         <v>46075</v>
       </c>
       <c r="C250">
+        <v>79</v>
+      </c>
+      <c r="D250">
+        <v>53</v>
+      </c>
+      <c r="E250">
+        <v>66</v>
+      </c>
+      <c r="F250">
+        <v>43</v>
+      </c>
+      <c r="G250">
+        <v>63</v>
+      </c>
+      <c r="H250">
+        <v>40</v>
+      </c>
+      <c r="I250">
+        <v>59</v>
+      </c>
+      <c r="J250">
+        <v>43</v>
+      </c>
+      <c r="K250">
+        <v>28</v>
+      </c>
+      <c r="L250">
         <v>46</v>
       </c>
-      <c r="D250">
-        <v>41</v>
-      </c>
-      <c r="E250">
-        <v>48</v>
-      </c>
-      <c r="F250">
-        <v>48</v>
-      </c>
-      <c r="G250">
-        <v>55</v>
-      </c>
-      <c r="H250">
-        <v>45</v>
-      </c>
-      <c r="I250">
-        <v>48</v>
-      </c>
-      <c r="J250">
+      <c r="M250">
+        <v>70</v>
+      </c>
+      <c r="N250">
         <v>42</v>
-      </c>
-      <c r="K250">
-        <v>37</v>
-      </c>
-      <c r="L250">
-        <v>41</v>
-      </c>
-      <c r="M250">
-        <v>65</v>
-      </c>
-      <c r="N250">
-        <v>37</v>
       </c>
       <c r="O250" s="19">
         <f t="shared" si="38"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P250" s="19">
         <f t="shared" si="39"/>
-        <v>7.04</v>
+        <v>14.29</v>
       </c>
       <c r="T250">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U250">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="251" spans="2:21" x14ac:dyDescent="0.25">
@@ -34797,54 +34821,54 @@
         <v>46076</v>
       </c>
       <c r="C251">
+        <v>49</v>
+      </c>
+      <c r="D251">
+        <v>43</v>
+      </c>
+      <c r="E251">
+        <v>69</v>
+      </c>
+      <c r="F251">
+        <v>34</v>
+      </c>
+      <c r="G251">
+        <v>55</v>
+      </c>
+      <c r="H251">
+        <v>31</v>
+      </c>
+      <c r="I251">
         <v>54</v>
       </c>
-      <c r="D251">
-        <v>50</v>
-      </c>
-      <c r="E251">
-        <v>49</v>
-      </c>
-      <c r="F251">
-        <v>50</v>
-      </c>
-      <c r="G251">
-        <v>52</v>
-      </c>
-      <c r="H251">
+      <c r="J251">
+        <v>39</v>
+      </c>
+      <c r="K251">
+        <v>45</v>
+      </c>
+      <c r="L251">
         <v>43</v>
       </c>
-      <c r="I251">
-        <v>51</v>
-      </c>
-      <c r="J251">
-        <v>51</v>
-      </c>
-      <c r="K251">
-        <v>48</v>
-      </c>
-      <c r="L251">
-        <v>41</v>
-      </c>
       <c r="M251">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N251">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="O251" s="19">
         <f t="shared" si="38"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P251" s="19">
         <f t="shared" si="39"/>
-        <v>5.59</v>
+        <v>10.27</v>
       </c>
       <c r="T251">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="U251">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="2:21" x14ac:dyDescent="0.25">
@@ -34852,54 +34876,54 @@
         <v>46077</v>
       </c>
       <c r="C252">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D252">
+        <v>48</v>
+      </c>
+      <c r="E252">
         <v>60</v>
       </c>
-      <c r="E252">
-        <v>51</v>
-      </c>
       <c r="F252">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G252">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H252">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I252">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J252">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K252">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L252">
+        <v>56</v>
+      </c>
+      <c r="M252">
         <v>50</v>
       </c>
-      <c r="M252">
-        <v>53</v>
-      </c>
       <c r="N252">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O252" s="19">
         <f t="shared" si="38"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P252" s="19">
         <f t="shared" si="39"/>
-        <v>6.09</v>
+        <v>8.52</v>
       </c>
       <c r="T252">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U252">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="253" spans="2:21" x14ac:dyDescent="0.25">
@@ -34907,54 +34931,54 @@
         <v>46078</v>
       </c>
       <c r="C253">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D253">
         <v>37</v>
       </c>
       <c r="E253">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F253">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G253">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H253">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I253">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J253">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K253">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L253">
         <v>36</v>
       </c>
       <c r="M253">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N253">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O253" s="19">
         <f t="shared" si="38"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P253" s="19">
         <f t="shared" si="39"/>
-        <v>6.53</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="T253">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="U253">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="2:21" x14ac:dyDescent="0.25">
@@ -34962,54 +34986,54 @@
         <v>46079</v>
       </c>
       <c r="C254">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D254">
+        <v>50</v>
+      </c>
+      <c r="E254">
+        <v>66</v>
+      </c>
+      <c r="F254">
+        <v>48</v>
+      </c>
+      <c r="G254">
+        <v>60</v>
+      </c>
+      <c r="H254">
+        <v>47</v>
+      </c>
+      <c r="I254">
+        <v>60</v>
+      </c>
+      <c r="J254">
+        <v>49</v>
+      </c>
+      <c r="K254">
         <v>54</v>
       </c>
-      <c r="E254">
-        <v>60</v>
-      </c>
-      <c r="F254">
+      <c r="L254">
+        <v>53</v>
+      </c>
+      <c r="M254">
         <v>62</v>
       </c>
-      <c r="G254">
-        <v>68</v>
-      </c>
-      <c r="H254">
-        <v>60</v>
-      </c>
-      <c r="I254">
-        <v>85</v>
-      </c>
-      <c r="J254">
-        <v>59</v>
-      </c>
-      <c r="K254">
+      <c r="N254">
         <v>51</v>
-      </c>
-      <c r="L254">
-        <v>48</v>
-      </c>
-      <c r="M254">
-        <v>77</v>
-      </c>
-      <c r="N254">
-        <v>55</v>
       </c>
       <c r="O254" s="19">
         <f t="shared" si="38"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P254" s="19">
         <f t="shared" si="39"/>
-        <v>9.75</v>
+        <v>6.86</v>
       </c>
       <c r="T254">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="U254">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="2:21" x14ac:dyDescent="0.25">
@@ -35017,54 +35041,54 @@
         <v>46080</v>
       </c>
       <c r="C255">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D255">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E255">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F255">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G255">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H255">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I255">
+        <v>97</v>
+      </c>
+      <c r="J255">
+        <v>70</v>
+      </c>
+      <c r="K255">
         <v>79</v>
       </c>
-      <c r="J255">
-        <v>80</v>
-      </c>
-      <c r="K255">
-        <v>107</v>
-      </c>
       <c r="L255">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M255">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="N255">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O255" s="19">
         <f t="shared" si="38"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P255" s="19">
         <f t="shared" si="39"/>
-        <v>10.220000000000001</v>
+        <v>12.37</v>
       </c>
       <c r="T255">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="U255">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="256" spans="2:21" x14ac:dyDescent="0.25">
@@ -35072,54 +35096,54 @@
         <v>46081</v>
       </c>
       <c r="C256">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D256">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E256">
+        <v>122</v>
+      </c>
+      <c r="F256">
+        <v>105</v>
+      </c>
+      <c r="G256">
+        <v>104</v>
+      </c>
+      <c r="H256">
+        <v>104</v>
+      </c>
+      <c r="I256">
+        <v>134</v>
+      </c>
+      <c r="J256">
+        <v>109</v>
+      </c>
+      <c r="K256">
         <v>120</v>
       </c>
-      <c r="F256">
-        <v>136</v>
-      </c>
-      <c r="G256">
-        <v>133</v>
-      </c>
-      <c r="H256">
-        <v>149</v>
-      </c>
-      <c r="I256">
-        <v>143</v>
-      </c>
-      <c r="J256">
-        <v>137</v>
-      </c>
-      <c r="K256">
-        <v>160</v>
-      </c>
       <c r="L256">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M256">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N256">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="O256" s="19">
         <f t="shared" si="38"/>
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="P256" s="19">
         <f t="shared" si="39"/>
-        <v>12.01</v>
+        <v>13.05</v>
       </c>
       <c r="T256">
         <v>141</v>
       </c>
       <c r="U256">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="257" spans="2:21" x14ac:dyDescent="0.25">
@@ -35127,54 +35151,54 @@
         <v>46082</v>
       </c>
       <c r="C257">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D257">
+        <v>40</v>
+      </c>
+      <c r="E257">
+        <v>67</v>
+      </c>
+      <c r="F257">
+        <v>35</v>
+      </c>
+      <c r="G257">
+        <v>56</v>
+      </c>
+      <c r="H257">
+        <v>28</v>
+      </c>
+      <c r="I257">
+        <v>51</v>
+      </c>
+      <c r="J257">
+        <v>38</v>
+      </c>
+      <c r="K257">
+        <v>41</v>
+      </c>
+      <c r="L257">
         <v>44</v>
-      </c>
-      <c r="E257">
-        <v>57</v>
-      </c>
-      <c r="F257">
-        <v>44</v>
-      </c>
-      <c r="G257">
-        <v>47</v>
-      </c>
-      <c r="H257">
-        <v>49</v>
-      </c>
-      <c r="I257">
-        <v>48</v>
-      </c>
-      <c r="J257">
-        <v>43</v>
-      </c>
-      <c r="K257">
-        <v>49</v>
-      </c>
-      <c r="L257">
-        <v>42</v>
       </c>
       <c r="M257">
         <v>48</v>
       </c>
       <c r="N257">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O257" s="19">
         <f t="shared" si="38"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P257" s="19">
         <f t="shared" si="39"/>
-        <v>3.68</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="T257">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="U257">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258" spans="2:21" x14ac:dyDescent="0.25">
@@ -35182,54 +35206,54 @@
         <v>46083</v>
       </c>
       <c r="C258">
+        <v>49</v>
+      </c>
+      <c r="D258">
+        <v>43</v>
+      </c>
+      <c r="E258">
+        <v>66</v>
+      </c>
+      <c r="F258">
+        <v>37</v>
+      </c>
+      <c r="G258">
+        <v>56</v>
+      </c>
+      <c r="H258">
+        <v>35</v>
+      </c>
+      <c r="I258">
         <v>51</v>
       </c>
-      <c r="D258">
+      <c r="J258">
+        <v>43</v>
+      </c>
+      <c r="K258">
+        <v>50</v>
+      </c>
+      <c r="L258">
         <v>48</v>
       </c>
-      <c r="E258">
-        <v>49</v>
-      </c>
-      <c r="F258">
-        <v>53</v>
-      </c>
-      <c r="G258">
-        <v>48</v>
-      </c>
-      <c r="H258">
+      <c r="M258">
         <v>44</v>
       </c>
-      <c r="I258">
-        <v>55</v>
-      </c>
-      <c r="J258">
-        <v>52</v>
-      </c>
-      <c r="K258">
-        <v>46</v>
-      </c>
-      <c r="L258">
-        <v>46</v>
-      </c>
-      <c r="M258">
-        <v>52</v>
-      </c>
       <c r="N258">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O258" s="19">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P258" s="19">
         <f t="shared" si="39"/>
-        <v>3.75</v>
+        <v>8.07</v>
       </c>
       <c r="T258">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="U258">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="259" spans="2:21" x14ac:dyDescent="0.25">
@@ -35237,54 +35261,54 @@
         <v>46084</v>
       </c>
       <c r="C259">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D259">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E259">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F259">
+        <v>37</v>
+      </c>
+      <c r="G259">
+        <v>55</v>
+      </c>
+      <c r="H259">
+        <v>33</v>
+      </c>
+      <c r="I259">
         <v>53</v>
       </c>
-      <c r="G259">
-        <v>46</v>
-      </c>
-      <c r="H259">
-        <v>44</v>
-      </c>
-      <c r="I259">
-        <v>59</v>
-      </c>
       <c r="J259">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K259">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L259">
         <v>47</v>
       </c>
       <c r="M259">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N259">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="O259" s="19">
         <f t="shared" si="38"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="P259" s="19">
         <f t="shared" si="39"/>
-        <v>5.7</v>
+        <v>8.39</v>
       </c>
       <c r="T259">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U259">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="260" spans="2:21" x14ac:dyDescent="0.25">
@@ -35292,54 +35316,54 @@
         <v>46085</v>
       </c>
       <c r="C260">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D260">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E260">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F260">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G260">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H260">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I260">
+        <v>60</v>
+      </c>
+      <c r="J260">
         <v>50</v>
       </c>
-      <c r="J260">
-        <v>48</v>
-      </c>
       <c r="K260">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="L260">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M260">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="N260">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O260" s="19">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P260" s="19">
         <f t="shared" si="39"/>
-        <v>10.06</v>
+        <v>10.67</v>
       </c>
       <c r="T260">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="U260">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="261" spans="2:21" x14ac:dyDescent="0.25">
@@ -35347,40 +35371,40 @@
         <v>46086</v>
       </c>
       <c r="C261">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D261">
         <v>41</v>
       </c>
       <c r="E261">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F261">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G261">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H261">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I261">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J261">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K261">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L261">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M261">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N261">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O261" s="19">
         <f t="shared" si="38"/>
@@ -35388,13 +35412,13 @@
       </c>
       <c r="P261" s="19">
         <f t="shared" si="39"/>
-        <v>6.68</v>
+        <v>6.97</v>
       </c>
       <c r="T261">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="U261">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="262" spans="2:21" x14ac:dyDescent="0.25">
@@ -35402,54 +35426,54 @@
         <v>46087</v>
       </c>
       <c r="C262">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D262">
+        <v>59</v>
+      </c>
+      <c r="E262">
+        <v>67</v>
+      </c>
+      <c r="F262">
+        <v>59</v>
+      </c>
+      <c r="G262">
+        <v>76</v>
+      </c>
+      <c r="H262">
+        <v>60</v>
+      </c>
+      <c r="I262">
+        <v>79</v>
+      </c>
+      <c r="J262">
+        <v>54</v>
+      </c>
+      <c r="K262">
+        <v>66</v>
+      </c>
+      <c r="L262">
         <v>65</v>
       </c>
-      <c r="E262">
-        <v>73</v>
-      </c>
-      <c r="F262">
+      <c r="M262">
+        <v>71</v>
+      </c>
+      <c r="N262">
         <v>64</v>
-      </c>
-      <c r="G262">
-        <v>100</v>
-      </c>
-      <c r="H262">
-        <v>87</v>
-      </c>
-      <c r="I262">
-        <v>74</v>
-      </c>
-      <c r="J262">
-        <v>66</v>
-      </c>
-      <c r="K262">
-        <v>58</v>
-      </c>
-      <c r="L262">
-        <v>62</v>
-      </c>
-      <c r="M262">
-        <v>67</v>
-      </c>
-      <c r="N262">
-        <v>62</v>
       </c>
       <c r="O262" s="19">
         <f t="shared" ref="O262:O263" si="42">ROUND(AVERAGE(C262:N262,T262:U262),0)</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P262" s="19">
         <f t="shared" ref="P262:P263" si="43">ROUND(_xlfn.STDEV.P(C262:N262,T262:U262),2)</f>
-        <v>11.01</v>
+        <v>7.69</v>
       </c>
       <c r="T262">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="U262">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="263" spans="2:21" x14ac:dyDescent="0.25">
@@ -35457,54 +35481,54 @@
         <v>46088</v>
       </c>
       <c r="C263">
+        <v>155</v>
+      </c>
+      <c r="D263">
+        <v>131</v>
+      </c>
+      <c r="E263">
+        <v>155</v>
+      </c>
+      <c r="F263">
+        <v>107</v>
+      </c>
+      <c r="G263">
+        <v>131</v>
+      </c>
+      <c r="H263">
+        <v>99</v>
+      </c>
+      <c r="I263">
+        <v>143</v>
+      </c>
+      <c r="J263">
+        <v>116</v>
+      </c>
+      <c r="K263">
+        <v>162</v>
+      </c>
+      <c r="L263">
+        <v>140</v>
+      </c>
+      <c r="M263">
         <v>168</v>
       </c>
-      <c r="D263">
-        <v>155</v>
-      </c>
-      <c r="E263">
-        <v>156</v>
-      </c>
-      <c r="F263">
-        <v>139</v>
-      </c>
-      <c r="G263">
-        <v>141</v>
-      </c>
-      <c r="H263">
+      <c r="N263">
         <v>147</v>
-      </c>
-      <c r="I263">
-        <v>165</v>
-      </c>
-      <c r="J263">
-        <v>135</v>
-      </c>
-      <c r="K263">
-        <v>201</v>
-      </c>
-      <c r="L263">
-        <v>132</v>
-      </c>
-      <c r="M263">
-        <v>138</v>
-      </c>
-      <c r="N263">
-        <v>165</v>
       </c>
       <c r="O263" s="19">
         <f t="shared" si="42"/>
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="P263" s="19">
         <f t="shared" si="43"/>
-        <v>17.649999999999999</v>
+        <v>20.43</v>
       </c>
       <c r="T263">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="U263">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="2:21" x14ac:dyDescent="0.25">
@@ -35512,54 +35536,54 @@
         <v>40</v>
       </c>
       <c r="C264">
-        <v>26.54</v>
+        <v>31.25</v>
       </c>
       <c r="D264">
-        <v>28.27</v>
+        <v>30.68</v>
       </c>
       <c r="E264">
-        <v>23.82</v>
+        <v>23.91</v>
       </c>
       <c r="F264" s="14">
-        <v>22.99</v>
+        <v>23.49</v>
       </c>
       <c r="G264" s="14">
-        <v>22.15</v>
+        <v>23</v>
       </c>
       <c r="H264" s="14">
-        <v>23.48</v>
+        <v>20.91</v>
       </c>
       <c r="I264" s="14">
-        <v>23.93</v>
+        <v>22.94</v>
       </c>
       <c r="J264" s="14">
-        <v>22.01</v>
+        <v>24.8</v>
       </c>
       <c r="K264" s="14">
-        <v>24.22</v>
+        <v>20.81</v>
       </c>
       <c r="L264" s="14">
-        <v>31.53</v>
+        <v>26.55</v>
       </c>
       <c r="M264" s="14">
-        <v>32.619999999999997</v>
+        <v>27.17</v>
       </c>
       <c r="N264" s="15">
-        <v>24.5</v>
+        <v>29.78</v>
       </c>
       <c r="O264" s="32">
         <f>ROUND(AVERAGE(C264:N264,T264:U264),2)</f>
-        <v>25.16</v>
+        <v>25.29</v>
       </c>
       <c r="P264" s="32">
         <f>ROUND(_xlfn.STDEV.P(C264:N264,T264:U264),2)</f>
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="T264">
-        <v>22.77</v>
+        <v>24.77</v>
       </c>
       <c r="U264">
-        <v>23.47</v>
+        <v>24.03</v>
       </c>
     </row>
     <row r="265" spans="2:21" x14ac:dyDescent="0.25">
@@ -35567,40 +35591,40 @@
         <v>41</v>
       </c>
       <c r="C265">
-        <v>25.96</v>
+        <v>24.67</v>
       </c>
       <c r="D265">
-        <v>25.22</v>
+        <v>25.7</v>
       </c>
       <c r="E265">
-        <v>29.33</v>
+        <v>31.35</v>
       </c>
       <c r="F265">
-        <v>28.93</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="G265">
-        <v>31.1</v>
+        <v>29.29</v>
       </c>
       <c r="H265">
-        <v>30.78</v>
+        <v>33.68</v>
       </c>
       <c r="I265">
-        <v>32.85</v>
+        <v>29.22</v>
       </c>
       <c r="J265">
-        <v>31.65</v>
+        <v>31.13</v>
       </c>
       <c r="K265">
-        <v>29.28</v>
+        <v>28.33</v>
       </c>
       <c r="L265">
-        <v>25.2</v>
+        <v>24.78</v>
       </c>
       <c r="M265" s="14">
-        <v>24.91</v>
+        <v>26.56</v>
       </c>
       <c r="N265" s="14">
-        <v>30.48</v>
+        <v>23.41</v>
       </c>
       <c r="O265" s="32">
         <f>ROUND(AVERAGE(C265:N265,T265:U265),2)</f>
@@ -35608,44 +35632,44 @@
       </c>
       <c r="P265" s="32">
         <f>ROUND(_xlfn.STDEV.P(C265:N265,T265:U265),2)</f>
-        <v>2.4900000000000002</v>
+        <v>3.44</v>
       </c>
       <c r="T265">
-        <v>29.54</v>
+        <v>27.95</v>
       </c>
       <c r="U265">
-        <v>28.25</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="266" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C266" s="55" t="s">
+      <c r="C266" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D266" s="55"/>
-      <c r="E266" s="55" t="s">
+      <c r="D266" s="54"/>
+      <c r="E266" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F266" s="55"/>
-      <c r="G266" s="55" t="s">
+      <c r="F266" s="54"/>
+      <c r="G266" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H266" s="55"/>
-      <c r="I266" s="55" t="s">
+      <c r="H266" s="54"/>
+      <c r="I266" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J266" s="55"/>
-      <c r="K266" s="60" t="s">
+      <c r="J266" s="54"/>
+      <c r="K266" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L266" s="60"/>
-      <c r="M266" s="60" t="s">
+      <c r="L266" s="59"/>
+      <c r="M266" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="N266" s="60"/>
-      <c r="T266" s="55" t="s">
+      <c r="N266" s="59"/>
+      <c r="T266" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="U266" s="55"/>
+      <c r="U266" s="54"/>
     </row>
     <row r="267" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
@@ -35695,44 +35719,47 @@
       <c r="B268" t="s">
         <v>65</v>
       </c>
+      <c r="C268">
+        <v>76.2</v>
+      </c>
       <c r="D268">
-        <v>71</v>
+        <v>64.8</v>
       </c>
       <c r="E268">
-        <v>101</v>
+        <v>92.1</v>
       </c>
       <c r="F268">
-        <v>98.6</v>
+        <v>85.6</v>
       </c>
       <c r="G268">
-        <v>21</v>
+        <v>28.7</v>
       </c>
       <c r="H268">
-        <v>21.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I268">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="J268">
-        <v>142</v>
+        <v>114.9</v>
       </c>
       <c r="K268">
-        <v>96.6</v>
+        <v>107.5</v>
       </c>
       <c r="L268">
-        <v>90.6</v>
+        <v>112.2</v>
       </c>
       <c r="M268">
-        <v>165</v>
+        <v>164.5</v>
       </c>
       <c r="N268">
-        <v>159</v>
+        <v>185.5</v>
       </c>
       <c r="T268">
-        <v>203</v>
+        <v>184.3</v>
       </c>
       <c r="U268">
-        <v>181</v>
+        <v>189.3</v>
       </c>
     </row>
     <row r="269" spans="2:21" x14ac:dyDescent="0.25">
@@ -35745,29 +35772,29 @@
       <c r="F269" s="33"/>
       <c r="G269" s="33"/>
       <c r="H269" s="33"/>
-      <c r="I269" s="53">
-        <v>0.8</v>
-      </c>
-      <c r="J269" s="53">
-        <v>0.85</v>
-      </c>
-      <c r="K269" s="54">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="L269" s="53">
+      <c r="I269" s="66">
         <v>0.70599999999999996</v>
       </c>
-      <c r="M269" s="53">
-        <v>0.7</v>
-      </c>
-      <c r="N269" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="T269" s="54">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="U269" s="54">
-        <v>0.77600000000000002</v>
+      <c r="J269" s="66">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="K269" s="53">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="L269" s="66">
+        <v>0.83</v>
+      </c>
+      <c r="M269" s="66">
+        <v>0.755</v>
+      </c>
+      <c r="N269" s="66">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="T269" s="66">
+        <v>0.755</v>
+      </c>
+      <c r="U269" s="66">
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -35805,7 +35832,7 @@
   <conditionalFormatting sqref="F191:G197 F264:G264 I191:I197 I264 L191:L197 L264">
     <cfRule type="aboveAverage" dxfId="3" priority="27" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R79 R81:R210">
+  <conditionalFormatting sqref="R3:R79 R81:R213">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -35824,8 +35851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
   <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O214" sqref="O214:P263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35835,42 +35862,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <v>0.85</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
@@ -47240,11 +47267,11 @@
         <v>10.210000000000001</v>
       </c>
       <c r="R204" s="25">
-        <f t="shared" ref="R204:R211" si="25">O204-A204</f>
+        <f t="shared" ref="R204:R213" si="25">O204-A204</f>
         <v>20</v>
       </c>
       <c r="S204">
-        <f t="shared" ref="S204:S211" si="26">O204/A204</f>
+        <f t="shared" ref="S204:S213" si="26">O204/A204</f>
         <v>1.7142857142857142</v>
       </c>
       <c r="T204">
@@ -47650,73 +47677,76 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="27">
+    <row r="211" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="63">
         <v>35</v>
       </c>
-      <c r="B211" s="26">
+      <c r="B211" s="64">
         <v>46036</v>
       </c>
-      <c r="C211" s="27">
+      <c r="C211" s="63">
         <v>45</v>
       </c>
-      <c r="D211" s="27">
+      <c r="D211" s="63">
         <v>36</v>
       </c>
-      <c r="E211" s="27">
+      <c r="E211" s="63">
         <v>54</v>
       </c>
-      <c r="F211" s="27">
+      <c r="F211" s="63">
         <v>77</v>
       </c>
-      <c r="G211" s="27">
+      <c r="G211" s="63">
         <v>36</v>
       </c>
-      <c r="H211" s="27">
+      <c r="H211" s="63">
         <v>32</v>
       </c>
-      <c r="I211" s="27">
+      <c r="I211" s="63">
         <v>50</v>
       </c>
-      <c r="J211" s="27">
+      <c r="J211" s="63">
         <v>88</v>
       </c>
-      <c r="K211" s="27">
+      <c r="K211" s="63">
         <v>32</v>
       </c>
-      <c r="L211" s="27">
+      <c r="L211" s="63">
         <v>41</v>
       </c>
-      <c r="M211" s="27">
+      <c r="M211" s="63">
         <v>42</v>
       </c>
-      <c r="N211" s="27">
+      <c r="N211" s="63">
         <v>35</v>
       </c>
-      <c r="O211" s="28">
+      <c r="O211" s="65">
         <f t="shared" si="23"/>
         <v>48</v>
       </c>
-      <c r="P211" s="28">
+      <c r="P211" s="65">
         <f t="shared" si="24"/>
         <v>16.23</v>
       </c>
-      <c r="R211" s="27">
+      <c r="R211" s="25">
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="S211" s="27">
+      <c r="S211" s="63">
         <f t="shared" si="26"/>
         <v>1.3714285714285714</v>
       </c>
-      <c r="T211" s="27">
+      <c r="T211" s="63">
         <v>49</v>
       </c>
-      <c r="U211" s="27">
+      <c r="U211" s="63">
         <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="13">
+        <v>11</v>
+      </c>
       <c r="B212" s="21">
         <v>46037</v>
       </c>
@@ -47764,6 +47794,14 @@
         <f t="shared" si="24"/>
         <v>28.53</v>
       </c>
+      <c r="R212" s="25">
+        <f t="shared" si="25"/>
+        <v>71</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="26"/>
+        <v>7.4545454545454541</v>
+      </c>
       <c r="T212">
         <v>80</v>
       </c>
@@ -47772,6 +47810,9 @@
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="13">
+        <v>81</v>
+      </c>
       <c r="B213" s="21">
         <v>46038</v>
       </c>
@@ -47819,6 +47860,14 @@
         <f t="shared" si="24"/>
         <v>32.82</v>
       </c>
+      <c r="R213" s="25">
+        <f t="shared" si="25"/>
+        <v>58</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="26"/>
+        <v>1.7160493827160495</v>
+      </c>
       <c r="T213">
         <v>137</v>
       </c>
@@ -47826,59 +47875,59 @@
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B214" s="21">
+    <row r="214" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="26">
         <v>46039</v>
       </c>
-      <c r="C214">
-        <v>147</v>
-      </c>
-      <c r="D214">
-        <v>151</v>
-      </c>
-      <c r="E214">
+      <c r="C214" s="27">
+        <v>153</v>
+      </c>
+      <c r="D214" s="27">
         <v>134</v>
       </c>
-      <c r="F214">
-        <v>182</v>
-      </c>
-      <c r="G214">
-        <v>65</v>
-      </c>
-      <c r="H214">
-        <v>165</v>
-      </c>
-      <c r="I214">
-        <v>184</v>
-      </c>
-      <c r="J214">
-        <v>180</v>
-      </c>
-      <c r="K214">
-        <v>182</v>
-      </c>
-      <c r="L214">
+      <c r="E214" s="27">
+        <v>134</v>
+      </c>
+      <c r="F214" s="27">
         <v>125</v>
       </c>
-      <c r="M214">
-        <v>170</v>
-      </c>
-      <c r="N214">
-        <v>152</v>
-      </c>
-      <c r="O214" s="19">
+      <c r="G214" s="27">
+        <v>120</v>
+      </c>
+      <c r="H214" s="27">
+        <v>105</v>
+      </c>
+      <c r="I214" s="27">
+        <v>131</v>
+      </c>
+      <c r="J214" s="27">
+        <v>121</v>
+      </c>
+      <c r="K214" s="27">
+        <v>161</v>
+      </c>
+      <c r="L214" s="27">
+        <v>142</v>
+      </c>
+      <c r="M214" s="27">
+        <v>148</v>
+      </c>
+      <c r="N214" s="27">
+        <v>135</v>
+      </c>
+      <c r="O214" s="28">
         <f t="shared" si="23"/>
-        <v>157</v>
-      </c>
-      <c r="P214" s="19">
+        <v>133</v>
+      </c>
+      <c r="P214" s="28">
         <f t="shared" si="24"/>
-        <v>31.78</v>
-      </c>
-      <c r="T214">
-        <v>191</v>
-      </c>
-      <c r="U214">
-        <v>165</v>
+        <v>14.25</v>
+      </c>
+      <c r="T214" s="27">
+        <v>125</v>
+      </c>
+      <c r="U214" s="27">
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -47886,54 +47935,54 @@
         <v>46040</v>
       </c>
       <c r="C215">
+        <v>50</v>
+      </c>
+      <c r="D215">
+        <v>43</v>
+      </c>
+      <c r="E215">
         <v>51</v>
       </c>
-      <c r="D215">
-        <v>49</v>
-      </c>
-      <c r="E215">
-        <v>58</v>
-      </c>
       <c r="F215">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G215">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H215">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I215">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J215">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K215">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L215">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M215">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="N215">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="O215" s="19">
         <f t="shared" si="23"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P215" s="19">
         <f t="shared" si="24"/>
-        <v>11.84</v>
+        <v>12.99</v>
       </c>
       <c r="T215">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="U215">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -47941,54 +47990,54 @@
         <v>46041</v>
       </c>
       <c r="C216">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D216">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E216">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F216">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G216">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H216">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I216">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J216">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="K216">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L216">
         <v>27</v>
       </c>
       <c r="M216">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N216">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="O216" s="19">
         <f t="shared" si="23"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P216" s="19">
         <f t="shared" si="24"/>
-        <v>15.89</v>
+        <v>12.85</v>
       </c>
       <c r="T216">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="U216">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -47996,54 +48045,54 @@
         <v>46042</v>
       </c>
       <c r="C217">
+        <v>50</v>
+      </c>
+      <c r="D217">
+        <v>44</v>
+      </c>
+      <c r="E217">
+        <v>50</v>
+      </c>
+      <c r="F217">
         <v>47</v>
       </c>
-      <c r="D217">
-        <v>48</v>
-      </c>
-      <c r="E217">
-        <v>53</v>
-      </c>
-      <c r="F217">
-        <v>83</v>
-      </c>
       <c r="G217">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H217">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I217">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J217">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="K217">
         <v>52</v>
       </c>
       <c r="L217">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M217">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N217">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O217" s="19">
         <f t="shared" si="23"/>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P217" s="19">
         <f t="shared" si="24"/>
-        <v>17.18</v>
+        <v>9.18</v>
       </c>
       <c r="T217">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U217">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -48051,54 +48100,54 @@
         <v>46043</v>
       </c>
       <c r="C218">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D218">
         <v>44</v>
       </c>
       <c r="E218">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F218">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G218">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H218">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I218">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J218">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K218">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L218">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M218">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N218">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O218" s="19">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P218" s="19">
         <f t="shared" si="24"/>
-        <v>4.8499999999999996</v>
+        <v>10.95</v>
       </c>
       <c r="T218">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U218">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -48109,51 +48158,51 @@
         <v>52</v>
       </c>
       <c r="D219">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E219">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F219">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G219">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H219">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I219">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="J219">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="K219">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L219">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M219">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N219">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O219" s="19">
         <f t="shared" si="23"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P219" s="19">
         <f t="shared" si="24"/>
-        <v>19.18</v>
+        <v>7.5</v>
       </c>
       <c r="T219">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U219">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -48161,54 +48210,54 @@
         <v>46045</v>
       </c>
       <c r="C220">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D220">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E220">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F220">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="G220">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="H220">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="I220">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="J220">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="K220">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L220">
+        <v>128</v>
+      </c>
+      <c r="M220">
+        <v>113</v>
+      </c>
+      <c r="N220">
         <v>110</v>
-      </c>
-      <c r="M220">
-        <v>141</v>
-      </c>
-      <c r="N220">
-        <v>145</v>
       </c>
       <c r="O220" s="19">
         <f t="shared" si="23"/>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="P220" s="19">
         <f t="shared" si="24"/>
-        <v>29.49</v>
+        <v>24.49</v>
       </c>
       <c r="T220">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="U220">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -48216,54 +48265,54 @@
         <v>46046</v>
       </c>
       <c r="C221">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D221">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E221">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F221">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G221">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="H221">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="I221">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="J221">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="K221">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L221">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="M221">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="N221">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="O221" s="19">
         <f t="shared" si="23"/>
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P221" s="19">
         <f t="shared" si="24"/>
-        <v>34.03</v>
+        <v>18.93</v>
       </c>
       <c r="T221">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="U221">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -48271,54 +48320,54 @@
         <v>46047</v>
       </c>
       <c r="C222">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D222">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E222">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F222">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="G222">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H222">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I222">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J222">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="K222">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L222">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M222">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N222">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O222" s="19">
         <f t="shared" si="23"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P222" s="19">
         <f t="shared" si="24"/>
-        <v>29.94</v>
+        <v>10.97</v>
       </c>
       <c r="T222">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="U222">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -48326,54 +48375,54 @@
         <v>46048</v>
       </c>
       <c r="C223">
+        <v>53</v>
+      </c>
+      <c r="D223">
+        <v>46</v>
+      </c>
+      <c r="E223">
         <v>50</v>
       </c>
-      <c r="D223">
-        <v>48</v>
-      </c>
-      <c r="E223">
+      <c r="F223">
+        <v>74</v>
+      </c>
+      <c r="G223">
         <v>47</v>
       </c>
-      <c r="F223">
-        <v>120</v>
-      </c>
-      <c r="G223">
-        <v>35</v>
-      </c>
       <c r="H223">
+        <v>46</v>
+      </c>
+      <c r="I223">
+        <v>54</v>
+      </c>
+      <c r="J223">
         <v>32</v>
       </c>
-      <c r="I223">
-        <v>52</v>
-      </c>
-      <c r="J223">
-        <v>138</v>
-      </c>
       <c r="K223">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="L223">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M223">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N223">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O223" s="19">
         <f t="shared" si="23"/>
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="P223" s="19">
         <f t="shared" si="24"/>
-        <v>33.06</v>
+        <v>12.79</v>
       </c>
       <c r="T223">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U223">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -48381,54 +48430,54 @@
         <v>46049</v>
       </c>
       <c r="C224">
+        <v>51</v>
+      </c>
+      <c r="D224">
+        <v>46</v>
+      </c>
+      <c r="E224">
         <v>50</v>
       </c>
-      <c r="D224">
-        <v>53</v>
-      </c>
-      <c r="E224">
+      <c r="F224">
+        <v>72</v>
+      </c>
+      <c r="G224">
         <v>51</v>
       </c>
-      <c r="F224">
-        <v>110</v>
-      </c>
-      <c r="G224">
-        <v>35</v>
-      </c>
       <c r="H224">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I224">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J224">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="K224">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L224">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M224">
         <v>50</v>
       </c>
       <c r="N224">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O224" s="19">
         <f t="shared" si="23"/>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="P224" s="19">
         <f t="shared" si="24"/>
-        <v>28.75</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="T224">
         <v>35</v>
       </c>
       <c r="U224">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225" spans="2:21" x14ac:dyDescent="0.25">
@@ -48436,54 +48485,54 @@
         <v>46050</v>
       </c>
       <c r="C225">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D225">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E225">
+        <v>49</v>
+      </c>
+      <c r="F225">
+        <v>32</v>
+      </c>
+      <c r="G225">
+        <v>52</v>
+      </c>
+      <c r="H225">
+        <v>15</v>
+      </c>
+      <c r="I225">
+        <v>56</v>
+      </c>
+      <c r="J225">
+        <v>32</v>
+      </c>
+      <c r="K225">
         <v>54</v>
       </c>
-      <c r="F225">
-        <v>41</v>
-      </c>
-      <c r="G225">
-        <v>35</v>
-      </c>
-      <c r="H225">
-        <v>35</v>
-      </c>
-      <c r="I225">
+      <c r="L225">
         <v>44</v>
       </c>
-      <c r="J225">
-        <v>39</v>
-      </c>
-      <c r="K225">
-        <v>43</v>
-      </c>
-      <c r="L225">
-        <v>43</v>
-      </c>
       <c r="M225">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N225">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O225" s="19">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P225" s="19">
         <f t="shared" si="24"/>
-        <v>5.35</v>
+        <v>10.92</v>
       </c>
       <c r="T225">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="U225">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="2:21" x14ac:dyDescent="0.25">
@@ -48491,54 +48540,54 @@
         <v>46051</v>
       </c>
       <c r="C226">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D226">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E226">
+        <v>52</v>
+      </c>
+      <c r="F226">
+        <v>61</v>
+      </c>
+      <c r="G226">
+        <v>51</v>
+      </c>
+      <c r="H226">
+        <v>42</v>
+      </c>
+      <c r="I226">
+        <v>62</v>
+      </c>
+      <c r="J226">
+        <v>64</v>
+      </c>
+      <c r="K226">
+        <v>57</v>
+      </c>
+      <c r="L226">
+        <v>59</v>
+      </c>
+      <c r="M226">
+        <v>59</v>
+      </c>
+      <c r="N226">
         <v>53</v>
-      </c>
-      <c r="F226">
-        <v>87</v>
-      </c>
-      <c r="G226">
-        <v>62</v>
-      </c>
-      <c r="H226">
-        <v>47</v>
-      </c>
-      <c r="I226">
-        <v>72</v>
-      </c>
-      <c r="J226">
-        <v>95</v>
-      </c>
-      <c r="K226">
-        <v>60</v>
-      </c>
-      <c r="L226">
-        <v>53</v>
-      </c>
-      <c r="M226">
-        <v>62</v>
-      </c>
-      <c r="N226">
-        <v>61</v>
       </c>
       <c r="O226" s="19">
         <f t="shared" si="23"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P226" s="19">
         <f t="shared" si="24"/>
-        <v>12.58</v>
+        <v>6.15</v>
       </c>
       <c r="T226">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U226">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="2:21" x14ac:dyDescent="0.25">
@@ -48546,54 +48595,54 @@
         <v>46052</v>
       </c>
       <c r="C227">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D227">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="E227">
+        <v>108</v>
+      </c>
+      <c r="F227">
+        <v>72</v>
+      </c>
+      <c r="G227">
+        <v>143</v>
+      </c>
+      <c r="H227">
+        <v>29</v>
+      </c>
+      <c r="I227">
+        <v>125</v>
+      </c>
+      <c r="J227">
+        <v>68</v>
+      </c>
+      <c r="K227">
+        <v>136</v>
+      </c>
+      <c r="L227">
         <v>130</v>
       </c>
-      <c r="F227">
-        <v>97</v>
-      </c>
-      <c r="G227">
-        <v>35</v>
-      </c>
-      <c r="H227">
-        <v>88</v>
-      </c>
-      <c r="I227">
-        <v>76</v>
-      </c>
-      <c r="J227">
-        <v>77</v>
-      </c>
-      <c r="K227">
-        <v>150</v>
-      </c>
-      <c r="L227">
-        <v>117</v>
-      </c>
       <c r="M227">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="N227">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="O227" s="19">
         <f t="shared" si="23"/>
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P227" s="19">
         <f t="shared" si="24"/>
-        <v>47.35</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="T227">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="U227">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="2:21" x14ac:dyDescent="0.25">
@@ -48601,54 +48650,54 @@
         <v>46053</v>
       </c>
       <c r="C228">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D228">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E228">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F228">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="G228">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="H228">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="I228">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="J228">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="K228">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L228">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="M228">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="N228">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="O228" s="19">
         <f t="shared" si="23"/>
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="P228" s="19">
         <f t="shared" si="24"/>
-        <v>37.1</v>
+        <v>15.78</v>
       </c>
       <c r="T228">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="U228">
-        <v>178</v>
+        <v>108</v>
       </c>
     </row>
     <row r="229" spans="2:21" x14ac:dyDescent="0.25">
@@ -48656,54 +48705,54 @@
         <v>46054</v>
       </c>
       <c r="C229">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D229">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E229">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F229">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G229">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I229">
         <v>54</v>
       </c>
       <c r="J229">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K229">
+        <v>49</v>
+      </c>
+      <c r="L229">
+        <v>41</v>
+      </c>
+      <c r="M229">
         <v>56</v>
       </c>
-      <c r="L229">
-        <v>37</v>
-      </c>
-      <c r="M229">
-        <v>77</v>
-      </c>
       <c r="N229">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="O229" s="19">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P229" s="19">
         <f t="shared" si="24"/>
-        <v>11.67</v>
+        <v>12.38</v>
       </c>
       <c r="T229">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="U229">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230" spans="2:21" x14ac:dyDescent="0.25">
@@ -48711,40 +48760,40 @@
         <v>46055</v>
       </c>
       <c r="C230">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D230">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E230">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F230">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G230">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H230">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I230">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J230">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K230">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L230">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M230">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N230">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O230" s="19">
         <f t="shared" si="23"/>
@@ -48752,13 +48801,13 @@
       </c>
       <c r="P230" s="19">
         <f t="shared" si="24"/>
-        <v>7.95</v>
+        <v>12.04</v>
       </c>
       <c r="T230">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="U230">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="2:21" x14ac:dyDescent="0.25">
@@ -48766,54 +48815,54 @@
         <v>46056</v>
       </c>
       <c r="C231">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D231">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E231">
         <v>50</v>
       </c>
       <c r="F231">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="G231">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H231">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I231">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J231">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="K231">
+        <v>42</v>
+      </c>
+      <c r="L231">
+        <v>48</v>
+      </c>
+      <c r="M231">
         <v>52</v>
       </c>
-      <c r="L231">
-        <v>44</v>
-      </c>
-      <c r="M231">
-        <v>53</v>
-      </c>
       <c r="N231">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O231" s="19">
         <f t="shared" si="23"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P231" s="19">
         <f t="shared" si="24"/>
-        <v>28.31</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="T231">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U231">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="2:21" x14ac:dyDescent="0.25">
@@ -48821,54 +48870,54 @@
         <v>46057</v>
       </c>
       <c r="C232">
+        <v>51</v>
+      </c>
+      <c r="D232">
+        <v>44</v>
+      </c>
+      <c r="E232">
+        <v>50</v>
+      </c>
+      <c r="F232">
+        <v>35</v>
+      </c>
+      <c r="G232">
+        <v>52</v>
+      </c>
+      <c r="H232">
+        <v>15</v>
+      </c>
+      <c r="I232">
+        <v>55</v>
+      </c>
+      <c r="J232">
+        <v>29</v>
+      </c>
+      <c r="K232">
+        <v>52</v>
+      </c>
+      <c r="L232">
         <v>46</v>
       </c>
-      <c r="D232">
-        <v>45</v>
-      </c>
-      <c r="E232">
-        <v>55</v>
-      </c>
-      <c r="F232">
-        <v>46</v>
-      </c>
-      <c r="G232">
-        <v>35</v>
-      </c>
-      <c r="H232">
-        <v>34</v>
-      </c>
-      <c r="I232">
-        <v>40</v>
-      </c>
-      <c r="J232">
-        <v>43</v>
-      </c>
-      <c r="K232">
-        <v>45</v>
-      </c>
-      <c r="L232">
-        <v>43</v>
-      </c>
       <c r="M232">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N232">
         <v>46</v>
       </c>
       <c r="O232" s="19">
         <f t="shared" si="23"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P232" s="19">
         <f t="shared" si="24"/>
-        <v>5.77</v>
+        <v>10.77</v>
       </c>
       <c r="T232">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="U232">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="2:21" x14ac:dyDescent="0.25">
@@ -48876,54 +48925,54 @@
         <v>46058</v>
       </c>
       <c r="C233">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D233">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E233">
+        <v>54</v>
+      </c>
+      <c r="F233">
+        <v>76</v>
+      </c>
+      <c r="G233">
+        <v>53</v>
+      </c>
+      <c r="H233">
         <v>66</v>
       </c>
-      <c r="F233">
-        <v>118</v>
-      </c>
-      <c r="G233">
-        <v>40</v>
-      </c>
-      <c r="H233">
-        <v>52</v>
-      </c>
       <c r="I233">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="J233">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L233">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M233">
         <v>70</v>
       </c>
       <c r="N233">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O233" s="19">
         <f t="shared" si="23"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="P233" s="19">
         <f t="shared" si="24"/>
-        <v>30.06</v>
+        <v>9.24</v>
       </c>
       <c r="T233">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U233">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="2:21" x14ac:dyDescent="0.25">
@@ -48931,54 +48980,54 @@
         <v>46059</v>
       </c>
       <c r="C234">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D234">
+        <v>122</v>
+      </c>
+      <c r="E234">
         <v>158</v>
       </c>
-      <c r="E234">
-        <v>166</v>
-      </c>
       <c r="F234">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="G234">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H234">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I234">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="J234">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="K234">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="L234">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="M234">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="N234">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="O234" s="19">
         <f t="shared" si="23"/>
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="P234" s="19">
         <f t="shared" si="24"/>
-        <v>37.67</v>
+        <v>21.83</v>
       </c>
       <c r="T234">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="U234">
-        <v>217</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="2:21" x14ac:dyDescent="0.25">
@@ -48986,54 +49035,54 @@
         <v>46060</v>
       </c>
       <c r="C235">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D235">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="E235">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F235">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="G235">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="H235">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="I235">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="J235">
+        <v>134</v>
+      </c>
+      <c r="K235">
         <v>190</v>
       </c>
-      <c r="K235">
-        <v>239</v>
-      </c>
       <c r="L235">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M235">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="N235">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="O235" s="19">
         <f t="shared" si="23"/>
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="P235" s="19">
         <f t="shared" si="24"/>
-        <v>43.77</v>
+        <v>24.53</v>
       </c>
       <c r="T235">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="U235">
-        <v>211</v>
+        <v>133</v>
       </c>
     </row>
     <row r="236" spans="2:21" x14ac:dyDescent="0.25">
@@ -49041,54 +49090,54 @@
         <v>46061</v>
       </c>
       <c r="C236">
+        <v>49</v>
+      </c>
+      <c r="D236">
+        <v>32</v>
+      </c>
+      <c r="E236">
+        <v>47</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236">
+        <v>43</v>
+      </c>
+      <c r="H236">
+        <v>9</v>
+      </c>
+      <c r="I236">
+        <v>47</v>
+      </c>
+      <c r="J236">
         <v>14</v>
       </c>
-      <c r="D236">
-        <v>11</v>
-      </c>
-      <c r="E236">
-        <v>40</v>
-      </c>
-      <c r="F236">
-        <v>20</v>
-      </c>
-      <c r="G236">
-        <v>35</v>
-      </c>
-      <c r="H236">
-        <v>33</v>
-      </c>
-      <c r="I236">
-        <v>41</v>
-      </c>
-      <c r="J236">
-        <v>23</v>
-      </c>
       <c r="K236">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="L236">
         <v>27</v>
       </c>
       <c r="M236">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N236">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="O236" s="19">
         <f t="shared" si="23"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="P236" s="19">
         <f t="shared" si="24"/>
-        <v>11.06</v>
+        <v>12.72</v>
       </c>
       <c r="T236">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U236">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="2:21" x14ac:dyDescent="0.25">
@@ -49096,54 +49145,54 @@
         <v>46062</v>
       </c>
       <c r="C237">
+        <v>50</v>
+      </c>
+      <c r="D237">
+        <v>42</v>
+      </c>
+      <c r="E237">
+        <v>49</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237">
+        <v>43</v>
+      </c>
+      <c r="H237">
+        <v>14</v>
+      </c>
+      <c r="I237">
+        <v>56</v>
+      </c>
+      <c r="J237">
+        <v>20</v>
+      </c>
+      <c r="K237">
+        <v>54</v>
+      </c>
+      <c r="L237">
+        <v>45</v>
+      </c>
+      <c r="M237">
+        <v>44</v>
+      </c>
+      <c r="N237">
         <v>41</v>
-      </c>
-      <c r="D237">
-        <v>26</v>
-      </c>
-      <c r="E237">
-        <v>55</v>
-      </c>
-      <c r="F237">
-        <v>36</v>
-      </c>
-      <c r="G237">
-        <v>36</v>
-      </c>
-      <c r="H237">
-        <v>32</v>
-      </c>
-      <c r="I237">
-        <v>46</v>
-      </c>
-      <c r="J237">
-        <v>37</v>
-      </c>
-      <c r="K237">
-        <v>37</v>
-      </c>
-      <c r="L237">
-        <v>42</v>
-      </c>
-      <c r="M237">
-        <v>39</v>
-      </c>
-      <c r="N237">
-        <v>31</v>
       </c>
       <c r="O237" s="19">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P237" s="19">
         <f t="shared" si="24"/>
-        <v>7.67</v>
+        <v>13.06</v>
       </c>
       <c r="T237">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U237">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="238" spans="2:21" x14ac:dyDescent="0.25">
@@ -49157,48 +49206,48 @@
         <v>42</v>
       </c>
       <c r="E238">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F238">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G238">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H238">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I238">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J238">
+        <v>29</v>
+      </c>
+      <c r="K238">
         <v>46</v>
       </c>
-      <c r="K238">
-        <v>41</v>
-      </c>
       <c r="L238">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M238">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N238">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O238" s="19">
         <f t="shared" si="23"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P238" s="19">
         <f t="shared" si="24"/>
-        <v>5.09</v>
+        <v>10.65</v>
       </c>
       <c r="T238">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="U238">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="239" spans="2:21" x14ac:dyDescent="0.25">
@@ -49206,54 +49255,54 @@
         <v>46064</v>
       </c>
       <c r="C239">
+        <v>52</v>
+      </c>
+      <c r="D239">
+        <v>46</v>
+      </c>
+      <c r="E239">
+        <v>49</v>
+      </c>
+      <c r="F239">
+        <v>76</v>
+      </c>
+      <c r="G239">
+        <v>51</v>
+      </c>
+      <c r="H239">
+        <v>55</v>
+      </c>
+      <c r="I239">
+        <v>59</v>
+      </c>
+      <c r="J239">
+        <v>36</v>
+      </c>
+      <c r="K239">
         <v>50</v>
       </c>
-      <c r="D239">
-        <v>52</v>
-      </c>
-      <c r="E239">
-        <v>59</v>
-      </c>
-      <c r="F239">
-        <v>112</v>
-      </c>
-      <c r="G239">
-        <v>39</v>
-      </c>
-      <c r="H239">
-        <v>36</v>
-      </c>
-      <c r="I239">
-        <v>83</v>
-      </c>
-      <c r="J239">
-        <v>141</v>
-      </c>
-      <c r="K239">
-        <v>48</v>
-      </c>
       <c r="L239">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M239">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N239">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O239" s="19">
         <f t="shared" si="23"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P239" s="19">
         <f t="shared" si="24"/>
-        <v>30.8</v>
+        <v>10.42</v>
       </c>
       <c r="T239">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U239">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240" spans="2:21" x14ac:dyDescent="0.25">
@@ -49261,54 +49310,54 @@
         <v>46065</v>
       </c>
       <c r="C240">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D240">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E240">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F240">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="G240">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="H240">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="I240">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="J240">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K240">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L240">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M240">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N240">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O240" s="19">
         <f t="shared" si="23"/>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="P240" s="19">
         <f t="shared" si="24"/>
-        <v>35.83</v>
+        <v>13.09</v>
       </c>
       <c r="T240">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="U240">
-        <v>118</v>
+        <v>43</v>
       </c>
     </row>
     <row r="241" spans="2:21" x14ac:dyDescent="0.25">
@@ -49316,54 +49365,54 @@
         <v>46066</v>
       </c>
       <c r="C241">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D241">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E241">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="F241">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="G241">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="H241">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I241">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="J241">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="K241">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="L241">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="M241">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="N241">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="O241" s="19">
         <f t="shared" si="23"/>
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="P241" s="19">
         <f t="shared" si="24"/>
-        <v>28.89</v>
+        <v>13.78</v>
       </c>
       <c r="T241">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="U241">
-        <v>162</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="2:21" x14ac:dyDescent="0.25">
@@ -49371,54 +49420,54 @@
         <v>46067</v>
       </c>
       <c r="C242">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D242">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E242">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F242">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="G242">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H242">
         <v>135</v>
       </c>
       <c r="I242">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="J242">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="K242">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="L242">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="M242">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N242">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="O242" s="19">
         <f>ROUND(AVERAGE(C242:N242,T242,U242),0)</f>
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="P242" s="19">
         <f t="shared" si="24"/>
-        <v>45.72</v>
+        <v>32.9</v>
       </c>
       <c r="T242">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="U242">
-        <v>233</v>
+        <v>146</v>
       </c>
     </row>
     <row r="243" spans="2:21" x14ac:dyDescent="0.25">
@@ -49426,54 +49475,54 @@
         <v>46068</v>
       </c>
       <c r="C243">
+        <v>50</v>
+      </c>
+      <c r="D243">
+        <v>45</v>
+      </c>
+      <c r="E243">
+        <v>53</v>
+      </c>
+      <c r="F243">
+        <v>31</v>
+      </c>
+      <c r="G243">
+        <v>45</v>
+      </c>
+      <c r="H243">
+        <v>17</v>
+      </c>
+      <c r="I243">
         <v>60</v>
       </c>
-      <c r="D243">
-        <v>48</v>
-      </c>
-      <c r="E243">
-        <v>61</v>
-      </c>
-      <c r="F243">
-        <v>48</v>
-      </c>
-      <c r="G243">
-        <v>35</v>
-      </c>
-      <c r="H243">
-        <v>38</v>
-      </c>
-      <c r="I243">
+      <c r="J243">
+        <v>32</v>
+      </c>
+      <c r="K243">
         <v>51</v>
       </c>
-      <c r="J243">
-        <v>42</v>
-      </c>
-      <c r="K243">
-        <v>60</v>
-      </c>
       <c r="L243">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M243">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N243">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="O243" s="19">
         <f t="shared" si="23"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P243" s="19">
         <f t="shared" si="24"/>
-        <v>10.17</v>
+        <v>13.4</v>
       </c>
       <c r="T243">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="U243">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="2:21" x14ac:dyDescent="0.25">
@@ -49481,54 +49530,54 @@
         <v>46069</v>
       </c>
       <c r="C244">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D244">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E244">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F244">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G244">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H244">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I244">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J244">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K244">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L244">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M244">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N244">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O244" s="19">
         <f t="shared" si="23"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P244" s="19">
         <f t="shared" si="24"/>
-        <v>10.87</v>
+        <v>11.17</v>
       </c>
       <c r="T244">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="U244">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="2:21" x14ac:dyDescent="0.25">
@@ -49536,54 +49585,54 @@
         <v>46070</v>
       </c>
       <c r="C245">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D245">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E245">
+        <v>51</v>
+      </c>
+      <c r="F245">
+        <v>76</v>
+      </c>
+      <c r="G245">
+        <v>53</v>
+      </c>
+      <c r="H245">
+        <v>50</v>
+      </c>
+      <c r="I245">
+        <v>58</v>
+      </c>
+      <c r="J245">
+        <v>35</v>
+      </c>
+      <c r="K245">
+        <v>46</v>
+      </c>
+      <c r="L245">
+        <v>50</v>
+      </c>
+      <c r="M245">
+        <v>53</v>
+      </c>
+      <c r="N245">
         <v>48</v>
-      </c>
-      <c r="F245">
-        <v>112</v>
-      </c>
-      <c r="G245">
-        <v>39</v>
-      </c>
-      <c r="H245">
-        <v>38</v>
-      </c>
-      <c r="I245">
-        <v>69</v>
-      </c>
-      <c r="J245">
-        <v>137</v>
-      </c>
-      <c r="K245">
-        <v>48</v>
-      </c>
-      <c r="L245">
-        <v>43</v>
-      </c>
-      <c r="M245">
-        <v>57</v>
-      </c>
-      <c r="N245">
-        <v>56</v>
       </c>
       <c r="O245" s="19">
         <f t="shared" si="23"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="P245" s="19">
         <f t="shared" si="24"/>
-        <v>28.91</v>
+        <v>9.83</v>
       </c>
       <c r="T245">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U245">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="2:21" x14ac:dyDescent="0.25">
@@ -49591,54 +49640,54 @@
         <v>46071</v>
       </c>
       <c r="C246">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D246">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E246">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F246">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="G246">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H246">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I246">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J246">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="K246">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L246">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M246">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N246">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="O246" s="19">
         <f t="shared" si="23"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="P246" s="19">
         <f t="shared" si="24"/>
-        <v>38.85</v>
+        <v>12.83</v>
       </c>
       <c r="T246">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U246">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="247" spans="2:21" x14ac:dyDescent="0.25">
@@ -49646,54 +49695,54 @@
         <v>46072</v>
       </c>
       <c r="C247">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D247">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E247">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F247">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G247">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="H247">
         <v>59</v>
       </c>
       <c r="I247">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="J247">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="K247">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L247">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M247">
+        <v>53</v>
+      </c>
+      <c r="N247">
         <v>46</v>
-      </c>
-      <c r="N247">
-        <v>51</v>
       </c>
       <c r="O247" s="19">
         <f t="shared" si="23"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P247" s="19">
         <f t="shared" si="24"/>
-        <v>27.88</v>
+        <v>10.52</v>
       </c>
       <c r="T247">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="U247">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="2:21" x14ac:dyDescent="0.25">
@@ -49701,54 +49750,54 @@
         <v>46073</v>
       </c>
       <c r="C248">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D248">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E248">
+        <v>101</v>
+      </c>
+      <c r="F248">
+        <v>65</v>
+      </c>
+      <c r="G248">
+        <v>106</v>
+      </c>
+      <c r="H248">
+        <v>59</v>
+      </c>
+      <c r="I248">
+        <v>89</v>
+      </c>
+      <c r="J248">
+        <v>59</v>
+      </c>
+      <c r="K248">
+        <v>102</v>
+      </c>
+      <c r="L248">
+        <v>83</v>
+      </c>
+      <c r="M248">
         <v>88</v>
       </c>
-      <c r="F248">
-        <v>81</v>
-      </c>
-      <c r="G248">
-        <v>38</v>
-      </c>
-      <c r="H248">
-        <v>118</v>
-      </c>
-      <c r="I248">
-        <v>105</v>
-      </c>
-      <c r="J248">
-        <v>73</v>
-      </c>
-      <c r="K248">
-        <v>120</v>
-      </c>
-      <c r="L248">
-        <v>68</v>
-      </c>
-      <c r="M248">
-        <v>95</v>
-      </c>
       <c r="N248">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O248" s="19">
         <f t="shared" si="23"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P248" s="19">
         <f t="shared" si="24"/>
-        <v>23.84</v>
+        <v>16.05</v>
       </c>
       <c r="T248">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="U248">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="2:21" x14ac:dyDescent="0.25">
@@ -49756,54 +49805,54 @@
         <v>46074</v>
       </c>
       <c r="C249">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D249">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E249">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F249">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="G249">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="H249">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="I249">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="J249">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="K249">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="L249">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="M249">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="N249">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="O249" s="19">
         <f t="shared" si="23"/>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="P249" s="19">
         <f t="shared" si="24"/>
-        <v>36.31</v>
+        <v>22.49</v>
       </c>
       <c r="T249">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="U249">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="250" spans="2:21" x14ac:dyDescent="0.25">
@@ -49811,54 +49860,54 @@
         <v>46075</v>
       </c>
       <c r="C250">
+        <v>78</v>
+      </c>
+      <c r="D250">
+        <v>55</v>
+      </c>
+      <c r="E250">
+        <v>53</v>
+      </c>
+      <c r="F250">
+        <v>50</v>
+      </c>
+      <c r="G250">
+        <v>50</v>
+      </c>
+      <c r="H250">
+        <v>22</v>
+      </c>
+      <c r="I250">
+        <v>59</v>
+      </c>
+      <c r="J250">
+        <v>33</v>
+      </c>
+      <c r="K250">
+        <v>28</v>
+      </c>
+      <c r="L250">
+        <v>46</v>
+      </c>
+      <c r="M250">
+        <v>79</v>
+      </c>
+      <c r="N250">
         <v>43</v>
-      </c>
-      <c r="D250">
-        <v>40</v>
-      </c>
-      <c r="E250">
-        <v>46</v>
-      </c>
-      <c r="F250">
-        <v>87</v>
-      </c>
-      <c r="G250">
-        <v>35</v>
-      </c>
-      <c r="H250">
-        <v>32</v>
-      </c>
-      <c r="I250">
-        <v>42</v>
-      </c>
-      <c r="J250">
-        <v>91</v>
-      </c>
-      <c r="K250">
-        <v>37</v>
-      </c>
-      <c r="L250">
-        <v>41</v>
-      </c>
-      <c r="M250">
-        <v>66</v>
-      </c>
-      <c r="N250">
-        <v>38</v>
       </c>
       <c r="O250" s="19">
         <f t="shared" si="23"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P250" s="19">
         <f t="shared" si="24"/>
-        <v>18.53</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="T250">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="U250">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251" spans="2:21" x14ac:dyDescent="0.25">
@@ -49866,54 +49915,54 @@
         <v>46076</v>
       </c>
       <c r="C251">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D251">
+        <v>44</v>
+      </c>
+      <c r="E251">
+        <v>52</v>
+      </c>
+      <c r="F251">
+        <v>32</v>
+      </c>
+      <c r="G251">
         <v>49</v>
       </c>
-      <c r="E251">
-        <v>48</v>
-      </c>
-      <c r="F251">
-        <v>47</v>
-      </c>
-      <c r="G251">
-        <v>35</v>
-      </c>
       <c r="H251">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I251">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J251">
+        <v>33</v>
+      </c>
+      <c r="K251">
+        <v>45</v>
+      </c>
+      <c r="L251">
+        <v>43</v>
+      </c>
+      <c r="M251">
+        <v>55</v>
+      </c>
+      <c r="N251">
         <v>41</v>
-      </c>
-      <c r="K251">
-        <v>48</v>
-      </c>
-      <c r="L251">
-        <v>41</v>
-      </c>
-      <c r="M251">
-        <v>66</v>
-      </c>
-      <c r="N251">
-        <v>54</v>
       </c>
       <c r="O251" s="19">
         <f t="shared" si="23"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P251" s="19">
         <f t="shared" si="24"/>
-        <v>7.89</v>
+        <v>11.2</v>
       </c>
       <c r="T251">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="U251">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="252" spans="2:21" x14ac:dyDescent="0.25">
@@ -49921,54 +49970,54 @@
         <v>46077</v>
       </c>
       <c r="C252">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D252">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E252">
+        <v>49</v>
+      </c>
+      <c r="F252">
+        <v>68</v>
+      </c>
+      <c r="G252">
+        <v>51</v>
+      </c>
+      <c r="H252">
+        <v>47</v>
+      </c>
+      <c r="I252">
+        <v>56</v>
+      </c>
+      <c r="J252">
+        <v>35</v>
+      </c>
+      <c r="K252">
+        <v>30</v>
+      </c>
+      <c r="L252">
+        <v>56</v>
+      </c>
+      <c r="M252">
         <v>52</v>
       </c>
-      <c r="F252">
-        <v>111</v>
-      </c>
-      <c r="G252">
-        <v>36</v>
-      </c>
-      <c r="H252">
-        <v>32</v>
-      </c>
-      <c r="I252">
-        <v>57</v>
-      </c>
-      <c r="J252">
-        <v>126</v>
-      </c>
-      <c r="K252">
-        <v>47</v>
-      </c>
-      <c r="L252">
-        <v>50</v>
-      </c>
-      <c r="M252">
-        <v>51</v>
-      </c>
       <c r="N252">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O252" s="19">
         <f t="shared" si="23"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="P252" s="19">
         <f t="shared" si="24"/>
-        <v>27.02</v>
+        <v>9.36</v>
       </c>
       <c r="T252">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U252">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="253" spans="2:21" x14ac:dyDescent="0.25">
@@ -49976,54 +50025,54 @@
         <v>46078</v>
       </c>
       <c r="C253">
+        <v>50</v>
+      </c>
+      <c r="D253">
         <v>37</v>
       </c>
-      <c r="D253">
+      <c r="E253">
+        <v>49</v>
+      </c>
+      <c r="F253">
+        <v>30</v>
+      </c>
+      <c r="G253">
+        <v>45</v>
+      </c>
+      <c r="H253">
+        <v>16</v>
+      </c>
+      <c r="I253">
+        <v>54</v>
+      </c>
+      <c r="J253">
+        <v>30</v>
+      </c>
+      <c r="K253">
         <v>38</v>
       </c>
-      <c r="E253">
-        <v>51</v>
-      </c>
-      <c r="F253">
-        <v>37</v>
-      </c>
-      <c r="G253">
-        <v>35</v>
-      </c>
-      <c r="H253">
-        <v>32</v>
-      </c>
-      <c r="I253">
-        <v>42</v>
-      </c>
-      <c r="J253">
-        <v>38</v>
-      </c>
-      <c r="K253">
-        <v>30</v>
-      </c>
       <c r="L253">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M253">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N253">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O253" s="19">
         <f t="shared" si="23"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P253" s="19">
         <f t="shared" si="24"/>
-        <v>5.59</v>
+        <v>10.33</v>
       </c>
       <c r="T253">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="U253">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="254" spans="2:21" x14ac:dyDescent="0.25">
@@ -50031,54 +50080,54 @@
         <v>46079</v>
       </c>
       <c r="C254">
+        <v>55</v>
+      </c>
+      <c r="D254">
+        <v>52</v>
+      </c>
+      <c r="E254">
+        <v>52</v>
+      </c>
+      <c r="F254">
+        <v>66</v>
+      </c>
+      <c r="G254">
+        <v>51</v>
+      </c>
+      <c r="H254">
+        <v>52</v>
+      </c>
+      <c r="I254">
+        <v>64</v>
+      </c>
+      <c r="J254">
+        <v>47</v>
+      </c>
+      <c r="K254">
         <v>54</v>
       </c>
-      <c r="D254">
+      <c r="L254">
         <v>53</v>
       </c>
-      <c r="E254">
-        <v>62</v>
-      </c>
-      <c r="F254">
-        <v>98</v>
-      </c>
-      <c r="G254">
-        <v>37</v>
-      </c>
-      <c r="H254">
-        <v>50</v>
-      </c>
-      <c r="I254">
-        <v>77</v>
-      </c>
-      <c r="J254">
-        <v>123</v>
-      </c>
-      <c r="K254">
+      <c r="M254">
+        <v>64</v>
+      </c>
+      <c r="N254">
         <v>51</v>
-      </c>
-      <c r="L254">
-        <v>48</v>
-      </c>
-      <c r="M254">
-        <v>82</v>
-      </c>
-      <c r="N254">
-        <v>54</v>
       </c>
       <c r="O254" s="19">
         <f t="shared" si="23"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="P254" s="19">
         <f t="shared" si="24"/>
-        <v>23.2</v>
+        <v>6.69</v>
       </c>
       <c r="T254">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U254">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" spans="2:21" x14ac:dyDescent="0.25">
@@ -50086,54 +50135,54 @@
         <v>46080</v>
       </c>
       <c r="C255">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D255">
+        <v>76</v>
+      </c>
+      <c r="E255">
+        <v>93</v>
+      </c>
+      <c r="F255">
+        <v>60</v>
+      </c>
+      <c r="G255">
+        <v>105</v>
+      </c>
+      <c r="H255">
+        <v>44</v>
+      </c>
+      <c r="I255">
+        <v>91</v>
+      </c>
+      <c r="J255">
+        <v>54</v>
+      </c>
+      <c r="K255">
         <v>79</v>
       </c>
-      <c r="E255">
-        <v>75</v>
-      </c>
-      <c r="F255">
-        <v>73</v>
-      </c>
-      <c r="G255">
-        <v>35</v>
-      </c>
-      <c r="H255">
-        <v>98</v>
-      </c>
-      <c r="I255">
-        <v>58</v>
-      </c>
-      <c r="J255">
-        <v>71</v>
-      </c>
-      <c r="K255">
-        <v>107</v>
-      </c>
       <c r="L255">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M255">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="N255">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O255" s="19">
         <f t="shared" si="23"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P255" s="19">
         <f t="shared" si="24"/>
-        <v>20.04</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="T255">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="U255">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="2:21" x14ac:dyDescent="0.25">
@@ -50141,54 +50190,54 @@
         <v>46081</v>
       </c>
       <c r="C256">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D256">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E256">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F256">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="G256">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="H256">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="I256">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="J256">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="K256">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="L256">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M256">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N256">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="O256" s="19">
         <f t="shared" si="23"/>
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="P256" s="19">
         <f t="shared" si="24"/>
-        <v>25.63</v>
+        <v>10.55</v>
       </c>
       <c r="T256">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="U256">
-        <v>174</v>
+        <v>105</v>
       </c>
     </row>
     <row r="257" spans="2:21" x14ac:dyDescent="0.25">
@@ -50196,54 +50245,54 @@
         <v>46082</v>
       </c>
       <c r="C257">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D257">
+        <v>40</v>
+      </c>
+      <c r="E257">
+        <v>52</v>
+      </c>
+      <c r="F257">
+        <v>29</v>
+      </c>
+      <c r="G257">
+        <v>50</v>
+      </c>
+      <c r="H257">
+        <v>14</v>
+      </c>
+      <c r="I257">
+        <v>54</v>
+      </c>
+      <c r="J257">
+        <v>30</v>
+      </c>
+      <c r="K257">
+        <v>41</v>
+      </c>
+      <c r="L257">
         <v>44</v>
       </c>
-      <c r="E257">
-        <v>53</v>
-      </c>
-      <c r="F257">
-        <v>26</v>
-      </c>
-      <c r="G257">
-        <v>35</v>
-      </c>
-      <c r="H257">
-        <v>42</v>
-      </c>
-      <c r="I257">
-        <v>51</v>
-      </c>
-      <c r="J257">
-        <v>21</v>
-      </c>
-      <c r="K257">
-        <v>49</v>
-      </c>
-      <c r="L257">
-        <v>42</v>
-      </c>
       <c r="M257">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N257">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O257" s="19">
         <f t="shared" si="23"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P257" s="19">
         <f t="shared" si="24"/>
-        <v>9.07</v>
+        <v>11.31</v>
       </c>
       <c r="T257">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="U257">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258" spans="2:21" x14ac:dyDescent="0.25">
@@ -50251,54 +50300,54 @@
         <v>46083</v>
       </c>
       <c r="C258">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D258">
+        <v>44</v>
+      </c>
+      <c r="E258">
+        <v>48</v>
+      </c>
+      <c r="F258">
+        <v>40</v>
+      </c>
+      <c r="G258">
+        <v>51</v>
+      </c>
+      <c r="H258">
+        <v>22</v>
+      </c>
+      <c r="I258">
+        <v>56</v>
+      </c>
+      <c r="J258">
+        <v>39</v>
+      </c>
+      <c r="K258">
         <v>50</v>
       </c>
-      <c r="E258">
-        <v>47</v>
-      </c>
-      <c r="F258">
-        <v>58</v>
-      </c>
-      <c r="G258">
-        <v>35</v>
-      </c>
-      <c r="H258">
-        <v>39</v>
-      </c>
-      <c r="I258">
-        <v>52</v>
-      </c>
-      <c r="J258">
-        <v>61</v>
-      </c>
-      <c r="K258">
-        <v>46</v>
-      </c>
       <c r="L258">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M258">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N258">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O258" s="19">
         <f t="shared" si="23"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P258" s="19">
         <f t="shared" si="24"/>
-        <v>6.83</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="T258">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="U258">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259" spans="2:21" x14ac:dyDescent="0.25">
@@ -50306,54 +50355,54 @@
         <v>46084</v>
       </c>
       <c r="C259">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D259">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E259">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F259">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G259">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H259">
+        <v>22</v>
+      </c>
+      <c r="I259">
+        <v>56</v>
+      </c>
+      <c r="J259">
         <v>39</v>
       </c>
-      <c r="I259">
-        <v>57</v>
-      </c>
-      <c r="J259">
-        <v>77</v>
-      </c>
       <c r="K259">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L259">
         <v>47</v>
       </c>
       <c r="M259">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N259">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="O259" s="19">
         <f t="shared" si="23"/>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P259" s="19">
         <f t="shared" si="24"/>
-        <v>10.58</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="T259">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U259">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="260" spans="2:21" x14ac:dyDescent="0.25">
@@ -50361,54 +50410,54 @@
         <v>46085</v>
       </c>
       <c r="C260">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D260">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E260">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F260">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G260">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H260">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I260">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="J260">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K260">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="L260">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M260">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="N260">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O260" s="19">
         <f t="shared" si="23"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P260" s="19">
         <f t="shared" si="24"/>
-        <v>10.43</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="T260">
         <v>54</v>
       </c>
       <c r="U260">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="261" spans="2:21" x14ac:dyDescent="0.25">
@@ -50416,54 +50465,54 @@
         <v>46086</v>
       </c>
       <c r="C261">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D261">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E261">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F261">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G261">
+        <v>50</v>
+      </c>
+      <c r="H261">
+        <v>38</v>
+      </c>
+      <c r="I261">
+        <v>72</v>
+      </c>
+      <c r="J261">
+        <v>44</v>
+      </c>
+      <c r="K261">
+        <v>47</v>
+      </c>
+      <c r="L261">
+        <v>43</v>
+      </c>
+      <c r="M261">
         <v>53</v>
       </c>
-      <c r="H261">
-        <v>57</v>
-      </c>
-      <c r="I261">
-        <v>82</v>
-      </c>
-      <c r="J261">
-        <v>91</v>
-      </c>
-      <c r="K261">
-        <v>46</v>
-      </c>
-      <c r="L261">
-        <v>42</v>
-      </c>
-      <c r="M261">
-        <v>48</v>
-      </c>
       <c r="N261">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O261" s="19">
         <f t="shared" si="23"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="P261" s="19">
         <f t="shared" si="24"/>
-        <v>15.56</v>
+        <v>8.39</v>
       </c>
       <c r="T261">
         <v>41</v>
       </c>
       <c r="U261">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="262" spans="2:21" x14ac:dyDescent="0.25">
@@ -50471,54 +50520,54 @@
         <v>46087</v>
       </c>
       <c r="C262">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D262">
+        <v>60</v>
+      </c>
+      <c r="E262">
+        <v>56</v>
+      </c>
+      <c r="F262">
+        <v>68</v>
+      </c>
+      <c r="G262">
+        <v>70</v>
+      </c>
+      <c r="H262">
+        <v>58</v>
+      </c>
+      <c r="I262">
+        <v>84</v>
+      </c>
+      <c r="J262">
+        <v>58</v>
+      </c>
+      <c r="K262">
         <v>66</v>
       </c>
-      <c r="E262">
-        <v>67</v>
-      </c>
-      <c r="F262">
+      <c r="L262">
         <v>65</v>
       </c>
-      <c r="G262">
-        <v>89</v>
-      </c>
-      <c r="H262">
-        <v>100</v>
-      </c>
-      <c r="I262">
-        <v>127</v>
-      </c>
-      <c r="J262">
-        <v>74</v>
-      </c>
-      <c r="K262">
-        <v>58</v>
-      </c>
-      <c r="L262">
+      <c r="M262">
+        <v>70</v>
+      </c>
+      <c r="N262">
         <v>62</v>
-      </c>
-      <c r="M262">
-        <v>67</v>
-      </c>
-      <c r="N262">
-        <v>64</v>
       </c>
       <c r="O262" s="19">
         <f t="shared" ref="O262:O263" si="27">ROUND(AVERAGE(C262:N262,T262,U262),0)</f>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="P262" s="19">
         <f t="shared" ref="P262:P263" si="28">ROUND(_xlfn.STDEV.P(C262:N262,T262,U262),2)</f>
-        <v>18.510000000000002</v>
+        <v>7.77</v>
       </c>
       <c r="T262">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U262">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="263" spans="2:21" x14ac:dyDescent="0.25">
@@ -50526,88 +50575,88 @@
         <v>46088</v>
       </c>
       <c r="C263">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D263">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E263">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F263">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G263">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="H263">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="I263">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="J263">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K263">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="L263">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M263">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="N263">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="O263" s="19">
         <f t="shared" si="27"/>
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P263" s="19">
         <f t="shared" si="28"/>
-        <v>39.33</v>
+        <v>30.29</v>
       </c>
       <c r="T263">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="U263">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="264" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B264" s="33"/>
-      <c r="C264" s="61" t="s">
+      <c r="C264" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D264" s="62"/>
-      <c r="E264" s="62" t="s">
+      <c r="D264" s="61"/>
+      <c r="E264" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="F264" s="62"/>
-      <c r="G264" s="62" t="s">
+      <c r="F264" s="61"/>
+      <c r="G264" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H264" s="62"/>
-      <c r="I264" s="62" t="s">
+      <c r="H264" s="61"/>
+      <c r="I264" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="J264" s="62"/>
-      <c r="K264" s="62" t="s">
+      <c r="J264" s="61"/>
+      <c r="K264" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="L264" s="62"/>
-      <c r="M264" s="62" t="s">
+      <c r="L264" s="61"/>
+      <c r="M264" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="N264" s="63"/>
+      <c r="N264" s="62"/>
       <c r="O264" s="48"/>
       <c r="P264" s="49"/>
-      <c r="T264" s="55" t="s">
+      <c r="T264" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="U264" s="55"/>
+      <c r="U264" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50626,7 +50675,7 @@
       <formula>ABS(C114-$A114)&lt;=15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R210">
+  <conditionalFormatting sqref="R3:R32 R34:R53 R55:R60 R62:R213">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -50656,30 +50705,30 @@
         <v>43</v>
       </c>
       <c r="B1" s="33"/>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
       <c r="Y1" t="s">
         <v>39</v>
       </c>

--- a/restaurant_analytics/data/data.xlsx
+++ b/restaurant_analytics/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BBC8A4-0D97-4169-88C5-308F499E7EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB09943-C97B-49BD-A480-578BBFCB31A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31680" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -692,7 +689,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -720,6 +716,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,6 +775,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -799,27 +824,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1154,7 +1158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I707" sqref="I707"/>
+      <selection pane="bottomLeft" activeCell="M701" sqref="M701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18456,16 +18460,16 @@
         <v>78</v>
       </c>
       <c r="E648" s="8">
-        <v>45.5</v>
+        <v>47.7</v>
       </c>
       <c r="F648" s="8">
-        <v>1.3819999999999999</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="G648" s="8">
         <v>0</v>
       </c>
       <c r="H648" s="8">
-        <v>9.3000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="Q648" s="37"/>
       <c r="R648" s="38"/>
@@ -18484,16 +18488,16 @@
         <v>49</v>
       </c>
       <c r="E649" s="8">
-        <v>18.899999999999999</v>
+        <v>22.6</v>
       </c>
       <c r="F649" s="8">
-        <v>6.7000000000000004E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G649" s="8">
         <v>0.98399999999999999</v>
       </c>
       <c r="H649" s="8">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="Q649" s="37"/>
       <c r="R649" s="38"/>
@@ -18512,16 +18516,16 @@
         <v>70</v>
       </c>
       <c r="E650" s="8">
-        <v>17.2</v>
+        <v>16</v>
       </c>
       <c r="F650" s="8">
-        <v>8.3000000000000004E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="G650" s="8">
-        <v>0.2</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H650" s="8">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q650" s="37"/>
       <c r="R650" s="38"/>
@@ -18540,16 +18544,16 @@
         <v>199</v>
       </c>
       <c r="E651" s="8">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="F651" s="8">
-        <v>6.3E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G651" s="8">
-        <v>0.98399999999999999</v>
+        <v>2.008</v>
       </c>
       <c r="H651" s="8">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="I651" s="40" t="s">
         <v>30</v>
@@ -18739,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="H658" s="8">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="659" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18782,7 +18786,7 @@
         <v>113</v>
       </c>
       <c r="E660" s="8">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="F660" s="8">
         <v>2.4E-2</v>
@@ -18921,7 +18925,7 @@
         <v>0.7</v>
       </c>
       <c r="H665" s="8">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18947,7 +18951,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="H666" s="8">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="667" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18999,7 +19003,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="H668" s="8">
-        <v>15</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="669" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19051,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="H670" s="8">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I670" t="s">
         <v>32</v>
@@ -19077,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="G671" s="8">
-        <v>0</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H671" s="8">
         <v>7.9</v>
@@ -19097,19 +19101,19 @@
         <v>103</v>
       </c>
       <c r="E672" s="8">
-        <v>25.7</v>
+        <v>26.8</v>
       </c>
       <c r="F672" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G672" s="8">
-        <v>0</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H672" s="8">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="673" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5">
         <v>5</v>
       </c>
@@ -19135,7 +19139,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="674" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="5">
         <v>6</v>
       </c>
@@ -19149,7 +19153,7 @@
         <v>38</v>
       </c>
       <c r="E674" s="8">
-        <v>-4.4000000000000004</v>
+        <v>-6.3</v>
       </c>
       <c r="F674" s="8">
         <v>0</v>
@@ -19158,10 +19162,10 @@
         <v>0</v>
       </c>
       <c r="H674" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="675" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="5">
         <v>7</v>
       </c>
@@ -19175,19 +19179,19 @@
         <v>156</v>
       </c>
       <c r="E675" s="8">
-        <v>-2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="F675" s="8">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G675" s="8">
         <v>0</v>
       </c>
       <c r="H675" s="8">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="676" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="5">
         <v>1</v>
       </c>
@@ -19201,19 +19205,19 @@
         <v>40</v>
       </c>
       <c r="E676" s="8">
-        <v>5.7</v>
+        <v>9.1</v>
       </c>
       <c r="F676" s="8">
-        <v>0.02</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="G676" s="8">
         <v>0.2</v>
       </c>
       <c r="H676" s="8">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="677" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="5">
         <v>2</v>
       </c>
@@ -19227,19 +19231,19 @@
         <v>22</v>
       </c>
       <c r="E677" s="8">
-        <v>7.9</v>
+        <v>4.5</v>
       </c>
       <c r="F677" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G677" s="8">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H677" s="8">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="5">
         <v>3</v>
       </c>
@@ -19250,25 +19254,22 @@
         <v>46049</v>
       </c>
       <c r="D678" s="13">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E678" s="8">
-        <v>14.9</v>
+        <v>11.1</v>
       </c>
       <c r="F678" s="8">
         <v>0</v>
       </c>
       <c r="G678" s="8">
-        <v>0</v>
+        <v>2.992</v>
       </c>
       <c r="H678" s="8">
-        <v>10.8</v>
-      </c>
-      <c r="J678" s="8">
-        <v>12.92</v>
-      </c>
-    </row>
-    <row r="679" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5">
         <v>4</v>
       </c>
@@ -19279,10 +19280,10 @@
         <v>46050</v>
       </c>
       <c r="D679" s="13">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E679" s="8">
-        <v>18.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F679" s="8">
         <v>0</v>
@@ -19291,13 +19292,10 @@
         <v>0</v>
       </c>
       <c r="H679" s="8">
-        <v>11.7</v>
-      </c>
-      <c r="J679" s="8">
-        <v>11.059999999999999</v>
-      </c>
-    </row>
-    <row r="680" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5">
         <v>5</v>
       </c>
@@ -19308,25 +19306,22 @@
         <v>46051</v>
       </c>
       <c r="D680" s="13">
-        <v>57.5</v>
+        <v>85</v>
       </c>
       <c r="E680" s="8">
-        <v>17.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F680" s="8">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="G680" s="8">
         <v>0.08</v>
       </c>
       <c r="H680" s="8">
-        <v>11.1</v>
-      </c>
-      <c r="J680" s="8">
-        <v>10.614999999999998</v>
-      </c>
-    </row>
-    <row r="681" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="5">
         <v>6</v>
       </c>
@@ -19337,25 +19332,22 @@
         <v>46052</v>
       </c>
       <c r="D681" s="13">
-        <v>103.5</v>
+        <v>111</v>
       </c>
       <c r="E681" s="8">
-        <v>21.7</v>
+        <v>12.6</v>
       </c>
       <c r="F681" s="8">
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G681" s="8">
         <v>0</v>
       </c>
       <c r="H681" s="8">
-        <v>11.2</v>
-      </c>
-      <c r="J681" s="8">
-        <v>18.664999999999999</v>
-      </c>
-    </row>
-    <row r="682" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="5">
         <v>7</v>
       </c>
@@ -19366,25 +19358,22 @@
         <v>46053</v>
       </c>
       <c r="D682" s="13">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="E682" s="8">
-        <v>14.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F682" s="8">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G682" s="8">
         <v>0</v>
       </c>
       <c r="H682" s="8">
-        <v>9</v>
-      </c>
-      <c r="J682" s="8">
-        <v>15.975000000000001</v>
-      </c>
-    </row>
-    <row r="683" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="5">
         <v>1</v>
       </c>
@@ -19395,10 +19384,10 @@
         <v>46054</v>
       </c>
       <c r="D683" s="13">
-        <v>45.5</v>
+        <v>62</v>
       </c>
       <c r="E683" s="8">
-        <v>22.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F683" s="8">
         <v>0</v>
@@ -19407,13 +19396,10 @@
         <v>0</v>
       </c>
       <c r="H683" s="8">
-        <v>13</v>
-      </c>
-      <c r="J683" s="8">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="684" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="5">
         <v>2</v>
       </c>
@@ -19424,25 +19410,22 @@
         <v>46055</v>
       </c>
       <c r="D684" s="13">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E684" s="8">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="F684" s="8">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G684" s="8">
         <v>0</v>
       </c>
       <c r="H684" s="8">
-        <v>15</v>
-      </c>
-      <c r="J684" s="8">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="685" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="5">
         <v>3</v>
       </c>
@@ -19453,10 +19436,10 @@
         <v>46056</v>
       </c>
       <c r="D685" s="13">
-        <v>44.5</v>
+        <v>42</v>
       </c>
       <c r="E685" s="8">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="F685" s="8">
         <v>0</v>
@@ -19465,13 +19448,10 @@
         <v>0</v>
       </c>
       <c r="H685" s="8">
-        <v>5</v>
-      </c>
-      <c r="J685" s="8">
-        <v>9.6449999999999996</v>
-      </c>
-    </row>
-    <row r="686" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="5">
         <v>4</v>
       </c>
@@ -19482,10 +19462,10 @@
         <v>46057</v>
       </c>
       <c r="D686" s="13">
-        <v>45.5</v>
+        <v>38</v>
       </c>
       <c r="E686" s="8">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="F686" s="8">
         <v>0</v>
@@ -19494,13 +19474,10 @@
         <v>0</v>
       </c>
       <c r="H686" s="8">
-        <v>14</v>
-      </c>
-      <c r="J686" s="8">
-        <v>10.754999999999999</v>
-      </c>
-    </row>
-    <row r="687" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5">
         <v>5</v>
       </c>
@@ -19511,10 +19488,10 @@
         <v>46058</v>
       </c>
       <c r="D687" s="13">
-        <v>55.5</v>
+        <v>29</v>
       </c>
       <c r="E687" s="8">
-        <v>16</v>
+        <v>23.9</v>
       </c>
       <c r="F687" s="8">
         <v>0</v>
@@ -19523,13 +19500,10 @@
         <v>0</v>
       </c>
       <c r="H687" s="8">
-        <v>8</v>
-      </c>
-      <c r="J687" s="8">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="688" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="5">
         <v>6</v>
       </c>
@@ -19540,22 +19514,19 @@
         <v>46059</v>
       </c>
       <c r="D688" s="13">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="E688" s="8">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="F688" s="8">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G688" s="8">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H688" s="8">
-        <v>6</v>
-      </c>
-      <c r="J688" s="8">
-        <v>25.994999999999997</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="689" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19569,22 +19540,22 @@
         <v>46060</v>
       </c>
       <c r="D689" s="13">
-        <v>134.5</v>
+        <v>128</v>
       </c>
       <c r="E689" s="8">
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="F689" s="8">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G689" s="8">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H689" s="8">
-        <v>10</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J689" s="8">
-        <v>26.28</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="690" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19598,10 +19569,10 @@
         <v>46061</v>
       </c>
       <c r="D690" s="13">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="E690" s="8">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="F690" s="8">
         <v>0</v>
@@ -19610,13 +19581,13 @@
         <v>0</v>
       </c>
       <c r="H690" s="8">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="I690" t="s">
         <v>33</v>
       </c>
       <c r="J690" s="8">
-        <v>14.015000000000001</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="691" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19630,22 +19601,22 @@
         <v>46062</v>
       </c>
       <c r="D691" s="13">
-        <v>45.5</v>
+        <v>43</v>
       </c>
       <c r="E691" s="8">
-        <v>14.5</v>
+        <v>39</v>
       </c>
       <c r="F691" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G691" s="8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H691" s="8">
-        <v>16</v>
+        <v>10.4</v>
       </c>
       <c r="J691" s="8">
-        <v>14.65</v>
+        <v>4.835</v>
       </c>
     </row>
     <row r="692" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19659,10 +19630,10 @@
         <v>46063</v>
       </c>
       <c r="D692" s="13">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E692" s="8">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="F692" s="8">
         <v>0</v>
@@ -19671,10 +19642,10 @@
         <v>0</v>
       </c>
       <c r="H692" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J692" s="8">
-        <v>11.734999999999999</v>
+        <v>6.9499999999999993</v>
       </c>
     </row>
     <row r="693" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19688,10 +19659,10 @@
         <v>46064</v>
       </c>
       <c r="D693" s="13">
-        <v>47.5</v>
+        <v>43</v>
       </c>
       <c r="E693" s="8">
-        <v>16.5</v>
+        <v>33.5</v>
       </c>
       <c r="F693" s="8">
         <v>0</v>
@@ -19700,10 +19671,10 @@
         <v>0</v>
       </c>
       <c r="H693" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J693" s="8">
-        <v>9.3949999999999996</v>
+        <v>5.1749999999999998</v>
       </c>
     </row>
     <row r="694" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19717,10 +19688,10 @@
         <v>46065</v>
       </c>
       <c r="D694" s="13">
-        <v>57.5</v>
+        <v>48.5</v>
       </c>
       <c r="E694" s="8">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F694" s="8">
         <v>0</v>
@@ -19729,10 +19700,10 @@
         <v>0</v>
       </c>
       <c r="H694" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J694" s="8">
-        <v>9.44</v>
+        <v>5.0549999999999997</v>
       </c>
     </row>
     <row r="695" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19746,10 +19717,10 @@
         <v>46066</v>
       </c>
       <c r="D695" s="13">
-        <v>98.5</v>
+        <v>88.5</v>
       </c>
       <c r="E695" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F695" s="8">
         <v>0</v>
@@ -19758,10 +19729,10 @@
         <v>0</v>
       </c>
       <c r="H695" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J695" s="8">
-        <v>16.824999999999999</v>
+        <v>8.1950000000000003</v>
       </c>
     </row>
     <row r="696" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19775,10 +19746,10 @@
         <v>46067</v>
       </c>
       <c r="D696" s="13">
-        <v>156.5</v>
+        <v>186.5</v>
       </c>
       <c r="E696" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F696" s="8">
         <v>0</v>
@@ -19787,13 +19758,13 @@
         <v>0</v>
       </c>
       <c r="H696" s="8">
-        <v>8</v>
-      </c>
-      <c r="I696" t="s">
+        <v>9</v>
+      </c>
+      <c r="I696" s="40" t="s">
         <v>34</v>
       </c>
       <c r="J696" s="8">
-        <v>30.134999999999998</v>
+        <v>35.335000000000001</v>
       </c>
     </row>
     <row r="697" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19807,22 +19778,22 @@
         <v>46068</v>
       </c>
       <c r="D697" s="13">
-        <v>47</v>
+        <v>43.5</v>
       </c>
       <c r="E697" s="8">
-        <v>19.5</v>
+        <v>35.5</v>
       </c>
       <c r="F697" s="8">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G697" s="8">
         <v>0</v>
       </c>
       <c r="H697" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J697" s="8">
-        <v>14.835000000000001</v>
+        <v>3.8650000000000002</v>
       </c>
     </row>
     <row r="698" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19836,25 +19807,25 @@
         <v>46069</v>
       </c>
       <c r="D698" s="13">
-        <v>40.5</v>
+        <v>44</v>
       </c>
       <c r="E698" s="8">
-        <v>23.5</v>
+        <v>40</v>
       </c>
       <c r="F698" s="8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G698" s="8">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H698" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I698" s="40" t="s">
         <v>35</v>
       </c>
       <c r="J698" s="8">
-        <v>13.234999999999999</v>
+        <v>9.754999999999999</v>
       </c>
     </row>
     <row r="699" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19868,22 +19839,22 @@
         <v>46070</v>
       </c>
       <c r="D699" s="13">
-        <v>45.5</v>
+        <v>44</v>
       </c>
       <c r="E699" s="8">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="F699" s="8">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="G699" s="8">
         <v>0</v>
       </c>
       <c r="H699" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J699" s="8">
-        <v>10.015000000000001</v>
+        <v>8.6750000000000007</v>
       </c>
     </row>
     <row r="700" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19897,25 +19868,25 @@
         <v>46071</v>
       </c>
       <c r="D700" s="13">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E700" s="8">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F700" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G700" s="8">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="H700" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I700" s="40" t="s">
         <v>37</v>
       </c>
       <c r="J700" s="8">
-        <v>11.1</v>
+        <v>6.6850000000000005</v>
       </c>
     </row>
     <row r="701" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19929,7 +19900,7 @@
         <v>46072</v>
       </c>
       <c r="D701" s="13">
-        <v>50.5</v>
+        <v>55</v>
       </c>
       <c r="E701" s="8">
         <v>27.5</v>
@@ -19941,10 +19912,10 @@
         <v>0</v>
       </c>
       <c r="H701" s="8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J701" s="8">
-        <v>9.35</v>
+        <v>6.1549999999999994</v>
       </c>
     </row>
     <row r="702" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19958,25 +19929,25 @@
         <v>46073</v>
       </c>
       <c r="D702" s="13">
-        <v>80.5</v>
+        <v>91</v>
       </c>
       <c r="E702" s="8">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="F702" s="8">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G702" s="8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H702" s="8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I702" s="40" t="s">
         <v>10</v>
       </c>
       <c r="J702" s="8">
-        <v>13.935</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="703" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19990,10 +19961,10 @@
         <v>46074</v>
       </c>
       <c r="D703" s="13">
-        <v>126.5</v>
+        <v>128.5</v>
       </c>
       <c r="E703" s="8">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="F703" s="8">
         <v>0</v>
@@ -20002,10 +19973,10 @@
         <v>0</v>
       </c>
       <c r="H703" s="8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J703" s="8">
-        <v>18.02</v>
+        <v>15.030000000000001</v>
       </c>
     </row>
     <row r="704" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20019,22 +19990,22 @@
         <v>46075</v>
       </c>
       <c r="D704" s="13">
-        <v>47</v>
+        <v>41.5</v>
       </c>
       <c r="E704" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F704" s="8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G704" s="8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H704" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J704" s="8">
-        <v>9.32</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="705" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20048,10 +20019,10 @@
         <v>46076</v>
       </c>
       <c r="D705" s="13">
-        <v>44.5</v>
+        <v>42</v>
       </c>
       <c r="E705" s="8">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
       <c r="F705" s="8">
         <v>0</v>
@@ -20060,10 +20031,10 @@
         <v>0</v>
       </c>
       <c r="H705" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J705" s="8">
-        <v>12.875</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="706" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20077,22 +20048,22 @@
         <v>46077</v>
       </c>
       <c r="D706" s="13">
-        <v>46.5</v>
+        <v>45.5</v>
       </c>
       <c r="E706" s="8">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="F706" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G706" s="8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H706" s="8">
         <v>5</v>
       </c>
       <c r="J706" s="8">
-        <v>11.32</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="707" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20106,22 +20077,22 @@
         <v>46078</v>
       </c>
       <c r="D707" s="13">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="E707" s="8">
-        <v>26.5</v>
+        <v>22</v>
       </c>
       <c r="F707" s="8">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G707" s="8">
-        <v>0.56000000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="H707" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J707" s="8">
-        <v>10.65</v>
+        <v>4.7799999999999994</v>
       </c>
     </row>
     <row r="708" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20135,22 +20106,22 @@
         <v>46079</v>
       </c>
       <c r="D708" s="13">
-        <v>55</v>
+        <v>64.5</v>
       </c>
       <c r="E708" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F708" s="8">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G708" s="8">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H708" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J708" s="8">
-        <v>10.684999999999999</v>
+        <v>16.025000000000002</v>
       </c>
     </row>
     <row r="709" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20164,16 +20135,16 @@
         <v>46080</v>
       </c>
       <c r="D709" s="13">
-        <v>74.5</v>
+        <v>81</v>
       </c>
       <c r="E709" s="8">
-        <v>20.5</v>
+        <v>25</v>
       </c>
       <c r="F709" s="8">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G709" s="8">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="H709" s="8">
         <v>15</v>
@@ -20182,7 +20153,7 @@
         <v>10</v>
       </c>
       <c r="J709" s="8">
-        <v>12.77</v>
+        <v>20.015000000000001</v>
       </c>
     </row>
     <row r="710" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20196,10 +20167,10 @@
         <v>46081</v>
       </c>
       <c r="D710" s="13">
-        <v>116</v>
+        <v>128.5</v>
       </c>
       <c r="E710" s="8">
-        <v>25</v>
+        <v>21.5</v>
       </c>
       <c r="F710" s="8">
         <v>0</v>
@@ -20211,7 +20182,7 @@
         <v>7</v>
       </c>
       <c r="J710" s="8">
-        <v>14.489999999999998</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="711" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20225,22 +20196,22 @@
         <v>46082</v>
       </c>
       <c r="D711" s="13">
-        <v>45</v>
+        <v>41.5</v>
       </c>
       <c r="E711" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F711" s="8">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="G711" s="8">
-        <v>0.1</v>
+        <v>0.84</v>
       </c>
       <c r="H711" s="8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J711" s="8">
-        <v>8.745000000000001</v>
+        <v>10.030000000000001</v>
       </c>
     </row>
     <row r="712" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20254,22 +20225,22 @@
         <v>46083</v>
       </c>
       <c r="D712" s="13">
-        <v>45.5</v>
+        <v>42</v>
       </c>
       <c r="E712" s="8">
-        <v>30</v>
+        <v>24.5</v>
       </c>
       <c r="F712" s="8">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G712" s="8">
-        <v>0.12</v>
+        <v>0.73</v>
       </c>
       <c r="H712" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J712" s="8">
-        <v>9.8049999999999997</v>
+        <v>6.3100000000000005</v>
       </c>
     </row>
     <row r="713" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20283,22 +20254,22 @@
         <v>46084</v>
       </c>
       <c r="D713" s="13">
-        <v>47.5</v>
+        <v>44.5</v>
       </c>
       <c r="E713" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F713" s="8">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G713" s="8">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H713" s="8">
         <v>8</v>
       </c>
       <c r="J713" s="8">
-        <v>12.69</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="714" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20312,22 +20283,22 @@
         <v>46085</v>
       </c>
       <c r="D714" s="13">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="E714" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F714" s="8">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G714" s="8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H714" s="8">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J714" s="8">
-        <v>9.504999999999999</v>
+        <v>7.165</v>
       </c>
     </row>
     <row r="715" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20341,22 +20312,22 @@
         <v>46086</v>
       </c>
       <c r="D715" s="13">
-        <v>49.5</v>
+        <v>61.5</v>
       </c>
       <c r="E715" s="8">
-        <v>32</v>
+        <v>24.5</v>
       </c>
       <c r="F715" s="8">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G715" s="8">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="H715" s="8">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J715" s="8">
-        <v>9.4049999999999994</v>
+        <v>9.6650000000000009</v>
       </c>
     </row>
     <row r="716" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20370,25 +20341,25 @@
         <v>46087</v>
       </c>
       <c r="D716" s="13">
-        <v>60.5</v>
+        <v>82</v>
       </c>
       <c r="E716" s="8">
-        <v>37.5</v>
+        <v>23</v>
       </c>
       <c r="F716" s="8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G716" s="8">
         <v>0</v>
       </c>
       <c r="H716" s="8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I716" s="40" t="s">
         <v>10</v>
       </c>
       <c r="J716" s="8">
-        <v>10.475</v>
+        <v>15.574999999999999</v>
       </c>
     </row>
     <row r="717" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20402,22 +20373,22 @@
         <v>46088</v>
       </c>
       <c r="D717" s="13">
-        <v>128</v>
+        <v>127.5</v>
       </c>
       <c r="E717" s="8">
-        <v>39</v>
+        <v>22.5</v>
       </c>
       <c r="F717" s="8">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G717" s="8">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H717" s="8">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J717" s="8">
-        <v>21.814999999999998</v>
+        <v>16.48</v>
       </c>
     </row>
   </sheetData>
@@ -20438,8 +20409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:U269"/>
   <sheetViews>
-    <sheetView topLeftCell="B248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O224" sqref="O224:P263"/>
+    <sheetView topLeftCell="B223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O235" sqref="O235:P263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20449,40 +20420,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <v>0.85</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
@@ -33426,62 +33397,76 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="26">
+    <row r="224" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="63">
+        <v>41</v>
+      </c>
+      <c r="B224" s="64">
         <v>46049</v>
       </c>
-      <c r="C224" s="27">
+      <c r="C224" s="65">
         <v>54</v>
       </c>
-      <c r="D224" s="27">
+      <c r="D224" s="65">
         <v>44</v>
       </c>
-      <c r="E224" s="27">
+      <c r="E224" s="65">
         <v>70</v>
       </c>
-      <c r="F224" s="27">
+      <c r="F224" s="65">
         <v>32</v>
       </c>
-      <c r="G224" s="27">
+      <c r="G224" s="65">
         <v>63</v>
       </c>
-      <c r="H224" s="27">
+      <c r="H224" s="65">
         <v>32</v>
       </c>
-      <c r="I224" s="27">
+      <c r="I224" s="65">
         <v>47</v>
       </c>
-      <c r="J224" s="27">
+      <c r="J224" s="65">
         <v>36</v>
       </c>
-      <c r="K224" s="27">
+      <c r="K224" s="65">
         <v>69</v>
       </c>
-      <c r="L224" s="27">
+      <c r="L224" s="65">
         <v>42</v>
       </c>
-      <c r="M224" s="27">
+      <c r="M224" s="65">
         <v>44</v>
       </c>
-      <c r="N224" s="27">
+      <c r="N224" s="65">
         <v>41</v>
       </c>
-      <c r="O224" s="28">
+      <c r="O224" s="66">
         <f t="shared" si="38"/>
         <v>47</v>
       </c>
-      <c r="P224" s="28">
+      <c r="P224" s="66">
         <f t="shared" si="39"/>
         <v>12.2</v>
       </c>
-      <c r="T224" s="27">
+      <c r="R224" s="25">
+        <f t="shared" ref="R224:R234" si="45">O224-A224</f>
+        <v>6</v>
+      </c>
+      <c r="S224">
+        <f t="shared" ref="S224:S234" si="46">O224/A224</f>
+        <v>1.1463414634146341</v>
+      </c>
+      <c r="T224" s="65">
         <v>43</v>
       </c>
-      <c r="U224" s="27">
+      <c r="U224" s="65">
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="13">
+        <v>32</v>
+      </c>
       <c r="B225" s="21">
         <v>46050</v>
       </c>
@@ -33529,6 +33514,14 @@
         <f t="shared" si="39"/>
         <v>10</v>
       </c>
+      <c r="R225" s="25">
+        <f t="shared" si="45"/>
+        <v>17</v>
+      </c>
+      <c r="S225">
+        <f t="shared" si="46"/>
+        <v>1.53125</v>
+      </c>
       <c r="T225">
         <v>55</v>
       </c>
@@ -33536,7 +33529,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="226" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="13">
+        <v>85</v>
+      </c>
       <c r="B226" s="21">
         <v>46051</v>
       </c>
@@ -33584,6 +33580,14 @@
         <f t="shared" si="39"/>
         <v>10.029999999999999</v>
       </c>
+      <c r="R226" s="25">
+        <f t="shared" si="45"/>
+        <v>-25</v>
+      </c>
+      <c r="S226">
+        <f t="shared" si="46"/>
+        <v>0.70588235294117652</v>
+      </c>
       <c r="T226">
         <v>55</v>
       </c>
@@ -33591,7 +33595,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="13">
+        <v>111</v>
+      </c>
       <c r="B227" s="21">
         <v>46052</v>
       </c>
@@ -33639,6 +33646,14 @@
         <f t="shared" si="39"/>
         <v>18.079999999999998</v>
       </c>
+      <c r="R227" s="25">
+        <f t="shared" si="45"/>
+        <v>-7</v>
+      </c>
+      <c r="S227">
+        <f t="shared" si="46"/>
+        <v>0.93693693693693691</v>
+      </c>
       <c r="T227">
         <v>119</v>
       </c>
@@ -33646,7 +33661,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="13">
+        <v>163</v>
+      </c>
       <c r="B228" s="21">
         <v>46053</v>
       </c>
@@ -33694,6 +33712,14 @@
         <f t="shared" si="39"/>
         <v>15.69</v>
       </c>
+      <c r="R228" s="25">
+        <f t="shared" si="45"/>
+        <v>-38</v>
+      </c>
+      <c r="S228">
+        <f t="shared" si="46"/>
+        <v>0.76687116564417179</v>
+      </c>
       <c r="T228">
         <v>135</v>
       </c>
@@ -33701,7 +33727,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="229" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="13">
+        <v>62</v>
+      </c>
       <c r="B229" s="21">
         <v>46054</v>
       </c>
@@ -33749,6 +33778,14 @@
         <f t="shared" si="39"/>
         <v>12.42</v>
       </c>
+      <c r="R229" s="25">
+        <f t="shared" si="45"/>
+        <v>-14</v>
+      </c>
+      <c r="S229">
+        <f t="shared" si="46"/>
+        <v>0.77419354838709675</v>
+      </c>
       <c r="T229">
         <v>63</v>
       </c>
@@ -33756,7 +33793,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="13">
+        <v>51</v>
+      </c>
       <c r="B230" s="21">
         <v>46055</v>
       </c>
@@ -33804,6 +33844,14 @@
         <f t="shared" si="39"/>
         <v>11.18</v>
       </c>
+      <c r="R230" s="25">
+        <f t="shared" si="45"/>
+        <v>-5</v>
+      </c>
+      <c r="S230">
+        <f t="shared" si="46"/>
+        <v>0.90196078431372551</v>
+      </c>
       <c r="T230">
         <v>57</v>
       </c>
@@ -33811,554 +33859,598 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B231" s="21">
+    <row r="231" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="13">
+        <v>42</v>
+      </c>
+      <c r="B231" s="64">
         <v>46056</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="65">
+        <v>46</v>
+      </c>
+      <c r="D231" s="65">
+        <v>45</v>
+      </c>
+      <c r="E231" s="65">
+        <v>56</v>
+      </c>
+      <c r="F231" s="65">
+        <v>37</v>
+      </c>
+      <c r="G231" s="65">
+        <v>50</v>
+      </c>
+      <c r="H231" s="65">
+        <v>50</v>
+      </c>
+      <c r="I231" s="65">
+        <v>49</v>
+      </c>
+      <c r="J231" s="65">
+        <v>36</v>
+      </c>
+      <c r="K231" s="65">
         <v>48</v>
       </c>
-      <c r="D231">
-        <v>47</v>
-      </c>
-      <c r="E231">
-        <v>66</v>
-      </c>
-      <c r="F231">
-        <v>35</v>
-      </c>
-      <c r="G231">
-        <v>57</v>
-      </c>
-      <c r="H231">
-        <v>40</v>
-      </c>
-      <c r="I231">
-        <v>52</v>
-      </c>
-      <c r="J231">
-        <v>39</v>
-      </c>
-      <c r="K231">
-        <v>49</v>
-      </c>
-      <c r="L231">
-        <v>43</v>
-      </c>
-      <c r="M231">
+      <c r="L231" s="65">
+        <v>46</v>
+      </c>
+      <c r="M231" s="65">
         <v>53</v>
       </c>
-      <c r="N231">
-        <v>44</v>
-      </c>
-      <c r="O231" s="19">
+      <c r="N231" s="65">
+        <v>45</v>
+      </c>
+      <c r="O231" s="66">
         <f t="shared" si="38"/>
         <v>47</v>
       </c>
-      <c r="P231" s="19">
+      <c r="P231" s="66">
         <f t="shared" si="39"/>
-        <v>7.89</v>
-      </c>
-      <c r="T231">
-        <v>51</v>
-      </c>
-      <c r="U231">
+        <v>5.7</v>
+      </c>
+      <c r="R231" s="25">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="S231">
+        <f t="shared" si="46"/>
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="T231" s="65">
+        <v>53</v>
+      </c>
+      <c r="U231" s="65">
         <v>40</v>
       </c>
     </row>
-    <row r="232" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="13">
+        <v>38</v>
+      </c>
       <c r="B232" s="21">
         <v>46057</v>
       </c>
       <c r="C232">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D232">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E232">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F232">
+        <v>39</v>
+      </c>
+      <c r="G232">
+        <v>49</v>
+      </c>
+      <c r="H232">
+        <v>53</v>
+      </c>
+      <c r="I232">
+        <v>52</v>
+      </c>
+      <c r="J232">
         <v>37</v>
       </c>
-      <c r="G232">
-        <v>65</v>
-      </c>
-      <c r="H232">
-        <v>34</v>
-      </c>
-      <c r="I232">
-        <v>49</v>
-      </c>
-      <c r="J232">
-        <v>42</v>
-      </c>
       <c r="K232">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L232">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M232">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N232">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O232" s="19">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P232" s="19">
         <f t="shared" si="39"/>
-        <v>9.4499999999999993</v>
+        <v>5.89</v>
+      </c>
+      <c r="R232" s="25">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="S232">
+        <f t="shared" si="46"/>
+        <v>1.263157894736842</v>
       </c>
       <c r="T232">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U232">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="233" spans="2:21" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="13">
+        <v>29</v>
+      </c>
       <c r="B233" s="21">
         <v>46058</v>
       </c>
       <c r="C233">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D233">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E233">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F233">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G233">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H233">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I233">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J233">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K233">
         <v>53</v>
       </c>
       <c r="L233">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M233">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N233">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O233" s="19">
         <f t="shared" si="38"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P233" s="19">
         <f t="shared" si="39"/>
-        <v>8.25</v>
+        <v>6.45</v>
+      </c>
+      <c r="R233" s="25">
+        <f t="shared" si="45"/>
+        <v>24</v>
+      </c>
+      <c r="S233">
+        <f t="shared" si="46"/>
+        <v>1.8275862068965518</v>
       </c>
       <c r="T233">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="U233">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="234" spans="2:21" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="13">
+        <v>140</v>
+      </c>
       <c r="B234" s="21">
         <v>46059</v>
       </c>
       <c r="C234">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D234">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E234">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F234">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G234">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H234">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I234">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J234">
         <v>102</v>
       </c>
       <c r="K234">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="L234">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M234">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N234">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="O234" s="19">
         <f t="shared" si="38"/>
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P234" s="19">
         <f t="shared" si="39"/>
-        <v>19.309999999999999</v>
+        <v>17.27</v>
+      </c>
+      <c r="R234" s="25">
+        <f t="shared" si="45"/>
+        <v>-23</v>
+      </c>
+      <c r="S234">
+        <f t="shared" si="46"/>
+        <v>0.83571428571428574</v>
       </c>
       <c r="T234">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="U234">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="235" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B235" s="21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="26">
         <v>46060</v>
       </c>
-      <c r="C235">
-        <v>160</v>
-      </c>
-      <c r="D235">
-        <v>153</v>
-      </c>
-      <c r="E235">
-        <v>154</v>
-      </c>
-      <c r="F235">
+      <c r="C235" s="27">
+        <v>121</v>
+      </c>
+      <c r="D235" s="27">
         <v>118</v>
       </c>
-      <c r="G235">
-        <v>111</v>
-      </c>
-      <c r="H235">
-        <v>102</v>
-      </c>
-      <c r="I235">
-        <v>158</v>
-      </c>
-      <c r="J235">
-        <v>138</v>
-      </c>
-      <c r="K235">
-        <v>169</v>
-      </c>
-      <c r="L235">
-        <v>155</v>
-      </c>
-      <c r="M235">
-        <v>151</v>
-      </c>
-      <c r="N235">
-        <v>156</v>
-      </c>
-      <c r="O235" s="19">
+      <c r="E235" s="27">
+        <v>117</v>
+      </c>
+      <c r="F235" s="27">
+        <v>110</v>
+      </c>
+      <c r="G235" s="27">
+        <v>114</v>
+      </c>
+      <c r="H235" s="27">
+        <v>115</v>
+      </c>
+      <c r="I235" s="27">
+        <v>129</v>
+      </c>
+      <c r="J235" s="27">
+        <v>126</v>
+      </c>
+      <c r="K235" s="27">
+        <v>141</v>
+      </c>
+      <c r="L235" s="27">
+        <v>133</v>
+      </c>
+      <c r="M235" s="27">
+        <v>148</v>
+      </c>
+      <c r="N235" s="27">
+        <v>132</v>
+      </c>
+      <c r="O235" s="28">
         <f t="shared" si="38"/>
-        <v>143</v>
-      </c>
-      <c r="P235" s="19">
+        <v>126</v>
+      </c>
+      <c r="P235" s="28">
         <f t="shared" si="39"/>
-        <v>19.62</v>
-      </c>
-      <c r="T235">
-        <v>152</v>
-      </c>
-      <c r="U235">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="236" spans="2:21" x14ac:dyDescent="0.25">
+        <v>10.98</v>
+      </c>
+      <c r="T235" s="27">
+        <v>140</v>
+      </c>
+      <c r="U235" s="27">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B236" s="21">
         <v>46061</v>
       </c>
       <c r="C236">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D236">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E236">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F236">
+        <v>21</v>
+      </c>
+      <c r="G236">
+        <v>47</v>
+      </c>
+      <c r="H236">
+        <v>13</v>
+      </c>
+      <c r="I236">
+        <v>43</v>
+      </c>
+      <c r="J236">
         <v>23</v>
       </c>
-      <c r="G236">
-        <v>57</v>
-      </c>
-      <c r="H236">
-        <v>29</v>
-      </c>
-      <c r="I236">
-        <v>49</v>
-      </c>
-      <c r="J236">
-        <v>25</v>
-      </c>
       <c r="K236">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L236">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M236">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N236">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O236" s="19">
         <f t="shared" si="38"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P236" s="19">
         <f t="shared" si="39"/>
-        <v>13.89</v>
+        <v>11.36</v>
       </c>
       <c r="T236">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U236">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="237" spans="2:21" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B237" s="21">
         <v>46062</v>
       </c>
       <c r="C237">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D237">
+        <v>39</v>
+      </c>
+      <c r="E237">
+        <v>45</v>
+      </c>
+      <c r="F237">
+        <v>34</v>
+      </c>
+      <c r="G237">
+        <v>49</v>
+      </c>
+      <c r="H237">
+        <v>36</v>
+      </c>
+      <c r="I237">
+        <v>47</v>
+      </c>
+      <c r="J237">
         <v>40</v>
-      </c>
-      <c r="E237">
-        <v>59</v>
-      </c>
-      <c r="F237">
-        <v>30</v>
-      </c>
-      <c r="G237">
-        <v>63</v>
-      </c>
-      <c r="H237">
-        <v>30</v>
-      </c>
-      <c r="I237">
-        <v>50</v>
-      </c>
-      <c r="J237">
-        <v>33</v>
       </c>
       <c r="K237">
         <v>46</v>
       </c>
       <c r="L237">
+        <v>44</v>
+      </c>
+      <c r="M237">
         <v>46</v>
       </c>
-      <c r="M237">
-        <v>56</v>
-      </c>
       <c r="N237">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O237" s="19">
         <f t="shared" si="38"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P237" s="19">
         <f t="shared" si="39"/>
-        <v>13.56</v>
+        <v>4.76</v>
       </c>
       <c r="T237">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U237">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="238" spans="2:21" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B238" s="21">
         <v>46063</v>
       </c>
       <c r="C238">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D238">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E238">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F238">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G238">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H238">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I238">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="J238">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K238">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L238">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M238">
+        <v>46</v>
+      </c>
+      <c r="N238">
         <v>43</v>
-      </c>
-      <c r="N238">
-        <v>41</v>
       </c>
       <c r="O238" s="19">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P238" s="19">
         <f t="shared" si="39"/>
-        <v>10.76</v>
+        <v>8.02</v>
       </c>
       <c r="T238">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U238">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="239" spans="2:21" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B239" s="21">
         <v>46064</v>
       </c>
       <c r="C239">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D239">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E239">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F239">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G239">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H239">
         <v>40</v>
       </c>
       <c r="I239">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J239">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K239">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L239">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M239">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N239">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O239" s="19">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P239" s="19">
         <f t="shared" si="39"/>
-        <v>8.4</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="T239">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="U239">
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B240" s="21">
         <v>46065</v>
       </c>
       <c r="C240">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D240">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E240">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F240">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G240">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H240">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I240">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="J240">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K240">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L240">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M240">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="N240">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O240" s="19">
         <f t="shared" si="38"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="P240" s="19">
         <f t="shared" si="39"/>
-        <v>7.18</v>
+        <v>4.08</v>
       </c>
       <c r="T240">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="U240">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="2:21" x14ac:dyDescent="0.25">
@@ -34366,54 +34458,54 @@
         <v>46066</v>
       </c>
       <c r="C241">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D241">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E241">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F241">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G241">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H241">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I241">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J241">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K241">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="L241">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="M241">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="N241">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O241" s="19">
         <f t="shared" si="38"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P241" s="19">
         <f t="shared" si="39"/>
-        <v>15.65</v>
+        <v>9.36</v>
       </c>
       <c r="T241">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="U241">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="242" spans="2:21" x14ac:dyDescent="0.25">
@@ -34421,54 +34513,54 @@
         <v>46067</v>
       </c>
       <c r="C242">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="D242">
         <v>198</v>
       </c>
       <c r="E242">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F242">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G242">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="H242">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="I242">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J242">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K242">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="L242">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M242">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="N242">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O242" s="19">
-        <f t="shared" si="38"/>
-        <v>160</v>
+        <f>ROUND(AVERAGE(C242:N242,T242:U242),0)</f>
+        <v>190</v>
       </c>
       <c r="P242" s="19">
         <f t="shared" si="39"/>
-        <v>31.52</v>
+        <v>30.86</v>
       </c>
       <c r="T242">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="U242">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243" spans="2:21" x14ac:dyDescent="0.25">
@@ -34476,54 +34568,54 @@
         <v>46068</v>
       </c>
       <c r="C243">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D243">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E243">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F243">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G243">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H243">
         <v>38</v>
       </c>
       <c r="I243">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J243">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K243">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="L243">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M243">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N243">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O243" s="19">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P243" s="19">
         <f t="shared" si="39"/>
-        <v>13.75</v>
+        <v>4.17</v>
       </c>
       <c r="T243">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="U243">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="244" spans="2:21" x14ac:dyDescent="0.25">
@@ -34531,54 +34623,54 @@
         <v>46069</v>
       </c>
       <c r="C244">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D244">
         <v>42</v>
       </c>
       <c r="E244">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F244">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G244">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H244">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I244">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J244">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K244">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L244">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M244">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N244">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O244" s="19">
         <f t="shared" si="38"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P244" s="19">
         <f t="shared" si="39"/>
-        <v>12.66</v>
+        <v>8.1</v>
       </c>
       <c r="T244">
         <v>54</v>
       </c>
       <c r="U244">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="245" spans="2:21" x14ac:dyDescent="0.25">
@@ -34586,51 +34678,51 @@
         <v>46070</v>
       </c>
       <c r="C245">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D245">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E245">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F245">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G245">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H245">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I245">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J245">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K245">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L245">
+        <v>45</v>
+      </c>
+      <c r="M245">
+        <v>53</v>
+      </c>
+      <c r="N245">
         <v>42</v>
-      </c>
-      <c r="M245">
-        <v>49</v>
-      </c>
-      <c r="N245">
-        <v>45</v>
       </c>
       <c r="O245" s="19">
         <f t="shared" si="38"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P245" s="19">
         <f t="shared" si="39"/>
-        <v>7.63</v>
+        <v>8.5</v>
       </c>
       <c r="T245">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U245">
         <v>40</v>
@@ -34641,54 +34733,54 @@
         <v>46071</v>
       </c>
       <c r="C246">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D246">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E246">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F246">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G246">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H246">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I246">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J246">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K246">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L246">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M246">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N246">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="O246" s="19">
         <f t="shared" si="38"/>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="P246" s="19">
         <f t="shared" si="39"/>
-        <v>7.08</v>
+        <v>5.45</v>
       </c>
       <c r="T246">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="U246">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="247" spans="2:21" x14ac:dyDescent="0.25">
@@ -34696,54 +34788,54 @@
         <v>46072</v>
       </c>
       <c r="C247">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D247">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E247">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F247">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G247">
+        <v>61</v>
+      </c>
+      <c r="H247">
+        <v>53</v>
+      </c>
+      <c r="I247">
+        <v>61</v>
+      </c>
+      <c r="J247">
         <v>57</v>
       </c>
-      <c r="H247">
-        <v>46</v>
-      </c>
-      <c r="I247">
-        <v>55</v>
-      </c>
-      <c r="J247">
+      <c r="K247">
         <v>48</v>
       </c>
-      <c r="K247">
-        <v>47</v>
-      </c>
       <c r="L247">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M247">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N247">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O247" s="19">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P247" s="19">
         <f t="shared" si="39"/>
-        <v>6.6</v>
+        <v>4.75</v>
       </c>
       <c r="T247">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U247">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="2:21" x14ac:dyDescent="0.25">
@@ -34751,54 +34843,54 @@
         <v>46073</v>
       </c>
       <c r="C248">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="D248">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E248">
         <v>86</v>
       </c>
       <c r="F248">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G248">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H248">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I248">
         <v>86</v>
       </c>
       <c r="J248">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="K248">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="L248">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M248">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="N248">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="O248" s="19">
         <f t="shared" si="38"/>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="P248" s="19">
         <f t="shared" si="39"/>
-        <v>10.93</v>
+        <v>21.79</v>
       </c>
       <c r="T248">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="U248">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249" spans="2:21" x14ac:dyDescent="0.25">
@@ -34806,40 +34898,40 @@
         <v>46074</v>
       </c>
       <c r="C249">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D249">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E249">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F249">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G249">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H249">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I249">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="J249">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K249">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L249">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M249">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N249">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O249" s="19">
         <f t="shared" si="38"/>
@@ -34847,13 +34939,13 @@
       </c>
       <c r="P249" s="19">
         <f t="shared" si="39"/>
-        <v>17.13</v>
+        <v>13.17</v>
       </c>
       <c r="T249">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="U249">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="250" spans="2:21" x14ac:dyDescent="0.25">
@@ -34861,54 +34953,54 @@
         <v>46075</v>
       </c>
       <c r="C250">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D250">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E250">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F250">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G250">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H250">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I250">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J250">
         <v>38</v>
       </c>
       <c r="K250">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L250">
         <v>40</v>
       </c>
       <c r="M250">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N250">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O250" s="19">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P250" s="19">
         <f t="shared" si="39"/>
-        <v>8.99</v>
+        <v>6.67</v>
       </c>
       <c r="T250">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="U250">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="251" spans="2:21" x14ac:dyDescent="0.25">
@@ -34916,54 +35008,54 @@
         <v>46076</v>
       </c>
       <c r="C251">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D251">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E251">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F251">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G251">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H251">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I251">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J251">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K251">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L251">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M251">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N251">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O251" s="19">
         <f t="shared" si="38"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P251" s="19">
         <f t="shared" si="39"/>
-        <v>11.64</v>
+        <v>6.09</v>
       </c>
       <c r="T251">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U251">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="252" spans="2:21" x14ac:dyDescent="0.25">
@@ -34971,54 +35063,54 @@
         <v>46077</v>
       </c>
       <c r="C252">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D252">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E252">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F252">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G252">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H252">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I252">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J252">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K252">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L252">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M252">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N252">
         <v>45</v>
       </c>
       <c r="O252" s="19">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P252" s="19">
         <f t="shared" si="39"/>
-        <v>8.09</v>
+        <v>6.3</v>
       </c>
       <c r="T252">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U252">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="253" spans="2:21" x14ac:dyDescent="0.25">
@@ -35026,54 +35118,54 @@
         <v>46078</v>
       </c>
       <c r="C253">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D253">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E253">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F253">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G253">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H253">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I253">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J253">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K253">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L253">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M253">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N253">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O253" s="19">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P253" s="19">
         <f t="shared" si="39"/>
-        <v>10.81</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="T253">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U253">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="254" spans="2:21" x14ac:dyDescent="0.25">
@@ -35081,54 +35173,54 @@
         <v>46079</v>
       </c>
       <c r="C254">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D254">
+        <v>72</v>
+      </c>
+      <c r="E254">
+        <v>73</v>
+      </c>
+      <c r="F254">
+        <v>54</v>
+      </c>
+      <c r="G254">
+        <v>69</v>
+      </c>
+      <c r="H254">
+        <v>51</v>
+      </c>
+      <c r="I254">
         <v>49</v>
       </c>
-      <c r="E254">
-        <v>82</v>
-      </c>
-      <c r="F254">
-        <v>45</v>
-      </c>
-      <c r="G254">
-        <v>62</v>
-      </c>
-      <c r="H254">
-        <v>44</v>
-      </c>
-      <c r="I254">
-        <v>62</v>
-      </c>
       <c r="J254">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="K254">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L254">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="M254">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N254">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="O254" s="19">
         <f t="shared" si="38"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P254" s="19">
         <f t="shared" si="39"/>
-        <v>10.28</v>
+        <v>13.88</v>
       </c>
       <c r="T254">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U254">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="255" spans="2:21" x14ac:dyDescent="0.25">
@@ -35136,54 +35228,54 @@
         <v>46080</v>
       </c>
       <c r="C255">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D255">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E255">
         <v>82</v>
       </c>
       <c r="F255">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G255">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H255">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I255">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J255">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K255">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="L255">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M255">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="N255">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O255" s="19">
         <f t="shared" si="38"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P255" s="19">
         <f t="shared" si="39"/>
-        <v>11.48</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="T255">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="U255">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="256" spans="2:21" x14ac:dyDescent="0.25">
@@ -35191,54 +35283,54 @@
         <v>46081</v>
       </c>
       <c r="C256">
+        <v>153</v>
+      </c>
+      <c r="D256">
+        <v>112</v>
+      </c>
+      <c r="E256">
+        <v>119</v>
+      </c>
+      <c r="F256">
+        <v>105</v>
+      </c>
+      <c r="G256">
+        <v>112</v>
+      </c>
+      <c r="H256">
+        <v>113</v>
+      </c>
+      <c r="I256">
+        <v>141</v>
+      </c>
+      <c r="J256">
+        <v>121</v>
+      </c>
+      <c r="K256">
+        <v>148</v>
+      </c>
+      <c r="L256">
+        <v>123</v>
+      </c>
+      <c r="M256">
+        <v>149</v>
+      </c>
+      <c r="N256">
         <v>124</v>
-      </c>
-      <c r="D256">
-        <v>116</v>
-      </c>
-      <c r="E256">
-        <v>125</v>
-      </c>
-      <c r="F256">
-        <v>102</v>
-      </c>
-      <c r="G256">
-        <v>90</v>
-      </c>
-      <c r="H256">
-        <v>101</v>
-      </c>
-      <c r="I256">
-        <v>142</v>
-      </c>
-      <c r="J256">
-        <v>122</v>
-      </c>
-      <c r="K256">
-        <v>127</v>
-      </c>
-      <c r="L256">
-        <v>116</v>
-      </c>
-      <c r="M256">
-        <v>134</v>
-      </c>
-      <c r="N256">
-        <v>123</v>
       </c>
       <c r="O256" s="19">
         <f t="shared" si="38"/>
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P256" s="19">
         <f t="shared" si="39"/>
-        <v>13.29</v>
+        <v>15.17</v>
       </c>
       <c r="T256">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="U256">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="257" spans="2:21" x14ac:dyDescent="0.25">
@@ -35246,54 +35338,54 @@
         <v>46082</v>
       </c>
       <c r="C257">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D257">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E257">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F257">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G257">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H257">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I257">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J257">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K257">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L257">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M257">
         <v>49</v>
       </c>
       <c r="N257">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O257" s="19">
         <f t="shared" si="38"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P257" s="19">
         <f t="shared" si="39"/>
-        <v>9.23</v>
+        <v>8.75</v>
       </c>
       <c r="T257">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U257">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="258" spans="2:21" x14ac:dyDescent="0.25">
@@ -35301,54 +35393,54 @@
         <v>46083</v>
       </c>
       <c r="C258">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D258">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E258">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F258">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G258">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H258">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I258">
         <v>47</v>
       </c>
       <c r="J258">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K258">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L258">
+        <v>42</v>
+      </c>
+      <c r="M258">
         <v>46</v>
       </c>
-      <c r="M258">
-        <v>58</v>
-      </c>
       <c r="N258">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O258" s="19">
         <f t="shared" si="38"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P258" s="19">
         <f t="shared" si="39"/>
-        <v>9.19</v>
+        <v>5.68</v>
       </c>
       <c r="T258">
         <v>50</v>
       </c>
       <c r="U258">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="259" spans="2:21" x14ac:dyDescent="0.25">
@@ -35356,54 +35448,54 @@
         <v>46084</v>
       </c>
       <c r="C259">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D259">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E259">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F259">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G259">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H259">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I259">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J259">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K259">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L259">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M259">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N259">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O259" s="19">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P259" s="19">
         <f t="shared" si="39"/>
-        <v>11.35</v>
+        <v>5.17</v>
       </c>
       <c r="T259">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="U259">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="2:21" x14ac:dyDescent="0.25">
@@ -35411,54 +35503,54 @@
         <v>46085</v>
       </c>
       <c r="C260">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D260">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E260">
+        <v>54</v>
+      </c>
+      <c r="F260">
+        <v>43</v>
+      </c>
+      <c r="G260">
+        <v>52</v>
+      </c>
+      <c r="H260">
+        <v>38</v>
+      </c>
+      <c r="I260">
+        <v>55</v>
+      </c>
+      <c r="J260">
+        <v>47</v>
+      </c>
+      <c r="K260">
+        <v>47</v>
+      </c>
+      <c r="L260">
         <v>62</v>
       </c>
-      <c r="F260">
-        <v>42</v>
-      </c>
-      <c r="G260">
-        <v>65</v>
-      </c>
-      <c r="H260">
+      <c r="M260">
         <v>47</v>
       </c>
-      <c r="I260">
-        <v>56</v>
-      </c>
-      <c r="J260">
-        <v>51</v>
-      </c>
-      <c r="K260">
-        <v>44</v>
-      </c>
-      <c r="L260">
-        <v>38</v>
-      </c>
-      <c r="M260">
-        <v>51</v>
-      </c>
       <c r="N260">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="O260" s="19">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P260" s="19">
         <f t="shared" si="39"/>
-        <v>9</v>
+        <v>6.08</v>
       </c>
       <c r="T260">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U260">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="261" spans="2:21" x14ac:dyDescent="0.25">
@@ -35466,54 +35558,54 @@
         <v>46086</v>
       </c>
       <c r="C261">
+        <v>67</v>
+      </c>
+      <c r="D261">
+        <v>64</v>
+      </c>
+      <c r="E261">
+        <v>58</v>
+      </c>
+      <c r="F261">
+        <v>65</v>
+      </c>
+      <c r="G261">
+        <v>53</v>
+      </c>
+      <c r="H261">
         <v>52</v>
       </c>
-      <c r="D261">
-        <v>40</v>
-      </c>
-      <c r="E261">
-        <v>68</v>
-      </c>
-      <c r="F261">
-        <v>42</v>
-      </c>
-      <c r="G261">
-        <v>59</v>
-      </c>
-      <c r="H261">
-        <v>44</v>
-      </c>
       <c r="I261">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J261">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K261">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="L261">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="M261">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="N261">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="O261" s="19">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="P261" s="19">
         <f t="shared" si="39"/>
-        <v>7.55</v>
+        <v>6.87</v>
       </c>
       <c r="T261">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="U261">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="262" spans="2:21" x14ac:dyDescent="0.25">
@@ -35521,54 +35613,54 @@
         <v>46087</v>
       </c>
       <c r="C262">
+        <v>81</v>
+      </c>
+      <c r="D262">
+        <v>88</v>
+      </c>
+      <c r="E262">
+        <v>73</v>
+      </c>
+      <c r="F262">
+        <v>71</v>
+      </c>
+      <c r="G262">
+        <v>70</v>
+      </c>
+      <c r="H262">
+        <v>66</v>
+      </c>
+      <c r="I262">
+        <v>92</v>
+      </c>
+      <c r="J262">
+        <v>77</v>
+      </c>
+      <c r="K262">
+        <v>110</v>
+      </c>
+      <c r="L262">
+        <v>77</v>
+      </c>
+      <c r="M262">
+        <v>78</v>
+      </c>
+      <c r="N262">
         <v>72</v>
       </c>
-      <c r="D262">
-        <v>55</v>
-      </c>
-      <c r="E262">
-        <v>80</v>
-      </c>
-      <c r="F262">
-        <v>54</v>
-      </c>
-      <c r="G262">
-        <v>73</v>
-      </c>
-      <c r="H262">
-        <v>62</v>
-      </c>
-      <c r="I262">
-        <v>68</v>
-      </c>
-      <c r="J262">
-        <v>67</v>
-      </c>
-      <c r="K262">
-        <v>66</v>
-      </c>
-      <c r="L262">
-        <v>57</v>
-      </c>
-      <c r="M262">
-        <v>71</v>
-      </c>
-      <c r="N262">
-        <v>61</v>
-      </c>
       <c r="O262" s="19">
-        <f t="shared" ref="O262:O263" si="45">ROUND(AVERAGE(C262:N262,T262:U262),0)</f>
-        <v>66</v>
+        <f t="shared" ref="O262:O263" si="47">ROUND(AVERAGE(C262:N262,T262:U262),0)</f>
+        <v>81</v>
       </c>
       <c r="P262" s="19">
-        <f t="shared" ref="P262:P263" si="46">ROUND(_xlfn.STDEV.P(C262:N262,T262:U262),2)</f>
-        <v>7.92</v>
+        <f t="shared" ref="P262:P263" si="48">ROUND(_xlfn.STDEV.P(C262:N262,T262:U262),2)</f>
+        <v>13.11</v>
       </c>
       <c r="T262">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="U262">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="2:21" x14ac:dyDescent="0.25">
@@ -35576,54 +35668,54 @@
         <v>46088</v>
       </c>
       <c r="C263">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D263">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E263">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="F263">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G263">
+        <v>108</v>
+      </c>
+      <c r="H263">
+        <v>114</v>
+      </c>
+      <c r="I263">
+        <v>143</v>
+      </c>
+      <c r="J263">
         <v>120</v>
       </c>
-      <c r="H263">
-        <v>107</v>
-      </c>
-      <c r="I263">
+      <c r="K263">
         <v>151</v>
       </c>
-      <c r="J263">
-        <v>128</v>
-      </c>
-      <c r="K263">
-        <v>125</v>
-      </c>
       <c r="L263">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M263">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N263">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="O263" s="19">
-        <f t="shared" si="45"/>
-        <v>134</v>
+        <f t="shared" si="47"/>
+        <v>127</v>
       </c>
       <c r="P263" s="19">
-        <f t="shared" si="46"/>
-        <v>18.489999999999998</v>
+        <f t="shared" si="48"/>
+        <v>17.29</v>
       </c>
       <c r="T263">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="U263">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="264" spans="2:21" x14ac:dyDescent="0.25">
@@ -35631,54 +35723,54 @@
         <v>40</v>
       </c>
       <c r="C264">
-        <v>27.8</v>
+        <v>27.02</v>
       </c>
       <c r="D264">
-        <v>29.85</v>
+        <v>29.96</v>
       </c>
       <c r="E264">
-        <v>25.05</v>
+        <v>27.3</v>
       </c>
       <c r="F264" s="14">
-        <v>23.89</v>
+        <v>23.15</v>
       </c>
       <c r="G264" s="14">
-        <v>26.36</v>
+        <v>31.25</v>
       </c>
       <c r="H264" s="14">
-        <v>20.98</v>
+        <v>25.04</v>
       </c>
       <c r="I264" s="14">
-        <v>27.4</v>
+        <v>29.31</v>
       </c>
       <c r="J264" s="14">
-        <v>22.91</v>
+        <v>27.16</v>
       </c>
       <c r="K264" s="14">
-        <v>24.98</v>
+        <v>25.4</v>
       </c>
       <c r="L264" s="14">
-        <v>28.88</v>
+        <v>26.61</v>
       </c>
       <c r="M264" s="14">
-        <v>23.04</v>
+        <v>27.88</v>
       </c>
       <c r="N264" s="15">
-        <v>27.06</v>
+        <v>28.66</v>
       </c>
       <c r="O264" s="32">
         <f>ROUND(AVERAGE(C264:N264,T264:U264),2)</f>
-        <v>25.77</v>
+        <v>27.53</v>
       </c>
       <c r="P264" s="32">
         <f>ROUND(_xlfn.STDEV.P(C264:N264,T264:U264),2)</f>
-        <v>2.4</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="T264">
-        <v>27.3</v>
+        <v>29.61</v>
       </c>
       <c r="U264">
-        <v>25.32</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="265" spans="2:21" x14ac:dyDescent="0.25">
@@ -35686,85 +35778,85 @@
         <v>41</v>
       </c>
       <c r="C265">
-        <v>24.66</v>
+        <v>25.96</v>
       </c>
       <c r="D265">
-        <v>23.9</v>
+        <v>26.8</v>
       </c>
       <c r="E265">
-        <v>31.31</v>
+        <v>27.9</v>
       </c>
       <c r="F265">
-        <v>33.58</v>
+        <v>32.49</v>
       </c>
       <c r="G265">
-        <v>29.35</v>
+        <v>27.12</v>
       </c>
       <c r="H265">
-        <v>31.52</v>
+        <v>27.38</v>
       </c>
       <c r="I265">
-        <v>28.46</v>
+        <v>25.18</v>
       </c>
       <c r="J265">
-        <v>29.54</v>
+        <v>25.23</v>
       </c>
       <c r="K265">
-        <v>28.93</v>
+        <v>27.45</v>
       </c>
       <c r="L265">
-        <v>26</v>
+        <v>26.54</v>
       </c>
       <c r="M265" s="14">
-        <v>29.14</v>
+        <v>25.98</v>
       </c>
       <c r="N265" s="14">
-        <v>26.08</v>
+        <v>24.94</v>
       </c>
       <c r="O265" s="32">
         <f>ROUND(AVERAGE(C265:N265,T265:U265),2)</f>
-        <v>28.51</v>
+        <v>26.84</v>
       </c>
       <c r="P265" s="32">
         <f>ROUND(_xlfn.STDEV.P(C265:N265,T265:U265),2)</f>
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="T265">
-        <v>26.79</v>
+        <v>25.96</v>
       </c>
       <c r="U265">
-        <v>29.87</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="266" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C266" s="55" t="s">
+      <c r="C266" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D266" s="55"/>
-      <c r="E266" s="55" t="s">
+      <c r="D266" s="54"/>
+      <c r="E266" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F266" s="55"/>
-      <c r="G266" s="55" t="s">
+      <c r="F266" s="54"/>
+      <c r="G266" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H266" s="55"/>
-      <c r="I266" s="55" t="s">
+      <c r="H266" s="54"/>
+      <c r="I266" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J266" s="55"/>
-      <c r="K266" s="60" t="s">
+      <c r="J266" s="54"/>
+      <c r="K266" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L266" s="60"/>
-      <c r="M266" s="60" t="s">
+      <c r="L266" s="59"/>
+      <c r="M266" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="N266" s="60"/>
-      <c r="T266" s="55" t="s">
+      <c r="N266" s="59"/>
+      <c r="T266" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="U266" s="55"/>
+      <c r="U266" s="54"/>
     </row>
     <row r="267" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
@@ -35815,46 +35907,46 @@
         <v>65</v>
       </c>
       <c r="C268">
-        <v>76.926000000000002</v>
+        <v>69.369</v>
       </c>
       <c r="D268">
-        <v>81.403999999999996</v>
+        <v>72.186000000000007</v>
       </c>
       <c r="E268">
-        <v>112.824</v>
+        <v>105.223</v>
       </c>
       <c r="F268">
-        <v>98.796000000000006</v>
+        <v>93.605000000000004</v>
       </c>
       <c r="G268">
-        <v>34.962000000000003</v>
+        <v>22.337</v>
       </c>
       <c r="H268">
-        <v>23.588000000000001</v>
+        <v>24.212</v>
       </c>
       <c r="I268">
-        <v>159.268</v>
+        <v>103.099</v>
       </c>
       <c r="J268">
-        <v>165.10499999999999</v>
+        <v>128.64400000000001</v>
       </c>
       <c r="K268">
-        <v>119.679</v>
+        <v>86.679000000000002</v>
       </c>
       <c r="L268">
-        <v>122.88800000000001</v>
+        <v>114.809</v>
       </c>
       <c r="M268">
-        <v>214.81299999999999</v>
+        <v>184.167</v>
       </c>
       <c r="N268">
-        <v>244.21100000000001</v>
+        <v>193.672</v>
       </c>
       <c r="T268">
-        <v>199.50800000000001</v>
+        <v>197.327</v>
       </c>
       <c r="U268">
-        <v>245.78299999999999</v>
+        <v>196.69499999999999</v>
       </c>
     </row>
     <row r="269" spans="2:21" x14ac:dyDescent="0.25">
@@ -35867,29 +35959,29 @@
       <c r="F269" s="33"/>
       <c r="G269" s="33"/>
       <c r="H269" s="33"/>
-      <c r="I269" s="54">
-        <v>0.753</v>
-      </c>
-      <c r="J269" s="54">
-        <v>0.7722</v>
+      <c r="I269" s="53">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="J269" s="53">
+        <v>0.77580000000000005</v>
       </c>
       <c r="K269" s="53">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="L269" s="54">
-        <v>0.69669999999999999</v>
-      </c>
-      <c r="M269" s="54">
-        <v>0.68489999999999995</v>
-      </c>
-      <c r="N269" s="54">
-        <v>0.81510000000000005</v>
-      </c>
-      <c r="T269" s="54">
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="U269" s="54">
-        <v>0.69379999999999997</v>
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="L269" s="53">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="M269" s="53">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="N269" s="53">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="T269" s="53">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="U269" s="53">
+        <v>0.67830000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -35904,33 +35996,22 @@
     <mergeCell ref="K266:L266"/>
     <mergeCell ref="M266:N266"/>
   </mergeCells>
-  <conditionalFormatting sqref="C98:N223">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>ABS(C98-$A98)&lt;=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>ABS(C98-$A98)&lt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>ABS(C98-$A98)&lt;=15</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C264:N264">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="aboveAverage" dxfId="7" priority="7"/>
-    <cfRule type="cellIs" dxfId="6" priority="28" operator="between">
+    <cfRule type="aboveAverage" dxfId="10" priority="7"/>
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="between">
       <formula>$O$264-$P$264</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C265:N265">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R79 R81:R223">
+  <conditionalFormatting sqref="R3:R79 R81:R234">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -35938,6 +36019,17 @@
         <color rgb="FF92D050"/>
         <color rgb="FFFF0000"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:N234">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>ABS(C98-$A98)&lt;=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>ABS(C98-$A98)&lt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>ABS(C98-$A98)&lt;=15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35949,8 +36041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BE2AF-C5F8-4B32-A88A-8E9C9CBC1046}">
   <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O263" sqref="O224:P263"/>
+    <sheetView topLeftCell="B242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O235" sqref="O235:P263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35960,42 +36052,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <v>0.85</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
@@ -48633,62 +48725,76 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="26">
+    <row r="224" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="13">
+        <v>41</v>
+      </c>
+      <c r="B224" s="64">
         <v>46049</v>
       </c>
-      <c r="C224" s="27">
+      <c r="C224" s="65">
         <v>55</v>
       </c>
-      <c r="D224" s="27">
+      <c r="D224" s="65">
         <v>45</v>
       </c>
-      <c r="E224" s="27">
+      <c r="E224" s="65">
         <v>49</v>
       </c>
-      <c r="F224" s="27">
+      <c r="F224" s="65">
         <v>29</v>
       </c>
-      <c r="G224" s="27">
+      <c r="G224" s="65">
         <v>47</v>
       </c>
-      <c r="H224" s="27">
+      <c r="H224" s="65">
         <v>13</v>
       </c>
-      <c r="I224" s="27">
+      <c r="I224" s="65">
         <v>44</v>
       </c>
-      <c r="J224" s="27">
+      <c r="J224" s="65">
         <v>20</v>
       </c>
-      <c r="K224" s="27">
+      <c r="K224" s="65">
         <v>69</v>
       </c>
-      <c r="L224" s="27">
+      <c r="L224" s="65">
         <v>43</v>
       </c>
-      <c r="M224" s="27">
+      <c r="M224" s="65">
         <v>46</v>
       </c>
-      <c r="N224" s="27">
+      <c r="N224" s="65">
         <v>41</v>
       </c>
-      <c r="O224" s="28">
+      <c r="O224" s="66">
         <f t="shared" si="25"/>
         <v>41</v>
       </c>
-      <c r="P224" s="28">
+      <c r="P224" s="66">
         <f t="shared" si="26"/>
         <v>13.64</v>
       </c>
-      <c r="T224" s="27">
+      <c r="R224" s="25">
+        <f t="shared" ref="R224:R230" si="31">O224-A224</f>
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <f t="shared" ref="S224:S230" si="32">O224/A224</f>
+        <v>1</v>
+      </c>
+      <c r="T224" s="65">
         <v>41</v>
       </c>
-      <c r="U224" s="27">
+      <c r="U224" s="65">
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="13">
+        <v>32</v>
+      </c>
       <c r="B225" s="21">
         <v>46050</v>
       </c>
@@ -48736,6 +48842,14 @@
         <f t="shared" si="26"/>
         <v>12.12</v>
       </c>
+      <c r="R225" s="25">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+      <c r="S225">
+        <f t="shared" si="32"/>
+        <v>1.34375</v>
+      </c>
       <c r="T225">
         <v>58</v>
       </c>
@@ -48743,7 +48857,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="13">
+        <v>85</v>
+      </c>
       <c r="B226" s="21">
         <v>46051</v>
       </c>
@@ -48791,6 +48908,14 @@
         <f t="shared" si="26"/>
         <v>11.2</v>
       </c>
+      <c r="R226" s="25">
+        <f t="shared" si="31"/>
+        <v>-30</v>
+      </c>
+      <c r="S226">
+        <f t="shared" si="32"/>
+        <v>0.6470588235294118</v>
+      </c>
       <c r="T226">
         <v>54</v>
       </c>
@@ -48798,7 +48923,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="13">
+        <v>111</v>
+      </c>
       <c r="B227" s="21">
         <v>46052</v>
       </c>
@@ -48846,6 +48974,14 @@
         <f t="shared" si="26"/>
         <v>19.25</v>
       </c>
+      <c r="R227" s="25">
+        <f t="shared" si="31"/>
+        <v>-8</v>
+      </c>
+      <c r="S227">
+        <f t="shared" si="32"/>
+        <v>0.92792792792792789</v>
+      </c>
       <c r="T227">
         <v>113</v>
       </c>
@@ -48853,7 +48989,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="228" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="13">
+        <v>163</v>
+      </c>
       <c r="B228" s="21">
         <v>46053</v>
       </c>
@@ -48901,6 +49040,14 @@
         <f t="shared" si="26"/>
         <v>16.260000000000002</v>
       </c>
+      <c r="R228" s="25">
+        <f t="shared" si="31"/>
+        <v>-38</v>
+      </c>
+      <c r="S228">
+        <f t="shared" si="32"/>
+        <v>0.76687116564417179</v>
+      </c>
       <c r="T228">
         <v>137</v>
       </c>
@@ -48908,7 +49055,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="229" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="13">
+        <v>62</v>
+      </c>
       <c r="B229" s="21">
         <v>46054</v>
       </c>
@@ -48956,6 +49106,14 @@
         <f t="shared" si="26"/>
         <v>14.98</v>
       </c>
+      <c r="R229" s="25">
+        <f t="shared" si="31"/>
+        <v>-19</v>
+      </c>
+      <c r="S229">
+        <f t="shared" si="32"/>
+        <v>0.69354838709677424</v>
+      </c>
       <c r="T229">
         <v>59</v>
       </c>
@@ -48963,7 +49121,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="13">
+        <v>51</v>
+      </c>
       <c r="B230" s="21">
         <v>46055</v>
       </c>
@@ -49011,6 +49172,14 @@
         <f t="shared" si="26"/>
         <v>14.42</v>
       </c>
+      <c r="R230" s="25">
+        <f t="shared" si="31"/>
+        <v>-11</v>
+      </c>
+      <c r="S230">
+        <f t="shared" si="32"/>
+        <v>0.78431372549019607</v>
+      </c>
       <c r="T230">
         <v>54</v>
       </c>
@@ -49018,554 +49187,598 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B231" s="21">
+    <row r="231" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="13">
+        <v>42</v>
+      </c>
+      <c r="B231" s="64">
         <v>46056</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="65">
+        <v>47</v>
+      </c>
+      <c r="D231" s="65">
+        <v>45</v>
+      </c>
+      <c r="E231" s="65">
+        <v>49</v>
+      </c>
+      <c r="F231" s="65">
+        <v>30</v>
+      </c>
+      <c r="G231" s="65">
+        <v>45</v>
+      </c>
+      <c r="H231" s="65">
+        <v>41</v>
+      </c>
+      <c r="I231" s="65">
+        <v>44</v>
+      </c>
+      <c r="J231" s="65">
+        <v>25</v>
+      </c>
+      <c r="K231" s="65">
         <v>48</v>
       </c>
-      <c r="D231">
+      <c r="L231" s="65">
+        <v>46</v>
+      </c>
+      <c r="M231" s="65">
+        <v>53</v>
+      </c>
+      <c r="N231" s="65">
+        <v>45</v>
+      </c>
+      <c r="O231" s="66">
+        <f t="shared" si="25"/>
+        <v>43</v>
+      </c>
+      <c r="P231" s="66">
+        <f t="shared" si="26"/>
+        <v>7.25</v>
+      </c>
+      <c r="R231" s="25">
+        <f t="shared" ref="R231:R234" si="33">O231-A231</f>
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <f t="shared" ref="S231:S234" si="34">O231/A231</f>
+        <v>1.0238095238095237</v>
+      </c>
+      <c r="T231" s="65">
+        <v>45</v>
+      </c>
+      <c r="U231" s="65">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="13">
+        <v>38</v>
+      </c>
+      <c r="B232" s="21">
+        <v>46057</v>
+      </c>
+      <c r="C232">
         <v>47</v>
       </c>
-      <c r="E231">
+      <c r="D232">
+        <v>46</v>
+      </c>
+      <c r="E232">
+        <v>49</v>
+      </c>
+      <c r="F232">
+        <v>32</v>
+      </c>
+      <c r="G232">
+        <v>44</v>
+      </c>
+      <c r="H232">
+        <v>44</v>
+      </c>
+      <c r="I232">
+        <v>44</v>
+      </c>
+      <c r="J232">
+        <v>29</v>
+      </c>
+      <c r="K232">
+        <v>48</v>
+      </c>
+      <c r="L232">
+        <v>46</v>
+      </c>
+      <c r="M232">
+        <v>54</v>
+      </c>
+      <c r="N232">
+        <v>46</v>
+      </c>
+      <c r="O232" s="19">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="P232" s="19">
+        <f t="shared" si="26"/>
+        <v>7.7</v>
+      </c>
+      <c r="R232" s="25">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="S232">
+        <f t="shared" si="34"/>
+        <v>1.1842105263157894</v>
+      </c>
+      <c r="T232">
+        <v>62</v>
+      </c>
+      <c r="U232">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="13">
+        <v>29</v>
+      </c>
+      <c r="B233" s="21">
+        <v>46058</v>
+      </c>
+      <c r="C233">
+        <v>47</v>
+      </c>
+      <c r="D233">
+        <v>51</v>
+      </c>
+      <c r="E233">
         <v>53</v>
       </c>
-      <c r="F231">
+      <c r="F233">
+        <v>34</v>
+      </c>
+      <c r="G233">
+        <v>47</v>
+      </c>
+      <c r="H233">
+        <v>43</v>
+      </c>
+      <c r="I233">
+        <v>47</v>
+      </c>
+      <c r="J233">
+        <v>34</v>
+      </c>
+      <c r="K233">
+        <v>53</v>
+      </c>
+      <c r="L233">
+        <v>51</v>
+      </c>
+      <c r="M233">
+        <v>58</v>
+      </c>
+      <c r="N233">
+        <v>50</v>
+      </c>
+      <c r="O233" s="19">
+        <f t="shared" si="25"/>
+        <v>48</v>
+      </c>
+      <c r="P233" s="19">
+        <f t="shared" si="26"/>
+        <v>6.51</v>
+      </c>
+      <c r="R233" s="25">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="S233">
+        <f t="shared" si="34"/>
+        <v>1.6551724137931034</v>
+      </c>
+      <c r="T233">
+        <v>50</v>
+      </c>
+      <c r="U233">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="13">
+        <v>140</v>
+      </c>
+      <c r="B234" s="21">
+        <v>46059</v>
+      </c>
+      <c r="C234">
+        <v>121</v>
+      </c>
+      <c r="D234">
+        <v>120</v>
+      </c>
+      <c r="E234">
+        <v>105</v>
+      </c>
+      <c r="F234">
+        <v>78</v>
+      </c>
+      <c r="G234">
+        <v>100</v>
+      </c>
+      <c r="H234">
+        <v>91</v>
+      </c>
+      <c r="I234">
+        <v>87</v>
+      </c>
+      <c r="J234">
+        <v>70</v>
+      </c>
+      <c r="K234">
+        <v>165</v>
+      </c>
+      <c r="L234">
+        <v>129</v>
+      </c>
+      <c r="M234">
+        <v>121</v>
+      </c>
+      <c r="N234">
+        <v>115</v>
+      </c>
+      <c r="O234" s="19">
+        <f t="shared" si="25"/>
+        <v>107</v>
+      </c>
+      <c r="P234" s="19">
+        <f t="shared" si="26"/>
+        <v>23.24</v>
+      </c>
+      <c r="R234" s="25">
+        <f t="shared" si="33"/>
+        <v>-33</v>
+      </c>
+      <c r="S234">
+        <f t="shared" si="34"/>
+        <v>0.76428571428571423</v>
+      </c>
+      <c r="T234">
+        <v>96</v>
+      </c>
+      <c r="U234">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="26">
+        <v>46060</v>
+      </c>
+      <c r="C235" s="27">
+        <v>121</v>
+      </c>
+      <c r="D235" s="27">
+        <v>121</v>
+      </c>
+      <c r="E235" s="27">
+        <v>115</v>
+      </c>
+      <c r="F235" s="27">
+        <v>111</v>
+      </c>
+      <c r="G235" s="27">
+        <v>155</v>
+      </c>
+      <c r="H235" s="27">
+        <v>145</v>
+      </c>
+      <c r="I235" s="27">
+        <v>130</v>
+      </c>
+      <c r="J235" s="27">
+        <v>112</v>
+      </c>
+      <c r="K235" s="27">
+        <v>141</v>
+      </c>
+      <c r="L235" s="27">
+        <v>133</v>
+      </c>
+      <c r="M235" s="27">
+        <v>150</v>
+      </c>
+      <c r="N235" s="27">
+        <v>135</v>
+      </c>
+      <c r="O235" s="28">
+        <f t="shared" si="25"/>
+        <v>130</v>
+      </c>
+      <c r="P235" s="28">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="T235" s="27">
+        <v>117</v>
+      </c>
+      <c r="U235" s="27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B236" s="21">
+        <v>46061</v>
+      </c>
+      <c r="C236">
+        <v>46</v>
+      </c>
+      <c r="D236">
         <v>29</v>
       </c>
-      <c r="G231">
-        <v>48</v>
-      </c>
-      <c r="H231">
-        <v>14</v>
-      </c>
-      <c r="I231">
+      <c r="E236">
+        <v>44</v>
+      </c>
+      <c r="F236">
+        <v>21</v>
+      </c>
+      <c r="G236">
+        <v>43</v>
+      </c>
+      <c r="H236">
+        <v>10</v>
+      </c>
+      <c r="I236">
+        <v>44</v>
+      </c>
+      <c r="J236">
+        <v>26</v>
+      </c>
+      <c r="K236">
+        <v>44</v>
+      </c>
+      <c r="L236">
+        <v>28</v>
+      </c>
+      <c r="M236">
+        <v>46</v>
+      </c>
+      <c r="N236">
+        <v>27</v>
+      </c>
+      <c r="O236" s="19">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="P236" s="19">
+        <f t="shared" si="26"/>
+        <v>10.96</v>
+      </c>
+      <c r="T236">
+        <v>44</v>
+      </c>
+      <c r="U236">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B237" s="21">
+        <v>46062</v>
+      </c>
+      <c r="C237">
+        <v>47</v>
+      </c>
+      <c r="D237">
+        <v>39</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
+      </c>
+      <c r="F237">
+        <v>35</v>
+      </c>
+      <c r="G237">
+        <v>46</v>
+      </c>
+      <c r="H237">
+        <v>36</v>
+      </c>
+      <c r="I237">
         <v>45</v>
       </c>
-      <c r="J231">
-        <v>25</v>
-      </c>
-      <c r="K231">
-        <v>49</v>
-      </c>
-      <c r="L231">
+      <c r="J237">
+        <v>33</v>
+      </c>
+      <c r="K237">
+        <v>46</v>
+      </c>
+      <c r="L237">
+        <v>44</v>
+      </c>
+      <c r="M237">
+        <v>46</v>
+      </c>
+      <c r="N237">
         <v>43</v>
       </c>
-      <c r="M231">
-        <v>55</v>
-      </c>
-      <c r="N231">
-        <v>43</v>
-      </c>
-      <c r="O231" s="19">
+      <c r="O237" s="19">
         <f t="shared" si="25"/>
         <v>42</v>
       </c>
-      <c r="P231" s="19">
+      <c r="P237" s="19">
         <f t="shared" si="26"/>
-        <v>11.4</v>
-      </c>
-      <c r="T231">
-        <v>51</v>
-      </c>
-      <c r="U231">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="232" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B232" s="21">
-        <v>46057</v>
-      </c>
-      <c r="C232">
+        <v>4.91</v>
+      </c>
+      <c r="T237">
+        <v>45</v>
+      </c>
+      <c r="U237">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B238" s="21">
+        <v>46063</v>
+      </c>
+      <c r="C238">
+        <v>47</v>
+      </c>
+      <c r="D238">
+        <v>38</v>
+      </c>
+      <c r="E238">
+        <v>45</v>
+      </c>
+      <c r="F238">
+        <v>36</v>
+      </c>
+      <c r="G238">
+        <v>49</v>
+      </c>
+      <c r="H238">
+        <v>39</v>
+      </c>
+      <c r="I238">
         <v>52</v>
       </c>
-      <c r="D232">
-        <v>47</v>
-      </c>
-      <c r="E232">
-        <v>49</v>
-      </c>
-      <c r="F232">
+      <c r="J238">
         <v>32</v>
       </c>
-      <c r="G232">
+      <c r="K238">
         <v>46</v>
       </c>
-      <c r="H232">
-        <v>14</v>
-      </c>
-      <c r="I232">
-        <v>44</v>
-      </c>
-      <c r="J232">
-        <v>23</v>
-      </c>
-      <c r="K232">
-        <v>52</v>
-      </c>
-      <c r="L232">
+      <c r="L238">
         <v>43</v>
       </c>
-      <c r="M232">
-        <v>55</v>
-      </c>
-      <c r="N232">
-        <v>43</v>
-      </c>
-      <c r="O232" s="19">
+      <c r="M238">
+        <v>46</v>
+      </c>
+      <c r="N238">
+        <v>42</v>
+      </c>
+      <c r="O238" s="19">
         <f t="shared" si="25"/>
         <v>42</v>
       </c>
-      <c r="P232" s="19">
-        <f t="shared" si="26"/>
-        <v>12.06</v>
-      </c>
-      <c r="T232">
-        <v>57</v>
-      </c>
-      <c r="U232">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B233" s="21">
-        <v>46058</v>
-      </c>
-      <c r="C233">
-        <v>59</v>
-      </c>
-      <c r="D233">
-        <v>54</v>
-      </c>
-      <c r="E233">
-        <v>74</v>
-      </c>
-      <c r="F233">
-        <v>51</v>
-      </c>
-      <c r="G233">
-        <v>49</v>
-      </c>
-      <c r="H233">
-        <v>35</v>
-      </c>
-      <c r="I233">
-        <v>68</v>
-      </c>
-      <c r="J233">
-        <v>46</v>
-      </c>
-      <c r="K233">
-        <v>53</v>
-      </c>
-      <c r="L233">
-        <v>52</v>
-      </c>
-      <c r="M233">
-        <v>72</v>
-      </c>
-      <c r="N233">
-        <v>51</v>
-      </c>
-      <c r="O233" s="19">
-        <f t="shared" si="25"/>
-        <v>55</v>
-      </c>
-      <c r="P233" s="19">
-        <f t="shared" si="26"/>
-        <v>10.25</v>
-      </c>
-      <c r="T233">
-        <v>58</v>
-      </c>
-      <c r="U233">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="234" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B234" s="21">
-        <v>46059</v>
-      </c>
-      <c r="C234">
-        <v>117</v>
-      </c>
-      <c r="D234">
-        <v>117</v>
-      </c>
-      <c r="E234">
-        <v>120</v>
-      </c>
-      <c r="F234">
-        <v>75</v>
-      </c>
-      <c r="G234">
-        <v>71</v>
-      </c>
-      <c r="H234">
-        <v>25</v>
-      </c>
-      <c r="I234">
-        <v>110</v>
-      </c>
-      <c r="J234">
-        <v>52</v>
-      </c>
-      <c r="K234">
-        <v>144</v>
-      </c>
-      <c r="L234">
-        <v>135</v>
-      </c>
-      <c r="M234">
-        <v>126</v>
-      </c>
-      <c r="N234">
-        <v>118</v>
-      </c>
-      <c r="O234" s="19">
-        <f t="shared" si="25"/>
-        <v>100</v>
-      </c>
-      <c r="P234" s="19">
-        <f t="shared" si="26"/>
-        <v>32.68</v>
-      </c>
-      <c r="T234">
-        <v>101</v>
-      </c>
-      <c r="U234">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="235" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B235" s="21">
-        <v>46060</v>
-      </c>
-      <c r="C235">
-        <v>161</v>
-      </c>
-      <c r="D235">
-        <v>154</v>
-      </c>
-      <c r="E235">
-        <v>140</v>
-      </c>
-      <c r="F235">
-        <v>107</v>
-      </c>
-      <c r="G235">
-        <v>101</v>
-      </c>
-      <c r="H235">
-        <v>50</v>
-      </c>
-      <c r="I235">
-        <v>135</v>
-      </c>
-      <c r="J235">
-        <v>81</v>
-      </c>
-      <c r="K235">
-        <v>169</v>
-      </c>
-      <c r="L235">
-        <v>155</v>
-      </c>
-      <c r="M235">
-        <v>147</v>
-      </c>
-      <c r="N235">
-        <v>146</v>
-      </c>
-      <c r="O235" s="19">
-        <f t="shared" si="25"/>
-        <v>126</v>
-      </c>
-      <c r="P235" s="19">
-        <f t="shared" si="26"/>
-        <v>32.94</v>
-      </c>
-      <c r="T235">
-        <v>122</v>
-      </c>
-      <c r="U235">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="236" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B236" s="21">
-        <v>46061</v>
-      </c>
-      <c r="C236">
-        <v>60</v>
-      </c>
-      <c r="D236">
-        <v>36</v>
-      </c>
-      <c r="E236">
-        <v>45</v>
-      </c>
-      <c r="F236">
-        <v>22</v>
-      </c>
-      <c r="G236">
-        <v>44</v>
-      </c>
-      <c r="H236">
-        <v>9</v>
-      </c>
-      <c r="I236">
-        <v>44</v>
-      </c>
-      <c r="J236">
-        <v>14</v>
-      </c>
-      <c r="K236">
-        <v>39</v>
-      </c>
-      <c r="L236">
-        <v>25</v>
-      </c>
-      <c r="M236">
-        <v>28</v>
-      </c>
-      <c r="N236">
-        <v>32</v>
-      </c>
-      <c r="O236" s="19">
-        <f t="shared" si="25"/>
-        <v>34</v>
-      </c>
-      <c r="P236" s="19">
-        <f t="shared" si="26"/>
-        <v>14.14</v>
-      </c>
-      <c r="T236">
-        <v>53</v>
-      </c>
-      <c r="U236">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="237" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B237" s="21">
-        <v>46062</v>
-      </c>
-      <c r="C237">
-        <v>83</v>
-      </c>
-      <c r="D237">
-        <v>41</v>
-      </c>
-      <c r="E237">
-        <v>46</v>
-      </c>
-      <c r="F237">
-        <v>31</v>
-      </c>
-      <c r="G237">
-        <v>53</v>
-      </c>
-      <c r="H237">
-        <v>17</v>
-      </c>
-      <c r="I237">
-        <v>44</v>
-      </c>
-      <c r="J237">
-        <v>23</v>
-      </c>
-      <c r="K237">
-        <v>46</v>
-      </c>
-      <c r="L237">
-        <v>46</v>
-      </c>
-      <c r="M237">
-        <v>59</v>
-      </c>
-      <c r="N237">
-        <v>38</v>
-      </c>
-      <c r="O237" s="19">
-        <f t="shared" si="25"/>
-        <v>44</v>
-      </c>
-      <c r="P237" s="19">
-        <f t="shared" si="26"/>
-        <v>15.74</v>
-      </c>
-      <c r="T237">
-        <v>56</v>
-      </c>
-      <c r="U237">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="238" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B238" s="21">
-        <v>46063</v>
-      </c>
-      <c r="C238">
-        <v>60</v>
-      </c>
-      <c r="D238">
-        <v>42</v>
-      </c>
-      <c r="E238">
-        <v>48</v>
-      </c>
-      <c r="F238">
-        <v>28</v>
-      </c>
-      <c r="G238">
-        <v>47</v>
-      </c>
-      <c r="H238">
-        <v>11</v>
-      </c>
-      <c r="I238">
-        <v>44</v>
-      </c>
-      <c r="J238">
-        <v>18</v>
-      </c>
-      <c r="K238">
-        <v>47</v>
-      </c>
-      <c r="L238">
-        <v>41</v>
-      </c>
-      <c r="M238">
-        <v>44</v>
-      </c>
-      <c r="N238">
-        <v>41</v>
-      </c>
-      <c r="O238" s="19">
-        <f t="shared" si="25"/>
-        <v>39</v>
-      </c>
       <c r="P238" s="19">
         <f t="shared" si="26"/>
-        <v>12.71</v>
+        <v>5.88</v>
       </c>
       <c r="T238">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U238">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="239" spans="2:21" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B239" s="21">
         <v>46064</v>
       </c>
       <c r="C239">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D239">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E239">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F239">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G239">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H239">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I239">
         <v>47</v>
       </c>
       <c r="J239">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K239">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L239">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M239">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N239">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O239" s="19">
         <f t="shared" si="25"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P239" s="19">
         <f t="shared" si="26"/>
-        <v>10.39</v>
+        <v>5.5</v>
       </c>
       <c r="T239">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="U239">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="240" spans="2:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B240" s="21">
         <v>46065</v>
       </c>
       <c r="C240">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D240">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E240">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F240">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G240">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H240">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I240">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J240">
+        <v>57</v>
+      </c>
+      <c r="K240">
         <v>46</v>
       </c>
-      <c r="K240">
-        <v>53</v>
-      </c>
       <c r="L240">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M240">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N240">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O240" s="19">
         <f t="shared" si="25"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P240" s="19">
         <f t="shared" si="26"/>
-        <v>11.7</v>
+        <v>6.03</v>
       </c>
       <c r="T240">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="U240">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="2:21" x14ac:dyDescent="0.25">
@@ -49573,54 +49786,54 @@
         <v>46066</v>
       </c>
       <c r="C241">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D241">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E241">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F241">
+        <v>89</v>
+      </c>
+      <c r="G241">
+        <v>79</v>
+      </c>
+      <c r="H241">
+        <v>81</v>
+      </c>
+      <c r="I241">
+        <v>102</v>
+      </c>
+      <c r="J241">
+        <v>80</v>
+      </c>
+      <c r="K241">
+        <v>100</v>
+      </c>
+      <c r="L241">
+        <v>86</v>
+      </c>
+      <c r="M241">
+        <v>95</v>
+      </c>
+      <c r="N241">
         <v>92</v>
-      </c>
-      <c r="G241">
-        <v>101</v>
-      </c>
-      <c r="H241">
-        <v>54</v>
-      </c>
-      <c r="I241">
-        <v>119</v>
-      </c>
-      <c r="J241">
-        <v>77</v>
-      </c>
-      <c r="K241">
-        <v>116</v>
-      </c>
-      <c r="L241">
-        <v>104</v>
-      </c>
-      <c r="M241">
-        <v>123</v>
-      </c>
-      <c r="N241">
-        <v>94</v>
       </c>
       <c r="O241" s="19">
         <f t="shared" si="25"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="P241" s="19">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>7.03</v>
       </c>
       <c r="T241">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="U241">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="2:21" x14ac:dyDescent="0.25">
@@ -49628,54 +49841,54 @@
         <v>46067</v>
       </c>
       <c r="C242">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="D242">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E242">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F242">
+        <v>140</v>
+      </c>
+      <c r="G242">
         <v>152</v>
       </c>
-      <c r="G242">
-        <v>124</v>
-      </c>
       <c r="H242">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="I242">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J242">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K242">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="L242">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M242">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="N242">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="O242" s="19">
         <f>ROUND(AVERAGE(C242:N242,T242,U242),0)</f>
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P242" s="19">
         <f t="shared" si="26"/>
-        <v>28.75</v>
+        <v>39.81</v>
       </c>
       <c r="T242">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U242">
-        <v>138</v>
+        <v>204</v>
       </c>
     </row>
     <row r="243" spans="2:21" x14ac:dyDescent="0.25">
@@ -49683,54 +49896,54 @@
         <v>46068</v>
       </c>
       <c r="C243">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D243">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E243">
+        <v>44</v>
+      </c>
+      <c r="F243">
+        <v>38</v>
+      </c>
+      <c r="G243">
         <v>46</v>
       </c>
-      <c r="F243">
-        <v>31</v>
-      </c>
-      <c r="G243">
-        <v>49</v>
-      </c>
       <c r="H243">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I243">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J243">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K243">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="L243">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M243">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N243">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O243" s="19">
         <f t="shared" si="25"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P243" s="19">
         <f t="shared" si="26"/>
-        <v>15.92</v>
+        <v>3.56</v>
       </c>
       <c r="T243">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="U243">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="244" spans="2:21" x14ac:dyDescent="0.25">
@@ -49738,54 +49951,54 @@
         <v>46069</v>
       </c>
       <c r="C244">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D244">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E244">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F244">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G244">
         <v>46</v>
       </c>
       <c r="H244">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I244">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J244">
         <v>17</v>
       </c>
       <c r="K244">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L244">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M244">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N244">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O244" s="19">
         <f t="shared" si="25"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P244" s="19">
         <f t="shared" si="26"/>
-        <v>13.81</v>
+        <v>11.41</v>
       </c>
       <c r="T244">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U244">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="245" spans="2:21" x14ac:dyDescent="0.25">
@@ -49793,40 +50006,40 @@
         <v>46070</v>
       </c>
       <c r="C245">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D245">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E245">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F245">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G245">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H245">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I245">
         <v>47</v>
       </c>
       <c r="J245">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K245">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L245">
+        <v>45</v>
+      </c>
+      <c r="M245">
+        <v>55</v>
+      </c>
+      <c r="N245">
         <v>42</v>
-      </c>
-      <c r="M245">
-        <v>54</v>
-      </c>
-      <c r="N245">
-        <v>43</v>
       </c>
       <c r="O245" s="19">
         <f t="shared" si="25"/>
@@ -49834,13 +50047,13 @@
       </c>
       <c r="P245" s="19">
         <f t="shared" si="26"/>
-        <v>12.4</v>
+        <v>8.85</v>
       </c>
       <c r="T245">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U245">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246" spans="2:21" x14ac:dyDescent="0.25">
@@ -49848,54 +50061,54 @@
         <v>46071</v>
       </c>
       <c r="C246">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D246">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E246">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F246">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G246">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H246">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I246">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J246">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K246">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L246">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M246">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N246">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="O246" s="19">
         <f t="shared" si="25"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P246" s="19">
         <f t="shared" si="26"/>
-        <v>15.12</v>
+        <v>7.92</v>
       </c>
       <c r="T246">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="U246">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247" spans="2:21" x14ac:dyDescent="0.25">
@@ -49903,54 +50116,54 @@
         <v>46072</v>
       </c>
       <c r="C247">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D247">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E247">
+        <v>49</v>
+      </c>
+      <c r="F247">
+        <v>60</v>
+      </c>
+      <c r="G247">
+        <v>71</v>
+      </c>
+      <c r="H247">
         <v>67</v>
       </c>
-      <c r="F247">
-        <v>45</v>
-      </c>
-      <c r="G247">
+      <c r="I247">
+        <v>55</v>
+      </c>
+      <c r="J247">
         <v>60</v>
       </c>
-      <c r="H247">
-        <v>33</v>
-      </c>
-      <c r="I247">
-        <v>76</v>
-      </c>
-      <c r="J247">
-        <v>40</v>
-      </c>
       <c r="K247">
+        <v>48</v>
+      </c>
+      <c r="L247">
+        <v>53</v>
+      </c>
+      <c r="M247">
         <v>47</v>
       </c>
-      <c r="L247">
-        <v>43</v>
-      </c>
-      <c r="M247">
-        <v>53</v>
-      </c>
       <c r="N247">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O247" s="19">
         <f t="shared" si="25"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P247" s="19">
         <f t="shared" si="26"/>
-        <v>12.1</v>
+        <v>7.56</v>
       </c>
       <c r="T247">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U247">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="248" spans="2:21" x14ac:dyDescent="0.25">
@@ -49958,54 +50171,54 @@
         <v>46073</v>
       </c>
       <c r="C248">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D248">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E248">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F248">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G248">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="H248">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I248">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="J248">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="L248">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M248">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="N248">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="O248" s="19">
         <f t="shared" si="25"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P248" s="19">
         <f t="shared" si="26"/>
-        <v>16.940000000000001</v>
+        <v>27.65</v>
       </c>
       <c r="T248">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="U248">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="249" spans="2:21" x14ac:dyDescent="0.25">
@@ -50013,54 +50226,54 @@
         <v>46074</v>
       </c>
       <c r="C249">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D249">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E249">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F249">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G249">
+        <v>164</v>
+      </c>
+      <c r="H249">
+        <v>149</v>
+      </c>
+      <c r="I249">
+        <v>132</v>
+      </c>
+      <c r="J249">
+        <v>115</v>
+      </c>
+      <c r="K249">
+        <v>140</v>
+      </c>
+      <c r="L249">
         <v>136</v>
       </c>
-      <c r="H249">
-        <v>88</v>
-      </c>
-      <c r="I249">
-        <v>128</v>
-      </c>
-      <c r="J249">
-        <v>106</v>
-      </c>
-      <c r="K249">
-        <v>154</v>
-      </c>
-      <c r="L249">
-        <v>139</v>
-      </c>
       <c r="M249">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="N249">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O249" s="19">
         <f t="shared" si="25"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P249" s="19">
         <f t="shared" si="26"/>
-        <v>18.91</v>
+        <v>16.89</v>
       </c>
       <c r="T249">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="U249">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="250" spans="2:21" x14ac:dyDescent="0.25">
@@ -50068,54 +50281,54 @@
         <v>46075</v>
       </c>
       <c r="C250">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D250">
+        <v>38</v>
+      </c>
+      <c r="E250">
         <v>44</v>
       </c>
-      <c r="E250">
-        <v>46</v>
-      </c>
       <c r="F250">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G250">
         <v>45</v>
       </c>
       <c r="H250">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I250">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J250">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K250">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L250">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M250">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N250">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O250" s="19">
         <f t="shared" si="25"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P250" s="19">
         <f t="shared" si="26"/>
-        <v>9.65</v>
+        <v>5.97</v>
       </c>
       <c r="T250">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="U250">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251" spans="2:21" x14ac:dyDescent="0.25">
@@ -50123,54 +50336,54 @@
         <v>46076</v>
       </c>
       <c r="C251">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D251">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E251">
+        <v>45</v>
+      </c>
+      <c r="F251">
+        <v>39</v>
+      </c>
+      <c r="G251">
         <v>48</v>
       </c>
-      <c r="F251">
-        <v>29</v>
-      </c>
-      <c r="G251">
-        <v>49</v>
-      </c>
       <c r="H251">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I251">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J251">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K251">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L251">
         <v>41</v>
       </c>
       <c r="M251">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N251">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O251" s="19">
         <f t="shared" si="25"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P251" s="19">
         <f t="shared" si="26"/>
-        <v>14.11</v>
+        <v>6.43</v>
       </c>
       <c r="T251">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U251">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252" spans="2:21" x14ac:dyDescent="0.25">
@@ -50178,54 +50391,54 @@
         <v>46077</v>
       </c>
       <c r="C252">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D252">
+        <v>42</v>
+      </c>
+      <c r="E252">
+        <v>45</v>
+      </c>
+      <c r="F252">
+        <v>45</v>
+      </c>
+      <c r="G252">
+        <v>49</v>
+      </c>
+      <c r="H252">
+        <v>24</v>
+      </c>
+      <c r="I252">
+        <v>48</v>
+      </c>
+      <c r="J252">
+        <v>40</v>
+      </c>
+      <c r="K252">
         <v>47</v>
       </c>
-      <c r="E252">
-        <v>55</v>
-      </c>
-      <c r="F252">
-        <v>29</v>
-      </c>
-      <c r="G252">
-        <v>51</v>
-      </c>
-      <c r="H252">
-        <v>12</v>
-      </c>
-      <c r="I252">
-        <v>44</v>
-      </c>
-      <c r="J252">
-        <v>21</v>
-      </c>
-      <c r="K252">
-        <v>50</v>
-      </c>
       <c r="L252">
+        <v>48</v>
+      </c>
+      <c r="M252">
+        <v>59</v>
+      </c>
+      <c r="N252">
         <v>45</v>
-      </c>
-      <c r="M252">
-        <v>62</v>
-      </c>
-      <c r="N252">
-        <v>44</v>
       </c>
       <c r="O252" s="19">
         <f t="shared" si="25"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P252" s="19">
         <f t="shared" si="26"/>
-        <v>14.55</v>
+        <v>7.36</v>
       </c>
       <c r="T252">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="U252">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="253" spans="2:21" x14ac:dyDescent="0.25">
@@ -50233,54 +50446,54 @@
         <v>46078</v>
       </c>
       <c r="C253">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D253">
+        <v>41</v>
+      </c>
+      <c r="E253">
+        <v>45</v>
+      </c>
+      <c r="F253">
         <v>40</v>
       </c>
-      <c r="E253">
+      <c r="G253">
+        <v>48</v>
+      </c>
+      <c r="H253">
+        <v>35</v>
+      </c>
+      <c r="I253">
+        <v>48</v>
+      </c>
+      <c r="J253">
+        <v>45</v>
+      </c>
+      <c r="K253">
         <v>46</v>
       </c>
-      <c r="F253">
-        <v>32</v>
-      </c>
-      <c r="G253">
+      <c r="L253">
+        <v>43</v>
+      </c>
+      <c r="M253">
         <v>47</v>
       </c>
-      <c r="H253">
-        <v>21</v>
-      </c>
-      <c r="I253">
-        <v>44</v>
-      </c>
-      <c r="J253">
-        <v>25</v>
-      </c>
-      <c r="K253">
-        <v>44</v>
-      </c>
-      <c r="L253">
-        <v>33</v>
-      </c>
-      <c r="M253">
-        <v>53</v>
-      </c>
       <c r="N253">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O253" s="19">
         <f t="shared" si="25"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P253" s="19">
         <f t="shared" si="26"/>
-        <v>10.49</v>
+        <v>4.5</v>
       </c>
       <c r="T253">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="U253">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="254" spans="2:21" x14ac:dyDescent="0.25">
@@ -50288,54 +50501,54 @@
         <v>46079</v>
       </c>
       <c r="C254">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D254">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E254">
         <v>76</v>
       </c>
       <c r="F254">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G254">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H254">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I254">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J254">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K254">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="L254">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="M254">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="N254">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="O254" s="19">
         <f t="shared" si="25"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P254" s="19">
         <f t="shared" si="26"/>
-        <v>11.09</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="T254">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U254">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="255" spans="2:21" x14ac:dyDescent="0.25">
@@ -50343,54 +50556,54 @@
         <v>46080</v>
       </c>
       <c r="C255">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D255">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E255">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F255">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G255">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H255">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I255">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="J255">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K255">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="L255">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M255">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="N255">
         <v>69</v>
       </c>
       <c r="O255" s="19">
         <f t="shared" si="25"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P255" s="19">
         <f t="shared" si="26"/>
-        <v>14.06</v>
+        <v>20.97</v>
       </c>
       <c r="T255">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U255">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="2:21" x14ac:dyDescent="0.25">
@@ -50398,54 +50611,54 @@
         <v>46081</v>
       </c>
       <c r="C256">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D256">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E256">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F256">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G256">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="H256">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="I256">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="J256">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K256">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="L256">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M256">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="N256">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O256" s="19">
         <f t="shared" si="25"/>
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="P256" s="19">
         <f t="shared" si="26"/>
-        <v>15.69</v>
+        <v>14.37</v>
       </c>
       <c r="T256">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U256">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="257" spans="2:21" x14ac:dyDescent="0.25">
@@ -50453,54 +50666,54 @@
         <v>46082</v>
       </c>
       <c r="C257">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D257">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E257">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F257">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G257">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H257">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I257">
         <v>44</v>
       </c>
       <c r="J257">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K257">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L257">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M257">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N257">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O257" s="19">
         <f t="shared" si="25"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P257" s="19">
         <f t="shared" si="26"/>
-        <v>8.26</v>
+        <v>11.31</v>
       </c>
       <c r="T257">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="U257">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258" spans="2:21" x14ac:dyDescent="0.25">
@@ -50508,54 +50721,54 @@
         <v>46083</v>
       </c>
       <c r="C258">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D258">
+        <v>46</v>
+      </c>
+      <c r="E258">
         <v>44</v>
       </c>
-      <c r="E258">
-        <v>48</v>
-      </c>
       <c r="F258">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G258">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H258">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I258">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J258">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K258">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L258">
+        <v>42</v>
+      </c>
+      <c r="M258">
         <v>46</v>
       </c>
-      <c r="M258">
-        <v>59</v>
-      </c>
       <c r="N258">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O258" s="19">
         <f t="shared" si="25"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P258" s="19">
         <f t="shared" si="26"/>
-        <v>10.42</v>
+        <v>6.94</v>
       </c>
       <c r="T258">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="U258">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="259" spans="2:21" x14ac:dyDescent="0.25">
@@ -50563,54 +50776,54 @@
         <v>46084</v>
       </c>
       <c r="C259">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D259">
         <v>44</v>
       </c>
       <c r="E259">
+        <v>45</v>
+      </c>
+      <c r="F259">
+        <v>41</v>
+      </c>
+      <c r="G259">
+        <v>51</v>
+      </c>
+      <c r="H259">
+        <v>29</v>
+      </c>
+      <c r="I259">
         <v>47</v>
       </c>
-      <c r="F259">
-        <v>30</v>
-      </c>
-      <c r="G259">
-        <v>50</v>
-      </c>
-      <c r="H259">
-        <v>18</v>
-      </c>
-      <c r="I259">
-        <v>49</v>
-      </c>
       <c r="J259">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K259">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L259">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M259">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="N259">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O259" s="19">
         <f t="shared" si="25"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P259" s="19">
         <f t="shared" si="26"/>
-        <v>14.03</v>
+        <v>6.03</v>
       </c>
       <c r="T259">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="U259">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260" spans="2:21" x14ac:dyDescent="0.25">
@@ -50618,54 +50831,54 @@
         <v>46085</v>
       </c>
       <c r="C260">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D260">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E260">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F260">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G260">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H260">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I260">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J260">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K260">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L260">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M260">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N260">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O260" s="19">
         <f t="shared" si="25"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P260" s="19">
         <f t="shared" si="26"/>
-        <v>10.01</v>
+        <v>8.25</v>
       </c>
       <c r="T260">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="U260">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="261" spans="2:21" x14ac:dyDescent="0.25">
@@ -50673,54 +50886,54 @@
         <v>46086</v>
       </c>
       <c r="C261">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D261">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E261">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F261">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G261">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H261">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I261">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J261">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K261">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="L261">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="M261">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N261">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="O261" s="19">
         <f t="shared" si="25"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P261" s="19">
         <f t="shared" si="26"/>
-        <v>11.26</v>
+        <v>12.46</v>
       </c>
       <c r="T261">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U261">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="2:21" x14ac:dyDescent="0.25">
@@ -50728,54 +50941,54 @@
         <v>46087</v>
       </c>
       <c r="C262">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D262">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E262">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F262">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G262">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H262">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I262">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J262">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="K262">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="L262">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M262">
+        <v>69</v>
+      </c>
+      <c r="N262">
         <v>73</v>
       </c>
-      <c r="N262">
-        <v>59</v>
-      </c>
       <c r="O262" s="19">
-        <f t="shared" ref="O262:O263" si="31">ROUND(AVERAGE(C262:N262,T262,U262),0)</f>
-        <v>55</v>
+        <f t="shared" ref="O262:O263" si="35">ROUND(AVERAGE(C262:N262,T262,U262),0)</f>
+        <v>83</v>
       </c>
       <c r="P262" s="19">
-        <f t="shared" ref="P262:P263" si="32">ROUND(_xlfn.STDEV.P(C262:N262,T262,U262),2)</f>
-        <v>13.03</v>
+        <f t="shared" ref="P262:P263" si="36">ROUND(_xlfn.STDEV.P(C262:N262,T262,U262),2)</f>
+        <v>18.04</v>
       </c>
       <c r="T262">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="U262">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" spans="2:21" x14ac:dyDescent="0.25">
@@ -50783,88 +50996,88 @@
         <v>46088</v>
       </c>
       <c r="C263">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D263">
+        <v>113</v>
+      </c>
+      <c r="E263">
+        <v>111</v>
+      </c>
+      <c r="F263">
+        <v>115</v>
+      </c>
+      <c r="G263">
         <v>135</v>
       </c>
-      <c r="E263">
-        <v>152</v>
-      </c>
-      <c r="F263">
-        <v>105</v>
-      </c>
-      <c r="G263">
-        <v>127</v>
-      </c>
       <c r="H263">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="I263">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="J263">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K263">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="L263">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M263">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N263">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O263" s="19">
-        <f t="shared" si="31"/>
-        <v>122</v>
+        <f t="shared" si="35"/>
+        <v>128</v>
       </c>
       <c r="P263" s="19">
-        <f t="shared" si="32"/>
-        <v>25.14</v>
+        <f t="shared" si="36"/>
+        <v>15.67</v>
       </c>
       <c r="T263">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="U263">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="264" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B264" s="33"/>
-      <c r="C264" s="61" t="s">
+      <c r="C264" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D264" s="62"/>
-      <c r="E264" s="62" t="s">
+      <c r="D264" s="61"/>
+      <c r="E264" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="F264" s="62"/>
-      <c r="G264" s="62" t="s">
+      <c r="F264" s="61"/>
+      <c r="G264" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H264" s="62"/>
-      <c r="I264" s="62" t="s">
+      <c r="H264" s="61"/>
+      <c r="I264" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="J264" s="62"/>
-      <c r="K264" s="62" t="s">
+      <c r="J264" s="61"/>
+      <c r="K264" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="L264" s="62"/>
-      <c r="M264" s="62" t="s">
+      <c r="L264" s="61"/>
+      <c r="M264" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="N264" s="63"/>
+      <c r="N264" s="62"/>
       <c r="O264" s="48"/>
       <c r="P264" s="49"/>
-      <c r="T264" s="55" t="s">
+      <c r="T264" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="U264" s="55"/>
+      <c r="U264" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50878,7 +51091,17 @@
     <mergeCell ref="K264:L264"/>
     <mergeCell ref="M264:N264"/>
   </mergeCells>
-  <conditionalFormatting sqref="C98:N223">
+  <conditionalFormatting sqref="R3:R234">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:N234">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>ABS(C98-$A98)&lt;=5</formula>
     </cfRule>
@@ -50887,16 +51110,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>ABS(C98-$A98)&lt;=15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R223">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50919,30 +51132,30 @@
         <v>43</v>
       </c>
       <c r="B1" s="33"/>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
       <c r="Y1" t="s">
         <v>39</v>
       </c>
